--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -654,13 +654,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T2" t="n">
-        <v>48738.85714285714</v>
+        <v>56861.99999999999</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>8123.142857142857</v>
       </c>
       <c r="W2" t="n">
         <v>8123.142857142857</v>
@@ -756,13 +756,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T3" t="n">
-        <v>19074</v>
+        <v>22253</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3179</v>
       </c>
       <c r="W3" t="n">
         <v>3179</v>
@@ -858,13 +858,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T4" t="n">
-        <v>9265.714285714284</v>
+        <v>10810</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1544.285714285714</v>
       </c>
       <c r="W4" t="n">
         <v>1544.285714285714</v>
@@ -960,13 +960,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T5" t="n">
-        <v>18412.28571428571</v>
+        <v>21481</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>3068.714285714285</v>
       </c>
       <c r="W5" t="n">
         <v>3068.714285714285</v>
@@ -1062,13 +1062,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T6" t="n">
-        <v>9988.285714285714</v>
+        <v>11653</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1664.714285714286</v>
       </c>
       <c r="W6" t="n">
         <v>1664.714285714286</v>
@@ -1164,13 +1164,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T7" t="n">
-        <v>27558</v>
+        <v>32151</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4593</v>
       </c>
       <c r="W7" t="n">
         <v>4593</v>
@@ -1266,13 +1266,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T8" t="n">
-        <v>21060</v>
+        <v>24570</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>3510</v>
       </c>
       <c r="W8" t="n">
         <v>3510</v>
@@ -1358,13 +1358,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T9" t="n">
-        <v>41018.57142857143</v>
+        <v>47855</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>6836.428571428571</v>
       </c>
       <c r="W9" t="n">
         <v>6836.428571428571</v>
@@ -1452,13 +1452,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T10" t="n">
-        <v>21282.85714285714</v>
+        <v>24829.99999999999</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3547.142857142857</v>
       </c>
       <c r="W10" t="n">
         <v>3547.142857142857</v>
@@ -1546,13 +1546,13 @@
         <v>0.2</v>
       </c>
       <c r="T11" t="n">
-        <v>126196.8</v>
+        <v>147229.6</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>21032.8</v>
       </c>
       <c r="W11" t="n">
         <v>21032.8</v>
@@ -1640,13 +1640,13 @@
         <v>0.2</v>
       </c>
       <c r="T12" t="n">
-        <v>66000</v>
+        <v>77000</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="W12" t="n">
         <v>11000</v>
@@ -1732,13 +1732,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T13" t="n">
-        <v>43628.57142857143</v>
+        <v>50900</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>7271.428571428571</v>
       </c>
       <c r="W13" t="n">
         <v>7271.428571428571</v>
@@ -1834,13 +1834,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T14" t="n">
-        <v>48771.42857142857</v>
+        <v>56900</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8128.571428571428</v>
       </c>
       <c r="W14" t="n">
         <v>8128.571428571428</v>
@@ -1936,13 +1936,13 @@
         <v>0.1</v>
       </c>
       <c r="T15" t="n">
-        <v>23040</v>
+        <v>26880</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="W15" t="n">
         <v>3840</v>
@@ -2038,13 +2038,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T16" t="n">
-        <v>14485.71428571428</v>
+        <v>16900</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2414.285714285714</v>
       </c>
       <c r="W16" t="n">
         <v>2414.285714285714</v>
@@ -2132,13 +2132,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T17" t="n">
-        <v>16714.28571428571</v>
+        <v>19500</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2785.714285714286</v>
       </c>
       <c r="W17" t="n">
         <v>2785.714285714286</v>
@@ -2238,13 +2238,13 @@
         <v>0.1</v>
       </c>
       <c r="T18" t="n">
-        <v>18087.474</v>
+        <v>21102.053</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>3014.579</v>
       </c>
       <c r="W18" t="n">
         <v>3014.579</v>
@@ -2344,13 +2344,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T19" t="n">
-        <v>16200</v>
+        <v>18900</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="W19" t="n">
         <v>2700</v>
@@ -2450,13 +2450,13 @@
         <v>0.1</v>
       </c>
       <c r="T20" t="n">
-        <v>8100</v>
+        <v>9450</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="W20" t="n">
         <v>1350</v>
@@ -2548,13 +2548,13 @@
         <v>0.1</v>
       </c>
       <c r="T21" t="n">
-        <v>18270</v>
+        <v>21315</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>3045</v>
       </c>
       <c r="W21" t="n">
         <v>3045</v>
@@ -2640,13 +2640,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T22" t="n">
-        <v>3685.714285714285</v>
+        <v>4300</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>614.2857142857142</v>
       </c>
       <c r="W22" t="n">
         <v>614.2857142857142</v>
@@ -2734,13 +2734,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T23" t="n">
-        <v>24246.85714285714</v>
+        <v>28287.99999999999</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>4041.142857142857</v>
       </c>
       <c r="W23" t="n">
         <v>4041.142857142857</v>
@@ -2828,13 +2828,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T24" t="n">
-        <v>17313.42857142857</v>
+        <v>20199</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2885.571428571428</v>
       </c>
       <c r="W24" t="n">
         <v>2885.571428571428</v>
@@ -2926,13 +2926,13 @@
         <v>0.1</v>
       </c>
       <c r="T25" t="n">
-        <v>33063.6</v>
+        <v>38574.2</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>5510.6</v>
       </c>
       <c r="W25" t="n">
         <v>5510.6</v>
@@ -3024,13 +3024,13 @@
         <v>0.1</v>
       </c>
       <c r="T26" t="n">
-        <v>7020</v>
+        <v>8190</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="W26" t="n">
         <v>1170</v>
@@ -3122,13 +3122,13 @@
         <v>0.1</v>
       </c>
       <c r="T27" t="n">
-        <v>15552</v>
+        <v>18144</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2592</v>
       </c>
       <c r="W27" t="n">
         <v>2592</v>
@@ -3220,13 +3220,13 @@
         <v>0.1</v>
       </c>
       <c r="T28" t="n">
-        <v>153216</v>
+        <v>178752</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>25536</v>
       </c>
       <c r="W28" t="n">
         <v>25536</v>
@@ -3326,13 +3326,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T29" t="n">
-        <v>48257.14285714286</v>
+        <v>56300</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>8042.857142857142</v>
       </c>
       <c r="W29" t="n">
         <v>8042.857142857142</v>
@@ -3428,13 +3428,13 @@
         <v>0.1</v>
       </c>
       <c r="T30" t="n">
-        <v>144000</v>
+        <v>168000</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="W30" t="n">
         <v>24000</v>
@@ -3530,13 +3530,13 @@
         <v>0.1</v>
       </c>
       <c r="T31" t="n">
-        <v>28800</v>
+        <v>33600</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="W31" t="n">
         <v>4800</v>
@@ -3628,13 +3628,13 @@
         <v>0.1</v>
       </c>
       <c r="T32" t="n">
-        <v>17280</v>
+        <v>20160</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="W32" t="n">
         <v>2880</v>
@@ -3724,13 +3724,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T33" t="n">
-        <v>310800</v>
+        <v>362600</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>51800</v>
       </c>
       <c r="W33" t="n">
         <v>51800</v>
@@ -3820,13 +3820,13 @@
         <v>0.1</v>
       </c>
       <c r="T34" t="n">
-        <v>8025</v>
+        <v>9362.5</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1337.5</v>
       </c>
       <c r="W34" t="n">
         <v>1337.5</v>
@@ -3918,13 +3918,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T35" t="n">
-        <v>10542.85714285714</v>
+        <v>12300</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1757.142857142857</v>
       </c>
       <c r="W35" t="n">
         <v>1757.142857142857</v>
@@ -4020,13 +4020,13 @@
         <v>0.1</v>
       </c>
       <c r="T36" t="n">
-        <v>58380</v>
+        <v>68110</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>9730</v>
       </c>
       <c r="W36" t="n">
         <v>9730</v>
@@ -4114,13 +4114,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T37" t="n">
-        <v>46088.57142857143</v>
+        <v>53770</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>7681.428571428571</v>
       </c>
       <c r="W37" t="n">
         <v>7681.428571428571</v>
@@ -4220,13 +4220,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T38" t="n">
-        <v>91285.71428571428</v>
+        <v>106500</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>15214.28571428571</v>
       </c>
       <c r="W38" t="n">
         <v>15214.28571428571</v>
@@ -4322,13 +4322,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T39" t="n">
-        <v>168000</v>
+        <v>196000</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="W39" t="n">
         <v>28000</v>
@@ -4424,13 +4424,13 @@
         <v>0.1</v>
       </c>
       <c r="T40" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="W40" t="n">
         <v>1500</v>
@@ -4526,13 +4526,13 @@
         <v>0.1</v>
       </c>
       <c r="T41" t="n">
-        <v>3825</v>
+        <v>4462.5</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>637.5</v>
       </c>
       <c r="W41" t="n">
         <v>637.5</v>
@@ -4620,13 +4620,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T42" t="n">
-        <v>14064</v>
+        <v>16408</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>2344</v>
       </c>
       <c r="W42" t="n">
         <v>2344</v>
@@ -4722,13 +4722,13 @@
         <v>0.1</v>
       </c>
       <c r="T43" t="n">
-        <v>7740</v>
+        <v>9030</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="W43" t="n">
         <v>1290</v>
@@ -4824,13 +4824,13 @@
         <v>0.1</v>
       </c>
       <c r="T44" t="n">
-        <v>7034.016000000001</v>
+        <v>8206.352000000001</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1172.336</v>
       </c>
       <c r="W44" t="n">
         <v>1172.336</v>
@@ -4922,13 +4922,13 @@
         <v>0.1</v>
       </c>
       <c r="T45" t="n">
-        <v>1758.504</v>
+        <v>2051.588</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>293.084</v>
       </c>
       <c r="W45" t="n">
         <v>293.084</v>
@@ -5016,13 +5016,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T46" t="n">
-        <v>8914.285714285714</v>
+        <v>10400</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1485.714285714286</v>
       </c>
       <c r="W46" t="n">
         <v>1485.714285714286</v>
@@ -5108,13 +5108,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T47" t="n">
-        <v>68785.71428571428</v>
+        <v>80249.99999999999</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>11464.28571428571</v>
       </c>
       <c r="W47" t="n">
         <v>11464.28571428571</v>
@@ -5214,13 +5214,13 @@
         <v>0.1</v>
       </c>
       <c r="T48" t="n">
-        <v>28929</v>
+        <v>33750.5</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>4821.5</v>
       </c>
       <c r="W48" t="n">
         <v>4821.5</v>
@@ -5320,13 +5320,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T49" t="n">
-        <v>46392</v>
+        <v>54124</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>7732</v>
       </c>
       <c r="W49" t="n">
         <v>7732</v>
@@ -5426,13 +5426,13 @@
         <v>0.1</v>
       </c>
       <c r="T50" t="n">
-        <v>58344</v>
+        <v>68068</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>9724</v>
       </c>
       <c r="W50" t="n">
         <v>9724</v>
@@ -5528,13 +5528,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T51" t="n">
-        <v>143142.8571428571</v>
+        <v>167000</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>23857.14285714286</v>
       </c>
       <c r="W51" t="n">
         <v>23857.14285714286</v>
@@ -5634,13 +5634,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T52" t="n">
-        <v>330042.8571428571</v>
+        <v>385049.9999999999</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>55007.14285714286</v>
       </c>
       <c r="W52" t="n">
         <v>55007.14285714286</v>
@@ -5736,13 +5736,13 @@
         <v>0.1</v>
       </c>
       <c r="T53" t="n">
-        <v>71940</v>
+        <v>83930</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>11990</v>
       </c>
       <c r="W53" t="n">
         <v>11990</v>
@@ -5838,13 +5838,13 @@
         <v>0.1</v>
       </c>
       <c r="T54" t="n">
-        <v>34212.6</v>
+        <v>39914.7</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>5702.1</v>
       </c>
       <c r="W54" t="n">
         <v>5702.1</v>
@@ -5940,13 +5940,13 @@
         <v>0.1</v>
       </c>
       <c r="T55" t="n">
-        <v>8273.879999999999</v>
+        <v>9652.859999999999</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>1378.98</v>
       </c>
       <c r="W55" t="n">
         <v>1378.98</v>
@@ -6042,13 +6042,13 @@
         <v>0.1</v>
       </c>
       <c r="T56" t="n">
-        <v>3930</v>
+        <v>4585</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="W56" t="n">
         <v>655</v>
@@ -6148,13 +6148,13 @@
         <v>0.1</v>
       </c>
       <c r="T57" t="n">
-        <v>16427.4</v>
+        <v>19165.3</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>2737.9</v>
       </c>
       <c r="W57" t="n">
         <v>2737.9</v>
@@ -6250,13 +6250,13 @@
         <v>0.1</v>
       </c>
       <c r="T58" t="n">
-        <v>34440</v>
+        <v>40180</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="W58" t="n">
         <v>5740</v>
@@ -6352,13 +6352,13 @@
         <v>0.1</v>
       </c>
       <c r="T59" t="n">
-        <v>21732</v>
+        <v>25354</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>3622</v>
       </c>
       <c r="W59" t="n">
         <v>3622</v>
@@ -6454,13 +6454,13 @@
         <v>0.1</v>
       </c>
       <c r="T60" t="n">
-        <v>60625.2</v>
+        <v>70729.39999999999</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>10104.2</v>
       </c>
       <c r="W60" t="n">
         <v>10104.2</v>
@@ -6548,13 +6548,13 @@
         <v>0.2</v>
       </c>
       <c r="T61" t="n">
-        <v>99840</v>
+        <v>116480</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>16640</v>
       </c>
       <c r="W61" t="n">
         <v>16640</v>
@@ -6642,13 +6642,13 @@
         <v>0.2</v>
       </c>
       <c r="T62" t="n">
-        <v>175320</v>
+        <v>204540</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>29220</v>
       </c>
       <c r="W62" t="n">
         <v>29220</v>
@@ -6744,13 +6744,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T63" t="n">
-        <v>15744</v>
+        <v>18368</v>
       </c>
       <c r="U63" t="n">
         <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>2624</v>
       </c>
       <c r="W63" t="n">
         <v>2624</v>
@@ -6842,13 +6842,13 @@
         <v>0.1</v>
       </c>
       <c r="T64" t="n">
-        <v>10243.284</v>
+        <v>11950.498</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>1707.214</v>
       </c>
       <c r="W64" t="n">
         <v>1707.214</v>
@@ -6948,13 +6948,13 @@
         <v>0.1</v>
       </c>
       <c r="T65" t="n">
-        <v>54000</v>
+        <v>63000</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="W65" t="n">
         <v>9000</v>
@@ -7050,13 +7050,13 @@
         <v>0.2</v>
       </c>
       <c r="T66" t="n">
-        <v>237120</v>
+        <v>276640</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>39520</v>
       </c>
       <c r="W66" t="n">
         <v>39520</v>
@@ -7144,13 +7144,13 @@
         <v>0.2</v>
       </c>
       <c r="T67" t="n">
-        <v>69240</v>
+        <v>80780</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>11540</v>
       </c>
       <c r="W67" t="n">
         <v>11540</v>
@@ -7242,13 +7242,13 @@
         <v>0.1</v>
       </c>
       <c r="T68" t="n">
-        <v>33000</v>
+        <v>38500</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="W68" t="n">
         <v>5500</v>
@@ -7340,13 +7340,13 @@
         <v>0.1</v>
       </c>
       <c r="T69" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="W69" t="n">
         <v>2500</v>
@@ -7442,13 +7442,13 @@
         <v>0.1</v>
       </c>
       <c r="T70" t="n">
-        <v>28188</v>
+        <v>32886</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>4698</v>
       </c>
       <c r="W70" t="n">
         <v>4698</v>
@@ -7540,13 +7540,13 @@
         <v>0.1</v>
       </c>
       <c r="T71" t="n">
-        <v>4398</v>
+        <v>5131</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="W71" t="n">
         <v>733</v>
@@ -7634,13 +7634,13 @@
         <v>0.2</v>
       </c>
       <c r="T72" t="n">
-        <v>55200</v>
+        <v>64400</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="W72" t="n">
         <v>9200</v>
@@ -7736,13 +7736,13 @@
         <v>0.1</v>
       </c>
       <c r="T73" t="n">
-        <v>5700</v>
+        <v>6650</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="W73" t="n">
         <v>950</v>
@@ -7834,13 +7834,13 @@
         <v>0.1</v>
       </c>
       <c r="T74" t="n">
-        <v>10080</v>
+        <v>11760</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="W74" t="n">
         <v>1680</v>
@@ -7936,13 +7936,13 @@
         <v>0.1</v>
       </c>
       <c r="T75" t="n">
-        <v>7650</v>
+        <v>8925</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="W75" t="n">
         <v>1275</v>
@@ -8038,13 +8038,13 @@
         <v>0.1</v>
       </c>
       <c r="T76" t="n">
-        <v>18900</v>
+        <v>22050</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>3150</v>
       </c>
       <c r="W76" t="n">
         <v>3150</v>
@@ -8134,13 +8134,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T77" t="n">
-        <v>17710.28571428571</v>
+        <v>20662</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>2951.714285714285</v>
       </c>
       <c r="W77" t="n">
         <v>2951.714285714285</v>
@@ -8236,13 +8236,13 @@
         <v>0.1</v>
       </c>
       <c r="T78" t="n">
-        <v>10177.8</v>
+        <v>11874.1</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>1696.3</v>
       </c>
       <c r="W78" t="n">
         <v>1696.3</v>
@@ -8334,13 +8334,13 @@
         <v>0.1</v>
       </c>
       <c r="T79" t="n">
-        <v>7200</v>
+        <v>8400</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="W79" t="n">
         <v>1200</v>
@@ -8428,13 +8428,13 @@
         <v>0.1</v>
       </c>
       <c r="T80" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="U80" t="n">
         <v>0</v>
       </c>
       <c r="V80" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W80" t="n">
         <v>500</v>
@@ -8530,13 +8530,13 @@
         <v>0.2</v>
       </c>
       <c r="T81" t="n">
-        <v>76398</v>
+        <v>89131</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>0</v>
+        <v>12733</v>
       </c>
       <c r="W81" t="n">
         <v>12733</v>
@@ -8628,13 +8628,13 @@
         <v>0.2</v>
       </c>
       <c r="T82" t="n">
-        <v>4494</v>
+        <v>5243</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="W82" t="n">
         <v>749</v>
@@ -8730,13 +8730,13 @@
         <v>0.2</v>
       </c>
       <c r="T83" t="n">
-        <v>22470</v>
+        <v>26215</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>0</v>
+        <v>3745</v>
       </c>
       <c r="W83" t="n">
         <v>3745</v>
@@ -8832,13 +8832,13 @@
         <v>0.2</v>
       </c>
       <c r="T84" t="n">
-        <v>34668</v>
+        <v>40446</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>5778</v>
       </c>
       <c r="W84" t="n">
         <v>5778</v>
@@ -8926,13 +8926,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T85" t="n">
-        <v>33754.28571428571</v>
+        <v>39379.99999999999</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>5625.714285714285</v>
       </c>
       <c r="W85" t="n">
         <v>5625.714285714285</v>
@@ -9028,13 +9028,13 @@
         <v>0.2</v>
       </c>
       <c r="T86" t="n">
-        <v>18232.8</v>
+        <v>21271.6</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>3038.8</v>
       </c>
       <c r="W86" t="n">
         <v>3038.8</v>
@@ -9130,13 +9130,13 @@
         <v>0.2</v>
       </c>
       <c r="T87" t="n">
-        <v>6420</v>
+        <v>7490</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="W87" t="n">
         <v>1070</v>
@@ -9224,13 +9224,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T88" t="n">
-        <v>53571.42857142857</v>
+        <v>62499.99999999999</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>8928.571428571428</v>
       </c>
       <c r="W88" t="n">
         <v>8928.571428571428</v>
@@ -9318,13 +9318,13 @@
         <v>0.2</v>
       </c>
       <c r="T89" t="n">
-        <v>14766</v>
+        <v>17227</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>2461</v>
       </c>
       <c r="W89" t="n">
         <v>2461</v>
@@ -9420,13 +9420,13 @@
         <v>0.2</v>
       </c>
       <c r="T90" t="n">
-        <v>206467.2</v>
+        <v>240878.4000000001</v>
       </c>
       <c r="U90" t="n">
         <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>0</v>
+        <v>34411.2</v>
       </c>
       <c r="W90" t="n">
         <v>34411.2</v>
@@ -9518,13 +9518,13 @@
         <v>0.2</v>
       </c>
       <c r="T91" t="n">
-        <v>6676.8</v>
+        <v>7789.6</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>1112.8</v>
       </c>
       <c r="W91" t="n">
         <v>1112.8</v>
@@ -9620,13 +9620,13 @@
         <v>0.1</v>
       </c>
       <c r="T92" t="n">
-        <v>186700.8</v>
+        <v>217817.6</v>
       </c>
       <c r="U92" t="n">
         <v>0</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>31116.8</v>
       </c>
       <c r="W92" t="n">
         <v>31116.8</v>
@@ -9722,13 +9722,13 @@
         <v>0.1</v>
       </c>
       <c r="T93" t="n">
-        <v>36288</v>
+        <v>42336</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>6048</v>
       </c>
       <c r="W93" t="n">
         <v>6048</v>
@@ -9824,13 +9824,13 @@
         <v>0.1</v>
       </c>
       <c r="T94" t="n">
-        <v>8400</v>
+        <v>9800</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="W94" t="n">
         <v>1400</v>
@@ -9930,13 +9930,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T95" t="n">
-        <v>289344</v>
+        <v>337568</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
       </c>
       <c r="V95" t="n">
-        <v>0</v>
+        <v>48224</v>
       </c>
       <c r="W95" t="n">
         <v>48224</v>
@@ -10026,13 +10026,13 @@
         <v>0.1</v>
       </c>
       <c r="T96" t="n">
-        <v>21000</v>
+        <v>24500</v>
       </c>
       <c r="U96" t="n">
         <v>0</v>
       </c>
       <c r="V96" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="W96" t="n">
         <v>3500</v>
@@ -10120,13 +10120,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T97" t="n">
-        <v>31457.14285714285</v>
+        <v>36699.99999999999</v>
       </c>
       <c r="U97" t="n">
         <v>0</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>5242.857142857142</v>
       </c>
       <c r="W97" t="n">
         <v>5242.857142857142</v>
@@ -10220,13 +10220,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T98" t="n">
-        <v>183545.1428571428</v>
+        <v>214136</v>
       </c>
       <c r="U98" t="n">
         <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>30590.85714285714</v>
       </c>
       <c r="W98" t="n">
         <v>30590.85714285714</v>
@@ -10322,13 +10322,13 @@
         <v>0.1</v>
       </c>
       <c r="T99" t="n">
-        <v>5565879</v>
+        <v>6493525.5</v>
       </c>
       <c r="U99" t="n">
         <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>927646.5</v>
       </c>
       <c r="W99" t="n">
         <v>927646.5</v>
@@ -10424,13 +10424,13 @@
         <v>0.1</v>
       </c>
       <c r="T100" t="n">
-        <v>5428140</v>
+        <v>6332830</v>
       </c>
       <c r="U100" t="n">
         <v>0</v>
       </c>
       <c r="V100" t="n">
-        <v>0</v>
+        <v>904690</v>
       </c>
       <c r="W100" t="n">
         <v>904690</v>
@@ -10518,13 +10518,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T101" t="n">
-        <v>36686.57142857143</v>
+        <v>42801</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
       </c>
       <c r="V101" t="n">
-        <v>0</v>
+        <v>6114.428571428571</v>
       </c>
       <c r="W101" t="n">
         <v>6114.428571428571</v>
@@ -10612,13 +10612,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T102" t="n">
-        <v>17228.57142857143</v>
+        <v>20100</v>
       </c>
       <c r="U102" t="n">
         <v>0</v>
       </c>
       <c r="V102" t="n">
-        <v>0</v>
+        <v>2871.428571428571</v>
       </c>
       <c r="W102" t="n">
         <v>2871.428571428571</v>
@@ -10706,13 +10706,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T103" t="n">
-        <v>3702.857142857142</v>
+        <v>4319.999999999999</v>
       </c>
       <c r="U103" t="n">
         <v>0</v>
       </c>
       <c r="V103" t="n">
-        <v>0</v>
+        <v>617.1428571428571</v>
       </c>
       <c r="W103" t="n">
         <v>617.1428571428571</v>
@@ -10812,13 +10812,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T104" t="n">
-        <v>159757.7142857143</v>
+        <v>186384</v>
       </c>
       <c r="U104" t="n">
         <v>0</v>
       </c>
       <c r="V104" t="n">
-        <v>0</v>
+        <v>26626.28571428571</v>
       </c>
       <c r="W104" t="n">
         <v>26626.28571428571</v>
@@ -10904,13 +10904,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T105" t="n">
-        <v>8485.714285714284</v>
+        <v>9899.999999999998</v>
       </c>
       <c r="U105" t="n">
         <v>0</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>1414.285714285714</v>
       </c>
       <c r="W105" t="n">
         <v>1414.285714285714</v>
@@ -11006,13 +11006,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T106" t="n">
-        <v>49542.85714285714</v>
+        <v>57799.99999999999</v>
       </c>
       <c r="U106" t="n">
         <v>0</v>
       </c>
       <c r="V106" t="n">
-        <v>0</v>
+        <v>8257.142857142857</v>
       </c>
       <c r="W106" t="n">
         <v>8257.142857142857</v>
@@ -11112,13 +11112,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T107" t="n">
-        <v>320635.7142857142</v>
+        <v>374074.9999999999</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
       </c>
       <c r="V107" t="n">
-        <v>0</v>
+        <v>53439.28571428571</v>
       </c>
       <c r="W107" t="n">
         <v>53439.28571428571</v>
@@ -11214,13 +11214,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T108" t="n">
-        <v>156803.1428571428</v>
+        <v>182937</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
       </c>
       <c r="V108" t="n">
-        <v>0</v>
+        <v>26133.85714285714</v>
       </c>
       <c r="W108" t="n">
         <v>26133.85714285714</v>
@@ -11316,13 +11316,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T109" t="n">
-        <v>7839.428571428571</v>
+        <v>9146</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
       </c>
       <c r="V109" t="n">
-        <v>0</v>
+        <v>1306.571428571428</v>
       </c>
       <c r="W109" t="n">
         <v>1306.571428571428</v>
@@ -11410,13 +11410,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T110" t="n">
-        <v>62365.71428571428</v>
+        <v>72759.99999999999</v>
       </c>
       <c r="U110" t="n">
         <v>0</v>
       </c>
       <c r="V110" t="n">
-        <v>0</v>
+        <v>10394.28571428571</v>
       </c>
       <c r="W110" t="n">
         <v>10394.28571428571</v>
@@ -11516,13 +11516,13 @@
         <v>0.1</v>
       </c>
       <c r="T111" t="n">
-        <v>41068.8</v>
+        <v>47913.60000000001</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
       </c>
       <c r="V111" t="n">
-        <v>0</v>
+        <v>6844.8</v>
       </c>
       <c r="W111" t="n">
         <v>6844.8</v>
@@ -11618,13 +11618,13 @@
         <v>0.1</v>
       </c>
       <c r="T112" t="n">
-        <v>21546</v>
+        <v>25137</v>
       </c>
       <c r="U112" t="n">
         <v>0</v>
       </c>
       <c r="V112" t="n">
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="W112" t="n">
         <v>3591</v>
@@ -11724,13 +11724,13 @@
         <v>0.1</v>
       </c>
       <c r="T113" t="n">
-        <v>13500</v>
+        <v>15750</v>
       </c>
       <c r="U113" t="n">
         <v>0</v>
       </c>
       <c r="V113" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="W113" t="n">
         <v>2250</v>
@@ -11826,13 +11826,13 @@
         <v>0.1</v>
       </c>
       <c r="T114" t="n">
-        <v>58800</v>
+        <v>68600</v>
       </c>
       <c r="U114" t="n">
         <v>0</v>
       </c>
       <c r="V114" t="n">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="W114" t="n">
         <v>9800</v>
@@ -11924,13 +11924,13 @@
         <v>0.1</v>
       </c>
       <c r="T115" t="n">
-        <v>176400</v>
+        <v>205800</v>
       </c>
       <c r="U115" t="n">
         <v>0</v>
       </c>
       <c r="V115" t="n">
-        <v>0</v>
+        <v>29400</v>
       </c>
       <c r="W115" t="n">
         <v>29400</v>
@@ -12022,13 +12022,13 @@
         <v>0.1</v>
       </c>
       <c r="T116" t="n">
-        <v>8400</v>
+        <v>9800</v>
       </c>
       <c r="U116" t="n">
         <v>0</v>
       </c>
       <c r="V116" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="W116" t="n">
         <v>1400</v>
@@ -12124,13 +12124,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T117" t="n">
-        <v>44519.14285714286</v>
+        <v>51939</v>
       </c>
       <c r="U117" t="n">
         <v>0</v>
       </c>
       <c r="V117" t="n">
-        <v>0</v>
+        <v>7419.857142857142</v>
       </c>
       <c r="W117" t="n">
         <v>7419.857142857142</v>
@@ -12226,13 +12226,13 @@
         <v>0.1</v>
       </c>
       <c r="T118" t="n">
-        <v>29322</v>
+        <v>34209</v>
       </c>
       <c r="U118" t="n">
         <v>0</v>
       </c>
       <c r="V118" t="n">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="W118" t="n">
         <v>4887</v>
@@ -12324,13 +12324,13 @@
         <v>0.1</v>
       </c>
       <c r="T119" t="n">
-        <v>13512</v>
+        <v>15764</v>
       </c>
       <c r="U119" t="n">
         <v>0</v>
       </c>
       <c r="V119" t="n">
-        <v>0</v>
+        <v>2252</v>
       </c>
       <c r="W119" t="n">
         <v>2252</v>
@@ -12426,13 +12426,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T120" t="n">
-        <v>21342.85714285714</v>
+        <v>24899.99999999999</v>
       </c>
       <c r="U120" t="n">
         <v>0</v>
       </c>
       <c r="V120" t="n">
-        <v>0</v>
+        <v>3557.142857142857</v>
       </c>
       <c r="W120" t="n">
         <v>3557.142857142857</v>
@@ -12528,13 +12528,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T121" t="n">
-        <v>41558.57142857143</v>
+        <v>48485</v>
       </c>
       <c r="U121" t="n">
         <v>0</v>
       </c>
       <c r="V121" t="n">
-        <v>0</v>
+        <v>6926.428571428571</v>
       </c>
       <c r="W121" t="n">
         <v>6926.428571428571</v>
@@ -12626,13 +12626,13 @@
         <v>0.1</v>
       </c>
       <c r="T122" t="n">
-        <v>19903.2</v>
+        <v>23220.4</v>
       </c>
       <c r="U122" t="n">
         <v>0</v>
       </c>
       <c r="V122" t="n">
-        <v>0</v>
+        <v>3317.2</v>
       </c>
       <c r="W122" t="n">
         <v>3317.2</v>
@@ -12728,13 +12728,13 @@
         <v>0.2</v>
       </c>
       <c r="T123" t="n">
-        <v>105247.404</v>
+        <v>122788.638</v>
       </c>
       <c r="U123" t="n">
         <v>0</v>
       </c>
       <c r="V123" t="n">
-        <v>0</v>
+        <v>17541.234</v>
       </c>
       <c r="W123" t="n">
         <v>17541.234</v>
@@ -12830,13 +12830,13 @@
         <v>0.2</v>
       </c>
       <c r="T124" t="n">
-        <v>127336.368</v>
+        <v>148559.096</v>
       </c>
       <c r="U124" t="n">
         <v>0</v>
       </c>
       <c r="V124" t="n">
-        <v>0</v>
+        <v>21222.728</v>
       </c>
       <c r="W124" t="n">
         <v>21222.728</v>
@@ -12932,13 +12932,13 @@
         <v>0.2</v>
       </c>
       <c r="T125" t="n">
-        <v>53273.376</v>
+        <v>62152.272</v>
       </c>
       <c r="U125" t="n">
         <v>0</v>
       </c>
       <c r="V125" t="n">
-        <v>0</v>
+        <v>8878.896000000001</v>
       </c>
       <c r="W125" t="n">
         <v>8878.896000000001</v>
@@ -13026,13 +13026,13 @@
         <v>0.2</v>
       </c>
       <c r="T126" t="n">
-        <v>8705.652</v>
+        <v>10156.594</v>
       </c>
       <c r="U126" t="n">
         <v>0</v>
       </c>
       <c r="V126" t="n">
-        <v>0</v>
+        <v>1450.942</v>
       </c>
       <c r="W126" t="n">
         <v>1450.942</v>
@@ -13128,13 +13128,13 @@
         <v>0.1</v>
       </c>
       <c r="T127" t="n">
-        <v>17400</v>
+        <v>20300</v>
       </c>
       <c r="U127" t="n">
         <v>0</v>
       </c>
       <c r="V127" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="W127" t="n">
         <v>2900</v>
@@ -13226,13 +13226,13 @@
         <v>0.1</v>
       </c>
       <c r="T128" t="n">
-        <v>70200</v>
+        <v>81900</v>
       </c>
       <c r="U128" t="n">
         <v>0</v>
       </c>
       <c r="V128" t="n">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="W128" t="n">
         <v>11700</v>
@@ -13324,13 +13324,13 @@
         <v>0.1</v>
       </c>
       <c r="T129" t="n">
-        <v>10500</v>
+        <v>12250</v>
       </c>
       <c r="U129" t="n">
         <v>0</v>
       </c>
       <c r="V129" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="W129" t="n">
         <v>1750</v>
@@ -13422,13 +13422,13 @@
         <v>0.2</v>
       </c>
       <c r="T130" t="n">
-        <v>24530.4</v>
+        <v>28618.8</v>
       </c>
       <c r="U130" t="n">
         <v>0</v>
       </c>
       <c r="V130" t="n">
-        <v>0</v>
+        <v>4088.4</v>
       </c>
       <c r="W130" t="n">
         <v>4088.4</v>
@@ -13524,13 +13524,13 @@
         <v>0.2</v>
       </c>
       <c r="T131" t="n">
-        <v>67624.8</v>
+        <v>78895.60000000001</v>
       </c>
       <c r="U131" t="n">
         <v>0</v>
       </c>
       <c r="V131" t="n">
-        <v>0</v>
+        <v>11270.8</v>
       </c>
       <c r="W131" t="n">
         <v>11270.8</v>
@@ -13626,13 +13626,13 @@
         <v>0.2</v>
       </c>
       <c r="T132" t="n">
-        <v>50386.80000000001</v>
+        <v>58784.60000000001</v>
       </c>
       <c r="U132" t="n">
         <v>0</v>
       </c>
       <c r="V132" t="n">
-        <v>0</v>
+        <v>8397.800000000001</v>
       </c>
       <c r="W132" t="n">
         <v>8397.800000000001</v>
@@ -13724,13 +13724,13 @@
         <v>0.2</v>
       </c>
       <c r="T133" t="n">
-        <v>2386.8</v>
+        <v>2784.6</v>
       </c>
       <c r="U133" t="n">
         <v>0</v>
       </c>
       <c r="V133" t="n">
-        <v>0</v>
+        <v>397.8</v>
       </c>
       <c r="W133" t="n">
         <v>397.8</v>
@@ -13826,13 +13826,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T134" t="n">
-        <v>7778.571428571428</v>
+        <v>9075</v>
       </c>
       <c r="U134" t="n">
         <v>0</v>
       </c>
       <c r="V134" t="n">
-        <v>0</v>
+        <v>1296.428571428571</v>
       </c>
       <c r="W134" t="n">
         <v>1296.428571428571</v>
@@ -13928,13 +13928,13 @@
         <v>0.2</v>
       </c>
       <c r="T135" t="n">
-        <v>97680</v>
+        <v>113960</v>
       </c>
       <c r="U135" t="n">
         <v>0</v>
       </c>
       <c r="V135" t="n">
-        <v>0</v>
+        <v>16280</v>
       </c>
       <c r="W135" t="n">
         <v>16280</v>
@@ -14030,13 +14030,13 @@
         <v>0.2</v>
       </c>
       <c r="T136" t="n">
-        <v>28776</v>
+        <v>33572</v>
       </c>
       <c r="U136" t="n">
         <v>0</v>
       </c>
       <c r="V136" t="n">
-        <v>0</v>
+        <v>4796</v>
       </c>
       <c r="W136" t="n">
         <v>4796</v>
@@ -14124,13 +14124,13 @@
         <v>0.2</v>
       </c>
       <c r="T137" t="n">
-        <v>11880</v>
+        <v>13860</v>
       </c>
       <c r="U137" t="n">
         <v>0</v>
       </c>
       <c r="V137" t="n">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="W137" t="n">
         <v>1980</v>
@@ -14226,13 +14226,13 @@
         <v>0.2</v>
       </c>
       <c r="T138" t="n">
-        <v>160002</v>
+        <v>186669</v>
       </c>
       <c r="U138" t="n">
         <v>0</v>
       </c>
       <c r="V138" t="n">
-        <v>0</v>
+        <v>26667</v>
       </c>
       <c r="W138" t="n">
         <v>26667</v>
@@ -14328,13 +14328,13 @@
         <v>0.1</v>
       </c>
       <c r="T139" t="n">
-        <v>10688.4</v>
+        <v>12469.8</v>
       </c>
       <c r="U139" t="n">
         <v>0</v>
       </c>
       <c r="V139" t="n">
-        <v>0</v>
+        <v>1781.4</v>
       </c>
       <c r="W139" t="n">
         <v>1781.4</v>
@@ -14430,13 +14430,13 @@
         <v>0.2</v>
       </c>
       <c r="T140" t="n">
-        <v>70939.2</v>
+        <v>82762.39999999999</v>
       </c>
       <c r="U140" t="n">
         <v>0</v>
       </c>
       <c r="V140" t="n">
-        <v>0</v>
+        <v>11823.2</v>
       </c>
       <c r="W140" t="n">
         <v>11823.2</v>
@@ -14528,13 +14528,13 @@
         <v>0.1</v>
       </c>
       <c r="T141" t="n">
-        <v>2700</v>
+        <v>3150</v>
       </c>
       <c r="U141" t="n">
         <v>0</v>
       </c>
       <c r="V141" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="W141" t="n">
         <v>450</v>
@@ -14626,13 +14626,13 @@
         <v>0.2</v>
       </c>
       <c r="T142" t="n">
-        <v>334806</v>
+        <v>390607</v>
       </c>
       <c r="U142" t="n">
         <v>0</v>
       </c>
       <c r="V142" t="n">
-        <v>0</v>
+        <v>55801</v>
       </c>
       <c r="W142" t="n">
         <v>55801</v>
@@ -14728,13 +14728,13 @@
         <v>0.2</v>
       </c>
       <c r="T143" t="n">
-        <v>156464.4</v>
+        <v>182541.8</v>
       </c>
       <c r="U143" t="n">
         <v>0</v>
       </c>
       <c r="V143" t="n">
-        <v>0</v>
+        <v>26077.4</v>
       </c>
       <c r="W143" t="n">
         <v>26077.4</v>
@@ -14830,13 +14830,13 @@
         <v>0.1</v>
       </c>
       <c r="T144" t="n">
-        <v>1977900</v>
+        <v>2307550</v>
       </c>
       <c r="U144" t="n">
         <v>0</v>
       </c>
       <c r="V144" t="n">
-        <v>0</v>
+        <v>329650</v>
       </c>
       <c r="W144" t="n">
         <v>329650</v>
@@ -14922,13 +14922,13 @@
         <v>0.1</v>
       </c>
       <c r="T145" t="n">
-        <v>18198.6</v>
+        <v>21231.7</v>
       </c>
       <c r="U145" t="n">
         <v>0</v>
       </c>
       <c r="V145" t="n">
-        <v>0</v>
+        <v>3033.1</v>
       </c>
       <c r="W145" t="n">
         <v>3033.1</v>
@@ -15020,13 +15020,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T146" t="n">
-        <v>138000</v>
+        <v>161000</v>
       </c>
       <c r="U146" t="n">
         <v>0</v>
       </c>
       <c r="V146" t="n">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="W146" t="n">
         <v>23000</v>
@@ -15122,13 +15122,13 @@
         <v>0.2</v>
       </c>
       <c r="T147" t="n">
-        <v>98547.62400000003</v>
+        <v>114972.228</v>
       </c>
       <c r="U147" t="n">
         <v>0</v>
       </c>
       <c r="V147" t="n">
-        <v>0</v>
+        <v>16424.604</v>
       </c>
       <c r="W147" t="n">
         <v>16424.604</v>
@@ -15224,13 +15224,13 @@
         <v>0.2</v>
       </c>
       <c r="T148" t="n">
-        <v>38882.736</v>
+        <v>45363.192</v>
       </c>
       <c r="U148" t="n">
         <v>0</v>
       </c>
       <c r="V148" t="n">
-        <v>0</v>
+        <v>6480.456</v>
       </c>
       <c r="W148" t="n">
         <v>6480.456</v>
@@ -15316,13 +15316,13 @@
         <v>0.1</v>
       </c>
       <c r="T149" t="n">
-        <v>12870</v>
+        <v>15015</v>
       </c>
       <c r="U149" t="n">
         <v>0</v>
       </c>
       <c r="V149" t="n">
-        <v>0</v>
+        <v>2145</v>
       </c>
       <c r="W149" t="n">
         <v>2145</v>
@@ -15418,13 +15418,13 @@
         <v>0.1</v>
       </c>
       <c r="T150" t="n">
-        <v>11691</v>
+        <v>13639.5</v>
       </c>
       <c r="U150" t="n">
         <v>0</v>
       </c>
       <c r="V150" t="n">
-        <v>0</v>
+        <v>1948.5</v>
       </c>
       <c r="W150" t="n">
         <v>1948.5</v>
@@ -15516,13 +15516,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T151" t="n">
-        <v>3857.142857142856</v>
+        <v>4499.999999999999</v>
       </c>
       <c r="U151" t="n">
         <v>0</v>
       </c>
       <c r="V151" t="n">
-        <v>0</v>
+        <v>642.8571428571428</v>
       </c>
       <c r="W151" t="n">
         <v>642.8571428571428</v>
@@ -15608,13 +15608,13 @@
         <v>0.05</v>
       </c>
       <c r="T152" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="U152" t="n">
         <v>0</v>
       </c>
       <c r="V152" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W152" t="n">
         <v>500</v>
@@ -15700,13 +15700,13 @@
         <v>0.05</v>
       </c>
       <c r="T153" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="U153" t="n">
         <v>0</v>
       </c>
       <c r="V153" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W153" t="n">
         <v>500</v>
@@ -15792,13 +15792,13 @@
         <v>0.05</v>
       </c>
       <c r="T154" t="n">
-        <v>23777.985</v>
+        <v>27740.9825</v>
       </c>
       <c r="U154" t="n">
         <v>0</v>
       </c>
       <c r="V154" t="n">
-        <v>0</v>
+        <v>3962.9975</v>
       </c>
       <c r="W154" t="n">
         <v>3962.9975</v>
@@ -15884,13 +15884,13 @@
         <v>0.05</v>
       </c>
       <c r="T155" t="n">
-        <v>7916.25</v>
+        <v>9235.625</v>
       </c>
       <c r="U155" t="n">
         <v>0</v>
       </c>
       <c r="V155" t="n">
-        <v>0</v>
+        <v>1319.375</v>
       </c>
       <c r="W155" t="n">
         <v>1319.375</v>
@@ -15976,13 +15976,13 @@
         <v>0.05</v>
       </c>
       <c r="T156" t="n">
-        <v>1193.775</v>
+        <v>1392.7375</v>
       </c>
       <c r="U156" t="n">
         <v>0</v>
       </c>
       <c r="V156" t="n">
-        <v>0</v>
+        <v>198.9625</v>
       </c>
       <c r="W156" t="n">
         <v>198.9625</v>
@@ -16068,13 +16068,13 @@
         <v>0.05</v>
       </c>
       <c r="T157" t="n">
-        <v>75000</v>
+        <v>87500</v>
       </c>
       <c r="U157" t="n">
         <v>0</v>
       </c>
       <c r="V157" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="W157" t="n">
         <v>12500</v>
@@ -16160,13 +16160,13 @@
         <v>0.05</v>
       </c>
       <c r="T158" t="n">
-        <v>11550</v>
+        <v>13475</v>
       </c>
       <c r="U158" t="n">
         <v>0</v>
       </c>
       <c r="V158" t="n">
-        <v>0</v>
+        <v>1925</v>
       </c>
       <c r="W158" t="n">
         <v>1925</v>
@@ -16252,13 +16252,13 @@
         <v>0.05</v>
       </c>
       <c r="T159" t="n">
-        <v>418.95</v>
+        <v>488.775</v>
       </c>
       <c r="U159" t="n">
         <v>0</v>
       </c>
       <c r="V159" t="n">
-        <v>0</v>
+        <v>69.825</v>
       </c>
       <c r="W159" t="n">
         <v>69.825</v>
@@ -16344,13 +16344,13 @@
         <v>0.05</v>
       </c>
       <c r="T160" t="n">
-        <v>37290</v>
+        <v>43505</v>
       </c>
       <c r="U160" t="n">
         <v>0</v>
       </c>
       <c r="V160" t="n">
-        <v>0</v>
+        <v>6215</v>
       </c>
       <c r="W160" t="n">
         <v>6215</v>
@@ -16436,13 +16436,13 @@
         <v>0.05</v>
       </c>
       <c r="T161" t="n">
-        <v>1642.5</v>
+        <v>1916.25</v>
       </c>
       <c r="U161" t="n">
         <v>0</v>
       </c>
       <c r="V161" t="n">
-        <v>0</v>
+        <v>273.75</v>
       </c>
       <c r="W161" t="n">
         <v>273.75</v>
@@ -16528,13 +16528,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T162" t="n">
-        <v>131544</v>
+        <v>153468</v>
       </c>
       <c r="U162" t="n">
         <v>0</v>
       </c>
       <c r="V162" t="n">
-        <v>0</v>
+        <v>21924</v>
       </c>
       <c r="W162" t="n">
         <v>21924</v>
@@ -16620,13 +16620,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T163" t="n">
-        <v>15260</v>
+        <v>17803.33333333334</v>
       </c>
       <c r="U163" t="n">
         <v>0</v>
       </c>
       <c r="V163" t="n">
-        <v>0</v>
+        <v>2543.333333333333</v>
       </c>
       <c r="W163" t="n">
         <v>2543.333333333333</v>
@@ -16712,13 +16712,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T164" t="n">
-        <v>14000</v>
+        <v>16333.33333333334</v>
       </c>
       <c r="U164" t="n">
         <v>0</v>
       </c>
       <c r="V164" t="n">
-        <v>0</v>
+        <v>2333.333333333333</v>
       </c>
       <c r="W164" t="n">
         <v>2333.333333333333</v>
@@ -16804,13 +16804,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T165" t="n">
-        <v>15260</v>
+        <v>17803.33333333334</v>
       </c>
       <c r="U165" t="n">
         <v>0</v>
       </c>
       <c r="V165" t="n">
-        <v>0</v>
+        <v>2543.333333333333</v>
       </c>
       <c r="W165" t="n">
         <v>2543.333333333333</v>
@@ -16896,13 +16896,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T166" t="n">
-        <v>475.9999999999999</v>
+        <v>555.3333333333333</v>
       </c>
       <c r="U166" t="n">
         <v>0</v>
       </c>
       <c r="V166" t="n">
-        <v>0</v>
+        <v>79.33333333333333</v>
       </c>
       <c r="W166" t="n">
         <v>79.33333333333333</v>
@@ -16988,13 +16988,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T167" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="U167" t="n">
         <v>0</v>
       </c>
       <c r="V167" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W167" t="n">
         <v>500</v>
@@ -17080,13 +17080,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T168" t="n">
-        <v>12402</v>
+        <v>14469</v>
       </c>
       <c r="U168" t="n">
         <v>0</v>
       </c>
       <c r="V168" t="n">
-        <v>0</v>
+        <v>2067</v>
       </c>
       <c r="W168" t="n">
         <v>2067</v>
@@ -17173,13 +17173,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T169" t="n">
-        <v>2800</v>
+        <v>3266.666666666667</v>
       </c>
       <c r="U169" t="n">
         <v>0</v>
       </c>
       <c r="V169" t="n">
-        <v>0</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="W169" t="n">
         <v>466.6666666666667</v>
@@ -17269,13 +17269,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T170" t="n">
-        <v>22000</v>
+        <v>25666.66666666667</v>
       </c>
       <c r="U170" t="n">
         <v>0</v>
       </c>
       <c r="V170" t="n">
-        <v>0</v>
+        <v>3666.666666666667</v>
       </c>
       <c r="W170" t="n">
         <v>3666.666666666667</v>
@@ -17361,13 +17361,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T171" t="n">
-        <v>53600.00000000001</v>
+        <v>62533.33333333334</v>
       </c>
       <c r="U171" t="n">
         <v>0</v>
       </c>
       <c r="V171" t="n">
-        <v>0</v>
+        <v>8933.333333333334</v>
       </c>
       <c r="W171" t="n">
         <v>8933.333333333334</v>
@@ -17457,13 +17457,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T172" t="n">
-        <v>17000</v>
+        <v>19833.33333333333</v>
       </c>
       <c r="U172" t="n">
         <v>0</v>
       </c>
       <c r="V172" t="n">
-        <v>0</v>
+        <v>2833.333333333333</v>
       </c>
       <c r="W172" t="n">
         <v>2833.333333333333</v>
@@ -17553,13 +17553,13 @@
         <v>0.05</v>
       </c>
       <c r="T173" t="n">
-        <v>44100</v>
+        <v>51450</v>
       </c>
       <c r="U173" t="n">
         <v>0</v>
       </c>
       <c r="V173" t="n">
-        <v>0</v>
+        <v>7350</v>
       </c>
       <c r="W173" t="n">
         <v>7350</v>
@@ -17649,13 +17649,13 @@
         <v>0.05</v>
       </c>
       <c r="T174" t="n">
-        <v>63180</v>
+        <v>73710</v>
       </c>
       <c r="U174" t="n">
         <v>0</v>
       </c>
       <c r="V174" t="n">
-        <v>0</v>
+        <v>10530</v>
       </c>
       <c r="W174" t="n">
         <v>10530</v>
@@ -17745,13 +17745,13 @@
         <v>0.05</v>
       </c>
       <c r="T175" t="n">
-        <v>2154</v>
+        <v>2513</v>
       </c>
       <c r="U175" t="n">
         <v>0</v>
       </c>
       <c r="V175" t="n">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="W175" t="n">
         <v>359</v>
@@ -17837,13 +17837,13 @@
         <v>0.05</v>
       </c>
       <c r="T176" t="n">
-        <v>1755</v>
+        <v>2047.5</v>
       </c>
       <c r="U176" t="n">
         <v>0</v>
       </c>
       <c r="V176" t="n">
-        <v>0</v>
+        <v>292.5</v>
       </c>
       <c r="W176" t="n">
         <v>292.5</v>
@@ -17929,13 +17929,13 @@
         <v>0.05</v>
       </c>
       <c r="T177" t="n">
-        <v>2700</v>
+        <v>3150</v>
       </c>
       <c r="U177" t="n">
         <v>0</v>
       </c>
       <c r="V177" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="W177" t="n">
         <v>450</v>
@@ -18021,13 +18021,13 @@
         <v>0.05</v>
       </c>
       <c r="T178" t="n">
-        <v>1140</v>
+        <v>1330</v>
       </c>
       <c r="U178" t="n">
         <v>0</v>
       </c>
       <c r="V178" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="W178" t="n">
         <v>190</v>
@@ -18113,13 +18113,13 @@
         <v>0.05</v>
       </c>
       <c r="T179" t="n">
-        <v>1320</v>
+        <v>1540</v>
       </c>
       <c r="U179" t="n">
         <v>0</v>
       </c>
       <c r="V179" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="W179" t="n">
         <v>220</v>
@@ -18209,13 +18209,13 @@
         <v>0.05</v>
       </c>
       <c r="T180" t="n">
-        <v>5400</v>
+        <v>6300</v>
       </c>
       <c r="U180" t="n">
         <v>0</v>
       </c>
       <c r="V180" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="W180" t="n">
         <v>900</v>
@@ -18301,13 +18301,13 @@
         <v>0.05</v>
       </c>
       <c r="T181" t="n">
-        <v>5751</v>
+        <v>6709.5</v>
       </c>
       <c r="U181" t="n">
         <v>0</v>
       </c>
       <c r="V181" t="n">
-        <v>0</v>
+        <v>958.5</v>
       </c>
       <c r="W181" t="n">
         <v>958.5</v>
@@ -18393,13 +18393,13 @@
         <v>0.05</v>
       </c>
       <c r="T182" t="n">
-        <v>487.5</v>
+        <v>568.75</v>
       </c>
       <c r="U182" t="n">
         <v>0</v>
       </c>
       <c r="V182" t="n">
-        <v>0</v>
+        <v>81.25</v>
       </c>
       <c r="W182" t="n">
         <v>81.25</v>
@@ -18485,13 +18485,13 @@
         <v>0.05</v>
       </c>
       <c r="T183" t="n">
-        <v>1072.5</v>
+        <v>1251.25</v>
       </c>
       <c r="U183" t="n">
         <v>0</v>
       </c>
       <c r="V183" t="n">
-        <v>0</v>
+        <v>178.75</v>
       </c>
       <c r="W183" t="n">
         <v>178.75</v>
@@ -18578,13 +18578,13 @@
         <v>0.05</v>
       </c>
       <c r="T184" t="n">
-        <v>1365</v>
+        <v>1592.5</v>
       </c>
       <c r="U184" t="n">
         <v>0</v>
       </c>
       <c r="V184" t="n">
-        <v>0</v>
+        <v>227.5</v>
       </c>
       <c r="W184" t="n">
         <v>227.5</v>
@@ -18670,13 +18670,13 @@
         <v>0.05</v>
       </c>
       <c r="T185" t="n">
-        <v>526.5</v>
+        <v>614.25</v>
       </c>
       <c r="U185" t="n">
         <v>0</v>
       </c>
       <c r="V185" t="n">
-        <v>0</v>
+        <v>87.75</v>
       </c>
       <c r="W185" t="n">
         <v>87.75</v>
@@ -18762,13 +18762,13 @@
         <v>0.05</v>
       </c>
       <c r="T186" t="n">
-        <v>2100</v>
+        <v>2450</v>
       </c>
       <c r="U186" t="n">
         <v>0</v>
       </c>
       <c r="V186" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="W186" t="n">
         <v>350</v>
@@ -18854,13 +18854,13 @@
         <v>0.05</v>
       </c>
       <c r="T187" t="n">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="U187" t="n">
         <v>0</v>
       </c>
       <c r="V187" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="W187" t="n">
         <v>21</v>
@@ -18946,13 +18946,13 @@
         <v>0.05</v>
       </c>
       <c r="T188" t="n">
-        <v>1134</v>
+        <v>1323</v>
       </c>
       <c r="U188" t="n">
         <v>0</v>
       </c>
       <c r="V188" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="W188" t="n">
         <v>189</v>
@@ -19038,13 +19038,13 @@
         <v>0.05</v>
       </c>
       <c r="T189" t="n">
-        <v>37500</v>
+        <v>43750</v>
       </c>
       <c r="U189" t="n">
         <v>0</v>
       </c>
       <c r="V189" t="n">
-        <v>0</v>
+        <v>6250</v>
       </c>
       <c r="W189" t="n">
         <v>6250</v>
@@ -19134,13 +19134,13 @@
         <v>0.05</v>
       </c>
       <c r="T190" t="n">
-        <v>7470</v>
+        <v>8715</v>
       </c>
       <c r="U190" t="n">
         <v>0</v>
       </c>
       <c r="V190" t="n">
-        <v>0</v>
+        <v>1245</v>
       </c>
       <c r="W190" t="n">
         <v>1245</v>
@@ -19230,13 +19230,13 @@
         <v>0.05</v>
       </c>
       <c r="T191" t="n">
-        <v>1950</v>
+        <v>2275</v>
       </c>
       <c r="U191" t="n">
         <v>0</v>
       </c>
       <c r="V191" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="W191" t="n">
         <v>325</v>
@@ -19322,13 +19322,13 @@
         <v>0.05</v>
       </c>
       <c r="T192" t="n">
-        <v>1125</v>
+        <v>1312.5</v>
       </c>
       <c r="U192" t="n">
         <v>0</v>
       </c>
       <c r="V192" t="n">
-        <v>0</v>
+        <v>187.5</v>
       </c>
       <c r="W192" t="n">
         <v>187.5</v>
@@ -19418,13 +19418,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T193" t="n">
-        <v>4440</v>
+        <v>5180</v>
       </c>
       <c r="U193" t="n">
         <v>0</v>
       </c>
       <c r="V193" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="W193" t="n">
         <v>740</v>
@@ -19514,13 +19514,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T194" t="n">
-        <v>11960</v>
+        <v>13953.33333333333</v>
       </c>
       <c r="U194" t="n">
         <v>0</v>
       </c>
       <c r="V194" t="n">
-        <v>0</v>
+        <v>1993.333333333333</v>
       </c>
       <c r="W194" t="n">
         <v>1993.333333333333</v>
@@ -19610,13 +19610,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T195" t="n">
-        <v>2500</v>
+        <v>2916.666666666667</v>
       </c>
       <c r="U195" t="n">
         <v>0</v>
       </c>
       <c r="V195" t="n">
-        <v>0</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="W195" t="n">
         <v>416.6666666666667</v>
@@ -19702,13 +19702,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T196" t="n">
-        <v>4860</v>
+        <v>5670</v>
       </c>
       <c r="U196" t="n">
         <v>0</v>
       </c>
       <c r="V196" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="W196" t="n">
         <v>810</v>
@@ -19794,13 +19794,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T197" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="U197" t="n">
         <v>0</v>
       </c>
       <c r="V197" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W197" t="n">
         <v>500</v>
@@ -19890,13 +19890,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T198" t="n">
-        <v>1050</v>
+        <v>1225</v>
       </c>
       <c r="U198" t="n">
         <v>0</v>
       </c>
       <c r="V198" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="W198" t="n">
         <v>175</v>
@@ -19986,13 +19986,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T199" t="n">
-        <v>7350</v>
+        <v>8575</v>
       </c>
       <c r="U199" t="n">
         <v>0</v>
       </c>
       <c r="V199" t="n">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="W199" t="n">
         <v>1225</v>
@@ -20082,13 +20082,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T200" t="n">
-        <v>1344</v>
+        <v>1568</v>
       </c>
       <c r="U200" t="n">
         <v>0</v>
       </c>
       <c r="V200" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="W200" t="n">
         <v>224</v>
@@ -20178,13 +20178,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T201" t="n">
-        <v>825</v>
+        <v>962.5</v>
       </c>
       <c r="U201" t="n">
         <v>0</v>
       </c>
       <c r="V201" t="n">
-        <v>0</v>
+        <v>137.5</v>
       </c>
       <c r="W201" t="n">
         <v>137.5</v>
@@ -20274,13 +20274,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T202" t="n">
-        <v>5250</v>
+        <v>6125</v>
       </c>
       <c r="U202" t="n">
         <v>0</v>
       </c>
       <c r="V202" t="n">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="W202" t="n">
         <v>875</v>
@@ -20370,13 +20370,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T203" t="n">
-        <v>840</v>
+        <v>980</v>
       </c>
       <c r="U203" t="n">
         <v>0</v>
       </c>
       <c r="V203" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="W203" t="n">
         <v>140</v>
@@ -20466,13 +20466,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T204" t="n">
-        <v>34440</v>
+        <v>40180</v>
       </c>
       <c r="U204" t="n">
         <v>0</v>
       </c>
       <c r="V204" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="W204" t="n">
         <v>5740</v>
@@ -20562,13 +20562,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T205" t="n">
-        <v>78600</v>
+        <v>91700</v>
       </c>
       <c r="U205" t="n">
         <v>0</v>
       </c>
       <c r="V205" t="n">
-        <v>0</v>
+        <v>13100</v>
       </c>
       <c r="W205" t="n">
         <v>13100</v>
@@ -20658,13 +20658,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T206" t="n">
-        <v>624</v>
+        <v>728</v>
       </c>
       <c r="U206" t="n">
         <v>0</v>
       </c>
       <c r="V206" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="W206" t="n">
         <v>104</v>
@@ -20754,13 +20754,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T207" t="n">
-        <v>8936</v>
+        <v>10425.33333333333</v>
       </c>
       <c r="U207" t="n">
         <v>0</v>
       </c>
       <c r="V207" t="n">
-        <v>0</v>
+        <v>1489.333333333333</v>
       </c>
       <c r="W207" t="n">
         <v>1489.333333333333</v>
@@ -20850,13 +20850,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T208" t="n">
-        <v>20944</v>
+        <v>24434.66666666667</v>
       </c>
       <c r="U208" t="n">
         <v>0</v>
       </c>
       <c r="V208" t="n">
-        <v>0</v>
+        <v>3490.666666666667</v>
       </c>
       <c r="W208" t="n">
         <v>3490.666666666667</v>
@@ -20946,13 +20946,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T209" t="n">
-        <v>4750</v>
+        <v>5541.666666666667</v>
       </c>
       <c r="U209" t="n">
         <v>0</v>
       </c>
       <c r="V209" t="n">
-        <v>0</v>
+        <v>791.6666666666666</v>
       </c>
       <c r="W209" t="n">
         <v>791.6666666666666</v>
@@ -21042,13 +21042,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T210" t="n">
-        <v>6270</v>
+        <v>7315</v>
       </c>
       <c r="U210" t="n">
         <v>0</v>
       </c>
       <c r="V210" t="n">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="W210" t="n">
         <v>1045</v>
@@ -21138,13 +21138,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T211" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="U211" t="n">
         <v>0</v>
       </c>
       <c r="V211" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W211" t="n">
         <v>200</v>
@@ -21234,13 +21234,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T212" t="n">
-        <v>2412</v>
+        <v>2814</v>
       </c>
       <c r="U212" t="n">
         <v>0</v>
       </c>
       <c r="V212" t="n">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="W212" t="n">
         <v>402</v>
@@ -21330,13 +21330,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T213" t="n">
-        <v>3300</v>
+        <v>3850</v>
       </c>
       <c r="U213" t="n">
         <v>0</v>
       </c>
       <c r="V213" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="W213" t="n">
         <v>550</v>
@@ -21426,13 +21426,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T214" t="n">
-        <v>780</v>
+        <v>910</v>
       </c>
       <c r="U214" t="n">
         <v>0</v>
       </c>
       <c r="V214" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="W214" t="n">
         <v>130</v>
@@ -21522,13 +21522,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T215" t="n">
-        <v>9280</v>
+        <v>10826.66666666667</v>
       </c>
       <c r="U215" t="n">
         <v>0</v>
       </c>
       <c r="V215" t="n">
-        <v>0</v>
+        <v>1546.666666666667</v>
       </c>
       <c r="W215" t="n">
         <v>1546.666666666667</v>
@@ -21618,13 +21618,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T216" t="n">
-        <v>1400</v>
+        <v>1633.333333333333</v>
       </c>
       <c r="U216" t="n">
         <v>0</v>
       </c>
       <c r="V216" t="n">
-        <v>0</v>
+        <v>233.3333333333333</v>
       </c>
       <c r="W216" t="n">
         <v>233.3333333333333</v>
@@ -21714,13 +21714,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T217" t="n">
-        <v>31500</v>
+        <v>36750</v>
       </c>
       <c r="U217" t="n">
         <v>0</v>
       </c>
       <c r="V217" t="n">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="W217" t="n">
         <v>5250</v>
@@ -21814,13 +21814,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T218" t="n">
-        <v>70000</v>
+        <v>81666.66666666667</v>
       </c>
       <c r="U218" t="n">
         <v>0</v>
       </c>
       <c r="V218" t="n">
-        <v>0</v>
+        <v>11666.66666666667</v>
       </c>
       <c r="W218" t="n">
         <v>11666.66666666667</v>
@@ -21914,13 +21914,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T219" t="n">
-        <v>39000</v>
+        <v>45500</v>
       </c>
       <c r="U219" t="n">
         <v>0</v>
       </c>
       <c r="V219" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="W219" t="n">
         <v>6500</v>
@@ -22010,13 +22010,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T220" t="n">
-        <v>12200</v>
+        <v>14233.33333333333</v>
       </c>
       <c r="U220" t="n">
         <v>0</v>
       </c>
       <c r="V220" t="n">
-        <v>0</v>
+        <v>2033.333333333333</v>
       </c>
       <c r="W220" t="n">
         <v>2033.333333333333</v>
@@ -22106,13 +22106,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T221" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="U221" t="n">
         <v>0</v>
       </c>
       <c r="V221" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="W221" t="n">
         <v>1000</v>
@@ -22198,13 +22198,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T222" t="n">
-        <v>5130</v>
+        <v>5985</v>
       </c>
       <c r="U222" t="n">
         <v>0</v>
       </c>
       <c r="V222" t="n">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="W222" t="n">
         <v>855</v>
@@ -22290,13 +22290,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T223" t="n">
-        <v>17550</v>
+        <v>20475</v>
       </c>
       <c r="U223" t="n">
         <v>0</v>
       </c>
       <c r="V223" t="n">
-        <v>0</v>
+        <v>2925</v>
       </c>
       <c r="W223" t="n">
         <v>2925</v>
@@ -22386,13 +22386,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T224" t="n">
-        <v>12240</v>
+        <v>14280</v>
       </c>
       <c r="U224" t="n">
         <v>0</v>
       </c>
       <c r="V224" t="n">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="W224" t="n">
         <v>2040</v>
@@ -22482,13 +22482,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T225" t="n">
-        <v>1657.5</v>
+        <v>1933.75</v>
       </c>
       <c r="U225" t="n">
         <v>0</v>
       </c>
       <c r="V225" t="n">
-        <v>0</v>
+        <v>276.25</v>
       </c>
       <c r="W225" t="n">
         <v>276.25</v>
@@ -22578,13 +22578,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T226" t="n">
-        <v>32550</v>
+        <v>37975</v>
       </c>
       <c r="U226" t="n">
         <v>0</v>
       </c>
       <c r="V226" t="n">
-        <v>0</v>
+        <v>5425</v>
       </c>
       <c r="W226" t="n">
         <v>5425</v>
@@ -22674,13 +22674,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T227" t="n">
-        <v>42800</v>
+        <v>49933.33333333334</v>
       </c>
       <c r="U227" t="n">
         <v>0</v>
       </c>
       <c r="V227" t="n">
-        <v>0</v>
+        <v>7133.333333333333</v>
       </c>
       <c r="W227" t="n">
         <v>7133.333333333333</v>
@@ -22766,13 +22766,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T228" t="n">
-        <v>6630</v>
+        <v>7735</v>
       </c>
       <c r="U228" t="n">
         <v>0</v>
       </c>
       <c r="V228" t="n">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="W228" t="n">
         <v>1105</v>
@@ -22858,13 +22858,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T229" t="n">
-        <v>8800</v>
+        <v>10266.66666666667</v>
       </c>
       <c r="U229" t="n">
         <v>0</v>
       </c>
       <c r="V229" t="n">
-        <v>0</v>
+        <v>1466.666666666667</v>
       </c>
       <c r="W229" t="n">
         <v>1466.666666666667</v>
@@ -22950,13 +22950,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T230" t="n">
-        <v>5880</v>
+        <v>6860</v>
       </c>
       <c r="U230" t="n">
         <v>0</v>
       </c>
       <c r="V230" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="W230" t="n">
         <v>980</v>
@@ -23042,13 +23042,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T231" t="n">
-        <v>286</v>
+        <v>333.6666666666667</v>
       </c>
       <c r="U231" t="n">
         <v>0</v>
       </c>
       <c r="V231" t="n">
-        <v>0</v>
+        <v>47.66666666666666</v>
       </c>
       <c r="W231" t="n">
         <v>47.66666666666666</v>
@@ -23134,13 +23134,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T232" t="n">
-        <v>1558</v>
+        <v>1817.666666666667</v>
       </c>
       <c r="U232" t="n">
         <v>0</v>
       </c>
       <c r="V232" t="n">
-        <v>0</v>
+        <v>259.6666666666667</v>
       </c>
       <c r="W232" t="n">
         <v>259.6666666666667</v>
@@ -23226,13 +23226,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T233" t="n">
-        <v>22860</v>
+        <v>26670</v>
       </c>
       <c r="U233" t="n">
         <v>0</v>
       </c>
       <c r="V233" t="n">
-        <v>0</v>
+        <v>3810</v>
       </c>
       <c r="W233" t="n">
         <v>3810</v>
@@ -23318,13 +23318,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T234" t="n">
-        <v>5100</v>
+        <v>5950</v>
       </c>
       <c r="U234" t="n">
         <v>0</v>
       </c>
       <c r="V234" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="W234" t="n">
         <v>850</v>
@@ -23414,13 +23414,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T235" t="n">
-        <v>36000</v>
+        <v>42000</v>
       </c>
       <c r="U235" t="n">
         <v>0</v>
       </c>
       <c r="V235" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="W235" t="n">
         <v>6000</v>
@@ -23510,13 +23510,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T236" t="n">
-        <v>13800</v>
+        <v>16100</v>
       </c>
       <c r="U236" t="n">
         <v>0</v>
       </c>
       <c r="V236" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="W236" t="n">
         <v>2300</v>
@@ -23602,13 +23602,13 @@
         <v>0.1</v>
       </c>
       <c r="T237" t="n">
-        <v>135749.25</v>
+        <v>158374.125</v>
       </c>
       <c r="U237" t="n">
         <v>0</v>
       </c>
       <c r="V237" t="n">
-        <v>0</v>
+        <v>22624.875</v>
       </c>
       <c r="W237" t="n">
         <v>22624.875</v>
@@ -23694,13 +23694,13 @@
         <v>0.1</v>
       </c>
       <c r="T238" t="n">
-        <v>25515</v>
+        <v>29767.5</v>
       </c>
       <c r="U238" t="n">
         <v>0</v>
       </c>
       <c r="V238" t="n">
-        <v>0</v>
+        <v>4252.5</v>
       </c>
       <c r="W238" t="n">
         <v>4252.5</v>
@@ -23786,13 +23786,13 @@
         <v>0.1</v>
       </c>
       <c r="T239" t="n">
-        <v>17550</v>
+        <v>20475</v>
       </c>
       <c r="U239" t="n">
         <v>0</v>
       </c>
       <c r="V239" t="n">
-        <v>0</v>
+        <v>2925</v>
       </c>
       <c r="W239" t="n">
         <v>2925</v>
@@ -23878,13 +23878,13 @@
         <v>0.1</v>
       </c>
       <c r="T240" t="n">
-        <v>33336</v>
+        <v>38892</v>
       </c>
       <c r="U240" t="n">
         <v>0</v>
       </c>
       <c r="V240" t="n">
-        <v>0</v>
+        <v>5556</v>
       </c>
       <c r="W240" t="n">
         <v>5556</v>
@@ -23970,13 +23970,13 @@
         <v>0.1</v>
       </c>
       <c r="T241" t="n">
-        <v>13431</v>
+        <v>15669.5</v>
       </c>
       <c r="U241" t="n">
         <v>0</v>
       </c>
       <c r="V241" t="n">
-        <v>0</v>
+        <v>2238.5</v>
       </c>
       <c r="W241" t="n">
         <v>2238.5</v>
@@ -24062,13 +24062,13 @@
         <v>0.05</v>
       </c>
       <c r="T242" t="n">
-        <v>17310.33</v>
+        <v>20195.385</v>
       </c>
       <c r="U242" t="n">
         <v>0</v>
       </c>
       <c r="V242" t="n">
-        <v>0</v>
+        <v>2885.055</v>
       </c>
       <c r="W242" t="n">
         <v>2885.055</v>
@@ -24154,13 +24154,13 @@
         <v>0.05</v>
       </c>
       <c r="T243" t="n">
-        <v>70785.45</v>
+        <v>82583.02499999999</v>
       </c>
       <c r="U243" t="n">
         <v>0</v>
       </c>
       <c r="V243" t="n">
-        <v>0</v>
+        <v>11797.575</v>
       </c>
       <c r="W243" t="n">
         <v>11797.575</v>
@@ -24246,13 +24246,13 @@
         <v>0.05</v>
       </c>
       <c r="T244" t="n">
-        <v>42541.65</v>
+        <v>49631.925</v>
       </c>
       <c r="U244" t="n">
         <v>0</v>
       </c>
       <c r="V244" t="n">
-        <v>0</v>
+        <v>7090.275000000001</v>
       </c>
       <c r="W244" t="n">
         <v>7090.275000000001</v>
@@ -24338,13 +24338,13 @@
         <v>0.05</v>
       </c>
       <c r="T245" t="n">
-        <v>63570.51</v>
+        <v>74165.595</v>
       </c>
       <c r="U245" t="n">
         <v>0</v>
       </c>
       <c r="V245" t="n">
-        <v>0</v>
+        <v>10595.085</v>
       </c>
       <c r="W245" t="n">
         <v>10595.085</v>
@@ -24430,13 +24430,13 @@
         <v>0.05</v>
       </c>
       <c r="T246" t="n">
-        <v>31014.72</v>
+        <v>36183.84</v>
       </c>
       <c r="U246" t="n">
         <v>0</v>
       </c>
       <c r="V246" t="n">
-        <v>0</v>
+        <v>5169.12</v>
       </c>
       <c r="W246" t="n">
         <v>5169.12</v>
@@ -24522,13 +24522,13 @@
         <v>0.05</v>
       </c>
       <c r="T247" t="n">
-        <v>81086.03999999999</v>
+        <v>94600.37999999999</v>
       </c>
       <c r="U247" t="n">
         <v>0</v>
       </c>
       <c r="V247" t="n">
-        <v>0</v>
+        <v>13514.34</v>
       </c>
       <c r="W247" t="n">
         <v>13514.34</v>
@@ -24614,13 +24614,13 @@
         <v>0.05</v>
       </c>
       <c r="T248" t="n">
-        <v>17595</v>
+        <v>20527.5</v>
       </c>
       <c r="U248" t="n">
         <v>0</v>
       </c>
       <c r="V248" t="n">
-        <v>0</v>
+        <v>2932.5</v>
       </c>
       <c r="W248" t="n">
         <v>2932.5</v>
@@ -24706,13 +24706,13 @@
         <v>0.05</v>
       </c>
       <c r="T249" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="U249" t="n">
         <v>0</v>
       </c>
       <c r="V249" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="W249" t="n">
         <v>150</v>
@@ -24798,13 +24798,13 @@
         <v>0.05</v>
       </c>
       <c r="T250" t="n">
-        <v>34545.735</v>
+        <v>40303.3575</v>
       </c>
       <c r="U250" t="n">
         <v>0</v>
       </c>
       <c r="V250" t="n">
-        <v>0</v>
+        <v>5757.6225</v>
       </c>
       <c r="W250" t="n">
         <v>5757.6225</v>
@@ -24890,13 +24890,13 @@
         <v>0.05</v>
       </c>
       <c r="T251" t="n">
-        <v>15716.25</v>
+        <v>18335.625</v>
       </c>
       <c r="U251" t="n">
         <v>0</v>
       </c>
       <c r="V251" t="n">
-        <v>0</v>
+        <v>2619.375</v>
       </c>
       <c r="W251" t="n">
         <v>2619.375</v>
@@ -24982,13 +24982,13 @@
         <v>0.05</v>
       </c>
       <c r="T252" t="n">
-        <v>8550</v>
+        <v>9975</v>
       </c>
       <c r="U252" t="n">
         <v>0</v>
       </c>
       <c r="V252" t="n">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="W252" t="n">
         <v>1425</v>
@@ -25074,13 +25074,13 @@
         <v>0.05</v>
       </c>
       <c r="T253" t="n">
-        <v>20724</v>
+        <v>24178</v>
       </c>
       <c r="U253" t="n">
         <v>0</v>
       </c>
       <c r="V253" t="n">
-        <v>0</v>
+        <v>3454</v>
       </c>
       <c r="W253" t="n">
         <v>3454</v>
@@ -25166,13 +25166,13 @@
         <v>0.05</v>
       </c>
       <c r="T254" t="n">
-        <v>212553.9</v>
+        <v>247979.55</v>
       </c>
       <c r="U254" t="n">
         <v>0</v>
       </c>
       <c r="V254" t="n">
-        <v>0</v>
+        <v>35425.65</v>
       </c>
       <c r="W254" t="n">
         <v>35425.65</v>
@@ -25258,13 +25258,13 @@
         <v>0.05</v>
       </c>
       <c r="T255" t="n">
-        <v>144000</v>
+        <v>168000</v>
       </c>
       <c r="U255" t="n">
         <v>0</v>
       </c>
       <c r="V255" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="W255" t="n">
         <v>24000</v>
@@ -25350,13 +25350,13 @@
         <v>0.05</v>
       </c>
       <c r="T256" t="n">
-        <v>179041.5</v>
+        <v>208881.75</v>
       </c>
       <c r="U256" t="n">
         <v>0</v>
       </c>
       <c r="V256" t="n">
-        <v>0</v>
+        <v>29840.25</v>
       </c>
       <c r="W256" t="n">
         <v>29840.25</v>
@@ -25442,13 +25442,13 @@
         <v>0.05</v>
       </c>
       <c r="T257" t="n">
-        <v>12933.855</v>
+        <v>15089.4975</v>
       </c>
       <c r="U257" t="n">
         <v>0</v>
       </c>
       <c r="V257" t="n">
-        <v>0</v>
+        <v>2155.6425</v>
       </c>
       <c r="W257" t="n">
         <v>2155.6425</v>
@@ -25534,13 +25534,13 @@
         <v>0.05</v>
       </c>
       <c r="T258" t="n">
-        <v>32760</v>
+        <v>38220</v>
       </c>
       <c r="U258" t="n">
         <v>0</v>
       </c>
       <c r="V258" t="n">
-        <v>0</v>
+        <v>5460</v>
       </c>
       <c r="W258" t="n">
         <v>5460</v>
@@ -25626,13 +25626,13 @@
         <v>0.05</v>
       </c>
       <c r="T259" t="n">
-        <v>11812.5</v>
+        <v>13781.25</v>
       </c>
       <c r="U259" t="n">
         <v>0</v>
       </c>
       <c r="V259" t="n">
-        <v>0</v>
+        <v>1968.75</v>
       </c>
       <c r="W259" t="n">
         <v>1968.75</v>
@@ -25718,13 +25718,13 @@
         <v>0.05</v>
       </c>
       <c r="T260" t="n">
-        <v>33075</v>
+        <v>38587.5</v>
       </c>
       <c r="U260" t="n">
         <v>0</v>
       </c>
       <c r="V260" t="n">
-        <v>0</v>
+        <v>5512.5</v>
       </c>
       <c r="W260" t="n">
         <v>5512.5</v>
@@ -25810,13 +25810,13 @@
         <v>0.05</v>
       </c>
       <c r="T261" t="n">
-        <v>64753.65000000001</v>
+        <v>75545.92500000002</v>
       </c>
       <c r="U261" t="n">
         <v>0</v>
       </c>
       <c r="V261" t="n">
-        <v>0</v>
+        <v>10792.275</v>
       </c>
       <c r="W261" t="n">
         <v>10792.275</v>
@@ -25902,13 +25902,13 @@
         <v>0.05</v>
       </c>
       <c r="T262" t="n">
-        <v>10916.325</v>
+        <v>12735.7125</v>
       </c>
       <c r="U262" t="n">
         <v>0</v>
       </c>
       <c r="V262" t="n">
-        <v>0</v>
+        <v>1819.3875</v>
       </c>
       <c r="W262" t="n">
         <v>1819.3875</v>
@@ -25994,13 +25994,13 @@
         <v>0.05</v>
       </c>
       <c r="T263" t="n">
-        <v>26012.52</v>
+        <v>30347.94</v>
       </c>
       <c r="U263" t="n">
         <v>0</v>
       </c>
       <c r="V263" t="n">
-        <v>0</v>
+        <v>4335.42</v>
       </c>
       <c r="W263" t="n">
         <v>4335.42</v>
@@ -26086,13 +26086,13 @@
         <v>0.05</v>
       </c>
       <c r="T264" t="n">
-        <v>75279.10500000001</v>
+        <v>87825.62250000001</v>
       </c>
       <c r="U264" t="n">
         <v>0</v>
       </c>
       <c r="V264" t="n">
-        <v>0</v>
+        <v>12546.5175</v>
       </c>
       <c r="W264" t="n">
         <v>12546.5175</v>
@@ -26178,13 +26178,13 @@
         <v>0.05</v>
       </c>
       <c r="T265" t="n">
-        <v>11182.5</v>
+        <v>13046.25</v>
       </c>
       <c r="U265" t="n">
         <v>0</v>
       </c>
       <c r="V265" t="n">
-        <v>0</v>
+        <v>1863.75</v>
       </c>
       <c r="W265" t="n">
         <v>1863.75</v>
@@ -26270,13 +26270,13 @@
         <v>0.05</v>
       </c>
       <c r="T266" t="n">
-        <v>9502.200000000001</v>
+        <v>11085.9</v>
       </c>
       <c r="U266" t="n">
         <v>0</v>
       </c>
       <c r="V266" t="n">
-        <v>0</v>
+        <v>1583.7</v>
       </c>
       <c r="W266" t="n">
         <v>1583.7</v>
@@ -26362,13 +26362,13 @@
         <v>0.05</v>
       </c>
       <c r="T267" t="n">
-        <v>6450</v>
+        <v>7525</v>
       </c>
       <c r="U267" t="n">
         <v>0</v>
       </c>
       <c r="V267" t="n">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="W267" t="n">
         <v>1075</v>
@@ -26454,13 +26454,13 @@
         <v>0.05</v>
       </c>
       <c r="T268" t="n">
-        <v>43500</v>
+        <v>50750</v>
       </c>
       <c r="U268" t="n">
         <v>0</v>
       </c>
       <c r="V268" t="n">
-        <v>0</v>
+        <v>7250</v>
       </c>
       <c r="W268" t="n">
         <v>7250</v>
@@ -26550,13 +26550,13 @@
         <v>0.05</v>
       </c>
       <c r="T269" t="n">
-        <v>10880.16</v>
+        <v>12693.52</v>
       </c>
       <c r="U269" t="n">
         <v>0</v>
       </c>
       <c r="V269" t="n">
-        <v>0</v>
+        <v>1813.36</v>
       </c>
       <c r="W269" t="n">
         <v>1813.36</v>
@@ -26642,13 +26642,13 @@
         <v>0.05</v>
       </c>
       <c r="T270" t="n">
-        <v>24960</v>
+        <v>29120</v>
       </c>
       <c r="U270" t="n">
         <v>0</v>
       </c>
       <c r="V270" t="n">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="W270" t="n">
         <v>4160</v>
@@ -26734,13 +26734,13 @@
         <v>0.05</v>
       </c>
       <c r="T271" t="n">
-        <v>22425</v>
+        <v>26162.5</v>
       </c>
       <c r="U271" t="n">
         <v>0</v>
       </c>
       <c r="V271" t="n">
-        <v>0</v>
+        <v>3737.5</v>
       </c>
       <c r="W271" t="n">
         <v>3737.5</v>
@@ -26826,13 +26826,13 @@
         <v>0.05</v>
       </c>
       <c r="T272" t="n">
-        <v>42180</v>
+        <v>49210</v>
       </c>
       <c r="U272" t="n">
         <v>0</v>
       </c>
       <c r="V272" t="n">
-        <v>0</v>
+        <v>7030</v>
       </c>
       <c r="W272" t="n">
         <v>7030</v>
@@ -26918,13 +26918,13 @@
         <v>0.05</v>
       </c>
       <c r="T273" t="n">
-        <v>40255.875</v>
+        <v>46965.1875</v>
       </c>
       <c r="U273" t="n">
         <v>0</v>
       </c>
       <c r="V273" t="n">
-        <v>0</v>
+        <v>6709.3125</v>
       </c>
       <c r="W273" t="n">
         <v>6709.3125</v>
@@ -27010,13 +27010,13 @@
         <v>0.05</v>
       </c>
       <c r="T274" t="n">
-        <v>1170</v>
+        <v>1365</v>
       </c>
       <c r="U274" t="n">
         <v>0</v>
       </c>
       <c r="V274" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="W274" t="n">
         <v>195</v>
@@ -27102,13 +27102,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T275" t="n">
-        <v>400000.0000000001</v>
+        <v>466666.6666666667</v>
       </c>
       <c r="U275" t="n">
         <v>0</v>
       </c>
       <c r="V275" t="n">
-        <v>0</v>
+        <v>66666.66666666667</v>
       </c>
       <c r="W275" t="n">
         <v>66666.66666666667</v>
@@ -27194,13 +27194,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T276" t="n">
-        <v>46800</v>
+        <v>54600</v>
       </c>
       <c r="U276" t="n">
         <v>0</v>
       </c>
       <c r="V276" t="n">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="W276" t="n">
         <v>7800</v>
@@ -27286,13 +27286,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T277" t="n">
-        <v>66000</v>
+        <v>77000</v>
       </c>
       <c r="U277" t="n">
         <v>0</v>
       </c>
       <c r="V277" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="W277" t="n">
         <v>11000</v>
@@ -27378,13 +27378,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T278" t="n">
-        <v>19000</v>
+        <v>22166.66666666667</v>
       </c>
       <c r="U278" t="n">
         <v>0</v>
       </c>
       <c r="V278" t="n">
-        <v>0</v>
+        <v>3166.666666666667</v>
       </c>
       <c r="W278" t="n">
         <v>3166.666666666667</v>
@@ -27470,13 +27470,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T279" t="n">
-        <v>29400</v>
+        <v>34300</v>
       </c>
       <c r="U279" t="n">
         <v>0</v>
       </c>
       <c r="V279" t="n">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="W279" t="n">
         <v>4900</v>
@@ -27562,13 +27562,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T280" t="n">
-        <v>20320</v>
+        <v>23706.66666666667</v>
       </c>
       <c r="U280" t="n">
         <v>0</v>
       </c>
       <c r="V280" t="n">
-        <v>0</v>
+        <v>3386.666666666667</v>
       </c>
       <c r="W280" t="n">
         <v>3386.666666666667</v>
@@ -27654,13 +27654,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T281" t="n">
-        <v>18800</v>
+        <v>21933.33333333333</v>
       </c>
       <c r="U281" t="n">
         <v>0</v>
       </c>
       <c r="V281" t="n">
-        <v>0</v>
+        <v>3133.333333333333</v>
       </c>
       <c r="W281" t="n">
         <v>3133.333333333333</v>
@@ -27746,13 +27746,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T282" t="n">
-        <v>38400</v>
+        <v>44800</v>
       </c>
       <c r="U282" t="n">
         <v>0</v>
       </c>
       <c r="V282" t="n">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="W282" t="n">
         <v>6400</v>
@@ -27838,13 +27838,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T283" t="n">
-        <v>88320</v>
+        <v>103040</v>
       </c>
       <c r="U283" t="n">
         <v>0</v>
       </c>
       <c r="V283" t="n">
-        <v>0</v>
+        <v>14720</v>
       </c>
       <c r="W283" t="n">
         <v>14720</v>
@@ -27934,13 +27934,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T284" t="n">
-        <v>26000</v>
+        <v>30333.33333333333</v>
       </c>
       <c r="U284" t="n">
         <v>0</v>
       </c>
       <c r="V284" t="n">
-        <v>0</v>
+        <v>4333.333333333333</v>
       </c>
       <c r="W284" t="n">
         <v>4333.333333333333</v>
@@ -28030,13 +28030,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T285" t="n">
-        <v>34800</v>
+        <v>40600</v>
       </c>
       <c r="U285" t="n">
         <v>0</v>
       </c>
       <c r="V285" t="n">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="W285" t="n">
         <v>5800</v>
@@ -28126,13 +28126,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T286" t="n">
-        <v>56000.00000000001</v>
+        <v>65333.33333333334</v>
       </c>
       <c r="U286" t="n">
         <v>0</v>
       </c>
       <c r="V286" t="n">
-        <v>0</v>
+        <v>9333.333333333334</v>
       </c>
       <c r="W286" t="n">
         <v>9333.333333333334</v>
@@ -28218,13 +28218,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T287" t="n">
-        <v>38000</v>
+        <v>44333.33333333334</v>
       </c>
       <c r="U287" t="n">
         <v>0</v>
       </c>
       <c r="V287" t="n">
-        <v>0</v>
+        <v>6333.333333333333</v>
       </c>
       <c r="W287" t="n">
         <v>6333.333333333333</v>
@@ -28314,13 +28314,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T288" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="U288" t="n">
         <v>0</v>
       </c>
       <c r="V288" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="W288" t="n">
         <v>4000</v>
@@ -28410,13 +28410,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T289" t="n">
-        <v>169000</v>
+        <v>197166.6666666667</v>
       </c>
       <c r="U289" t="n">
         <v>0</v>
       </c>
       <c r="V289" t="n">
-        <v>0</v>
+        <v>28166.66666666667</v>
       </c>
       <c r="W289" t="n">
         <v>28166.66666666667</v>
@@ -28506,13 +28506,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T290" t="n">
-        <v>3380</v>
+        <v>3943.333333333334</v>
       </c>
       <c r="U290" t="n">
         <v>0</v>
       </c>
       <c r="V290" t="n">
-        <v>0</v>
+        <v>563.3333333333334</v>
       </c>
       <c r="W290" t="n">
         <v>563.3333333333334</v>
@@ -28602,13 +28602,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T291" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="U291" t="n">
         <v>0</v>
       </c>
       <c r="V291" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="W291" t="n">
         <v>4000</v>
@@ -28698,13 +28698,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T292" t="n">
-        <v>9360</v>
+        <v>10920</v>
       </c>
       <c r="U292" t="n">
         <v>0</v>
       </c>
       <c r="V292" t="n">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="W292" t="n">
         <v>1560</v>
@@ -28794,13 +28794,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T293" t="n">
-        <v>47372</v>
+        <v>55267.33333333334</v>
       </c>
       <c r="U293" t="n">
         <v>0</v>
       </c>
       <c r="V293" t="n">
-        <v>0</v>
+        <v>7895.333333333333</v>
       </c>
       <c r="W293" t="n">
         <v>7895.333333333333</v>
@@ -28890,13 +28890,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T294" t="n">
-        <v>3575</v>
+        <v>4170.833333333334</v>
       </c>
       <c r="U294" t="n">
         <v>0</v>
       </c>
       <c r="V294" t="n">
-        <v>0</v>
+        <v>595.8333333333334</v>
       </c>
       <c r="W294" t="n">
         <v>595.8333333333334</v>
@@ -28986,13 +28986,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T295" t="n">
-        <v>80000</v>
+        <v>93333.33333333333</v>
       </c>
       <c r="U295" t="n">
         <v>0</v>
       </c>
       <c r="V295" t="n">
-        <v>0</v>
+        <v>13333.33333333333</v>
       </c>
       <c r="W295" t="n">
         <v>13333.33333333333</v>
@@ -29078,13 +29078,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T296" t="n">
-        <v>472944</v>
+        <v>551768</v>
       </c>
       <c r="U296" t="n">
         <v>0</v>
       </c>
       <c r="V296" t="n">
-        <v>0</v>
+        <v>78824</v>
       </c>
       <c r="W296" t="n">
         <v>78824</v>
@@ -29170,13 +29170,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T297" t="n">
-        <v>48000</v>
+        <v>56000</v>
       </c>
       <c r="U297" t="n">
         <v>0</v>
       </c>
       <c r="V297" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="W297" t="n">
         <v>8000</v>
@@ -29262,13 +29262,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T298" t="n">
-        <v>31520</v>
+        <v>36773.33333333333</v>
       </c>
       <c r="U298" t="n">
         <v>0</v>
       </c>
       <c r="V298" t="n">
-        <v>0</v>
+        <v>5253.333333333333</v>
       </c>
       <c r="W298" t="n">
         <v>5253.333333333333</v>
@@ -29354,13 +29354,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T299" t="n">
-        <v>20040</v>
+        <v>23380</v>
       </c>
       <c r="U299" t="n">
         <v>0</v>
       </c>
       <c r="V299" t="n">
-        <v>0</v>
+        <v>3340</v>
       </c>
       <c r="W299" t="n">
         <v>3340</v>
@@ -29446,13 +29446,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T300" t="n">
-        <v>75200</v>
+        <v>87733.33333333333</v>
       </c>
       <c r="U300" t="n">
         <v>0</v>
       </c>
       <c r="V300" t="n">
-        <v>0</v>
+        <v>12533.33333333333</v>
       </c>
       <c r="W300" t="n">
         <v>12533.33333333333</v>
@@ -29538,13 +29538,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T301" t="n">
-        <v>18200</v>
+        <v>21233.33333333333</v>
       </c>
       <c r="U301" t="n">
         <v>0</v>
       </c>
       <c r="V301" t="n">
-        <v>0</v>
+        <v>3033.333333333333</v>
       </c>
       <c r="W301" t="n">
         <v>3033.333333333333</v>

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -1328,8 +1328,16 @@
           <t>Curtain Fabric</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1420,8 +1428,16 @@
           <t>Carpet</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>270 ft</t>
@@ -1514,8 +1530,16 @@
           <t>Computer (Desktop)</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>2</t>
@@ -1608,8 +1632,16 @@
           <t>Computer(laptop)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>1</t>
@@ -1702,8 +1734,16 @@
           <t xml:space="preserve">Crokeries </t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1901,7 +1941,11 @@
           <t>Hatil</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>8</t>
@@ -2100,8 +2144,16 @@
           <t xml:space="preserve">vertical Curtain </t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>120 ft</t>
@@ -2517,7 +2569,11 @@
           <t>Jamuna</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>(1+1+1+1)</t>
@@ -2610,8 +2666,16 @@
           <t>Curtain Sewing cost</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2702,8 +2766,16 @@
           <t xml:space="preserve">vertical Curtain </t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>5 pcs</t>
@@ -2796,8 +2868,16 @@
           <t xml:space="preserve">Crokeries </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>3+3+6+1+1</t>
@@ -2895,7 +2975,11 @@
           <t>Palash Furniture</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>1</t>
@@ -2993,7 +3077,11 @@
           <t>Palash Furniture</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>1</t>
@@ -3091,7 +3179,11 @@
           <t>Hatil</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>1</t>
@@ -3189,7 +3281,11 @@
           <t>Hatil</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>14</t>
@@ -3597,7 +3693,11 @@
           <t>Hatil</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>1</t>
@@ -3695,7 +3795,11 @@
           <t>TOA</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3791,7 +3895,11 @@
           <t>Sharmin/Local</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -3882,7 +3990,11 @@
           <t>Crystal Chandelier</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>JHR/4803</t>
@@ -4082,8 +4194,16 @@
           <t xml:space="preserve">vertical Curtain </t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>9 pcs</t>
@@ -4588,8 +4708,16 @@
           <t>Glass paper Pasting</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>296 SFT</t>
@@ -4687,7 +4815,11 @@
           <t>Otobi</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>2</t>
@@ -4891,7 +5023,11 @@
           <t>energypack</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>2</t>
@@ -4984,8 +5120,16 @@
           <t>Telephone Set</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>4</t>
@@ -5078,8 +5222,16 @@
           <t>PABX set</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
@@ -5493,7 +5645,11 @@
           <t>General</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>2</t>
@@ -5701,7 +5857,11 @@
           <t>Brother furniture</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>2+4</t>
@@ -5803,7 +5963,11 @@
           <t>Otobi</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>10</t>
@@ -5905,7 +6069,11 @@
           <t>otobi</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>1</t>
@@ -6007,7 +6175,11 @@
           <t>Otobi</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>1</t>
@@ -6215,7 +6387,11 @@
           <t>JAF/Local</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>14</t>
@@ -6317,7 +6493,11 @@
           <t>Brother furniture</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>2</t>
@@ -6419,7 +6599,11 @@
           <t>Otobi</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>5</t>
@@ -6516,8 +6700,16 @@
           <t>Computer Desktop</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>1</t>
@@ -6610,8 +6802,16 @@
           <t>Computer Desktop</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>2</t>
@@ -6811,7 +7011,11 @@
           <t>OTOBI</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>1</t>
@@ -7112,8 +7316,16 @@
           <t>Computer Desktop</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>1</t>
@@ -7211,7 +7423,11 @@
           <t>Palash Furniture</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>1</t>
@@ -7309,7 +7525,11 @@
           <t>Palash Furniture</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>1</t>
@@ -7407,7 +7627,11 @@
           <t>Brother furniture</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>2</t>
@@ -7509,7 +7733,11 @@
           <t>Otobi</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>1</t>
@@ -7602,8 +7830,16 @@
           <t>Computer Equipements</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>1</t>
@@ -7803,7 +8039,11 @@
           <t>Brother furniture</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>2</t>
@@ -8105,7 +8345,11 @@
           <t>Engineering Telecom Systems</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
@@ -8303,7 +8547,11 @@
           <t>Palash Furniture</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>1</t>
@@ -8396,8 +8644,16 @@
           <t>Filter Tool</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>1</t>
@@ -8597,7 +8853,11 @@
           <t>Xtreme</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>1</t>
@@ -8894,8 +9154,16 @@
           <t xml:space="preserve">vertical Curtain </t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>12</t>
@@ -9192,8 +9460,16 @@
           <t>Dinner Plate + Coffee Mug</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>50+100</t>
@@ -9286,8 +9562,16 @@
           <t>Tolley Speaker</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>1</t>
@@ -9487,7 +9771,11 @@
           <t>Charcoal</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>2</t>
@@ -9585,7 +9873,11 @@
           <t>JAF/Local</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>707.2 sft</t>
@@ -9687,7 +9979,11 @@
           <t>JAF/Local</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>252  sft</t>
@@ -9789,7 +10085,11 @@
           <t>JAF/Local</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>14</t>
@@ -9997,7 +10297,11 @@
           <t>JAF/Local</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
@@ -10088,8 +10392,16 @@
           <t>Murcury Glasses and Top white glasses</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>(3+1+2+1+1)</t>
@@ -10486,8 +10798,16 @@
           <t>Plate+Tea Cup+Sugar Pot</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>50+50+10</t>
@@ -10580,8 +10900,16 @@
           <t>ceramic Crokeries (Glass + Fruit Baul+Cutlery)</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>(18+12+3)</t>
@@ -10674,8 +11002,16 @@
           <t>Fork</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>36</t>
@@ -10874,8 +11210,16 @@
           <t>installation cost  for AC</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K105" t="n">
         <v>0</v>
       </c>
@@ -11378,8 +11722,16 @@
           <t>Cofee Mug</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>200 pcs</t>
@@ -11583,7 +11935,11 @@
           <t>Brother furniture</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>2</t>
@@ -11791,7 +12147,11 @@
           <t>JAF</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>1</t>
@@ -11893,7 +12253,11 @@
           <t>JAF</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>392 sft</t>
@@ -11991,7 +12355,11 @@
           <t>JAF</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>1</t>
@@ -12191,7 +12559,11 @@
           <t>Brother furniture</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>2</t>
@@ -12293,7 +12665,11 @@
           <t>Brother furniture</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>2</t>
@@ -12595,7 +12971,11 @@
           <t>Akhter Furniture</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>2</t>
@@ -12994,8 +13374,16 @@
           <t xml:space="preserve">UPS,Mouse,Pendrive and Multiplug </t>
         </is>
       </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>1+1+1+5</t>
@@ -13195,7 +13583,11 @@
           <t>Palash Furniture</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>2</t>
@@ -13293,7 +13685,11 @@
           <t>Palash Furniture</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>1</t>
@@ -13391,7 +13787,11 @@
           <t>HP</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>1</t>
@@ -13693,7 +14093,11 @@
           <t>Nikon</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>1+1</t>
@@ -14092,8 +14496,16 @@
           <t>UPS,Mouse,Pendrive,headphone,Webcam, Keyboard and Multiplug</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>1+1+1+1+1+1+1</t>
@@ -14497,7 +14909,11 @@
           <t>Palash Furniture</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>1</t>
@@ -14595,7 +15011,11 @@
           <t>Global Brand</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>4</t>
@@ -14892,8 +15312,16 @@
           <t>car accessories</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K145" t="n">
         <v>0</v>
       </c>
@@ -14989,7 +15417,11 @@
           <t>Amecon</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>4</t>
@@ -15286,8 +15718,16 @@
           <t>Seat cover</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K149" t="n">
         <v>0</v>
       </c>
@@ -15485,7 +15925,11 @@
           <t>Palash Furniture</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>1</t>
@@ -15565,7 +16009,11 @@
       <c r="E152" t="n">
         <v>272</v>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G152" t="inlineStr">
         <is>
           <t>Civil Works</t>
@@ -15576,8 +16024,16 @@
           <t>BREAKING  of FLOOR TILES &amp; OTHERS</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>1</t>
@@ -15657,7 +16113,11 @@
       <c r="E153" t="n">
         <v>272</v>
       </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G153" t="inlineStr">
         <is>
           <t>Civil Works</t>
@@ -15668,8 +16128,16 @@
           <t xml:space="preserve">FLOOR CLEANING &amp; GARBAGE TRANSFER WORK     </t>
         </is>
       </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>1</t>
@@ -15749,7 +16217,11 @@
       <c r="E154" t="n">
         <v>272</v>
       </c>
-      <c r="F154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G154" t="inlineStr">
         <is>
           <t>Civil Works</t>
@@ -15760,8 +16232,16 @@
           <t xml:space="preserve">125 MM BRICK WORK  </t>
         </is>
       </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>932.47 sft</t>
@@ -15841,7 +16321,11 @@
       <c r="E155" t="n">
         <v>272</v>
       </c>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G155" t="inlineStr">
         <is>
           <t>Civil Works</t>
@@ -15852,8 +16336,16 @@
           <t>PLASTER WORK</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>1055.5 sft</t>
@@ -15933,7 +16425,11 @@
       <c r="E156" t="n">
         <v>272</v>
       </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G156" t="inlineStr">
         <is>
           <t>Civil Works</t>
@@ -15944,8 +16440,16 @@
           <t>RCC works</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>14.47 cft</t>
@@ -16025,7 +16529,11 @@
       <c r="E157" t="n">
         <v>272</v>
       </c>
-      <c r="F157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G157" t="inlineStr">
         <is>
           <t>Civil Works</t>
@@ -16036,8 +16544,16 @@
           <t>Floor Demolition</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>1000 sft</t>
@@ -16117,7 +16633,11 @@
       <c r="E158" t="n">
         <v>272</v>
       </c>
-      <c r="F158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G158" t="inlineStr">
         <is>
           <t>Civil Works</t>
@@ -16128,8 +16648,16 @@
           <t>TOILET FLOOR TILES SUPPLYING ,FITTING &amp; FIXING</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>175 sft</t>
@@ -16209,7 +16737,11 @@
       <c r="E159" t="n">
         <v>272</v>
       </c>
-      <c r="F159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G159" t="inlineStr">
         <is>
           <t>Civil Works</t>
@@ -16220,8 +16752,16 @@
           <t xml:space="preserve">LINTELS WORKS   </t>
         </is>
       </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>2.94 cft</t>
@@ -16301,7 +16841,11 @@
       <c r="E160" t="n">
         <v>272</v>
       </c>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G160" t="inlineStr">
         <is>
           <t>Civil Works</t>
@@ -16312,8 +16856,16 @@
           <t>TOILET WALL TILES SUPPLYING ,FITTING &amp; FIXING</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>565 sft</t>
@@ -16393,7 +16945,11 @@
       <c r="E161" t="n">
         <v>272</v>
       </c>
-      <c r="F161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G161" t="inlineStr">
         <is>
           <t>Civil Works</t>
@@ -16404,8 +16960,16 @@
           <t xml:space="preserve">GRANITE &amp; MARBLE </t>
         </is>
       </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>36.50 sft</t>
@@ -16485,7 +17049,11 @@
       <c r="E162" t="n">
         <v>272</v>
       </c>
-      <c r="F162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G162" t="inlineStr">
         <is>
           <t xml:space="preserve">Internet and PABX System </t>
@@ -16496,8 +17064,16 @@
           <t>CAT6 CABLE</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>6480 m</t>
@@ -16577,7 +17153,11 @@
       <c r="E163" t="n">
         <v>272</v>
       </c>
-      <c r="F163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G163" t="inlineStr">
         <is>
           <t xml:space="preserve">Internet and PABX System </t>
@@ -16588,8 +17168,16 @@
           <t xml:space="preserve">FACE PLATE WITH MODULAR ( 2 WAY)  Dintek   </t>
         </is>
       </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>70 pcs</t>
@@ -16669,7 +17257,11 @@
       <c r="E164" t="n">
         <v>272</v>
       </c>
-      <c r="F164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G164" t="inlineStr">
         <is>
           <t xml:space="preserve">Internet and PABX System </t>
@@ -16680,8 +17272,16 @@
           <t>MODULAR (DINTEK)</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>140 pcs</t>
@@ -16761,7 +17361,11 @@
       <c r="E165" t="n">
         <v>272</v>
       </c>
-      <c r="F165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G165" t="inlineStr">
         <is>
           <t xml:space="preserve">Internet and PABX System </t>
@@ -16772,8 +17376,16 @@
           <t>PATCH CORT 3 METER</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>70pcs</t>
@@ -16853,7 +17465,11 @@
       <c r="E166" t="n">
         <v>272</v>
       </c>
-      <c r="F166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G166" t="inlineStr">
         <is>
           <t xml:space="preserve">Internet and PABX System </t>
@@ -16864,8 +17480,16 @@
           <t>CAT6 CONNECTOR</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>70 pcs</t>
@@ -16945,7 +17569,11 @@
       <c r="E167" t="n">
         <v>272</v>
       </c>
-      <c r="F167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G167" t="inlineStr">
         <is>
           <t xml:space="preserve">Internet and PABX System </t>
@@ -16956,8 +17584,16 @@
           <t>INSTALLATION, TESTING &amp; COMMISSIONING</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>1 job</t>
@@ -17037,7 +17673,11 @@
       <c r="E168" t="n">
         <v>272</v>
       </c>
-      <c r="F168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G168" t="inlineStr">
         <is>
           <t xml:space="preserve">Internet and PABX System </t>
@@ -17048,8 +17688,16 @@
           <t>LABOR CHARGE FOR CABLE WORKS</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>10335 rft</t>
@@ -17129,7 +17777,11 @@
       <c r="E169" t="n">
         <v>272</v>
       </c>
-      <c r="F169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G169" t="inlineStr">
         <is>
           <t xml:space="preserve">Internet and PABX System </t>
@@ -17141,8 +17793,16 @@
  NETWORKING WORK</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>1 job</t>
@@ -17222,7 +17882,11 @@
       <c r="E170" t="n">
         <v>272</v>
       </c>
-      <c r="F170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G170" t="inlineStr">
         <is>
           <t xml:space="preserve">Internet and PABX System </t>
@@ -17238,7 +17902,11 @@
           <t>TOTEN</t>
         </is>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>1 nos</t>
@@ -17318,7 +17986,11 @@
       <c r="E171" t="n">
         <v>272</v>
       </c>
-      <c r="F171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G171" t="inlineStr">
         <is>
           <t xml:space="preserve">Internet and PABX System </t>
@@ -17329,8 +18001,16 @@
           <t xml:space="preserve">24 PORT RACK MOUNTED SWITCH </t>
         </is>
       </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>4 nos</t>
@@ -17410,7 +18090,11 @@
       <c r="E172" t="n">
         <v>272</v>
       </c>
-      <c r="F172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G172" t="inlineStr">
         <is>
           <t xml:space="preserve">Internet and PABX System </t>
@@ -17426,7 +18110,11 @@
           <t>CISCO/ EQUIVALENT</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>5 nos</t>
@@ -17506,7 +18194,11 @@
       <c r="E173" t="n">
         <v>272</v>
       </c>
-      <c r="F173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G173" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -17522,7 +18214,11 @@
           <t>COTTO/TOTO</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>4 pcs</t>
@@ -17602,7 +18298,11 @@
       <c r="E174" t="n">
         <v>272</v>
       </c>
-      <c r="F174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G174" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -17618,7 +18318,11 @@
           <t>Partex</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>6 pcs</t>
@@ -17698,7 +18402,11 @@
       <c r="E175" t="n">
         <v>272</v>
       </c>
-      <c r="F175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G175" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -17714,7 +18422,11 @@
           <t>COTTO/TOTO</t>
         </is>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>4 pcs</t>
@@ -17794,7 +18506,11 @@
       <c r="E176" t="n">
         <v>272</v>
       </c>
-      <c r="F176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G176" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -17805,8 +18521,16 @@
           <t xml:space="preserve">STEEL SINK        </t>
         </is>
       </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>1 pcs</t>
@@ -17886,7 +18610,11 @@
       <c r="E177" t="n">
         <v>272</v>
       </c>
-      <c r="F177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G177" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -17897,8 +18625,16 @@
           <t xml:space="preserve">TOWEL RAIL  </t>
         </is>
       </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>4 pcs</t>
@@ -17978,7 +18714,11 @@
       <c r="E178" t="n">
         <v>272</v>
       </c>
-      <c r="F178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G178" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -17989,8 +18729,16 @@
           <t xml:space="preserve">TOILET PAPER HOLDER   </t>
         </is>
       </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>4 pcs</t>
@@ -18070,7 +18818,11 @@
       <c r="E179" t="n">
         <v>272</v>
       </c>
-      <c r="F179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G179" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -18081,8 +18833,16 @@
           <t xml:space="preserve">ANGLE STOP COCK SUPPLYING, FITTING &amp; FIXING      </t>
         </is>
       </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>16 pcs</t>
@@ -18162,7 +18922,11 @@
       <c r="E180" t="n">
         <v>272</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G180" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -18178,7 +18942,11 @@
           <t>HAIBALI/ SIMILAR</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>4 pcs</t>
@@ -18258,7 +19026,11 @@
       <c r="E181" t="n">
         <v>272</v>
       </c>
-      <c r="F181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G181" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -18269,8 +19041,16 @@
           <t xml:space="preserve">MIRROR SUPPLY     </t>
         </is>
       </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>71 sft</t>
@@ -18350,7 +19130,11 @@
       <c r="E182" t="n">
         <v>272</v>
       </c>
-      <c r="F182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G182" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -18361,8 +19145,16 @@
           <t xml:space="preserve">SS GRATING </t>
         </is>
       </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>5 pcs</t>
@@ -18442,7 +19234,11 @@
       <c r="E183" t="n">
         <v>272</v>
       </c>
-      <c r="F183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G183" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -18453,8 +19249,16 @@
           <t>WALL HUNG LIQUID SOAP DISPENSER</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>5 pcs</t>
@@ -18534,7 +19338,11 @@
       <c r="E184" t="n">
         <v>272</v>
       </c>
-      <c r="F184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G184" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -18546,8 +19354,16 @@
 FIXING OF FAUCET (Push pillar cock)</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>2 pcs</t>
@@ -18627,7 +19443,11 @@
       <c r="E185" t="n">
         <v>272</v>
       </c>
-      <c r="F185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G185" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -18638,8 +19458,16 @@
           <t>BIB COCK. BRAND: NAZMA/ SHARIF</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>3 pcs</t>
@@ -18719,7 +19547,11 @@
       <c r="E186" t="n">
         <v>272</v>
       </c>
-      <c r="F186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G186" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -18730,8 +19562,16 @@
           <t>EXHAUST FAN</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>4 pcs</t>
@@ -18811,7 +19651,11 @@
       <c r="E187" t="n">
         <v>272</v>
       </c>
-      <c r="F187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G187" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -18822,8 +19666,16 @@
           <t>BASIN WASTE PIPE</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>6 pcs</t>
@@ -18903,7 +19755,11 @@
       <c r="E188" t="n">
         <v>272</v>
       </c>
-      <c r="F188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G188" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -18914,8 +19770,16 @@
           <t>COAT HANGER</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>4 pcs</t>
@@ -18995,7 +19859,11 @@
       <c r="E189" t="n">
         <v>272</v>
       </c>
-      <c r="F189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G189" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -19006,8 +19874,16 @@
           <t>SANITARY WIRING &amp; LABOUR CHARGE</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>5 pcs</t>
@@ -19087,7 +19963,11 @@
       <c r="E190" t="n">
         <v>272</v>
       </c>
-      <c r="F190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G190" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -19103,7 +19983,11 @@
           <t>Cotto, Thailand</t>
         </is>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>3 nos</t>
@@ -19183,7 +20067,11 @@
       <c r="E191" t="n">
         <v>272</v>
       </c>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G191" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -19199,7 +20087,11 @@
           <t xml:space="preserve"> Cotto, Thailand</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>1 nos</t>
@@ -19279,7 +20171,11 @@
       <c r="E192" t="n">
         <v>272</v>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G192" t="inlineStr">
         <is>
           <t>Sanitary Fittings</t>
@@ -19290,8 +20186,16 @@
           <t>Sink Cock</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>1 nos</t>
@@ -19371,7 +20275,11 @@
       <c r="E193" t="n">
         <v>272</v>
       </c>
-      <c r="F193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G193" t="inlineStr">
         <is>
           <t>Speaker System</t>
@@ -19387,7 +20295,11 @@
           <t>BOSH</t>
         </is>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>6</t>
@@ -19467,7 +20379,11 @@
       <c r="E194" t="n">
         <v>272</v>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G194" t="inlineStr">
         <is>
           <t>Speaker System</t>
@@ -19483,7 +20399,11 @@
           <t>BOSH</t>
         </is>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>1</t>
@@ -19563,7 +20483,11 @@
       <c r="E195" t="n">
         <v>272</v>
       </c>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G195" t="inlineStr">
         <is>
           <t>Speaker System</t>
@@ -19579,7 +20503,11 @@
           <t>BOSH</t>
         </is>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>1</t>
@@ -19659,7 +20587,11 @@
       <c r="E196" t="n">
         <v>272</v>
       </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G196" t="inlineStr">
         <is>
           <t>Speaker System</t>
@@ -19670,8 +20602,16 @@
           <t>WIRELESS HAND HALL MICRO PHONE SUPPLY &amp;  INSTALLATION</t>
         </is>
       </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>2</t>
@@ -19751,7 +20691,11 @@
       <c r="E197" t="n">
         <v>272</v>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G197" t="inlineStr">
         <is>
           <t>Speaker System</t>
@@ -19762,8 +20706,16 @@
           <t>INSTALLATION CHARGE OTHER ACCESSORIES</t>
         </is>
       </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>1 job</t>
@@ -19843,7 +20795,11 @@
       <c r="E198" t="n">
         <v>272</v>
       </c>
-      <c r="F198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G198" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -19859,7 +20815,11 @@
           <t>BOSHUNDHORA/ RFL/ SIMILAR</t>
         </is>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>1750 rft</t>
@@ -19939,7 +20899,11 @@
       <c r="E199" t="n">
         <v>272</v>
       </c>
-      <c r="F199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G199" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -19955,7 +20919,11 @@
           <t>BOSHUNDHORA/ RFL/ SIMILAR</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>2100 rft</t>
@@ -20035,7 +21003,11 @@
       <c r="E200" t="n">
         <v>272</v>
       </c>
-      <c r="F200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G200" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -20051,7 +21023,11 @@
           <t>BOSHUNDHORA/ RFL/ SIMILAR</t>
         </is>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>280 rft</t>
@@ -20131,7 +21107,11 @@
       <c r="E201" t="n">
         <v>272</v>
       </c>
-      <c r="F201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G201" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -20147,7 +21127,11 @@
           <t>BOSHUNDHORA/ RFL/ SIMILAR</t>
         </is>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>1375 rft</t>
@@ -20227,7 +21211,11 @@
       <c r="E202" t="n">
         <v>272</v>
       </c>
-      <c r="F202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G202" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -20243,7 +21231,11 @@
           <t>BOSHUNDHORA/ RFL/ SIMILAR</t>
         </is>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>1500 rft</t>
@@ -20323,7 +21315,11 @@
       <c r="E203" t="n">
         <v>272</v>
       </c>
-      <c r="F203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G203" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -20339,7 +21335,11 @@
           <t>BOSHUNDHORA/ RFL/ SIMILAR</t>
         </is>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>175 rft</t>
@@ -20419,7 +21419,11 @@
       <c r="E204" t="n">
         <v>272</v>
       </c>
-      <c r="F204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G204" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -20435,7 +21439,11 @@
           <t>BRB/ BBS/ PARADISE/ SIMILAR</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>35 coil</t>
@@ -20515,7 +21523,11 @@
       <c r="E205" t="n">
         <v>272</v>
       </c>
-      <c r="F205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G205" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -20531,7 +21543,11 @@
           <t>BRB/ BBS/ PARADISE/ SIMILAR</t>
         </is>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>50 coil</t>
@@ -20611,7 +21627,11 @@
       <c r="E206" t="n">
         <v>272</v>
       </c>
-      <c r="F206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G206" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -20627,7 +21647,11 @@
           <t>BRB/ BBS/ PARADISE/ SIMILAR</t>
         </is>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>13 coil</t>
@@ -20707,7 +21731,11 @@
       <c r="E207" t="n">
         <v>272</v>
       </c>
-      <c r="F207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G207" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -20723,7 +21751,11 @@
           <t>BRB/ BBS/ PARADISE/ SIMILAR</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>4 coil</t>
@@ -20803,7 +21835,11 @@
       <c r="E208" t="n">
         <v>272</v>
       </c>
-      <c r="F208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G208" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -20819,7 +21855,11 @@
           <t>BRB/ BBS/ PARADISE/ SIMILAR</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>22 coil</t>
@@ -20899,7 +21939,11 @@
       <c r="E209" t="n">
         <v>272</v>
       </c>
-      <c r="F209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G209" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -20915,7 +21959,11 @@
           <t>LEGRAND/ ABB/SIEMENS</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>25 each</t>
@@ -20995,7 +22043,11 @@
       <c r="E210" t="n">
         <v>272</v>
       </c>
-      <c r="F210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G210" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -21011,7 +22063,11 @@
           <t>LEGRAND/ ABB/SIEMENS</t>
         </is>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>33 each</t>
@@ -21091,7 +22147,11 @@
       <c r="E211" t="n">
         <v>272</v>
       </c>
-      <c r="F211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G211" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -21107,7 +22167,11 @@
           <t>LEGRAND/ SIMILAR</t>
         </is>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>10 each</t>
@@ -21187,7 +22251,11 @@
       <c r="E212" t="n">
         <v>272</v>
       </c>
-      <c r="F212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G212" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -21203,7 +22271,11 @@
           <t>LEGRAND/ SIMILAR</t>
         </is>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>18 each</t>
@@ -21283,7 +22355,11 @@
       <c r="E213" t="n">
         <v>272</v>
       </c>
-      <c r="F213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G213" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -21299,7 +22375,11 @@
           <t>LEGRAND/ SIMILAR</t>
         </is>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>22 each</t>
@@ -21379,7 +22459,11 @@
       <c r="E214" t="n">
         <v>272</v>
       </c>
-      <c r="F214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G214" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -21395,7 +22479,11 @@
           <t>LEGRAND/ SIMILAR</t>
         </is>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>6 each</t>
@@ -21475,7 +22563,11 @@
       <c r="E215" t="n">
         <v>272</v>
       </c>
-      <c r="F215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G215" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -21491,7 +22583,11 @@
           <t>ENERGY PLUS/ OSRAM/ WIPRO/MICROSHINE/ PHILIPS</t>
         </is>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>16 pcs</t>
@@ -21571,7 +22667,11 @@
       <c r="E216" t="n">
         <v>272</v>
       </c>
-      <c r="F216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G216" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -21587,7 +22687,11 @@
           <t>ENERGY PLUS/ OSRAM/ WIPRO/MICROSHINE/ PHILIPS</t>
         </is>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>28 pcs</t>
@@ -21667,7 +22771,11 @@
       <c r="E217" t="n">
         <v>272</v>
       </c>
-      <c r="F217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G217" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -21683,7 +22791,11 @@
           <t>ENERGY PLUS/ OSRAM/ WIPRO/MICROSHINE/ PHILIPS</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>175 pcs</t>
@@ -21763,7 +22875,11 @@
       <c r="E218" t="n">
         <v>272</v>
       </c>
-      <c r="F218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G218" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -21863,7 +22979,11 @@
       <c r="E219" t="n">
         <v>272</v>
       </c>
-      <c r="F219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G219" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -21963,7 +23083,11 @@
       <c r="E220" t="n">
         <v>272</v>
       </c>
-      <c r="F220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G220" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -21979,7 +23103,11 @@
           <t>Hitachi</t>
         </is>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>1 job</t>
@@ -22059,7 +23187,11 @@
       <c r="E221" t="n">
         <v>272</v>
       </c>
-      <c r="F221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G221" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -22070,7 +23202,11 @@
           <t>70''*70'' ELECTRIC PROJECTOR SCREEN</t>
         </is>
       </c>
-      <c r="I221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="J221" t="inlineStr">
         <is>
           <t>Matte white</t>
@@ -22155,7 +23291,11 @@
       <c r="E222" t="n">
         <v>272</v>
       </c>
-      <c r="F222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G222" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -22166,8 +23306,16 @@
           <t>Exhaust Ducting Pipe works</t>
         </is>
       </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>95 rft</t>
@@ -22247,7 +23395,11 @@
       <c r="E223" t="n">
         <v>272</v>
       </c>
-      <c r="F223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G223" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -22258,8 +23410,16 @@
           <t>Cable Tray</t>
         </is>
       </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>135 rft</t>
@@ -22339,7 +23499,11 @@
       <c r="E224" t="n">
         <v>272</v>
       </c>
-      <c r="F224" t="inlineStr"/>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G224" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -22350,7 +23514,11 @@
           <t>Cables Works : (for AC outdoor)</t>
         </is>
       </c>
-      <c r="I224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="J224" t="inlineStr">
         <is>
           <t>1Cx16RM NYY BYA FRLS</t>
@@ -22435,7 +23603,11 @@
       <c r="E225" t="n">
         <v>272</v>
       </c>
-      <c r="F225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G225" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -22446,7 +23618,11 @@
           <t>Cables Works : (for AC outdoor)</t>
         </is>
       </c>
-      <c r="I225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="J225" t="inlineStr">
         <is>
           <t>1Cx10RM NYY BYA FRLS</t>
@@ -22531,7 +23707,11 @@
       <c r="E226" t="n">
         <v>272</v>
       </c>
-      <c r="F226" t="inlineStr"/>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G226" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -22542,7 +23722,11 @@
           <t>Electrical Socket</t>
         </is>
       </c>
-      <c r="I226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="J226" t="inlineStr">
         <is>
           <t>Multi</t>
@@ -22627,7 +23811,11 @@
       <c r="E227" t="n">
         <v>272</v>
       </c>
-      <c r="F227" t="inlineStr"/>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G227" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -22643,7 +23831,11 @@
           <t>PRC (Fixture) Lamp OSRAM</t>
         </is>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>20 nos</t>
@@ -22723,7 +23915,11 @@
       <c r="E228" t="n">
         <v>272</v>
       </c>
-      <c r="F228" t="inlineStr"/>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G228" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -22734,8 +23930,16 @@
           <t>Cuttaset Light</t>
         </is>
       </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>13 nos</t>
@@ -22815,7 +24019,11 @@
       <c r="E229" t="n">
         <v>272</v>
       </c>
-      <c r="F229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G229" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -22826,8 +24034,16 @@
           <t>Silinder light for cable tray bottom</t>
         </is>
       </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>8 nos</t>
@@ -22907,7 +24123,11 @@
       <c r="E230" t="n">
         <v>272</v>
       </c>
-      <c r="F230" t="inlineStr"/>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G230" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -22918,8 +24138,16 @@
           <t>Silinder light for dinning room</t>
         </is>
       </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>4 nos</t>
@@ -22999,7 +24227,11 @@
       <c r="E231" t="n">
         <v>272</v>
       </c>
-      <c r="F231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G231" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -23010,8 +24242,16 @@
           <t>20A DP Switch for Gyser</t>
         </is>
       </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>1 nos</t>
@@ -23091,7 +24331,11 @@
       <c r="E232" t="n">
         <v>272</v>
       </c>
-      <c r="F232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G232" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -23102,8 +24346,16 @@
           <t>2G Steel MK Box</t>
         </is>
       </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>41 nos</t>
@@ -23183,7 +24435,11 @@
       <c r="E233" t="n">
         <v>272</v>
       </c>
-      <c r="F233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G233" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -23194,8 +24450,16 @@
           <t>Track Light</t>
         </is>
       </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>18 nos</t>
@@ -23275,7 +24539,11 @@
       <c r="E234" t="n">
         <v>272</v>
       </c>
-      <c r="F234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G234" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -23286,8 +24554,16 @@
           <t>2 metre track Channel</t>
         </is>
       </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>10 nos</t>
@@ -23367,7 +24643,11 @@
       <c r="E235" t="n">
         <v>272</v>
       </c>
-      <c r="F235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G235" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -23378,7 +24658,11 @@
           <t>Round Fabric Laight</t>
         </is>
       </c>
-      <c r="I235" t="inlineStr"/>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="J235" t="inlineStr">
         <is>
           <t>450mm dia</t>
@@ -23463,7 +24747,11 @@
       <c r="E236" t="n">
         <v>272</v>
       </c>
-      <c r="F236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G236" t="inlineStr">
         <is>
           <t>Electrical Wire and Fittings</t>
@@ -23474,7 +24762,11 @@
           <t>Round Fabric Laight</t>
         </is>
       </c>
-      <c r="I236" t="inlineStr"/>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="J236" t="inlineStr">
         <is>
           <t>600mm dia for dinning</t>
@@ -23559,7 +24851,11 @@
       <c r="E237" t="n">
         <v>272</v>
       </c>
-      <c r="F237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G237" t="inlineStr">
         <is>
           <t>Paint Works</t>
@@ -23570,8 +24866,16 @@
           <t xml:space="preserve">PLASTIC PAINTING  </t>
         </is>
       </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>14365 sft</t>
@@ -23651,7 +24955,11 @@
       <c r="E238" t="n">
         <v>272</v>
       </c>
-      <c r="F238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G238" t="inlineStr">
         <is>
           <t>Paint Works</t>
@@ -23662,8 +24970,16 @@
           <t>HAND POLISH PAINT WORK</t>
         </is>
       </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>945 sft</t>
@@ -23743,7 +25059,11 @@
       <c r="E239" t="n">
         <v>272</v>
       </c>
-      <c r="F239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G239" t="inlineStr">
         <is>
           <t>Paint Works</t>
@@ -23754,8 +25074,16 @@
           <t>DOCU PAINT ( KANGAROO)</t>
         </is>
       </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>225 sft</t>
@@ -23835,7 +25163,11 @@
       <c r="E240" t="n">
         <v>272</v>
       </c>
-      <c r="F240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G240" t="inlineStr">
         <is>
           <t>Paint Works</t>
@@ -23846,8 +25178,16 @@
           <t>LACQUER PAINT WORK</t>
         </is>
       </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>926 sft</t>
@@ -23927,7 +25267,11 @@
       <c r="E241" t="n">
         <v>272</v>
       </c>
-      <c r="F241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G241" t="inlineStr">
         <is>
           <t>Paint Works</t>
@@ -23938,8 +25282,16 @@
           <t>Enamel Paint</t>
         </is>
       </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>605 sft</t>
@@ -24019,7 +25371,11 @@
       <c r="E242" t="n">
         <v>272</v>
       </c>
-      <c r="F242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G242" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -24030,8 +25386,16 @@
           <t>G I FRAME WORKS FOR PARTITIONS</t>
         </is>
       </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>1923.37 sft</t>
@@ -24111,7 +25475,11 @@
       <c r="E243" t="n">
         <v>272</v>
       </c>
-      <c r="F243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G243" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -24122,8 +25490,16 @@
           <t>CLADDING OF DOUBLE LAYER BOARD</t>
         </is>
       </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>555.18 sft</t>
@@ -24203,7 +25579,11 @@
       <c r="E244" t="n">
         <v>272</v>
       </c>
-      <c r="F244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G244" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -24214,8 +25594,16 @@
           <t>CLADDING OF DOUBLE LAYER OF PLY BOARD (P2)</t>
         </is>
       </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>333.66 sft</t>
@@ -24295,7 +25683,11 @@
       <c r="E245" t="n">
         <v>272</v>
       </c>
-      <c r="F245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G245" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -24306,8 +25698,16 @@
           <t>CLADDING OF DOUBLE LAYER OF 12MM GYPSUM ON BOTH SIDE: (P3)</t>
         </is>
       </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>536.46 sft</t>
@@ -24387,7 +25787,11 @@
       <c r="E246" t="n">
         <v>272</v>
       </c>
-      <c r="F246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G246" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -24398,8 +25802,16 @@
           <t>CLADDING OF 12MM PLY</t>
         </is>
       </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>469.92 sft</t>
@@ -24479,7 +25891,11 @@
       <c r="E247" t="n">
         <v>272</v>
       </c>
-      <c r="F247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G247" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -24490,8 +25906,16 @@
           <t>CLADDING OF 12MM COMMERCIAL PARTICLE</t>
         </is>
       </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>1287.08 sft</t>
@@ -24571,7 +25995,11 @@
       <c r="E248" t="n">
         <v>272</v>
       </c>
-      <c r="F248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G248" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -24582,8 +26010,16 @@
           <t>Pelmet for blinds</t>
         </is>
       </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>138 rft</t>
@@ -24663,7 +26099,11 @@
       <c r="E249" t="n">
         <v>272</v>
       </c>
-      <c r="F249" t="inlineStr"/>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G249" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -24674,8 +26114,16 @@
           <t>Pelmet for Projector screen</t>
         </is>
       </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>8 rft</t>
@@ -24755,7 +26203,11 @@
       <c r="E250" t="n">
         <v>272</v>
       </c>
-      <c r="F250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G250" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -24766,8 +26218,16 @@
           <t>LAMINATE CLADDING  with Merino/Greenlamp Laminate</t>
         </is>
       </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>783.35 sft</t>
@@ -24847,7 +26307,11 @@
       <c r="E251" t="n">
         <v>272</v>
       </c>
-      <c r="F251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G251" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -24858,8 +26322,16 @@
           <t>GLASS MARKER BOARD BOARD/COLOUR LACQUER GLASS</t>
         </is>
       </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>82.50 sft</t>
@@ -24939,7 +26411,11 @@
       <c r="E252" t="n">
         <v>272</v>
       </c>
-      <c r="F252" t="inlineStr"/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G252" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -24950,8 +26426,16 @@
           <t>ALUMINIUM U PROFILE</t>
         </is>
       </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>380 rft</t>
@@ -25031,7 +26515,11 @@
       <c r="E253" t="n">
         <v>272</v>
       </c>
-      <c r="F253" t="inlineStr"/>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G253" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -25042,8 +26530,16 @@
           <t>SKIRTING</t>
         </is>
       </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>628 rft</t>
@@ -25123,7 +26619,11 @@
       <c r="E254" t="n">
         <v>272</v>
       </c>
-      <c r="F254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G254" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -25134,8 +26634,16 @@
           <t>DEKO 1090 GV SERIES (DOUBLE) ACOUSTIC GLAZED PARTITIONS</t>
         </is>
       </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>626.68 Sft</t>
@@ -25215,7 +26723,11 @@
       <c r="E255" t="n">
         <v>272</v>
       </c>
-      <c r="F255" t="inlineStr"/>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G255" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -25226,8 +26738,16 @@
           <t>SINGLE LEAF GLAZED DOOR WITH PROPRIETARY ALUMINIUM  FRAME &amp; STILE GLAZED SHUTTER (DEKO-GV1090)</t>
         </is>
       </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>6 NOS</t>
@@ -25307,7 +26827,11 @@
       <c r="E256" t="n">
         <v>272</v>
       </c>
-      <c r="F256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G256" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -25318,8 +26842,16 @@
           <t xml:space="preserve">JOINTLESS GYPSUM PLAIN CEILING </t>
         </is>
       </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>3617 SFT</t>
@@ -25399,7 +26931,11 @@
       <c r="E257" t="n">
         <v>272</v>
       </c>
-      <c r="F257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G257" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -25410,8 +26946,16 @@
           <t>WOODEN DROP CEILING</t>
         </is>
       </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>261.29 SFT</t>
@@ -25491,7 +27035,11 @@
       <c r="E258" t="n">
         <v>272</v>
       </c>
-      <c r="F258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G258" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -25502,8 +27050,16 @@
           <t xml:space="preserve">TEMPERED GLASS DOOR ( 8'-0''*3'-0'')          </t>
         </is>
       </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>7 NOS</t>
@@ -25583,7 +27139,11 @@
       <c r="E259" t="n">
         <v>272</v>
       </c>
-      <c r="F259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G259" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -25594,8 +27154,16 @@
           <t>4' GLASS DOOR HANDLE</t>
         </is>
       </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>7 pair</t>
@@ -25675,7 +27243,11 @@
       <c r="E260" t="n">
         <v>272</v>
       </c>
-      <c r="F260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G260" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -25686,8 +27258,16 @@
           <t>FLUSH DOOR SHUTTER WITH FRAME</t>
         </is>
       </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>9 pcs</t>
@@ -25767,7 +27347,11 @@
       <c r="E261" t="n">
         <v>272</v>
       </c>
-      <c r="F261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G261" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -25778,8 +27362,16 @@
           <t xml:space="preserve">FULL HEIGHT DRY WALL PARTITION                           </t>
         </is>
       </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>1106.90 sft</t>
@@ -25859,7 +27451,11 @@
       <c r="E262" t="n">
         <v>272</v>
       </c>
-      <c r="F262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G262" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -25870,8 +27466,16 @@
           <t xml:space="preserve">PVC BOARD PASTING </t>
         </is>
       </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>485.17 sft</t>
@@ -25951,7 +27555,11 @@
       <c r="E263" t="n">
         <v>272</v>
       </c>
-      <c r="F263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G263" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -25962,8 +27570,16 @@
           <t xml:space="preserve">ACOUSTIC PANELING      </t>
         </is>
       </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>304.24 sft</t>
@@ -26043,7 +27659,11 @@
       <c r="E264" t="n">
         <v>272</v>
       </c>
-      <c r="F264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G264" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -26054,8 +27674,16 @@
           <t xml:space="preserve">ROLLER BLINDS                                                                   </t>
         </is>
       </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>1520.79 sft</t>
@@ -26135,7 +27763,11 @@
       <c r="E265" t="n">
         <v>272</v>
       </c>
-      <c r="F265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G265" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -26146,8 +27778,16 @@
           <t xml:space="preserve">INJECT PRINT WITH PASTING   </t>
         </is>
       </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>355 sft</t>
@@ -26227,7 +27867,11 @@
       <c r="E266" t="n">
         <v>272</v>
       </c>
-      <c r="F266" t="inlineStr"/>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G266" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -26238,8 +27882,16 @@
           <t>FROSTED PAPER SUPPLY &amp; PASTING</t>
         </is>
       </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>791.85 sft</t>
@@ -26319,7 +27971,11 @@
       <c r="E267" t="n">
         <v>272</v>
       </c>
-      <c r="F267" t="inlineStr"/>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G267" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -26330,8 +27986,16 @@
           <t>LOGO WORKS</t>
         </is>
       </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>1 job</t>
@@ -26411,7 +28075,11 @@
       <c r="E268" t="n">
         <v>272</v>
       </c>
-      <c r="F268" t="inlineStr"/>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G268" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -26422,8 +28090,16 @@
           <t>AC RE- ARRANGE INSTALLATION CHARGE &amp; COOPER PIPE, DRAIN WATER PIPE &amp; OTHER ACCESSOROES</t>
         </is>
       </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>1 job</t>
@@ -26503,7 +28179,11 @@
       <c r="E269" t="n">
         <v>272</v>
       </c>
-      <c r="F269" t="inlineStr"/>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G269" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -26514,7 +28194,11 @@
           <t xml:space="preserve">PVC FLOOR </t>
         </is>
       </c>
-      <c r="I269" t="inlineStr"/>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="J269" t="inlineStr">
         <is>
           <t>WOODEN TEXTURE</t>
@@ -26599,7 +28283,11 @@
       <c r="E270" t="n">
         <v>272</v>
       </c>
-      <c r="F270" t="inlineStr"/>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G270" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -26610,8 +28298,16 @@
           <t>VINEER BOARD LOUVER CEILING</t>
         </is>
       </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>128 sft</t>
@@ -26691,7 +28387,11 @@
       <c r="E271" t="n">
         <v>272</v>
       </c>
-      <c r="F271" t="inlineStr"/>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G271" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -26702,8 +28402,16 @@
           <t>Commercial Board Louver</t>
         </is>
       </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>115 sft</t>
@@ -26783,7 +28491,11 @@
       <c r="E272" t="n">
         <v>272</v>
       </c>
-      <c r="F272" t="inlineStr"/>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G272" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -26794,8 +28506,16 @@
           <t>Router Cutting Board to cahairman sir room</t>
         </is>
       </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>296 sft</t>
@@ -26875,7 +28595,11 @@
       <c r="E273" t="n">
         <v>272</v>
       </c>
-      <c r="F273" t="inlineStr"/>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G273" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -26886,8 +28610,16 @@
           <t>DECORATIVE  WALL PANELING</t>
         </is>
       </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>357.83 sft</t>
@@ -26967,7 +28699,11 @@
       <c r="E274" t="n">
         <v>272</v>
       </c>
-      <c r="F274" t="inlineStr"/>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G274" t="inlineStr">
         <is>
           <t>Interior Fit-out Works</t>
@@ -26978,8 +28714,16 @@
           <t>PVC Board Cladding</t>
         </is>
       </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>12 sft</t>
@@ -27059,7 +28803,11 @@
       <c r="E275" t="n">
         <v>272</v>
       </c>
-      <c r="F275" t="inlineStr"/>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G275" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -27070,8 +28818,16 @@
           <t>OPEN SPACE - WORKSTATION (WS1)</t>
         </is>
       </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>50 nos</t>
@@ -27151,7 +28907,11 @@
       <c r="E276" t="n">
         <v>272</v>
       </c>
-      <c r="F276" t="inlineStr"/>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G276" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -27162,8 +28922,16 @@
           <t>Fabric/Divider Partition on Work station.</t>
         </is>
       </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>26 nos</t>
@@ -27243,7 +29011,11 @@
       <c r="E277" t="n">
         <v>272</v>
       </c>
-      <c r="F277" t="inlineStr"/>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G277" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -27254,8 +29026,16 @@
           <t>Table top, Tri_com understructure, Wire Management</t>
         </is>
       </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>3 set</t>
@@ -27335,7 +29115,11 @@
       <c r="E278" t="n">
         <v>272</v>
       </c>
-      <c r="F278" t="inlineStr"/>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G278" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -27346,8 +29130,16 @@
           <t>COLLABORATION TABLE</t>
         </is>
       </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>1 nos</t>
@@ -27427,7 +29219,11 @@
       <c r="E279" t="n">
         <v>272</v>
       </c>
-      <c r="F279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G279" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -27438,8 +29234,16 @@
           <t>COLLABORATION HIGH TABLE</t>
         </is>
       </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>1 nos</t>
@@ -27519,7 +29323,11 @@
       <c r="E280" t="n">
         <v>272</v>
       </c>
-      <c r="F280" t="inlineStr"/>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G280" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -27530,8 +29338,16 @@
           <t>COLLABORATION HIGH CHAIR</t>
         </is>
       </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>4 nos</t>
@@ -27611,7 +29427,11 @@
       <c r="E281" t="n">
         <v>272</v>
       </c>
-      <c r="F281" t="inlineStr"/>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G281" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -27622,8 +29442,16 @@
           <t>DINING FIXED TABLE</t>
         </is>
       </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>2</t>
@@ -27703,7 +29531,11 @@
       <c r="E282" t="n">
         <v>272</v>
       </c>
-      <c r="F282" t="inlineStr"/>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G282" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -27714,8 +29546,16 @@
           <t>DINING CHAIR</t>
         </is>
       </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>12 nos</t>
@@ -27795,7 +29635,11 @@
       <c r="E283" t="n">
         <v>272</v>
       </c>
-      <c r="F283" t="inlineStr"/>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G283" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -27806,8 +29650,16 @@
           <t>MS STRUCTURE WITH OPEN DISPLAY UNIT</t>
         </is>
       </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>192 sft</t>
@@ -27887,7 +29739,11 @@
       <c r="E284" t="n">
         <v>272</v>
       </c>
-      <c r="F284" t="inlineStr"/>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G284" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -27903,7 +29759,11 @@
           <t xml:space="preserve">Victory/Equivalent </t>
         </is>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>1 pcs</t>
@@ -27983,7 +29843,11 @@
       <c r="E285" t="n">
         <v>272</v>
       </c>
-      <c r="F285" t="inlineStr"/>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G285" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -27999,7 +29863,11 @@
           <t>Rainbow /Equivalent</t>
         </is>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>6 PCS</t>
@@ -28079,7 +29947,11 @@
       <c r="E286" t="n">
         <v>272</v>
       </c>
-      <c r="F286" t="inlineStr"/>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G286" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -28095,7 +29967,11 @@
           <t>Victory/Equivalent</t>
         </is>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>4 pcs</t>
@@ -28175,7 +30051,11 @@
       <c r="E287" t="n">
         <v>272</v>
       </c>
-      <c r="F287" t="inlineStr"/>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G287" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -28186,8 +30066,16 @@
           <t xml:space="preserve">CHAIRMAN TABLE WITH SIDE TABLE     </t>
         </is>
       </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>1 pcs</t>
@@ -28267,7 +30155,11 @@
       <c r="E288" t="n">
         <v>272</v>
       </c>
-      <c r="F288" t="inlineStr"/>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G288" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -28283,7 +30175,11 @@
           <t xml:space="preserve"> Victory/Equivalent </t>
         </is>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>1 pcs</t>
@@ -28363,7 +30259,11 @@
       <c r="E289" t="n">
         <v>272</v>
       </c>
-      <c r="F289" t="inlineStr"/>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G289" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -28379,7 +30279,11 @@
           <t>Merry fair/Rainbow/Equivalent</t>
         </is>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>50 pcs</t>
@@ -28459,7 +30363,11 @@
       <c r="E290" t="n">
         <v>272</v>
       </c>
-      <c r="F290" t="inlineStr"/>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G290" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -28475,7 +30383,11 @@
           <t>Merry fair/Rainbow/Equivalent</t>
         </is>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>1 pcs</t>
@@ -28555,7 +30467,11 @@
       <c r="E291" t="n">
         <v>272</v>
       </c>
-      <c r="F291" t="inlineStr"/>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G291" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -28571,7 +30487,11 @@
           <t>Merry fair/Rainbow/Equivalent</t>
         </is>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>8 pcs</t>
@@ -28651,7 +30571,11 @@
       <c r="E292" t="n">
         <v>272</v>
       </c>
-      <c r="F292" t="inlineStr"/>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G292" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -28667,7 +30591,11 @@
           <t>Partex/Similar</t>
         </is>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>36 sft</t>
@@ -28747,7 +30675,11 @@
       <c r="E293" t="n">
         <v>272</v>
       </c>
-      <c r="F293" t="inlineStr"/>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G293" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -28763,7 +30695,11 @@
           <t>Partex/Similar</t>
         </is>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>182.20 sft</t>
@@ -28843,7 +30779,11 @@
       <c r="E294" t="n">
         <v>272</v>
       </c>
-      <c r="F294" t="inlineStr"/>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G294" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -28859,7 +30799,11 @@
           <t>Partex/Similar</t>
         </is>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>13.75 SFT</t>
@@ -28939,7 +30883,11 @@
       <c r="E295" t="n">
         <v>272</v>
       </c>
-      <c r="F295" t="inlineStr"/>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G295" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -28955,7 +30903,11 @@
           <t>Partex/Similar</t>
         </is>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>50 PCS</t>
@@ -29035,7 +30987,11 @@
       <c r="E296" t="n">
         <v>272</v>
       </c>
-      <c r="F296" t="inlineStr"/>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G296" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -29046,8 +31002,16 @@
           <t xml:space="preserve">SYNTHETIC MODULAR CARPET                                          </t>
         </is>
       </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>4008 SFT</t>
@@ -29127,7 +31091,11 @@
       <c r="E297" t="n">
         <v>272</v>
       </c>
-      <c r="F297" t="inlineStr"/>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G297" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -29138,8 +31106,16 @@
           <t xml:space="preserve">ED Visitor Chair </t>
         </is>
       </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>8</t>
@@ -29219,7 +31195,11 @@
       <c r="E298" t="n">
         <v>272</v>
       </c>
-      <c r="F298" t="inlineStr"/>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G298" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -29230,8 +31210,16 @@
           <t xml:space="preserve">Director Chair </t>
         </is>
       </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>4</t>
@@ -29311,7 +31299,11 @@
       <c r="E299" t="n">
         <v>272</v>
       </c>
-      <c r="F299" t="inlineStr"/>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G299" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -29322,8 +31314,16 @@
           <t>IT,Accounts,Head of Admin Chair</t>
         </is>
       </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>3</t>
@@ -29403,7 +31403,11 @@
       <c r="E300" t="n">
         <v>272</v>
       </c>
-      <c r="F300" t="inlineStr"/>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G300" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -29414,8 +31418,16 @@
           <t>Executive Director Double Seater Sofa</t>
         </is>
       </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>4</t>
@@ -29495,7 +31507,11 @@
       <c r="E301" t="n">
         <v>272</v>
       </c>
-      <c r="F301" t="inlineStr"/>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G301" t="inlineStr">
         <is>
           <t>Furniture (Leasehold)</t>
@@ -29506,8 +31522,16 @@
           <t xml:space="preserve">Open Collaboration </t>
         </is>
       </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>1 nos</t>

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -654,7 +654,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T2" t="n">
-        <v>56861.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T3" t="n">
-        <v>22253</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T4" t="n">
-        <v>10810</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T5" t="n">
-        <v>21481</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T6" t="n">
-        <v>11653</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T7" t="n">
-        <v>32151</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T8" t="n">
-        <v>24570</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T9" t="n">
-        <v>47855</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T10" t="n">
-        <v>24829.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0.2</v>
       </c>
       <c r="T11" t="n">
-        <v>147229.6</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0.2</v>
       </c>
       <c r="T12" t="n">
-        <v>77000</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T13" t="n">
-        <v>50900</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T14" t="n">
-        <v>56900</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0.1</v>
       </c>
       <c r="T15" t="n">
-        <v>26880</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T16" t="n">
-        <v>16900</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T17" t="n">
-        <v>19500</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0.1</v>
       </c>
       <c r="T18" t="n">
-        <v>21102.053</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T19" t="n">
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>0.1</v>
       </c>
       <c r="T20" t="n">
-        <v>9450</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>0.1</v>
       </c>
       <c r="T21" t="n">
-        <v>21315</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T22" t="n">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T23" t="n">
-        <v>28287.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T24" t="n">
-        <v>20199</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0.1</v>
       </c>
       <c r="T25" t="n">
-        <v>38574.2</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0.1</v>
       </c>
       <c r="T26" t="n">
-        <v>8190</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>0.1</v>
       </c>
       <c r="T27" t="n">
-        <v>18144</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0.1</v>
       </c>
       <c r="T28" t="n">
-        <v>178752</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T29" t="n">
-        <v>56300</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0.1</v>
       </c>
       <c r="T30" t="n">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0.1</v>
       </c>
       <c r="T31" t="n">
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>0.1</v>
       </c>
       <c r="T32" t="n">
-        <v>20160</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T33" t="n">
-        <v>362600</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3928,7 +3928,7 @@
         <v>0.1</v>
       </c>
       <c r="T34" t="n">
-        <v>9362.5</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T35" t="n">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0.1</v>
       </c>
       <c r="T36" t="n">
-        <v>68110</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T37" t="n">
-        <v>53770</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T38" t="n">
-        <v>106500</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -4442,7 +4442,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T39" t="n">
-        <v>196000</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0.1</v>
       </c>
       <c r="T40" t="n">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>0.1</v>
       </c>
       <c r="T41" t="n">
-        <v>4462.5</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -4748,7 +4748,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T42" t="n">
-        <v>16408</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -4854,7 +4854,7 @@
         <v>0.1</v>
       </c>
       <c r="T43" t="n">
-        <v>9030</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>0.1</v>
       </c>
       <c r="T44" t="n">
-        <v>8206.352000000001</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0.1</v>
       </c>
       <c r="T45" t="n">
-        <v>2051.588</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T46" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5260,7 +5260,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T47" t="n">
-        <v>80249.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0.1</v>
       </c>
       <c r="T48" t="n">
-        <v>33750.5</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T49" t="n">
-        <v>54124</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>0.1</v>
       </c>
       <c r="T50" t="n">
-        <v>68068</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -5684,7 +5684,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T51" t="n">
-        <v>167000</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -5790,7 +5790,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T52" t="n">
-        <v>385049.9999999999</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>0.1</v>
       </c>
       <c r="T53" t="n">
-        <v>83930</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -6002,7 +6002,7 @@
         <v>0.1</v>
       </c>
       <c r="T54" t="n">
-        <v>39914.7</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -6108,13 +6108,13 @@
         <v>0.1</v>
       </c>
       <c r="T55" t="n">
-        <v>9652.859999999999</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>1378.98</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
         <v>1378.98</v>
@@ -6214,13 +6214,13 @@
         <v>0.1</v>
       </c>
       <c r="T56" t="n">
-        <v>4585</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="W56" t="n">
         <v>655</v>
@@ -6320,13 +6320,13 @@
         <v>0.1</v>
       </c>
       <c r="T57" t="n">
-        <v>19165.3</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>2737.9</v>
+        <v>0</v>
       </c>
       <c r="W57" t="n">
         <v>2737.9</v>
@@ -6426,13 +6426,13 @@
         <v>0.1</v>
       </c>
       <c r="T58" t="n">
-        <v>40180</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="W58" t="n">
         <v>5740</v>
@@ -6532,13 +6532,13 @@
         <v>0.1</v>
       </c>
       <c r="T59" t="n">
-        <v>25354</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
         <v>3622</v>
@@ -6638,13 +6638,13 @@
         <v>0.1</v>
       </c>
       <c r="T60" t="n">
-        <v>70729.39999999999</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>10104.2</v>
+        <v>0</v>
       </c>
       <c r="W60" t="n">
         <v>10104.2</v>
@@ -6740,13 +6740,13 @@
         <v>0.2</v>
       </c>
       <c r="T61" t="n">
-        <v>116480</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>16640</v>
+        <v>0</v>
       </c>
       <c r="W61" t="n">
         <v>16640</v>
@@ -6842,13 +6842,13 @@
         <v>0.2</v>
       </c>
       <c r="T62" t="n">
-        <v>204540</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>29220</v>
+        <v>0</v>
       </c>
       <c r="W62" t="n">
         <v>29220</v>
@@ -6944,13 +6944,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T63" t="n">
-        <v>18368</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
         <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>2624</v>
+        <v>0</v>
       </c>
       <c r="W63" t="n">
         <v>2624</v>
@@ -7046,13 +7046,13 @@
         <v>0.1</v>
       </c>
       <c r="T64" t="n">
-        <v>11950.498</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>1707.214</v>
+        <v>0</v>
       </c>
       <c r="W64" t="n">
         <v>1707.214</v>
@@ -7152,13 +7152,13 @@
         <v>0.1</v>
       </c>
       <c r="T65" t="n">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
         <v>9000</v>
@@ -7254,13 +7254,13 @@
         <v>0.2</v>
       </c>
       <c r="T66" t="n">
-        <v>276640</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>39520</v>
+        <v>0</v>
       </c>
       <c r="W66" t="n">
         <v>39520</v>
@@ -7356,13 +7356,13 @@
         <v>0.2</v>
       </c>
       <c r="T67" t="n">
-        <v>80780</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>11540</v>
+        <v>0</v>
       </c>
       <c r="W67" t="n">
         <v>11540</v>
@@ -7458,13 +7458,13 @@
         <v>0.1</v>
       </c>
       <c r="T68" t="n">
-        <v>38500</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
       </c>
       <c r="V68" t="n">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="W68" t="n">
         <v>5500</v>
@@ -7560,13 +7560,13 @@
         <v>0.1</v>
       </c>
       <c r="T69" t="n">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="W69" t="n">
         <v>2500</v>
@@ -7666,13 +7666,13 @@
         <v>0.1</v>
       </c>
       <c r="T70" t="n">
-        <v>32886</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
       <c r="W70" t="n">
         <v>4698</v>
@@ -7768,13 +7768,13 @@
         <v>0.1</v>
       </c>
       <c r="T71" t="n">
-        <v>5131</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="W71" t="n">
         <v>733</v>
@@ -7870,13 +7870,13 @@
         <v>0.2</v>
       </c>
       <c r="T72" t="n">
-        <v>64400</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="W72" t="n">
         <v>9200</v>
@@ -7972,13 +7972,13 @@
         <v>0.1</v>
       </c>
       <c r="T73" t="n">
-        <v>6650</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="W73" t="n">
         <v>950</v>
@@ -8074,13 +8074,13 @@
         <v>0.1</v>
       </c>
       <c r="T74" t="n">
-        <v>11760</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="W74" t="n">
         <v>1680</v>
@@ -8176,13 +8176,13 @@
         <v>0.1</v>
       </c>
       <c r="T75" t="n">
-        <v>8925</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="W75" t="n">
         <v>1275</v>
@@ -8278,13 +8278,13 @@
         <v>0.1</v>
       </c>
       <c r="T76" t="n">
-        <v>22050</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
       </c>
       <c r="V76" t="n">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="W76" t="n">
         <v>3150</v>
@@ -8378,13 +8378,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T77" t="n">
-        <v>20662</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>2951.714285714285</v>
+        <v>0</v>
       </c>
       <c r="W77" t="n">
         <v>2951.714285714285</v>
@@ -8480,13 +8480,13 @@
         <v>0.1</v>
       </c>
       <c r="T78" t="n">
-        <v>11874.1</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>1696.3</v>
+        <v>0</v>
       </c>
       <c r="W78" t="n">
         <v>1696.3</v>
@@ -8582,13 +8582,13 @@
         <v>0.1</v>
       </c>
       <c r="T79" t="n">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="W79" t="n">
         <v>1200</v>
@@ -8684,13 +8684,13 @@
         <v>0.1</v>
       </c>
       <c r="T80" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
         <v>0</v>
       </c>
       <c r="V80" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W80" t="n">
         <v>500</v>
@@ -8786,13 +8786,13 @@
         <v>0.2</v>
       </c>
       <c r="T81" t="n">
-        <v>89131</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>12733</v>
+        <v>0</v>
       </c>
       <c r="W81" t="n">
         <v>12733</v>
@@ -8888,13 +8888,13 @@
         <v>0.2</v>
       </c>
       <c r="T82" t="n">
-        <v>5243</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="W82" t="n">
         <v>749</v>
@@ -8990,13 +8990,13 @@
         <v>0.2</v>
       </c>
       <c r="T83" t="n">
-        <v>26215</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>3745</v>
+        <v>0</v>
       </c>
       <c r="W83" t="n">
         <v>3745</v>
@@ -9092,13 +9092,13 @@
         <v>0.2</v>
       </c>
       <c r="T84" t="n">
-        <v>40446</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>5778</v>
+        <v>0</v>
       </c>
       <c r="W84" t="n">
         <v>5778</v>
@@ -9194,13 +9194,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T85" t="n">
-        <v>39379.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>5625.714285714285</v>
+        <v>0</v>
       </c>
       <c r="W85" t="n">
         <v>5625.714285714285</v>
@@ -9296,13 +9296,13 @@
         <v>0.2</v>
       </c>
       <c r="T86" t="n">
-        <v>21271.6</v>
+        <v>0</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>3038.8</v>
+        <v>0</v>
       </c>
       <c r="W86" t="n">
         <v>3038.8</v>
@@ -9398,13 +9398,13 @@
         <v>0.2</v>
       </c>
       <c r="T87" t="n">
-        <v>7490</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="W87" t="n">
         <v>1070</v>
@@ -9500,13 +9500,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T88" t="n">
-        <v>62499.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>8928.571428571428</v>
+        <v>0</v>
       </c>
       <c r="W88" t="n">
         <v>8928.571428571428</v>
@@ -9602,13 +9602,13 @@
         <v>0.2</v>
       </c>
       <c r="T89" t="n">
-        <v>17227</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>2461</v>
+        <v>0</v>
       </c>
       <c r="W89" t="n">
         <v>2461</v>
@@ -9704,13 +9704,13 @@
         <v>0.2</v>
       </c>
       <c r="T90" t="n">
-        <v>240878.4000000001</v>
+        <v>0</v>
       </c>
       <c r="U90" t="n">
         <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>34411.2</v>
+        <v>0</v>
       </c>
       <c r="W90" t="n">
         <v>34411.2</v>
@@ -9806,13 +9806,13 @@
         <v>0.2</v>
       </c>
       <c r="T91" t="n">
-        <v>7789.6</v>
+        <v>0</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
       </c>
       <c r="V91" t="n">
-        <v>1112.8</v>
+        <v>0</v>
       </c>
       <c r="W91" t="n">
         <v>1112.8</v>
@@ -9912,13 +9912,13 @@
         <v>0.1</v>
       </c>
       <c r="T92" t="n">
-        <v>217817.6</v>
+        <v>0</v>
       </c>
       <c r="U92" t="n">
         <v>0</v>
       </c>
       <c r="V92" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
       <c r="W92" t="n">
         <v>31116.8</v>
@@ -10018,13 +10018,13 @@
         <v>0.1</v>
       </c>
       <c r="T93" t="n">
-        <v>42336</v>
+        <v>0</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
       </c>
       <c r="V93" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
       <c r="W93" t="n">
         <v>6048</v>
@@ -10124,13 +10124,13 @@
         <v>0.1</v>
       </c>
       <c r="T94" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="W94" t="n">
         <v>1400</v>
@@ -10230,13 +10230,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T95" t="n">
-        <v>337568</v>
+        <v>0</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
       </c>
       <c r="V95" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
       <c r="W95" t="n">
         <v>48224</v>
@@ -10330,13 +10330,13 @@
         <v>0.1</v>
       </c>
       <c r="T96" t="n">
-        <v>24500</v>
+        <v>0</v>
       </c>
       <c r="U96" t="n">
         <v>0</v>
       </c>
       <c r="V96" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="W96" t="n">
         <v>3500</v>
@@ -10432,13 +10432,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T97" t="n">
-        <v>36699.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U97" t="n">
         <v>0</v>
       </c>
       <c r="V97" t="n">
-        <v>5242.857142857142</v>
+        <v>0</v>
       </c>
       <c r="W97" t="n">
         <v>5242.857142857142</v>
@@ -10532,13 +10532,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T98" t="n">
-        <v>214136</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
         <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>30590.85714285714</v>
+        <v>0</v>
       </c>
       <c r="W98" t="n">
         <v>30590.85714285714</v>
@@ -10634,13 +10634,13 @@
         <v>0.1</v>
       </c>
       <c r="T99" t="n">
-        <v>6493525.5</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
         <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>927646.5</v>
+        <v>0</v>
       </c>
       <c r="W99" t="n">
         <v>927646.5</v>
@@ -10736,13 +10736,13 @@
         <v>0.1</v>
       </c>
       <c r="T100" t="n">
-        <v>6332830</v>
+        <v>0</v>
       </c>
       <c r="U100" t="n">
         <v>0</v>
       </c>
       <c r="V100" t="n">
-        <v>904690</v>
+        <v>0</v>
       </c>
       <c r="W100" t="n">
         <v>904690</v>
@@ -10838,13 +10838,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T101" t="n">
-        <v>42801</v>
+        <v>0</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
       </c>
       <c r="V101" t="n">
-        <v>6114.428571428571</v>
+        <v>0</v>
       </c>
       <c r="W101" t="n">
         <v>6114.428571428571</v>
@@ -10940,13 +10940,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T102" t="n">
-        <v>20100</v>
+        <v>0</v>
       </c>
       <c r="U102" t="n">
         <v>0</v>
       </c>
       <c r="V102" t="n">
-        <v>2871.428571428571</v>
+        <v>0</v>
       </c>
       <c r="W102" t="n">
         <v>2871.428571428571</v>
@@ -11042,13 +11042,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T103" t="n">
-        <v>4319.999999999999</v>
+        <v>0</v>
       </c>
       <c r="U103" t="n">
         <v>0</v>
       </c>
       <c r="V103" t="n">
-        <v>617.1428571428571</v>
+        <v>0</v>
       </c>
       <c r="W103" t="n">
         <v>617.1428571428571</v>
@@ -11148,13 +11148,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T104" t="n">
-        <v>186384</v>
+        <v>0</v>
       </c>
       <c r="U104" t="n">
         <v>0</v>
       </c>
       <c r="V104" t="n">
-        <v>26626.28571428571</v>
+        <v>0</v>
       </c>
       <c r="W104" t="n">
         <v>26626.28571428571</v>
@@ -11248,13 +11248,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T105" t="n">
-        <v>9899.999999999998</v>
+        <v>0</v>
       </c>
       <c r="U105" t="n">
         <v>0</v>
       </c>
       <c r="V105" t="n">
-        <v>1414.285714285714</v>
+        <v>0</v>
       </c>
       <c r="W105" t="n">
         <v>1414.285714285714</v>
@@ -11350,13 +11350,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T106" t="n">
-        <v>57799.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U106" t="n">
         <v>0</v>
       </c>
       <c r="V106" t="n">
-        <v>8257.142857142857</v>
+        <v>0</v>
       </c>
       <c r="W106" t="n">
         <v>8257.142857142857</v>
@@ -11456,13 +11456,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T107" t="n">
-        <v>374074.9999999999</v>
+        <v>0</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
       </c>
       <c r="V107" t="n">
-        <v>53439.28571428571</v>
+        <v>0</v>
       </c>
       <c r="W107" t="n">
         <v>53439.28571428571</v>
@@ -11558,13 +11558,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T108" t="n">
-        <v>182937</v>
+        <v>0</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
       </c>
       <c r="V108" t="n">
-        <v>26133.85714285714</v>
+        <v>0</v>
       </c>
       <c r="W108" t="n">
         <v>26133.85714285714</v>
@@ -11660,13 +11660,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T109" t="n">
-        <v>9146</v>
+        <v>0</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
       </c>
       <c r="V109" t="n">
-        <v>1306.571428571428</v>
+        <v>0</v>
       </c>
       <c r="W109" t="n">
         <v>1306.571428571428</v>
@@ -11762,13 +11762,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T110" t="n">
-        <v>72759.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U110" t="n">
         <v>0</v>
       </c>
       <c r="V110" t="n">
-        <v>10394.28571428571</v>
+        <v>0</v>
       </c>
       <c r="W110" t="n">
         <v>10394.28571428571</v>
@@ -11868,13 +11868,13 @@
         <v>0.1</v>
       </c>
       <c r="T111" t="n">
-        <v>47913.60000000001</v>
+        <v>0</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
       </c>
       <c r="V111" t="n">
-        <v>6844.8</v>
+        <v>0</v>
       </c>
       <c r="W111" t="n">
         <v>6844.8</v>
@@ -11974,16 +11974,16 @@
         <v>0.1</v>
       </c>
       <c r="T112" t="n">
-        <v>25137</v>
+        <v>0</v>
       </c>
       <c r="U112" t="n">
         <v>0</v>
       </c>
       <c r="V112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="W112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="X112" t="n">
         <v>3591</v>
@@ -12080,16 +12080,16 @@
         <v>0.1</v>
       </c>
       <c r="T113" t="n">
-        <v>15750</v>
+        <v>0</v>
       </c>
       <c r="U113" t="n">
         <v>0</v>
       </c>
       <c r="V113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="W113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="X113" t="n">
         <v>2250</v>
@@ -12186,16 +12186,16 @@
         <v>0.1</v>
       </c>
       <c r="T114" t="n">
-        <v>68600</v>
+        <v>0</v>
       </c>
       <c r="U114" t="n">
         <v>0</v>
       </c>
       <c r="V114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="W114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="X114" t="n">
         <v>9800</v>
@@ -12288,16 +12288,16 @@
         <v>0.1</v>
       </c>
       <c r="T115" t="n">
-        <v>205800</v>
+        <v>0</v>
       </c>
       <c r="U115" t="n">
         <v>0</v>
       </c>
       <c r="V115" t="n">
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="W115" t="n">
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="X115" t="n">
         <v>29400</v>
@@ -12390,16 +12390,16 @@
         <v>0.1</v>
       </c>
       <c r="T116" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="U116" t="n">
         <v>0</v>
       </c>
       <c r="V116" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="W116" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="X116" t="n">
         <v>1400</v>
@@ -12492,16 +12492,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T117" t="n">
-        <v>51939</v>
+        <v>0</v>
       </c>
       <c r="U117" t="n">
         <v>0</v>
       </c>
       <c r="V117" t="n">
-        <v>7419.857142857142</v>
+        <v>0</v>
       </c>
       <c r="W117" t="n">
-        <v>7419.857142857142</v>
+        <v>0</v>
       </c>
       <c r="X117" t="n">
         <v>7419.857142857142</v>
@@ -12598,16 +12598,16 @@
         <v>0.1</v>
       </c>
       <c r="T118" t="n">
-        <v>34209</v>
+        <v>0</v>
       </c>
       <c r="U118" t="n">
         <v>0</v>
       </c>
       <c r="V118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="W118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="X118" t="n">
         <v>4887</v>
@@ -12700,16 +12700,16 @@
         <v>0.1</v>
       </c>
       <c r="T119" t="n">
-        <v>15764</v>
+        <v>0</v>
       </c>
       <c r="U119" t="n">
         <v>0</v>
       </c>
       <c r="V119" t="n">
-        <v>2252</v>
+        <v>0</v>
       </c>
       <c r="W119" t="n">
-        <v>2252</v>
+        <v>0</v>
       </c>
       <c r="X119" t="n">
         <v>2252</v>
@@ -12802,16 +12802,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T120" t="n">
-        <v>24899.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U120" t="n">
         <v>0</v>
       </c>
       <c r="V120" t="n">
-        <v>3557.142857142857</v>
+        <v>0</v>
       </c>
       <c r="W120" t="n">
-        <v>3557.142857142857</v>
+        <v>0</v>
       </c>
       <c r="X120" t="n">
         <v>3557.142857142857</v>
@@ -12904,16 +12904,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T121" t="n">
-        <v>48485</v>
+        <v>0</v>
       </c>
       <c r="U121" t="n">
         <v>0</v>
       </c>
       <c r="V121" t="n">
-        <v>6926.428571428571</v>
+        <v>0</v>
       </c>
       <c r="W121" t="n">
-        <v>6926.428571428571</v>
+        <v>0</v>
       </c>
       <c r="X121" t="n">
         <v>6926.428571428571</v>
@@ -13006,16 +13006,16 @@
         <v>0.1</v>
       </c>
       <c r="T122" t="n">
-        <v>23220.4</v>
+        <v>0</v>
       </c>
       <c r="U122" t="n">
         <v>0</v>
       </c>
       <c r="V122" t="n">
-        <v>3317.2</v>
+        <v>0</v>
       </c>
       <c r="W122" t="n">
-        <v>3317.2</v>
+        <v>0</v>
       </c>
       <c r="X122" t="n">
         <v>3317.2</v>
@@ -13108,16 +13108,16 @@
         <v>0.2</v>
       </c>
       <c r="T123" t="n">
-        <v>122788.638</v>
+        <v>0</v>
       </c>
       <c r="U123" t="n">
         <v>0</v>
       </c>
       <c r="V123" t="n">
-        <v>17541.234</v>
+        <v>0</v>
       </c>
       <c r="W123" t="n">
-        <v>17541.234</v>
+        <v>0</v>
       </c>
       <c r="X123" t="n">
         <v>17541.234</v>
@@ -13210,16 +13210,16 @@
         <v>0.2</v>
       </c>
       <c r="T124" t="n">
-        <v>148559.096</v>
+        <v>0</v>
       </c>
       <c r="U124" t="n">
         <v>0</v>
       </c>
       <c r="V124" t="n">
-        <v>21222.728</v>
+        <v>0</v>
       </c>
       <c r="W124" t="n">
-        <v>21222.728</v>
+        <v>0</v>
       </c>
       <c r="X124" t="n">
         <v>21222.728</v>
@@ -13312,16 +13312,16 @@
         <v>0.2</v>
       </c>
       <c r="T125" t="n">
-        <v>62152.272</v>
+        <v>0</v>
       </c>
       <c r="U125" t="n">
         <v>0</v>
       </c>
       <c r="V125" t="n">
-        <v>8878.896000000001</v>
+        <v>0</v>
       </c>
       <c r="W125" t="n">
-        <v>8878.896000000001</v>
+        <v>0</v>
       </c>
       <c r="X125" t="n">
         <v>8878.896000000001</v>
@@ -13414,16 +13414,16 @@
         <v>0.2</v>
       </c>
       <c r="T126" t="n">
-        <v>10156.594</v>
+        <v>0</v>
       </c>
       <c r="U126" t="n">
         <v>0</v>
       </c>
       <c r="V126" t="n">
-        <v>1450.942</v>
+        <v>0</v>
       </c>
       <c r="W126" t="n">
-        <v>1450.942</v>
+        <v>0</v>
       </c>
       <c r="X126" t="n">
         <v>1450.942</v>
@@ -13516,16 +13516,16 @@
         <v>0.1</v>
       </c>
       <c r="T127" t="n">
-        <v>20300</v>
+        <v>0</v>
       </c>
       <c r="U127" t="n">
         <v>0</v>
       </c>
       <c r="V127" t="n">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="W127" t="n">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="X127" t="n">
         <v>2900</v>
@@ -13618,16 +13618,16 @@
         <v>0.1</v>
       </c>
       <c r="T128" t="n">
-        <v>81900</v>
+        <v>0</v>
       </c>
       <c r="U128" t="n">
         <v>0</v>
       </c>
       <c r="V128" t="n">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="W128" t="n">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="X128" t="n">
         <v>11700</v>
@@ -13720,16 +13720,16 @@
         <v>0.1</v>
       </c>
       <c r="T129" t="n">
-        <v>12250</v>
+        <v>0</v>
       </c>
       <c r="U129" t="n">
         <v>0</v>
       </c>
       <c r="V129" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="W129" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="X129" t="n">
         <v>1750</v>
@@ -13822,19 +13822,19 @@
         <v>0.2</v>
       </c>
       <c r="T130" t="n">
-        <v>28618.8</v>
+        <v>0</v>
       </c>
       <c r="U130" t="n">
         <v>0</v>
       </c>
       <c r="V130" t="n">
-        <v>4088.4</v>
+        <v>0</v>
       </c>
       <c r="W130" t="n">
-        <v>4088.4</v>
+        <v>0</v>
       </c>
       <c r="X130" t="n">
-        <v>4088.4</v>
+        <v>0</v>
       </c>
       <c r="Y130" t="n">
         <v>4088.4</v>
@@ -13924,19 +13924,19 @@
         <v>0.2</v>
       </c>
       <c r="T131" t="n">
-        <v>78895.60000000001</v>
+        <v>0</v>
       </c>
       <c r="U131" t="n">
         <v>0</v>
       </c>
       <c r="V131" t="n">
-        <v>11270.8</v>
+        <v>0</v>
       </c>
       <c r="W131" t="n">
-        <v>11270.8</v>
+        <v>0</v>
       </c>
       <c r="X131" t="n">
-        <v>11270.8</v>
+        <v>0</v>
       </c>
       <c r="Y131" t="n">
         <v>11270.8</v>
@@ -14026,19 +14026,19 @@
         <v>0.2</v>
       </c>
       <c r="T132" t="n">
-        <v>58784.60000000001</v>
+        <v>0</v>
       </c>
       <c r="U132" t="n">
         <v>0</v>
       </c>
       <c r="V132" t="n">
-        <v>8397.800000000001</v>
+        <v>0</v>
       </c>
       <c r="W132" t="n">
-        <v>8397.800000000001</v>
+        <v>0</v>
       </c>
       <c r="X132" t="n">
-        <v>8397.800000000001</v>
+        <v>0</v>
       </c>
       <c r="Y132" t="n">
         <v>8397.800000000001</v>
@@ -14128,19 +14128,19 @@
         <v>0.2</v>
       </c>
       <c r="T133" t="n">
-        <v>2784.6</v>
+        <v>0</v>
       </c>
       <c r="U133" t="n">
         <v>0</v>
       </c>
       <c r="V133" t="n">
-        <v>397.8</v>
+        <v>0</v>
       </c>
       <c r="W133" t="n">
-        <v>397.8</v>
+        <v>0</v>
       </c>
       <c r="X133" t="n">
-        <v>397.8</v>
+        <v>0</v>
       </c>
       <c r="Y133" t="n">
         <v>397.8</v>
@@ -14230,19 +14230,19 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T134" t="n">
-        <v>9075</v>
+        <v>0</v>
       </c>
       <c r="U134" t="n">
         <v>0</v>
       </c>
       <c r="V134" t="n">
-        <v>1296.428571428571</v>
+        <v>0</v>
       </c>
       <c r="W134" t="n">
-        <v>1296.428571428571</v>
+        <v>0</v>
       </c>
       <c r="X134" t="n">
-        <v>1296.428571428571</v>
+        <v>0</v>
       </c>
       <c r="Y134" t="n">
         <v>1296.428571428571</v>
@@ -14332,19 +14332,19 @@
         <v>0.2</v>
       </c>
       <c r="T135" t="n">
-        <v>113960</v>
+        <v>0</v>
       </c>
       <c r="U135" t="n">
         <v>0</v>
       </c>
       <c r="V135" t="n">
-        <v>16280</v>
+        <v>0</v>
       </c>
       <c r="W135" t="n">
-        <v>16280</v>
+        <v>0</v>
       </c>
       <c r="X135" t="n">
-        <v>16280</v>
+        <v>0</v>
       </c>
       <c r="Y135" t="n">
         <v>16280</v>
@@ -14434,19 +14434,19 @@
         <v>0.2</v>
       </c>
       <c r="T136" t="n">
-        <v>33572</v>
+        <v>0</v>
       </c>
       <c r="U136" t="n">
         <v>0</v>
       </c>
       <c r="V136" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="W136" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="X136" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="Y136" t="n">
         <v>4796</v>
@@ -14536,19 +14536,19 @@
         <v>0.2</v>
       </c>
       <c r="T137" t="n">
-        <v>13860</v>
+        <v>0</v>
       </c>
       <c r="U137" t="n">
         <v>0</v>
       </c>
       <c r="V137" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="W137" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="X137" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="Y137" t="n">
         <v>1980</v>
@@ -14638,19 +14638,19 @@
         <v>0.2</v>
       </c>
       <c r="T138" t="n">
-        <v>186669</v>
+        <v>0</v>
       </c>
       <c r="U138" t="n">
         <v>0</v>
       </c>
       <c r="V138" t="n">
-        <v>26667</v>
+        <v>0</v>
       </c>
       <c r="W138" t="n">
-        <v>26667</v>
+        <v>0</v>
       </c>
       <c r="X138" t="n">
-        <v>26667</v>
+        <v>0</v>
       </c>
       <c r="Y138" t="n">
         <v>26667</v>
@@ -14740,19 +14740,19 @@
         <v>0.1</v>
       </c>
       <c r="T139" t="n">
-        <v>12469.8</v>
+        <v>0</v>
       </c>
       <c r="U139" t="n">
         <v>0</v>
       </c>
       <c r="V139" t="n">
-        <v>1781.4</v>
+        <v>0</v>
       </c>
       <c r="W139" t="n">
-        <v>1781.4</v>
+        <v>0</v>
       </c>
       <c r="X139" t="n">
-        <v>1781.4</v>
+        <v>0</v>
       </c>
       <c r="Y139" t="n">
         <v>1781.4</v>
@@ -14842,19 +14842,19 @@
         <v>0.2</v>
       </c>
       <c r="T140" t="n">
-        <v>82762.39999999999</v>
+        <v>0</v>
       </c>
       <c r="U140" t="n">
         <v>0</v>
       </c>
       <c r="V140" t="n">
-        <v>11823.2</v>
+        <v>0</v>
       </c>
       <c r="W140" t="n">
-        <v>11823.2</v>
+        <v>0</v>
       </c>
       <c r="X140" t="n">
-        <v>11823.2</v>
+        <v>0</v>
       </c>
       <c r="Y140" t="n">
         <v>11823.2</v>
@@ -14944,19 +14944,19 @@
         <v>0.1</v>
       </c>
       <c r="T141" t="n">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="U141" t="n">
         <v>0</v>
       </c>
       <c r="V141" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="W141" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="X141" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="Y141" t="n">
         <v>450</v>
@@ -15046,19 +15046,19 @@
         <v>0.2</v>
       </c>
       <c r="T142" t="n">
-        <v>390607</v>
+        <v>0</v>
       </c>
       <c r="U142" t="n">
         <v>0</v>
       </c>
       <c r="V142" t="n">
-        <v>55801</v>
+        <v>0</v>
       </c>
       <c r="W142" t="n">
-        <v>55801</v>
+        <v>0</v>
       </c>
       <c r="X142" t="n">
-        <v>55801</v>
+        <v>0</v>
       </c>
       <c r="Y142" t="n">
         <v>55801</v>
@@ -15148,19 +15148,19 @@
         <v>0.2</v>
       </c>
       <c r="T143" t="n">
-        <v>182541.8</v>
+        <v>0</v>
       </c>
       <c r="U143" t="n">
         <v>0</v>
       </c>
       <c r="V143" t="n">
-        <v>26077.4</v>
+        <v>0</v>
       </c>
       <c r="W143" t="n">
-        <v>26077.4</v>
+        <v>0</v>
       </c>
       <c r="X143" t="n">
-        <v>26077.4</v>
+        <v>0</v>
       </c>
       <c r="Y143" t="n">
         <v>26077.4</v>
@@ -15250,22 +15250,22 @@
         <v>0.1</v>
       </c>
       <c r="T144" t="n">
-        <v>2307550</v>
+        <v>0</v>
       </c>
       <c r="U144" t="n">
         <v>0</v>
       </c>
       <c r="V144" t="n">
-        <v>329650</v>
+        <v>0</v>
       </c>
       <c r="W144" t="n">
-        <v>329650</v>
+        <v>0</v>
       </c>
       <c r="X144" t="n">
-        <v>329650</v>
+        <v>0</v>
       </c>
       <c r="Y144" t="n">
-        <v>329650</v>
+        <v>0</v>
       </c>
       <c r="Z144" t="n">
         <v>329650</v>
@@ -15350,22 +15350,22 @@
         <v>0.1</v>
       </c>
       <c r="T145" t="n">
-        <v>21231.7</v>
+        <v>0</v>
       </c>
       <c r="U145" t="n">
         <v>0</v>
       </c>
       <c r="V145" t="n">
-        <v>3033.1</v>
+        <v>0</v>
       </c>
       <c r="W145" t="n">
-        <v>3033.1</v>
+        <v>0</v>
       </c>
       <c r="X145" t="n">
-        <v>3033.1</v>
+        <v>0</v>
       </c>
       <c r="Y145" t="n">
-        <v>3033.1</v>
+        <v>0</v>
       </c>
       <c r="Z145" t="n">
         <v>3033.1</v>
@@ -15452,22 +15452,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T146" t="n">
-        <v>161000</v>
+        <v>0</v>
       </c>
       <c r="U146" t="n">
         <v>0</v>
       </c>
       <c r="V146" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="W146" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="X146" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="Y146" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="Z146" t="n">
         <v>23000</v>
@@ -15554,22 +15554,22 @@
         <v>0.2</v>
       </c>
       <c r="T147" t="n">
-        <v>114972.228</v>
+        <v>0</v>
       </c>
       <c r="U147" t="n">
         <v>0</v>
       </c>
       <c r="V147" t="n">
-        <v>16424.604</v>
+        <v>0</v>
       </c>
       <c r="W147" t="n">
-        <v>16424.604</v>
+        <v>0</v>
       </c>
       <c r="X147" t="n">
-        <v>16424.604</v>
+        <v>0</v>
       </c>
       <c r="Y147" t="n">
-        <v>16424.604</v>
+        <v>0</v>
       </c>
       <c r="Z147" t="n">
         <v>16424.604</v>
@@ -15656,22 +15656,22 @@
         <v>0.2</v>
       </c>
       <c r="T148" t="n">
-        <v>45363.192</v>
+        <v>0</v>
       </c>
       <c r="U148" t="n">
         <v>0</v>
       </c>
       <c r="V148" t="n">
-        <v>6480.456</v>
+        <v>0</v>
       </c>
       <c r="W148" t="n">
-        <v>6480.456</v>
+        <v>0</v>
       </c>
       <c r="X148" t="n">
-        <v>6480.456</v>
+        <v>0</v>
       </c>
       <c r="Y148" t="n">
-        <v>6480.456</v>
+        <v>0</v>
       </c>
       <c r="Z148" t="n">
         <v>6480.456</v>
@@ -15756,22 +15756,22 @@
         <v>0.1</v>
       </c>
       <c r="T149" t="n">
-        <v>15015</v>
+        <v>0</v>
       </c>
       <c r="U149" t="n">
         <v>0</v>
       </c>
       <c r="V149" t="n">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="W149" t="n">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="X149" t="n">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="Y149" t="n">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="Z149" t="n">
         <v>2145</v>
@@ -15858,22 +15858,22 @@
         <v>0.1</v>
       </c>
       <c r="T150" t="n">
-        <v>13639.5</v>
+        <v>0</v>
       </c>
       <c r="U150" t="n">
         <v>0</v>
       </c>
       <c r="V150" t="n">
-        <v>1948.5</v>
+        <v>0</v>
       </c>
       <c r="W150" t="n">
-        <v>1948.5</v>
+        <v>0</v>
       </c>
       <c r="X150" t="n">
-        <v>1948.5</v>
+        <v>0</v>
       </c>
       <c r="Y150" t="n">
-        <v>1948.5</v>
+        <v>0</v>
       </c>
       <c r="Z150" t="n">
         <v>1948.5</v>
@@ -15960,22 +15960,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T151" t="n">
-        <v>4499.999999999999</v>
+        <v>0</v>
       </c>
       <c r="U151" t="n">
         <v>0</v>
       </c>
       <c r="V151" t="n">
-        <v>642.8571428571428</v>
+        <v>0</v>
       </c>
       <c r="W151" t="n">
-        <v>642.8571428571428</v>
+        <v>0</v>
       </c>
       <c r="X151" t="n">
-        <v>642.8571428571428</v>
+        <v>0</v>
       </c>
       <c r="Y151" t="n">
-        <v>642.8571428571428</v>
+        <v>0</v>
       </c>
       <c r="Z151" t="n">
         <v>642.8571428571428</v>
@@ -16064,22 +16064,22 @@
         <v>0.05</v>
       </c>
       <c r="T152" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="U152" t="n">
         <v>0</v>
       </c>
       <c r="V152" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W152" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X152" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Y152" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z152" t="n">
         <v>500</v>
@@ -16168,22 +16168,22 @@
         <v>0.05</v>
       </c>
       <c r="T153" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="U153" t="n">
         <v>0</v>
       </c>
       <c r="V153" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W153" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X153" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Y153" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z153" t="n">
         <v>500</v>
@@ -16272,22 +16272,22 @@
         <v>0.05</v>
       </c>
       <c r="T154" t="n">
-        <v>27740.9825</v>
+        <v>0</v>
       </c>
       <c r="U154" t="n">
         <v>0</v>
       </c>
       <c r="V154" t="n">
-        <v>3962.9975</v>
+        <v>0</v>
       </c>
       <c r="W154" t="n">
-        <v>3962.9975</v>
+        <v>0</v>
       </c>
       <c r="X154" t="n">
-        <v>3962.9975</v>
+        <v>0</v>
       </c>
       <c r="Y154" t="n">
-        <v>3962.9975</v>
+        <v>0</v>
       </c>
       <c r="Z154" t="n">
         <v>3962.9975</v>
@@ -16376,22 +16376,22 @@
         <v>0.05</v>
       </c>
       <c r="T155" t="n">
-        <v>9235.625</v>
+        <v>0</v>
       </c>
       <c r="U155" t="n">
         <v>0</v>
       </c>
       <c r="V155" t="n">
-        <v>1319.375</v>
+        <v>0</v>
       </c>
       <c r="W155" t="n">
-        <v>1319.375</v>
+        <v>0</v>
       </c>
       <c r="X155" t="n">
-        <v>1319.375</v>
+        <v>0</v>
       </c>
       <c r="Y155" t="n">
-        <v>1319.375</v>
+        <v>0</v>
       </c>
       <c r="Z155" t="n">
         <v>1319.375</v>
@@ -16480,22 +16480,22 @@
         <v>0.05</v>
       </c>
       <c r="T156" t="n">
-        <v>1392.7375</v>
+        <v>0</v>
       </c>
       <c r="U156" t="n">
         <v>0</v>
       </c>
       <c r="V156" t="n">
-        <v>198.9625</v>
+        <v>0</v>
       </c>
       <c r="W156" t="n">
-        <v>198.9625</v>
+        <v>0</v>
       </c>
       <c r="X156" t="n">
-        <v>198.9625</v>
+        <v>0</v>
       </c>
       <c r="Y156" t="n">
-        <v>198.9625</v>
+        <v>0</v>
       </c>
       <c r="Z156" t="n">
         <v>198.9625</v>
@@ -16584,22 +16584,22 @@
         <v>0.05</v>
       </c>
       <c r="T157" t="n">
-        <v>87500</v>
+        <v>0</v>
       </c>
       <c r="U157" t="n">
         <v>0</v>
       </c>
       <c r="V157" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="W157" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="X157" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="Y157" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="Z157" t="n">
         <v>12500</v>
@@ -16688,22 +16688,22 @@
         <v>0.05</v>
       </c>
       <c r="T158" t="n">
-        <v>13475</v>
+        <v>0</v>
       </c>
       <c r="U158" t="n">
         <v>0</v>
       </c>
       <c r="V158" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="W158" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="X158" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="Y158" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="Z158" t="n">
         <v>1925</v>
@@ -16792,22 +16792,22 @@
         <v>0.05</v>
       </c>
       <c r="T159" t="n">
-        <v>488.775</v>
+        <v>0</v>
       </c>
       <c r="U159" t="n">
         <v>0</v>
       </c>
       <c r="V159" t="n">
-        <v>69.825</v>
+        <v>0</v>
       </c>
       <c r="W159" t="n">
-        <v>69.825</v>
+        <v>0</v>
       </c>
       <c r="X159" t="n">
-        <v>69.825</v>
+        <v>0</v>
       </c>
       <c r="Y159" t="n">
-        <v>69.825</v>
+        <v>0</v>
       </c>
       <c r="Z159" t="n">
         <v>69.825</v>
@@ -16896,22 +16896,22 @@
         <v>0.05</v>
       </c>
       <c r="T160" t="n">
-        <v>43505</v>
+        <v>0</v>
       </c>
       <c r="U160" t="n">
         <v>0</v>
       </c>
       <c r="V160" t="n">
-        <v>6215</v>
+        <v>0</v>
       </c>
       <c r="W160" t="n">
-        <v>6215</v>
+        <v>0</v>
       </c>
       <c r="X160" t="n">
-        <v>6215</v>
+        <v>0</v>
       </c>
       <c r="Y160" t="n">
-        <v>6215</v>
+        <v>0</v>
       </c>
       <c r="Z160" t="n">
         <v>6215</v>
@@ -17000,22 +17000,22 @@
         <v>0.05</v>
       </c>
       <c r="T161" t="n">
-        <v>1916.25</v>
+        <v>0</v>
       </c>
       <c r="U161" t="n">
         <v>0</v>
       </c>
       <c r="V161" t="n">
-        <v>273.75</v>
+        <v>0</v>
       </c>
       <c r="W161" t="n">
-        <v>273.75</v>
+        <v>0</v>
       </c>
       <c r="X161" t="n">
-        <v>273.75</v>
+        <v>0</v>
       </c>
       <c r="Y161" t="n">
-        <v>273.75</v>
+        <v>0</v>
       </c>
       <c r="Z161" t="n">
         <v>273.75</v>
@@ -17104,22 +17104,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T162" t="n">
-        <v>153468</v>
+        <v>0</v>
       </c>
       <c r="U162" t="n">
         <v>0</v>
       </c>
       <c r="V162" t="n">
-        <v>21924</v>
+        <v>0</v>
       </c>
       <c r="W162" t="n">
-        <v>21924</v>
+        <v>0</v>
       </c>
       <c r="X162" t="n">
-        <v>21924</v>
+        <v>0</v>
       </c>
       <c r="Y162" t="n">
-        <v>21924</v>
+        <v>0</v>
       </c>
       <c r="Z162" t="n">
         <v>21924</v>
@@ -17208,22 +17208,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T163" t="n">
-        <v>17803.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U163" t="n">
         <v>0</v>
       </c>
       <c r="V163" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W163" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X163" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y163" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z163" t="n">
         <v>2543.333333333333</v>
@@ -17312,22 +17312,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T164" t="n">
-        <v>16333.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U164" t="n">
         <v>0</v>
       </c>
       <c r="V164" t="n">
-        <v>2333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W164" t="n">
-        <v>2333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X164" t="n">
-        <v>2333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y164" t="n">
-        <v>2333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z164" t="n">
         <v>2333.333333333333</v>
@@ -17416,22 +17416,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T165" t="n">
-        <v>17803.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U165" t="n">
         <v>0</v>
       </c>
       <c r="V165" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W165" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X165" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y165" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z165" t="n">
         <v>2543.333333333333</v>
@@ -17520,22 +17520,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T166" t="n">
-        <v>555.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="U166" t="n">
         <v>0</v>
       </c>
       <c r="V166" t="n">
-        <v>79.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="W166" t="n">
-        <v>79.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="X166" t="n">
-        <v>79.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y166" t="n">
-        <v>79.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z166" t="n">
         <v>79.33333333333333</v>
@@ -17624,22 +17624,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T167" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="U167" t="n">
         <v>0</v>
       </c>
       <c r="V167" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W167" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X167" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Y167" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z167" t="n">
         <v>500</v>
@@ -17728,22 +17728,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T168" t="n">
-        <v>14469</v>
+        <v>0</v>
       </c>
       <c r="U168" t="n">
         <v>0</v>
       </c>
       <c r="V168" t="n">
-        <v>2067</v>
+        <v>0</v>
       </c>
       <c r="W168" t="n">
-        <v>2067</v>
+        <v>0</v>
       </c>
       <c r="X168" t="n">
-        <v>2067</v>
+        <v>0</v>
       </c>
       <c r="Y168" t="n">
-        <v>2067</v>
+        <v>0</v>
       </c>
       <c r="Z168" t="n">
         <v>2067</v>
@@ -17833,22 +17833,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T169" t="n">
-        <v>3266.666666666667</v>
+        <v>0</v>
       </c>
       <c r="U169" t="n">
         <v>0</v>
       </c>
       <c r="V169" t="n">
-        <v>466.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="W169" t="n">
-        <v>466.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="X169" t="n">
-        <v>466.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y169" t="n">
-        <v>466.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z169" t="n">
         <v>466.6666666666667</v>
@@ -17937,22 +17937,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T170" t="n">
-        <v>25666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U170" t="n">
         <v>0</v>
       </c>
       <c r="V170" t="n">
-        <v>3666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="W170" t="n">
-        <v>3666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="X170" t="n">
-        <v>3666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y170" t="n">
-        <v>3666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z170" t="n">
         <v>3666.666666666667</v>
@@ -18041,22 +18041,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T171" t="n">
-        <v>62533.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U171" t="n">
         <v>0</v>
       </c>
       <c r="V171" t="n">
-        <v>8933.333333333334</v>
+        <v>0</v>
       </c>
       <c r="W171" t="n">
-        <v>8933.333333333334</v>
+        <v>0</v>
       </c>
       <c r="X171" t="n">
-        <v>8933.333333333334</v>
+        <v>0</v>
       </c>
       <c r="Y171" t="n">
-        <v>8933.333333333334</v>
+        <v>0</v>
       </c>
       <c r="Z171" t="n">
         <v>8933.333333333334</v>
@@ -18145,22 +18145,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T172" t="n">
-        <v>19833.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U172" t="n">
         <v>0</v>
       </c>
       <c r="V172" t="n">
-        <v>2833.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W172" t="n">
-        <v>2833.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X172" t="n">
-        <v>2833.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y172" t="n">
-        <v>2833.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z172" t="n">
         <v>2833.333333333333</v>
@@ -18249,22 +18249,22 @@
         <v>0.05</v>
       </c>
       <c r="T173" t="n">
-        <v>51450</v>
+        <v>0</v>
       </c>
       <c r="U173" t="n">
         <v>0</v>
       </c>
       <c r="V173" t="n">
-        <v>7350</v>
+        <v>0</v>
       </c>
       <c r="W173" t="n">
-        <v>7350</v>
+        <v>0</v>
       </c>
       <c r="X173" t="n">
-        <v>7350</v>
+        <v>0</v>
       </c>
       <c r="Y173" t="n">
-        <v>7350</v>
+        <v>0</v>
       </c>
       <c r="Z173" t="n">
         <v>7350</v>
@@ -18353,22 +18353,22 @@
         <v>0.05</v>
       </c>
       <c r="T174" t="n">
-        <v>73710</v>
+        <v>0</v>
       </c>
       <c r="U174" t="n">
         <v>0</v>
       </c>
       <c r="V174" t="n">
-        <v>10530</v>
+        <v>0</v>
       </c>
       <c r="W174" t="n">
-        <v>10530</v>
+        <v>0</v>
       </c>
       <c r="X174" t="n">
-        <v>10530</v>
+        <v>0</v>
       </c>
       <c r="Y174" t="n">
-        <v>10530</v>
+        <v>0</v>
       </c>
       <c r="Z174" t="n">
         <v>10530</v>
@@ -18457,22 +18457,22 @@
         <v>0.05</v>
       </c>
       <c r="T175" t="n">
-        <v>2513</v>
+        <v>0</v>
       </c>
       <c r="U175" t="n">
         <v>0</v>
       </c>
       <c r="V175" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="W175" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="X175" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="Y175" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="Z175" t="n">
         <v>359</v>
@@ -18561,22 +18561,22 @@
         <v>0.05</v>
       </c>
       <c r="T176" t="n">
-        <v>2047.5</v>
+        <v>0</v>
       </c>
       <c r="U176" t="n">
         <v>0</v>
       </c>
       <c r="V176" t="n">
-        <v>292.5</v>
+        <v>0</v>
       </c>
       <c r="W176" t="n">
-        <v>292.5</v>
+        <v>0</v>
       </c>
       <c r="X176" t="n">
-        <v>292.5</v>
+        <v>0</v>
       </c>
       <c r="Y176" t="n">
-        <v>292.5</v>
+        <v>0</v>
       </c>
       <c r="Z176" t="n">
         <v>292.5</v>
@@ -18665,22 +18665,22 @@
         <v>0.05</v>
       </c>
       <c r="T177" t="n">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="U177" t="n">
         <v>0</v>
       </c>
       <c r="V177" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="W177" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="X177" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="Y177" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="Z177" t="n">
         <v>450</v>
@@ -18769,22 +18769,22 @@
         <v>0.05</v>
       </c>
       <c r="T178" t="n">
-        <v>1330</v>
+        <v>0</v>
       </c>
       <c r="U178" t="n">
         <v>0</v>
       </c>
       <c r="V178" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="W178" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="X178" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="Y178" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="Z178" t="n">
         <v>190</v>
@@ -18873,22 +18873,22 @@
         <v>0.05</v>
       </c>
       <c r="T179" t="n">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="U179" t="n">
         <v>0</v>
       </c>
       <c r="V179" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="W179" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="X179" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="Y179" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="Z179" t="n">
         <v>220</v>
@@ -18977,22 +18977,22 @@
         <v>0.05</v>
       </c>
       <c r="T180" t="n">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="U180" t="n">
         <v>0</v>
       </c>
       <c r="V180" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="W180" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="X180" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="Y180" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="Z180" t="n">
         <v>900</v>
@@ -19081,22 +19081,22 @@
         <v>0.05</v>
       </c>
       <c r="T181" t="n">
-        <v>6709.5</v>
+        <v>0</v>
       </c>
       <c r="U181" t="n">
         <v>0</v>
       </c>
       <c r="V181" t="n">
-        <v>958.5</v>
+        <v>0</v>
       </c>
       <c r="W181" t="n">
-        <v>958.5</v>
+        <v>0</v>
       </c>
       <c r="X181" t="n">
-        <v>958.5</v>
+        <v>0</v>
       </c>
       <c r="Y181" t="n">
-        <v>958.5</v>
+        <v>0</v>
       </c>
       <c r="Z181" t="n">
         <v>958.5</v>
@@ -19185,22 +19185,22 @@
         <v>0.05</v>
       </c>
       <c r="T182" t="n">
-        <v>568.75</v>
+        <v>0</v>
       </c>
       <c r="U182" t="n">
         <v>0</v>
       </c>
       <c r="V182" t="n">
-        <v>81.25</v>
+        <v>0</v>
       </c>
       <c r="W182" t="n">
-        <v>81.25</v>
+        <v>0</v>
       </c>
       <c r="X182" t="n">
-        <v>81.25</v>
+        <v>0</v>
       </c>
       <c r="Y182" t="n">
-        <v>81.25</v>
+        <v>0</v>
       </c>
       <c r="Z182" t="n">
         <v>81.25</v>
@@ -19289,22 +19289,22 @@
         <v>0.05</v>
       </c>
       <c r="T183" t="n">
-        <v>1251.25</v>
+        <v>0</v>
       </c>
       <c r="U183" t="n">
         <v>0</v>
       </c>
       <c r="V183" t="n">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="W183" t="n">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="X183" t="n">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="Y183" t="n">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="Z183" t="n">
         <v>178.75</v>
@@ -19394,22 +19394,22 @@
         <v>0.05</v>
       </c>
       <c r="T184" t="n">
-        <v>1592.5</v>
+        <v>0</v>
       </c>
       <c r="U184" t="n">
         <v>0</v>
       </c>
       <c r="V184" t="n">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="W184" t="n">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="X184" t="n">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="Y184" t="n">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="Z184" t="n">
         <v>227.5</v>
@@ -19498,22 +19498,22 @@
         <v>0.05</v>
       </c>
       <c r="T185" t="n">
-        <v>614.25</v>
+        <v>0</v>
       </c>
       <c r="U185" t="n">
         <v>0</v>
       </c>
       <c r="V185" t="n">
-        <v>87.75</v>
+        <v>0</v>
       </c>
       <c r="W185" t="n">
-        <v>87.75</v>
+        <v>0</v>
       </c>
       <c r="X185" t="n">
-        <v>87.75</v>
+        <v>0</v>
       </c>
       <c r="Y185" t="n">
-        <v>87.75</v>
+        <v>0</v>
       </c>
       <c r="Z185" t="n">
         <v>87.75</v>
@@ -19602,22 +19602,22 @@
         <v>0.05</v>
       </c>
       <c r="T186" t="n">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="U186" t="n">
         <v>0</v>
       </c>
       <c r="V186" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="W186" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="X186" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="Y186" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="Z186" t="n">
         <v>350</v>
@@ -19706,22 +19706,22 @@
         <v>0.05</v>
       </c>
       <c r="T187" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="U187" t="n">
         <v>0</v>
       </c>
       <c r="V187" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="W187" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X187" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y187" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z187" t="n">
         <v>21</v>
@@ -19810,22 +19810,22 @@
         <v>0.05</v>
       </c>
       <c r="T188" t="n">
-        <v>1323</v>
+        <v>0</v>
       </c>
       <c r="U188" t="n">
         <v>0</v>
       </c>
       <c r="V188" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="W188" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="X188" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="Y188" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="Z188" t="n">
         <v>189</v>
@@ -19914,22 +19914,22 @@
         <v>0.05</v>
       </c>
       <c r="T189" t="n">
-        <v>43750</v>
+        <v>0</v>
       </c>
       <c r="U189" t="n">
         <v>0</v>
       </c>
       <c r="V189" t="n">
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="W189" t="n">
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="X189" t="n">
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="Y189" t="n">
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="Z189" t="n">
         <v>6250</v>
@@ -20018,22 +20018,22 @@
         <v>0.05</v>
       </c>
       <c r="T190" t="n">
-        <v>8715</v>
+        <v>0</v>
       </c>
       <c r="U190" t="n">
         <v>0</v>
       </c>
       <c r="V190" t="n">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="W190" t="n">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="X190" t="n">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="Y190" t="n">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="Z190" t="n">
         <v>1245</v>
@@ -20122,22 +20122,22 @@
         <v>0.05</v>
       </c>
       <c r="T191" t="n">
-        <v>2275</v>
+        <v>0</v>
       </c>
       <c r="U191" t="n">
         <v>0</v>
       </c>
       <c r="V191" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="W191" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="X191" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="Y191" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="Z191" t="n">
         <v>325</v>
@@ -20226,22 +20226,22 @@
         <v>0.05</v>
       </c>
       <c r="T192" t="n">
-        <v>1312.5</v>
+        <v>0</v>
       </c>
       <c r="U192" t="n">
         <v>0</v>
       </c>
       <c r="V192" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="W192" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="X192" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="Y192" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="Z192" t="n">
         <v>187.5</v>
@@ -20330,22 +20330,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T193" t="n">
-        <v>5180</v>
+        <v>0</v>
       </c>
       <c r="U193" t="n">
         <v>0</v>
       </c>
       <c r="V193" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="W193" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="X193" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="Y193" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="Z193" t="n">
         <v>740</v>
@@ -20434,22 +20434,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T194" t="n">
-        <v>13953.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U194" t="n">
         <v>0</v>
       </c>
       <c r="V194" t="n">
-        <v>1993.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W194" t="n">
-        <v>1993.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X194" t="n">
-        <v>1993.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y194" t="n">
-        <v>1993.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z194" t="n">
         <v>1993.333333333333</v>
@@ -20538,22 +20538,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T195" t="n">
-        <v>2916.666666666667</v>
+        <v>0</v>
       </c>
       <c r="U195" t="n">
         <v>0</v>
       </c>
       <c r="V195" t="n">
-        <v>416.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="W195" t="n">
-        <v>416.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="X195" t="n">
-        <v>416.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y195" t="n">
-        <v>416.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z195" t="n">
         <v>416.6666666666667</v>
@@ -20642,22 +20642,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T196" t="n">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="U196" t="n">
         <v>0</v>
       </c>
       <c r="V196" t="n">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="W196" t="n">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="X196" t="n">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="Y196" t="n">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="Z196" t="n">
         <v>810</v>
@@ -20746,22 +20746,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T197" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="U197" t="n">
         <v>0</v>
       </c>
       <c r="V197" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W197" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X197" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Y197" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z197" t="n">
         <v>500</v>
@@ -20850,22 +20850,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T198" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="U198" t="n">
         <v>0</v>
       </c>
       <c r="V198" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="W198" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="X198" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="Y198" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="Z198" t="n">
         <v>175</v>
@@ -20954,22 +20954,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T199" t="n">
-        <v>8575</v>
+        <v>0</v>
       </c>
       <c r="U199" t="n">
         <v>0</v>
       </c>
       <c r="V199" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="W199" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="X199" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="Y199" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="Z199" t="n">
         <v>1225</v>
@@ -21058,22 +21058,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T200" t="n">
-        <v>1568</v>
+        <v>0</v>
       </c>
       <c r="U200" t="n">
         <v>0</v>
       </c>
       <c r="V200" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="W200" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="X200" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="Y200" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="Z200" t="n">
         <v>224</v>
@@ -21162,22 +21162,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T201" t="n">
-        <v>962.5</v>
+        <v>0</v>
       </c>
       <c r="U201" t="n">
         <v>0</v>
       </c>
       <c r="V201" t="n">
-        <v>137.5</v>
+        <v>0</v>
       </c>
       <c r="W201" t="n">
-        <v>137.5</v>
+        <v>0</v>
       </c>
       <c r="X201" t="n">
-        <v>137.5</v>
+        <v>0</v>
       </c>
       <c r="Y201" t="n">
-        <v>137.5</v>
+        <v>0</v>
       </c>
       <c r="Z201" t="n">
         <v>137.5</v>
@@ -21266,22 +21266,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T202" t="n">
-        <v>6125</v>
+        <v>0</v>
       </c>
       <c r="U202" t="n">
         <v>0</v>
       </c>
       <c r="V202" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="W202" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="X202" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="Y202" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="Z202" t="n">
         <v>875</v>
@@ -21370,22 +21370,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T203" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="U203" t="n">
         <v>0</v>
       </c>
       <c r="V203" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="W203" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="X203" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="Y203" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="Z203" t="n">
         <v>140</v>
@@ -21474,22 +21474,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T204" t="n">
-        <v>40180</v>
+        <v>0</v>
       </c>
       <c r="U204" t="n">
         <v>0</v>
       </c>
       <c r="V204" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="W204" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="X204" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="Y204" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="Z204" t="n">
         <v>5740</v>
@@ -21578,22 +21578,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T205" t="n">
-        <v>91700</v>
+        <v>0</v>
       </c>
       <c r="U205" t="n">
         <v>0</v>
       </c>
       <c r="V205" t="n">
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="W205" t="n">
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="X205" t="n">
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="Y205" t="n">
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="Z205" t="n">
         <v>13100</v>
@@ -21682,22 +21682,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T206" t="n">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="U206" t="n">
         <v>0</v>
       </c>
       <c r="V206" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="W206" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="X206" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Y206" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Z206" t="n">
         <v>104</v>
@@ -21786,22 +21786,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T207" t="n">
-        <v>10425.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U207" t="n">
         <v>0</v>
       </c>
       <c r="V207" t="n">
-        <v>1489.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W207" t="n">
-        <v>1489.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X207" t="n">
-        <v>1489.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y207" t="n">
-        <v>1489.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z207" t="n">
         <v>1489.333333333333</v>
@@ -21890,22 +21890,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T208" t="n">
-        <v>24434.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U208" t="n">
         <v>0</v>
       </c>
       <c r="V208" t="n">
-        <v>3490.666666666667</v>
+        <v>0</v>
       </c>
       <c r="W208" t="n">
-        <v>3490.666666666667</v>
+        <v>0</v>
       </c>
       <c r="X208" t="n">
-        <v>3490.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y208" t="n">
-        <v>3490.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z208" t="n">
         <v>3490.666666666667</v>
@@ -21994,22 +21994,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T209" t="n">
-        <v>5541.666666666667</v>
+        <v>0</v>
       </c>
       <c r="U209" t="n">
         <v>0</v>
       </c>
       <c r="V209" t="n">
-        <v>791.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="W209" t="n">
-        <v>791.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="X209" t="n">
-        <v>791.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="Y209" t="n">
-        <v>791.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="Z209" t="n">
         <v>791.6666666666666</v>
@@ -22098,22 +22098,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T210" t="n">
-        <v>7315</v>
+        <v>0</v>
       </c>
       <c r="U210" t="n">
         <v>0</v>
       </c>
       <c r="V210" t="n">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="W210" t="n">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="X210" t="n">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="Y210" t="n">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="Z210" t="n">
         <v>1045</v>
@@ -22202,22 +22202,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T211" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="U211" t="n">
         <v>0</v>
       </c>
       <c r="V211" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W211" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X211" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y211" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z211" t="n">
         <v>200</v>
@@ -22306,22 +22306,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T212" t="n">
-        <v>2814</v>
+        <v>0</v>
       </c>
       <c r="U212" t="n">
         <v>0</v>
       </c>
       <c r="V212" t="n">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="W212" t="n">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="X212" t="n">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="Y212" t="n">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="Z212" t="n">
         <v>402</v>
@@ -22410,22 +22410,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T213" t="n">
-        <v>3850</v>
+        <v>0</v>
       </c>
       <c r="U213" t="n">
         <v>0</v>
       </c>
       <c r="V213" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="W213" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="X213" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="Y213" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="Z213" t="n">
         <v>550</v>
@@ -22514,22 +22514,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T214" t="n">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="U214" t="n">
         <v>0</v>
       </c>
       <c r="V214" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="W214" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="X214" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Y214" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Z214" t="n">
         <v>130</v>
@@ -22618,22 +22618,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T215" t="n">
-        <v>10826.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U215" t="n">
         <v>0</v>
       </c>
       <c r="V215" t="n">
-        <v>1546.666666666667</v>
+        <v>0</v>
       </c>
       <c r="W215" t="n">
-        <v>1546.666666666667</v>
+        <v>0</v>
       </c>
       <c r="X215" t="n">
-        <v>1546.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y215" t="n">
-        <v>1546.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z215" t="n">
         <v>1546.666666666667</v>
@@ -22722,22 +22722,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T216" t="n">
-        <v>1633.333333333333</v>
+        <v>0</v>
       </c>
       <c r="U216" t="n">
         <v>0</v>
       </c>
       <c r="V216" t="n">
-        <v>233.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="W216" t="n">
-        <v>233.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="X216" t="n">
-        <v>233.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y216" t="n">
-        <v>233.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z216" t="n">
         <v>233.3333333333333</v>
@@ -22826,22 +22826,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T217" t="n">
-        <v>36750</v>
+        <v>0</v>
       </c>
       <c r="U217" t="n">
         <v>0</v>
       </c>
       <c r="V217" t="n">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="W217" t="n">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="X217" t="n">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="Y217" t="n">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="Z217" t="n">
         <v>5250</v>
@@ -22930,22 +22930,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T218" t="n">
-        <v>81666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U218" t="n">
         <v>0</v>
       </c>
       <c r="V218" t="n">
-        <v>11666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="W218" t="n">
-        <v>11666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="X218" t="n">
-        <v>11666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="Y218" t="n">
-        <v>11666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="Z218" t="n">
         <v>11666.66666666667</v>
@@ -23034,22 +23034,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T219" t="n">
-        <v>45500</v>
+        <v>0</v>
       </c>
       <c r="U219" t="n">
         <v>0</v>
       </c>
       <c r="V219" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="W219" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="X219" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="Y219" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="Z219" t="n">
         <v>6500</v>
@@ -23138,22 +23138,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T220" t="n">
-        <v>14233.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U220" t="n">
         <v>0</v>
       </c>
       <c r="V220" t="n">
-        <v>2033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W220" t="n">
-        <v>2033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X220" t="n">
-        <v>2033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y220" t="n">
-        <v>2033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z220" t="n">
         <v>2033.333333333333</v>
@@ -23242,22 +23242,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T221" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="U221" t="n">
         <v>0</v>
       </c>
       <c r="V221" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W221" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X221" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y221" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z221" t="n">
         <v>1000</v>
@@ -23346,22 +23346,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T222" t="n">
-        <v>5985</v>
+        <v>0</v>
       </c>
       <c r="U222" t="n">
         <v>0</v>
       </c>
       <c r="V222" t="n">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="W222" t="n">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="X222" t="n">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="Y222" t="n">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="Z222" t="n">
         <v>855</v>
@@ -23450,22 +23450,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T223" t="n">
-        <v>20475</v>
+        <v>0</v>
       </c>
       <c r="U223" t="n">
         <v>0</v>
       </c>
       <c r="V223" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="W223" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="X223" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="Y223" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="Z223" t="n">
         <v>2925</v>
@@ -23554,22 +23554,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T224" t="n">
-        <v>14280</v>
+        <v>0</v>
       </c>
       <c r="U224" t="n">
         <v>0</v>
       </c>
       <c r="V224" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="W224" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="X224" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="Y224" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="Z224" t="n">
         <v>2040</v>
@@ -23658,22 +23658,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T225" t="n">
-        <v>1933.75</v>
+        <v>0</v>
       </c>
       <c r="U225" t="n">
         <v>0</v>
       </c>
       <c r="V225" t="n">
-        <v>276.25</v>
+        <v>0</v>
       </c>
       <c r="W225" t="n">
-        <v>276.25</v>
+        <v>0</v>
       </c>
       <c r="X225" t="n">
-        <v>276.25</v>
+        <v>0</v>
       </c>
       <c r="Y225" t="n">
-        <v>276.25</v>
+        <v>0</v>
       </c>
       <c r="Z225" t="n">
         <v>276.25</v>
@@ -23762,22 +23762,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T226" t="n">
-        <v>37975</v>
+        <v>0</v>
       </c>
       <c r="U226" t="n">
         <v>0</v>
       </c>
       <c r="V226" t="n">
-        <v>5425</v>
+        <v>0</v>
       </c>
       <c r="W226" t="n">
-        <v>5425</v>
+        <v>0</v>
       </c>
       <c r="X226" t="n">
-        <v>5425</v>
+        <v>0</v>
       </c>
       <c r="Y226" t="n">
-        <v>5425</v>
+        <v>0</v>
       </c>
       <c r="Z226" t="n">
         <v>5425</v>
@@ -23866,22 +23866,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T227" t="n">
-        <v>49933.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U227" t="n">
         <v>0</v>
       </c>
       <c r="V227" t="n">
-        <v>7133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W227" t="n">
-        <v>7133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X227" t="n">
-        <v>7133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y227" t="n">
-        <v>7133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z227" t="n">
         <v>7133.333333333333</v>
@@ -23970,22 +23970,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T228" t="n">
-        <v>7735</v>
+        <v>0</v>
       </c>
       <c r="U228" t="n">
         <v>0</v>
       </c>
       <c r="V228" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="W228" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="X228" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="Y228" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="Z228" t="n">
         <v>1105</v>
@@ -24074,22 +24074,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T229" t="n">
-        <v>10266.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U229" t="n">
         <v>0</v>
       </c>
       <c r="V229" t="n">
-        <v>1466.666666666667</v>
+        <v>0</v>
       </c>
       <c r="W229" t="n">
-        <v>1466.666666666667</v>
+        <v>0</v>
       </c>
       <c r="X229" t="n">
-        <v>1466.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y229" t="n">
-        <v>1466.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z229" t="n">
         <v>1466.666666666667</v>
@@ -24178,22 +24178,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T230" t="n">
-        <v>6860</v>
+        <v>0</v>
       </c>
       <c r="U230" t="n">
         <v>0</v>
       </c>
       <c r="V230" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="W230" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="X230" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y230" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Z230" t="n">
         <v>980</v>
@@ -24282,22 +24282,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T231" t="n">
-        <v>333.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="U231" t="n">
         <v>0</v>
       </c>
       <c r="V231" t="n">
-        <v>47.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="W231" t="n">
-        <v>47.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="X231" t="n">
-        <v>47.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="Y231" t="n">
-        <v>47.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="Z231" t="n">
         <v>47.66666666666666</v>
@@ -24386,22 +24386,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T232" t="n">
-        <v>1817.666666666667</v>
+        <v>0</v>
       </c>
       <c r="U232" t="n">
         <v>0</v>
       </c>
       <c r="V232" t="n">
-        <v>259.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="W232" t="n">
-        <v>259.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="X232" t="n">
-        <v>259.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y232" t="n">
-        <v>259.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z232" t="n">
         <v>259.6666666666667</v>
@@ -24490,22 +24490,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T233" t="n">
-        <v>26670</v>
+        <v>0</v>
       </c>
       <c r="U233" t="n">
         <v>0</v>
       </c>
       <c r="V233" t="n">
-        <v>3810</v>
+        <v>0</v>
       </c>
       <c r="W233" t="n">
-        <v>3810</v>
+        <v>0</v>
       </c>
       <c r="X233" t="n">
-        <v>3810</v>
+        <v>0</v>
       </c>
       <c r="Y233" t="n">
-        <v>3810</v>
+        <v>0</v>
       </c>
       <c r="Z233" t="n">
         <v>3810</v>
@@ -24594,22 +24594,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T234" t="n">
-        <v>5950</v>
+        <v>0</v>
       </c>
       <c r="U234" t="n">
         <v>0</v>
       </c>
       <c r="V234" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="W234" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="X234" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="Y234" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="Z234" t="n">
         <v>850</v>
@@ -24698,22 +24698,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T235" t="n">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="U235" t="n">
         <v>0</v>
       </c>
       <c r="V235" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="W235" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="X235" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="Y235" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="Z235" t="n">
         <v>6000</v>
@@ -24802,22 +24802,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T236" t="n">
-        <v>16100</v>
+        <v>0</v>
       </c>
       <c r="U236" t="n">
         <v>0</v>
       </c>
       <c r="V236" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="W236" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="X236" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="Y236" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="Z236" t="n">
         <v>2300</v>
@@ -24906,22 +24906,22 @@
         <v>0.1</v>
       </c>
       <c r="T237" t="n">
-        <v>158374.125</v>
+        <v>0</v>
       </c>
       <c r="U237" t="n">
         <v>0</v>
       </c>
       <c r="V237" t="n">
-        <v>22624.875</v>
+        <v>0</v>
       </c>
       <c r="W237" t="n">
-        <v>22624.875</v>
+        <v>0</v>
       </c>
       <c r="X237" t="n">
-        <v>22624.875</v>
+        <v>0</v>
       </c>
       <c r="Y237" t="n">
-        <v>22624.875</v>
+        <v>0</v>
       </c>
       <c r="Z237" t="n">
         <v>22624.875</v>
@@ -25010,22 +25010,22 @@
         <v>0.1</v>
       </c>
       <c r="T238" t="n">
-        <v>29767.5</v>
+        <v>0</v>
       </c>
       <c r="U238" t="n">
         <v>0</v>
       </c>
       <c r="V238" t="n">
-        <v>4252.5</v>
+        <v>0</v>
       </c>
       <c r="W238" t="n">
-        <v>4252.5</v>
+        <v>0</v>
       </c>
       <c r="X238" t="n">
-        <v>4252.5</v>
+        <v>0</v>
       </c>
       <c r="Y238" t="n">
-        <v>4252.5</v>
+        <v>0</v>
       </c>
       <c r="Z238" t="n">
         <v>4252.5</v>
@@ -25114,22 +25114,22 @@
         <v>0.1</v>
       </c>
       <c r="T239" t="n">
-        <v>20475</v>
+        <v>0</v>
       </c>
       <c r="U239" t="n">
         <v>0</v>
       </c>
       <c r="V239" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="W239" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="X239" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="Y239" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="Z239" t="n">
         <v>2925</v>
@@ -25218,22 +25218,22 @@
         <v>0.1</v>
       </c>
       <c r="T240" t="n">
-        <v>38892</v>
+        <v>0</v>
       </c>
       <c r="U240" t="n">
         <v>0</v>
       </c>
       <c r="V240" t="n">
-        <v>5556</v>
+        <v>0</v>
       </c>
       <c r="W240" t="n">
-        <v>5556</v>
+        <v>0</v>
       </c>
       <c r="X240" t="n">
-        <v>5556</v>
+        <v>0</v>
       </c>
       <c r="Y240" t="n">
-        <v>5556</v>
+        <v>0</v>
       </c>
       <c r="Z240" t="n">
         <v>5556</v>
@@ -25322,22 +25322,22 @@
         <v>0.1</v>
       </c>
       <c r="T241" t="n">
-        <v>15669.5</v>
+        <v>0</v>
       </c>
       <c r="U241" t="n">
         <v>0</v>
       </c>
       <c r="V241" t="n">
-        <v>2238.5</v>
+        <v>0</v>
       </c>
       <c r="W241" t="n">
-        <v>2238.5</v>
+        <v>0</v>
       </c>
       <c r="X241" t="n">
-        <v>2238.5</v>
+        <v>0</v>
       </c>
       <c r="Y241" t="n">
-        <v>2238.5</v>
+        <v>0</v>
       </c>
       <c r="Z241" t="n">
         <v>2238.5</v>
@@ -25426,22 +25426,22 @@
         <v>0.05</v>
       </c>
       <c r="T242" t="n">
-        <v>20195.385</v>
+        <v>0</v>
       </c>
       <c r="U242" t="n">
         <v>0</v>
       </c>
       <c r="V242" t="n">
-        <v>2885.055</v>
+        <v>0</v>
       </c>
       <c r="W242" t="n">
-        <v>2885.055</v>
+        <v>0</v>
       </c>
       <c r="X242" t="n">
-        <v>2885.055</v>
+        <v>0</v>
       </c>
       <c r="Y242" t="n">
-        <v>2885.055</v>
+        <v>0</v>
       </c>
       <c r="Z242" t="n">
         <v>2885.055</v>
@@ -25530,22 +25530,22 @@
         <v>0.05</v>
       </c>
       <c r="T243" t="n">
-        <v>82583.02499999999</v>
+        <v>0</v>
       </c>
       <c r="U243" t="n">
         <v>0</v>
       </c>
       <c r="V243" t="n">
-        <v>11797.575</v>
+        <v>0</v>
       </c>
       <c r="W243" t="n">
-        <v>11797.575</v>
+        <v>0</v>
       </c>
       <c r="X243" t="n">
-        <v>11797.575</v>
+        <v>0</v>
       </c>
       <c r="Y243" t="n">
-        <v>11797.575</v>
+        <v>0</v>
       </c>
       <c r="Z243" t="n">
         <v>11797.575</v>
@@ -25634,22 +25634,22 @@
         <v>0.05</v>
       </c>
       <c r="T244" t="n">
-        <v>49631.925</v>
+        <v>0</v>
       </c>
       <c r="U244" t="n">
         <v>0</v>
       </c>
       <c r="V244" t="n">
-        <v>7090.275000000001</v>
+        <v>0</v>
       </c>
       <c r="W244" t="n">
-        <v>7090.275000000001</v>
+        <v>0</v>
       </c>
       <c r="X244" t="n">
-        <v>7090.275000000001</v>
+        <v>0</v>
       </c>
       <c r="Y244" t="n">
-        <v>7090.275000000001</v>
+        <v>0</v>
       </c>
       <c r="Z244" t="n">
         <v>7090.275000000001</v>
@@ -25738,22 +25738,22 @@
         <v>0.05</v>
       </c>
       <c r="T245" t="n">
-        <v>74165.595</v>
+        <v>0</v>
       </c>
       <c r="U245" t="n">
         <v>0</v>
       </c>
       <c r="V245" t="n">
-        <v>10595.085</v>
+        <v>0</v>
       </c>
       <c r="W245" t="n">
-        <v>10595.085</v>
+        <v>0</v>
       </c>
       <c r="X245" t="n">
-        <v>10595.085</v>
+        <v>0</v>
       </c>
       <c r="Y245" t="n">
-        <v>10595.085</v>
+        <v>0</v>
       </c>
       <c r="Z245" t="n">
         <v>10595.085</v>
@@ -25842,22 +25842,22 @@
         <v>0.05</v>
       </c>
       <c r="T246" t="n">
-        <v>36183.84</v>
+        <v>0</v>
       </c>
       <c r="U246" t="n">
         <v>0</v>
       </c>
       <c r="V246" t="n">
-        <v>5169.12</v>
+        <v>0</v>
       </c>
       <c r="W246" t="n">
-        <v>5169.12</v>
+        <v>0</v>
       </c>
       <c r="X246" t="n">
-        <v>5169.12</v>
+        <v>0</v>
       </c>
       <c r="Y246" t="n">
-        <v>5169.12</v>
+        <v>0</v>
       </c>
       <c r="Z246" t="n">
         <v>5169.12</v>
@@ -25946,22 +25946,22 @@
         <v>0.05</v>
       </c>
       <c r="T247" t="n">
-        <v>94600.37999999999</v>
+        <v>0</v>
       </c>
       <c r="U247" t="n">
         <v>0</v>
       </c>
       <c r="V247" t="n">
-        <v>13514.34</v>
+        <v>0</v>
       </c>
       <c r="W247" t="n">
-        <v>13514.34</v>
+        <v>0</v>
       </c>
       <c r="X247" t="n">
-        <v>13514.34</v>
+        <v>0</v>
       </c>
       <c r="Y247" t="n">
-        <v>13514.34</v>
+        <v>0</v>
       </c>
       <c r="Z247" t="n">
         <v>13514.34</v>
@@ -26050,22 +26050,22 @@
         <v>0.05</v>
       </c>
       <c r="T248" t="n">
-        <v>20527.5</v>
+        <v>0</v>
       </c>
       <c r="U248" t="n">
         <v>0</v>
       </c>
       <c r="V248" t="n">
-        <v>2932.5</v>
+        <v>0</v>
       </c>
       <c r="W248" t="n">
-        <v>2932.5</v>
+        <v>0</v>
       </c>
       <c r="X248" t="n">
-        <v>2932.5</v>
+        <v>0</v>
       </c>
       <c r="Y248" t="n">
-        <v>2932.5</v>
+        <v>0</v>
       </c>
       <c r="Z248" t="n">
         <v>2932.5</v>
@@ -26154,22 +26154,22 @@
         <v>0.05</v>
       </c>
       <c r="T249" t="n">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="U249" t="n">
         <v>0</v>
       </c>
       <c r="V249" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="W249" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="X249" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Y249" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z249" t="n">
         <v>150</v>
@@ -26258,22 +26258,22 @@
         <v>0.05</v>
       </c>
       <c r="T250" t="n">
-        <v>40303.3575</v>
+        <v>0</v>
       </c>
       <c r="U250" t="n">
         <v>0</v>
       </c>
       <c r="V250" t="n">
-        <v>5757.6225</v>
+        <v>0</v>
       </c>
       <c r="W250" t="n">
-        <v>5757.6225</v>
+        <v>0</v>
       </c>
       <c r="X250" t="n">
-        <v>5757.6225</v>
+        <v>0</v>
       </c>
       <c r="Y250" t="n">
-        <v>5757.6225</v>
+        <v>0</v>
       </c>
       <c r="Z250" t="n">
         <v>5757.6225</v>
@@ -26362,22 +26362,22 @@
         <v>0.05</v>
       </c>
       <c r="T251" t="n">
-        <v>18335.625</v>
+        <v>0</v>
       </c>
       <c r="U251" t="n">
         <v>0</v>
       </c>
       <c r="V251" t="n">
-        <v>2619.375</v>
+        <v>0</v>
       </c>
       <c r="W251" t="n">
-        <v>2619.375</v>
+        <v>0</v>
       </c>
       <c r="X251" t="n">
-        <v>2619.375</v>
+        <v>0</v>
       </c>
       <c r="Y251" t="n">
-        <v>2619.375</v>
+        <v>0</v>
       </c>
       <c r="Z251" t="n">
         <v>2619.375</v>
@@ -26466,22 +26466,22 @@
         <v>0.05</v>
       </c>
       <c r="T252" t="n">
-        <v>9975</v>
+        <v>0</v>
       </c>
       <c r="U252" t="n">
         <v>0</v>
       </c>
       <c r="V252" t="n">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="W252" t="n">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="X252" t="n">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="Y252" t="n">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="Z252" t="n">
         <v>1425</v>
@@ -26570,22 +26570,22 @@
         <v>0.05</v>
       </c>
       <c r="T253" t="n">
-        <v>24178</v>
+        <v>0</v>
       </c>
       <c r="U253" t="n">
         <v>0</v>
       </c>
       <c r="V253" t="n">
-        <v>3454</v>
+        <v>0</v>
       </c>
       <c r="W253" t="n">
-        <v>3454</v>
+        <v>0</v>
       </c>
       <c r="X253" t="n">
-        <v>3454</v>
+        <v>0</v>
       </c>
       <c r="Y253" t="n">
-        <v>3454</v>
+        <v>0</v>
       </c>
       <c r="Z253" t="n">
         <v>3454</v>
@@ -26674,22 +26674,22 @@
         <v>0.05</v>
       </c>
       <c r="T254" t="n">
-        <v>247979.55</v>
+        <v>0</v>
       </c>
       <c r="U254" t="n">
         <v>0</v>
       </c>
       <c r="V254" t="n">
-        <v>35425.65</v>
+        <v>0</v>
       </c>
       <c r="W254" t="n">
-        <v>35425.65</v>
+        <v>0</v>
       </c>
       <c r="X254" t="n">
-        <v>35425.65</v>
+        <v>0</v>
       </c>
       <c r="Y254" t="n">
-        <v>35425.65</v>
+        <v>0</v>
       </c>
       <c r="Z254" t="n">
         <v>35425.65</v>
@@ -26778,22 +26778,22 @@
         <v>0.05</v>
       </c>
       <c r="T255" t="n">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="U255" t="n">
         <v>0</v>
       </c>
       <c r="V255" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="W255" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="X255" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="Y255" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="Z255" t="n">
         <v>24000</v>
@@ -26882,22 +26882,22 @@
         <v>0.05</v>
       </c>
       <c r="T256" t="n">
-        <v>208881.75</v>
+        <v>0</v>
       </c>
       <c r="U256" t="n">
         <v>0</v>
       </c>
       <c r="V256" t="n">
-        <v>29840.25</v>
+        <v>0</v>
       </c>
       <c r="W256" t="n">
-        <v>29840.25</v>
+        <v>0</v>
       </c>
       <c r="X256" t="n">
-        <v>29840.25</v>
+        <v>0</v>
       </c>
       <c r="Y256" t="n">
-        <v>29840.25</v>
+        <v>0</v>
       </c>
       <c r="Z256" t="n">
         <v>29840.25</v>
@@ -26986,22 +26986,22 @@
         <v>0.05</v>
       </c>
       <c r="T257" t="n">
-        <v>15089.4975</v>
+        <v>0</v>
       </c>
       <c r="U257" t="n">
         <v>0</v>
       </c>
       <c r="V257" t="n">
-        <v>2155.6425</v>
+        <v>0</v>
       </c>
       <c r="W257" t="n">
-        <v>2155.6425</v>
+        <v>0</v>
       </c>
       <c r="X257" t="n">
-        <v>2155.6425</v>
+        <v>0</v>
       </c>
       <c r="Y257" t="n">
-        <v>2155.6425</v>
+        <v>0</v>
       </c>
       <c r="Z257" t="n">
         <v>2155.6425</v>
@@ -27090,22 +27090,22 @@
         <v>0.05</v>
       </c>
       <c r="T258" t="n">
-        <v>38220</v>
+        <v>0</v>
       </c>
       <c r="U258" t="n">
         <v>0</v>
       </c>
       <c r="V258" t="n">
-        <v>5460</v>
+        <v>0</v>
       </c>
       <c r="W258" t="n">
-        <v>5460</v>
+        <v>0</v>
       </c>
       <c r="X258" t="n">
-        <v>5460</v>
+        <v>0</v>
       </c>
       <c r="Y258" t="n">
-        <v>5460</v>
+        <v>0</v>
       </c>
       <c r="Z258" t="n">
         <v>5460</v>
@@ -27194,22 +27194,22 @@
         <v>0.05</v>
       </c>
       <c r="T259" t="n">
-        <v>13781.25</v>
+        <v>0</v>
       </c>
       <c r="U259" t="n">
         <v>0</v>
       </c>
       <c r="V259" t="n">
-        <v>1968.75</v>
+        <v>0</v>
       </c>
       <c r="W259" t="n">
-        <v>1968.75</v>
+        <v>0</v>
       </c>
       <c r="X259" t="n">
-        <v>1968.75</v>
+        <v>0</v>
       </c>
       <c r="Y259" t="n">
-        <v>1968.75</v>
+        <v>0</v>
       </c>
       <c r="Z259" t="n">
         <v>1968.75</v>
@@ -27298,22 +27298,22 @@
         <v>0.05</v>
       </c>
       <c r="T260" t="n">
-        <v>38587.5</v>
+        <v>0</v>
       </c>
       <c r="U260" t="n">
         <v>0</v>
       </c>
       <c r="V260" t="n">
-        <v>5512.5</v>
+        <v>0</v>
       </c>
       <c r="W260" t="n">
-        <v>5512.5</v>
+        <v>0</v>
       </c>
       <c r="X260" t="n">
-        <v>5512.5</v>
+        <v>0</v>
       </c>
       <c r="Y260" t="n">
-        <v>5512.5</v>
+        <v>0</v>
       </c>
       <c r="Z260" t="n">
         <v>5512.5</v>
@@ -27402,22 +27402,22 @@
         <v>0.05</v>
       </c>
       <c r="T261" t="n">
-        <v>75545.92500000002</v>
+        <v>0</v>
       </c>
       <c r="U261" t="n">
         <v>0</v>
       </c>
       <c r="V261" t="n">
-        <v>10792.275</v>
+        <v>0</v>
       </c>
       <c r="W261" t="n">
-        <v>10792.275</v>
+        <v>0</v>
       </c>
       <c r="X261" t="n">
-        <v>10792.275</v>
+        <v>0</v>
       </c>
       <c r="Y261" t="n">
-        <v>10792.275</v>
+        <v>0</v>
       </c>
       <c r="Z261" t="n">
         <v>10792.275</v>
@@ -27506,22 +27506,22 @@
         <v>0.05</v>
       </c>
       <c r="T262" t="n">
-        <v>12735.7125</v>
+        <v>0</v>
       </c>
       <c r="U262" t="n">
         <v>0</v>
       </c>
       <c r="V262" t="n">
-        <v>1819.3875</v>
+        <v>0</v>
       </c>
       <c r="W262" t="n">
-        <v>1819.3875</v>
+        <v>0</v>
       </c>
       <c r="X262" t="n">
-        <v>1819.3875</v>
+        <v>0</v>
       </c>
       <c r="Y262" t="n">
-        <v>1819.3875</v>
+        <v>0</v>
       </c>
       <c r="Z262" t="n">
         <v>1819.3875</v>
@@ -27610,22 +27610,22 @@
         <v>0.05</v>
       </c>
       <c r="T263" t="n">
-        <v>30347.94</v>
+        <v>0</v>
       </c>
       <c r="U263" t="n">
         <v>0</v>
       </c>
       <c r="V263" t="n">
-        <v>4335.42</v>
+        <v>0</v>
       </c>
       <c r="W263" t="n">
-        <v>4335.42</v>
+        <v>0</v>
       </c>
       <c r="X263" t="n">
-        <v>4335.42</v>
+        <v>0</v>
       </c>
       <c r="Y263" t="n">
-        <v>4335.42</v>
+        <v>0</v>
       </c>
       <c r="Z263" t="n">
         <v>4335.42</v>
@@ -27714,22 +27714,22 @@
         <v>0.05</v>
       </c>
       <c r="T264" t="n">
-        <v>87825.62250000001</v>
+        <v>0</v>
       </c>
       <c r="U264" t="n">
         <v>0</v>
       </c>
       <c r="V264" t="n">
-        <v>12546.5175</v>
+        <v>0</v>
       </c>
       <c r="W264" t="n">
-        <v>12546.5175</v>
+        <v>0</v>
       </c>
       <c r="X264" t="n">
-        <v>12546.5175</v>
+        <v>0</v>
       </c>
       <c r="Y264" t="n">
-        <v>12546.5175</v>
+        <v>0</v>
       </c>
       <c r="Z264" t="n">
         <v>12546.5175</v>
@@ -27818,22 +27818,22 @@
         <v>0.05</v>
       </c>
       <c r="T265" t="n">
-        <v>13046.25</v>
+        <v>0</v>
       </c>
       <c r="U265" t="n">
         <v>0</v>
       </c>
       <c r="V265" t="n">
-        <v>1863.75</v>
+        <v>0</v>
       </c>
       <c r="W265" t="n">
-        <v>1863.75</v>
+        <v>0</v>
       </c>
       <c r="X265" t="n">
-        <v>1863.75</v>
+        <v>0</v>
       </c>
       <c r="Y265" t="n">
-        <v>1863.75</v>
+        <v>0</v>
       </c>
       <c r="Z265" t="n">
         <v>1863.75</v>
@@ -27922,22 +27922,22 @@
         <v>0.05</v>
       </c>
       <c r="T266" t="n">
-        <v>11085.9</v>
+        <v>0</v>
       </c>
       <c r="U266" t="n">
         <v>0</v>
       </c>
       <c r="V266" t="n">
-        <v>1583.7</v>
+        <v>0</v>
       </c>
       <c r="W266" t="n">
-        <v>1583.7</v>
+        <v>0</v>
       </c>
       <c r="X266" t="n">
-        <v>1583.7</v>
+        <v>0</v>
       </c>
       <c r="Y266" t="n">
-        <v>1583.7</v>
+        <v>0</v>
       </c>
       <c r="Z266" t="n">
         <v>1583.7</v>
@@ -28026,22 +28026,22 @@
         <v>0.05</v>
       </c>
       <c r="T267" t="n">
-        <v>7525</v>
+        <v>0</v>
       </c>
       <c r="U267" t="n">
         <v>0</v>
       </c>
       <c r="V267" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="W267" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="X267" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="Y267" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="Z267" t="n">
         <v>1075</v>
@@ -28130,22 +28130,22 @@
         <v>0.05</v>
       </c>
       <c r="T268" t="n">
-        <v>50750</v>
+        <v>0</v>
       </c>
       <c r="U268" t="n">
         <v>0</v>
       </c>
       <c r="V268" t="n">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="W268" t="n">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="X268" t="n">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="Y268" t="n">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="Z268" t="n">
         <v>7250</v>
@@ -28234,22 +28234,22 @@
         <v>0.05</v>
       </c>
       <c r="T269" t="n">
-        <v>12693.52</v>
+        <v>0</v>
       </c>
       <c r="U269" t="n">
         <v>0</v>
       </c>
       <c r="V269" t="n">
-        <v>1813.36</v>
+        <v>0</v>
       </c>
       <c r="W269" t="n">
-        <v>1813.36</v>
+        <v>0</v>
       </c>
       <c r="X269" t="n">
-        <v>1813.36</v>
+        <v>0</v>
       </c>
       <c r="Y269" t="n">
-        <v>1813.36</v>
+        <v>0</v>
       </c>
       <c r="Z269" t="n">
         <v>1813.36</v>
@@ -28338,22 +28338,22 @@
         <v>0.05</v>
       </c>
       <c r="T270" t="n">
-        <v>29120</v>
+        <v>0</v>
       </c>
       <c r="U270" t="n">
         <v>0</v>
       </c>
       <c r="V270" t="n">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="W270" t="n">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="X270" t="n">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="Y270" t="n">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="Z270" t="n">
         <v>4160</v>
@@ -28442,22 +28442,22 @@
         <v>0.05</v>
       </c>
       <c r="T271" t="n">
-        <v>26162.5</v>
+        <v>0</v>
       </c>
       <c r="U271" t="n">
         <v>0</v>
       </c>
       <c r="V271" t="n">
-        <v>3737.5</v>
+        <v>0</v>
       </c>
       <c r="W271" t="n">
-        <v>3737.5</v>
+        <v>0</v>
       </c>
       <c r="X271" t="n">
-        <v>3737.5</v>
+        <v>0</v>
       </c>
       <c r="Y271" t="n">
-        <v>3737.5</v>
+        <v>0</v>
       </c>
       <c r="Z271" t="n">
         <v>3737.5</v>
@@ -28546,22 +28546,22 @@
         <v>0.05</v>
       </c>
       <c r="T272" t="n">
-        <v>49210</v>
+        <v>0</v>
       </c>
       <c r="U272" t="n">
         <v>0</v>
       </c>
       <c r="V272" t="n">
-        <v>7030</v>
+        <v>0</v>
       </c>
       <c r="W272" t="n">
-        <v>7030</v>
+        <v>0</v>
       </c>
       <c r="X272" t="n">
-        <v>7030</v>
+        <v>0</v>
       </c>
       <c r="Y272" t="n">
-        <v>7030</v>
+        <v>0</v>
       </c>
       <c r="Z272" t="n">
         <v>7030</v>
@@ -28650,22 +28650,22 @@
         <v>0.05</v>
       </c>
       <c r="T273" t="n">
-        <v>46965.1875</v>
+        <v>0</v>
       </c>
       <c r="U273" t="n">
         <v>0</v>
       </c>
       <c r="V273" t="n">
-        <v>6709.3125</v>
+        <v>0</v>
       </c>
       <c r="W273" t="n">
-        <v>6709.3125</v>
+        <v>0</v>
       </c>
       <c r="X273" t="n">
-        <v>6709.3125</v>
+        <v>0</v>
       </c>
       <c r="Y273" t="n">
-        <v>6709.3125</v>
+        <v>0</v>
       </c>
       <c r="Z273" t="n">
         <v>6709.3125</v>
@@ -28754,22 +28754,22 @@
         <v>0.05</v>
       </c>
       <c r="T274" t="n">
-        <v>1365</v>
+        <v>0</v>
       </c>
       <c r="U274" t="n">
         <v>0</v>
       </c>
       <c r="V274" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="W274" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="X274" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="Y274" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="Z274" t="n">
         <v>195</v>
@@ -28858,22 +28858,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T275" t="n">
-        <v>466666.6666666667</v>
+        <v>0</v>
       </c>
       <c r="U275" t="n">
         <v>0</v>
       </c>
       <c r="V275" t="n">
-        <v>66666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="W275" t="n">
-        <v>66666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="X275" t="n">
-        <v>66666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="Y275" t="n">
-        <v>66666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="Z275" t="n">
         <v>66666.66666666667</v>
@@ -28962,22 +28962,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T276" t="n">
-        <v>54600</v>
+        <v>0</v>
       </c>
       <c r="U276" t="n">
         <v>0</v>
       </c>
       <c r="V276" t="n">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="W276" t="n">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="X276" t="n">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="Y276" t="n">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="Z276" t="n">
         <v>7800</v>
@@ -29066,22 +29066,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T277" t="n">
-        <v>77000</v>
+        <v>0</v>
       </c>
       <c r="U277" t="n">
         <v>0</v>
       </c>
       <c r="V277" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="W277" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="X277" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="Y277" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="Z277" t="n">
         <v>11000</v>
@@ -29170,22 +29170,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T278" t="n">
-        <v>22166.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U278" t="n">
         <v>0</v>
       </c>
       <c r="V278" t="n">
-        <v>3166.666666666667</v>
+        <v>0</v>
       </c>
       <c r="W278" t="n">
-        <v>3166.666666666667</v>
+        <v>0</v>
       </c>
       <c r="X278" t="n">
-        <v>3166.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y278" t="n">
-        <v>3166.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z278" t="n">
         <v>3166.666666666667</v>
@@ -29274,22 +29274,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T279" t="n">
-        <v>34300</v>
+        <v>0</v>
       </c>
       <c r="U279" t="n">
         <v>0</v>
       </c>
       <c r="V279" t="n">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="W279" t="n">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="X279" t="n">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="Y279" t="n">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="Z279" t="n">
         <v>4900</v>
@@ -29378,22 +29378,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T280" t="n">
-        <v>23706.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U280" t="n">
         <v>0</v>
       </c>
       <c r="V280" t="n">
-        <v>3386.666666666667</v>
+        <v>0</v>
       </c>
       <c r="W280" t="n">
-        <v>3386.666666666667</v>
+        <v>0</v>
       </c>
       <c r="X280" t="n">
-        <v>3386.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y280" t="n">
-        <v>3386.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z280" t="n">
         <v>3386.666666666667</v>
@@ -29482,22 +29482,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T281" t="n">
-        <v>21933.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U281" t="n">
         <v>0</v>
       </c>
       <c r="V281" t="n">
-        <v>3133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W281" t="n">
-        <v>3133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X281" t="n">
-        <v>3133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y281" t="n">
-        <v>3133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z281" t="n">
         <v>3133.333333333333</v>
@@ -29586,22 +29586,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T282" t="n">
-        <v>44800</v>
+        <v>0</v>
       </c>
       <c r="U282" t="n">
         <v>0</v>
       </c>
       <c r="V282" t="n">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="W282" t="n">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="X282" t="n">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="Y282" t="n">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="Z282" t="n">
         <v>6400</v>
@@ -29690,22 +29690,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T283" t="n">
-        <v>103040</v>
+        <v>0</v>
       </c>
       <c r="U283" t="n">
         <v>0</v>
       </c>
       <c r="V283" t="n">
-        <v>14720</v>
+        <v>0</v>
       </c>
       <c r="W283" t="n">
-        <v>14720</v>
+        <v>0</v>
       </c>
       <c r="X283" t="n">
-        <v>14720</v>
+        <v>0</v>
       </c>
       <c r="Y283" t="n">
-        <v>14720</v>
+        <v>0</v>
       </c>
       <c r="Z283" t="n">
         <v>14720</v>
@@ -29794,22 +29794,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T284" t="n">
-        <v>30333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U284" t="n">
         <v>0</v>
       </c>
       <c r="V284" t="n">
-        <v>4333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W284" t="n">
-        <v>4333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X284" t="n">
-        <v>4333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y284" t="n">
-        <v>4333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z284" t="n">
         <v>4333.333333333333</v>
@@ -29898,22 +29898,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T285" t="n">
-        <v>40600</v>
+        <v>0</v>
       </c>
       <c r="U285" t="n">
         <v>0</v>
       </c>
       <c r="V285" t="n">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="W285" t="n">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="X285" t="n">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="Y285" t="n">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="Z285" t="n">
         <v>5800</v>
@@ -30002,22 +30002,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T286" t="n">
-        <v>65333.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U286" t="n">
         <v>0</v>
       </c>
       <c r="V286" t="n">
-        <v>9333.333333333334</v>
+        <v>0</v>
       </c>
       <c r="W286" t="n">
-        <v>9333.333333333334</v>
+        <v>0</v>
       </c>
       <c r="X286" t="n">
-        <v>9333.333333333334</v>
+        <v>0</v>
       </c>
       <c r="Y286" t="n">
-        <v>9333.333333333334</v>
+        <v>0</v>
       </c>
       <c r="Z286" t="n">
         <v>9333.333333333334</v>
@@ -30106,22 +30106,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T287" t="n">
-        <v>44333.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U287" t="n">
         <v>0</v>
       </c>
       <c r="V287" t="n">
-        <v>6333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W287" t="n">
-        <v>6333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X287" t="n">
-        <v>6333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y287" t="n">
-        <v>6333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z287" t="n">
         <v>6333.333333333333</v>
@@ -30210,22 +30210,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T288" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="U288" t="n">
         <v>0</v>
       </c>
       <c r="V288" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="W288" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="X288" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Y288" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Z288" t="n">
         <v>4000</v>
@@ -30314,22 +30314,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T289" t="n">
-        <v>197166.6666666667</v>
+        <v>0</v>
       </c>
       <c r="U289" t="n">
         <v>0</v>
       </c>
       <c r="V289" t="n">
-        <v>28166.66666666667</v>
+        <v>0</v>
       </c>
       <c r="W289" t="n">
-        <v>28166.66666666667</v>
+        <v>0</v>
       </c>
       <c r="X289" t="n">
-        <v>28166.66666666667</v>
+        <v>0</v>
       </c>
       <c r="Y289" t="n">
-        <v>28166.66666666667</v>
+        <v>0</v>
       </c>
       <c r="Z289" t="n">
         <v>28166.66666666667</v>
@@ -30418,22 +30418,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T290" t="n">
-        <v>3943.333333333334</v>
+        <v>0</v>
       </c>
       <c r="U290" t="n">
         <v>0</v>
       </c>
       <c r="V290" t="n">
-        <v>563.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="W290" t="n">
-        <v>563.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="X290" t="n">
-        <v>563.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="Y290" t="n">
-        <v>563.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="Z290" t="n">
         <v>563.3333333333334</v>
@@ -30522,22 +30522,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T291" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="U291" t="n">
         <v>0</v>
       </c>
       <c r="V291" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="W291" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="X291" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Y291" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Z291" t="n">
         <v>4000</v>
@@ -30626,22 +30626,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T292" t="n">
-        <v>10920</v>
+        <v>0</v>
       </c>
       <c r="U292" t="n">
         <v>0</v>
       </c>
       <c r="V292" t="n">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="W292" t="n">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="X292" t="n">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="Y292" t="n">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="Z292" t="n">
         <v>1560</v>
@@ -30730,22 +30730,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T293" t="n">
-        <v>55267.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U293" t="n">
         <v>0</v>
       </c>
       <c r="V293" t="n">
-        <v>7895.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W293" t="n">
-        <v>7895.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X293" t="n">
-        <v>7895.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y293" t="n">
-        <v>7895.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z293" t="n">
         <v>7895.333333333333</v>
@@ -30834,22 +30834,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T294" t="n">
-        <v>4170.833333333334</v>
+        <v>0</v>
       </c>
       <c r="U294" t="n">
         <v>0</v>
       </c>
       <c r="V294" t="n">
-        <v>595.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="W294" t="n">
-        <v>595.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="X294" t="n">
-        <v>595.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="Y294" t="n">
-        <v>595.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="Z294" t="n">
         <v>595.8333333333334</v>
@@ -30938,22 +30938,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T295" t="n">
-        <v>93333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U295" t="n">
         <v>0</v>
       </c>
       <c r="V295" t="n">
-        <v>13333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="W295" t="n">
-        <v>13333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="X295" t="n">
-        <v>13333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="Y295" t="n">
-        <v>13333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="Z295" t="n">
         <v>13333.33333333333</v>
@@ -31042,22 +31042,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T296" t="n">
-        <v>551768</v>
+        <v>0</v>
       </c>
       <c r="U296" t="n">
         <v>0</v>
       </c>
       <c r="V296" t="n">
-        <v>78824</v>
+        <v>0</v>
       </c>
       <c r="W296" t="n">
-        <v>78824</v>
+        <v>0</v>
       </c>
       <c r="X296" t="n">
-        <v>78824</v>
+        <v>0</v>
       </c>
       <c r="Y296" t="n">
-        <v>78824</v>
+        <v>0</v>
       </c>
       <c r="Z296" t="n">
         <v>78824</v>
@@ -31146,22 +31146,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T297" t="n">
-        <v>56000</v>
+        <v>0</v>
       </c>
       <c r="U297" t="n">
         <v>0</v>
       </c>
       <c r="V297" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="W297" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="X297" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="Y297" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="Z297" t="n">
         <v>8000</v>
@@ -31250,22 +31250,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T298" t="n">
-        <v>36773.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U298" t="n">
         <v>0</v>
       </c>
       <c r="V298" t="n">
-        <v>5253.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W298" t="n">
-        <v>5253.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X298" t="n">
-        <v>5253.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y298" t="n">
-        <v>5253.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z298" t="n">
         <v>5253.333333333333</v>
@@ -31354,22 +31354,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T299" t="n">
-        <v>23380</v>
+        <v>0</v>
       </c>
       <c r="U299" t="n">
         <v>0</v>
       </c>
       <c r="V299" t="n">
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="W299" t="n">
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="X299" t="n">
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="Y299" t="n">
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="Z299" t="n">
         <v>3340</v>
@@ -31458,22 +31458,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T300" t="n">
-        <v>87733.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U300" t="n">
         <v>0</v>
       </c>
       <c r="V300" t="n">
-        <v>12533.33333333333</v>
+        <v>0</v>
       </c>
       <c r="W300" t="n">
-        <v>12533.33333333333</v>
+        <v>0</v>
       </c>
       <c r="X300" t="n">
-        <v>12533.33333333333</v>
+        <v>0</v>
       </c>
       <c r="Y300" t="n">
-        <v>12533.33333333333</v>
+        <v>0</v>
       </c>
       <c r="Z300" t="n">
         <v>12533.33333333333</v>
@@ -31562,22 +31562,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T301" t="n">
-        <v>21233.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U301" t="n">
         <v>0</v>
       </c>
       <c r="V301" t="n">
-        <v>3033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W301" t="n">
-        <v>3033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X301" t="n">
-        <v>3033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y301" t="n">
-        <v>3033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z301" t="n">
         <v>3033.333333333333</v>

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -654,7 +654,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T2" t="n">
-        <v>56861.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -756,7 +756,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T3" t="n">
-        <v>22253</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -858,7 +858,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T4" t="n">
-        <v>10810</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -960,7 +960,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T5" t="n">
-        <v>21481</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1062,7 +1062,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T6" t="n">
-        <v>11653</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1164,7 +1164,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T7" t="n">
-        <v>32151</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1266,7 +1266,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T8" t="n">
-        <v>24570</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1366,7 +1366,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T9" t="n">
-        <v>47855</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1468,7 +1468,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T10" t="n">
-        <v>24829.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRC-7-C-17-0000</t>
+          <t>FRC-HQ-SLM-C-17-0010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1570,7 +1570,7 @@
         <v>0.2</v>
       </c>
       <c r="T11" t="n">
-        <v>147229.6</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FRC-7-C-17-0000</t>
+          <t>FRC-HQ-SLM-C-17-0011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1672,7 +1672,7 @@
         <v>0.2</v>
       </c>
       <c r="T12" t="n">
-        <v>77000</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1772,7 +1772,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T13" t="n">
-        <v>50900</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1874,7 +1874,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T14" t="n">
-        <v>56900</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1980,7 +1980,7 @@
         <v>0.1</v>
       </c>
       <c r="T15" t="n">
-        <v>26880</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2082,7 +2082,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T16" t="n">
-        <v>16900</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2184,7 +2184,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T17" t="n">
-        <v>19500</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0017</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2290,7 +2290,7 @@
         <v>0.1</v>
       </c>
       <c r="T18" t="n">
-        <v>21102.053</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0018</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2396,7 +2396,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T19" t="n">
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2502,7 +2502,7 @@
         <v>0.1</v>
       </c>
       <c r="T20" t="n">
-        <v>9450</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2604,7 +2604,7 @@
         <v>0.1</v>
       </c>
       <c r="T21" t="n">
-        <v>21315</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2704,7 +2704,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T22" t="n">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0022</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2806,7 +2806,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T23" t="n">
-        <v>28287.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2908,7 +2908,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T24" t="n">
-        <v>20199</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3010,7 +3010,7 @@
         <v>0.1</v>
       </c>
       <c r="T25" t="n">
-        <v>38574.2</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3112,7 +3112,7 @@
         <v>0.1</v>
       </c>
       <c r="T26" t="n">
-        <v>8190</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0026</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3214,7 +3214,7 @@
         <v>0.1</v>
       </c>
       <c r="T27" t="n">
-        <v>18144</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0027</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3316,7 +3316,7 @@
         <v>0.1</v>
       </c>
       <c r="T28" t="n">
-        <v>178752</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0028</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3422,7 +3422,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T29" t="n">
-        <v>56300</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0029</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3524,7 +3524,7 @@
         <v>0.1</v>
       </c>
       <c r="T30" t="n">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0030</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3626,7 +3626,7 @@
         <v>0.1</v>
       </c>
       <c r="T31" t="n">
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0031</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3728,7 +3728,7 @@
         <v>0.1</v>
       </c>
       <c r="T32" t="n">
-        <v>20160</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0032</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3828,7 +3828,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T33" t="n">
-        <v>362600</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0033</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3928,7 +3928,7 @@
         <v>0.1</v>
       </c>
       <c r="T34" t="n">
-        <v>9362.5</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0034</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4030,7 +4030,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T35" t="n">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0035</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4132,7 +4132,7 @@
         <v>0.1</v>
       </c>
       <c r="T36" t="n">
-        <v>68110</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0036</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4234,7 +4234,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T37" t="n">
-        <v>53770</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0037</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4340,7 +4340,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T38" t="n">
-        <v>106500</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0038</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4442,7 +4442,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T39" t="n">
-        <v>196000</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0039</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4544,7 +4544,7 @@
         <v>0.1</v>
       </c>
       <c r="T40" t="n">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0040</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4646,7 +4646,7 @@
         <v>0.1</v>
       </c>
       <c r="T41" t="n">
-        <v>4462.5</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0041</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4748,7 +4748,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T42" t="n">
-        <v>16408</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0042</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4854,7 +4854,7 @@
         <v>0.1</v>
       </c>
       <c r="T43" t="n">
-        <v>9030</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0043</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4956,7 +4956,7 @@
         <v>0.1</v>
       </c>
       <c r="T44" t="n">
-        <v>8206.352000000001</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0044</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5058,7 +5058,7 @@
         <v>0.1</v>
       </c>
       <c r="T45" t="n">
-        <v>2051.588</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRC-7-T-18-0000</t>
+          <t>FRC-HQ-SLM-T-18-0045</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5160,7 +5160,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T46" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRC-7-T-18-0000</t>
+          <t>FRC-HQ-SLM-T-18-0046</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5260,7 +5260,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T47" t="n">
-        <v>80249.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0047</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5366,7 +5366,7 @@
         <v>0.1</v>
       </c>
       <c r="T48" t="n">
-        <v>33750.5</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0048</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5472,7 +5472,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T49" t="n">
-        <v>54124</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0049</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5578,7 +5578,7 @@
         <v>0.1</v>
       </c>
       <c r="T50" t="n">
-        <v>68068</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0050</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5684,7 +5684,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T51" t="n">
-        <v>167000</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0051</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5790,7 +5790,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T52" t="n">
-        <v>385049.9999999999</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0052</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5896,7 +5896,7 @@
         <v>0.1</v>
       </c>
       <c r="T53" t="n">
-        <v>83930</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0053</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6002,7 +6002,7 @@
         <v>0.1</v>
       </c>
       <c r="T54" t="n">
-        <v>39914.7</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0054</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6108,13 +6108,13 @@
         <v>0.1</v>
       </c>
       <c r="T55" t="n">
-        <v>9652.859999999999</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>1378.98</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
         <v>1378.98</v>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0055</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6214,13 +6214,13 @@
         <v>0.1</v>
       </c>
       <c r="T56" t="n">
-        <v>4585</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="W56" t="n">
         <v>655</v>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0056</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6320,13 +6320,13 @@
         <v>0.1</v>
       </c>
       <c r="T57" t="n">
-        <v>19165.3</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>2737.9</v>
+        <v>0</v>
       </c>
       <c r="W57" t="n">
         <v>2737.9</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0057</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6426,13 +6426,13 @@
         <v>0.1</v>
       </c>
       <c r="T58" t="n">
-        <v>40180</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="W58" t="n">
         <v>5740</v>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0058</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6532,13 +6532,13 @@
         <v>0.1</v>
       </c>
       <c r="T59" t="n">
-        <v>25354</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
         <v>3622</v>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0059</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6638,13 +6638,13 @@
         <v>0.1</v>
       </c>
       <c r="T60" t="n">
-        <v>70729.39999999999</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>10104.2</v>
+        <v>0</v>
       </c>
       <c r="W60" t="n">
         <v>10104.2</v>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0060</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6740,13 +6740,13 @@
         <v>0.2</v>
       </c>
       <c r="T61" t="n">
-        <v>116480</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>16640</v>
+        <v>0</v>
       </c>
       <c r="W61" t="n">
         <v>16640</v>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0061</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6842,13 +6842,13 @@
         <v>0.2</v>
       </c>
       <c r="T62" t="n">
-        <v>204540</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>29220</v>
+        <v>0</v>
       </c>
       <c r="W62" t="n">
         <v>29220</v>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0062</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6944,13 +6944,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T63" t="n">
-        <v>18368</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
         <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>2624</v>
+        <v>0</v>
       </c>
       <c r="W63" t="n">
         <v>2624</v>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0063</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7046,13 +7046,13 @@
         <v>0.1</v>
       </c>
       <c r="T64" t="n">
-        <v>11950.498</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>1707.214</v>
+        <v>0</v>
       </c>
       <c r="W64" t="n">
         <v>1707.214</v>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0064</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7152,13 +7152,13 @@
         <v>0.1</v>
       </c>
       <c r="T65" t="n">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
         <v>9000</v>
@@ -7187,7 +7187,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0065</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7254,13 +7254,13 @@
         <v>0.2</v>
       </c>
       <c r="T66" t="n">
-        <v>276640</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>39520</v>
+        <v>0</v>
       </c>
       <c r="W66" t="n">
         <v>39520</v>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0066</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7356,13 +7356,13 @@
         <v>0.2</v>
       </c>
       <c r="T67" t="n">
-        <v>80780</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>11540</v>
+        <v>0</v>
       </c>
       <c r="W67" t="n">
         <v>11540</v>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0067</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7458,13 +7458,13 @@
         <v>0.1</v>
       </c>
       <c r="T68" t="n">
-        <v>38500</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
       </c>
       <c r="V68" t="n">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="W68" t="n">
         <v>5500</v>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0068</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7560,13 +7560,13 @@
         <v>0.1</v>
       </c>
       <c r="T69" t="n">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="W69" t="n">
         <v>2500</v>
@@ -7595,7 +7595,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0069</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7666,13 +7666,13 @@
         <v>0.1</v>
       </c>
       <c r="T70" t="n">
-        <v>32886</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
       <c r="W70" t="n">
         <v>4698</v>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0070</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7768,13 +7768,13 @@
         <v>0.1</v>
       </c>
       <c r="T71" t="n">
-        <v>5131</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="W71" t="n">
         <v>733</v>
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0071</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7870,13 +7870,13 @@
         <v>0.2</v>
       </c>
       <c r="T72" t="n">
-        <v>64400</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="W72" t="n">
         <v>9200</v>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0072</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7972,13 +7972,13 @@
         <v>0.1</v>
       </c>
       <c r="T73" t="n">
-        <v>6650</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="W73" t="n">
         <v>950</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0073</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8074,13 +8074,13 @@
         <v>0.1</v>
       </c>
       <c r="T74" t="n">
-        <v>11760</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="W74" t="n">
         <v>1680</v>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0074</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8176,13 +8176,13 @@
         <v>0.1</v>
       </c>
       <c r="T75" t="n">
-        <v>8925</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="W75" t="n">
         <v>1275</v>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0075</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8278,13 +8278,13 @@
         <v>0.1</v>
       </c>
       <c r="T76" t="n">
-        <v>22050</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
       </c>
       <c r="V76" t="n">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="W76" t="n">
         <v>3150</v>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRC-7-T-18-0000</t>
+          <t>FRC-HQ-SLM-T-18-0076</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8378,13 +8378,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T77" t="n">
-        <v>20662</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>2951.714285714285</v>
+        <v>0</v>
       </c>
       <c r="W77" t="n">
         <v>2951.714285714285</v>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0000</t>
+          <t>FRC-HQ-SLM-F-19-0077</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8480,13 +8480,13 @@
         <v>0.1</v>
       </c>
       <c r="T78" t="n">
-        <v>11874.1</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>1696.3</v>
+        <v>0</v>
       </c>
       <c r="W78" t="n">
         <v>1696.3</v>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0078</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8582,13 +8582,13 @@
         <v>0.1</v>
       </c>
       <c r="T79" t="n">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="W79" t="n">
         <v>1200</v>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0079</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8684,13 +8684,13 @@
         <v>0.1</v>
       </c>
       <c r="T80" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
         <v>0</v>
       </c>
       <c r="V80" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W80" t="n">
         <v>500</v>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0080</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8786,13 +8786,13 @@
         <v>0.2</v>
       </c>
       <c r="T81" t="n">
-        <v>89131</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>12733</v>
+        <v>0</v>
       </c>
       <c r="W81" t="n">
         <v>12733</v>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0081</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8888,13 +8888,13 @@
         <v>0.2</v>
       </c>
       <c r="T82" t="n">
-        <v>5243</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="W82" t="n">
         <v>749</v>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0082</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8990,13 +8990,13 @@
         <v>0.2</v>
       </c>
       <c r="T83" t="n">
-        <v>26215</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>3745</v>
+        <v>0</v>
       </c>
       <c r="W83" t="n">
         <v>3745</v>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0083</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9092,13 +9092,13 @@
         <v>0.2</v>
       </c>
       <c r="T84" t="n">
-        <v>40446</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>5778</v>
+        <v>0</v>
       </c>
       <c r="W84" t="n">
         <v>5778</v>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0084</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9194,13 +9194,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T85" t="n">
-        <v>39379.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>5625.714285714285</v>
+        <v>0</v>
       </c>
       <c r="W85" t="n">
         <v>5625.714285714285</v>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0085</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -9296,13 +9296,13 @@
         <v>0.2</v>
       </c>
       <c r="T86" t="n">
-        <v>21271.6</v>
+        <v>0</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>3038.8</v>
+        <v>0</v>
       </c>
       <c r="W86" t="n">
         <v>3038.8</v>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0086</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9398,13 +9398,13 @@
         <v>0.2</v>
       </c>
       <c r="T87" t="n">
-        <v>7490</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="W87" t="n">
         <v>1070</v>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0087</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9500,13 +9500,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T88" t="n">
-        <v>62499.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>8928.571428571428</v>
+        <v>0</v>
       </c>
       <c r="W88" t="n">
         <v>8928.571428571428</v>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0088</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9602,13 +9602,13 @@
         <v>0.2</v>
       </c>
       <c r="T89" t="n">
-        <v>17227</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>2461</v>
+        <v>0</v>
       </c>
       <c r="W89" t="n">
         <v>2461</v>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0089</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -9704,13 +9704,13 @@
         <v>0.2</v>
       </c>
       <c r="T90" t="n">
-        <v>240878.4000000001</v>
+        <v>0</v>
       </c>
       <c r="U90" t="n">
         <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>34411.2</v>
+        <v>0</v>
       </c>
       <c r="W90" t="n">
         <v>34411.2</v>
@@ -9739,7 +9739,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0090</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9806,13 +9806,13 @@
         <v>0.2</v>
       </c>
       <c r="T91" t="n">
-        <v>7789.6</v>
+        <v>0</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
       </c>
       <c r="V91" t="n">
-        <v>1112.8</v>
+        <v>0</v>
       </c>
       <c r="W91" t="n">
         <v>1112.8</v>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0091</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9912,13 +9912,13 @@
         <v>0.1</v>
       </c>
       <c r="T92" t="n">
-        <v>217817.6</v>
+        <v>0</v>
       </c>
       <c r="U92" t="n">
         <v>0</v>
       </c>
       <c r="V92" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
       <c r="W92" t="n">
         <v>31116.8</v>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0092</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10018,13 +10018,13 @@
         <v>0.1</v>
       </c>
       <c r="T93" t="n">
-        <v>42336</v>
+        <v>0</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
       </c>
       <c r="V93" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
       <c r="W93" t="n">
         <v>6048</v>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0093</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -10124,13 +10124,13 @@
         <v>0.1</v>
       </c>
       <c r="T94" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="W94" t="n">
         <v>1400</v>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0000</t>
+          <t>FRC-HQ-SLM-O-19-0094</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10230,13 +10230,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T95" t="n">
-        <v>337568</v>
+        <v>0</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
       </c>
       <c r="V95" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
       <c r="W95" t="n">
         <v>48224</v>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0095</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -10330,13 +10330,13 @@
         <v>0.1</v>
       </c>
       <c r="T96" t="n">
-        <v>24500</v>
+        <v>0</v>
       </c>
       <c r="U96" t="n">
         <v>0</v>
       </c>
       <c r="V96" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="W96" t="n">
         <v>3500</v>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0000</t>
+          <t>FRC-HQ-SLM-O-19-0096</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10432,13 +10432,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T97" t="n">
-        <v>36699.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U97" t="n">
         <v>0</v>
       </c>
       <c r="V97" t="n">
-        <v>5242.857142857142</v>
+        <v>0</v>
       </c>
       <c r="W97" t="n">
         <v>5242.857142857142</v>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRC-7-T-19-0000</t>
+          <t>FRC-HQ-SLM-T-19-0097</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10532,13 +10532,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T98" t="n">
-        <v>214136</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
         <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>30590.85714285714</v>
+        <v>0</v>
       </c>
       <c r="W98" t="n">
         <v>30590.85714285714</v>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRC-7-M-19-0000</t>
+          <t>FRC-HQ-SLM-M-19-0098</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -10634,13 +10634,13 @@
         <v>0.1</v>
       </c>
       <c r="T99" t="n">
-        <v>6493525.5</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
         <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>927646.5</v>
+        <v>0</v>
       </c>
       <c r="W99" t="n">
         <v>927646.5</v>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRC-7-M-19-0000</t>
+          <t>FRC-HQ-SLM-M-19-0099</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -10736,13 +10736,13 @@
         <v>0.1</v>
       </c>
       <c r="T100" t="n">
-        <v>6332830</v>
+        <v>0</v>
       </c>
       <c r="U100" t="n">
         <v>0</v>
       </c>
       <c r="V100" t="n">
-        <v>904690</v>
+        <v>0</v>
       </c>
       <c r="W100" t="n">
         <v>904690</v>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0100</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -10838,13 +10838,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T101" t="n">
-        <v>42801</v>
+        <v>0</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
       </c>
       <c r="V101" t="n">
-        <v>6114.428571428571</v>
+        <v>0</v>
       </c>
       <c r="W101" t="n">
         <v>6114.428571428571</v>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0101</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -10940,13 +10940,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T102" t="n">
-        <v>20100</v>
+        <v>0</v>
       </c>
       <c r="U102" t="n">
         <v>0</v>
       </c>
       <c r="V102" t="n">
-        <v>2871.428571428571</v>
+        <v>0</v>
       </c>
       <c r="W102" t="n">
         <v>2871.428571428571</v>
@@ -10975,7 +10975,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0102</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -11042,13 +11042,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T103" t="n">
-        <v>4319.999999999999</v>
+        <v>0</v>
       </c>
       <c r="U103" t="n">
         <v>0</v>
       </c>
       <c r="V103" t="n">
-        <v>617.1428571428571</v>
+        <v>0</v>
       </c>
       <c r="W103" t="n">
         <v>617.1428571428571</v>
@@ -11077,7 +11077,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0103</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -11148,13 +11148,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T104" t="n">
-        <v>186384</v>
+        <v>0</v>
       </c>
       <c r="U104" t="n">
         <v>0</v>
       </c>
       <c r="V104" t="n">
-        <v>26626.28571428571</v>
+        <v>0</v>
       </c>
       <c r="W104" t="n">
         <v>26626.28571428571</v>
@@ -11183,7 +11183,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0104</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -11248,13 +11248,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T105" t="n">
-        <v>9899.999999999998</v>
+        <v>0</v>
       </c>
       <c r="U105" t="n">
         <v>0</v>
       </c>
       <c r="V105" t="n">
-        <v>1414.285714285714</v>
+        <v>0</v>
       </c>
       <c r="W105" t="n">
         <v>1414.285714285714</v>
@@ -11283,7 +11283,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0105</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -11350,13 +11350,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T106" t="n">
-        <v>57799.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U106" t="n">
         <v>0</v>
       </c>
       <c r="V106" t="n">
-        <v>8257.142857142857</v>
+        <v>0</v>
       </c>
       <c r="W106" t="n">
         <v>8257.142857142857</v>
@@ -11385,7 +11385,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0106</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -11456,13 +11456,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T107" t="n">
-        <v>374074.9999999999</v>
+        <v>0</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
       </c>
       <c r="V107" t="n">
-        <v>53439.28571428571</v>
+        <v>0</v>
       </c>
       <c r="W107" t="n">
         <v>53439.28571428571</v>
@@ -11491,7 +11491,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0107</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -11558,13 +11558,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T108" t="n">
-        <v>182937</v>
+        <v>0</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
       </c>
       <c r="V108" t="n">
-        <v>26133.85714285714</v>
+        <v>0</v>
       </c>
       <c r="W108" t="n">
         <v>26133.85714285714</v>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0108</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -11660,13 +11660,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T109" t="n">
-        <v>9146</v>
+        <v>0</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
       </c>
       <c r="V109" t="n">
-        <v>1306.571428571428</v>
+        <v>0</v>
       </c>
       <c r="W109" t="n">
         <v>1306.571428571428</v>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0109</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -11762,13 +11762,13 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T110" t="n">
-        <v>72759.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U110" t="n">
         <v>0</v>
       </c>
       <c r="V110" t="n">
-        <v>10394.28571428571</v>
+        <v>0</v>
       </c>
       <c r="W110" t="n">
         <v>10394.28571428571</v>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0110</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -11868,13 +11868,13 @@
         <v>0.1</v>
       </c>
       <c r="T111" t="n">
-        <v>47913.60000000001</v>
+        <v>0</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
       </c>
       <c r="V111" t="n">
-        <v>6844.8</v>
+        <v>0</v>
       </c>
       <c r="W111" t="n">
         <v>6844.8</v>
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0111</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -11974,16 +11974,16 @@
         <v>0.1</v>
       </c>
       <c r="T112" t="n">
-        <v>25137</v>
+        <v>0</v>
       </c>
       <c r="U112" t="n">
         <v>0</v>
       </c>
       <c r="V112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="W112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="X112" t="n">
         <v>3591</v>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRC-7-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0112</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -12080,16 +12080,16 @@
         <v>0.1</v>
       </c>
       <c r="T113" t="n">
-        <v>15750</v>
+        <v>0</v>
       </c>
       <c r="U113" t="n">
         <v>0</v>
       </c>
       <c r="V113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="W113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="X113" t="n">
         <v>2250</v>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0113</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -12186,16 +12186,16 @@
         <v>0.1</v>
       </c>
       <c r="T114" t="n">
-        <v>68600</v>
+        <v>0</v>
       </c>
       <c r="U114" t="n">
         <v>0</v>
       </c>
       <c r="V114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="W114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="X114" t="n">
         <v>9800</v>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0114</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -12288,16 +12288,16 @@
         <v>0.1</v>
       </c>
       <c r="T115" t="n">
-        <v>205800</v>
+        <v>0</v>
       </c>
       <c r="U115" t="n">
         <v>0</v>
       </c>
       <c r="V115" t="n">
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="W115" t="n">
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="X115" t="n">
         <v>29400</v>
@@ -12323,7 +12323,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0115</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -12390,16 +12390,16 @@
         <v>0.1</v>
       </c>
       <c r="T116" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="U116" t="n">
         <v>0</v>
       </c>
       <c r="V116" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="W116" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="X116" t="n">
         <v>1400</v>
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0116</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -12492,16 +12492,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T117" t="n">
-        <v>51939</v>
+        <v>0</v>
       </c>
       <c r="U117" t="n">
         <v>0</v>
       </c>
       <c r="V117" t="n">
-        <v>7419.857142857142</v>
+        <v>0</v>
       </c>
       <c r="W117" t="n">
-        <v>7419.857142857142</v>
+        <v>0</v>
       </c>
       <c r="X117" t="n">
         <v>7419.857142857142</v>
@@ -12527,7 +12527,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0117</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -12598,16 +12598,16 @@
         <v>0.1</v>
       </c>
       <c r="T118" t="n">
-        <v>34209</v>
+        <v>0</v>
       </c>
       <c r="U118" t="n">
         <v>0</v>
       </c>
       <c r="V118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="W118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="X118" t="n">
         <v>4887</v>
@@ -12633,7 +12633,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0118</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -12700,16 +12700,16 @@
         <v>0.1</v>
       </c>
       <c r="T119" t="n">
-        <v>15764</v>
+        <v>0</v>
       </c>
       <c r="U119" t="n">
         <v>0</v>
       </c>
       <c r="V119" t="n">
-        <v>2252</v>
+        <v>0</v>
       </c>
       <c r="W119" t="n">
-        <v>2252</v>
+        <v>0</v>
       </c>
       <c r="X119" t="n">
         <v>2252</v>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0119</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -12802,16 +12802,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T120" t="n">
-        <v>24899.99999999999</v>
+        <v>0</v>
       </c>
       <c r="U120" t="n">
         <v>0</v>
       </c>
       <c r="V120" t="n">
-        <v>3557.142857142857</v>
+        <v>0</v>
       </c>
       <c r="W120" t="n">
-        <v>3557.142857142857</v>
+        <v>0</v>
       </c>
       <c r="X120" t="n">
         <v>3557.142857142857</v>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0120</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -12904,16 +12904,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T121" t="n">
-        <v>48485</v>
+        <v>0</v>
       </c>
       <c r="U121" t="n">
         <v>0</v>
       </c>
       <c r="V121" t="n">
-        <v>6926.428571428571</v>
+        <v>0</v>
       </c>
       <c r="W121" t="n">
-        <v>6926.428571428571</v>
+        <v>0</v>
       </c>
       <c r="X121" t="n">
         <v>6926.428571428571</v>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0121</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -13006,16 +13006,16 @@
         <v>0.1</v>
       </c>
       <c r="T122" t="n">
-        <v>23220.4</v>
+        <v>0</v>
       </c>
       <c r="U122" t="n">
         <v>0</v>
       </c>
       <c r="V122" t="n">
-        <v>3317.2</v>
+        <v>0</v>
       </c>
       <c r="W122" t="n">
-        <v>3317.2</v>
+        <v>0</v>
       </c>
       <c r="X122" t="n">
         <v>3317.2</v>
@@ -13041,7 +13041,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FRC-7-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0122</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -13108,16 +13108,16 @@
         <v>0.2</v>
       </c>
       <c r="T123" t="n">
-        <v>122788.638</v>
+        <v>0</v>
       </c>
       <c r="U123" t="n">
         <v>0</v>
       </c>
       <c r="V123" t="n">
-        <v>17541.234</v>
+        <v>0</v>
       </c>
       <c r="W123" t="n">
-        <v>17541.234</v>
+        <v>0</v>
       </c>
       <c r="X123" t="n">
         <v>17541.234</v>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FRC-7-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0123</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -13210,16 +13210,16 @@
         <v>0.2</v>
       </c>
       <c r="T124" t="n">
-        <v>148559.096</v>
+        <v>0</v>
       </c>
       <c r="U124" t="n">
         <v>0</v>
       </c>
       <c r="V124" t="n">
-        <v>21222.728</v>
+        <v>0</v>
       </c>
       <c r="W124" t="n">
-        <v>21222.728</v>
+        <v>0</v>
       </c>
       <c r="X124" t="n">
         <v>21222.728</v>
@@ -13245,7 +13245,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FRC-7-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0124</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -13312,16 +13312,16 @@
         <v>0.2</v>
       </c>
       <c r="T125" t="n">
-        <v>62152.272</v>
+        <v>0</v>
       </c>
       <c r="U125" t="n">
         <v>0</v>
       </c>
       <c r="V125" t="n">
-        <v>8878.896000000001</v>
+        <v>0</v>
       </c>
       <c r="W125" t="n">
-        <v>8878.896000000001</v>
+        <v>0</v>
       </c>
       <c r="X125" t="n">
         <v>8878.896000000001</v>
@@ -13347,7 +13347,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FRC-7-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0125</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -13414,16 +13414,16 @@
         <v>0.2</v>
       </c>
       <c r="T126" t="n">
-        <v>10156.594</v>
+        <v>0</v>
       </c>
       <c r="U126" t="n">
         <v>0</v>
       </c>
       <c r="V126" t="n">
-        <v>1450.942</v>
+        <v>0</v>
       </c>
       <c r="W126" t="n">
-        <v>1450.942</v>
+        <v>0</v>
       </c>
       <c r="X126" t="n">
         <v>1450.942</v>
@@ -13449,7 +13449,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FRC-7-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0126</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -13516,16 +13516,16 @@
         <v>0.1</v>
       </c>
       <c r="T127" t="n">
-        <v>20300</v>
+        <v>0</v>
       </c>
       <c r="U127" t="n">
         <v>0</v>
       </c>
       <c r="V127" t="n">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="W127" t="n">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="X127" t="n">
         <v>2900</v>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FRC-7-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0127</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -13618,16 +13618,16 @@
         <v>0.1</v>
       </c>
       <c r="T128" t="n">
-        <v>81900</v>
+        <v>0</v>
       </c>
       <c r="U128" t="n">
         <v>0</v>
       </c>
       <c r="V128" t="n">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="W128" t="n">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="X128" t="n">
         <v>11700</v>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FRC-7-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0128</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -13720,16 +13720,16 @@
         <v>0.1</v>
       </c>
       <c r="T129" t="n">
-        <v>12250</v>
+        <v>0</v>
       </c>
       <c r="U129" t="n">
         <v>0</v>
       </c>
       <c r="V129" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="W129" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="X129" t="n">
         <v>1750</v>
@@ -13755,7 +13755,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRC-7-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0129</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -13822,19 +13822,19 @@
         <v>0.2</v>
       </c>
       <c r="T130" t="n">
-        <v>28618.8</v>
+        <v>0</v>
       </c>
       <c r="U130" t="n">
         <v>0</v>
       </c>
       <c r="V130" t="n">
-        <v>4088.4</v>
+        <v>0</v>
       </c>
       <c r="W130" t="n">
-        <v>4088.4</v>
+        <v>0</v>
       </c>
       <c r="X130" t="n">
-        <v>4088.4</v>
+        <v>0</v>
       </c>
       <c r="Y130" t="n">
         <v>4088.4</v>
@@ -13857,7 +13857,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FRC-7-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0130</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -13924,19 +13924,19 @@
         <v>0.2</v>
       </c>
       <c r="T131" t="n">
-        <v>78895.60000000001</v>
+        <v>0</v>
       </c>
       <c r="U131" t="n">
         <v>0</v>
       </c>
       <c r="V131" t="n">
-        <v>11270.8</v>
+        <v>0</v>
       </c>
       <c r="W131" t="n">
-        <v>11270.8</v>
+        <v>0</v>
       </c>
       <c r="X131" t="n">
-        <v>11270.8</v>
+        <v>0</v>
       </c>
       <c r="Y131" t="n">
         <v>11270.8</v>
@@ -13959,7 +13959,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FRC-7-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0131</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -14026,19 +14026,19 @@
         <v>0.2</v>
       </c>
       <c r="T132" t="n">
-        <v>58784.60000000001</v>
+        <v>0</v>
       </c>
       <c r="U132" t="n">
         <v>0</v>
       </c>
       <c r="V132" t="n">
-        <v>8397.800000000001</v>
+        <v>0</v>
       </c>
       <c r="W132" t="n">
-        <v>8397.800000000001</v>
+        <v>0</v>
       </c>
       <c r="X132" t="n">
-        <v>8397.800000000001</v>
+        <v>0</v>
       </c>
       <c r="Y132" t="n">
         <v>8397.800000000001</v>
@@ -14061,7 +14061,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FRC-7-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0132</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -14128,19 +14128,19 @@
         <v>0.2</v>
       </c>
       <c r="T133" t="n">
-        <v>2784.6</v>
+        <v>0</v>
       </c>
       <c r="U133" t="n">
         <v>0</v>
       </c>
       <c r="V133" t="n">
-        <v>397.8</v>
+        <v>0</v>
       </c>
       <c r="W133" t="n">
-        <v>397.8</v>
+        <v>0</v>
       </c>
       <c r="X133" t="n">
-        <v>397.8</v>
+        <v>0</v>
       </c>
       <c r="Y133" t="n">
         <v>397.8</v>
@@ -14163,7 +14163,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FRC-7-T-20-0001</t>
+          <t>FRC-HQ-SLM-T-20-0133</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -14230,19 +14230,19 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T134" t="n">
-        <v>9075</v>
+        <v>0</v>
       </c>
       <c r="U134" t="n">
         <v>0</v>
       </c>
       <c r="V134" t="n">
-        <v>1296.428571428571</v>
+        <v>0</v>
       </c>
       <c r="W134" t="n">
-        <v>1296.428571428571</v>
+        <v>0</v>
       </c>
       <c r="X134" t="n">
-        <v>1296.428571428571</v>
+        <v>0</v>
       </c>
       <c r="Y134" t="n">
         <v>1296.428571428571</v>
@@ -14265,7 +14265,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0134</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -14332,19 +14332,19 @@
         <v>0.2</v>
       </c>
       <c r="T135" t="n">
-        <v>113960</v>
+        <v>0</v>
       </c>
       <c r="U135" t="n">
         <v>0</v>
       </c>
       <c r="V135" t="n">
-        <v>16280</v>
+        <v>0</v>
       </c>
       <c r="W135" t="n">
-        <v>16280</v>
+        <v>0</v>
       </c>
       <c r="X135" t="n">
-        <v>16280</v>
+        <v>0</v>
       </c>
       <c r="Y135" t="n">
         <v>16280</v>
@@ -14367,7 +14367,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0135</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -14434,19 +14434,19 @@
         <v>0.2</v>
       </c>
       <c r="T136" t="n">
-        <v>33572</v>
+        <v>0</v>
       </c>
       <c r="U136" t="n">
         <v>0</v>
       </c>
       <c r="V136" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="W136" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="X136" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="Y136" t="n">
         <v>4796</v>
@@ -14469,7 +14469,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0136</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -14536,19 +14536,19 @@
         <v>0.2</v>
       </c>
       <c r="T137" t="n">
-        <v>13860</v>
+        <v>0</v>
       </c>
       <c r="U137" t="n">
         <v>0</v>
       </c>
       <c r="V137" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="W137" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="X137" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="Y137" t="n">
         <v>1980</v>
@@ -14571,7 +14571,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0137</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -14638,19 +14638,19 @@
         <v>0.2</v>
       </c>
       <c r="T138" t="n">
-        <v>186669</v>
+        <v>0</v>
       </c>
       <c r="U138" t="n">
         <v>0</v>
       </c>
       <c r="V138" t="n">
-        <v>26667</v>
+        <v>0</v>
       </c>
       <c r="W138" t="n">
-        <v>26667</v>
+        <v>0</v>
       </c>
       <c r="X138" t="n">
-        <v>26667</v>
+        <v>0</v>
       </c>
       <c r="Y138" t="n">
         <v>26667</v>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FRC-7-F-21-0001</t>
+          <t>FRC-HQ-SLM-F-21-0138</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -14740,19 +14740,19 @@
         <v>0.1</v>
       </c>
       <c r="T139" t="n">
-        <v>12469.8</v>
+        <v>0</v>
       </c>
       <c r="U139" t="n">
         <v>0</v>
       </c>
       <c r="V139" t="n">
-        <v>1781.4</v>
+        <v>0</v>
       </c>
       <c r="W139" t="n">
-        <v>1781.4</v>
+        <v>0</v>
       </c>
       <c r="X139" t="n">
-        <v>1781.4</v>
+        <v>0</v>
       </c>
       <c r="Y139" t="n">
         <v>1781.4</v>
@@ -14775,7 +14775,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0139</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -14842,19 +14842,19 @@
         <v>0.2</v>
       </c>
       <c r="T140" t="n">
-        <v>82762.39999999999</v>
+        <v>0</v>
       </c>
       <c r="U140" t="n">
         <v>0</v>
       </c>
       <c r="V140" t="n">
-        <v>11823.2</v>
+        <v>0</v>
       </c>
       <c r="W140" t="n">
-        <v>11823.2</v>
+        <v>0</v>
       </c>
       <c r="X140" t="n">
-        <v>11823.2</v>
+        <v>0</v>
       </c>
       <c r="Y140" t="n">
         <v>11823.2</v>
@@ -14877,7 +14877,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FRC-7-F-21-0001</t>
+          <t>FRC-HQ-SLM-F-21-0140</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -14944,19 +14944,19 @@
         <v>0.1</v>
       </c>
       <c r="T141" t="n">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="U141" t="n">
         <v>0</v>
       </c>
       <c r="V141" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="W141" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="X141" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="Y141" t="n">
         <v>450</v>
@@ -14979,7 +14979,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0141</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -15046,19 +15046,19 @@
         <v>0.2</v>
       </c>
       <c r="T142" t="n">
-        <v>390607</v>
+        <v>0</v>
       </c>
       <c r="U142" t="n">
         <v>0</v>
       </c>
       <c r="V142" t="n">
-        <v>55801</v>
+        <v>0</v>
       </c>
       <c r="W142" t="n">
-        <v>55801</v>
+        <v>0</v>
       </c>
       <c r="X142" t="n">
-        <v>55801</v>
+        <v>0</v>
       </c>
       <c r="Y142" t="n">
         <v>55801</v>
@@ -15081,7 +15081,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0142</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -15148,19 +15148,19 @@
         <v>0.2</v>
       </c>
       <c r="T143" t="n">
-        <v>182541.8</v>
+        <v>0</v>
       </c>
       <c r="U143" t="n">
         <v>0</v>
       </c>
       <c r="V143" t="n">
-        <v>26077.4</v>
+        <v>0</v>
       </c>
       <c r="W143" t="n">
-        <v>26077.4</v>
+        <v>0</v>
       </c>
       <c r="X143" t="n">
-        <v>26077.4</v>
+        <v>0</v>
       </c>
       <c r="Y143" t="n">
         <v>26077.4</v>
@@ -15183,7 +15183,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FRC-7-M-21-0001</t>
+          <t>FRC-HQ-SLM-M-21-0143</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -15250,22 +15250,22 @@
         <v>0.1</v>
       </c>
       <c r="T144" t="n">
-        <v>2307550</v>
+        <v>0</v>
       </c>
       <c r="U144" t="n">
         <v>0</v>
       </c>
       <c r="V144" t="n">
-        <v>329650</v>
+        <v>0</v>
       </c>
       <c r="W144" t="n">
-        <v>329650</v>
+        <v>0</v>
       </c>
       <c r="X144" t="n">
-        <v>329650</v>
+        <v>0</v>
       </c>
       <c r="Y144" t="n">
-        <v>329650</v>
+        <v>0</v>
       </c>
       <c r="Z144" t="n">
         <v>329650</v>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FRC-7-M-21-0001</t>
+          <t>FRC-HQ-SLM-M-21-0144</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -15350,22 +15350,22 @@
         <v>0.1</v>
       </c>
       <c r="T145" t="n">
-        <v>21231.7</v>
+        <v>0</v>
       </c>
       <c r="U145" t="n">
         <v>0</v>
       </c>
       <c r="V145" t="n">
-        <v>3033.1</v>
+        <v>0</v>
       </c>
       <c r="W145" t="n">
-        <v>3033.1</v>
+        <v>0</v>
       </c>
       <c r="X145" t="n">
-        <v>3033.1</v>
+        <v>0</v>
       </c>
       <c r="Y145" t="n">
-        <v>3033.1</v>
+        <v>0</v>
       </c>
       <c r="Z145" t="n">
         <v>3033.1</v>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FRC-7-O-22-0001</t>
+          <t>FRC-HQ-SLM-O-22-0145</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -15452,22 +15452,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T146" t="n">
-        <v>161000</v>
+        <v>0</v>
       </c>
       <c r="U146" t="n">
         <v>0</v>
       </c>
       <c r="V146" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="W146" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="X146" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="Y146" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="Z146" t="n">
         <v>23000</v>
@@ -15487,7 +15487,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0146</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -15554,22 +15554,22 @@
         <v>0.2</v>
       </c>
       <c r="T147" t="n">
-        <v>114972.228</v>
+        <v>0</v>
       </c>
       <c r="U147" t="n">
         <v>0</v>
       </c>
       <c r="V147" t="n">
-        <v>16424.604</v>
+        <v>0</v>
       </c>
       <c r="W147" t="n">
-        <v>16424.604</v>
+        <v>0</v>
       </c>
       <c r="X147" t="n">
-        <v>16424.604</v>
+        <v>0</v>
       </c>
       <c r="Y147" t="n">
-        <v>16424.604</v>
+        <v>0</v>
       </c>
       <c r="Z147" t="n">
         <v>16424.604</v>
@@ -15589,7 +15589,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0147</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -15656,22 +15656,22 @@
         <v>0.2</v>
       </c>
       <c r="T148" t="n">
-        <v>45363.192</v>
+        <v>0</v>
       </c>
       <c r="U148" t="n">
         <v>0</v>
       </c>
       <c r="V148" t="n">
-        <v>6480.456</v>
+        <v>0</v>
       </c>
       <c r="W148" t="n">
-        <v>6480.456</v>
+        <v>0</v>
       </c>
       <c r="X148" t="n">
-        <v>6480.456</v>
+        <v>0</v>
       </c>
       <c r="Y148" t="n">
-        <v>6480.456</v>
+        <v>0</v>
       </c>
       <c r="Z148" t="n">
         <v>6480.456</v>
@@ -15691,7 +15691,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FRC-7-M-22-0001</t>
+          <t>FRC-HQ-SLM-M-22-0148</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -15756,22 +15756,22 @@
         <v>0.1</v>
       </c>
       <c r="T149" t="n">
-        <v>15015</v>
+        <v>0</v>
       </c>
       <c r="U149" t="n">
         <v>0</v>
       </c>
       <c r="V149" t="n">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="W149" t="n">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="X149" t="n">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="Y149" t="n">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="Z149" t="n">
         <v>2145</v>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0001</t>
+          <t>FRC-HQ-SLM-F-22-0149</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -15858,22 +15858,22 @@
         <v>0.1</v>
       </c>
       <c r="T150" t="n">
-        <v>13639.5</v>
+        <v>0</v>
       </c>
       <c r="U150" t="n">
         <v>0</v>
       </c>
       <c r="V150" t="n">
-        <v>1948.5</v>
+        <v>0</v>
       </c>
       <c r="W150" t="n">
-        <v>1948.5</v>
+        <v>0</v>
       </c>
       <c r="X150" t="n">
-        <v>1948.5</v>
+        <v>0</v>
       </c>
       <c r="Y150" t="n">
-        <v>1948.5</v>
+        <v>0</v>
       </c>
       <c r="Z150" t="n">
         <v>1948.5</v>
@@ -15893,7 +15893,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FRC-7-O-22-0001</t>
+          <t>FRC-HQ-SLM-O-22-0150</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -15960,22 +15960,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="T151" t="n">
-        <v>4499.999999999999</v>
+        <v>0</v>
       </c>
       <c r="U151" t="n">
         <v>0</v>
       </c>
       <c r="V151" t="n">
-        <v>642.8571428571428</v>
+        <v>0</v>
       </c>
       <c r="W151" t="n">
-        <v>642.8571428571428</v>
+        <v>0</v>
       </c>
       <c r="X151" t="n">
-        <v>642.8571428571428</v>
+        <v>0</v>
       </c>
       <c r="Y151" t="n">
-        <v>642.8571428571428</v>
+        <v>0</v>
       </c>
       <c r="Z151" t="n">
         <v>642.8571428571428</v>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0152</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -16064,22 +16064,22 @@
         <v>0.05</v>
       </c>
       <c r="T152" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="U152" t="n">
         <v>0</v>
       </c>
       <c r="V152" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W152" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X152" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Y152" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z152" t="n">
         <v>500</v>
@@ -16099,7 +16099,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0153</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -16168,22 +16168,22 @@
         <v>0.05</v>
       </c>
       <c r="T153" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="U153" t="n">
         <v>0</v>
       </c>
       <c r="V153" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W153" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X153" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Y153" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z153" t="n">
         <v>500</v>
@@ -16203,7 +16203,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0154</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -16272,22 +16272,22 @@
         <v>0.05</v>
       </c>
       <c r="T154" t="n">
-        <v>27740.9825</v>
+        <v>0</v>
       </c>
       <c r="U154" t="n">
         <v>0</v>
       </c>
       <c r="V154" t="n">
-        <v>3962.9975</v>
+        <v>0</v>
       </c>
       <c r="W154" t="n">
-        <v>3962.9975</v>
+        <v>0</v>
       </c>
       <c r="X154" t="n">
-        <v>3962.9975</v>
+        <v>0</v>
       </c>
       <c r="Y154" t="n">
-        <v>3962.9975</v>
+        <v>0</v>
       </c>
       <c r="Z154" t="n">
         <v>3962.9975</v>
@@ -16307,7 +16307,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0155</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -16376,22 +16376,22 @@
         <v>0.05</v>
       </c>
       <c r="T155" t="n">
-        <v>9235.625</v>
+        <v>0</v>
       </c>
       <c r="U155" t="n">
         <v>0</v>
       </c>
       <c r="V155" t="n">
-        <v>1319.375</v>
+        <v>0</v>
       </c>
       <c r="W155" t="n">
-        <v>1319.375</v>
+        <v>0</v>
       </c>
       <c r="X155" t="n">
-        <v>1319.375</v>
+        <v>0</v>
       </c>
       <c r="Y155" t="n">
-        <v>1319.375</v>
+        <v>0</v>
       </c>
       <c r="Z155" t="n">
         <v>1319.375</v>
@@ -16411,7 +16411,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0156</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -16480,22 +16480,22 @@
         <v>0.05</v>
       </c>
       <c r="T156" t="n">
-        <v>1392.7375</v>
+        <v>0</v>
       </c>
       <c r="U156" t="n">
         <v>0</v>
       </c>
       <c r="V156" t="n">
-        <v>198.9625</v>
+        <v>0</v>
       </c>
       <c r="W156" t="n">
-        <v>198.9625</v>
+        <v>0</v>
       </c>
       <c r="X156" t="n">
-        <v>198.9625</v>
+        <v>0</v>
       </c>
       <c r="Y156" t="n">
-        <v>198.9625</v>
+        <v>0</v>
       </c>
       <c r="Z156" t="n">
         <v>198.9625</v>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0157</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -16584,22 +16584,22 @@
         <v>0.05</v>
       </c>
       <c r="T157" t="n">
-        <v>87500</v>
+        <v>0</v>
       </c>
       <c r="U157" t="n">
         <v>0</v>
       </c>
       <c r="V157" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="W157" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="X157" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="Y157" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="Z157" t="n">
         <v>12500</v>
@@ -16619,7 +16619,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0158</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -16688,22 +16688,22 @@
         <v>0.05</v>
       </c>
       <c r="T158" t="n">
-        <v>13475</v>
+        <v>0</v>
       </c>
       <c r="U158" t="n">
         <v>0</v>
       </c>
       <c r="V158" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="W158" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="X158" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="Y158" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="Z158" t="n">
         <v>1925</v>
@@ -16723,7 +16723,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0159</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -16792,22 +16792,22 @@
         <v>0.05</v>
       </c>
       <c r="T159" t="n">
-        <v>488.775</v>
+        <v>0</v>
       </c>
       <c r="U159" t="n">
         <v>0</v>
       </c>
       <c r="V159" t="n">
-        <v>69.825</v>
+        <v>0</v>
       </c>
       <c r="W159" t="n">
-        <v>69.825</v>
+        <v>0</v>
       </c>
       <c r="X159" t="n">
-        <v>69.825</v>
+        <v>0</v>
       </c>
       <c r="Y159" t="n">
-        <v>69.825</v>
+        <v>0</v>
       </c>
       <c r="Z159" t="n">
         <v>69.825</v>
@@ -16827,7 +16827,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0160</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -16896,22 +16896,22 @@
         <v>0.05</v>
       </c>
       <c r="T160" t="n">
-        <v>43505</v>
+        <v>0</v>
       </c>
       <c r="U160" t="n">
         <v>0</v>
       </c>
       <c r="V160" t="n">
-        <v>6215</v>
+        <v>0</v>
       </c>
       <c r="W160" t="n">
-        <v>6215</v>
+        <v>0</v>
       </c>
       <c r="X160" t="n">
-        <v>6215</v>
+        <v>0</v>
       </c>
       <c r="Y160" t="n">
-        <v>6215</v>
+        <v>0</v>
       </c>
       <c r="Z160" t="n">
         <v>6215</v>
@@ -16931,7 +16931,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0161</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -17000,22 +17000,22 @@
         <v>0.05</v>
       </c>
       <c r="T161" t="n">
-        <v>1916.25</v>
+        <v>0</v>
       </c>
       <c r="U161" t="n">
         <v>0</v>
       </c>
       <c r="V161" t="n">
-        <v>273.75</v>
+        <v>0</v>
       </c>
       <c r="W161" t="n">
-        <v>273.75</v>
+        <v>0</v>
       </c>
       <c r="X161" t="n">
-        <v>273.75</v>
+        <v>0</v>
       </c>
       <c r="Y161" t="n">
-        <v>273.75</v>
+        <v>0</v>
       </c>
       <c r="Z161" t="n">
         <v>273.75</v>
@@ -17035,7 +17035,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0162</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -17104,22 +17104,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T162" t="n">
-        <v>153468</v>
+        <v>0</v>
       </c>
       <c r="U162" t="n">
         <v>0</v>
       </c>
       <c r="V162" t="n">
-        <v>21924</v>
+        <v>0</v>
       </c>
       <c r="W162" t="n">
-        <v>21924</v>
+        <v>0</v>
       </c>
       <c r="X162" t="n">
-        <v>21924</v>
+        <v>0</v>
       </c>
       <c r="Y162" t="n">
-        <v>21924</v>
+        <v>0</v>
       </c>
       <c r="Z162" t="n">
         <v>21924</v>
@@ -17139,7 +17139,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0163</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -17208,22 +17208,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T163" t="n">
-        <v>17803.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U163" t="n">
         <v>0</v>
       </c>
       <c r="V163" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W163" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X163" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y163" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z163" t="n">
         <v>2543.333333333333</v>
@@ -17243,7 +17243,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0164</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -17312,22 +17312,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T164" t="n">
-        <v>16333.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U164" t="n">
         <v>0</v>
       </c>
       <c r="V164" t="n">
-        <v>2333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W164" t="n">
-        <v>2333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X164" t="n">
-        <v>2333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y164" t="n">
-        <v>2333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z164" t="n">
         <v>2333.333333333333</v>
@@ -17347,7 +17347,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0165</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -17416,22 +17416,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T165" t="n">
-        <v>17803.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U165" t="n">
         <v>0</v>
       </c>
       <c r="V165" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W165" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X165" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y165" t="n">
-        <v>2543.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z165" t="n">
         <v>2543.333333333333</v>
@@ -17451,7 +17451,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0166</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -17520,22 +17520,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T166" t="n">
-        <v>555.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="U166" t="n">
         <v>0</v>
       </c>
       <c r="V166" t="n">
-        <v>79.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="W166" t="n">
-        <v>79.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="X166" t="n">
-        <v>79.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y166" t="n">
-        <v>79.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z166" t="n">
         <v>79.33333333333333</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0167</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -17624,22 +17624,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T167" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="U167" t="n">
         <v>0</v>
       </c>
       <c r="V167" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W167" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X167" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Y167" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z167" t="n">
         <v>500</v>
@@ -17659,7 +17659,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0168</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -17728,22 +17728,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T168" t="n">
-        <v>14469</v>
+        <v>0</v>
       </c>
       <c r="U168" t="n">
         <v>0</v>
       </c>
       <c r="V168" t="n">
-        <v>2067</v>
+        <v>0</v>
       </c>
       <c r="W168" t="n">
-        <v>2067</v>
+        <v>0</v>
       </c>
       <c r="X168" t="n">
-        <v>2067</v>
+        <v>0</v>
       </c>
       <c r="Y168" t="n">
-        <v>2067</v>
+        <v>0</v>
       </c>
       <c r="Z168" t="n">
         <v>2067</v>
@@ -17763,7 +17763,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0169</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -17833,22 +17833,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T169" t="n">
-        <v>3266.666666666667</v>
+        <v>0</v>
       </c>
       <c r="U169" t="n">
         <v>0</v>
       </c>
       <c r="V169" t="n">
-        <v>466.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="W169" t="n">
-        <v>466.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="X169" t="n">
-        <v>466.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y169" t="n">
-        <v>466.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z169" t="n">
         <v>466.6666666666667</v>
@@ -17868,7 +17868,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0170</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -17937,22 +17937,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T170" t="n">
-        <v>25666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U170" t="n">
         <v>0</v>
       </c>
       <c r="V170" t="n">
-        <v>3666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="W170" t="n">
-        <v>3666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="X170" t="n">
-        <v>3666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y170" t="n">
-        <v>3666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z170" t="n">
         <v>3666.666666666667</v>
@@ -17972,7 +17972,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0171</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -18041,22 +18041,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T171" t="n">
-        <v>62533.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U171" t="n">
         <v>0</v>
       </c>
       <c r="V171" t="n">
-        <v>8933.333333333334</v>
+        <v>0</v>
       </c>
       <c r="W171" t="n">
-        <v>8933.333333333334</v>
+        <v>0</v>
       </c>
       <c r="X171" t="n">
-        <v>8933.333333333334</v>
+        <v>0</v>
       </c>
       <c r="Y171" t="n">
-        <v>8933.333333333334</v>
+        <v>0</v>
       </c>
       <c r="Z171" t="n">
         <v>8933.333333333334</v>
@@ -18076,7 +18076,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0172</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -18145,22 +18145,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T172" t="n">
-        <v>19833.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U172" t="n">
         <v>0</v>
       </c>
       <c r="V172" t="n">
-        <v>2833.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W172" t="n">
-        <v>2833.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X172" t="n">
-        <v>2833.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y172" t="n">
-        <v>2833.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z172" t="n">
         <v>2833.333333333333</v>
@@ -18180,7 +18180,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0173</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -18249,22 +18249,22 @@
         <v>0.05</v>
       </c>
       <c r="T173" t="n">
-        <v>51450</v>
+        <v>0</v>
       </c>
       <c r="U173" t="n">
         <v>0</v>
       </c>
       <c r="V173" t="n">
-        <v>7350</v>
+        <v>0</v>
       </c>
       <c r="W173" t="n">
-        <v>7350</v>
+        <v>0</v>
       </c>
       <c r="X173" t="n">
-        <v>7350</v>
+        <v>0</v>
       </c>
       <c r="Y173" t="n">
-        <v>7350</v>
+        <v>0</v>
       </c>
       <c r="Z173" t="n">
         <v>7350</v>
@@ -18284,7 +18284,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0174</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -18353,22 +18353,22 @@
         <v>0.05</v>
       </c>
       <c r="T174" t="n">
-        <v>73710</v>
+        <v>0</v>
       </c>
       <c r="U174" t="n">
         <v>0</v>
       </c>
       <c r="V174" t="n">
-        <v>10530</v>
+        <v>0</v>
       </c>
       <c r="W174" t="n">
-        <v>10530</v>
+        <v>0</v>
       </c>
       <c r="X174" t="n">
-        <v>10530</v>
+        <v>0</v>
       </c>
       <c r="Y174" t="n">
-        <v>10530</v>
+        <v>0</v>
       </c>
       <c r="Z174" t="n">
         <v>10530</v>
@@ -18388,7 +18388,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0175</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -18457,22 +18457,22 @@
         <v>0.05</v>
       </c>
       <c r="T175" t="n">
-        <v>2513</v>
+        <v>0</v>
       </c>
       <c r="U175" t="n">
         <v>0</v>
       </c>
       <c r="V175" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="W175" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="X175" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="Y175" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="Z175" t="n">
         <v>359</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0176</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -18561,22 +18561,22 @@
         <v>0.05</v>
       </c>
       <c r="T176" t="n">
-        <v>2047.5</v>
+        <v>0</v>
       </c>
       <c r="U176" t="n">
         <v>0</v>
       </c>
       <c r="V176" t="n">
-        <v>292.5</v>
+        <v>0</v>
       </c>
       <c r="W176" t="n">
-        <v>292.5</v>
+        <v>0</v>
       </c>
       <c r="X176" t="n">
-        <v>292.5</v>
+        <v>0</v>
       </c>
       <c r="Y176" t="n">
-        <v>292.5</v>
+        <v>0</v>
       </c>
       <c r="Z176" t="n">
         <v>292.5</v>
@@ -18596,7 +18596,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0177</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -18665,22 +18665,22 @@
         <v>0.05</v>
       </c>
       <c r="T177" t="n">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="U177" t="n">
         <v>0</v>
       </c>
       <c r="V177" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="W177" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="X177" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="Y177" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="Z177" t="n">
         <v>450</v>
@@ -18700,7 +18700,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0178</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -18769,22 +18769,22 @@
         <v>0.05</v>
       </c>
       <c r="T178" t="n">
-        <v>1330</v>
+        <v>0</v>
       </c>
       <c r="U178" t="n">
         <v>0</v>
       </c>
       <c r="V178" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="W178" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="X178" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="Y178" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="Z178" t="n">
         <v>190</v>
@@ -18804,7 +18804,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0179</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -18873,22 +18873,22 @@
         <v>0.05</v>
       </c>
       <c r="T179" t="n">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="U179" t="n">
         <v>0</v>
       </c>
       <c r="V179" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="W179" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="X179" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="Y179" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="Z179" t="n">
         <v>220</v>
@@ -18908,7 +18908,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0180</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -18977,22 +18977,22 @@
         <v>0.05</v>
       </c>
       <c r="T180" t="n">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="U180" t="n">
         <v>0</v>
       </c>
       <c r="V180" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="W180" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="X180" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="Y180" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="Z180" t="n">
         <v>900</v>
@@ -19012,7 +19012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0181</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -19081,22 +19081,22 @@
         <v>0.05</v>
       </c>
       <c r="T181" t="n">
-        <v>6709.5</v>
+        <v>0</v>
       </c>
       <c r="U181" t="n">
         <v>0</v>
       </c>
       <c r="V181" t="n">
-        <v>958.5</v>
+        <v>0</v>
       </c>
       <c r="W181" t="n">
-        <v>958.5</v>
+        <v>0</v>
       </c>
       <c r="X181" t="n">
-        <v>958.5</v>
+        <v>0</v>
       </c>
       <c r="Y181" t="n">
-        <v>958.5</v>
+        <v>0</v>
       </c>
       <c r="Z181" t="n">
         <v>958.5</v>
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0182</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -19185,22 +19185,22 @@
         <v>0.05</v>
       </c>
       <c r="T182" t="n">
-        <v>568.75</v>
+        <v>0</v>
       </c>
       <c r="U182" t="n">
         <v>0</v>
       </c>
       <c r="V182" t="n">
-        <v>81.25</v>
+        <v>0</v>
       </c>
       <c r="W182" t="n">
-        <v>81.25</v>
+        <v>0</v>
       </c>
       <c r="X182" t="n">
-        <v>81.25</v>
+        <v>0</v>
       </c>
       <c r="Y182" t="n">
-        <v>81.25</v>
+        <v>0</v>
       </c>
       <c r="Z182" t="n">
         <v>81.25</v>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0183</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -19289,22 +19289,22 @@
         <v>0.05</v>
       </c>
       <c r="T183" t="n">
-        <v>1251.25</v>
+        <v>0</v>
       </c>
       <c r="U183" t="n">
         <v>0</v>
       </c>
       <c r="V183" t="n">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="W183" t="n">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="X183" t="n">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="Y183" t="n">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="Z183" t="n">
         <v>178.75</v>
@@ -19324,7 +19324,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0184</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -19394,22 +19394,22 @@
         <v>0.05</v>
       </c>
       <c r="T184" t="n">
-        <v>1592.5</v>
+        <v>0</v>
       </c>
       <c r="U184" t="n">
         <v>0</v>
       </c>
       <c r="V184" t="n">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="W184" t="n">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="X184" t="n">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="Y184" t="n">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="Z184" t="n">
         <v>227.5</v>
@@ -19429,7 +19429,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0185</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -19498,22 +19498,22 @@
         <v>0.05</v>
       </c>
       <c r="T185" t="n">
-        <v>614.25</v>
+        <v>0</v>
       </c>
       <c r="U185" t="n">
         <v>0</v>
       </c>
       <c r="V185" t="n">
-        <v>87.75</v>
+        <v>0</v>
       </c>
       <c r="W185" t="n">
-        <v>87.75</v>
+        <v>0</v>
       </c>
       <c r="X185" t="n">
-        <v>87.75</v>
+        <v>0</v>
       </c>
       <c r="Y185" t="n">
-        <v>87.75</v>
+        <v>0</v>
       </c>
       <c r="Z185" t="n">
         <v>87.75</v>
@@ -19533,7 +19533,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0186</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -19602,22 +19602,22 @@
         <v>0.05</v>
       </c>
       <c r="T186" t="n">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="U186" t="n">
         <v>0</v>
       </c>
       <c r="V186" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="W186" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="X186" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="Y186" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="Z186" t="n">
         <v>350</v>
@@ -19637,7 +19637,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0187</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -19706,22 +19706,22 @@
         <v>0.05</v>
       </c>
       <c r="T187" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="U187" t="n">
         <v>0</v>
       </c>
       <c r="V187" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="W187" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X187" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y187" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z187" t="n">
         <v>21</v>
@@ -19741,7 +19741,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0188</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -19810,22 +19810,22 @@
         <v>0.05</v>
       </c>
       <c r="T188" t="n">
-        <v>1323</v>
+        <v>0</v>
       </c>
       <c r="U188" t="n">
         <v>0</v>
       </c>
       <c r="V188" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="W188" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="X188" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="Y188" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="Z188" t="n">
         <v>189</v>
@@ -19845,7 +19845,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0189</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -19914,22 +19914,22 @@
         <v>0.05</v>
       </c>
       <c r="T189" t="n">
-        <v>43750</v>
+        <v>0</v>
       </c>
       <c r="U189" t="n">
         <v>0</v>
       </c>
       <c r="V189" t="n">
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="W189" t="n">
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="X189" t="n">
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="Y189" t="n">
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="Z189" t="n">
         <v>6250</v>
@@ -19949,7 +19949,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0190</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -20018,22 +20018,22 @@
         <v>0.05</v>
       </c>
       <c r="T190" t="n">
-        <v>8715</v>
+        <v>0</v>
       </c>
       <c r="U190" t="n">
         <v>0</v>
       </c>
       <c r="V190" t="n">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="W190" t="n">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="X190" t="n">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="Y190" t="n">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="Z190" t="n">
         <v>1245</v>
@@ -20053,7 +20053,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0191</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -20122,22 +20122,22 @@
         <v>0.05</v>
       </c>
       <c r="T191" t="n">
-        <v>2275</v>
+        <v>0</v>
       </c>
       <c r="U191" t="n">
         <v>0</v>
       </c>
       <c r="V191" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="W191" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="X191" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="Y191" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="Z191" t="n">
         <v>325</v>
@@ -20157,7 +20157,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0192</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -20226,22 +20226,22 @@
         <v>0.05</v>
       </c>
       <c r="T192" t="n">
-        <v>1312.5</v>
+        <v>0</v>
       </c>
       <c r="U192" t="n">
         <v>0</v>
       </c>
       <c r="V192" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="W192" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="X192" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="Y192" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="Z192" t="n">
         <v>187.5</v>
@@ -20261,7 +20261,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0193</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -20330,22 +20330,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T193" t="n">
-        <v>5180</v>
+        <v>0</v>
       </c>
       <c r="U193" t="n">
         <v>0</v>
       </c>
       <c r="V193" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="W193" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="X193" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="Y193" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="Z193" t="n">
         <v>740</v>
@@ -20365,7 +20365,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0194</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -20434,22 +20434,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T194" t="n">
-        <v>13953.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U194" t="n">
         <v>0</v>
       </c>
       <c r="V194" t="n">
-        <v>1993.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W194" t="n">
-        <v>1993.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X194" t="n">
-        <v>1993.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y194" t="n">
-        <v>1993.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z194" t="n">
         <v>1993.333333333333</v>
@@ -20469,7 +20469,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0195</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -20538,22 +20538,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T195" t="n">
-        <v>2916.666666666667</v>
+        <v>0</v>
       </c>
       <c r="U195" t="n">
         <v>0</v>
       </c>
       <c r="V195" t="n">
-        <v>416.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="W195" t="n">
-        <v>416.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="X195" t="n">
-        <v>416.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y195" t="n">
-        <v>416.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z195" t="n">
         <v>416.6666666666667</v>
@@ -20573,7 +20573,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0196</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -20642,22 +20642,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T196" t="n">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="U196" t="n">
         <v>0</v>
       </c>
       <c r="V196" t="n">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="W196" t="n">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="X196" t="n">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="Y196" t="n">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="Z196" t="n">
         <v>810</v>
@@ -20677,7 +20677,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0197</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -20746,22 +20746,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T197" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="U197" t="n">
         <v>0</v>
       </c>
       <c r="V197" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W197" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X197" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Y197" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z197" t="n">
         <v>500</v>
@@ -20781,7 +20781,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0001</t>
+          <t>FRC-HQ-SLM-E-22-0198</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -20850,22 +20850,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T198" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="U198" t="n">
         <v>0</v>
       </c>
       <c r="V198" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="W198" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="X198" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="Y198" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="Z198" t="n">
         <v>175</v>
@@ -20885,7 +20885,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0001</t>
+          <t>FRC-HQ-SLM-E-22-0199</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -20954,22 +20954,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T199" t="n">
-        <v>8575</v>
+        <v>0</v>
       </c>
       <c r="U199" t="n">
         <v>0</v>
       </c>
       <c r="V199" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="W199" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="X199" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="Y199" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="Z199" t="n">
         <v>1225</v>
@@ -20989,7 +20989,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0200</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -21058,22 +21058,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T200" t="n">
-        <v>1568</v>
+        <v>0</v>
       </c>
       <c r="U200" t="n">
         <v>0</v>
       </c>
       <c r="V200" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="W200" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="X200" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="Y200" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="Z200" t="n">
         <v>224</v>
@@ -21093,7 +21093,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0201</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -21162,22 +21162,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T201" t="n">
-        <v>962.5</v>
+        <v>0</v>
       </c>
       <c r="U201" t="n">
         <v>0</v>
       </c>
       <c r="V201" t="n">
-        <v>137.5</v>
+        <v>0</v>
       </c>
       <c r="W201" t="n">
-        <v>137.5</v>
+        <v>0</v>
       </c>
       <c r="X201" t="n">
-        <v>137.5</v>
+        <v>0</v>
       </c>
       <c r="Y201" t="n">
-        <v>137.5</v>
+        <v>0</v>
       </c>
       <c r="Z201" t="n">
         <v>137.5</v>
@@ -21197,7 +21197,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0202</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -21266,22 +21266,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T202" t="n">
-        <v>6125</v>
+        <v>0</v>
       </c>
       <c r="U202" t="n">
         <v>0</v>
       </c>
       <c r="V202" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="W202" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="X202" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="Y202" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="Z202" t="n">
         <v>875</v>
@@ -21301,7 +21301,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0203</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -21370,22 +21370,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T203" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="U203" t="n">
         <v>0</v>
       </c>
       <c r="V203" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="W203" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="X203" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="Y203" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="Z203" t="n">
         <v>140</v>
@@ -21405,7 +21405,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0204</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -21474,22 +21474,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T204" t="n">
-        <v>40180</v>
+        <v>0</v>
       </c>
       <c r="U204" t="n">
         <v>0</v>
       </c>
       <c r="V204" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="W204" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="X204" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="Y204" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="Z204" t="n">
         <v>5740</v>
@@ -21509,7 +21509,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0205</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -21578,22 +21578,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T205" t="n">
-        <v>91700</v>
+        <v>0</v>
       </c>
       <c r="U205" t="n">
         <v>0</v>
       </c>
       <c r="V205" t="n">
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="W205" t="n">
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="X205" t="n">
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="Y205" t="n">
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="Z205" t="n">
         <v>13100</v>
@@ -21613,7 +21613,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0206</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -21682,22 +21682,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T206" t="n">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="U206" t="n">
         <v>0</v>
       </c>
       <c r="V206" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="W206" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="X206" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Y206" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Z206" t="n">
         <v>104</v>
@@ -21717,7 +21717,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0207</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -21786,22 +21786,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T207" t="n">
-        <v>10425.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U207" t="n">
         <v>0</v>
       </c>
       <c r="V207" t="n">
-        <v>1489.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W207" t="n">
-        <v>1489.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X207" t="n">
-        <v>1489.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y207" t="n">
-        <v>1489.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z207" t="n">
         <v>1489.333333333333</v>
@@ -21821,7 +21821,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0208</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -21890,22 +21890,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T208" t="n">
-        <v>24434.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U208" t="n">
         <v>0</v>
       </c>
       <c r="V208" t="n">
-        <v>3490.666666666667</v>
+        <v>0</v>
       </c>
       <c r="W208" t="n">
-        <v>3490.666666666667</v>
+        <v>0</v>
       </c>
       <c r="X208" t="n">
-        <v>3490.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y208" t="n">
-        <v>3490.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z208" t="n">
         <v>3490.666666666667</v>
@@ -21925,7 +21925,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0209</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -21994,22 +21994,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T209" t="n">
-        <v>5541.666666666667</v>
+        <v>0</v>
       </c>
       <c r="U209" t="n">
         <v>0</v>
       </c>
       <c r="V209" t="n">
-        <v>791.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="W209" t="n">
-        <v>791.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="X209" t="n">
-        <v>791.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="Y209" t="n">
-        <v>791.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="Z209" t="n">
         <v>791.6666666666666</v>
@@ -22029,7 +22029,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0210</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -22098,22 +22098,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T210" t="n">
-        <v>7315</v>
+        <v>0</v>
       </c>
       <c r="U210" t="n">
         <v>0</v>
       </c>
       <c r="V210" t="n">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="W210" t="n">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="X210" t="n">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="Y210" t="n">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="Z210" t="n">
         <v>1045</v>
@@ -22133,7 +22133,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0211</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -22202,22 +22202,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T211" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="U211" t="n">
         <v>0</v>
       </c>
       <c r="V211" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W211" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X211" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y211" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z211" t="n">
         <v>200</v>
@@ -22237,7 +22237,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0212</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -22306,22 +22306,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T212" t="n">
-        <v>2814</v>
+        <v>0</v>
       </c>
       <c r="U212" t="n">
         <v>0</v>
       </c>
       <c r="V212" t="n">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="W212" t="n">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="X212" t="n">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="Y212" t="n">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="Z212" t="n">
         <v>402</v>
@@ -22341,7 +22341,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0213</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -22410,22 +22410,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T213" t="n">
-        <v>3850</v>
+        <v>0</v>
       </c>
       <c r="U213" t="n">
         <v>0</v>
       </c>
       <c r="V213" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="W213" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="X213" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="Y213" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="Z213" t="n">
         <v>550</v>
@@ -22445,7 +22445,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0214</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -22514,22 +22514,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T214" t="n">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="U214" t="n">
         <v>0</v>
       </c>
       <c r="V214" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="W214" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="X214" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Y214" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Z214" t="n">
         <v>130</v>
@@ -22549,7 +22549,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0215</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -22618,22 +22618,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T215" t="n">
-        <v>10826.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U215" t="n">
         <v>0</v>
       </c>
       <c r="V215" t="n">
-        <v>1546.666666666667</v>
+        <v>0</v>
       </c>
       <c r="W215" t="n">
-        <v>1546.666666666667</v>
+        <v>0</v>
       </c>
       <c r="X215" t="n">
-        <v>1546.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y215" t="n">
-        <v>1546.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z215" t="n">
         <v>1546.666666666667</v>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0216</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -22722,22 +22722,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T216" t="n">
-        <v>1633.333333333333</v>
+        <v>0</v>
       </c>
       <c r="U216" t="n">
         <v>0</v>
       </c>
       <c r="V216" t="n">
-        <v>233.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="W216" t="n">
-        <v>233.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="X216" t="n">
-        <v>233.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y216" t="n">
-        <v>233.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z216" t="n">
         <v>233.3333333333333</v>
@@ -22757,7 +22757,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0217</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -22826,22 +22826,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T217" t="n">
-        <v>36750</v>
+        <v>0</v>
       </c>
       <c r="U217" t="n">
         <v>0</v>
       </c>
       <c r="V217" t="n">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="W217" t="n">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="X217" t="n">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="Y217" t="n">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="Z217" t="n">
         <v>5250</v>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0218</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -22930,22 +22930,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T218" t="n">
-        <v>81666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U218" t="n">
         <v>0</v>
       </c>
       <c r="V218" t="n">
-        <v>11666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="W218" t="n">
-        <v>11666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="X218" t="n">
-        <v>11666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="Y218" t="n">
-        <v>11666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="Z218" t="n">
         <v>11666.66666666667</v>
@@ -22965,7 +22965,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0219</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -23034,22 +23034,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T219" t="n">
-        <v>45500</v>
+        <v>0</v>
       </c>
       <c r="U219" t="n">
         <v>0</v>
       </c>
       <c r="V219" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="W219" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="X219" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="Y219" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="Z219" t="n">
         <v>6500</v>
@@ -23069,7 +23069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0220</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -23138,22 +23138,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T220" t="n">
-        <v>14233.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U220" t="n">
         <v>0</v>
       </c>
       <c r="V220" t="n">
-        <v>2033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W220" t="n">
-        <v>2033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X220" t="n">
-        <v>2033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y220" t="n">
-        <v>2033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z220" t="n">
         <v>2033.333333333333</v>
@@ -23173,7 +23173,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0221</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -23242,22 +23242,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T221" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="U221" t="n">
         <v>0</v>
       </c>
       <c r="V221" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W221" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X221" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y221" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z221" t="n">
         <v>1000</v>
@@ -23277,7 +23277,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0222</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -23346,22 +23346,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T222" t="n">
-        <v>5985</v>
+        <v>0</v>
       </c>
       <c r="U222" t="n">
         <v>0</v>
       </c>
       <c r="V222" t="n">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="W222" t="n">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="X222" t="n">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="Y222" t="n">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="Z222" t="n">
         <v>855</v>
@@ -23381,7 +23381,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0223</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -23450,22 +23450,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T223" t="n">
-        <v>20475</v>
+        <v>0</v>
       </c>
       <c r="U223" t="n">
         <v>0</v>
       </c>
       <c r="V223" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="W223" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="X223" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="Y223" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="Z223" t="n">
         <v>2925</v>
@@ -23485,7 +23485,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0224</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -23554,22 +23554,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T224" t="n">
-        <v>14280</v>
+        <v>0</v>
       </c>
       <c r="U224" t="n">
         <v>0</v>
       </c>
       <c r="V224" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="W224" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="X224" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="Y224" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="Z224" t="n">
         <v>2040</v>
@@ -23589,7 +23589,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0225</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -23658,22 +23658,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T225" t="n">
-        <v>1933.75</v>
+        <v>0</v>
       </c>
       <c r="U225" t="n">
         <v>0</v>
       </c>
       <c r="V225" t="n">
-        <v>276.25</v>
+        <v>0</v>
       </c>
       <c r="W225" t="n">
-        <v>276.25</v>
+        <v>0</v>
       </c>
       <c r="X225" t="n">
-        <v>276.25</v>
+        <v>0</v>
       </c>
       <c r="Y225" t="n">
-        <v>276.25</v>
+        <v>0</v>
       </c>
       <c r="Z225" t="n">
         <v>276.25</v>
@@ -23693,7 +23693,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0226</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -23762,22 +23762,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T226" t="n">
-        <v>37975</v>
+        <v>0</v>
       </c>
       <c r="U226" t="n">
         <v>0</v>
       </c>
       <c r="V226" t="n">
-        <v>5425</v>
+        <v>0</v>
       </c>
       <c r="W226" t="n">
-        <v>5425</v>
+        <v>0</v>
       </c>
       <c r="X226" t="n">
-        <v>5425</v>
+        <v>0</v>
       </c>
       <c r="Y226" t="n">
-        <v>5425</v>
+        <v>0</v>
       </c>
       <c r="Z226" t="n">
         <v>5425</v>
@@ -23797,7 +23797,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0227</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -23866,22 +23866,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T227" t="n">
-        <v>49933.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U227" t="n">
         <v>0</v>
       </c>
       <c r="V227" t="n">
-        <v>7133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W227" t="n">
-        <v>7133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X227" t="n">
-        <v>7133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y227" t="n">
-        <v>7133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z227" t="n">
         <v>7133.333333333333</v>
@@ -23901,7 +23901,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0228</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -23970,22 +23970,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T228" t="n">
-        <v>7735</v>
+        <v>0</v>
       </c>
       <c r="U228" t="n">
         <v>0</v>
       </c>
       <c r="V228" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="W228" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="X228" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="Y228" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="Z228" t="n">
         <v>1105</v>
@@ -24005,7 +24005,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0229</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -24074,22 +24074,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T229" t="n">
-        <v>10266.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U229" t="n">
         <v>0</v>
       </c>
       <c r="V229" t="n">
-        <v>1466.666666666667</v>
+        <v>0</v>
       </c>
       <c r="W229" t="n">
-        <v>1466.666666666667</v>
+        <v>0</v>
       </c>
       <c r="X229" t="n">
-        <v>1466.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y229" t="n">
-        <v>1466.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z229" t="n">
         <v>1466.666666666667</v>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0230</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -24178,22 +24178,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T230" t="n">
-        <v>6860</v>
+        <v>0</v>
       </c>
       <c r="U230" t="n">
         <v>0</v>
       </c>
       <c r="V230" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="W230" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="X230" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y230" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Z230" t="n">
         <v>980</v>
@@ -24213,7 +24213,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0231</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -24282,22 +24282,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T231" t="n">
-        <v>333.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="U231" t="n">
         <v>0</v>
       </c>
       <c r="V231" t="n">
-        <v>47.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="W231" t="n">
-        <v>47.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="X231" t="n">
-        <v>47.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="Y231" t="n">
-        <v>47.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="Z231" t="n">
         <v>47.66666666666666</v>
@@ -24317,7 +24317,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0232</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -24386,22 +24386,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T232" t="n">
-        <v>1817.666666666667</v>
+        <v>0</v>
       </c>
       <c r="U232" t="n">
         <v>0</v>
       </c>
       <c r="V232" t="n">
-        <v>259.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="W232" t="n">
-        <v>259.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="X232" t="n">
-        <v>259.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y232" t="n">
-        <v>259.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z232" t="n">
         <v>259.6666666666667</v>
@@ -24421,7 +24421,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0233</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -24490,22 +24490,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T233" t="n">
-        <v>26670</v>
+        <v>0</v>
       </c>
       <c r="U233" t="n">
         <v>0</v>
       </c>
       <c r="V233" t="n">
-        <v>3810</v>
+        <v>0</v>
       </c>
       <c r="W233" t="n">
-        <v>3810</v>
+        <v>0</v>
       </c>
       <c r="X233" t="n">
-        <v>3810</v>
+        <v>0</v>
       </c>
       <c r="Y233" t="n">
-        <v>3810</v>
+        <v>0</v>
       </c>
       <c r="Z233" t="n">
         <v>3810</v>
@@ -24525,7 +24525,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0234</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -24594,22 +24594,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T234" t="n">
-        <v>5950</v>
+        <v>0</v>
       </c>
       <c r="U234" t="n">
         <v>0</v>
       </c>
       <c r="V234" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="W234" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="X234" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="Y234" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="Z234" t="n">
         <v>850</v>
@@ -24629,7 +24629,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0235</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -24698,22 +24698,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T235" t="n">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="U235" t="n">
         <v>0</v>
       </c>
       <c r="V235" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="W235" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="X235" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="Y235" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="Z235" t="n">
         <v>6000</v>
@@ -24733,7 +24733,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0236</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -24802,22 +24802,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T236" t="n">
-        <v>16100</v>
+        <v>0</v>
       </c>
       <c r="U236" t="n">
         <v>0</v>
       </c>
       <c r="V236" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="W236" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="X236" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="Y236" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="Z236" t="n">
         <v>2300</v>
@@ -24837,7 +24837,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FRC-7-P-22-0002</t>
+          <t>FRC-HQ-SLM-P-22-0237</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -24906,22 +24906,22 @@
         <v>0.1</v>
       </c>
       <c r="T237" t="n">
-        <v>158374.125</v>
+        <v>0</v>
       </c>
       <c r="U237" t="n">
         <v>0</v>
       </c>
       <c r="V237" t="n">
-        <v>22624.875</v>
+        <v>0</v>
       </c>
       <c r="W237" t="n">
-        <v>22624.875</v>
+        <v>0</v>
       </c>
       <c r="X237" t="n">
-        <v>22624.875</v>
+        <v>0</v>
       </c>
       <c r="Y237" t="n">
-        <v>22624.875</v>
+        <v>0</v>
       </c>
       <c r="Z237" t="n">
         <v>22624.875</v>
@@ -24941,7 +24941,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>FRC-7-P-22-0002</t>
+          <t>FRC-HQ-SLM-P-22-0238</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -25010,22 +25010,22 @@
         <v>0.1</v>
       </c>
       <c r="T238" t="n">
-        <v>29767.5</v>
+        <v>0</v>
       </c>
       <c r="U238" t="n">
         <v>0</v>
       </c>
       <c r="V238" t="n">
-        <v>4252.5</v>
+        <v>0</v>
       </c>
       <c r="W238" t="n">
-        <v>4252.5</v>
+        <v>0</v>
       </c>
       <c r="X238" t="n">
-        <v>4252.5</v>
+        <v>0</v>
       </c>
       <c r="Y238" t="n">
-        <v>4252.5</v>
+        <v>0</v>
       </c>
       <c r="Z238" t="n">
         <v>4252.5</v>
@@ -25045,7 +25045,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>FRC-7-P-22-0002</t>
+          <t>FRC-HQ-SLM-P-22-0239</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -25114,22 +25114,22 @@
         <v>0.1</v>
       </c>
       <c r="T239" t="n">
-        <v>20475</v>
+        <v>0</v>
       </c>
       <c r="U239" t="n">
         <v>0</v>
       </c>
       <c r="V239" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="W239" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="X239" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="Y239" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="Z239" t="n">
         <v>2925</v>
@@ -25149,7 +25149,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>FRC-7-P-22-0002</t>
+          <t>FRC-HQ-SLM-P-22-0240</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -25218,22 +25218,22 @@
         <v>0.1</v>
       </c>
       <c r="T240" t="n">
-        <v>38892</v>
+        <v>0</v>
       </c>
       <c r="U240" t="n">
         <v>0</v>
       </c>
       <c r="V240" t="n">
-        <v>5556</v>
+        <v>0</v>
       </c>
       <c r="W240" t="n">
-        <v>5556</v>
+        <v>0</v>
       </c>
       <c r="X240" t="n">
-        <v>5556</v>
+        <v>0</v>
       </c>
       <c r="Y240" t="n">
-        <v>5556</v>
+        <v>0</v>
       </c>
       <c r="Z240" t="n">
         <v>5556</v>
@@ -25253,7 +25253,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>FRC-7-P-22-0002</t>
+          <t>FRC-HQ-SLM-P-22-0241</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -25322,22 +25322,22 @@
         <v>0.1</v>
       </c>
       <c r="T241" t="n">
-        <v>15669.5</v>
+        <v>0</v>
       </c>
       <c r="U241" t="n">
         <v>0</v>
       </c>
       <c r="V241" t="n">
-        <v>2238.5</v>
+        <v>0</v>
       </c>
       <c r="W241" t="n">
-        <v>2238.5</v>
+        <v>0</v>
       </c>
       <c r="X241" t="n">
-        <v>2238.5</v>
+        <v>0</v>
       </c>
       <c r="Y241" t="n">
-        <v>2238.5</v>
+        <v>0</v>
       </c>
       <c r="Z241" t="n">
         <v>2238.5</v>
@@ -25357,7 +25357,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0242</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -25426,22 +25426,22 @@
         <v>0.05</v>
       </c>
       <c r="T242" t="n">
-        <v>20195.385</v>
+        <v>0</v>
       </c>
       <c r="U242" t="n">
         <v>0</v>
       </c>
       <c r="V242" t="n">
-        <v>2885.055</v>
+        <v>0</v>
       </c>
       <c r="W242" t="n">
-        <v>2885.055</v>
+        <v>0</v>
       </c>
       <c r="X242" t="n">
-        <v>2885.055</v>
+        <v>0</v>
       </c>
       <c r="Y242" t="n">
-        <v>2885.055</v>
+        <v>0</v>
       </c>
       <c r="Z242" t="n">
         <v>2885.055</v>
@@ -25461,7 +25461,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0243</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -25530,22 +25530,22 @@
         <v>0.05</v>
       </c>
       <c r="T243" t="n">
-        <v>82583.02499999999</v>
+        <v>0</v>
       </c>
       <c r="U243" t="n">
         <v>0</v>
       </c>
       <c r="V243" t="n">
-        <v>11797.575</v>
+        <v>0</v>
       </c>
       <c r="W243" t="n">
-        <v>11797.575</v>
+        <v>0</v>
       </c>
       <c r="X243" t="n">
-        <v>11797.575</v>
+        <v>0</v>
       </c>
       <c r="Y243" t="n">
-        <v>11797.575</v>
+        <v>0</v>
       </c>
       <c r="Z243" t="n">
         <v>11797.575</v>
@@ -25565,7 +25565,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0244</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -25634,22 +25634,22 @@
         <v>0.05</v>
       </c>
       <c r="T244" t="n">
-        <v>49631.925</v>
+        <v>0</v>
       </c>
       <c r="U244" t="n">
         <v>0</v>
       </c>
       <c r="V244" t="n">
-        <v>7090.275000000001</v>
+        <v>0</v>
       </c>
       <c r="W244" t="n">
-        <v>7090.275000000001</v>
+        <v>0</v>
       </c>
       <c r="X244" t="n">
-        <v>7090.275000000001</v>
+        <v>0</v>
       </c>
       <c r="Y244" t="n">
-        <v>7090.275000000001</v>
+        <v>0</v>
       </c>
       <c r="Z244" t="n">
         <v>7090.275000000001</v>
@@ -25669,7 +25669,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0245</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -25738,22 +25738,22 @@
         <v>0.05</v>
       </c>
       <c r="T245" t="n">
-        <v>74165.595</v>
+        <v>0</v>
       </c>
       <c r="U245" t="n">
         <v>0</v>
       </c>
       <c r="V245" t="n">
-        <v>10595.085</v>
+        <v>0</v>
       </c>
       <c r="W245" t="n">
-        <v>10595.085</v>
+        <v>0</v>
       </c>
       <c r="X245" t="n">
-        <v>10595.085</v>
+        <v>0</v>
       </c>
       <c r="Y245" t="n">
-        <v>10595.085</v>
+        <v>0</v>
       </c>
       <c r="Z245" t="n">
         <v>10595.085</v>
@@ -25773,7 +25773,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0246</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -25842,22 +25842,22 @@
         <v>0.05</v>
       </c>
       <c r="T246" t="n">
-        <v>36183.84</v>
+        <v>0</v>
       </c>
       <c r="U246" t="n">
         <v>0</v>
       </c>
       <c r="V246" t="n">
-        <v>5169.12</v>
+        <v>0</v>
       </c>
       <c r="W246" t="n">
-        <v>5169.12</v>
+        <v>0</v>
       </c>
       <c r="X246" t="n">
-        <v>5169.12</v>
+        <v>0</v>
       </c>
       <c r="Y246" t="n">
-        <v>5169.12</v>
+        <v>0</v>
       </c>
       <c r="Z246" t="n">
         <v>5169.12</v>
@@ -25877,7 +25877,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0247</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -25946,22 +25946,22 @@
         <v>0.05</v>
       </c>
       <c r="T247" t="n">
-        <v>94600.37999999999</v>
+        <v>0</v>
       </c>
       <c r="U247" t="n">
         <v>0</v>
       </c>
       <c r="V247" t="n">
-        <v>13514.34</v>
+        <v>0</v>
       </c>
       <c r="W247" t="n">
-        <v>13514.34</v>
+        <v>0</v>
       </c>
       <c r="X247" t="n">
-        <v>13514.34</v>
+        <v>0</v>
       </c>
       <c r="Y247" t="n">
-        <v>13514.34</v>
+        <v>0</v>
       </c>
       <c r="Z247" t="n">
         <v>13514.34</v>
@@ -25981,7 +25981,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0248</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -26050,22 +26050,22 @@
         <v>0.05</v>
       </c>
       <c r="T248" t="n">
-        <v>20527.5</v>
+        <v>0</v>
       </c>
       <c r="U248" t="n">
         <v>0</v>
       </c>
       <c r="V248" t="n">
-        <v>2932.5</v>
+        <v>0</v>
       </c>
       <c r="W248" t="n">
-        <v>2932.5</v>
+        <v>0</v>
       </c>
       <c r="X248" t="n">
-        <v>2932.5</v>
+        <v>0</v>
       </c>
       <c r="Y248" t="n">
-        <v>2932.5</v>
+        <v>0</v>
       </c>
       <c r="Z248" t="n">
         <v>2932.5</v>
@@ -26085,7 +26085,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0249</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -26154,22 +26154,22 @@
         <v>0.05</v>
       </c>
       <c r="T249" t="n">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="U249" t="n">
         <v>0</v>
       </c>
       <c r="V249" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="W249" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="X249" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Y249" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z249" t="n">
         <v>150</v>
@@ -26189,7 +26189,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0250</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -26258,22 +26258,22 @@
         <v>0.05</v>
       </c>
       <c r="T250" t="n">
-        <v>40303.3575</v>
+        <v>0</v>
       </c>
       <c r="U250" t="n">
         <v>0</v>
       </c>
       <c r="V250" t="n">
-        <v>5757.6225</v>
+        <v>0</v>
       </c>
       <c r="W250" t="n">
-        <v>5757.6225</v>
+        <v>0</v>
       </c>
       <c r="X250" t="n">
-        <v>5757.6225</v>
+        <v>0</v>
       </c>
       <c r="Y250" t="n">
-        <v>5757.6225</v>
+        <v>0</v>
       </c>
       <c r="Z250" t="n">
         <v>5757.6225</v>
@@ -26293,7 +26293,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0251</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -26362,22 +26362,22 @@
         <v>0.05</v>
       </c>
       <c r="T251" t="n">
-        <v>18335.625</v>
+        <v>0</v>
       </c>
       <c r="U251" t="n">
         <v>0</v>
       </c>
       <c r="V251" t="n">
-        <v>2619.375</v>
+        <v>0</v>
       </c>
       <c r="W251" t="n">
-        <v>2619.375</v>
+        <v>0</v>
       </c>
       <c r="X251" t="n">
-        <v>2619.375</v>
+        <v>0</v>
       </c>
       <c r="Y251" t="n">
-        <v>2619.375</v>
+        <v>0</v>
       </c>
       <c r="Z251" t="n">
         <v>2619.375</v>
@@ -26397,7 +26397,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0252</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -26466,22 +26466,22 @@
         <v>0.05</v>
       </c>
       <c r="T252" t="n">
-        <v>9975</v>
+        <v>0</v>
       </c>
       <c r="U252" t="n">
         <v>0</v>
       </c>
       <c r="V252" t="n">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="W252" t="n">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="X252" t="n">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="Y252" t="n">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="Z252" t="n">
         <v>1425</v>
@@ -26501,7 +26501,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0253</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -26570,22 +26570,22 @@
         <v>0.05</v>
       </c>
       <c r="T253" t="n">
-        <v>24178</v>
+        <v>0</v>
       </c>
       <c r="U253" t="n">
         <v>0</v>
       </c>
       <c r="V253" t="n">
-        <v>3454</v>
+        <v>0</v>
       </c>
       <c r="W253" t="n">
-        <v>3454</v>
+        <v>0</v>
       </c>
       <c r="X253" t="n">
-        <v>3454</v>
+        <v>0</v>
       </c>
       <c r="Y253" t="n">
-        <v>3454</v>
+        <v>0</v>
       </c>
       <c r="Z253" t="n">
         <v>3454</v>
@@ -26605,7 +26605,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0254</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -26674,22 +26674,22 @@
         <v>0.05</v>
       </c>
       <c r="T254" t="n">
-        <v>247979.55</v>
+        <v>0</v>
       </c>
       <c r="U254" t="n">
         <v>0</v>
       </c>
       <c r="V254" t="n">
-        <v>35425.65</v>
+        <v>0</v>
       </c>
       <c r="W254" t="n">
-        <v>35425.65</v>
+        <v>0</v>
       </c>
       <c r="X254" t="n">
-        <v>35425.65</v>
+        <v>0</v>
       </c>
       <c r="Y254" t="n">
-        <v>35425.65</v>
+        <v>0</v>
       </c>
       <c r="Z254" t="n">
         <v>35425.65</v>
@@ -26709,7 +26709,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0255</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -26778,22 +26778,22 @@
         <v>0.05</v>
       </c>
       <c r="T255" t="n">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="U255" t="n">
         <v>0</v>
       </c>
       <c r="V255" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="W255" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="X255" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="Y255" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="Z255" t="n">
         <v>24000</v>
@@ -26813,7 +26813,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0256</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -26882,22 +26882,22 @@
         <v>0.05</v>
       </c>
       <c r="T256" t="n">
-        <v>208881.75</v>
+        <v>0</v>
       </c>
       <c r="U256" t="n">
         <v>0</v>
       </c>
       <c r="V256" t="n">
-        <v>29840.25</v>
+        <v>0</v>
       </c>
       <c r="W256" t="n">
-        <v>29840.25</v>
+        <v>0</v>
       </c>
       <c r="X256" t="n">
-        <v>29840.25</v>
+        <v>0</v>
       </c>
       <c r="Y256" t="n">
-        <v>29840.25</v>
+        <v>0</v>
       </c>
       <c r="Z256" t="n">
         <v>29840.25</v>
@@ -26917,7 +26917,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0257</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -26986,22 +26986,22 @@
         <v>0.05</v>
       </c>
       <c r="T257" t="n">
-        <v>15089.4975</v>
+        <v>0</v>
       </c>
       <c r="U257" t="n">
         <v>0</v>
       </c>
       <c r="V257" t="n">
-        <v>2155.6425</v>
+        <v>0</v>
       </c>
       <c r="W257" t="n">
-        <v>2155.6425</v>
+        <v>0</v>
       </c>
       <c r="X257" t="n">
-        <v>2155.6425</v>
+        <v>0</v>
       </c>
       <c r="Y257" t="n">
-        <v>2155.6425</v>
+        <v>0</v>
       </c>
       <c r="Z257" t="n">
         <v>2155.6425</v>
@@ -27021,7 +27021,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0258</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -27090,22 +27090,22 @@
         <v>0.05</v>
       </c>
       <c r="T258" t="n">
-        <v>38220</v>
+        <v>0</v>
       </c>
       <c r="U258" t="n">
         <v>0</v>
       </c>
       <c r="V258" t="n">
-        <v>5460</v>
+        <v>0</v>
       </c>
       <c r="W258" t="n">
-        <v>5460</v>
+        <v>0</v>
       </c>
       <c r="X258" t="n">
-        <v>5460</v>
+        <v>0</v>
       </c>
       <c r="Y258" t="n">
-        <v>5460</v>
+        <v>0</v>
       </c>
       <c r="Z258" t="n">
         <v>5460</v>
@@ -27125,7 +27125,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0259</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -27194,22 +27194,22 @@
         <v>0.05</v>
       </c>
       <c r="T259" t="n">
-        <v>13781.25</v>
+        <v>0</v>
       </c>
       <c r="U259" t="n">
         <v>0</v>
       </c>
       <c r="V259" t="n">
-        <v>1968.75</v>
+        <v>0</v>
       </c>
       <c r="W259" t="n">
-        <v>1968.75</v>
+        <v>0</v>
       </c>
       <c r="X259" t="n">
-        <v>1968.75</v>
+        <v>0</v>
       </c>
       <c r="Y259" t="n">
-        <v>1968.75</v>
+        <v>0</v>
       </c>
       <c r="Z259" t="n">
         <v>1968.75</v>
@@ -27229,7 +27229,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0260</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -27298,22 +27298,22 @@
         <v>0.05</v>
       </c>
       <c r="T260" t="n">
-        <v>38587.5</v>
+        <v>0</v>
       </c>
       <c r="U260" t="n">
         <v>0</v>
       </c>
       <c r="V260" t="n">
-        <v>5512.5</v>
+        <v>0</v>
       </c>
       <c r="W260" t="n">
-        <v>5512.5</v>
+        <v>0</v>
       </c>
       <c r="X260" t="n">
-        <v>5512.5</v>
+        <v>0</v>
       </c>
       <c r="Y260" t="n">
-        <v>5512.5</v>
+        <v>0</v>
       </c>
       <c r="Z260" t="n">
         <v>5512.5</v>
@@ -27333,7 +27333,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0261</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -27402,22 +27402,22 @@
         <v>0.05</v>
       </c>
       <c r="T261" t="n">
-        <v>75545.92500000002</v>
+        <v>0</v>
       </c>
       <c r="U261" t="n">
         <v>0</v>
       </c>
       <c r="V261" t="n">
-        <v>10792.275</v>
+        <v>0</v>
       </c>
       <c r="W261" t="n">
-        <v>10792.275</v>
+        <v>0</v>
       </c>
       <c r="X261" t="n">
-        <v>10792.275</v>
+        <v>0</v>
       </c>
       <c r="Y261" t="n">
-        <v>10792.275</v>
+        <v>0</v>
       </c>
       <c r="Z261" t="n">
         <v>10792.275</v>
@@ -27437,7 +27437,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0262</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -27506,22 +27506,22 @@
         <v>0.05</v>
       </c>
       <c r="T262" t="n">
-        <v>12735.7125</v>
+        <v>0</v>
       </c>
       <c r="U262" t="n">
         <v>0</v>
       </c>
       <c r="V262" t="n">
-        <v>1819.3875</v>
+        <v>0</v>
       </c>
       <c r="W262" t="n">
-        <v>1819.3875</v>
+        <v>0</v>
       </c>
       <c r="X262" t="n">
-        <v>1819.3875</v>
+        <v>0</v>
       </c>
       <c r="Y262" t="n">
-        <v>1819.3875</v>
+        <v>0</v>
       </c>
       <c r="Z262" t="n">
         <v>1819.3875</v>
@@ -27541,7 +27541,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0263</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -27610,22 +27610,22 @@
         <v>0.05</v>
       </c>
       <c r="T263" t="n">
-        <v>30347.94</v>
+        <v>0</v>
       </c>
       <c r="U263" t="n">
         <v>0</v>
       </c>
       <c r="V263" t="n">
-        <v>4335.42</v>
+        <v>0</v>
       </c>
       <c r="W263" t="n">
-        <v>4335.42</v>
+        <v>0</v>
       </c>
       <c r="X263" t="n">
-        <v>4335.42</v>
+        <v>0</v>
       </c>
       <c r="Y263" t="n">
-        <v>4335.42</v>
+        <v>0</v>
       </c>
       <c r="Z263" t="n">
         <v>4335.42</v>
@@ -27645,7 +27645,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0264</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -27714,22 +27714,22 @@
         <v>0.05</v>
       </c>
       <c r="T264" t="n">
-        <v>87825.62250000001</v>
+        <v>0</v>
       </c>
       <c r="U264" t="n">
         <v>0</v>
       </c>
       <c r="V264" t="n">
-        <v>12546.5175</v>
+        <v>0</v>
       </c>
       <c r="W264" t="n">
-        <v>12546.5175</v>
+        <v>0</v>
       </c>
       <c r="X264" t="n">
-        <v>12546.5175</v>
+        <v>0</v>
       </c>
       <c r="Y264" t="n">
-        <v>12546.5175</v>
+        <v>0</v>
       </c>
       <c r="Z264" t="n">
         <v>12546.5175</v>
@@ -27749,7 +27749,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0265</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -27818,22 +27818,22 @@
         <v>0.05</v>
       </c>
       <c r="T265" t="n">
-        <v>13046.25</v>
+        <v>0</v>
       </c>
       <c r="U265" t="n">
         <v>0</v>
       </c>
       <c r="V265" t="n">
-        <v>1863.75</v>
+        <v>0</v>
       </c>
       <c r="W265" t="n">
-        <v>1863.75</v>
+        <v>0</v>
       </c>
       <c r="X265" t="n">
-        <v>1863.75</v>
+        <v>0</v>
       </c>
       <c r="Y265" t="n">
-        <v>1863.75</v>
+        <v>0</v>
       </c>
       <c r="Z265" t="n">
         <v>1863.75</v>
@@ -27853,7 +27853,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0266</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -27922,22 +27922,22 @@
         <v>0.05</v>
       </c>
       <c r="T266" t="n">
-        <v>11085.9</v>
+        <v>0</v>
       </c>
       <c r="U266" t="n">
         <v>0</v>
       </c>
       <c r="V266" t="n">
-        <v>1583.7</v>
+        <v>0</v>
       </c>
       <c r="W266" t="n">
-        <v>1583.7</v>
+        <v>0</v>
       </c>
       <c r="X266" t="n">
-        <v>1583.7</v>
+        <v>0</v>
       </c>
       <c r="Y266" t="n">
-        <v>1583.7</v>
+        <v>0</v>
       </c>
       <c r="Z266" t="n">
         <v>1583.7</v>
@@ -27957,7 +27957,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0267</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -28026,22 +28026,22 @@
         <v>0.05</v>
       </c>
       <c r="T267" t="n">
-        <v>7525</v>
+        <v>0</v>
       </c>
       <c r="U267" t="n">
         <v>0</v>
       </c>
       <c r="V267" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="W267" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="X267" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="Y267" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="Z267" t="n">
         <v>1075</v>
@@ -28061,7 +28061,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0268</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -28130,22 +28130,22 @@
         <v>0.05</v>
       </c>
       <c r="T268" t="n">
-        <v>50750</v>
+        <v>0</v>
       </c>
       <c r="U268" t="n">
         <v>0</v>
       </c>
       <c r="V268" t="n">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="W268" t="n">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="X268" t="n">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="Y268" t="n">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="Z268" t="n">
         <v>7250</v>
@@ -28165,7 +28165,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0269</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -28234,22 +28234,22 @@
         <v>0.05</v>
       </c>
       <c r="T269" t="n">
-        <v>12693.52</v>
+        <v>0</v>
       </c>
       <c r="U269" t="n">
         <v>0</v>
       </c>
       <c r="V269" t="n">
-        <v>1813.36</v>
+        <v>0</v>
       </c>
       <c r="W269" t="n">
-        <v>1813.36</v>
+        <v>0</v>
       </c>
       <c r="X269" t="n">
-        <v>1813.36</v>
+        <v>0</v>
       </c>
       <c r="Y269" t="n">
-        <v>1813.36</v>
+        <v>0</v>
       </c>
       <c r="Z269" t="n">
         <v>1813.36</v>
@@ -28269,7 +28269,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0270</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -28338,22 +28338,22 @@
         <v>0.05</v>
       </c>
       <c r="T270" t="n">
-        <v>29120</v>
+        <v>0</v>
       </c>
       <c r="U270" t="n">
         <v>0</v>
       </c>
       <c r="V270" t="n">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="W270" t="n">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="X270" t="n">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="Y270" t="n">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="Z270" t="n">
         <v>4160</v>
@@ -28373,7 +28373,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0271</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -28442,22 +28442,22 @@
         <v>0.05</v>
       </c>
       <c r="T271" t="n">
-        <v>26162.5</v>
+        <v>0</v>
       </c>
       <c r="U271" t="n">
         <v>0</v>
       </c>
       <c r="V271" t="n">
-        <v>3737.5</v>
+        <v>0</v>
       </c>
       <c r="W271" t="n">
-        <v>3737.5</v>
+        <v>0</v>
       </c>
       <c r="X271" t="n">
-        <v>3737.5</v>
+        <v>0</v>
       </c>
       <c r="Y271" t="n">
-        <v>3737.5</v>
+        <v>0</v>
       </c>
       <c r="Z271" t="n">
         <v>3737.5</v>
@@ -28477,7 +28477,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0272</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -28546,22 +28546,22 @@
         <v>0.05</v>
       </c>
       <c r="T272" t="n">
-        <v>49210</v>
+        <v>0</v>
       </c>
       <c r="U272" t="n">
         <v>0</v>
       </c>
       <c r="V272" t="n">
-        <v>7030</v>
+        <v>0</v>
       </c>
       <c r="W272" t="n">
-        <v>7030</v>
+        <v>0</v>
       </c>
       <c r="X272" t="n">
-        <v>7030</v>
+        <v>0</v>
       </c>
       <c r="Y272" t="n">
-        <v>7030</v>
+        <v>0</v>
       </c>
       <c r="Z272" t="n">
         <v>7030</v>
@@ -28581,7 +28581,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0273</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -28650,22 +28650,22 @@
         <v>0.05</v>
       </c>
       <c r="T273" t="n">
-        <v>46965.1875</v>
+        <v>0</v>
       </c>
       <c r="U273" t="n">
         <v>0</v>
       </c>
       <c r="V273" t="n">
-        <v>6709.3125</v>
+        <v>0</v>
       </c>
       <c r="W273" t="n">
-        <v>6709.3125</v>
+        <v>0</v>
       </c>
       <c r="X273" t="n">
-        <v>6709.3125</v>
+        <v>0</v>
       </c>
       <c r="Y273" t="n">
-        <v>6709.3125</v>
+        <v>0</v>
       </c>
       <c r="Z273" t="n">
         <v>6709.3125</v>
@@ -28685,7 +28685,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0274</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -28754,22 +28754,22 @@
         <v>0.05</v>
       </c>
       <c r="T274" t="n">
-        <v>1365</v>
+        <v>0</v>
       </c>
       <c r="U274" t="n">
         <v>0</v>
       </c>
       <c r="V274" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="W274" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="X274" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="Y274" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="Z274" t="n">
         <v>195</v>
@@ -28789,7 +28789,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0275</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -28858,22 +28858,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T275" t="n">
-        <v>466666.6666666667</v>
+        <v>0</v>
       </c>
       <c r="U275" t="n">
         <v>0</v>
       </c>
       <c r="V275" t="n">
-        <v>66666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="W275" t="n">
-        <v>66666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="X275" t="n">
-        <v>66666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="Y275" t="n">
-        <v>66666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="Z275" t="n">
         <v>66666.66666666667</v>
@@ -28893,7 +28893,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0276</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -28962,22 +28962,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T276" t="n">
-        <v>54600</v>
+        <v>0</v>
       </c>
       <c r="U276" t="n">
         <v>0</v>
       </c>
       <c r="V276" t="n">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="W276" t="n">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="X276" t="n">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="Y276" t="n">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="Z276" t="n">
         <v>7800</v>
@@ -28997,7 +28997,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0277</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -29066,22 +29066,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T277" t="n">
-        <v>77000</v>
+        <v>0</v>
       </c>
       <c r="U277" t="n">
         <v>0</v>
       </c>
       <c r="V277" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="W277" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="X277" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="Y277" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="Z277" t="n">
         <v>11000</v>
@@ -29101,7 +29101,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0278</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -29170,22 +29170,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T278" t="n">
-        <v>22166.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U278" t="n">
         <v>0</v>
       </c>
       <c r="V278" t="n">
-        <v>3166.666666666667</v>
+        <v>0</v>
       </c>
       <c r="W278" t="n">
-        <v>3166.666666666667</v>
+        <v>0</v>
       </c>
       <c r="X278" t="n">
-        <v>3166.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y278" t="n">
-        <v>3166.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z278" t="n">
         <v>3166.666666666667</v>
@@ -29205,7 +29205,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0279</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -29274,22 +29274,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T279" t="n">
-        <v>34300</v>
+        <v>0</v>
       </c>
       <c r="U279" t="n">
         <v>0</v>
       </c>
       <c r="V279" t="n">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="W279" t="n">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="X279" t="n">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="Y279" t="n">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="Z279" t="n">
         <v>4900</v>
@@ -29309,7 +29309,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0280</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -29378,22 +29378,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T280" t="n">
-        <v>23706.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U280" t="n">
         <v>0</v>
       </c>
       <c r="V280" t="n">
-        <v>3386.666666666667</v>
+        <v>0</v>
       </c>
       <c r="W280" t="n">
-        <v>3386.666666666667</v>
+        <v>0</v>
       </c>
       <c r="X280" t="n">
-        <v>3386.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y280" t="n">
-        <v>3386.666666666667</v>
+        <v>0</v>
       </c>
       <c r="Z280" t="n">
         <v>3386.666666666667</v>
@@ -29413,7 +29413,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0281</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -29482,22 +29482,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T281" t="n">
-        <v>21933.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U281" t="n">
         <v>0</v>
       </c>
       <c r="V281" t="n">
-        <v>3133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W281" t="n">
-        <v>3133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X281" t="n">
-        <v>3133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y281" t="n">
-        <v>3133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z281" t="n">
         <v>3133.333333333333</v>
@@ -29517,7 +29517,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0282</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -29586,22 +29586,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T282" t="n">
-        <v>44800</v>
+        <v>0</v>
       </c>
       <c r="U282" t="n">
         <v>0</v>
       </c>
       <c r="V282" t="n">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="W282" t="n">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="X282" t="n">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="Y282" t="n">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="Z282" t="n">
         <v>6400</v>
@@ -29621,7 +29621,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0283</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -29690,22 +29690,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T283" t="n">
-        <v>103040</v>
+        <v>0</v>
       </c>
       <c r="U283" t="n">
         <v>0</v>
       </c>
       <c r="V283" t="n">
-        <v>14720</v>
+        <v>0</v>
       </c>
       <c r="W283" t="n">
-        <v>14720</v>
+        <v>0</v>
       </c>
       <c r="X283" t="n">
-        <v>14720</v>
+        <v>0</v>
       </c>
       <c r="Y283" t="n">
-        <v>14720</v>
+        <v>0</v>
       </c>
       <c r="Z283" t="n">
         <v>14720</v>
@@ -29725,7 +29725,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0284</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -29794,22 +29794,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T284" t="n">
-        <v>30333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U284" t="n">
         <v>0</v>
       </c>
       <c r="V284" t="n">
-        <v>4333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W284" t="n">
-        <v>4333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X284" t="n">
-        <v>4333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y284" t="n">
-        <v>4333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z284" t="n">
         <v>4333.333333333333</v>
@@ -29829,7 +29829,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0285</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -29898,22 +29898,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T285" t="n">
-        <v>40600</v>
+        <v>0</v>
       </c>
       <c r="U285" t="n">
         <v>0</v>
       </c>
       <c r="V285" t="n">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="W285" t="n">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="X285" t="n">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="Y285" t="n">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="Z285" t="n">
         <v>5800</v>
@@ -29933,7 +29933,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0286</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -30002,22 +30002,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T286" t="n">
-        <v>65333.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U286" t="n">
         <v>0</v>
       </c>
       <c r="V286" t="n">
-        <v>9333.333333333334</v>
+        <v>0</v>
       </c>
       <c r="W286" t="n">
-        <v>9333.333333333334</v>
+        <v>0</v>
       </c>
       <c r="X286" t="n">
-        <v>9333.333333333334</v>
+        <v>0</v>
       </c>
       <c r="Y286" t="n">
-        <v>9333.333333333334</v>
+        <v>0</v>
       </c>
       <c r="Z286" t="n">
         <v>9333.333333333334</v>
@@ -30037,7 +30037,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0287</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -30106,22 +30106,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T287" t="n">
-        <v>44333.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U287" t="n">
         <v>0</v>
       </c>
       <c r="V287" t="n">
-        <v>6333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W287" t="n">
-        <v>6333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X287" t="n">
-        <v>6333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y287" t="n">
-        <v>6333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z287" t="n">
         <v>6333.333333333333</v>
@@ -30141,7 +30141,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0288</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -30210,22 +30210,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T288" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="U288" t="n">
         <v>0</v>
       </c>
       <c r="V288" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="W288" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="X288" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Y288" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Z288" t="n">
         <v>4000</v>
@@ -30245,7 +30245,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0289</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -30314,22 +30314,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T289" t="n">
-        <v>197166.6666666667</v>
+        <v>0</v>
       </c>
       <c r="U289" t="n">
         <v>0</v>
       </c>
       <c r="V289" t="n">
-        <v>28166.66666666667</v>
+        <v>0</v>
       </c>
       <c r="W289" t="n">
-        <v>28166.66666666667</v>
+        <v>0</v>
       </c>
       <c r="X289" t="n">
-        <v>28166.66666666667</v>
+        <v>0</v>
       </c>
       <c r="Y289" t="n">
-        <v>28166.66666666667</v>
+        <v>0</v>
       </c>
       <c r="Z289" t="n">
         <v>28166.66666666667</v>
@@ -30349,7 +30349,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0290</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -30418,22 +30418,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T290" t="n">
-        <v>3943.333333333334</v>
+        <v>0</v>
       </c>
       <c r="U290" t="n">
         <v>0</v>
       </c>
       <c r="V290" t="n">
-        <v>563.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="W290" t="n">
-        <v>563.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="X290" t="n">
-        <v>563.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="Y290" t="n">
-        <v>563.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="Z290" t="n">
         <v>563.3333333333334</v>
@@ -30453,7 +30453,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0291</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -30522,22 +30522,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T291" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="U291" t="n">
         <v>0</v>
       </c>
       <c r="V291" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="W291" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="X291" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Y291" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Z291" t="n">
         <v>4000</v>
@@ -30557,7 +30557,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0292</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -30626,22 +30626,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T292" t="n">
-        <v>10920</v>
+        <v>0</v>
       </c>
       <c r="U292" t="n">
         <v>0</v>
       </c>
       <c r="V292" t="n">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="W292" t="n">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="X292" t="n">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="Y292" t="n">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="Z292" t="n">
         <v>1560</v>
@@ -30661,7 +30661,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0293</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -30730,22 +30730,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T293" t="n">
-        <v>55267.33333333334</v>
+        <v>0</v>
       </c>
       <c r="U293" t="n">
         <v>0</v>
       </c>
       <c r="V293" t="n">
-        <v>7895.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W293" t="n">
-        <v>7895.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X293" t="n">
-        <v>7895.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y293" t="n">
-        <v>7895.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z293" t="n">
         <v>7895.333333333333</v>
@@ -30765,7 +30765,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0294</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -30834,22 +30834,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T294" t="n">
-        <v>4170.833333333334</v>
+        <v>0</v>
       </c>
       <c r="U294" t="n">
         <v>0</v>
       </c>
       <c r="V294" t="n">
-        <v>595.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="W294" t="n">
-        <v>595.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="X294" t="n">
-        <v>595.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="Y294" t="n">
-        <v>595.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="Z294" t="n">
         <v>595.8333333333334</v>
@@ -30869,7 +30869,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0295</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -30938,22 +30938,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T295" t="n">
-        <v>93333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U295" t="n">
         <v>0</v>
       </c>
       <c r="V295" t="n">
-        <v>13333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="W295" t="n">
-        <v>13333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="X295" t="n">
-        <v>13333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="Y295" t="n">
-        <v>13333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="Z295" t="n">
         <v>13333.33333333333</v>
@@ -30973,7 +30973,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0296</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -31042,22 +31042,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T296" t="n">
-        <v>551768</v>
+        <v>0</v>
       </c>
       <c r="U296" t="n">
         <v>0</v>
       </c>
       <c r="V296" t="n">
-        <v>78824</v>
+        <v>0</v>
       </c>
       <c r="W296" t="n">
-        <v>78824</v>
+        <v>0</v>
       </c>
       <c r="X296" t="n">
-        <v>78824</v>
+        <v>0</v>
       </c>
       <c r="Y296" t="n">
-        <v>78824</v>
+        <v>0</v>
       </c>
       <c r="Z296" t="n">
         <v>78824</v>
@@ -31077,7 +31077,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0297</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -31146,22 +31146,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T297" t="n">
-        <v>56000</v>
+        <v>0</v>
       </c>
       <c r="U297" t="n">
         <v>0</v>
       </c>
       <c r="V297" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="W297" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="X297" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="Y297" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="Z297" t="n">
         <v>8000</v>
@@ -31181,7 +31181,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0298</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -31250,22 +31250,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T298" t="n">
-        <v>36773.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U298" t="n">
         <v>0</v>
       </c>
       <c r="V298" t="n">
-        <v>5253.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W298" t="n">
-        <v>5253.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X298" t="n">
-        <v>5253.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y298" t="n">
-        <v>5253.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z298" t="n">
         <v>5253.333333333333</v>
@@ -31285,7 +31285,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0299</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -31354,22 +31354,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T299" t="n">
-        <v>23380</v>
+        <v>0</v>
       </c>
       <c r="U299" t="n">
         <v>0</v>
       </c>
       <c r="V299" t="n">
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="W299" t="n">
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="X299" t="n">
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="Y299" t="n">
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="Z299" t="n">
         <v>3340</v>
@@ -31389,7 +31389,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0003</t>
+          <t>FRC-HQ-SLM-F-22-0300</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -31458,22 +31458,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T300" t="n">
-        <v>87733.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U300" t="n">
         <v>0</v>
       </c>
       <c r="V300" t="n">
-        <v>12533.33333333333</v>
+        <v>0</v>
       </c>
       <c r="W300" t="n">
-        <v>12533.33333333333</v>
+        <v>0</v>
       </c>
       <c r="X300" t="n">
-        <v>12533.33333333333</v>
+        <v>0</v>
       </c>
       <c r="Y300" t="n">
-        <v>12533.33333333333</v>
+        <v>0</v>
       </c>
       <c r="Z300" t="n">
         <v>12533.33333333333</v>
@@ -31493,7 +31493,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0003</t>
+          <t>FRC-HQ-SLM-F-22-0301</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -31562,22 +31562,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="T301" t="n">
-        <v>21233.33333333333</v>
+        <v>0</v>
       </c>
       <c r="U301" t="n">
         <v>0</v>
       </c>
       <c r="V301" t="n">
-        <v>3033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="W301" t="n">
-        <v>3033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X301" t="n">
-        <v>3033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y301" t="n">
-        <v>3033.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Z301" t="n">
         <v>3033.333333333333</v>

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0001</t>
+          <t>FRC-SLM-7-4-17-0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0002</t>
+          <t>FRC-SLM-7-4-17-0002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0003</t>
+          <t>FRC-SLM-7-4-17-0003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0004</t>
+          <t>FRC-SLM-7-4-17-0004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0005</t>
+          <t>FRC-SLM-7-4-17-0005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0006</t>
+          <t>FRC-SLM-7-4-17-0006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0007</t>
+          <t>FRC-SLM-7-4-17-0007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0008</t>
+          <t>FRC-SLM-7-4-17-0008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0009</t>
+          <t>FRC-SLM-7-4-17-0009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0010</t>
+          <t>FRC-SLM-7-4-17-0010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0011</t>
+          <t>FRC-SLM-7-4-17-0011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0012</t>
+          <t>FRC-SLM-7-4-17-0012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0013</t>
+          <t>FRC-SLM-7-4-17-0013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0014</t>
+          <t>FRC-SLM-7-4-17-0014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0015</t>
+          <t>FRC-SLM-7-4-17-0015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0016</t>
+          <t>FRC-SLM-7-4-17-0016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0017</t>
+          <t>FRC-SLM-7-4-18-0017</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>30145.79</v>
+        <v>30145.79439252336</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>-0.004392523358546896</v>
       </c>
       <c r="S18" t="n">
         <v>0.1</v>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0018</t>
+          <t>FRC-SLM-7-4-17-0018</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0019</t>
+          <t>FRC-SLM-7-4-17-0019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0020</t>
+          <t>FRC-SLM-7-4-17-0020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0021</t>
+          <t>FRC-SLM-7-4-17-0021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0022</t>
+          <t>FRC-SLM-7-4-17-0022</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0023</t>
+          <t>FRC-SLM-7-4-17-0023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0024</t>
+          <t>FRC-SLM-7-4-17-0024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0025</t>
+          <t>FRC-SLM-7-4-17-0025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0026</t>
+          <t>FRC-SLM-7-4-17-0026</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0027</t>
+          <t>FRC-SLM-7-4-17-0027</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0028</t>
+          <t>FRC-SLM-7-4-17-0028</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0029</t>
+          <t>FRC-SLM-7-4-17-0029</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0030</t>
+          <t>FRC-SLM-7-4-17-0030</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0031</t>
+          <t>FRC-SLM-7-4-17-0031</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0032</t>
+          <t>FRC-SLM-7-4-18-0032</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0033</t>
+          <t>FRC-SLM-7-4-18-0033</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0034</t>
+          <t>FRC-SLM-7-4-18-0034</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0035</t>
+          <t>FRC-SLM-7-4-18-0035</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0036</t>
+          <t>FRC-SLM-7-4-18-0036</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0037</t>
+          <t>FRC-SLM-7-4-17-0037</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0038</t>
+          <t>FRC-SLM-7-4-18-0038</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0039</t>
+          <t>FRC-SLM-7-4-18-0039</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0040</t>
+          <t>FRC-SLM-7-4-18-0040</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0041</t>
+          <t>FRC-SLM-7-4-18-0041</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0042</t>
+          <t>FRC-SLM-7-4-17-0042</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0043</t>
+          <t>FRC-SLM-7-4-18-0043</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0044</t>
+          <t>FRC-SLM-7-4-18-0044</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0045</t>
+          <t>FRC-SLM-7-4-18-0045</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0046</t>
+          <t>FRC-SLM-7-4-18-0046</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0047</t>
+          <t>FRC-SLM-7-4-17-0047</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0048</t>
+          <t>FRC-SLM-7-4-17-0048</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0049</t>
+          <t>FRC-SLM-7-4-18-0049</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0050</t>
+          <t>FRC-SLM-7-4-17-0050</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0051</t>
+          <t>FRC-SLM-7-4-18-0051</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0052</t>
+          <t>FRC-SLM-7-4-17-0052</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0053</t>
+          <t>FRC-SLM-7-4-17-0053</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0054</t>
+          <t>FRC-SLM-7-4-18-0054</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6099,10 +6099,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>13789.8</v>
+        <v>13789.79591836735</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>0.004081632649103994</v>
       </c>
       <c r="S55" t="n">
         <v>0.1</v>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0055</t>
+          <t>FRC-SLM-7-4-18-0055</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0056</t>
+          <t>FRC-SLM-7-4-18-0056</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0057</t>
+          <t>FRC-SLM-7-4-18-0057</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0058</t>
+          <t>FRC-SLM-7-4-18-0058</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0059</t>
+          <t>FRC-SLM-7-4-18-0059</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0060</t>
+          <t>FRC-SLM-7-4-18-0060</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0061</t>
+          <t>FRC-SLM-7-4-18-0061</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0062</t>
+          <t>FRC-SLM-7-4-18-0062</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0063</t>
+          <t>FRC-SLM-7-4-18-0063</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0064</t>
+          <t>FRC-SLM-7-4-18-0064</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0065</t>
+          <t>FRC-SLM-7-4-18-0065</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0066</t>
+          <t>FRC-SLM-7-4-18-0066</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0067</t>
+          <t>FRC-SLM-7-4-18-0067</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0068</t>
+          <t>FRC-SLM-7-4-18-0068</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0069</t>
+          <t>FRC-SLM-7-4-18-0069</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0070</t>
+          <t>FRC-SLM-7-4-18-0070</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0071</t>
+          <t>FRC-SLM-7-4-18-0071</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0072</t>
+          <t>FRC-SLM-7-4-18-0072</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0073</t>
+          <t>FRC-SLM-7-4-18-0073</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0074</t>
+          <t>FRC-SLM-7-4-18-0074</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0075</t>
+          <t>FRC-SLM-7-4-18-0075</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0076</t>
+          <t>FRC-SLM-7-4-18-0076</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0077</t>
+          <t>FRC-SLM-7-4-19-0077</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0078</t>
+          <t>FRC-SLM-7-4-18-0078</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0079</t>
+          <t>FRC-SLM-7-4-18-0079</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0080</t>
+          <t>FRC-SLM-7-4-18-0080</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0081</t>
+          <t>FRC-SLM-7-4-18-0081</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0082</t>
+          <t>FRC-SLM-7-4-18-0082</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0083</t>
+          <t>FRC-SLM-7-4-18-0083</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0084</t>
+          <t>FRC-SLM-7-4-18-0084</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0085</t>
+          <t>FRC-SLM-7-4-18-0085</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0086</t>
+          <t>FRC-SLM-7-4-18-0086</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0087</t>
+          <t>FRC-SLM-7-4-18-0087</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0088</t>
+          <t>FRC-SLM-7-4-18-0088</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0089</t>
+          <t>FRC-SLM-7-4-18-0089</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0090</t>
+          <t>FRC-SLM-7-4-18-0090</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0091</t>
+          <t>FRC-SLM-7-4-18-0091</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0092</t>
+          <t>FRC-SLM-7-4-18-0092</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0093</t>
+          <t>FRC-SLM-7-4-18-0093</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -10159,7 +10159,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0094</t>
+          <t>FRC-SLM-7-4-19-0094</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0095</t>
+          <t>FRC-SLM-7-4-18-0095</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -10365,7 +10365,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0096</t>
+          <t>FRC-SLM-7-4-19-0096</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-19-0097</t>
+          <t>FRC-SLM-7-4-19-0097</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-19-0098</t>
+          <t>FRC-SLM-7-4-19-0098</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-19-0099</t>
+          <t>FRC-SLM-7-4-19-0099</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0100</t>
+          <t>FRC-SLM-7-4-19-0100</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0101</t>
+          <t>FRC-SLM-7-4-19-0101</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0102</t>
+          <t>FRC-SLM-7-4-19-0102</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -11077,7 +11077,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0103</t>
+          <t>FRC-SLM-7-4-19-0103</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0104</t>
+          <t>FRC-SLM-7-4-19-0104</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0105</t>
+          <t>FRC-SLM-7-4-19-0105</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -11385,7 +11385,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0106</t>
+          <t>FRC-SLM-7-4-18-0106</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0107</t>
+          <t>FRC-SLM-7-4-19-0107</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0108</t>
+          <t>FRC-SLM-7-4-19-0108</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -11695,7 +11695,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0109</t>
+          <t>FRC-SLM-7-4-19-0109</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0110</t>
+          <t>FRC-SLM-7-4-19-0110</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0111</t>
+          <t>FRC-SLM-7-4-19-0111</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0112</t>
+          <t>FRC-SLM-7-4-20-0112</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -12115,7 +12115,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0113</t>
+          <t>FRC-SLM-7-4-19-0113</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0114</t>
+          <t>FRC-SLM-7-4-19-0114</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0115</t>
+          <t>FRC-SLM-7-4-19-0115</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0116</t>
+          <t>FRC-SLM-7-4-19-0116</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0117</t>
+          <t>FRC-SLM-7-4-19-0117</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0118</t>
+          <t>FRC-SLM-7-4-19-0118</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -12735,7 +12735,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0119</t>
+          <t>FRC-SLM-7-4-19-0119</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -12837,7 +12837,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0120</t>
+          <t>FRC-SLM-7-4-19-0120</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0121</t>
+          <t>FRC-SLM-7-4-19-0121</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0122</t>
+          <t>FRC-SLM-7-4-19-0122</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0123</t>
+          <t>FRC-SLM-7-4-19-0123</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0124</t>
+          <t>FRC-SLM-7-4-19-0124</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -13347,7 +13347,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0125</t>
+          <t>FRC-SLM-7-4-19-0125</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0126</t>
+          <t>FRC-SLM-7-4-20-0126</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -13551,7 +13551,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0127</t>
+          <t>FRC-SLM-7-4-20-0127</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0128</t>
+          <t>FRC-SLM-7-4-20-0128</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -13755,7 +13755,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0129</t>
+          <t>FRC-SLM-7-4-20-0129</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0130</t>
+          <t>FRC-SLM-7-4-20-0130</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -13959,7 +13959,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0131</t>
+          <t>FRC-SLM-7-4-20-0131</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -14061,7 +14061,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0132</t>
+          <t>FRC-SLM-7-4-20-0132</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -14163,7 +14163,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0133</t>
+          <t>FRC-SLM-7-4-20-0133</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -14265,7 +14265,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0134</t>
+          <t>FRC-SLM-7-4-21-0134</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0135</t>
+          <t>FRC-SLM-7-4-21-0135</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -14469,7 +14469,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0136</t>
+          <t>FRC-SLM-7-4-21-0136</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -14571,7 +14571,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0137</t>
+          <t>FRC-SLM-7-4-21-0137</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -14673,7 +14673,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0138</t>
+          <t>FRC-SLM-7-4-21-0138</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -14775,7 +14775,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0139</t>
+          <t>FRC-SLM-7-4-21-0139</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -14877,7 +14877,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0140</t>
+          <t>FRC-SLM-7-4-21-0140</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0141</t>
+          <t>FRC-SLM-7-4-21-0141</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -15081,7 +15081,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0142</t>
+          <t>FRC-SLM-7-4-21-0142</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0143</t>
+          <t>FRC-SLM-7-4-21-0143</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -15285,7 +15285,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0144</t>
+          <t>FRC-SLM-7-4-21-0144</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-22-0145</t>
+          <t>FRC-SLM-7-4-22-0145</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -15487,7 +15487,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0146</t>
+          <t>FRC-SLM-7-4-22-0146</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -15589,7 +15589,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0147</t>
+          <t>FRC-SLM-7-4-22-0147</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-22-0148</t>
+          <t>FRC-SLM-7-4-22-0148</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0149</t>
+          <t>FRC-SLM-7-4-22-0149</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -15893,7 +15893,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-22-0150</t>
+          <t>FRC-SLM-7-4-22-0150</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -15995,7 +15995,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0152</t>
+          <t>FRC-SLM-7-n-22-0152</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0153</t>
+          <t>FRC-SLM-7-n-22-0153</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0154</t>
+          <t>FRC-SLM-7-n-22-0154</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -16307,7 +16307,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0155</t>
+          <t>FRC-SLM-7-n-22-0155</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -16411,7 +16411,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0156</t>
+          <t>FRC-SLM-7-n-22-0156</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -16515,7 +16515,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0157</t>
+          <t>FRC-SLM-7-n-22-0157</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -16619,7 +16619,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0158</t>
+          <t>FRC-SLM-7-n-22-0158</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0159</t>
+          <t>FRC-SLM-7-n-22-0159</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -16827,7 +16827,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0160</t>
+          <t>FRC-SLM-7-n-22-0160</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -16931,7 +16931,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0161</t>
+          <t>FRC-SLM-7-n-22-0161</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -17035,7 +17035,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0162</t>
+          <t>FRC-SLM-7-n-22-0162</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0163</t>
+          <t>FRC-SLM-7-n-22-0163</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0164</t>
+          <t>FRC-SLM-7-n-22-0164</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0165</t>
+          <t>FRC-SLM-7-n-22-0165</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -17451,7 +17451,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0166</t>
+          <t>FRC-SLM-7-n-22-0166</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0167</t>
+          <t>FRC-SLM-7-n-22-0167</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -17659,7 +17659,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0168</t>
+          <t>FRC-SLM-7-n-22-0168</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -17763,7 +17763,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0169</t>
+          <t>FRC-SLM-7-n-22-0169</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -17868,7 +17868,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0170</t>
+          <t>FRC-SLM-7-n-22-0170</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -17972,7 +17972,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0171</t>
+          <t>FRC-SLM-7-n-22-0171</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -18076,7 +18076,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0172</t>
+          <t>FRC-SLM-7-n-22-0172</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -18180,7 +18180,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0173</t>
+          <t>FRC-SLM-7-n-22-0173</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -18284,7 +18284,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0174</t>
+          <t>FRC-SLM-7-n-22-0174</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0175</t>
+          <t>FRC-SLM-7-n-22-0175</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -18492,7 +18492,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0176</t>
+          <t>FRC-SLM-7-n-22-0176</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -18596,7 +18596,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0177</t>
+          <t>FRC-SLM-7-n-22-0177</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -18700,7 +18700,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0178</t>
+          <t>FRC-SLM-7-n-22-0178</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -18804,7 +18804,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0179</t>
+          <t>FRC-SLM-7-n-22-0179</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -18908,7 +18908,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0180</t>
+          <t>FRC-SLM-7-n-22-0180</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -19012,7 +19012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0181</t>
+          <t>FRC-SLM-7-n-22-0181</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0182</t>
+          <t>FRC-SLM-7-n-22-0182</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -19220,7 +19220,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0183</t>
+          <t>FRC-SLM-7-n-22-0183</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -19324,7 +19324,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0184</t>
+          <t>FRC-SLM-7-n-22-0184</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -19429,7 +19429,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0185</t>
+          <t>FRC-SLM-7-n-22-0185</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -19533,7 +19533,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0186</t>
+          <t>FRC-SLM-7-n-22-0186</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -19637,7 +19637,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0187</t>
+          <t>FRC-SLM-7-n-22-0187</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -19741,7 +19741,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0188</t>
+          <t>FRC-SLM-7-n-22-0188</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -19845,7 +19845,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0189</t>
+          <t>FRC-SLM-7-n-22-0189</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0190</t>
+          <t>FRC-SLM-7-n-22-0190</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -20053,7 +20053,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0191</t>
+          <t>FRC-SLM-7-n-22-0191</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -20157,7 +20157,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0192</t>
+          <t>FRC-SLM-7-n-22-0192</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -20261,7 +20261,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0193</t>
+          <t>FRC-SLM-7-n-22-0193</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -20365,7 +20365,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0194</t>
+          <t>FRC-SLM-7-n-22-0194</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -20469,7 +20469,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0195</t>
+          <t>FRC-SLM-7-n-22-0195</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -20573,7 +20573,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0196</t>
+          <t>FRC-SLM-7-n-22-0196</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -20677,7 +20677,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0197</t>
+          <t>FRC-SLM-7-n-22-0197</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -20781,7 +20781,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0198</t>
+          <t>FRC-SLM-7-n-22-0198</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -20885,7 +20885,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0199</t>
+          <t>FRC-SLM-7-n-22-0199</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -20989,7 +20989,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0200</t>
+          <t>FRC-SLM-7-n-22-0200</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -21093,7 +21093,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0201</t>
+          <t>FRC-SLM-7-n-22-0201</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -21197,7 +21197,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0202</t>
+          <t>FRC-SLM-7-n-22-0202</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -21301,7 +21301,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0203</t>
+          <t>FRC-SLM-7-n-22-0203</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -21405,7 +21405,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0204</t>
+          <t>FRC-SLM-7-n-22-0204</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -21509,7 +21509,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0205</t>
+          <t>FRC-SLM-7-n-22-0205</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -21613,7 +21613,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0206</t>
+          <t>FRC-SLM-7-n-22-0206</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -21717,7 +21717,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0207</t>
+          <t>FRC-SLM-7-n-22-0207</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -21821,7 +21821,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0208</t>
+          <t>FRC-SLM-7-n-22-0208</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -21925,7 +21925,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0209</t>
+          <t>FRC-SLM-7-n-22-0209</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -22029,7 +22029,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0210</t>
+          <t>FRC-SLM-7-n-22-0210</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -22133,7 +22133,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0211</t>
+          <t>FRC-SLM-7-n-22-0211</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -22237,7 +22237,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0212</t>
+          <t>FRC-SLM-7-n-22-0212</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0213</t>
+          <t>FRC-SLM-7-n-22-0213</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -22445,7 +22445,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0214</t>
+          <t>FRC-SLM-7-n-22-0214</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -22549,7 +22549,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0215</t>
+          <t>FRC-SLM-7-n-22-0215</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -22653,7 +22653,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0216</t>
+          <t>FRC-SLM-7-n-22-0216</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -22757,7 +22757,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0217</t>
+          <t>FRC-SLM-7-n-22-0217</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -22861,7 +22861,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0218</t>
+          <t>FRC-SLM-7-n-22-0218</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -22965,7 +22965,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0219</t>
+          <t>FRC-SLM-7-n-22-0219</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -23069,7 +23069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0220</t>
+          <t>FRC-SLM-7-n-22-0220</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -23173,7 +23173,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0221</t>
+          <t>FRC-SLM-7-n-22-0221</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -23277,7 +23277,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0222</t>
+          <t>FRC-SLM-7-n-22-0222</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -23381,7 +23381,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0223</t>
+          <t>FRC-SLM-7-n-22-0223</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -23485,7 +23485,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0224</t>
+          <t>FRC-SLM-7-n-22-0224</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -23589,7 +23589,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0225</t>
+          <t>FRC-SLM-7-n-22-0225</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -23693,7 +23693,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0226</t>
+          <t>FRC-SLM-7-n-22-0226</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -23797,7 +23797,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0227</t>
+          <t>FRC-SLM-7-n-22-0227</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -23901,7 +23901,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0228</t>
+          <t>FRC-SLM-7-n-22-0228</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -24005,7 +24005,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0229</t>
+          <t>FRC-SLM-7-n-22-0229</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -24109,7 +24109,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0230</t>
+          <t>FRC-SLM-7-n-22-0230</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -24213,7 +24213,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0231</t>
+          <t>FRC-SLM-7-n-22-0231</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -24317,7 +24317,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0232</t>
+          <t>FRC-SLM-7-n-22-0232</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0233</t>
+          <t>FRC-SLM-7-n-22-0233</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -24525,7 +24525,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0234</t>
+          <t>FRC-SLM-7-n-22-0234</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -24629,7 +24629,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0235</t>
+          <t>FRC-SLM-7-n-22-0235</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -24733,7 +24733,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0236</t>
+          <t>FRC-SLM-7-n-22-0236</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -24837,7 +24837,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-22-0237</t>
+          <t>FRC-SLM-7-n-22-0237</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -24941,7 +24941,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-22-0238</t>
+          <t>FRC-SLM-7-n-22-0238</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -25045,7 +25045,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-22-0239</t>
+          <t>FRC-SLM-7-n-22-0239</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -25149,7 +25149,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-22-0240</t>
+          <t>FRC-SLM-7-n-22-0240</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -25253,7 +25253,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-22-0241</t>
+          <t>FRC-SLM-7-n-22-0241</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -25357,7 +25357,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0242</t>
+          <t>FRC-SLM-7-n-22-0242</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -25461,7 +25461,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0243</t>
+          <t>FRC-SLM-7-n-22-0243</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -25565,7 +25565,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0244</t>
+          <t>FRC-SLM-7-n-22-0244</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -25669,7 +25669,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0245</t>
+          <t>FRC-SLM-7-n-22-0245</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -25773,7 +25773,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0246</t>
+          <t>FRC-SLM-7-n-22-0246</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -25877,7 +25877,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0247</t>
+          <t>FRC-SLM-7-n-22-0247</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -25981,7 +25981,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0248</t>
+          <t>FRC-SLM-7-n-22-0248</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -26085,7 +26085,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0249</t>
+          <t>FRC-SLM-7-n-22-0249</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -26189,7 +26189,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0250</t>
+          <t>FRC-SLM-7-n-22-0250</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -26293,7 +26293,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0251</t>
+          <t>FRC-SLM-7-n-22-0251</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -26397,7 +26397,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0252</t>
+          <t>FRC-SLM-7-n-22-0252</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -26501,7 +26501,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0253</t>
+          <t>FRC-SLM-7-n-22-0253</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -26605,7 +26605,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0254</t>
+          <t>FRC-SLM-7-n-22-0254</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -26709,7 +26709,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0255</t>
+          <t>FRC-SLM-7-n-22-0255</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -26813,7 +26813,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0256</t>
+          <t>FRC-SLM-7-n-22-0256</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -26917,7 +26917,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0257</t>
+          <t>FRC-SLM-7-n-22-0257</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -27021,7 +27021,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0258</t>
+          <t>FRC-SLM-7-n-22-0258</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -27125,7 +27125,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0259</t>
+          <t>FRC-SLM-7-n-22-0259</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -27229,7 +27229,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0260</t>
+          <t>FRC-SLM-7-n-22-0260</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -27333,7 +27333,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0261</t>
+          <t>FRC-SLM-7-n-22-0261</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -27437,7 +27437,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0262</t>
+          <t>FRC-SLM-7-n-22-0262</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -27541,7 +27541,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0263</t>
+          <t>FRC-SLM-7-n-22-0263</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -27645,7 +27645,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0264</t>
+          <t>FRC-SLM-7-n-22-0264</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -27749,7 +27749,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0265</t>
+          <t>FRC-SLM-7-n-22-0265</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -27853,7 +27853,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0266</t>
+          <t>FRC-SLM-7-n-22-0266</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -27957,7 +27957,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0267</t>
+          <t>FRC-SLM-7-n-22-0267</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -28061,7 +28061,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0268</t>
+          <t>FRC-SLM-7-n-22-0268</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -28165,7 +28165,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0269</t>
+          <t>FRC-SLM-7-n-22-0269</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -28269,7 +28269,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0270</t>
+          <t>FRC-SLM-7-n-22-0270</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -28373,7 +28373,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0271</t>
+          <t>FRC-SLM-7-n-22-0271</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -28477,7 +28477,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0272</t>
+          <t>FRC-SLM-7-n-22-0272</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -28581,7 +28581,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0273</t>
+          <t>FRC-SLM-7-n-22-0273</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -28685,7 +28685,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0274</t>
+          <t>FRC-SLM-7-n-22-0274</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -28789,7 +28789,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0275</t>
+          <t>FRC-SLM-7-n-22-0275</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -28893,7 +28893,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0276</t>
+          <t>FRC-SLM-7-n-22-0276</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -28997,7 +28997,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0277</t>
+          <t>FRC-SLM-7-n-22-0277</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -29101,7 +29101,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0278</t>
+          <t>FRC-SLM-7-n-22-0278</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -29205,7 +29205,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0279</t>
+          <t>FRC-SLM-7-n-22-0279</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -29309,7 +29309,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0280</t>
+          <t>FRC-SLM-7-n-22-0280</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -29413,7 +29413,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0281</t>
+          <t>FRC-SLM-7-n-22-0281</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -29517,7 +29517,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0282</t>
+          <t>FRC-SLM-7-n-22-0282</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -29621,7 +29621,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0283</t>
+          <t>FRC-SLM-7-n-22-0283</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -29725,7 +29725,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0284</t>
+          <t>FRC-SLM-7-n-22-0284</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -29829,7 +29829,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0285</t>
+          <t>FRC-SLM-7-n-22-0285</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -29933,7 +29933,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0286</t>
+          <t>FRC-SLM-7-n-22-0286</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -30037,7 +30037,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0287</t>
+          <t>FRC-SLM-7-n-22-0287</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -30141,7 +30141,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0288</t>
+          <t>FRC-SLM-7-n-22-0288</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -30245,7 +30245,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0289</t>
+          <t>FRC-SLM-7-n-22-0289</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -30349,7 +30349,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0290</t>
+          <t>FRC-SLM-7-n-22-0290</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -30453,7 +30453,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0291</t>
+          <t>FRC-SLM-7-n-22-0291</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -30557,7 +30557,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0292</t>
+          <t>FRC-SLM-7-n-22-0292</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0293</t>
+          <t>FRC-SLM-7-n-22-0293</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -30765,7 +30765,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0294</t>
+          <t>FRC-SLM-7-n-22-0294</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -30869,7 +30869,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0295</t>
+          <t>FRC-SLM-7-n-22-0295</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -30973,7 +30973,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0296</t>
+          <t>FRC-SLM-7-n-22-0296</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -31077,7 +31077,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0297</t>
+          <t>FRC-SLM-7-n-22-0297</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -31181,7 +31181,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0298</t>
+          <t>FRC-SLM-7-n-22-0298</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -31285,7 +31285,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0299</t>
+          <t>FRC-SLM-7-n-22-0299</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -31389,7 +31389,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0300</t>
+          <t>FRC-SLM-7-n-22-0300</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -31493,7 +31493,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0301</t>
+          <t>FRC-SLM-7-n-22-0301</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0001</t>
+          <t>FRC-SLM-7.0-4-17-01.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0002</t>
+          <t>FRC-SLM-7.0-4-17-02.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0003</t>
+          <t>FRC-SLM-7.0-4-17-03.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0004</t>
+          <t>FRC-SLM-7.0-4-17-04.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0005</t>
+          <t>FRC-SLM-7.0-4-17-05.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0006</t>
+          <t>FRC-SLM-7.0-4-17-06.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0007</t>
+          <t>FRC-SLM-7.0-4-17-07.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0008</t>
+          <t>FRC-SLM-7.0-4-17-08.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0009</t>
+          <t>FRC-SLM-7.0-4-17-09.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0010</t>
+          <t>FRC-SLM-7.0-4-17-10.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1591,10 +1591,10 @@
         <v>21032.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>21032.8</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>21032.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0011</t>
+          <t>FRC-SLM-7.0-4-17-11.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1693,10 +1693,10 @@
         <v>11000</v>
       </c>
       <c r="AA12" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0012</t>
+          <t>FRC-SLM-7.0-4-17-12.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0013</t>
+          <t>FRC-SLM-7.0-4-17-13.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0014</t>
+          <t>FRC-SLM-7.0-4-17-14.0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0015</t>
+          <t>FRC-SLM-7.0-4-17-15.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0016</t>
+          <t>FRC-SLM-7.0-4-17-16.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0017</t>
+          <t>FRC-SLM-7.0-4-18-17.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0018</t>
+          <t>FRC-SLM-7.0-4-17-18.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0019</t>
+          <t>FRC-SLM-7.0-4-17-19.0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0020</t>
+          <t>FRC-SLM-7.0-4-17-20.0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0021</t>
+          <t>FRC-SLM-7.0-4-17-21.0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0022</t>
+          <t>FRC-SLM-7.0-4-17-22.0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0023</t>
+          <t>FRC-SLM-7.0-4-17-23.0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0024</t>
+          <t>FRC-SLM-7.0-4-17-24.0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0025</t>
+          <t>FRC-SLM-7.0-4-17-25.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0026</t>
+          <t>FRC-SLM-7.0-4-17-26.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0027</t>
+          <t>FRC-SLM-7.0-4-17-27.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0028</t>
+          <t>FRC-SLM-7.0-4-17-28.0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0029</t>
+          <t>FRC-SLM-7.0-4-17-29.0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0030</t>
+          <t>FRC-SLM-7.0-4-17-30.0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0031</t>
+          <t>FRC-SLM-7.0-4-17-31.0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0032</t>
+          <t>FRC-SLM-7.0-4-18-32.0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0033</t>
+          <t>FRC-SLM-7.0-4-18-33.0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0034</t>
+          <t>FRC-SLM-7.0-4-18-34.0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0035</t>
+          <t>FRC-SLM-7.0-4-18-35.0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0036</t>
+          <t>FRC-SLM-7.0-4-18-36.0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0037</t>
+          <t>FRC-SLM-7.0-4-17-37.0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0038</t>
+          <t>FRC-SLM-7.0-4-18-38.0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0039</t>
+          <t>FRC-SLM-7.0-4-18-39.0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0040</t>
+          <t>FRC-SLM-7.0-4-18-40.0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0041</t>
+          <t>FRC-SLM-7.0-4-18-41.0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0042</t>
+          <t>FRC-SLM-7.0-4-17-42.0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0043</t>
+          <t>FRC-SLM-7.0-4-18-43.0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0044</t>
+          <t>FRC-SLM-7.0-4-18-44.0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0045</t>
+          <t>FRC-SLM-7.0-4-18-45.0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0046</t>
+          <t>FRC-SLM-7.0-4-18-46.0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0047</t>
+          <t>FRC-SLM-7.0-4-17-47.0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0048</t>
+          <t>FRC-SLM-7.0-4-17-48.0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0049</t>
+          <t>FRC-SLM-7.0-4-18-49.0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0050</t>
+          <t>FRC-SLM-7.0-4-17-50.0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0051</t>
+          <t>FRC-SLM-7.0-4-18-51.0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0052</t>
+          <t>FRC-SLM-7.0-4-17-52.0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0053</t>
+          <t>FRC-SLM-7.0-4-17-53.0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0054</t>
+          <t>FRC-SLM-7.0-4-18-54.0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0055</t>
+          <t>FRC-SLM-7.0-4-18-55.0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0056</t>
+          <t>FRC-SLM-7.0-4-18-56.0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0057</t>
+          <t>FRC-SLM-7.0-4-18-57.0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0058</t>
+          <t>FRC-SLM-7.0-4-18-58.0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0059</t>
+          <t>FRC-SLM-7.0-4-18-59.0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0060</t>
+          <t>FRC-SLM-7.0-4-18-60.0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6764,7 +6764,7 @@
         <v>16640</v>
       </c>
       <c r="AB61" t="n">
-        <v>16640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0061</t>
+          <t>FRC-SLM-7.0-4-18-61.0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6866,7 +6866,7 @@
         <v>29220</v>
       </c>
       <c r="AB62" t="n">
-        <v>29220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0062</t>
+          <t>FRC-SLM-7.0-4-18-62.0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0063</t>
+          <t>FRC-SLM-7.0-4-18-63.0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0064</t>
+          <t>FRC-SLM-7.0-4-18-64.0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0065</t>
+          <t>FRC-SLM-7.0-4-18-65.0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7278,7 +7278,7 @@
         <v>39520</v>
       </c>
       <c r="AB66" t="n">
-        <v>39520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0066</t>
+          <t>FRC-SLM-7.0-4-18-66.0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7380,7 +7380,7 @@
         <v>11540</v>
       </c>
       <c r="AB67" t="n">
-        <v>11540</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0067</t>
+          <t>FRC-SLM-7.0-4-18-67.0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0068</t>
+          <t>FRC-SLM-7.0-4-18-68.0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0069</t>
+          <t>FRC-SLM-7.0-4-18-69.0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0070</t>
+          <t>FRC-SLM-7.0-4-18-70.0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0071</t>
+          <t>FRC-SLM-7.0-4-18-71.0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7894,7 +7894,7 @@
         <v>9200</v>
       </c>
       <c r="AB72" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0072</t>
+          <t>FRC-SLM-7.0-4-18-72.0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0073</t>
+          <t>FRC-SLM-7.0-4-18-73.0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0074</t>
+          <t>FRC-SLM-7.0-4-18-74.0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0075</t>
+          <t>FRC-SLM-7.0-4-18-75.0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0076</t>
+          <t>FRC-SLM-7.0-4-18-76.0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0077</t>
+          <t>FRC-SLM-7.0-4-19-77.0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0078</t>
+          <t>FRC-SLM-7.0-4-18-78.0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0079</t>
+          <t>FRC-SLM-7.0-4-18-79.0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0080</t>
+          <t>FRC-SLM-7.0-4-18-80.0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8810,7 +8810,7 @@
         <v>12733</v>
       </c>
       <c r="AB81" t="n">
-        <v>12733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0081</t>
+          <t>FRC-SLM-7.0-4-18-81.0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8912,7 +8912,7 @@
         <v>749</v>
       </c>
       <c r="AB82" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0082</t>
+          <t>FRC-SLM-7.0-4-18-82.0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9014,7 +9014,7 @@
         <v>3745</v>
       </c>
       <c r="AB83" t="n">
-        <v>3745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0083</t>
+          <t>FRC-SLM-7.0-4-18-83.0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9116,7 +9116,7 @@
         <v>5778</v>
       </c>
       <c r="AB84" t="n">
-        <v>5778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0084</t>
+          <t>FRC-SLM-7.0-4-18-84.0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0085</t>
+          <t>FRC-SLM-7.0-4-18-85.0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -9320,7 +9320,7 @@
         <v>3038.8</v>
       </c>
       <c r="AB86" t="n">
-        <v>3038.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0086</t>
+          <t>FRC-SLM-7.0-4-18-86.0</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9422,7 +9422,7 @@
         <v>1070</v>
       </c>
       <c r="AB87" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0087</t>
+          <t>FRC-SLM-7.0-4-18-87.0</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0088</t>
+          <t>FRC-SLM-7.0-4-18-88.0</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9626,7 +9626,7 @@
         <v>2461</v>
       </c>
       <c r="AB89" t="n">
-        <v>2461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0089</t>
+          <t>FRC-SLM-7.0-4-18-89.0</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -9728,7 +9728,7 @@
         <v>34411.2</v>
       </c>
       <c r="AB90" t="n">
-        <v>34411.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0090</t>
+          <t>FRC-SLM-7.0-4-18-90.0</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9830,7 +9830,7 @@
         <v>1112.8</v>
       </c>
       <c r="AB91" t="n">
-        <v>1112.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0091</t>
+          <t>FRC-SLM-7.0-4-18-91.0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0092</t>
+          <t>FRC-SLM-7.0-4-18-92.0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0093</t>
+          <t>FRC-SLM-7.0-4-18-93.0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -10159,7 +10159,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0094</t>
+          <t>FRC-SLM-7.0-4-19-94.0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0095</t>
+          <t>FRC-SLM-7.0-4-18-95.0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -10365,7 +10365,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0096</t>
+          <t>FRC-SLM-7.0-4-19-96.0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0097</t>
+          <t>FRC-SLM-7.0-4-19-97.0</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0098</t>
+          <t>FRC-SLM-7.0-4-19-98.0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0099</t>
+          <t>FRC-SLM-7.0-4-19-99.0</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0100</t>
+          <t>FRC-SLM-7.0-4-19-100.0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0101</t>
+          <t>FRC-SLM-7.0-4-19-101.0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0102</t>
+          <t>FRC-SLM-7.0-4-19-102.0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -11077,7 +11077,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0103</t>
+          <t>FRC-SLM-7.0-4-19-103.0</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0104</t>
+          <t>FRC-SLM-7.0-4-19-104.0</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0105</t>
+          <t>FRC-SLM-7.0-4-19-105.0</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -11385,7 +11385,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0106</t>
+          <t>FRC-SLM-7.0-4-18-106.0</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0107</t>
+          <t>FRC-SLM-7.0-4-19-107.0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0108</t>
+          <t>FRC-SLM-7.0-4-19-108.0</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -11695,7 +11695,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0109</t>
+          <t>FRC-SLM-7.0-4-19-109.0</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0110</t>
+          <t>FRC-SLM-7.0-4-19-110.0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0111</t>
+          <t>FRC-SLM-7.0-4-19-111.0</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0112</t>
+          <t>FRC-SLM-7.0-4-20-112.0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -12115,7 +12115,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0113</t>
+          <t>FRC-SLM-7.0-4-19-113.0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0114</t>
+          <t>FRC-SLM-7.0-4-19-114.0</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0115</t>
+          <t>FRC-SLM-7.0-4-19-115.0</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0116</t>
+          <t>FRC-SLM-7.0-4-19-116.0</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0117</t>
+          <t>FRC-SLM-7.0-4-19-117.0</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0118</t>
+          <t>FRC-SLM-7.0-4-19-118.0</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -12735,7 +12735,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0119</t>
+          <t>FRC-SLM-7.0-4-19-119.0</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -12837,7 +12837,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0120</t>
+          <t>FRC-SLM-7.0-4-19-120.0</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0121</t>
+          <t>FRC-SLM-7.0-4-19-121.0</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0122</t>
+          <t>FRC-SLM-7.0-4-19-122.0</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0123</t>
+          <t>FRC-SLM-7.0-4-19-123.0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0124</t>
+          <t>FRC-SLM-7.0-4-19-124.0</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -13347,7 +13347,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0125</t>
+          <t>FRC-SLM-7.0-4-19-125.0</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0126</t>
+          <t>FRC-SLM-7.0-4-20-126.0</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -13551,7 +13551,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0127</t>
+          <t>FRC-SLM-7.0-4-20-127.0</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0128</t>
+          <t>FRC-SLM-7.0-4-20-128.0</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -13755,7 +13755,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0129</t>
+          <t>FRC-SLM-7.0-4-20-129.0</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0130</t>
+          <t>FRC-SLM-7.0-4-20-130.0</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -13959,7 +13959,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0131</t>
+          <t>FRC-SLM-7.0-4-20-131.0</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -14061,7 +14061,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0132</t>
+          <t>FRC-SLM-7.0-4-20-132.0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -14163,7 +14163,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0133</t>
+          <t>FRC-SLM-7.0-4-20-133.0</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -14265,7 +14265,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0134</t>
+          <t>FRC-SLM-7.0-4-21-134.0</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0135</t>
+          <t>FRC-SLM-7.0-4-21-135.0</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -14469,7 +14469,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0136</t>
+          <t>FRC-SLM-7.0-4-21-136.0</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -14571,7 +14571,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0137</t>
+          <t>FRC-SLM-7.0-4-21-137.0</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -14673,7 +14673,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0138</t>
+          <t>FRC-SLM-7.0-4-21-138.0</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -14775,7 +14775,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0139</t>
+          <t>FRC-SLM-7.0-4-21-139.0</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -14877,7 +14877,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0140</t>
+          <t>FRC-SLM-7.0-4-21-140.0</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0141</t>
+          <t>FRC-SLM-7.0-4-21-141.0</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -15081,7 +15081,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0142</t>
+          <t>FRC-SLM-7.0-4-21-142.0</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0143</t>
+          <t>FRC-SLM-7.0-4-21-143.0</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -15285,7 +15285,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0144</t>
+          <t>FRC-SLM-7.0-4-21-144.0</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-22-0145</t>
+          <t>FRC-SLM-7.0-4-22-145.0</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -15487,7 +15487,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-22-0146</t>
+          <t>FRC-SLM-7.0-4-22-146.0</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -15589,7 +15589,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-22-0147</t>
+          <t>FRC-SLM-7.0-4-22-147.0</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-22-0148</t>
+          <t>FRC-SLM-7.0-4-22-148.0</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-22-0149</t>
+          <t>FRC-SLM-7.0-4-22-149.0</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -15893,7 +15893,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-22-0150</t>
+          <t>FRC-SLM-7.0-4-22-150.0</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -15995,7 +15995,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0152</t>
+          <t>FRC-SLM-7.0-n-22-152.0</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0153</t>
+          <t>FRC-SLM-7.0-n-22-153.0</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0154</t>
+          <t>FRC-SLM-7.0-n-22-154.0</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -16307,7 +16307,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0155</t>
+          <t>FRC-SLM-7.0-n-22-155.0</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -16411,7 +16411,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0156</t>
+          <t>FRC-SLM-7.0-n-22-156.0</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -16515,7 +16515,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0157</t>
+          <t>FRC-SLM-7.0-n-22-157.0</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -16619,7 +16619,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0158</t>
+          <t>FRC-SLM-7.0-n-22-158.0</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0159</t>
+          <t>FRC-SLM-7.0-n-22-159.0</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -16827,7 +16827,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0160</t>
+          <t>FRC-SLM-7.0-n-22-160.0</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -16931,7 +16931,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0161</t>
+          <t>FRC-SLM-7.0-n-22-161.0</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -17035,7 +17035,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0162</t>
+          <t>FRC-SLM-7.0-n-22-162.0</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0163</t>
+          <t>FRC-SLM-7.0-n-22-163.0</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0164</t>
+          <t>FRC-SLM-7.0-n-22-164.0</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0165</t>
+          <t>FRC-SLM-7.0-n-22-165.0</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -17451,7 +17451,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0166</t>
+          <t>FRC-SLM-7.0-n-22-166.0</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0167</t>
+          <t>FRC-SLM-7.0-n-22-167.0</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -17659,7 +17659,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0168</t>
+          <t>FRC-SLM-7.0-n-22-168.0</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -17763,7 +17763,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0169</t>
+          <t>FRC-SLM-7.0-n-22-169.0</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -17868,7 +17868,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0170</t>
+          <t>FRC-SLM-7.0-n-22-170.0</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -17972,7 +17972,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0171</t>
+          <t>FRC-SLM-7.0-n-22-171.0</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -18076,7 +18076,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0172</t>
+          <t>FRC-SLM-7.0-n-22-172.0</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -18180,7 +18180,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0173</t>
+          <t>FRC-SLM-7.0-n-22-173.0</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -18284,7 +18284,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0174</t>
+          <t>FRC-SLM-7.0-n-22-174.0</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0175</t>
+          <t>FRC-SLM-7.0-n-22-175.0</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -18492,7 +18492,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0176</t>
+          <t>FRC-SLM-7.0-n-22-176.0</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -18596,7 +18596,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0177</t>
+          <t>FRC-SLM-7.0-n-22-177.0</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -18700,7 +18700,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0178</t>
+          <t>FRC-SLM-7.0-n-22-178.0</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -18804,7 +18804,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0179</t>
+          <t>FRC-SLM-7.0-n-22-179.0</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -18908,7 +18908,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0180</t>
+          <t>FRC-SLM-7.0-n-22-180.0</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -19012,7 +19012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0181</t>
+          <t>FRC-SLM-7.0-n-22-181.0</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0182</t>
+          <t>FRC-SLM-7.0-n-22-182.0</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -19220,7 +19220,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0183</t>
+          <t>FRC-SLM-7.0-n-22-183.0</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -19324,7 +19324,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0184</t>
+          <t>FRC-SLM-7.0-n-22-184.0</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -19429,7 +19429,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0185</t>
+          <t>FRC-SLM-7.0-n-22-185.0</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -19533,7 +19533,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0186</t>
+          <t>FRC-SLM-7.0-n-22-186.0</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -19637,7 +19637,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0187</t>
+          <t>FRC-SLM-7.0-n-22-187.0</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -19741,7 +19741,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0188</t>
+          <t>FRC-SLM-7.0-n-22-188.0</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -19845,7 +19845,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0189</t>
+          <t>FRC-SLM-7.0-n-22-189.0</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0190</t>
+          <t>FRC-SLM-7.0-n-22-190.0</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -20053,7 +20053,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0191</t>
+          <t>FRC-SLM-7.0-n-22-191.0</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -20157,7 +20157,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0192</t>
+          <t>FRC-SLM-7.0-n-22-192.0</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -20261,7 +20261,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0193</t>
+          <t>FRC-SLM-7.0-n-22-193.0</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -20365,7 +20365,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0194</t>
+          <t>FRC-SLM-7.0-n-22-194.0</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -20469,7 +20469,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0195</t>
+          <t>FRC-SLM-7.0-n-22-195.0</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -20573,7 +20573,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0196</t>
+          <t>FRC-SLM-7.0-n-22-196.0</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -20677,7 +20677,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0197</t>
+          <t>FRC-SLM-7.0-n-22-197.0</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -20781,7 +20781,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0198</t>
+          <t>FRC-SLM-7.0-n-22-198.0</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -20885,7 +20885,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0199</t>
+          <t>FRC-SLM-7.0-n-22-199.0</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -20989,7 +20989,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0200</t>
+          <t>FRC-SLM-7.0-n-22-200.0</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -21093,7 +21093,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0201</t>
+          <t>FRC-SLM-7.0-n-22-201.0</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -21197,7 +21197,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0202</t>
+          <t>FRC-SLM-7.0-n-22-202.0</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -21301,7 +21301,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0203</t>
+          <t>FRC-SLM-7.0-n-22-203.0</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -21405,7 +21405,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0204</t>
+          <t>FRC-SLM-7.0-n-22-204.0</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -21509,7 +21509,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0205</t>
+          <t>FRC-SLM-7.0-n-22-205.0</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -21613,7 +21613,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0206</t>
+          <t>FRC-SLM-7.0-n-22-206.0</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -21717,7 +21717,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0207</t>
+          <t>FRC-SLM-7.0-n-22-207.0</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -21821,7 +21821,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0208</t>
+          <t>FRC-SLM-7.0-n-22-208.0</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -21925,7 +21925,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0209</t>
+          <t>FRC-SLM-7.0-n-22-209.0</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -22029,7 +22029,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0210</t>
+          <t>FRC-SLM-7.0-n-22-210.0</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -22133,7 +22133,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0211</t>
+          <t>FRC-SLM-7.0-n-22-211.0</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -22237,7 +22237,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0212</t>
+          <t>FRC-SLM-7.0-n-22-212.0</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0213</t>
+          <t>FRC-SLM-7.0-n-22-213.0</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -22445,7 +22445,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0214</t>
+          <t>FRC-SLM-7.0-n-22-214.0</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -22549,7 +22549,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0215</t>
+          <t>FRC-SLM-7.0-n-22-215.0</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -22653,7 +22653,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0216</t>
+          <t>FRC-SLM-7.0-n-22-216.0</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -22757,7 +22757,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0217</t>
+          <t>FRC-SLM-7.0-n-22-217.0</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -22861,7 +22861,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0218</t>
+          <t>FRC-SLM-7.0-n-22-218.0</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -22965,7 +22965,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0219</t>
+          <t>FRC-SLM-7.0-n-22-219.0</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -23069,7 +23069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0220</t>
+          <t>FRC-SLM-7.0-n-22-220.0</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -23173,7 +23173,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0221</t>
+          <t>FRC-SLM-7.0-n-22-221.0</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -23277,7 +23277,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0222</t>
+          <t>FRC-SLM-7.0-n-22-222.0</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -23381,7 +23381,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0223</t>
+          <t>FRC-SLM-7.0-n-22-223.0</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -23485,7 +23485,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0224</t>
+          <t>FRC-SLM-7.0-n-22-224.0</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -23589,7 +23589,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0225</t>
+          <t>FRC-SLM-7.0-n-22-225.0</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -23693,7 +23693,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0226</t>
+          <t>FRC-SLM-7.0-n-22-226.0</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -23797,7 +23797,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0227</t>
+          <t>FRC-SLM-7.0-n-22-227.0</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -23901,7 +23901,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0228</t>
+          <t>FRC-SLM-7.0-n-22-228.0</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -24005,7 +24005,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0229</t>
+          <t>FRC-SLM-7.0-n-22-229.0</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -24109,7 +24109,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0230</t>
+          <t>FRC-SLM-7.0-n-22-230.0</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -24213,7 +24213,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0231</t>
+          <t>FRC-SLM-7.0-n-22-231.0</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -24317,7 +24317,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0232</t>
+          <t>FRC-SLM-7.0-n-22-232.0</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0233</t>
+          <t>FRC-SLM-7.0-n-22-233.0</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -24525,7 +24525,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0234</t>
+          <t>FRC-SLM-7.0-n-22-234.0</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -24629,7 +24629,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0235</t>
+          <t>FRC-SLM-7.0-n-22-235.0</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -24733,7 +24733,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0236</t>
+          <t>FRC-SLM-7.0-n-22-236.0</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -24837,7 +24837,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0237</t>
+          <t>FRC-SLM-7.0-n-22-237.0</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -24941,7 +24941,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0238</t>
+          <t>FRC-SLM-7.0-n-22-238.0</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -25045,7 +25045,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0239</t>
+          <t>FRC-SLM-7.0-n-22-239.0</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -25149,7 +25149,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0240</t>
+          <t>FRC-SLM-7.0-n-22-240.0</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -25253,7 +25253,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0241</t>
+          <t>FRC-SLM-7.0-n-22-241.0</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -25357,7 +25357,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0242</t>
+          <t>FRC-SLM-7.0-n-22-242.0</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -25461,7 +25461,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0243</t>
+          <t>FRC-SLM-7.0-n-22-243.0</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -25565,7 +25565,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0244</t>
+          <t>FRC-SLM-7.0-n-22-244.0</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -25669,7 +25669,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0245</t>
+          <t>FRC-SLM-7.0-n-22-245.0</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -25773,7 +25773,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0246</t>
+          <t>FRC-SLM-7.0-n-22-246.0</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -25877,7 +25877,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0247</t>
+          <t>FRC-SLM-7.0-n-22-247.0</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -25981,7 +25981,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0248</t>
+          <t>FRC-SLM-7.0-n-22-248.0</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -26085,7 +26085,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0249</t>
+          <t>FRC-SLM-7.0-n-22-249.0</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -26189,7 +26189,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0250</t>
+          <t>FRC-SLM-7.0-n-22-250.0</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -26293,7 +26293,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0251</t>
+          <t>FRC-SLM-7.0-n-22-251.0</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -26397,7 +26397,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0252</t>
+          <t>FRC-SLM-7.0-n-22-252.0</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -26501,7 +26501,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0253</t>
+          <t>FRC-SLM-7.0-n-22-253.0</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -26605,7 +26605,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0254</t>
+          <t>FRC-SLM-7.0-n-22-254.0</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -26709,7 +26709,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0255</t>
+          <t>FRC-SLM-7.0-n-22-255.0</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -26813,7 +26813,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0256</t>
+          <t>FRC-SLM-7.0-n-22-256.0</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -26917,7 +26917,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0257</t>
+          <t>FRC-SLM-7.0-n-22-257.0</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -27021,7 +27021,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0258</t>
+          <t>FRC-SLM-7.0-n-22-258.0</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -27125,7 +27125,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0259</t>
+          <t>FRC-SLM-7.0-n-22-259.0</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -27229,7 +27229,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0260</t>
+          <t>FRC-SLM-7.0-n-22-260.0</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -27333,7 +27333,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0261</t>
+          <t>FRC-SLM-7.0-n-22-261.0</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -27437,7 +27437,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0262</t>
+          <t>FRC-SLM-7.0-n-22-262.0</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -27541,7 +27541,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0263</t>
+          <t>FRC-SLM-7.0-n-22-263.0</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -27645,7 +27645,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0264</t>
+          <t>FRC-SLM-7.0-n-22-264.0</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -27749,7 +27749,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0265</t>
+          <t>FRC-SLM-7.0-n-22-265.0</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -27853,7 +27853,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0266</t>
+          <t>FRC-SLM-7.0-n-22-266.0</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -27957,7 +27957,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0267</t>
+          <t>FRC-SLM-7.0-n-22-267.0</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -28061,7 +28061,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0268</t>
+          <t>FRC-SLM-7.0-n-22-268.0</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -28165,7 +28165,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0269</t>
+          <t>FRC-SLM-7.0-n-22-269.0</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -28269,7 +28269,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0270</t>
+          <t>FRC-SLM-7.0-n-22-270.0</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -28373,7 +28373,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0271</t>
+          <t>FRC-SLM-7.0-n-22-271.0</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -28477,7 +28477,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0272</t>
+          <t>FRC-SLM-7.0-n-22-272.0</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -28581,7 +28581,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0273</t>
+          <t>FRC-SLM-7.0-n-22-273.0</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -28685,7 +28685,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0274</t>
+          <t>FRC-SLM-7.0-n-22-274.0</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -28789,7 +28789,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0275</t>
+          <t>FRC-SLM-7.0-n-22-275.0</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -28893,7 +28893,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0276</t>
+          <t>FRC-SLM-7.0-n-22-276.0</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -28997,7 +28997,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0277</t>
+          <t>FRC-SLM-7.0-n-22-277.0</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -29101,7 +29101,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0278</t>
+          <t>FRC-SLM-7.0-n-22-278.0</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -29205,7 +29205,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0279</t>
+          <t>FRC-SLM-7.0-n-22-279.0</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -29309,7 +29309,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0280</t>
+          <t>FRC-SLM-7.0-n-22-280.0</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -29413,7 +29413,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0281</t>
+          <t>FRC-SLM-7.0-n-22-281.0</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -29517,7 +29517,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0282</t>
+          <t>FRC-SLM-7.0-n-22-282.0</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -29621,7 +29621,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0283</t>
+          <t>FRC-SLM-7.0-n-22-283.0</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -29725,7 +29725,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0284</t>
+          <t>FRC-SLM-7.0-n-22-284.0</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -29829,7 +29829,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0285</t>
+          <t>FRC-SLM-7.0-n-22-285.0</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -29933,7 +29933,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0286</t>
+          <t>FRC-SLM-7.0-n-22-286.0</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -30037,7 +30037,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0287</t>
+          <t>FRC-SLM-7.0-n-22-287.0</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -30141,7 +30141,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0288</t>
+          <t>FRC-SLM-7.0-n-22-288.0</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -30245,7 +30245,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0289</t>
+          <t>FRC-SLM-7.0-n-22-289.0</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -30349,7 +30349,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0290</t>
+          <t>FRC-SLM-7.0-n-22-290.0</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -30453,7 +30453,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0291</t>
+          <t>FRC-SLM-7.0-n-22-291.0</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -30557,7 +30557,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0292</t>
+          <t>FRC-SLM-7.0-n-22-292.0</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0293</t>
+          <t>FRC-SLM-7.0-n-22-293.0</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -30765,7 +30765,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0294</t>
+          <t>FRC-SLM-7.0-n-22-294.0</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -30869,7 +30869,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0295</t>
+          <t>FRC-SLM-7.0-n-22-295.0</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -30973,7 +30973,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0296</t>
+          <t>FRC-SLM-7.0-n-22-296.0</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -31077,7 +31077,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0297</t>
+          <t>FRC-SLM-7.0-n-22-297.0</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -31181,7 +31181,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0298</t>
+          <t>FRC-SLM-7.0-n-22-298.0</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -31285,7 +31285,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0299</t>
+          <t>FRC-SLM-7.0-n-22-299.0</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -31389,7 +31389,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0300</t>
+          <t>FRC-SLM-7.0-n-22-300.0</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -31493,7 +31493,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0301</t>
+          <t>FRC-SLM-7.0-n-22-301.0</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Sold Unit(Modified)</t>
+          <t>Years used(sold items)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -662,10 +662,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>40615.71428571428</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>16246.28571428571</v>
       </c>
       <c r="W2" t="n">
         <v>8123.142857142857</v>
@@ -767,7 +767,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>22253</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>10810</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>21481</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>11653</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>32151</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>24570</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>47855</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>24829.99999999999</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>0.2</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>105164</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>21032.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>21032.8</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>21032.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1710,7 +1710,7 @@
         <v>0.2</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>11000</v>
       </c>
       <c r="AB12" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1813,7 +1813,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>50900</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>56900</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -2027,10 +2027,10 @@
         <v>0.1</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>15360</v>
       </c>
       <c r="W15" t="n">
         <v>3840</v>
@@ -2132,7 +2132,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>16900</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2237,7 +2237,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>19500</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -2346,10 +2346,10 @@
         <v>0.1</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>9043.735242990659</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>12058.31775700934</v>
       </c>
       <c r="W18" t="n">
         <v>3014.579</v>
@@ -2455,10 +2455,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="W19" t="n">
         <v>2700</v>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2564,10 +2564,10 @@
         <v>0.1</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="W20" t="n">
         <v>1350</v>
@@ -2669,7 +2669,7 @@
         <v>0.1</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>21315</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>28287.99999999999</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>20199</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0.1</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>38574.2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0.1</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>8190</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0.1</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>18144</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>0.1</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>178752</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3511,10 +3511,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>40214.28571428572</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>16085.71428571428</v>
       </c>
       <c r="W29" t="n">
         <v>8042.857142857142</v>
@@ -3616,7 +3616,7 @@
         <v>0.1</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0.1</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>33600</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>0.1</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>362600</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0.1</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>9362.5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>0.1</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>68110</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>53770</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -4439,7 +4439,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -4456,10 +4456,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>45642.85714285713</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>60857.14285714286</v>
       </c>
       <c r="W38" t="n">
         <v>15214.28571428571</v>
@@ -4561,7 +4561,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>196000</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0.1</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0.1</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>4462.5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4876,7 +4876,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>16408</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4985,10 +4985,10 @@
         <v>0.1</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>5160</v>
       </c>
       <c r="W43" t="n">
         <v>1290</v>
@@ -5090,7 +5090,7 @@
         <v>0.1</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>8206.352000000001</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>0.1</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>2051.588</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -5300,7 +5300,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>80249.99999999999</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -5495,7 +5495,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         <v>0.1</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>14464.5</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>19286</v>
       </c>
       <c r="W48" t="n">
         <v>4821.5</v>
@@ -5604,7 +5604,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -5621,10 +5621,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>23196</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>30928</v>
       </c>
       <c r="W49" t="n">
         <v>7732</v>
@@ -5713,7 +5713,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5730,10 +5730,10 @@
         <v>0.1</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>48620</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>19448</v>
       </c>
       <c r="W50" t="n">
         <v>9724</v>
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5839,10 +5839,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>71571.42857142858</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>95428.57142857142</v>
       </c>
       <c r="W51" t="n">
         <v>23857.14285714286</v>
@@ -5948,10 +5948,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>165021.4285714285</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>220028.5714285714</v>
       </c>
       <c r="W52" t="n">
         <v>55007.14285714286</v>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -6057,10 +6057,10 @@
         <v>0.1</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>35970</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>47960</v>
       </c>
       <c r="W53" t="n">
         <v>11990</v>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -6166,10 +6166,10 @@
         <v>0.1</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>17106.3</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>22808.4</v>
       </c>
       <c r="W54" t="n">
         <v>5702.1</v>
@@ -6258,7 +6258,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -6275,10 +6275,10 @@
         <v>0.1</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>4136.941224489794</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>4136.938775510205</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -6384,10 +6384,10 @@
         <v>0.1</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
@@ -6476,7 +6476,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -6493,10 +6493,10 @@
         <v>0.1</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>8213.700000000001</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>8213.700000000001</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
@@ -6585,7 +6585,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -6602,10 +6602,10 @@
         <v>0.1</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>17220</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>17220</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -6711,10 +6711,10 @@
         <v>0.1</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>10866</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>10866</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
@@ -6820,10 +6820,10 @@
         <v>0.1</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>42437.64</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>18187.56</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
@@ -6925,7 +6925,7 @@
         <v>0.2</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>83200</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>16640</v>
       </c>
       <c r="AC61" t="n">
-        <v>16640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -7030,7 +7030,7 @@
         <v>0.2</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>146100</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -7054,7 +7054,7 @@
         <v>29220</v>
       </c>
       <c r="AC62" t="n">
-        <v>29220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -7135,7 +7135,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>15744</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0.1</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>10243.284</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -7349,10 +7349,10 @@
         <v>0.1</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
@@ -7454,7 +7454,7 @@
         <v>0.2</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>197600</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>39520</v>
       </c>
       <c r="AC66" t="n">
-        <v>39520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -7559,7 +7559,7 @@
         <v>0.2</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>57700</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -7583,7 +7583,7 @@
         <v>11540</v>
       </c>
       <c r="AC67" t="n">
-        <v>11540</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -7664,7 +7664,7 @@
         <v>0.1</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>0.1</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -7861,7 +7861,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -7878,10 +7878,10 @@
         <v>0.1</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>14094</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>14094</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         <v>0.1</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>4398</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -8088,7 +8088,7 @@
         <v>0.2</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>46000</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>9200</v>
       </c>
       <c r="AC72" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -8193,7 +8193,7 @@
         <v>0.1</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0.1</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>10080</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -8403,7 +8403,7 @@
         <v>0.1</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>7650</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -8508,7 +8508,7 @@
         <v>0.1</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>17710.28571428571</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>0.1</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>10177.8</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
@@ -8821,7 +8821,7 @@
         <v>0.1</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0.1</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
@@ -9031,7 +9031,7 @@
         <v>0.2</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>63665</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>12733</v>
       </c>
       <c r="AC81" t="n">
-        <v>12733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -9136,7 +9136,7 @@
         <v>0.2</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>3745</v>
       </c>
       <c r="V82" t="n">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>749</v>
       </c>
       <c r="AC82" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -9241,7 +9241,7 @@
         <v>0.2</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
+        <v>18725</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
@@ -9265,7 +9265,7 @@
         <v>3745</v>
       </c>
       <c r="AC83" t="n">
-        <v>3745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -9346,7 +9346,7 @@
         <v>0.2</v>
       </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>28890</v>
       </c>
       <c r="V84" t="n">
         <v>0</v>
@@ -9370,7 +9370,7 @@
         <v>5778</v>
       </c>
       <c r="AC84" t="n">
-        <v>5778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -9451,7 +9451,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U85" t="n">
-        <v>0</v>
+        <v>33754.28571428571</v>
       </c>
       <c r="V85" t="n">
         <v>0</v>
@@ -9556,7 +9556,7 @@
         <v>0.2</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>15194</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>3038.8</v>
       </c>
       <c r="AC86" t="n">
-        <v>3038.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -9661,7 +9661,7 @@
         <v>0.2</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>5350</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>1070</v>
       </c>
       <c r="AC87" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -9766,7 +9766,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>53571.42857142857</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
@@ -9871,7 +9871,7 @@
         <v>0.2</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>12305</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>2461</v>
       </c>
       <c r="AC89" t="n">
-        <v>2461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -9976,7 +9976,7 @@
         <v>0.2</v>
       </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>172056</v>
       </c>
       <c r="V90" t="n">
         <v>0</v>
@@ -10000,7 +10000,7 @@
         <v>34411.2</v>
       </c>
       <c r="AC90" t="n">
-        <v>34411.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -10081,7 +10081,7 @@
         <v>0.2</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>5564</v>
       </c>
       <c r="V91" t="n">
         <v>0</v>
@@ -10105,7 +10105,7 @@
         <v>1112.8</v>
       </c>
       <c r="AC91" t="n">
-        <v>1112.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -10173,7 +10173,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -10190,10 +10190,10 @@
         <v>0.1</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>93350.39999999998</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>93350.40000000001</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
@@ -10282,7 +10282,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -10299,10 +10299,10 @@
         <v>0.1</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>18144</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>18144</v>
       </c>
       <c r="W93" t="n">
         <v>0</v>
@@ -10391,7 +10391,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -10408,10 +10408,10 @@
         <v>0.1</v>
       </c>
       <c r="U94" t="n">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="W94" t="n">
         <v>0</v>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -10517,10 +10517,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U95" t="n">
-        <v>0</v>
+        <v>144672</v>
       </c>
       <c r="V95" t="n">
-        <v>0</v>
+        <v>144672</v>
       </c>
       <c r="W95" t="n">
         <v>0</v>
@@ -10620,7 +10620,7 @@
         <v>0.1</v>
       </c>
       <c r="U96" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="V96" t="n">
         <v>0</v>
@@ -10725,7 +10725,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>31457.14285714285</v>
       </c>
       <c r="V97" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>183545.1428571428</v>
       </c>
       <c r="V98" t="n">
         <v>0</v>
@@ -10933,7 +10933,7 @@
         <v>0.1</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>5565879</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
@@ -11038,7 +11038,7 @@
         <v>0.1</v>
       </c>
       <c r="U100" t="n">
-        <v>0</v>
+        <v>5428140</v>
       </c>
       <c r="V100" t="n">
         <v>0</v>
@@ -11143,7 +11143,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>36686.57142857143</v>
       </c>
       <c r="V101" t="n">
         <v>0</v>
@@ -11248,7 +11248,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U102" t="n">
-        <v>0</v>
+        <v>17228.57142857143</v>
       </c>
       <c r="V102" t="n">
         <v>0</v>
@@ -11353,7 +11353,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>3702.857142857142</v>
       </c>
       <c r="V103" t="n">
         <v>0</v>
@@ -11445,7 +11445,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -11462,10 +11462,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>79878.85714285714</v>
       </c>
       <c r="V104" t="n">
-        <v>0</v>
+        <v>79878.85714285714</v>
       </c>
       <c r="W104" t="n">
         <v>0</v>
@@ -11565,7 +11565,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>8485.714285714284</v>
       </c>
       <c r="V105" t="n">
         <v>0</v>
@@ -11670,7 +11670,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U106" t="n">
-        <v>0</v>
+        <v>49542.85714285714</v>
       </c>
       <c r="V106" t="n">
         <v>0</v>
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -11779,10 +11779,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U107" t="n">
-        <v>0</v>
+        <v>160317.8571428571</v>
       </c>
       <c r="V107" t="n">
-        <v>0</v>
+        <v>160317.8571428571</v>
       </c>
       <c r="W107" t="n">
         <v>0</v>
@@ -11884,7 +11884,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U108" t="n">
-        <v>0</v>
+        <v>156803.1428571428</v>
       </c>
       <c r="V108" t="n">
         <v>0</v>
@@ -11989,7 +11989,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U109" t="n">
-        <v>0</v>
+        <v>7839.428571428571</v>
       </c>
       <c r="V109" t="n">
         <v>0</v>
@@ -12094,7 +12094,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U110" t="n">
-        <v>0</v>
+        <v>62365.71428571428</v>
       </c>
       <c r="V110" t="n">
         <v>0</v>
@@ -12186,7 +12186,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -12203,10 +12203,10 @@
         <v>0.1</v>
       </c>
       <c r="U111" t="n">
-        <v>0</v>
+        <v>20534.4</v>
       </c>
       <c r="V111" t="n">
-        <v>0</v>
+        <v>20534.4</v>
       </c>
       <c r="W111" t="n">
         <v>0</v>
@@ -12312,10 +12312,10 @@
         <v>0.1</v>
       </c>
       <c r="U112" t="n">
-        <v>0</v>
+        <v>10773</v>
       </c>
       <c r="V112" t="n">
-        <v>0</v>
+        <v>7182</v>
       </c>
       <c r="W112" t="n">
         <v>0</v>
@@ -12404,7 +12404,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -12421,10 +12421,10 @@
         <v>0.1</v>
       </c>
       <c r="U113" t="n">
-        <v>0</v>
+        <v>6750</v>
       </c>
       <c r="V113" t="n">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="W113" t="n">
         <v>0</v>
@@ -12513,7 +12513,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -12530,10 +12530,10 @@
         <v>0.1</v>
       </c>
       <c r="U114" t="n">
-        <v>0</v>
+        <v>29400</v>
       </c>
       <c r="V114" t="n">
-        <v>0</v>
+        <v>19600</v>
       </c>
       <c r="W114" t="n">
         <v>0</v>
@@ -12635,7 +12635,7 @@
         <v>0.1</v>
       </c>
       <c r="U115" t="n">
-        <v>0</v>
+        <v>147000</v>
       </c>
       <c r="V115" t="n">
         <v>0</v>
@@ -12740,7 +12740,7 @@
         <v>0.1</v>
       </c>
       <c r="U116" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="V116" t="n">
         <v>0</v>
@@ -12845,7 +12845,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U117" t="n">
-        <v>0</v>
+        <v>37099.28571428571</v>
       </c>
       <c r="V117" t="n">
         <v>0</v>
@@ -12954,10 +12954,10 @@
         <v>0.1</v>
       </c>
       <c r="U118" t="n">
-        <v>0</v>
+        <v>14661</v>
       </c>
       <c r="V118" t="n">
-        <v>0</v>
+        <v>9774</v>
       </c>
       <c r="W118" t="n">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0.1</v>
       </c>
       <c r="U119" t="n">
-        <v>0</v>
+        <v>11260</v>
       </c>
       <c r="V119" t="n">
         <v>0</v>
@@ -13164,7 +13164,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U120" t="n">
-        <v>0</v>
+        <v>17785.71428571428</v>
       </c>
       <c r="V120" t="n">
         <v>0</v>
@@ -13269,7 +13269,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U121" t="n">
-        <v>0</v>
+        <v>34632.14285714286</v>
       </c>
       <c r="V121" t="n">
         <v>0</v>
@@ -13374,7 +13374,7 @@
         <v>0.1</v>
       </c>
       <c r="U122" t="n">
-        <v>0</v>
+        <v>16586</v>
       </c>
       <c r="V122" t="n">
         <v>0</v>
@@ -13479,7 +13479,7 @@
         <v>0.2</v>
       </c>
       <c r="U123" t="n">
-        <v>0</v>
+        <v>87706.17</v>
       </c>
       <c r="V123" t="n">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>0.2</v>
       </c>
       <c r="U124" t="n">
-        <v>0</v>
+        <v>106113.64</v>
       </c>
       <c r="V124" t="n">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>0.2</v>
       </c>
       <c r="U125" t="n">
-        <v>0</v>
+        <v>44394.48</v>
       </c>
       <c r="V125" t="n">
         <v>0</v>
@@ -13794,7 +13794,7 @@
         <v>0.2</v>
       </c>
       <c r="U126" t="n">
-        <v>0</v>
+        <v>7254.71</v>
       </c>
       <c r="V126" t="n">
         <v>0</v>
@@ -13899,7 +13899,7 @@
         <v>0.1</v>
       </c>
       <c r="U127" t="n">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="V127" t="n">
         <v>0</v>
@@ -14004,7 +14004,7 @@
         <v>0.1</v>
       </c>
       <c r="U128" t="n">
-        <v>0</v>
+        <v>58500</v>
       </c>
       <c r="V128" t="n">
         <v>0</v>
@@ -14109,7 +14109,7 @@
         <v>0.1</v>
       </c>
       <c r="U129" t="n">
-        <v>0</v>
+        <v>8750</v>
       </c>
       <c r="V129" t="n">
         <v>0</v>
@@ -14214,7 +14214,7 @@
         <v>0.2</v>
       </c>
       <c r="U130" t="n">
-        <v>0</v>
+        <v>16353.6</v>
       </c>
       <c r="V130" t="n">
         <v>0</v>
@@ -14319,7 +14319,7 @@
         <v>0.2</v>
       </c>
       <c r="U131" t="n">
-        <v>0</v>
+        <v>45083.2</v>
       </c>
       <c r="V131" t="n">
         <v>0</v>
@@ -14424,7 +14424,7 @@
         <v>0.2</v>
       </c>
       <c r="U132" t="n">
-        <v>0</v>
+        <v>33591.2</v>
       </c>
       <c r="V132" t="n">
         <v>0</v>
@@ -14529,7 +14529,7 @@
         <v>0.2</v>
       </c>
       <c r="U133" t="n">
-        <v>0</v>
+        <v>1591.2</v>
       </c>
       <c r="V133" t="n">
         <v>0</v>
@@ -14634,7 +14634,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U134" t="n">
-        <v>0</v>
+        <v>5185.714285714285</v>
       </c>
       <c r="V134" t="n">
         <v>0</v>
@@ -14739,7 +14739,7 @@
         <v>0.2</v>
       </c>
       <c r="U135" t="n">
-        <v>0</v>
+        <v>65120</v>
       </c>
       <c r="V135" t="n">
         <v>0</v>
@@ -14844,7 +14844,7 @@
         <v>0.2</v>
       </c>
       <c r="U136" t="n">
-        <v>0</v>
+        <v>19184</v>
       </c>
       <c r="V136" t="n">
         <v>0</v>
@@ -14949,7 +14949,7 @@
         <v>0.2</v>
       </c>
       <c r="U137" t="n">
-        <v>0</v>
+        <v>7920</v>
       </c>
       <c r="V137" t="n">
         <v>0</v>
@@ -15054,7 +15054,7 @@
         <v>0.2</v>
       </c>
       <c r="U138" t="n">
-        <v>0</v>
+        <v>106668</v>
       </c>
       <c r="V138" t="n">
         <v>0</v>
@@ -15159,7 +15159,7 @@
         <v>0.1</v>
       </c>
       <c r="U139" t="n">
-        <v>0</v>
+        <v>7125.6</v>
       </c>
       <c r="V139" t="n">
         <v>0</v>
@@ -15264,7 +15264,7 @@
         <v>0.2</v>
       </c>
       <c r="U140" t="n">
-        <v>0</v>
+        <v>47292.8</v>
       </c>
       <c r="V140" t="n">
         <v>0</v>
@@ -15369,7 +15369,7 @@
         <v>0.1</v>
       </c>
       <c r="U141" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="V141" t="n">
         <v>0</v>
@@ -15474,7 +15474,7 @@
         <v>0.2</v>
       </c>
       <c r="U142" t="n">
-        <v>0</v>
+        <v>223204</v>
       </c>
       <c r="V142" t="n">
         <v>0</v>
@@ -15579,7 +15579,7 @@
         <v>0.2</v>
       </c>
       <c r="U143" t="n">
-        <v>0</v>
+        <v>104309.6</v>
       </c>
       <c r="V143" t="n">
         <v>0</v>
@@ -15684,7 +15684,7 @@
         <v>0.1</v>
       </c>
       <c r="U144" t="n">
-        <v>0</v>
+        <v>988950</v>
       </c>
       <c r="V144" t="n">
         <v>0</v>
@@ -15787,7 +15787,7 @@
         <v>0.1</v>
       </c>
       <c r="U145" t="n">
-        <v>0</v>
+        <v>9099.300000000001</v>
       </c>
       <c r="V145" t="n">
         <v>0</v>
@@ -15892,7 +15892,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U146" t="n">
-        <v>0</v>
+        <v>69000</v>
       </c>
       <c r="V146" t="n">
         <v>0</v>
@@ -15997,7 +15997,7 @@
         <v>0.2</v>
       </c>
       <c r="U147" t="n">
-        <v>0</v>
+        <v>49273.81200000001</v>
       </c>
       <c r="V147" t="n">
         <v>0</v>
@@ -16102,7 +16102,7 @@
         <v>0.2</v>
       </c>
       <c r="U148" t="n">
-        <v>0</v>
+        <v>19441.368</v>
       </c>
       <c r="V148" t="n">
         <v>0</v>
@@ -16205,7 +16205,7 @@
         <v>0.1</v>
       </c>
       <c r="U149" t="n">
-        <v>0</v>
+        <v>6435</v>
       </c>
       <c r="V149" t="n">
         <v>0</v>
@@ -16310,7 +16310,7 @@
         <v>0.1</v>
       </c>
       <c r="U150" t="n">
-        <v>0</v>
+        <v>5845.5</v>
       </c>
       <c r="V150" t="n">
         <v>0</v>
@@ -16415,7 +16415,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U151" t="n">
-        <v>0</v>
+        <v>1928.571428571428</v>
       </c>
       <c r="V151" t="n">
         <v>0</v>
@@ -16522,7 +16522,7 @@
         <v>0.05</v>
       </c>
       <c r="U152" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="V152" t="n">
         <v>0</v>
@@ -16629,7 +16629,7 @@
         <v>0.05</v>
       </c>
       <c r="U153" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="V153" t="n">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>0.05</v>
       </c>
       <c r="U154" t="n">
-        <v>0</v>
+        <v>11888.9925</v>
       </c>
       <c r="V154" t="n">
         <v>0</v>
@@ -16843,7 +16843,7 @@
         <v>0.05</v>
       </c>
       <c r="U155" t="n">
-        <v>0</v>
+        <v>3958.125</v>
       </c>
       <c r="V155" t="n">
         <v>0</v>
@@ -16950,7 +16950,7 @@
         <v>0.05</v>
       </c>
       <c r="U156" t="n">
-        <v>0</v>
+        <v>596.8875</v>
       </c>
       <c r="V156" t="n">
         <v>0</v>
@@ -17057,7 +17057,7 @@
         <v>0.05</v>
       </c>
       <c r="U157" t="n">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="V157" t="n">
         <v>0</v>
@@ -17164,7 +17164,7 @@
         <v>0.05</v>
       </c>
       <c r="U158" t="n">
-        <v>0</v>
+        <v>5775</v>
       </c>
       <c r="V158" t="n">
         <v>0</v>
@@ -17271,7 +17271,7 @@
         <v>0.05</v>
       </c>
       <c r="U159" t="n">
-        <v>0</v>
+        <v>209.475</v>
       </c>
       <c r="V159" t="n">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>0.05</v>
       </c>
       <c r="U160" t="n">
-        <v>0</v>
+        <v>18645</v>
       </c>
       <c r="V160" t="n">
         <v>0</v>
@@ -17485,7 +17485,7 @@
         <v>0.05</v>
       </c>
       <c r="U161" t="n">
-        <v>0</v>
+        <v>821.25</v>
       </c>
       <c r="V161" t="n">
         <v>0</v>
@@ -17592,7 +17592,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U162" t="n">
-        <v>0</v>
+        <v>65772</v>
       </c>
       <c r="V162" t="n">
         <v>0</v>
@@ -17699,7 +17699,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U163" t="n">
-        <v>0</v>
+        <v>7630</v>
       </c>
       <c r="V163" t="n">
         <v>0</v>
@@ -17806,7 +17806,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U164" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="V164" t="n">
         <v>0</v>
@@ -17913,7 +17913,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U165" t="n">
-        <v>0</v>
+        <v>7630</v>
       </c>
       <c r="V165" t="n">
         <v>0</v>
@@ -18020,7 +18020,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U166" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="V166" t="n">
         <v>0</v>
@@ -18127,7 +18127,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U167" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="V167" t="n">
         <v>0</v>
@@ -18234,7 +18234,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U168" t="n">
-        <v>0</v>
+        <v>6201</v>
       </c>
       <c r="V168" t="n">
         <v>0</v>
@@ -18342,7 +18342,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U169" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="V169" t="n">
         <v>0</v>
@@ -18449,7 +18449,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U170" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="V170" t="n">
         <v>0</v>
@@ -18556,7 +18556,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U171" t="n">
-        <v>0</v>
+        <v>26800</v>
       </c>
       <c r="V171" t="n">
         <v>0</v>
@@ -18663,7 +18663,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U172" t="n">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="V172" t="n">
         <v>0</v>
@@ -18770,7 +18770,7 @@
         <v>0.05</v>
       </c>
       <c r="U173" t="n">
-        <v>0</v>
+        <v>22050</v>
       </c>
       <c r="V173" t="n">
         <v>0</v>
@@ -18877,7 +18877,7 @@
         <v>0.05</v>
       </c>
       <c r="U174" t="n">
-        <v>0</v>
+        <v>31590</v>
       </c>
       <c r="V174" t="n">
         <v>0</v>
@@ -18984,7 +18984,7 @@
         <v>0.05</v>
       </c>
       <c r="U175" t="n">
-        <v>0</v>
+        <v>1077</v>
       </c>
       <c r="V175" t="n">
         <v>0</v>
@@ -19091,7 +19091,7 @@
         <v>0.05</v>
       </c>
       <c r="U176" t="n">
-        <v>0</v>
+        <v>877.5</v>
       </c>
       <c r="V176" t="n">
         <v>0</v>
@@ -19198,7 +19198,7 @@
         <v>0.05</v>
       </c>
       <c r="U177" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="V177" t="n">
         <v>0</v>
@@ -19305,7 +19305,7 @@
         <v>0.05</v>
       </c>
       <c r="U178" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="V178" t="n">
         <v>0</v>
@@ -19412,7 +19412,7 @@
         <v>0.05</v>
       </c>
       <c r="U179" t="n">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="V179" t="n">
         <v>0</v>
@@ -19519,7 +19519,7 @@
         <v>0.05</v>
       </c>
       <c r="U180" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="V180" t="n">
         <v>0</v>
@@ -19626,7 +19626,7 @@
         <v>0.05</v>
       </c>
       <c r="U181" t="n">
-        <v>0</v>
+        <v>2875.5</v>
       </c>
       <c r="V181" t="n">
         <v>0</v>
@@ -19733,7 +19733,7 @@
         <v>0.05</v>
       </c>
       <c r="U182" t="n">
-        <v>0</v>
+        <v>243.75</v>
       </c>
       <c r="V182" t="n">
         <v>0</v>
@@ -19840,7 +19840,7 @@
         <v>0.05</v>
       </c>
       <c r="U183" t="n">
-        <v>0</v>
+        <v>536.25</v>
       </c>
       <c r="V183" t="n">
         <v>0</v>
@@ -19948,7 +19948,7 @@
         <v>0.05</v>
       </c>
       <c r="U184" t="n">
-        <v>0</v>
+        <v>682.5</v>
       </c>
       <c r="V184" t="n">
         <v>0</v>
@@ -20055,7 +20055,7 @@
         <v>0.05</v>
       </c>
       <c r="U185" t="n">
-        <v>0</v>
+        <v>263.25</v>
       </c>
       <c r="V185" t="n">
         <v>0</v>
@@ -20162,7 +20162,7 @@
         <v>0.05</v>
       </c>
       <c r="U186" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="V186" t="n">
         <v>0</v>
@@ -20269,7 +20269,7 @@
         <v>0.05</v>
       </c>
       <c r="U187" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="V187" t="n">
         <v>0</v>
@@ -20376,7 +20376,7 @@
         <v>0.05</v>
       </c>
       <c r="U188" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="V188" t="n">
         <v>0</v>
@@ -20483,7 +20483,7 @@
         <v>0.05</v>
       </c>
       <c r="U189" t="n">
-        <v>0</v>
+        <v>18750</v>
       </c>
       <c r="V189" t="n">
         <v>0</v>
@@ -20590,7 +20590,7 @@
         <v>0.05</v>
       </c>
       <c r="U190" t="n">
-        <v>0</v>
+        <v>3735</v>
       </c>
       <c r="V190" t="n">
         <v>0</v>
@@ -20697,7 +20697,7 @@
         <v>0.05</v>
       </c>
       <c r="U191" t="n">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="V191" t="n">
         <v>0</v>
@@ -20804,7 +20804,7 @@
         <v>0.05</v>
       </c>
       <c r="U192" t="n">
-        <v>0</v>
+        <v>562.5</v>
       </c>
       <c r="V192" t="n">
         <v>0</v>
@@ -20911,7 +20911,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U193" t="n">
-        <v>0</v>
+        <v>2220</v>
       </c>
       <c r="V193" t="n">
         <v>0</v>
@@ -21018,7 +21018,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U194" t="n">
-        <v>0</v>
+        <v>5980</v>
       </c>
       <c r="V194" t="n">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U195" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="V195" t="n">
         <v>0</v>
@@ -21232,7 +21232,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U196" t="n">
-        <v>0</v>
+        <v>2430</v>
       </c>
       <c r="V196" t="n">
         <v>0</v>
@@ -21339,7 +21339,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U197" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="V197" t="n">
         <v>0</v>
@@ -21446,7 +21446,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U198" t="n">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="V198" t="n">
         <v>0</v>
@@ -21553,7 +21553,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U199" t="n">
-        <v>0</v>
+        <v>3675</v>
       </c>
       <c r="V199" t="n">
         <v>0</v>
@@ -21660,7 +21660,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U200" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="V200" t="n">
         <v>0</v>
@@ -21767,7 +21767,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U201" t="n">
-        <v>0</v>
+        <v>412.5</v>
       </c>
       <c r="V201" t="n">
         <v>0</v>
@@ -21874,7 +21874,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U202" t="n">
-        <v>0</v>
+        <v>2625</v>
       </c>
       <c r="V202" t="n">
         <v>0</v>
@@ -21981,7 +21981,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U203" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="V203" t="n">
         <v>0</v>
@@ -22088,7 +22088,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U204" t="n">
-        <v>0</v>
+        <v>17220</v>
       </c>
       <c r="V204" t="n">
         <v>0</v>
@@ -22195,7 +22195,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U205" t="n">
-        <v>0</v>
+        <v>39300</v>
       </c>
       <c r="V205" t="n">
         <v>0</v>
@@ -22302,7 +22302,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U206" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="V206" t="n">
         <v>0</v>
@@ -22409,7 +22409,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U207" t="n">
-        <v>0</v>
+        <v>4468</v>
       </c>
       <c r="V207" t="n">
         <v>0</v>
@@ -22516,7 +22516,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U208" t="n">
-        <v>0</v>
+        <v>10472</v>
       </c>
       <c r="V208" t="n">
         <v>0</v>
@@ -22623,7 +22623,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U209" t="n">
-        <v>0</v>
+        <v>2375</v>
       </c>
       <c r="V209" t="n">
         <v>0</v>
@@ -22730,7 +22730,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U210" t="n">
-        <v>0</v>
+        <v>3135</v>
       </c>
       <c r="V210" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U211" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="V211" t="n">
         <v>0</v>
@@ -22944,7 +22944,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U212" t="n">
-        <v>0</v>
+        <v>1206</v>
       </c>
       <c r="V212" t="n">
         <v>0</v>
@@ -23051,7 +23051,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U213" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="V213" t="n">
         <v>0</v>
@@ -23158,7 +23158,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U214" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="V214" t="n">
         <v>0</v>
@@ -23265,7 +23265,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U215" t="n">
-        <v>0</v>
+        <v>4640</v>
       </c>
       <c r="V215" t="n">
         <v>0</v>
@@ -23372,7 +23372,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U216" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="V216" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U217" t="n">
-        <v>0</v>
+        <v>15750</v>
       </c>
       <c r="V217" t="n">
         <v>0</v>
@@ -23586,7 +23586,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U218" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="V218" t="n">
         <v>0</v>
@@ -23693,7 +23693,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U219" t="n">
-        <v>0</v>
+        <v>19500</v>
       </c>
       <c r="V219" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U220" t="n">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="V220" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U221" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="V221" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U222" t="n">
-        <v>0</v>
+        <v>2565</v>
       </c>
       <c r="V222" t="n">
         <v>0</v>
@@ -24121,7 +24121,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U223" t="n">
-        <v>0</v>
+        <v>8775</v>
       </c>
       <c r="V223" t="n">
         <v>0</v>
@@ -24228,7 +24228,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U224" t="n">
-        <v>0</v>
+        <v>6120</v>
       </c>
       <c r="V224" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U225" t="n">
-        <v>0</v>
+        <v>828.75</v>
       </c>
       <c r="V225" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U226" t="n">
-        <v>0</v>
+        <v>16275</v>
       </c>
       <c r="V226" t="n">
         <v>0</v>
@@ -24549,7 +24549,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U227" t="n">
-        <v>0</v>
+        <v>21400</v>
       </c>
       <c r="V227" t="n">
         <v>0</v>
@@ -24656,7 +24656,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U228" t="n">
-        <v>0</v>
+        <v>3315</v>
       </c>
       <c r="V228" t="n">
         <v>0</v>
@@ -24763,7 +24763,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U229" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="V229" t="n">
         <v>0</v>
@@ -24870,7 +24870,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U230" t="n">
-        <v>0</v>
+        <v>2940</v>
       </c>
       <c r="V230" t="n">
         <v>0</v>
@@ -24977,7 +24977,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U231" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="V231" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U232" t="n">
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="V232" t="n">
         <v>0</v>
@@ -25191,7 +25191,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U233" t="n">
-        <v>0</v>
+        <v>11430</v>
       </c>
       <c r="V233" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U234" t="n">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="V234" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U235" t="n">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="V235" t="n">
         <v>0</v>
@@ -25512,7 +25512,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U236" t="n">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="V236" t="n">
         <v>0</v>
@@ -25619,7 +25619,7 @@
         <v>0.1</v>
       </c>
       <c r="U237" t="n">
-        <v>0</v>
+        <v>67874.625</v>
       </c>
       <c r="V237" t="n">
         <v>0</v>
@@ -25726,7 +25726,7 @@
         <v>0.1</v>
       </c>
       <c r="U238" t="n">
-        <v>0</v>
+        <v>12757.5</v>
       </c>
       <c r="V238" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0.1</v>
       </c>
       <c r="U239" t="n">
-        <v>0</v>
+        <v>8775</v>
       </c>
       <c r="V239" t="n">
         <v>0</v>
@@ -25940,7 +25940,7 @@
         <v>0.1</v>
       </c>
       <c r="U240" t="n">
-        <v>0</v>
+        <v>16668</v>
       </c>
       <c r="V240" t="n">
         <v>0</v>
@@ -26047,7 +26047,7 @@
         <v>0.1</v>
       </c>
       <c r="U241" t="n">
-        <v>0</v>
+        <v>6715.5</v>
       </c>
       <c r="V241" t="n">
         <v>0</v>
@@ -26154,7 +26154,7 @@
         <v>0.05</v>
       </c>
       <c r="U242" t="n">
-        <v>0</v>
+        <v>8655.165000000001</v>
       </c>
       <c r="V242" t="n">
         <v>0</v>
@@ -26261,7 +26261,7 @@
         <v>0.05</v>
       </c>
       <c r="U243" t="n">
-        <v>0</v>
+        <v>35392.72500000001</v>
       </c>
       <c r="V243" t="n">
         <v>0</v>
@@ -26368,7 +26368,7 @@
         <v>0.05</v>
       </c>
       <c r="U244" t="n">
-        <v>0</v>
+        <v>21270.825</v>
       </c>
       <c r="V244" t="n">
         <v>0</v>
@@ -26475,7 +26475,7 @@
         <v>0.05</v>
       </c>
       <c r="U245" t="n">
-        <v>0</v>
+        <v>31785.255</v>
       </c>
       <c r="V245" t="n">
         <v>0</v>
@@ -26582,7 +26582,7 @@
         <v>0.05</v>
       </c>
       <c r="U246" t="n">
-        <v>0</v>
+        <v>15507.36</v>
       </c>
       <c r="V246" t="n">
         <v>0</v>
@@ -26689,7 +26689,7 @@
         <v>0.05</v>
       </c>
       <c r="U247" t="n">
-        <v>0</v>
+        <v>40543.02</v>
       </c>
       <c r="V247" t="n">
         <v>0</v>
@@ -26796,7 +26796,7 @@
         <v>0.05</v>
       </c>
       <c r="U248" t="n">
-        <v>0</v>
+        <v>8797.5</v>
       </c>
       <c r="V248" t="n">
         <v>0</v>
@@ -26903,7 +26903,7 @@
         <v>0.05</v>
       </c>
       <c r="U249" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="V249" t="n">
         <v>0</v>
@@ -27010,7 +27010,7 @@
         <v>0.05</v>
       </c>
       <c r="U250" t="n">
-        <v>0</v>
+        <v>17272.8675</v>
       </c>
       <c r="V250" t="n">
         <v>0</v>
@@ -27117,7 +27117,7 @@
         <v>0.05</v>
       </c>
       <c r="U251" t="n">
-        <v>0</v>
+        <v>7858.125</v>
       </c>
       <c r="V251" t="n">
         <v>0</v>
@@ -27224,7 +27224,7 @@
         <v>0.05</v>
       </c>
       <c r="U252" t="n">
-        <v>0</v>
+        <v>4275</v>
       </c>
       <c r="V252" t="n">
         <v>0</v>
@@ -27331,7 +27331,7 @@
         <v>0.05</v>
       </c>
       <c r="U253" t="n">
-        <v>0</v>
+        <v>10362</v>
       </c>
       <c r="V253" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0.05</v>
       </c>
       <c r="U254" t="n">
-        <v>0</v>
+        <v>106276.95</v>
       </c>
       <c r="V254" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0.05</v>
       </c>
       <c r="U255" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="V255" t="n">
         <v>0</v>
@@ -27652,7 +27652,7 @@
         <v>0.05</v>
       </c>
       <c r="U256" t="n">
-        <v>0</v>
+        <v>89520.75</v>
       </c>
       <c r="V256" t="n">
         <v>0</v>
@@ -27759,7 +27759,7 @@
         <v>0.05</v>
       </c>
       <c r="U257" t="n">
-        <v>0</v>
+        <v>6466.9275</v>
       </c>
       <c r="V257" t="n">
         <v>0</v>
@@ -27866,7 +27866,7 @@
         <v>0.05</v>
       </c>
       <c r="U258" t="n">
-        <v>0</v>
+        <v>16380</v>
       </c>
       <c r="V258" t="n">
         <v>0</v>
@@ -27973,7 +27973,7 @@
         <v>0.05</v>
       </c>
       <c r="U259" t="n">
-        <v>0</v>
+        <v>5906.25</v>
       </c>
       <c r="V259" t="n">
         <v>0</v>
@@ -28080,7 +28080,7 @@
         <v>0.05</v>
       </c>
       <c r="U260" t="n">
-        <v>0</v>
+        <v>16537.5</v>
       </c>
       <c r="V260" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0.05</v>
       </c>
       <c r="U261" t="n">
-        <v>0</v>
+        <v>32376.825</v>
       </c>
       <c r="V261" t="n">
         <v>0</v>
@@ -28294,7 +28294,7 @@
         <v>0.05</v>
       </c>
       <c r="U262" t="n">
-        <v>0</v>
+        <v>5458.1625</v>
       </c>
       <c r="V262" t="n">
         <v>0</v>
@@ -28401,7 +28401,7 @@
         <v>0.05</v>
       </c>
       <c r="U263" t="n">
-        <v>0</v>
+        <v>13006.26</v>
       </c>
       <c r="V263" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0.05</v>
       </c>
       <c r="U264" t="n">
-        <v>0</v>
+        <v>37639.55250000001</v>
       </c>
       <c r="V264" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0.05</v>
       </c>
       <c r="U265" t="n">
-        <v>0</v>
+        <v>5591.25</v>
       </c>
       <c r="V265" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0.05</v>
       </c>
       <c r="U266" t="n">
-        <v>0</v>
+        <v>4751.1</v>
       </c>
       <c r="V266" t="n">
         <v>0</v>
@@ -28829,7 +28829,7 @@
         <v>0.05</v>
       </c>
       <c r="U267" t="n">
-        <v>0</v>
+        <v>3225</v>
       </c>
       <c r="V267" t="n">
         <v>0</v>
@@ -28936,7 +28936,7 @@
         <v>0.05</v>
       </c>
       <c r="U268" t="n">
-        <v>0</v>
+        <v>21750</v>
       </c>
       <c r="V268" t="n">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0.05</v>
       </c>
       <c r="U269" t="n">
-        <v>0</v>
+        <v>5440.08</v>
       </c>
       <c r="V269" t="n">
         <v>0</v>
@@ -29150,7 +29150,7 @@
         <v>0.05</v>
       </c>
       <c r="U270" t="n">
-        <v>0</v>
+        <v>12480</v>
       </c>
       <c r="V270" t="n">
         <v>0</v>
@@ -29257,7 +29257,7 @@
         <v>0.05</v>
       </c>
       <c r="U271" t="n">
-        <v>0</v>
+        <v>11212.5</v>
       </c>
       <c r="V271" t="n">
         <v>0</v>
@@ -29364,7 +29364,7 @@
         <v>0.05</v>
       </c>
       <c r="U272" t="n">
-        <v>0</v>
+        <v>21090</v>
       </c>
       <c r="V272" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0.05</v>
       </c>
       <c r="U273" t="n">
-        <v>0</v>
+        <v>20127.9375</v>
       </c>
       <c r="V273" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0.05</v>
       </c>
       <c r="U274" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="V274" t="n">
         <v>0</v>
@@ -29685,7 +29685,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U275" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="V275" t="n">
         <v>0</v>
@@ -29792,7 +29792,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U276" t="n">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="V276" t="n">
         <v>0</v>
@@ -29899,7 +29899,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U277" t="n">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="V277" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U278" t="n">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="V278" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U279" t="n">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="V279" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U280" t="n">
-        <v>0</v>
+        <v>10160</v>
       </c>
       <c r="V280" t="n">
         <v>0</v>
@@ -30327,7 +30327,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U281" t="n">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="V281" t="n">
         <v>0</v>
@@ -30434,7 +30434,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U282" t="n">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="V282" t="n">
         <v>0</v>
@@ -30541,7 +30541,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U283" t="n">
-        <v>0</v>
+        <v>44160</v>
       </c>
       <c r="V283" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U284" t="n">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="V284" t="n">
         <v>0</v>
@@ -30755,7 +30755,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U285" t="n">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="V285" t="n">
         <v>0</v>
@@ -30862,7 +30862,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U286" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="V286" t="n">
         <v>0</v>
@@ -30969,7 +30969,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U287" t="n">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="V287" t="n">
         <v>0</v>
@@ -31076,7 +31076,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U288" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="V288" t="n">
         <v>0</v>
@@ -31183,7 +31183,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U289" t="n">
-        <v>0</v>
+        <v>84500</v>
       </c>
       <c r="V289" t="n">
         <v>0</v>
@@ -31290,7 +31290,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U290" t="n">
-        <v>0</v>
+        <v>1690</v>
       </c>
       <c r="V290" t="n">
         <v>0</v>
@@ -31397,7 +31397,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U291" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="V291" t="n">
         <v>0</v>
@@ -31504,7 +31504,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U292" t="n">
-        <v>0</v>
+        <v>4680</v>
       </c>
       <c r="V292" t="n">
         <v>0</v>
@@ -31611,7 +31611,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U293" t="n">
-        <v>0</v>
+        <v>23686</v>
       </c>
       <c r="V293" t="n">
         <v>0</v>
@@ -31718,7 +31718,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U294" t="n">
-        <v>0</v>
+        <v>1787.5</v>
       </c>
       <c r="V294" t="n">
         <v>0</v>
@@ -31825,7 +31825,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U295" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="V295" t="n">
         <v>0</v>
@@ -31932,7 +31932,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U296" t="n">
-        <v>0</v>
+        <v>236472</v>
       </c>
       <c r="V296" t="n">
         <v>0</v>
@@ -32039,7 +32039,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U297" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="V297" t="n">
         <v>0</v>
@@ -32146,7 +32146,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U298" t="n">
-        <v>0</v>
+        <v>15760</v>
       </c>
       <c r="V298" t="n">
         <v>0</v>
@@ -32253,7 +32253,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U299" t="n">
-        <v>0</v>
+        <v>10020</v>
       </c>
       <c r="V299" t="n">
         <v>0</v>
@@ -32360,7 +32360,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U300" t="n">
-        <v>0</v>
+        <v>37600</v>
       </c>
       <c r="V300" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="U301" t="n">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="V301" t="n">
         <v>0</v>

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-01.0</t>
+          <t>FRC-HQ-SLM-0-17-01.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-02.0</t>
+          <t>FRC-HQ-SLM-0-17-02.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-03.0</t>
+          <t>FRC-HQ-SLM-0-17-03.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-04.0</t>
+          <t>FRC-HQ-SLM-0-17-04.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-05.0</t>
+          <t>FRC-HQ-SLM-0-17-05.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-06.0</t>
+          <t>FRC-HQ-SLM-0-17-06.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-07.0</t>
+          <t>FRC-HQ-SLM-0-17-07.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-08.0</t>
+          <t>FRC-HQ-SLM-0-17-08.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1356,12 +1356,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-09.0</t>
+          <t>FRC-HQ-SLM-0-17-09.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-10.0</t>
+          <t>FRC-HQ-SLM-0-17-10.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-11.0</t>
+          <t>FRC-HQ-SLM-0-17-11.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1669,12 +1669,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-12.0</t>
+          <t>FRC-HQ-SLM-0-17-12.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-13.0</t>
+          <t>FRC-HQ-SLM-0-17-13.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-14.0</t>
+          <t>FRC-HQ-SLM-0-17-14.0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-15.0</t>
+          <t>FRC-HQ-SLM-0-17-15.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-16.0</t>
+          <t>FRC-HQ-SLM-0-17-16.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2196,12 +2196,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-17.0</t>
+          <t>FRC-HQ-SLM-0-17-17.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-18.0</t>
+          <t>FRC-HQ-SLM-0-17-18.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-19.0</t>
+          <t>FRC-HQ-SLM-0-17-19.0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-20.0</t>
+          <t>FRC-HQ-SLM-0-17-20.0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-21.0</t>
+          <t>FRC-HQ-SLM-0-17-21.0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-22.0</t>
+          <t>FRC-HQ-SLM-0-17-22.0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2836,12 +2836,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-23.0</t>
+          <t>FRC-HQ-SLM-0-17-23.0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-24.0</t>
+          <t>FRC-HQ-SLM-0-17-24.0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-25.0</t>
+          <t>FRC-HQ-SLM-0-17-25.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-26.0</t>
+          <t>FRC-HQ-SLM-0-17-26.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-27.0</t>
+          <t>FRC-HQ-SLM-0-17-27.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-28.0</t>
+          <t>FRC-HQ-SLM-0-17-28.0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-29.0</t>
+          <t>FRC-HQ-SLM-0-17-29.0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-30.0</t>
+          <t>FRC-HQ-SLM-0-17-30.0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-31.0</t>
+          <t>FRC-HQ-SLM-0-17-31.0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-32.0</t>
+          <t>FRC-HQ-SLM-0-17-32.0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-33.0</t>
+          <t>FRC-HQ-SLM-0-17-33.0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-34.0</t>
+          <t>FRC-HQ-SLM-0-17-34.0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-35.0</t>
+          <t>FRC-HQ-SLM-0-17-35.0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-36.0</t>
+          <t>FRC-HQ-SLM-0-17-36.0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4306,12 +4306,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-37.0</t>
+          <t>FRC-HQ-SLM-0-17-37.0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-38.0</t>
+          <t>FRC-HQ-SLM-0-17-38.0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-39.0</t>
+          <t>FRC-HQ-SLM-0-17-39.0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-40.0</t>
+          <t>FRC-HQ-SLM-0-17-40.0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-41.0</t>
+          <t>FRC-HQ-SLM-0-17-41.0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4835,12 +4835,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-42.0</t>
+          <t>FRC-HQ-SLM-0-17-42.0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-43.0</t>
+          <t>FRC-HQ-SLM-0-17-43.0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-44.0</t>
+          <t>FRC-HQ-SLM-0-17-44.0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-45.0</t>
+          <t>FRC-HQ-SLM-0-17-45.0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5259,12 +5259,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-46.0</t>
+          <t>FRC-HQ-SLM-0-17-46.0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5364,12 +5364,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-47.0</t>
+          <t>FRC-HQ-SLM-0-17-47.0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-48.0</t>
+          <t>FRC-HQ-SLM-0-17-48.0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-49.0</t>
+          <t>FRC-HQ-SLM-0-17-49.0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-50.0</t>
+          <t>FRC-HQ-SLM-0-17-50.0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-51.0</t>
+          <t>FRC-HQ-SLM-0-17-51.0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-52.0</t>
+          <t>FRC-HQ-SLM-0-17-52.0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-53.0</t>
+          <t>FRC-HQ-SLM-0-17-53.0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-54.0</t>
+          <t>FRC-HQ-SLM-0-18-54.0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-55.0</t>
+          <t>FRC-HQ-SLM-0-18-55.0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-56.0</t>
+          <t>FRC-HQ-SLM-0-18-56.0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-57.0</t>
+          <t>FRC-HQ-SLM-0-18-57.0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-58.0</t>
+          <t>FRC-HQ-SLM-0-18-58.0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-59.0</t>
+          <t>FRC-HQ-SLM-0-18-59.0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-60.0</t>
+          <t>FRC-HQ-SLM-0-18-60.0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6884,12 +6884,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-61.0</t>
+          <t>FRC-HQ-SLM-0-18-61.0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6989,12 +6989,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-62.0</t>
+          <t>FRC-HQ-SLM-0-18-62.0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-63.0</t>
+          <t>FRC-HQ-SLM-0-18-63.0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-64.0</t>
+          <t>FRC-HQ-SLM-0-18-64.0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-65.0</t>
+          <t>FRC-HQ-SLM-0-18-65.0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-66.0</t>
+          <t>FRC-HQ-SLM-0-18-66.0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7518,12 +7518,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-67.0</t>
+          <t>FRC-HQ-SLM-0-18-67.0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-68.0</t>
+          <t>FRC-HQ-SLM-0-18-68.0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7733,7 +7733,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-69.0</t>
+          <t>FRC-HQ-SLM-0-18-69.0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-70.0</t>
+          <t>FRC-HQ-SLM-0-18-70.0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-71.0</t>
+          <t>FRC-HQ-SLM-0-18-71.0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8047,12 +8047,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-72.0</t>
+          <t>FRC-HQ-SLM-0-18-72.0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-73.0</t>
+          <t>FRC-HQ-SLM-0-18-73.0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-74.0</t>
+          <t>FRC-HQ-SLM-0-18-74.0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-75.0</t>
+          <t>FRC-HQ-SLM-0-18-75.0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-76.0</t>
+          <t>FRC-HQ-SLM-0-18-76.0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-77.0</t>
+          <t>FRC-HQ-SLM-0-18-77.0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-78.0</t>
+          <t>FRC-HQ-SLM-0-18-78.0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-79.0</t>
+          <t>FRC-HQ-SLM-0-18-79.0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8885,12 +8885,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-80.0</t>
+          <t>FRC-HQ-SLM-0-18-80.0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-81.0</t>
+          <t>FRC-HQ-SLM-0-18-81.0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-82.0</t>
+          <t>FRC-HQ-SLM-0-18-82.0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-83.0</t>
+          <t>FRC-HQ-SLM-0-18-83.0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-84.0</t>
+          <t>FRC-HQ-SLM-0-18-84.0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9410,12 +9410,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-85.0</t>
+          <t>FRC-HQ-SLM-0-18-85.0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-86.0</t>
+          <t>FRC-HQ-SLM-0-18-86.0</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-87.0</t>
+          <t>FRC-HQ-SLM-0-18-87.0</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9725,12 +9725,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-88.0</t>
+          <t>FRC-HQ-SLM-0-18-88.0</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-89.0</t>
+          <t>FRC-HQ-SLM-0-18-89.0</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-90.0</t>
+          <t>FRC-HQ-SLM-0-18-90.0</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-91.0</t>
+          <t>FRC-HQ-SLM-0-18-91.0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-92.0</t>
+          <t>FRC-HQ-SLM-0-18-92.0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -10334,7 +10334,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-93.0</t>
+          <t>FRC-HQ-SLM-0-18-93.0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -10368,7 +10368,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -10443,7 +10443,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-94.0</t>
+          <t>FRC-HQ-SLM-0-18-94.0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-95.0</t>
+          <t>FRC-HQ-SLM-0-18-95.0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -10586,7 +10586,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K96" t="n">
@@ -10655,7 +10655,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-96.0</t>
+          <t>FRC-HQ-SLM-0-18-96.0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10684,12 +10684,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -10760,7 +10760,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-97.0</t>
+          <t>FRC-HQ-SLM-0-18-97.0</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-98.0</t>
+          <t>FRC-HQ-SLM-0-18-98.0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -10968,7 +10968,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-99.0</t>
+          <t>FRC-HQ-SLM-0-18-99.0</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-100.0</t>
+          <t>FRC-HQ-SLM-0-18-100.0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -11102,12 +11102,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -11178,7 +11178,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-101.0</t>
+          <t>FRC-HQ-SLM-0-18-101.0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -11207,12 +11207,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-102.0</t>
+          <t>FRC-HQ-SLM-0-18-102.0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -11312,12 +11312,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -11388,7 +11388,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-103.0</t>
+          <t>FRC-HQ-SLM-0-18-103.0</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-104.0</t>
+          <t>FRC-HQ-SLM-0-18-104.0</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -11526,12 +11526,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K105" t="n">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-105.0</t>
+          <t>FRC-HQ-SLM-0-18-105.0</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -11705,7 +11705,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-106.0</t>
+          <t>FRC-HQ-SLM-0-18-106.0</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -11814,7 +11814,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-107.0</t>
+          <t>FRC-HQ-SLM-0-18-107.0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-108.0</t>
+          <t>FRC-HQ-SLM-0-18-108.0</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -12024,7 +12024,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-109.0</t>
+          <t>FRC-HQ-SLM-0-18-109.0</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -12053,12 +12053,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -12129,7 +12129,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-110.0</t>
+          <t>FRC-HQ-SLM-0-18-110.0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-111.0</t>
+          <t>FRC-HQ-SLM-0-19-111.0</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -12347,7 +12347,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-112.0</t>
+          <t>FRC-HQ-SLM-0-19-112.0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -12456,7 +12456,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-113.0</t>
+          <t>FRC-HQ-SLM-0-19-113.0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -12490,7 +12490,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -12565,7 +12565,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-114.0</t>
+          <t>FRC-HQ-SLM-0-19-114.0</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -12599,7 +12599,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -12670,7 +12670,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-115.0</t>
+          <t>FRC-HQ-SLM-0-19-115.0</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-116.0</t>
+          <t>FRC-HQ-SLM-0-19-116.0</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -12880,7 +12880,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-117.0</t>
+          <t>FRC-HQ-SLM-0-19-117.0</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -12914,7 +12914,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -12989,7 +12989,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-118.0</t>
+          <t>FRC-HQ-SLM-0-19-118.0</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-119.0</t>
+          <t>FRC-HQ-SLM-0-19-119.0</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-120.0</t>
+          <t>FRC-HQ-SLM-0-19-120.0</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -13304,7 +13304,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-121.0</t>
+          <t>FRC-HQ-SLM-0-19-121.0</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -13338,7 +13338,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -13409,7 +13409,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-122.0</t>
+          <t>FRC-HQ-SLM-0-19-122.0</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-123.0</t>
+          <t>FRC-HQ-SLM-0-19-123.0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -13619,7 +13619,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-124.0</t>
+          <t>FRC-HQ-SLM-0-19-124.0</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -13724,7 +13724,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-125.0</t>
+          <t>FRC-HQ-SLM-0-19-125.0</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -13753,12 +13753,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -13829,7 +13829,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-126.0</t>
+          <t>FRC-HQ-SLM-0-19-126.0</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -13934,7 +13934,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-127.0</t>
+          <t>FRC-HQ-SLM-0-19-127.0</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -13968,7 +13968,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -14039,7 +14039,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-128.0</t>
+          <t>FRC-HQ-SLM-0-19-128.0</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -14144,7 +14144,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-129.0</t>
+          <t>FRC-HQ-SLM-0-20-129.0</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -14249,7 +14249,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-130.0</t>
+          <t>FRC-HQ-SLM-0-20-130.0</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -14354,7 +14354,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-131.0</t>
+          <t>FRC-HQ-SLM-0-20-131.0</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-132.0</t>
+          <t>FRC-HQ-SLM-0-20-132.0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -14493,7 +14493,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -14564,7 +14564,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-133.0</t>
+          <t>FRC-HQ-SLM-0-20-133.0</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -14669,7 +14669,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-134.0</t>
+          <t>FRC-HQ-SLM-0-20-134.0</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -14774,7 +14774,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-135.0</t>
+          <t>FRC-HQ-SLM-0-20-135.0</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -14879,7 +14879,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-136.0</t>
+          <t>FRC-HQ-SLM-0-20-136.0</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -14908,12 +14908,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -14984,7 +14984,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-137.0</t>
+          <t>FRC-HQ-SLM-0-20-137.0</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -15089,7 +15089,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-138.0</t>
+          <t>FRC-HQ-SLM-0-20-138.0</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -15194,7 +15194,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-139.0</t>
+          <t>FRC-HQ-SLM-0-20-139.0</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-140.0</t>
+          <t>FRC-HQ-SLM-0-20-140.0</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-141.0</t>
+          <t>FRC-HQ-SLM-0-20-141.0</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -15438,7 +15438,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -15509,7 +15509,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-142.0</t>
+          <t>FRC-HQ-SLM-0-20-142.0</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-143.0</t>
+          <t>FRC-HQ-SLM-0-21-143.0</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -15719,7 +15719,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-144.0</t>
+          <t>FRC-HQ-SLM-0-21-144.0</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -15748,12 +15748,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K145" t="n">
@@ -15822,7 +15822,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-22-145.0</t>
+          <t>FRC-HQ-SLM-0-21-145.0</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -15927,7 +15927,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-22-146.0</t>
+          <t>FRC-HQ-SLM-0-21-146.0</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -16032,7 +16032,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-22-147.0</t>
+          <t>FRC-HQ-SLM-0-21-147.0</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-22-148.0</t>
+          <t>FRC-HQ-SLM-0-21-148.0</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -16166,12 +16166,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K149" t="n">
@@ -16240,7 +16240,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-22-149.0</t>
+          <t>FRC-HQ-SLM-0-21-149.0</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-22-150.0</t>
+          <t>FRC-HQ-SLM-0-21-150.0</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -16450,7 +16450,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-152.0</t>
+          <t>FRC-HQ-SLM-0-21-152.0</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -16481,12 +16481,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -16557,7 +16557,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-153.0</t>
+          <t>FRC-HQ-SLM-0-21-153.0</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -16588,12 +16588,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -16664,7 +16664,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-154.0</t>
+          <t>FRC-HQ-SLM-0-21-154.0</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -16680,7 +16680,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -16695,12 +16695,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -16771,7 +16771,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-155.0</t>
+          <t>FRC-HQ-SLM-0-21-155.0</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -16802,12 +16802,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -16878,7 +16878,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-156.0</t>
+          <t>FRC-HQ-SLM-0-21-156.0</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -16894,7 +16894,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -16909,12 +16909,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -16985,7 +16985,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-157.0</t>
+          <t>FRC-HQ-SLM-0-21-157.0</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -17001,7 +17001,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -17016,12 +17016,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -17092,7 +17092,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-158.0</t>
+          <t>FRC-HQ-SLM-0-21-158.0</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -17123,12 +17123,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -17199,7 +17199,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-159.0</t>
+          <t>FRC-HQ-SLM-0-21-159.0</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -17230,12 +17230,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -17306,7 +17306,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-160.0</t>
+          <t>FRC-HQ-SLM-0-21-160.0</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -17322,7 +17322,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -17337,12 +17337,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -17413,7 +17413,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-161.0</t>
+          <t>FRC-HQ-SLM-0-21-161.0</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -17429,7 +17429,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -17444,12 +17444,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -17520,7 +17520,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-162.0</t>
+          <t>FRC-HQ-SLM-0-21-162.0</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -17536,7 +17536,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -17551,12 +17551,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -17627,7 +17627,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-163.0</t>
+          <t>FRC-HQ-SLM-0-21-163.0</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -17643,7 +17643,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -17658,12 +17658,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -17734,7 +17734,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-164.0</t>
+          <t>FRC-HQ-SLM-0-21-164.0</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -17750,7 +17750,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -17765,12 +17765,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -17841,7 +17841,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-165.0</t>
+          <t>FRC-HQ-SLM-0-21-165.0</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -17872,12 +17872,12 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-166.0</t>
+          <t>FRC-HQ-SLM-0-21-166.0</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -17964,7 +17964,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -17979,12 +17979,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -18055,7 +18055,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-167.0</t>
+          <t>FRC-HQ-SLM-0-21-167.0</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -18071,7 +18071,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -18086,12 +18086,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -18162,7 +18162,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-168.0</t>
+          <t>FRC-HQ-SLM-0-21-168.0</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -18178,7 +18178,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -18193,12 +18193,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -18269,7 +18269,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-169.0</t>
+          <t>FRC-HQ-SLM-0-21-169.0</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -18285,7 +18285,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -18301,12 +18301,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -18377,7 +18377,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-170.0</t>
+          <t>FRC-HQ-SLM-0-21-170.0</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -18393,7 +18393,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -18413,7 +18413,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -18484,7 +18484,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-171.0</t>
+          <t>FRC-HQ-SLM-0-21-171.0</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -18500,7 +18500,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -18515,12 +18515,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -18591,7 +18591,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-172.0</t>
+          <t>FRC-HQ-SLM-0-21-172.0</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -18607,7 +18607,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -18698,7 +18698,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-173.0</t>
+          <t>FRC-HQ-SLM-0-21-173.0</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -18714,7 +18714,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -18734,7 +18734,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -18805,7 +18805,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-174.0</t>
+          <t>FRC-HQ-SLM-0-21-174.0</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -18841,7 +18841,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-175.0</t>
+          <t>FRC-HQ-SLM-0-21-175.0</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -18928,7 +18928,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -19019,7 +19019,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-176.0</t>
+          <t>FRC-HQ-SLM-0-21-176.0</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -19035,7 +19035,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -19050,12 +19050,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -19126,7 +19126,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-177.0</t>
+          <t>FRC-HQ-SLM-0-21-177.0</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -19142,7 +19142,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -19157,12 +19157,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -19233,7 +19233,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-178.0</t>
+          <t>FRC-HQ-SLM-0-21-178.0</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -19249,7 +19249,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -19264,12 +19264,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -19340,7 +19340,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-179.0</t>
+          <t>FRC-HQ-SLM-0-21-179.0</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -19356,7 +19356,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -19371,12 +19371,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -19447,7 +19447,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-180.0</t>
+          <t>FRC-HQ-SLM-0-21-180.0</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -19463,7 +19463,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -19483,7 +19483,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -19554,7 +19554,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-181.0</t>
+          <t>FRC-HQ-SLM-0-21-181.0</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -19570,7 +19570,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -19585,12 +19585,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -19661,7 +19661,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-182.0</t>
+          <t>FRC-HQ-SLM-0-21-182.0</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -19677,7 +19677,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -19692,12 +19692,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-183.0</t>
+          <t>FRC-HQ-SLM-0-21-183.0</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -19784,7 +19784,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -19799,12 +19799,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -19875,7 +19875,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-184.0</t>
+          <t>FRC-HQ-SLM-0-21-184.0</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -19891,7 +19891,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -19907,12 +19907,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -19983,7 +19983,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-185.0</t>
+          <t>FRC-HQ-SLM-0-21-185.0</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -19999,7 +19999,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -20014,12 +20014,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -20090,7 +20090,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-186.0</t>
+          <t>FRC-HQ-SLM-0-21-186.0</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -20106,7 +20106,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -20121,12 +20121,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -20197,7 +20197,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-187.0</t>
+          <t>FRC-HQ-SLM-0-21-187.0</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -20213,7 +20213,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -20228,12 +20228,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-188.0</t>
+          <t>FRC-HQ-SLM-0-21-188.0</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -20320,7 +20320,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -20335,12 +20335,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -20411,7 +20411,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-189.0</t>
+          <t>FRC-HQ-SLM-0-21-189.0</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -20427,7 +20427,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -20442,12 +20442,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -20518,7 +20518,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-190.0</t>
+          <t>FRC-HQ-SLM-0-21-190.0</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -20534,7 +20534,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -20554,7 +20554,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -20625,7 +20625,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-191.0</t>
+          <t>FRC-HQ-SLM-0-21-191.0</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -20641,7 +20641,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -20661,7 +20661,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -20732,7 +20732,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-192.0</t>
+          <t>FRC-HQ-SLM-0-21-192.0</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -20763,12 +20763,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -20839,7 +20839,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-193.0</t>
+          <t>FRC-HQ-SLM-0-21-193.0</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -20855,7 +20855,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -20875,7 +20875,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -20946,7 +20946,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-194.0</t>
+          <t>FRC-HQ-SLM-0-21-194.0</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -20962,7 +20962,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -20982,7 +20982,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -21053,7 +21053,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-195.0</t>
+          <t>FRC-HQ-SLM-0-21-195.0</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -21069,7 +21069,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -21089,7 +21089,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-196.0</t>
+          <t>FRC-HQ-SLM-0-21-196.0</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -21191,12 +21191,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -21267,7 +21267,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-197.0</t>
+          <t>FRC-HQ-SLM-0-21-197.0</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -21283,7 +21283,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -21298,12 +21298,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-198.0</t>
+          <t>FRC-HQ-SLM-0-21-198.0</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -21390,7 +21390,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -21410,7 +21410,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -21481,7 +21481,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-199.0</t>
+          <t>FRC-HQ-SLM-0-21-199.0</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -21497,7 +21497,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -21517,7 +21517,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-200.0</t>
+          <t>FRC-HQ-SLM-0-21-200.0</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -21604,7 +21604,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -21624,7 +21624,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -21695,7 +21695,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-201.0</t>
+          <t>FRC-HQ-SLM-0-21-201.0</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -21711,7 +21711,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-202.0</t>
+          <t>FRC-HQ-SLM-0-21-202.0</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -21818,7 +21818,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -21838,7 +21838,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -21909,7 +21909,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-203.0</t>
+          <t>FRC-HQ-SLM-0-21-203.0</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -21925,7 +21925,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -21945,7 +21945,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -22016,7 +22016,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-204.0</t>
+          <t>FRC-HQ-SLM-0-21-204.0</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -22032,7 +22032,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -22052,7 +22052,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -22123,7 +22123,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-205.0</t>
+          <t>FRC-HQ-SLM-0-21-205.0</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -22139,7 +22139,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -22159,7 +22159,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -22230,7 +22230,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-206.0</t>
+          <t>FRC-HQ-SLM-0-21-206.0</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -22246,7 +22246,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -22266,7 +22266,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -22337,7 +22337,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-207.0</t>
+          <t>FRC-HQ-SLM-0-21-207.0</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -22353,7 +22353,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -22373,7 +22373,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-208.0</t>
+          <t>FRC-HQ-SLM-0-21-208.0</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -22460,7 +22460,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -22480,7 +22480,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -22551,7 +22551,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-209.0</t>
+          <t>FRC-HQ-SLM-0-21-209.0</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -22587,7 +22587,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -22658,7 +22658,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-210.0</t>
+          <t>FRC-HQ-SLM-0-21-210.0</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -22674,7 +22674,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -22694,7 +22694,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -22765,7 +22765,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-211.0</t>
+          <t>FRC-HQ-SLM-0-21-211.0</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -22781,7 +22781,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -22801,7 +22801,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -22872,7 +22872,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-212.0</t>
+          <t>FRC-HQ-SLM-0-21-212.0</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -22908,7 +22908,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-213.0</t>
+          <t>FRC-HQ-SLM-0-21-213.0</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -22995,7 +22995,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -23086,7 +23086,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-214.0</t>
+          <t>FRC-HQ-SLM-0-21-214.0</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -23102,7 +23102,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -23122,7 +23122,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -23193,7 +23193,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-215.0</t>
+          <t>FRC-HQ-SLM-0-21-215.0</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -23229,7 +23229,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -23300,7 +23300,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-216.0</t>
+          <t>FRC-HQ-SLM-0-21-216.0</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -23316,7 +23316,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -23407,7 +23407,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-217.0</t>
+          <t>FRC-HQ-SLM-0-21-217.0</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -23423,7 +23423,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -23443,7 +23443,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -23514,7 +23514,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-218.0</t>
+          <t>FRC-HQ-SLM-0-21-218.0</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -23530,7 +23530,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -23621,7 +23621,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-219.0</t>
+          <t>FRC-HQ-SLM-0-21-219.0</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -23637,7 +23637,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -23728,7 +23728,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-220.0</t>
+          <t>FRC-HQ-SLM-0-21-220.0</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -23744,7 +23744,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -23764,7 +23764,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -23835,7 +23835,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-221.0</t>
+          <t>FRC-HQ-SLM-0-21-221.0</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -23866,7 +23866,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -23942,7 +23942,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-222.0</t>
+          <t>FRC-HQ-SLM-0-21-222.0</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -23973,12 +23973,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -24049,7 +24049,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-223.0</t>
+          <t>FRC-HQ-SLM-0-21-223.0</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -24065,7 +24065,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -24080,12 +24080,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -24156,7 +24156,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-224.0</t>
+          <t>FRC-HQ-SLM-0-21-224.0</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -24172,7 +24172,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -24187,7 +24187,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -24263,7 +24263,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-225.0</t>
+          <t>FRC-HQ-SLM-0-21-225.0</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -24279,7 +24279,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -24294,7 +24294,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -24370,7 +24370,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-226.0</t>
+          <t>FRC-HQ-SLM-0-21-226.0</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -24401,7 +24401,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -24477,7 +24477,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-227.0</t>
+          <t>FRC-HQ-SLM-0-21-227.0</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -24493,7 +24493,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -24513,7 +24513,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -24584,7 +24584,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-228.0</t>
+          <t>FRC-HQ-SLM-0-21-228.0</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -24600,7 +24600,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -24615,12 +24615,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -24691,7 +24691,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-229.0</t>
+          <t>FRC-HQ-SLM-0-21-229.0</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -24707,7 +24707,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -24722,12 +24722,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -24798,7 +24798,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-230.0</t>
+          <t>FRC-HQ-SLM-0-21-230.0</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -24814,7 +24814,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -24829,12 +24829,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -24905,7 +24905,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-231.0</t>
+          <t>FRC-HQ-SLM-0-21-231.0</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -24921,7 +24921,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -24936,12 +24936,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -25012,7 +25012,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-232.0</t>
+          <t>FRC-HQ-SLM-0-21-232.0</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -25028,7 +25028,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -25043,12 +25043,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -25119,7 +25119,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-233.0</t>
+          <t>FRC-HQ-SLM-0-21-233.0</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -25150,12 +25150,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -25226,7 +25226,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-234.0</t>
+          <t>FRC-HQ-SLM-0-21-234.0</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -25242,7 +25242,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -25257,12 +25257,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -25333,7 +25333,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-235.0</t>
+          <t>FRC-HQ-SLM-0-21-235.0</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -25349,7 +25349,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-236.0</t>
+          <t>FRC-HQ-SLM-0-21-236.0</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -25456,7 +25456,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -25471,7 +25471,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -25547,7 +25547,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-237.0</t>
+          <t>FRC-HQ-SLM-0-21-237.0</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -25563,7 +25563,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -25578,12 +25578,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -25654,7 +25654,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-238.0</t>
+          <t>FRC-HQ-SLM-0-21-238.0</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -25670,7 +25670,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -25685,12 +25685,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -25761,7 +25761,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-239.0</t>
+          <t>FRC-HQ-SLM-0-21-239.0</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -25777,7 +25777,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -25792,12 +25792,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -25868,7 +25868,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-240.0</t>
+          <t>FRC-HQ-SLM-0-21-240.0</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -25884,7 +25884,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -25899,12 +25899,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -25975,7 +25975,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-241.0</t>
+          <t>FRC-HQ-SLM-0-21-241.0</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -25991,7 +25991,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -26006,12 +26006,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -26082,7 +26082,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-242.0</t>
+          <t>FRC-HQ-SLM-0-21-242.0</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -26098,7 +26098,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -26113,12 +26113,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -26189,7 +26189,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-243.0</t>
+          <t>FRC-HQ-SLM-0-21-243.0</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -26220,12 +26220,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -26296,7 +26296,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-244.0</t>
+          <t>FRC-HQ-SLM-0-21-244.0</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -26312,7 +26312,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -26327,12 +26327,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -26403,7 +26403,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-245.0</t>
+          <t>FRC-HQ-SLM-0-21-245.0</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -26419,7 +26419,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -26434,12 +26434,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -26510,7 +26510,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-246.0</t>
+          <t>FRC-HQ-SLM-0-21-246.0</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -26526,7 +26526,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -26541,12 +26541,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -26617,7 +26617,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-247.0</t>
+          <t>FRC-HQ-SLM-0-21-247.0</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -26633,7 +26633,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -26648,12 +26648,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -26724,7 +26724,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-248.0</t>
+          <t>FRC-HQ-SLM-0-21-248.0</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -26740,7 +26740,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -26755,12 +26755,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -26831,7 +26831,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-249.0</t>
+          <t>FRC-HQ-SLM-0-21-249.0</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -26862,12 +26862,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -26938,7 +26938,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-250.0</t>
+          <t>FRC-HQ-SLM-0-21-250.0</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -26954,7 +26954,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -26969,12 +26969,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -27045,7 +27045,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-251.0</t>
+          <t>FRC-HQ-SLM-0-21-251.0</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -27061,7 +27061,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -27076,12 +27076,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -27152,7 +27152,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-252.0</t>
+          <t>FRC-HQ-SLM-0-21-252.0</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -27168,7 +27168,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -27183,12 +27183,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -27259,7 +27259,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-253.0</t>
+          <t>FRC-HQ-SLM-0-21-253.0</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -27275,7 +27275,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -27290,12 +27290,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -27366,7 +27366,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-254.0</t>
+          <t>FRC-HQ-SLM-0-21-254.0</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -27382,7 +27382,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -27397,12 +27397,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -27473,7 +27473,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-255.0</t>
+          <t>FRC-HQ-SLM-0-21-255.0</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -27489,7 +27489,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -27504,12 +27504,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -27580,7 +27580,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-256.0</t>
+          <t>FRC-HQ-SLM-0-21-256.0</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -27596,7 +27596,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -27611,12 +27611,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -27687,7 +27687,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-257.0</t>
+          <t>FRC-HQ-SLM-0-21-257.0</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -27703,7 +27703,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -27718,12 +27718,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -27794,7 +27794,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-258.0</t>
+          <t>FRC-HQ-SLM-0-21-258.0</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -27810,7 +27810,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -27825,12 +27825,12 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -27901,7 +27901,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-259.0</t>
+          <t>FRC-HQ-SLM-0-21-259.0</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -27917,7 +27917,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -27932,12 +27932,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -28008,7 +28008,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-260.0</t>
+          <t>FRC-HQ-SLM-0-21-260.0</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -28024,7 +28024,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -28039,12 +28039,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -28115,7 +28115,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-261.0</t>
+          <t>FRC-HQ-SLM-0-21-261.0</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -28131,7 +28131,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -28146,12 +28146,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -28222,7 +28222,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-262.0</t>
+          <t>FRC-HQ-SLM-0-21-262.0</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -28238,7 +28238,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -28253,12 +28253,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -28329,7 +28329,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-263.0</t>
+          <t>FRC-HQ-SLM-0-21-263.0</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -28345,7 +28345,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -28360,12 +28360,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -28436,7 +28436,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-264.0</t>
+          <t>FRC-HQ-SLM-0-21-264.0</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -28452,7 +28452,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -28467,12 +28467,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -28543,7 +28543,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-265.0</t>
+          <t>FRC-HQ-SLM-0-21-265.0</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -28559,7 +28559,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -28574,12 +28574,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -28650,7 +28650,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-266.0</t>
+          <t>FRC-HQ-SLM-0-21-266.0</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -28666,7 +28666,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -28681,12 +28681,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -28757,7 +28757,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-267.0</t>
+          <t>FRC-HQ-SLM-0-21-267.0</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -28773,7 +28773,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -28788,12 +28788,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -28864,7 +28864,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-268.0</t>
+          <t>FRC-HQ-SLM-0-21-268.0</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -28880,7 +28880,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -28895,12 +28895,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -28971,7 +28971,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-269.0</t>
+          <t>FRC-HQ-SLM-0-21-269.0</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -28987,7 +28987,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -29002,7 +29002,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-270.0</t>
+          <t>FRC-HQ-SLM-0-21-270.0</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -29094,7 +29094,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -29109,12 +29109,12 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -29185,7 +29185,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-271.0</t>
+          <t>FRC-HQ-SLM-0-21-271.0</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -29201,7 +29201,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -29216,12 +29216,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -29292,7 +29292,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-272.0</t>
+          <t>FRC-HQ-SLM-0-21-272.0</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -29308,7 +29308,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -29323,12 +29323,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-273.0</t>
+          <t>FRC-HQ-SLM-0-21-273.0</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -29415,7 +29415,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -29430,12 +29430,12 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -29506,7 +29506,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-274.0</t>
+          <t>FRC-HQ-SLM-0-21-274.0</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -29522,7 +29522,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -29537,12 +29537,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -29613,7 +29613,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-275.0</t>
+          <t>FRC-HQ-SLM-0-21-275.0</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -29629,7 +29629,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -29644,12 +29644,12 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -29720,7 +29720,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-276.0</t>
+          <t>FRC-HQ-SLM-0-21-276.0</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -29736,7 +29736,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -29751,12 +29751,12 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -29827,7 +29827,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-277.0</t>
+          <t>FRC-HQ-SLM-0-21-277.0</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -29843,7 +29843,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -29858,12 +29858,12 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -29934,7 +29934,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-278.0</t>
+          <t>FRC-HQ-SLM-0-21-278.0</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -29950,7 +29950,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -29965,12 +29965,12 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -30041,7 +30041,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-279.0</t>
+          <t>FRC-HQ-SLM-0-21-279.0</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -30057,7 +30057,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -30072,12 +30072,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -30148,7 +30148,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-280.0</t>
+          <t>FRC-HQ-SLM-0-21-280.0</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -30164,7 +30164,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -30179,12 +30179,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -30255,7 +30255,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-281.0</t>
+          <t>FRC-HQ-SLM-0-21-281.0</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -30271,7 +30271,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -30286,12 +30286,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -30362,7 +30362,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-282.0</t>
+          <t>FRC-HQ-SLM-0-21-282.0</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -30378,7 +30378,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -30393,12 +30393,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-283.0</t>
+          <t>FRC-HQ-SLM-0-21-283.0</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -30485,7 +30485,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -30500,12 +30500,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -30576,7 +30576,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-284.0</t>
+          <t>FRC-HQ-SLM-0-21-284.0</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -30592,7 +30592,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -30612,7 +30612,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -30683,7 +30683,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-285.0</t>
+          <t>FRC-HQ-SLM-0-21-285.0</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -30699,7 +30699,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -30719,7 +30719,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -30790,7 +30790,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-286.0</t>
+          <t>FRC-HQ-SLM-0-21-286.0</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -30806,7 +30806,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -30826,7 +30826,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -30897,7 +30897,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-287.0</t>
+          <t>FRC-HQ-SLM-0-21-287.0</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -30913,7 +30913,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -30928,12 +30928,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -31004,7 +31004,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-288.0</t>
+          <t>FRC-HQ-SLM-0-21-288.0</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -31020,7 +31020,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -31040,7 +31040,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -31111,7 +31111,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-289.0</t>
+          <t>FRC-HQ-SLM-0-21-289.0</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -31127,7 +31127,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -31147,7 +31147,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -31218,7 +31218,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-290.0</t>
+          <t>FRC-HQ-SLM-0-21-290.0</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -31234,7 +31234,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -31254,7 +31254,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -31325,7 +31325,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-291.0</t>
+          <t>FRC-HQ-SLM-0-21-291.0</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -31341,7 +31341,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -31361,7 +31361,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -31432,7 +31432,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-292.0</t>
+          <t>FRC-HQ-SLM-0-21-292.0</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -31448,7 +31448,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -31468,7 +31468,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -31539,7 +31539,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-293.0</t>
+          <t>FRC-HQ-SLM-0-21-293.0</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -31555,7 +31555,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -31575,7 +31575,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -31646,7 +31646,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-294.0</t>
+          <t>FRC-HQ-SLM-0-21-294.0</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -31662,7 +31662,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -31682,7 +31682,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -31753,7 +31753,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-295.0</t>
+          <t>FRC-HQ-SLM-0-21-295.0</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -31769,7 +31769,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -31789,7 +31789,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -31860,7 +31860,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-296.0</t>
+          <t>FRC-HQ-SLM-0-21-296.0</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -31876,7 +31876,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -31891,12 +31891,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -31967,7 +31967,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-297.0</t>
+          <t>FRC-HQ-SLM-0-21-297.0</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -31983,7 +31983,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -31998,12 +31998,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -32074,7 +32074,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-298.0</t>
+          <t>FRC-HQ-SLM-0-21-298.0</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -32090,7 +32090,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -32105,12 +32105,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -32181,7 +32181,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-299.0</t>
+          <t>FRC-HQ-SLM-0-21-299.0</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -32197,7 +32197,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -32212,12 +32212,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -32288,7 +32288,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-300.0</t>
+          <t>FRC-HQ-SLM-0-21-300.0</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -32304,7 +32304,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -32319,12 +32319,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -32395,7 +32395,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-301.0</t>
+          <t>FRC-HQ-SLM-0-21-301.0</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -32411,7 +32411,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -32426,12 +32426,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K301" t="inlineStr">

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-01.0</t>
+          <t>FRC-HQ-SLM-O-17-0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-02.0</t>
+          <t>FRC-HQ-SLM-O-17-0002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-03.0</t>
+          <t>FRC-HQ-SLM-O-17-0003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-04.0</t>
+          <t>FRC-HQ-SLM-O-17-0004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-05.0</t>
+          <t>FRC-HQ-SLM-O-17-0005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-06.0</t>
+          <t>FRC-HQ-SLM-O-17-0006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-07.0</t>
+          <t>FRC-HQ-SLM-O-17-0007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-08.0</t>
+          <t>FRC-HQ-SLM-O-17-0008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1356,12 +1356,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-09.0</t>
+          <t>FRC-HQ-SLM-O-17-0009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-10.0</t>
+          <t>FRC-HQ-SLM-C-17-0010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-11.0</t>
+          <t>FRC-HQ-SLM-C-17-0011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1669,12 +1669,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-12.0</t>
+          <t>FRC-HQ-SLM-O-17-0012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-13.0</t>
+          <t>FRC-HQ-SLM-O-17-0013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-14.0</t>
+          <t>FRC-HQ-SLM-F-17-0014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-15.0</t>
+          <t>FRC-HQ-SLM-O-17-0015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-16.0</t>
+          <t>FRC-HQ-SLM-O-17-0016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2196,12 +2196,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-17.0</t>
+          <t>FRC-HQ-SLM-F-17-0017</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-18.0</t>
+          <t>FRC-HQ-SLM-O-17-0018</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-19.0</t>
+          <t>FRC-HQ-SLM-F-17-0019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-20.0</t>
+          <t>FRC-HQ-SLM-F-17-0020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-21.0</t>
+          <t>FRC-HQ-SLM-O-17-0021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-22.0</t>
+          <t>FRC-HQ-SLM-O-17-0022</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2836,12 +2836,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-23.0</t>
+          <t>FRC-HQ-SLM-O-17-0023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-24.0</t>
+          <t>FRC-HQ-SLM-F-17-0024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-25.0</t>
+          <t>FRC-HQ-SLM-F-17-0025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-26.0</t>
+          <t>FRC-HQ-SLM-F-17-0026</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-27.0</t>
+          <t>FRC-HQ-SLM-F-17-0027</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-28.0</t>
+          <t>FRC-HQ-SLM-O-17-0028</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-29.0</t>
+          <t>FRC-HQ-SLM-F-17-0029</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-30.0</t>
+          <t>FRC-HQ-SLM-F-17-0030</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-31.0</t>
+          <t>FRC-HQ-SLM-F-17-0031</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-32.0</t>
+          <t>FRC-HQ-SLM-O-17-0032</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-33.0</t>
+          <t>FRC-HQ-SLM-F-17-0033</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-34.0</t>
+          <t>FRC-HQ-SLM-O-17-0034</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-35.0</t>
+          <t>FRC-HQ-SLM-F-17-0035</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-36.0</t>
+          <t>FRC-HQ-SLM-O-17-0036</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4306,12 +4306,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-37.0</t>
+          <t>FRC-HQ-SLM-O-17-0037</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-38.0</t>
+          <t>FRC-HQ-SLM-O-17-0038</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-39.0</t>
+          <t>FRC-HQ-SLM-F-17-0039</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-40.0</t>
+          <t>FRC-HQ-SLM-F-17-0040</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-41.0</t>
+          <t>FRC-HQ-SLM-O-17-0041</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4835,12 +4835,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-42.0</t>
+          <t>FRC-HQ-SLM-F-17-0042</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-43.0</t>
+          <t>FRC-HQ-SLM-F-17-0043</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-44.0</t>
+          <t>FRC-HQ-SLM-F-17-0044</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-45.0</t>
+          <t>FRC-HQ-SLM-T-17-0045</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5259,12 +5259,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-46.0</t>
+          <t>FRC-HQ-SLM-T-17-0046</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5364,12 +5364,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-47.0</t>
+          <t>FRC-HQ-SLM-F-17-0047</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-48.0</t>
+          <t>FRC-HQ-SLM-O-17-0048</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-49.0</t>
+          <t>FRC-HQ-SLM-F-17-0049</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-50.0</t>
+          <t>FRC-HQ-SLM-O-17-0050</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-51.0</t>
+          <t>FRC-HQ-SLM-O-17-0051</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-52.0</t>
+          <t>FRC-HQ-SLM-F-17-0052</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-53.0</t>
+          <t>FRC-HQ-SLM-F-17-0053</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-54.0</t>
+          <t>FRC-HQ-SLM-F-18-0054</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-55.0</t>
+          <t>FRC-HQ-SLM-F-18-0055</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-56.0</t>
+          <t>FRC-HQ-SLM-F-18-0056</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-57.0</t>
+          <t>FRC-HQ-SLM-F-18-0057</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-58.0</t>
+          <t>FRC-HQ-SLM-F-18-0058</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-59.0</t>
+          <t>FRC-HQ-SLM-F-18-0059</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-60.0</t>
+          <t>FRC-HQ-SLM-C-18-0060</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6884,12 +6884,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-61.0</t>
+          <t>FRC-HQ-SLM-C-18-0061</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6989,12 +6989,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-62.0</t>
+          <t>FRC-HQ-SLM-O-18-0062</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-63.0</t>
+          <t>FRC-HQ-SLM-F-18-0063</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-64.0</t>
+          <t>FRC-HQ-SLM-F-18-0064</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-65.0</t>
+          <t>FRC-HQ-SLM-C-18-0065</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-66.0</t>
+          <t>FRC-HQ-SLM-C-18-0066</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7518,12 +7518,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-67.0</t>
+          <t>FRC-HQ-SLM-F-18-0067</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-68.0</t>
+          <t>FRC-HQ-SLM-F-18-0068</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7733,7 +7733,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-69.0</t>
+          <t>FRC-HQ-SLM-F-18-0069</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-70.0</t>
+          <t>FRC-HQ-SLM-F-18-0070</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-71.0</t>
+          <t>FRC-HQ-SLM-C-18-0071</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8047,12 +8047,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-72.0</t>
+          <t>FRC-HQ-SLM-F-18-0072</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-73.0</t>
+          <t>FRC-HQ-SLM-F-18-0073</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-74.0</t>
+          <t>FRC-HQ-SLM-F-18-0074</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-75.0</t>
+          <t>FRC-HQ-SLM-F-18-0075</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-76.0</t>
+          <t>FRC-HQ-SLM-T-18-0076</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-77.0</t>
+          <t>FRC-HQ-SLM-F-18-0077</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-78.0</t>
+          <t>FRC-HQ-SLM-F-18-0078</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-79.0</t>
+          <t>FRC-HQ-SLM-F-18-0079</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8885,12 +8885,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-80.0</t>
+          <t>FRC-HQ-SLM-C-18-0080</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-81.0</t>
+          <t>FRC-HQ-SLM-C-18-0081</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-82.0</t>
+          <t>FRC-HQ-SLM-C-18-0082</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-83.0</t>
+          <t>FRC-HQ-SLM-C-18-0083</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-84.0</t>
+          <t>FRC-HQ-SLM-O-18-0084</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9410,12 +9410,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-85.0</t>
+          <t>FRC-HQ-SLM-C-18-0085</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-86.0</t>
+          <t>FRC-HQ-SLM-C-18-0086</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-87.0</t>
+          <t>FRC-HQ-SLM-O-18-0087</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9725,12 +9725,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-88.0</t>
+          <t>FRC-HQ-SLM-C-18-0088</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-89.0</t>
+          <t>FRC-HQ-SLM-C-18-0089</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-90.0</t>
+          <t>FRC-HQ-SLM-C-18-0090</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-91.0</t>
+          <t>FRC-HQ-SLM-F-18-0091</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-92.0</t>
+          <t>FRC-HQ-SLM-F-18-0092</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -10334,7 +10334,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-93.0</t>
+          <t>FRC-HQ-SLM-F-18-0093</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -10368,7 +10368,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -10443,7 +10443,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-94.0</t>
+          <t>FRC-HQ-SLM-O-18-0094</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-95.0</t>
+          <t>FRC-HQ-SLM-F-18-0095</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -10586,7 +10586,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K96" t="n">
@@ -10655,7 +10655,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-96.0</t>
+          <t>FRC-HQ-SLM-O-18-0096</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10684,12 +10684,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -10760,7 +10760,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-97.0</t>
+          <t>FRC-HQ-SLM-T-18-0097</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-98.0</t>
+          <t>FRC-HQ-SLM-M-18-0098</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -10968,7 +10968,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-99.0</t>
+          <t>FRC-HQ-SLM-M-18-0099</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-100.0</t>
+          <t>FRC-HQ-SLM-O-18-0100</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -11102,12 +11102,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -11178,7 +11178,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-101.0</t>
+          <t>FRC-HQ-SLM-O-18-0101</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -11207,12 +11207,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-102.0</t>
+          <t>FRC-HQ-SLM-O-18-0102</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -11312,12 +11312,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -11388,7 +11388,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-103.0</t>
+          <t>FRC-HQ-SLM-O-18-0103</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-104.0</t>
+          <t>FRC-HQ-SLM-O-18-0104</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -11526,12 +11526,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K105" t="n">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-105.0</t>
+          <t>FRC-HQ-SLM-O-18-0105</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -11705,7 +11705,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-106.0</t>
+          <t>FRC-HQ-SLM-O-18-0106</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -11814,7 +11814,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-107.0</t>
+          <t>FRC-HQ-SLM-O-18-0107</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-108.0</t>
+          <t>FRC-HQ-SLM-O-18-0108</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -12024,7 +12024,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-109.0</t>
+          <t>FRC-HQ-SLM-O-18-0109</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -12053,12 +12053,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -12129,7 +12129,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-110.0</t>
+          <t>FRC-HQ-SLM-F-18-0110</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-111.0</t>
+          <t>FRC-HQ-SLM-F-19-0111</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -12347,7 +12347,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-112.0</t>
+          <t>FRC-HQ-SLM-F-19-0112</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -12456,7 +12456,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-113.0</t>
+          <t>FRC-HQ-SLM-F-19-0113</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -12490,7 +12490,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -12565,7 +12565,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-114.0</t>
+          <t>FRC-HQ-SLM-F-19-0114</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -12599,7 +12599,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -12670,7 +12670,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-115.0</t>
+          <t>FRC-HQ-SLM-F-19-0115</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-116.0</t>
+          <t>FRC-HQ-SLM-O-19-0116</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -12880,7 +12880,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-117.0</t>
+          <t>FRC-HQ-SLM-F-19-0117</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -12914,7 +12914,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -12989,7 +12989,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-118.0</t>
+          <t>FRC-HQ-SLM-F-19-0118</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-119.0</t>
+          <t>FRC-HQ-SLM-O-19-0119</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-120.0</t>
+          <t>FRC-HQ-SLM-O-19-0120</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -13304,7 +13304,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-121.0</t>
+          <t>FRC-HQ-SLM-F-19-0121</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -13338,7 +13338,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -13409,7 +13409,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-122.0</t>
+          <t>FRC-HQ-SLM-C-19-0122</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-123.0</t>
+          <t>FRC-HQ-SLM-C-19-0123</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -13619,7 +13619,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-124.0</t>
+          <t>FRC-HQ-SLM-C-19-0124</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -13724,7 +13724,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-125.0</t>
+          <t>FRC-HQ-SLM-C-19-0125</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -13753,12 +13753,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -13829,7 +13829,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-126.0</t>
+          <t>FRC-HQ-SLM-F-19-0126</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -13934,7 +13934,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-127.0</t>
+          <t>FRC-HQ-SLM-F-19-0127</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -13968,7 +13968,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -14039,7 +14039,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-128.0</t>
+          <t>FRC-HQ-SLM-F-19-0128</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -14144,7 +14144,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-129.0</t>
+          <t>FRC-HQ-SLM-C-20-0129</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -14249,7 +14249,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-130.0</t>
+          <t>FRC-HQ-SLM-C-20-0130</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -14354,7 +14354,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-131.0</t>
+          <t>FRC-HQ-SLM-C-20-0131</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-132.0</t>
+          <t>FRC-HQ-SLM-C-20-0132</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -14493,7 +14493,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -14564,7 +14564,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-133.0</t>
+          <t>FRC-HQ-SLM-T-20-0133</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -14669,7 +14669,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-134.0</t>
+          <t>FRC-HQ-SLM-C-20-0134</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -14774,7 +14774,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-135.0</t>
+          <t>FRC-HQ-SLM-C-20-0135</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -14879,7 +14879,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-136.0</t>
+          <t>FRC-HQ-SLM-C-20-0136</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -14908,12 +14908,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -14984,7 +14984,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-137.0</t>
+          <t>FRC-HQ-SLM-C-20-0137</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -15089,7 +15089,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-138.0</t>
+          <t>FRC-HQ-SLM-F-20-0138</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -15194,7 +15194,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-139.0</t>
+          <t>FRC-HQ-SLM-C-20-0139</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-140.0</t>
+          <t>FRC-HQ-SLM-F-20-0140</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-141.0</t>
+          <t>FRC-HQ-SLM-C-20-0141</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -15438,7 +15438,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -15509,7 +15509,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-142.0</t>
+          <t>FRC-HQ-SLM-C-20-0142</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-143.0</t>
+          <t>FRC-HQ-SLM-M-21-0143</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -15719,7 +15719,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-144.0</t>
+          <t>FRC-HQ-SLM-M-21-0144</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -15748,12 +15748,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K145" t="n">
@@ -15822,7 +15822,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-145.0</t>
+          <t>FRC-HQ-SLM-O-21-0145</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -15927,7 +15927,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-146.0</t>
+          <t>FRC-HQ-SLM-C-21-0146</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -16032,7 +16032,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-147.0</t>
+          <t>FRC-HQ-SLM-C-21-0147</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-148.0</t>
+          <t>FRC-HQ-SLM-M-21-0148</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -16166,12 +16166,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K149" t="n">
@@ -16240,7 +16240,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-149.0</t>
+          <t>FRC-HQ-SLM-F-21-0149</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-150.0</t>
+          <t>FRC-HQ-SLM-O-21-0150</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -16450,7 +16450,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-152.0</t>
+          <t>FRC-HQ-SLM-C-21-0152</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -16481,12 +16481,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -16557,7 +16557,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-153.0</t>
+          <t>FRC-HQ-SLM-C-21-0153</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -16588,12 +16588,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -16664,7 +16664,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-154.0</t>
+          <t>FRC-HQ-SLM-C-21-0154</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -16680,7 +16680,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -16695,12 +16695,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -16771,7 +16771,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-155.0</t>
+          <t>FRC-HQ-SLM-C-21-0155</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -16802,12 +16802,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -16878,7 +16878,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-156.0</t>
+          <t>FRC-HQ-SLM-C-21-0156</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -16894,7 +16894,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -16909,12 +16909,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -16985,7 +16985,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-157.0</t>
+          <t>FRC-HQ-SLM-C-21-0157</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -17001,7 +17001,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -17016,12 +17016,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -17092,7 +17092,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-158.0</t>
+          <t>FRC-HQ-SLM-C-21-0158</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -17123,12 +17123,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -17199,7 +17199,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-159.0</t>
+          <t>FRC-HQ-SLM-C-21-0159</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -17230,12 +17230,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -17306,7 +17306,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-160.0</t>
+          <t>FRC-HQ-SLM-C-21-0160</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -17322,7 +17322,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -17337,12 +17337,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -17413,7 +17413,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-161.0</t>
+          <t>FRC-HQ-SLM-C-21-0161</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -17429,7 +17429,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -17444,12 +17444,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -17520,7 +17520,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-162.0</t>
+          <t>FRC-HQ-SLM-I-21-0162</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -17536,7 +17536,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -17551,12 +17551,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -17627,7 +17627,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-163.0</t>
+          <t>FRC-HQ-SLM-I-21-0163</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -17643,7 +17643,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -17658,12 +17658,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -17734,7 +17734,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-164.0</t>
+          <t>FRC-HQ-SLM-I-21-0164</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -17750,7 +17750,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -17765,12 +17765,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -17841,7 +17841,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-165.0</t>
+          <t>FRC-HQ-SLM-I-21-0165</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -17872,12 +17872,12 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-166.0</t>
+          <t>FRC-HQ-SLM-I-21-0166</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -17964,7 +17964,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -17979,12 +17979,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -18055,7 +18055,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-167.0</t>
+          <t>FRC-HQ-SLM-I-21-0167</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -18071,7 +18071,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -18086,12 +18086,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -18162,7 +18162,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-168.0</t>
+          <t>FRC-HQ-SLM-I-21-0168</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -18178,7 +18178,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -18193,12 +18193,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -18269,7 +18269,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-169.0</t>
+          <t>FRC-HQ-SLM-I-21-0169</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -18285,7 +18285,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -18301,12 +18301,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -18377,7 +18377,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-170.0</t>
+          <t>FRC-HQ-SLM-I-21-0170</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -18393,7 +18393,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -18413,7 +18413,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -18484,7 +18484,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-171.0</t>
+          <t>FRC-HQ-SLM-I-21-0171</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -18500,7 +18500,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -18515,12 +18515,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -18591,7 +18591,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-172.0</t>
+          <t>FRC-HQ-SLM-I-21-0172</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -18607,7 +18607,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -18698,7 +18698,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-173.0</t>
+          <t>FRC-HQ-SLM-S-21-0173</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -18714,7 +18714,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -18734,7 +18734,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -18805,7 +18805,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-174.0</t>
+          <t>FRC-HQ-SLM-S-21-0174</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -18841,7 +18841,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-175.0</t>
+          <t>FRC-HQ-SLM-S-21-0175</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -18928,7 +18928,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -19019,7 +19019,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-176.0</t>
+          <t>FRC-HQ-SLM-S-21-0176</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -19035,7 +19035,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -19050,12 +19050,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -19126,7 +19126,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-177.0</t>
+          <t>FRC-HQ-SLM-S-21-0177</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -19142,7 +19142,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -19157,12 +19157,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -19233,7 +19233,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-178.0</t>
+          <t>FRC-HQ-SLM-S-21-0178</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -19249,7 +19249,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -19264,12 +19264,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -19340,7 +19340,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-179.0</t>
+          <t>FRC-HQ-SLM-S-21-0179</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -19356,7 +19356,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -19371,12 +19371,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -19447,7 +19447,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-180.0</t>
+          <t>FRC-HQ-SLM-S-21-0180</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -19463,7 +19463,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -19483,7 +19483,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -19554,7 +19554,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-181.0</t>
+          <t>FRC-HQ-SLM-S-21-0181</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -19570,7 +19570,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -19585,12 +19585,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -19661,7 +19661,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-182.0</t>
+          <t>FRC-HQ-SLM-S-21-0182</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -19677,7 +19677,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -19692,12 +19692,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-183.0</t>
+          <t>FRC-HQ-SLM-S-21-0183</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -19784,7 +19784,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -19799,12 +19799,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -19875,7 +19875,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-184.0</t>
+          <t>FRC-HQ-SLM-S-21-0184</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -19891,7 +19891,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -19907,12 +19907,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -19983,7 +19983,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-185.0</t>
+          <t>FRC-HQ-SLM-S-21-0185</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -19999,7 +19999,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -20014,12 +20014,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -20090,7 +20090,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-186.0</t>
+          <t>FRC-HQ-SLM-S-21-0186</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -20106,7 +20106,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -20121,12 +20121,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -20197,7 +20197,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-187.0</t>
+          <t>FRC-HQ-SLM-S-21-0187</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -20213,7 +20213,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -20228,12 +20228,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-188.0</t>
+          <t>FRC-HQ-SLM-S-21-0188</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -20320,7 +20320,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -20335,12 +20335,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -20411,7 +20411,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-189.0</t>
+          <t>FRC-HQ-SLM-S-21-0189</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -20427,7 +20427,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -20442,12 +20442,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -20518,7 +20518,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-190.0</t>
+          <t>FRC-HQ-SLM-S-21-0190</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -20534,7 +20534,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -20554,7 +20554,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -20625,7 +20625,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-191.0</t>
+          <t>FRC-HQ-SLM-S-21-0191</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -20641,7 +20641,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -20661,7 +20661,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -20732,7 +20732,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-192.0</t>
+          <t>FRC-HQ-SLM-S-21-0192</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -20763,12 +20763,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -20839,7 +20839,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-193.0</t>
+          <t>FRC-HQ-SLM-S-21-0193</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -20855,7 +20855,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -20875,7 +20875,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -20946,7 +20946,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-194.0</t>
+          <t>FRC-HQ-SLM-S-21-0194</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -20962,7 +20962,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -20982,7 +20982,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -21053,7 +21053,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-195.0</t>
+          <t>FRC-HQ-SLM-S-21-0195</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -21069,7 +21069,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -21089,7 +21089,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-196.0</t>
+          <t>FRC-HQ-SLM-S-21-0196</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -21191,12 +21191,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -21267,7 +21267,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-197.0</t>
+          <t>FRC-HQ-SLM-S-21-0197</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -21283,7 +21283,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -21298,12 +21298,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-198.0</t>
+          <t>FRC-HQ-SLM-E-21-0198</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -21390,7 +21390,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -21410,7 +21410,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -21481,7 +21481,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-199.0</t>
+          <t>FRC-HQ-SLM-E-21-0199</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -21497,7 +21497,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -21517,7 +21517,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-200.0</t>
+          <t>FRC-HQ-SLM-E-21-0200</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -21604,7 +21604,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -21624,7 +21624,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -21695,7 +21695,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-201.0</t>
+          <t>FRC-HQ-SLM-E-21-0201</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -21711,7 +21711,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-202.0</t>
+          <t>FRC-HQ-SLM-E-21-0202</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -21818,7 +21818,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -21838,7 +21838,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -21909,7 +21909,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-203.0</t>
+          <t>FRC-HQ-SLM-E-21-0203</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -21925,7 +21925,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -21945,7 +21945,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -22016,7 +22016,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-204.0</t>
+          <t>FRC-HQ-SLM-E-21-0204</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -22032,7 +22032,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -22052,7 +22052,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -22123,7 +22123,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-205.0</t>
+          <t>FRC-HQ-SLM-E-21-0205</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -22139,7 +22139,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -22159,7 +22159,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -22230,7 +22230,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-206.0</t>
+          <t>FRC-HQ-SLM-E-21-0206</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -22246,7 +22246,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -22266,7 +22266,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -22337,7 +22337,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-207.0</t>
+          <t>FRC-HQ-SLM-E-21-0207</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -22353,7 +22353,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -22373,7 +22373,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-208.0</t>
+          <t>FRC-HQ-SLM-E-21-0208</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -22460,7 +22460,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -22480,7 +22480,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -22551,7 +22551,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-209.0</t>
+          <t>FRC-HQ-SLM-E-21-0209</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -22587,7 +22587,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -22658,7 +22658,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-210.0</t>
+          <t>FRC-HQ-SLM-E-21-0210</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -22674,7 +22674,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -22694,7 +22694,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -22765,7 +22765,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-211.0</t>
+          <t>FRC-HQ-SLM-E-21-0211</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -22781,7 +22781,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -22801,7 +22801,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -22872,7 +22872,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-212.0</t>
+          <t>FRC-HQ-SLM-E-21-0212</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -22908,7 +22908,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-213.0</t>
+          <t>FRC-HQ-SLM-E-21-0213</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -22995,7 +22995,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -23086,7 +23086,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-214.0</t>
+          <t>FRC-HQ-SLM-E-21-0214</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -23102,7 +23102,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -23122,7 +23122,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -23193,7 +23193,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-215.0</t>
+          <t>FRC-HQ-SLM-E-21-0215</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -23229,7 +23229,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -23300,7 +23300,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-216.0</t>
+          <t>FRC-HQ-SLM-E-21-0216</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -23316,7 +23316,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -23407,7 +23407,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-217.0</t>
+          <t>FRC-HQ-SLM-E-21-0217</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -23423,7 +23423,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -23443,7 +23443,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -23514,7 +23514,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-218.0</t>
+          <t>FRC-HQ-SLM-E-21-0218</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -23530,7 +23530,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -23621,7 +23621,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-219.0</t>
+          <t>FRC-HQ-SLM-E-21-0219</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -23637,7 +23637,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -23728,7 +23728,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-220.0</t>
+          <t>FRC-HQ-SLM-E-21-0220</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -23744,7 +23744,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -23764,7 +23764,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -23835,7 +23835,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-221.0</t>
+          <t>FRC-HQ-SLM-E-21-0221</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -23866,7 +23866,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -23942,7 +23942,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-222.0</t>
+          <t>FRC-HQ-SLM-E-21-0222</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -23973,12 +23973,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -24049,7 +24049,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-223.0</t>
+          <t>FRC-HQ-SLM-E-21-0223</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -24065,7 +24065,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -24080,12 +24080,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -24156,7 +24156,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-224.0</t>
+          <t>FRC-HQ-SLM-E-21-0224</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -24172,7 +24172,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -24187,7 +24187,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -24263,7 +24263,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-225.0</t>
+          <t>FRC-HQ-SLM-E-21-0225</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -24279,7 +24279,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -24294,7 +24294,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -24370,7 +24370,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-226.0</t>
+          <t>FRC-HQ-SLM-E-21-0226</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -24401,7 +24401,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -24477,7 +24477,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-227.0</t>
+          <t>FRC-HQ-SLM-E-21-0227</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -24493,7 +24493,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -24513,7 +24513,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -24584,7 +24584,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-228.0</t>
+          <t>FRC-HQ-SLM-E-21-0228</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -24600,7 +24600,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -24615,12 +24615,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -24691,7 +24691,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-229.0</t>
+          <t>FRC-HQ-SLM-E-21-0229</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -24707,7 +24707,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -24722,12 +24722,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -24798,7 +24798,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-230.0</t>
+          <t>FRC-HQ-SLM-E-21-0230</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -24814,7 +24814,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -24829,12 +24829,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -24905,7 +24905,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-231.0</t>
+          <t>FRC-HQ-SLM-E-21-0231</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -24921,7 +24921,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -24936,12 +24936,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -25012,7 +25012,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-232.0</t>
+          <t>FRC-HQ-SLM-E-21-0232</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -25028,7 +25028,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -25043,12 +25043,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -25119,7 +25119,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-233.0</t>
+          <t>FRC-HQ-SLM-E-21-0233</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -25150,12 +25150,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -25226,7 +25226,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-234.0</t>
+          <t>FRC-HQ-SLM-E-21-0234</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -25242,7 +25242,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -25257,12 +25257,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -25333,7 +25333,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-235.0</t>
+          <t>FRC-HQ-SLM-E-21-0235</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -25349,7 +25349,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-236.0</t>
+          <t>FRC-HQ-SLM-E-21-0236</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -25456,7 +25456,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -25471,7 +25471,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -25547,7 +25547,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-237.0</t>
+          <t>FRC-HQ-SLM-P-21-0237</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -25563,7 +25563,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -25578,12 +25578,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -25654,7 +25654,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-238.0</t>
+          <t>FRC-HQ-SLM-P-21-0238</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -25670,7 +25670,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -25685,12 +25685,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -25761,7 +25761,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-239.0</t>
+          <t>FRC-HQ-SLM-P-21-0239</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -25777,7 +25777,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -25792,12 +25792,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -25868,7 +25868,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-240.0</t>
+          <t>FRC-HQ-SLM-P-21-0240</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -25884,7 +25884,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -25899,12 +25899,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -25975,7 +25975,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-241.0</t>
+          <t>FRC-HQ-SLM-P-21-0241</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -25991,7 +25991,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -26006,12 +26006,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -26082,7 +26082,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-242.0</t>
+          <t>FRC-HQ-SLM-I-21-0242</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -26098,7 +26098,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -26113,12 +26113,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -26189,7 +26189,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-243.0</t>
+          <t>FRC-HQ-SLM-I-21-0243</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -26220,12 +26220,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -26296,7 +26296,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-244.0</t>
+          <t>FRC-HQ-SLM-I-21-0244</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -26312,7 +26312,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -26327,12 +26327,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -26403,7 +26403,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-245.0</t>
+          <t>FRC-HQ-SLM-I-21-0245</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -26419,7 +26419,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -26434,12 +26434,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -26510,7 +26510,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-246.0</t>
+          <t>FRC-HQ-SLM-I-21-0246</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -26526,7 +26526,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -26541,12 +26541,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -26617,7 +26617,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-247.0</t>
+          <t>FRC-HQ-SLM-I-21-0247</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -26633,7 +26633,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -26648,12 +26648,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -26724,7 +26724,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-248.0</t>
+          <t>FRC-HQ-SLM-I-21-0248</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -26740,7 +26740,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -26755,12 +26755,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -26831,7 +26831,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-249.0</t>
+          <t>FRC-HQ-SLM-I-21-0249</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -26862,12 +26862,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -26938,7 +26938,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-250.0</t>
+          <t>FRC-HQ-SLM-I-21-0250</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -26954,7 +26954,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -26969,12 +26969,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -27045,7 +27045,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-251.0</t>
+          <t>FRC-HQ-SLM-I-21-0251</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -27061,7 +27061,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -27076,12 +27076,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -27152,7 +27152,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-252.0</t>
+          <t>FRC-HQ-SLM-I-21-0252</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -27168,7 +27168,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -27183,12 +27183,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -27259,7 +27259,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-253.0</t>
+          <t>FRC-HQ-SLM-I-21-0253</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -27275,7 +27275,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -27290,12 +27290,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -27366,7 +27366,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-254.0</t>
+          <t>FRC-HQ-SLM-I-21-0254</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -27382,7 +27382,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -27397,12 +27397,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -27473,7 +27473,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-255.0</t>
+          <t>FRC-HQ-SLM-I-21-0255</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -27489,7 +27489,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -27504,12 +27504,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -27580,7 +27580,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-256.0</t>
+          <t>FRC-HQ-SLM-I-21-0256</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -27596,7 +27596,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -27611,12 +27611,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -27687,7 +27687,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-257.0</t>
+          <t>FRC-HQ-SLM-I-21-0257</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -27703,7 +27703,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -27718,12 +27718,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -27794,7 +27794,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-258.0</t>
+          <t>FRC-HQ-SLM-I-21-0258</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -27810,7 +27810,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -27825,12 +27825,12 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -27901,7 +27901,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-259.0</t>
+          <t>FRC-HQ-SLM-I-21-0259</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -27917,7 +27917,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -27932,12 +27932,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -28008,7 +28008,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-260.0</t>
+          <t>FRC-HQ-SLM-I-21-0260</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -28024,7 +28024,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -28039,12 +28039,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -28115,7 +28115,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-261.0</t>
+          <t>FRC-HQ-SLM-I-21-0261</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -28131,7 +28131,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -28146,12 +28146,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -28222,7 +28222,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-262.0</t>
+          <t>FRC-HQ-SLM-I-21-0262</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -28238,7 +28238,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -28253,12 +28253,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -28329,7 +28329,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-263.0</t>
+          <t>FRC-HQ-SLM-I-21-0263</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -28345,7 +28345,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -28360,12 +28360,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -28436,7 +28436,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-264.0</t>
+          <t>FRC-HQ-SLM-I-21-0264</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -28452,7 +28452,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -28467,12 +28467,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -28543,7 +28543,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-265.0</t>
+          <t>FRC-HQ-SLM-I-21-0265</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -28559,7 +28559,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -28574,12 +28574,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -28650,7 +28650,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-266.0</t>
+          <t>FRC-HQ-SLM-I-21-0266</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -28666,7 +28666,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -28681,12 +28681,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -28757,7 +28757,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-267.0</t>
+          <t>FRC-HQ-SLM-I-21-0267</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -28773,7 +28773,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -28788,12 +28788,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -28864,7 +28864,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-268.0</t>
+          <t>FRC-HQ-SLM-I-21-0268</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -28880,7 +28880,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -28895,12 +28895,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -28971,7 +28971,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-269.0</t>
+          <t>FRC-HQ-SLM-I-21-0269</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -28987,7 +28987,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -29002,7 +29002,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-270.0</t>
+          <t>FRC-HQ-SLM-I-21-0270</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -29094,7 +29094,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -29109,12 +29109,12 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -29185,7 +29185,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-271.0</t>
+          <t>FRC-HQ-SLM-I-21-0271</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -29201,7 +29201,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -29216,12 +29216,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -29292,7 +29292,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-272.0</t>
+          <t>FRC-HQ-SLM-I-21-0272</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -29308,7 +29308,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -29323,12 +29323,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-273.0</t>
+          <t>FRC-HQ-SLM-I-21-0273</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -29415,7 +29415,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -29430,12 +29430,12 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -29506,7 +29506,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-274.0</t>
+          <t>FRC-HQ-SLM-I-21-0274</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -29522,7 +29522,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -29537,12 +29537,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -29613,7 +29613,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-275.0</t>
+          <t>FRC-HQ-SLM-F-21-0275</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -29629,7 +29629,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -29644,12 +29644,12 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -29720,7 +29720,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-276.0</t>
+          <t>FRC-HQ-SLM-F-21-0276</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -29736,7 +29736,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -29751,12 +29751,12 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -29827,7 +29827,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-277.0</t>
+          <t>FRC-HQ-SLM-F-21-0277</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -29843,7 +29843,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -29858,12 +29858,12 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -29934,7 +29934,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-278.0</t>
+          <t>FRC-HQ-SLM-F-21-0278</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -29950,7 +29950,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -29965,12 +29965,12 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -30041,7 +30041,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-279.0</t>
+          <t>FRC-HQ-SLM-F-21-0279</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -30057,7 +30057,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -30072,12 +30072,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -30148,7 +30148,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-280.0</t>
+          <t>FRC-HQ-SLM-F-21-0280</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -30164,7 +30164,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -30179,12 +30179,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -30255,7 +30255,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-281.0</t>
+          <t>FRC-HQ-SLM-F-21-0281</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -30271,7 +30271,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -30286,12 +30286,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -30362,7 +30362,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-282.0</t>
+          <t>FRC-HQ-SLM-F-21-0282</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -30378,7 +30378,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -30393,12 +30393,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-283.0</t>
+          <t>FRC-HQ-SLM-F-21-0283</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -30485,7 +30485,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -30500,12 +30500,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -30576,7 +30576,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-284.0</t>
+          <t>FRC-HQ-SLM-F-21-0284</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -30592,7 +30592,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -30612,7 +30612,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -30683,7 +30683,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-285.0</t>
+          <t>FRC-HQ-SLM-F-21-0285</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -30699,7 +30699,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -30719,7 +30719,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -30790,7 +30790,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-286.0</t>
+          <t>FRC-HQ-SLM-F-21-0286</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -30806,7 +30806,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -30826,7 +30826,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -30897,7 +30897,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-287.0</t>
+          <t>FRC-HQ-SLM-F-21-0287</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -30913,7 +30913,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -30928,12 +30928,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -31004,7 +31004,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-288.0</t>
+          <t>FRC-HQ-SLM-F-21-0288</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -31020,7 +31020,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -31040,7 +31040,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -31111,7 +31111,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-289.0</t>
+          <t>FRC-HQ-SLM-F-21-0289</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -31127,7 +31127,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -31147,7 +31147,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -31218,7 +31218,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-290.0</t>
+          <t>FRC-HQ-SLM-F-21-0290</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -31234,7 +31234,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -31254,7 +31254,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -31325,7 +31325,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-291.0</t>
+          <t>FRC-HQ-SLM-F-21-0291</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -31341,7 +31341,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -31361,7 +31361,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -31432,7 +31432,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-292.0</t>
+          <t>FRC-HQ-SLM-F-21-0292</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -31448,7 +31448,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -31468,7 +31468,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -31539,7 +31539,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-293.0</t>
+          <t>FRC-HQ-SLM-F-21-0293</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -31555,7 +31555,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -31575,7 +31575,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -31646,7 +31646,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-294.0</t>
+          <t>FRC-HQ-SLM-F-21-0294</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -31662,7 +31662,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -31682,7 +31682,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -31753,7 +31753,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-295.0</t>
+          <t>FRC-HQ-SLM-F-21-0295</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -31769,7 +31769,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -31789,7 +31789,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -31860,7 +31860,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-296.0</t>
+          <t>FRC-HQ-SLM-F-21-0296</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -31876,7 +31876,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -31891,12 +31891,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -31967,7 +31967,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-297.0</t>
+          <t>FRC-HQ-SLM-F-21-0297</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -31983,7 +31983,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -31998,12 +31998,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -32074,7 +32074,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-298.0</t>
+          <t>FRC-HQ-SLM-F-21-0298</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -32090,7 +32090,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -32105,12 +32105,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -32181,7 +32181,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-299.0</t>
+          <t>FRC-HQ-SLM-F-21-0299</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -32197,7 +32197,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -32212,12 +32212,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -32288,7 +32288,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-300.0</t>
+          <t>FRC-HQ-SLM-F-21-0300</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -32304,7 +32304,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -32319,12 +32319,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -32395,7 +32395,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-301.0</t>
+          <t>FRC-HQ-SLM-F-21-0301</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -32411,7 +32411,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -32426,12 +32426,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K301" t="inlineStr">

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC301"/>
+  <dimension ref="A1:AE301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,35 +546,45 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>Accumulated Depreciation Net</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Book Value</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>2017-2018</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>2018-2019</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>2019-2020</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>2020-2021</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>2023-2024</t>
         </is>
@@ -662,16 +672,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U2" t="n">
-        <v>40615.71428571428</v>
+        <v>56861.99999999999</v>
       </c>
       <c r="V2" t="n">
         <v>16246.28571428571</v>
       </c>
       <c r="W2" t="n">
-        <v>8123.142857142857</v>
+        <v>40615.71428571428</v>
       </c>
       <c r="X2" t="n">
-        <v>8123.142857142857</v>
+        <v>-12184.71428571428</v>
       </c>
       <c r="Y2" t="n">
         <v>8123.142857142857</v>
@@ -686,6 +696,12 @@
         <v>8123.142857142857</v>
       </c>
       <c r="AC2" t="n">
+        <v>8123.142857142857</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8123.142857142857</v>
+      </c>
+      <c r="AE2" t="n">
         <v>8123.142857142857</v>
       </c>
     </row>
@@ -773,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3179</v>
+        <v>22253</v>
       </c>
       <c r="X3" t="n">
-        <v>3179</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>3179</v>
@@ -791,6 +807,12 @@
         <v>3179</v>
       </c>
       <c r="AC3" t="n">
+        <v>3179</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3179</v>
+      </c>
+      <c r="AE3" t="n">
         <v>3179</v>
       </c>
     </row>
@@ -878,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1544.285714285714</v>
+        <v>10810</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.285714285714</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="Y4" t="n">
         <v>1544.285714285714</v>
@@ -896,6 +918,12 @@
         <v>1544.285714285714</v>
       </c>
       <c r="AC4" t="n">
+        <v>1544.285714285714</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1544.285714285714</v>
+      </c>
+      <c r="AE4" t="n">
         <v>1544.285714285714</v>
       </c>
     </row>
@@ -983,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>3068.714285714285</v>
+        <v>21481</v>
       </c>
       <c r="X5" t="n">
-        <v>3068.714285714285</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>3068.714285714285</v>
@@ -1001,6 +1029,12 @@
         <v>3068.714285714285</v>
       </c>
       <c r="AC5" t="n">
+        <v>3068.714285714285</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3068.714285714285</v>
+      </c>
+      <c r="AE5" t="n">
         <v>3068.714285714285</v>
       </c>
     </row>
@@ -1088,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1664.714285714286</v>
+        <v>11653</v>
       </c>
       <c r="X6" t="n">
-        <v>1664.714285714286</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>1664.714285714286</v>
@@ -1106,6 +1140,12 @@
         <v>1664.714285714286</v>
       </c>
       <c r="AC6" t="n">
+        <v>1664.714285714286</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1664.714285714286</v>
+      </c>
+      <c r="AE6" t="n">
         <v>1664.714285714286</v>
       </c>
     </row>
@@ -1193,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>4593</v>
+        <v>32151</v>
       </c>
       <c r="X7" t="n">
-        <v>4593</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>4593</v>
@@ -1211,6 +1251,12 @@
         <v>4593</v>
       </c>
       <c r="AC7" t="n">
+        <v>4593</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4593</v>
+      </c>
+      <c r="AE7" t="n">
         <v>4593</v>
       </c>
     </row>
@@ -1298,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>3510</v>
+        <v>24570</v>
       </c>
       <c r="X8" t="n">
-        <v>3510</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>3510</v>
@@ -1316,6 +1362,12 @@
         <v>3510</v>
       </c>
       <c r="AC8" t="n">
+        <v>3510</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3510</v>
+      </c>
+      <c r="AE8" t="n">
         <v>3510</v>
       </c>
     </row>
@@ -1401,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6836.428571428571</v>
+        <v>47855</v>
       </c>
       <c r="X9" t="n">
-        <v>6836.428571428571</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>6836.428571428571</v>
@@ -1419,6 +1471,12 @@
         <v>6836.428571428571</v>
       </c>
       <c r="AC9" t="n">
+        <v>6836.428571428571</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6836.428571428571</v>
+      </c>
+      <c r="AE9" t="n">
         <v>6836.428571428571</v>
       </c>
     </row>
@@ -1506,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3547.142857142857</v>
+        <v>24829.99999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>3547.142857142857</v>
+        <v>7.275957614183426e-12</v>
       </c>
       <c r="Y10" t="n">
         <v>3547.142857142857</v>
@@ -1524,6 +1582,12 @@
         <v>3547.142857142857</v>
       </c>
       <c r="AC10" t="n">
+        <v>3547.142857142857</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3547.142857142857</v>
+      </c>
+      <c r="AE10" t="n">
         <v>3547.142857142857</v>
       </c>
     </row>
@@ -1611,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>21032.8</v>
+        <v>105164</v>
       </c>
       <c r="X11" t="n">
-        <v>21032.8</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="Y11" t="n">
         <v>21032.8</v>
@@ -1626,9 +1690,15 @@
         <v>21032.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>21032.8</v>
       </c>
       <c r="AC11" t="n">
+        <v>21032.8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1716,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>11000</v>
+        <v>55000</v>
       </c>
       <c r="X12" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>11000</v>
@@ -1731,9 +1801,15 @@
         <v>11000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="AC12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1819,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>7271.428571428571</v>
+        <v>50900</v>
       </c>
       <c r="X13" t="n">
-        <v>7271.428571428571</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>7271.428571428571</v>
@@ -1837,6 +1913,12 @@
         <v>7271.428571428571</v>
       </c>
       <c r="AC13" t="n">
+        <v>7271.428571428571</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7271.428571428571</v>
+      </c>
+      <c r="AE13" t="n">
         <v>7271.428571428571</v>
       </c>
     </row>
@@ -1924,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8128.571428571428</v>
+        <v>56900</v>
       </c>
       <c r="X14" t="n">
-        <v>8128.571428571428</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>8128.571428571428</v>
@@ -1942,6 +2024,12 @@
         <v>8128.571428571428</v>
       </c>
       <c r="AC14" t="n">
+        <v>8128.571428571428</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8128.571428571428</v>
+      </c>
+      <c r="AE14" t="n">
         <v>8128.571428571428</v>
       </c>
     </row>
@@ -2027,16 +2115,16 @@
         <v>0.1</v>
       </c>
       <c r="U15" t="n">
-        <v>11520</v>
+        <v>26880</v>
       </c>
       <c r="V15" t="n">
         <v>15360</v>
       </c>
       <c r="W15" t="n">
-        <v>3840</v>
+        <v>11520</v>
       </c>
       <c r="X15" t="n">
-        <v>3840</v>
+        <v>-11520</v>
       </c>
       <c r="Y15" t="n">
         <v>3840</v>
@@ -2051,6 +2139,12 @@
         <v>3840</v>
       </c>
       <c r="AC15" t="n">
+        <v>3840</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3840</v>
+      </c>
+      <c r="AE15" t="n">
         <v>3840</v>
       </c>
     </row>
@@ -2138,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2414.285714285714</v>
+        <v>16900</v>
       </c>
       <c r="X16" t="n">
-        <v>2414.285714285714</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>2414.285714285714</v>
@@ -2156,6 +2250,12 @@
         <v>2414.285714285714</v>
       </c>
       <c r="AC16" t="n">
+        <v>2414.285714285714</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2414.285714285714</v>
+      </c>
+      <c r="AE16" t="n">
         <v>2414.285714285714</v>
       </c>
     </row>
@@ -2243,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2785.714285714286</v>
+        <v>19500</v>
       </c>
       <c r="X17" t="n">
-        <v>2785.714285714286</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>2785.714285714286</v>
@@ -2261,6 +2361,12 @@
         <v>2785.714285714286</v>
       </c>
       <c r="AC17" t="n">
+        <v>2785.714285714286</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2785.714285714286</v>
+      </c>
+      <c r="AE17" t="n">
         <v>2785.714285714286</v>
       </c>
     </row>
@@ -2346,16 +2452,16 @@
         <v>0.1</v>
       </c>
       <c r="U18" t="n">
-        <v>9043.735242990659</v>
+        <v>21102.053</v>
       </c>
       <c r="V18" t="n">
         <v>12058.31775700934</v>
       </c>
       <c r="W18" t="n">
-        <v>3014.579</v>
+        <v>9043.735242990659</v>
       </c>
       <c r="X18" t="n">
-        <v>3014.579</v>
+        <v>-9043.739635514017</v>
       </c>
       <c r="Y18" t="n">
         <v>3014.579</v>
@@ -2370,6 +2476,12 @@
         <v>3014.579</v>
       </c>
       <c r="AC18" t="n">
+        <v>3014.579</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3014.579</v>
+      </c>
+      <c r="AE18" t="n">
         <v>3014.579</v>
       </c>
     </row>
@@ -2455,16 +2567,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U19" t="n">
-        <v>8100</v>
+        <v>18900</v>
       </c>
       <c r="V19" t="n">
         <v>10800</v>
       </c>
       <c r="W19" t="n">
-        <v>2700</v>
+        <v>8100</v>
       </c>
       <c r="X19" t="n">
-        <v>2700</v>
+        <v>-8100</v>
       </c>
       <c r="Y19" t="n">
         <v>2700</v>
@@ -2479,6 +2591,12 @@
         <v>2700</v>
       </c>
       <c r="AC19" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AE19" t="n">
         <v>2700</v>
       </c>
     </row>
@@ -2564,16 +2682,16 @@
         <v>0.1</v>
       </c>
       <c r="U20" t="n">
-        <v>4050</v>
+        <v>9450</v>
       </c>
       <c r="V20" t="n">
         <v>5400</v>
       </c>
       <c r="W20" t="n">
-        <v>1350</v>
+        <v>4050</v>
       </c>
       <c r="X20" t="n">
-        <v>1350</v>
+        <v>-4050</v>
       </c>
       <c r="Y20" t="n">
         <v>1350</v>
@@ -2588,6 +2706,12 @@
         <v>1350</v>
       </c>
       <c r="AC20" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AE20" t="n">
         <v>1350</v>
       </c>
     </row>
@@ -2675,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>3045</v>
+        <v>21315</v>
       </c>
       <c r="X21" t="n">
-        <v>3045</v>
+        <v>9135</v>
       </c>
       <c r="Y21" t="n">
         <v>3045</v>
@@ -2693,6 +2817,12 @@
         <v>3045</v>
       </c>
       <c r="AC21" t="n">
+        <v>3045</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3045</v>
+      </c>
+      <c r="AE21" t="n">
         <v>3045</v>
       </c>
     </row>
@@ -2778,10 +2908,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>614.2857142857142</v>
+        <v>4300</v>
       </c>
       <c r="X22" t="n">
-        <v>614.2857142857142</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>614.2857142857142</v>
@@ -2796,6 +2926,12 @@
         <v>614.2857142857142</v>
       </c>
       <c r="AC22" t="n">
+        <v>614.2857142857142</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>614.2857142857142</v>
+      </c>
+      <c r="AE22" t="n">
         <v>614.2857142857142</v>
       </c>
     </row>
@@ -2883,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4041.142857142857</v>
+        <v>28287.99999999999</v>
       </c>
       <c r="X23" t="n">
-        <v>4041.142857142857</v>
+        <v>7.275957614183426e-12</v>
       </c>
       <c r="Y23" t="n">
         <v>4041.142857142857</v>
@@ -2901,6 +3037,12 @@
         <v>4041.142857142857</v>
       </c>
       <c r="AC23" t="n">
+        <v>4041.142857142857</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>4041.142857142857</v>
+      </c>
+      <c r="AE23" t="n">
         <v>4041.142857142857</v>
       </c>
     </row>
@@ -2988,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>2885.571428571428</v>
+        <v>20199</v>
       </c>
       <c r="X24" t="n">
-        <v>2885.571428571428</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="Y24" t="n">
         <v>2885.571428571428</v>
@@ -3006,6 +3148,12 @@
         <v>2885.571428571428</v>
       </c>
       <c r="AC24" t="n">
+        <v>2885.571428571428</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2885.571428571428</v>
+      </c>
+      <c r="AE24" t="n">
         <v>2885.571428571428</v>
       </c>
     </row>
@@ -3093,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>5510.6</v>
+        <v>38574.2</v>
       </c>
       <c r="X25" t="n">
-        <v>5510.6</v>
+        <v>16531.8</v>
       </c>
       <c r="Y25" t="n">
         <v>5510.6</v>
@@ -3111,6 +3259,12 @@
         <v>5510.6</v>
       </c>
       <c r="AC25" t="n">
+        <v>5510.6</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>5510.6</v>
+      </c>
+      <c r="AE25" t="n">
         <v>5510.6</v>
       </c>
     </row>
@@ -3198,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1170</v>
+        <v>8190</v>
       </c>
       <c r="X26" t="n">
-        <v>1170</v>
+        <v>3510</v>
       </c>
       <c r="Y26" t="n">
         <v>1170</v>
@@ -3216,6 +3370,12 @@
         <v>1170</v>
       </c>
       <c r="AC26" t="n">
+        <v>1170</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1170</v>
+      </c>
+      <c r="AE26" t="n">
         <v>1170</v>
       </c>
     </row>
@@ -3303,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>2592</v>
+        <v>18144</v>
       </c>
       <c r="X27" t="n">
-        <v>2592</v>
+        <v>7776</v>
       </c>
       <c r="Y27" t="n">
         <v>2592</v>
@@ -3321,6 +3481,12 @@
         <v>2592</v>
       </c>
       <c r="AC27" t="n">
+        <v>2592</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2592</v>
+      </c>
+      <c r="AE27" t="n">
         <v>2592</v>
       </c>
     </row>
@@ -3408,10 +3574,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>25536</v>
+        <v>178752</v>
       </c>
       <c r="X28" t="n">
-        <v>25536</v>
+        <v>76608</v>
       </c>
       <c r="Y28" t="n">
         <v>25536</v>
@@ -3426,6 +3592,12 @@
         <v>25536</v>
       </c>
       <c r="AC28" t="n">
+        <v>25536</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>25536</v>
+      </c>
+      <c r="AE28" t="n">
         <v>25536</v>
       </c>
     </row>
@@ -3511,16 +3683,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U29" t="n">
-        <v>40214.28571428572</v>
+        <v>56300</v>
       </c>
       <c r="V29" t="n">
         <v>16085.71428571428</v>
       </c>
       <c r="W29" t="n">
-        <v>8042.857142857142</v>
+        <v>40214.28571428572</v>
       </c>
       <c r="X29" t="n">
-        <v>8042.857142857142</v>
+        <v>-12064.28571428572</v>
       </c>
       <c r="Y29" t="n">
         <v>8042.857142857142</v>
@@ -3535,6 +3707,12 @@
         <v>8042.857142857142</v>
       </c>
       <c r="AC29" t="n">
+        <v>8042.857142857142</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>8042.857142857142</v>
+      </c>
+      <c r="AE29" t="n">
         <v>8042.857142857142</v>
       </c>
     </row>
@@ -3622,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>24000</v>
+        <v>168000</v>
       </c>
       <c r="X30" t="n">
-        <v>24000</v>
+        <v>72000</v>
       </c>
       <c r="Y30" t="n">
         <v>24000</v>
@@ -3640,6 +3818,12 @@
         <v>24000</v>
       </c>
       <c r="AC30" t="n">
+        <v>24000</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>24000</v>
+      </c>
+      <c r="AE30" t="n">
         <v>24000</v>
       </c>
     </row>
@@ -3727,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>4800</v>
+        <v>33600</v>
       </c>
       <c r="X31" t="n">
-        <v>4800</v>
+        <v>14400</v>
       </c>
       <c r="Y31" t="n">
         <v>4800</v>
@@ -3745,6 +3929,12 @@
         <v>4800</v>
       </c>
       <c r="AC31" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AE31" t="n">
         <v>4800</v>
       </c>
     </row>
@@ -3832,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>2880</v>
+        <v>20160</v>
       </c>
       <c r="X32" t="n">
-        <v>2880</v>
+        <v>8640</v>
       </c>
       <c r="Y32" t="n">
         <v>2880</v>
@@ -3850,6 +4040,12 @@
         <v>2880</v>
       </c>
       <c r="AC32" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AE32" t="n">
         <v>2880</v>
       </c>
     </row>
@@ -3935,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>51800</v>
+        <v>362600</v>
       </c>
       <c r="X33" t="n">
-        <v>51800</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>51800</v>
@@ -3953,6 +4149,12 @@
         <v>51800</v>
       </c>
       <c r="AC33" t="n">
+        <v>51800</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>51800</v>
+      </c>
+      <c r="AE33" t="n">
         <v>51800</v>
       </c>
     </row>
@@ -4038,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1337.5</v>
+        <v>9362.5</v>
       </c>
       <c r="X34" t="n">
-        <v>1337.5</v>
+        <v>4012.5</v>
       </c>
       <c r="Y34" t="n">
         <v>1337.5</v>
@@ -4056,6 +4258,12 @@
         <v>1337.5</v>
       </c>
       <c r="AC34" t="n">
+        <v>1337.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1337.5</v>
+      </c>
+      <c r="AE34" t="n">
         <v>1337.5</v>
       </c>
     </row>
@@ -4143,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1757.142857142857</v>
+        <v>12300</v>
       </c>
       <c r="X35" t="n">
-        <v>1757.142857142857</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>1757.142857142857</v>
@@ -4161,6 +4369,12 @@
         <v>1757.142857142857</v>
       </c>
       <c r="AC35" t="n">
+        <v>1757.142857142857</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1757.142857142857</v>
+      </c>
+      <c r="AE35" t="n">
         <v>1757.142857142857</v>
       </c>
     </row>
@@ -4248,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>9730</v>
+        <v>68110</v>
       </c>
       <c r="X36" t="n">
-        <v>9730</v>
+        <v>29190</v>
       </c>
       <c r="Y36" t="n">
         <v>9730</v>
@@ -4266,6 +4480,12 @@
         <v>9730</v>
       </c>
       <c r="AC36" t="n">
+        <v>9730</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>9730</v>
+      </c>
+      <c r="AE36" t="n">
         <v>9730</v>
       </c>
     </row>
@@ -4353,10 +4573,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>7681.428571428571</v>
+        <v>53770</v>
       </c>
       <c r="X37" t="n">
-        <v>7681.428571428571</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>7681.428571428571</v>
@@ -4371,6 +4591,12 @@
         <v>7681.428571428571</v>
       </c>
       <c r="AC37" t="n">
+        <v>7681.428571428571</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>7681.428571428571</v>
+      </c>
+      <c r="AE37" t="n">
         <v>7681.428571428571</v>
       </c>
     </row>
@@ -4456,16 +4682,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U38" t="n">
-        <v>45642.85714285713</v>
+        <v>106500</v>
       </c>
       <c r="V38" t="n">
         <v>60857.14285714286</v>
       </c>
       <c r="W38" t="n">
-        <v>15214.28571428571</v>
+        <v>45642.85714285713</v>
       </c>
       <c r="X38" t="n">
-        <v>15214.28571428571</v>
+        <v>-45642.85714285713</v>
       </c>
       <c r="Y38" t="n">
         <v>15214.28571428571</v>
@@ -4480,6 +4706,12 @@
         <v>15214.28571428571</v>
       </c>
       <c r="AC38" t="n">
+        <v>15214.28571428571</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>15214.28571428571</v>
+      </c>
+      <c r="AE38" t="n">
         <v>15214.28571428571</v>
       </c>
     </row>
@@ -4567,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>28000</v>
+        <v>196000</v>
       </c>
       <c r="X39" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>28000</v>
@@ -4585,6 +4817,12 @@
         <v>28000</v>
       </c>
       <c r="AC39" t="n">
+        <v>28000</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>28000</v>
+      </c>
+      <c r="AE39" t="n">
         <v>28000</v>
       </c>
     </row>
@@ -4672,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1500</v>
+        <v>10500</v>
       </c>
       <c r="X40" t="n">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="Y40" t="n">
         <v>1500</v>
@@ -4690,6 +4928,12 @@
         <v>1500</v>
       </c>
       <c r="AC40" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AE40" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -4777,10 +5021,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>637.5</v>
+        <v>4462.5</v>
       </c>
       <c r="X41" t="n">
-        <v>637.5</v>
+        <v>1912.5</v>
       </c>
       <c r="Y41" t="n">
         <v>637.5</v>
@@ -4795,6 +5039,12 @@
         <v>637.5</v>
       </c>
       <c r="AC41" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="AE41" t="n">
         <v>637.5</v>
       </c>
     </row>
@@ -4882,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>2344</v>
+        <v>16408</v>
       </c>
       <c r="X42" t="n">
-        <v>2344</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>2344</v>
@@ -4900,6 +5150,12 @@
         <v>2344</v>
       </c>
       <c r="AC42" t="n">
+        <v>2344</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>2344</v>
+      </c>
+      <c r="AE42" t="n">
         <v>2344</v>
       </c>
     </row>
@@ -4985,16 +5241,16 @@
         <v>0.1</v>
       </c>
       <c r="U43" t="n">
-        <v>3870</v>
+        <v>9030</v>
       </c>
       <c r="V43" t="n">
         <v>5160</v>
       </c>
       <c r="W43" t="n">
-        <v>1290</v>
+        <v>3870</v>
       </c>
       <c r="X43" t="n">
-        <v>1290</v>
+        <v>-3870</v>
       </c>
       <c r="Y43" t="n">
         <v>1290</v>
@@ -5009,6 +5265,12 @@
         <v>1290</v>
       </c>
       <c r="AC43" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AE43" t="n">
         <v>1290</v>
       </c>
     </row>
@@ -5096,10 +5358,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1172.336</v>
+        <v>8206.352000000001</v>
       </c>
       <c r="X44" t="n">
-        <v>1172.336</v>
+        <v>3517.008</v>
       </c>
       <c r="Y44" t="n">
         <v>1172.336</v>
@@ -5114,6 +5376,12 @@
         <v>1172.336</v>
       </c>
       <c r="AC44" t="n">
+        <v>1172.336</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1172.336</v>
+      </c>
+      <c r="AE44" t="n">
         <v>1172.336</v>
       </c>
     </row>
@@ -5201,10 +5469,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>293.084</v>
+        <v>2051.588</v>
       </c>
       <c r="X45" t="n">
-        <v>293.084</v>
+        <v>879.252</v>
       </c>
       <c r="Y45" t="n">
         <v>293.084</v>
@@ -5219,6 +5487,12 @@
         <v>293.084</v>
       </c>
       <c r="AC45" t="n">
+        <v>293.084</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>293.084</v>
+      </c>
+      <c r="AE45" t="n">
         <v>293.084</v>
       </c>
     </row>
@@ -5306,10 +5580,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>1485.714285714286</v>
+        <v>10400</v>
       </c>
       <c r="X46" t="n">
-        <v>1485.714285714286</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>1485.714285714286</v>
@@ -5324,6 +5598,12 @@
         <v>1485.714285714286</v>
       </c>
       <c r="AC46" t="n">
+        <v>1485.714285714286</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1485.714285714286</v>
+      </c>
+      <c r="AE46" t="n">
         <v>1485.714285714286</v>
       </c>
     </row>
@@ -5409,10 +5689,10 @@
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>11464.28571428571</v>
+        <v>80249.99999999999</v>
       </c>
       <c r="X47" t="n">
-        <v>11464.28571428571</v>
+        <v>1.455191522836685e-11</v>
       </c>
       <c r="Y47" t="n">
         <v>11464.28571428571</v>
@@ -5427,6 +5707,12 @@
         <v>11464.28571428571</v>
       </c>
       <c r="AC47" t="n">
+        <v>11464.28571428571</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>11464.28571428571</v>
+      </c>
+      <c r="AE47" t="n">
         <v>11464.28571428571</v>
       </c>
     </row>
@@ -5512,16 +5798,16 @@
         <v>0.1</v>
       </c>
       <c r="U48" t="n">
-        <v>14464.5</v>
+        <v>33750.5</v>
       </c>
       <c r="V48" t="n">
         <v>19286</v>
       </c>
       <c r="W48" t="n">
-        <v>4821.5</v>
+        <v>14464.5</v>
       </c>
       <c r="X48" t="n">
-        <v>4821.5</v>
+        <v>-14464.5</v>
       </c>
       <c r="Y48" t="n">
         <v>4821.5</v>
@@ -5536,6 +5822,12 @@
         <v>4821.5</v>
       </c>
       <c r="AC48" t="n">
+        <v>4821.5</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>4821.5</v>
+      </c>
+      <c r="AE48" t="n">
         <v>4821.5</v>
       </c>
     </row>
@@ -5621,16 +5913,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U49" t="n">
-        <v>23196</v>
+        <v>54124</v>
       </c>
       <c r="V49" t="n">
         <v>30928</v>
       </c>
       <c r="W49" t="n">
-        <v>7732</v>
+        <v>23196</v>
       </c>
       <c r="X49" t="n">
-        <v>7732</v>
+        <v>-23196</v>
       </c>
       <c r="Y49" t="n">
         <v>7732</v>
@@ -5645,6 +5937,12 @@
         <v>7732</v>
       </c>
       <c r="AC49" t="n">
+        <v>7732</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>7732</v>
+      </c>
+      <c r="AE49" t="n">
         <v>7732</v>
       </c>
     </row>
@@ -5730,16 +6028,16 @@
         <v>0.1</v>
       </c>
       <c r="U50" t="n">
-        <v>48620</v>
+        <v>68068</v>
       </c>
       <c r="V50" t="n">
         <v>19448</v>
       </c>
       <c r="W50" t="n">
-        <v>9724</v>
+        <v>48620</v>
       </c>
       <c r="X50" t="n">
-        <v>9724</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
         <v>9724</v>
@@ -5754,6 +6052,12 @@
         <v>9724</v>
       </c>
       <c r="AC50" t="n">
+        <v>9724</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>9724</v>
+      </c>
+      <c r="AE50" t="n">
         <v>9724</v>
       </c>
     </row>
@@ -5839,16 +6143,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U51" t="n">
-        <v>71571.42857142858</v>
+        <v>167000</v>
       </c>
       <c r="V51" t="n">
         <v>95428.57142857142</v>
       </c>
       <c r="W51" t="n">
-        <v>23857.14285714286</v>
+        <v>71571.42857142858</v>
       </c>
       <c r="X51" t="n">
-        <v>23857.14285714286</v>
+        <v>-71571.42857142858</v>
       </c>
       <c r="Y51" t="n">
         <v>23857.14285714286</v>
@@ -5863,6 +6167,12 @@
         <v>23857.14285714286</v>
       </c>
       <c r="AC51" t="n">
+        <v>23857.14285714286</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>23857.14285714286</v>
+      </c>
+      <c r="AE51" t="n">
         <v>23857.14285714286</v>
       </c>
     </row>
@@ -5948,16 +6258,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U52" t="n">
-        <v>165021.4285714285</v>
+        <v>385049.9999999999</v>
       </c>
       <c r="V52" t="n">
         <v>220028.5714285714</v>
       </c>
       <c r="W52" t="n">
-        <v>55007.14285714286</v>
+        <v>165021.4285714285</v>
       </c>
       <c r="X52" t="n">
-        <v>55007.14285714286</v>
+        <v>-165021.4285714285</v>
       </c>
       <c r="Y52" t="n">
         <v>55007.14285714286</v>
@@ -5972,6 +6282,12 @@
         <v>55007.14285714286</v>
       </c>
       <c r="AC52" t="n">
+        <v>55007.14285714286</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>55007.14285714286</v>
+      </c>
+      <c r="AE52" t="n">
         <v>55007.14285714286</v>
       </c>
     </row>
@@ -6057,16 +6373,16 @@
         <v>0.1</v>
       </c>
       <c r="U53" t="n">
-        <v>35970</v>
+        <v>83930</v>
       </c>
       <c r="V53" t="n">
         <v>47960</v>
       </c>
       <c r="W53" t="n">
-        <v>11990</v>
+        <v>35970</v>
       </c>
       <c r="X53" t="n">
-        <v>11990</v>
+        <v>-35970</v>
       </c>
       <c r="Y53" t="n">
         <v>11990</v>
@@ -6081,6 +6397,12 @@
         <v>11990</v>
       </c>
       <c r="AC53" t="n">
+        <v>11990</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>11990</v>
+      </c>
+      <c r="AE53" t="n">
         <v>11990</v>
       </c>
     </row>
@@ -6166,16 +6488,16 @@
         <v>0.1</v>
       </c>
       <c r="U54" t="n">
-        <v>17106.3</v>
+        <v>39914.7</v>
       </c>
       <c r="V54" t="n">
         <v>22808.4</v>
       </c>
       <c r="W54" t="n">
-        <v>5702.1</v>
+        <v>17106.3</v>
       </c>
       <c r="X54" t="n">
-        <v>5702.1</v>
+        <v>-17106.3</v>
       </c>
       <c r="Y54" t="n">
         <v>5702.1</v>
@@ -6190,6 +6512,12 @@
         <v>5702.1</v>
       </c>
       <c r="AC54" t="n">
+        <v>5702.1</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>5702.1</v>
+      </c>
+      <c r="AE54" t="n">
         <v>5702.1</v>
       </c>
     </row>
@@ -6275,19 +6603,19 @@
         <v>0.1</v>
       </c>
       <c r="U55" t="n">
-        <v>4136.941224489794</v>
+        <v>8273.879999999999</v>
       </c>
       <c r="V55" t="n">
         <v>4136.938775510205</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>4136.941224489794</v>
       </c>
       <c r="X55" t="n">
-        <v>1378.98</v>
+        <v>-4136.937142857145</v>
       </c>
       <c r="Y55" t="n">
-        <v>1378.98</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
         <v>1378.98</v>
@@ -6299,6 +6627,12 @@
         <v>1378.98</v>
       </c>
       <c r="AC55" t="n">
+        <v>1378.98</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1378.98</v>
+      </c>
+      <c r="AE55" t="n">
         <v>1378.98</v>
       </c>
     </row>
@@ -6384,19 +6718,19 @@
         <v>0.1</v>
       </c>
       <c r="U56" t="n">
-        <v>1965</v>
+        <v>3930</v>
       </c>
       <c r="V56" t="n">
         <v>1965</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="X56" t="n">
-        <v>655</v>
+        <v>-1965</v>
       </c>
       <c r="Y56" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
         <v>655</v>
@@ -6408,6 +6742,12 @@
         <v>655</v>
       </c>
       <c r="AC56" t="n">
+        <v>655</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>655</v>
+      </c>
+      <c r="AE56" t="n">
         <v>655</v>
       </c>
     </row>
@@ -6493,19 +6833,19 @@
         <v>0.1</v>
       </c>
       <c r="U57" t="n">
-        <v>8213.700000000001</v>
+        <v>16427.4</v>
       </c>
       <c r="V57" t="n">
         <v>8213.700000000001</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>8213.700000000001</v>
       </c>
       <c r="X57" t="n">
-        <v>2737.9</v>
+        <v>-8213.700000000001</v>
       </c>
       <c r="Y57" t="n">
-        <v>2737.9</v>
+        <v>0</v>
       </c>
       <c r="Z57" t="n">
         <v>2737.9</v>
@@ -6517,6 +6857,12 @@
         <v>2737.9</v>
       </c>
       <c r="AC57" t="n">
+        <v>2737.9</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>2737.9</v>
+      </c>
+      <c r="AE57" t="n">
         <v>2737.9</v>
       </c>
     </row>
@@ -6602,19 +6948,19 @@
         <v>0.1</v>
       </c>
       <c r="U58" t="n">
-        <v>17220</v>
+        <v>34440</v>
       </c>
       <c r="V58" t="n">
         <v>17220</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>17220</v>
       </c>
       <c r="X58" t="n">
-        <v>5740</v>
+        <v>-17220</v>
       </c>
       <c r="Y58" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="Z58" t="n">
         <v>5740</v>
@@ -6626,6 +6972,12 @@
         <v>5740</v>
       </c>
       <c r="AC58" t="n">
+        <v>5740</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>5740</v>
+      </c>
+      <c r="AE58" t="n">
         <v>5740</v>
       </c>
     </row>
@@ -6711,19 +7063,19 @@
         <v>0.1</v>
       </c>
       <c r="U59" t="n">
-        <v>10866</v>
+        <v>21732</v>
       </c>
       <c r="V59" t="n">
         <v>10866</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>10866</v>
       </c>
       <c r="X59" t="n">
-        <v>3622</v>
+        <v>-10866</v>
       </c>
       <c r="Y59" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="Z59" t="n">
         <v>3622</v>
@@ -6735,6 +7087,12 @@
         <v>3622</v>
       </c>
       <c r="AC59" t="n">
+        <v>3622</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3622</v>
+      </c>
+      <c r="AE59" t="n">
         <v>3622</v>
       </c>
     </row>
@@ -6820,19 +7178,19 @@
         <v>0.1</v>
       </c>
       <c r="U60" t="n">
-        <v>42437.64</v>
+        <v>60625.2</v>
       </c>
       <c r="V60" t="n">
         <v>18187.56</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>42437.64</v>
       </c>
       <c r="X60" t="n">
-        <v>10104.2</v>
+        <v>-2020.839999999997</v>
       </c>
       <c r="Y60" t="n">
-        <v>10104.2</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
         <v>10104.2</v>
@@ -6844,6 +7202,12 @@
         <v>10104.2</v>
       </c>
       <c r="AC60" t="n">
+        <v>10104.2</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>10104.2</v>
+      </c>
+      <c r="AE60" t="n">
         <v>10104.2</v>
       </c>
     </row>
@@ -6931,13 +7295,13 @@
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>83200</v>
       </c>
       <c r="X61" t="n">
-        <v>16640</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>16640</v>
+        <v>0</v>
       </c>
       <c r="Z61" t="n">
         <v>16640</v>
@@ -6949,6 +7313,12 @@
         <v>16640</v>
       </c>
       <c r="AC61" t="n">
+        <v>16640</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>16640</v>
+      </c>
+      <c r="AE61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7036,13 +7406,13 @@
         <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>146100</v>
       </c>
       <c r="X62" t="n">
-        <v>29220</v>
+        <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>29220</v>
+        <v>0</v>
       </c>
       <c r="Z62" t="n">
         <v>29220</v>
@@ -7054,6 +7424,12 @@
         <v>29220</v>
       </c>
       <c r="AC62" t="n">
+        <v>29220</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>29220</v>
+      </c>
+      <c r="AE62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7141,13 +7517,13 @@
         <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>15744</v>
       </c>
       <c r="X63" t="n">
         <v>2624</v>
       </c>
       <c r="Y63" t="n">
-        <v>2624</v>
+        <v>0</v>
       </c>
       <c r="Z63" t="n">
         <v>2624</v>
@@ -7159,6 +7535,12 @@
         <v>2624</v>
       </c>
       <c r="AC63" t="n">
+        <v>2624</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>2624</v>
+      </c>
+      <c r="AE63" t="n">
         <v>2624</v>
       </c>
     </row>
@@ -7246,13 +7628,13 @@
         <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>10243.284</v>
       </c>
       <c r="X64" t="n">
-        <v>1707.214</v>
+        <v>6828.856</v>
       </c>
       <c r="Y64" t="n">
-        <v>1707.214</v>
+        <v>0</v>
       </c>
       <c r="Z64" t="n">
         <v>1707.214</v>
@@ -7264,6 +7646,12 @@
         <v>1707.214</v>
       </c>
       <c r="AC64" t="n">
+        <v>1707.214</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>1707.214</v>
+      </c>
+      <c r="AE64" t="n">
         <v>1707.214</v>
       </c>
     </row>
@@ -7349,19 +7737,19 @@
         <v>0.1</v>
       </c>
       <c r="U65" t="n">
-        <v>27000</v>
+        <v>54000</v>
       </c>
       <c r="V65" t="n">
         <v>27000</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="X65" t="n">
-        <v>9000</v>
+        <v>-27000</v>
       </c>
       <c r="Y65" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="Z65" t="n">
         <v>9000</v>
@@ -7373,6 +7761,12 @@
         <v>9000</v>
       </c>
       <c r="AC65" t="n">
+        <v>9000</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>9000</v>
+      </c>
+      <c r="AE65" t="n">
         <v>9000</v>
       </c>
     </row>
@@ -7460,13 +7854,13 @@
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
+        <v>197600</v>
       </c>
       <c r="X66" t="n">
-        <v>39520</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>39520</v>
+        <v>0</v>
       </c>
       <c r="Z66" t="n">
         <v>39520</v>
@@ -7478,6 +7872,12 @@
         <v>39520</v>
       </c>
       <c r="AC66" t="n">
+        <v>39520</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>39520</v>
+      </c>
+      <c r="AE66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7565,13 +7965,13 @@
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>57700</v>
       </c>
       <c r="X67" t="n">
-        <v>11540</v>
+        <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>11540</v>
+        <v>0</v>
       </c>
       <c r="Z67" t="n">
         <v>11540</v>
@@ -7583,6 +7983,12 @@
         <v>11540</v>
       </c>
       <c r="AC67" t="n">
+        <v>11540</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>11540</v>
+      </c>
+      <c r="AE67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7670,13 +8076,13 @@
         <v>0</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="X68" t="n">
-        <v>5500</v>
+        <v>22000</v>
       </c>
       <c r="Y68" t="n">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="Z68" t="n">
         <v>5500</v>
@@ -7688,6 +8094,12 @@
         <v>5500</v>
       </c>
       <c r="AC68" t="n">
+        <v>5500</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>5500</v>
+      </c>
+      <c r="AE68" t="n">
         <v>5500</v>
       </c>
     </row>
@@ -7775,13 +8187,13 @@
         <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="X69" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Y69" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="Z69" t="n">
         <v>2500</v>
@@ -7793,6 +8205,12 @@
         <v>2500</v>
       </c>
       <c r="AC69" t="n">
+        <v>2500</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>2500</v>
+      </c>
+      <c r="AE69" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -7878,19 +8296,19 @@
         <v>0.1</v>
       </c>
       <c r="U70" t="n">
-        <v>14094</v>
+        <v>28188</v>
       </c>
       <c r="V70" t="n">
         <v>14094</v>
       </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>14094</v>
       </c>
       <c r="X70" t="n">
-        <v>4698</v>
+        <v>-14094</v>
       </c>
       <c r="Y70" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
       <c r="Z70" t="n">
         <v>4698</v>
@@ -7902,6 +8320,12 @@
         <v>4698</v>
       </c>
       <c r="AC70" t="n">
+        <v>4698</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>4698</v>
+      </c>
+      <c r="AE70" t="n">
         <v>4698</v>
       </c>
     </row>
@@ -7989,13 +8413,13 @@
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>4398</v>
       </c>
       <c r="X71" t="n">
-        <v>733</v>
+        <v>2932</v>
       </c>
       <c r="Y71" t="n">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="Z71" t="n">
         <v>733</v>
@@ -8007,6 +8431,12 @@
         <v>733</v>
       </c>
       <c r="AC71" t="n">
+        <v>733</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>733</v>
+      </c>
+      <c r="AE71" t="n">
         <v>733</v>
       </c>
     </row>
@@ -8094,13 +8524,13 @@
         <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>46000</v>
       </c>
       <c r="X72" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="Z72" t="n">
         <v>9200</v>
@@ -8112,6 +8542,12 @@
         <v>9200</v>
       </c>
       <c r="AC72" t="n">
+        <v>9200</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>9200</v>
+      </c>
+      <c r="AE72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8199,13 +8635,13 @@
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="X73" t="n">
-        <v>950</v>
+        <v>3800</v>
       </c>
       <c r="Y73" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="Z73" t="n">
         <v>950</v>
@@ -8217,6 +8653,12 @@
         <v>950</v>
       </c>
       <c r="AC73" t="n">
+        <v>950</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>950</v>
+      </c>
+      <c r="AE73" t="n">
         <v>950</v>
       </c>
     </row>
@@ -8304,13 +8746,13 @@
         <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>10080</v>
       </c>
       <c r="X74" t="n">
-        <v>1680</v>
+        <v>6720</v>
       </c>
       <c r="Y74" t="n">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="Z74" t="n">
         <v>1680</v>
@@ -8322,6 +8764,12 @@
         <v>1680</v>
       </c>
       <c r="AC74" t="n">
+        <v>1680</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>1680</v>
+      </c>
+      <c r="AE74" t="n">
         <v>1680</v>
       </c>
     </row>
@@ -8409,13 +8857,13 @@
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>7650</v>
       </c>
       <c r="X75" t="n">
-        <v>1275</v>
+        <v>5100</v>
       </c>
       <c r="Y75" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="Z75" t="n">
         <v>1275</v>
@@ -8427,6 +8875,12 @@
         <v>1275</v>
       </c>
       <c r="AC75" t="n">
+        <v>1275</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>1275</v>
+      </c>
+      <c r="AE75" t="n">
         <v>1275</v>
       </c>
     </row>
@@ -8514,13 +8968,13 @@
         <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="X76" t="n">
-        <v>3150</v>
+        <v>12600</v>
       </c>
       <c r="Y76" t="n">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="Z76" t="n">
         <v>3150</v>
@@ -8532,6 +8986,12 @@
         <v>3150</v>
       </c>
       <c r="AC76" t="n">
+        <v>3150</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3150</v>
+      </c>
+      <c r="AE76" t="n">
         <v>3150</v>
       </c>
     </row>
@@ -8617,13 +9077,13 @@
         <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>17710.28571428571</v>
       </c>
       <c r="X77" t="n">
-        <v>2951.714285714285</v>
+        <v>2951.714285714286</v>
       </c>
       <c r="Y77" t="n">
-        <v>2951.714285714285</v>
+        <v>0</v>
       </c>
       <c r="Z77" t="n">
         <v>2951.714285714285</v>
@@ -8635,6 +9095,12 @@
         <v>2951.714285714285</v>
       </c>
       <c r="AC77" t="n">
+        <v>2951.714285714285</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>2951.714285714285</v>
+      </c>
+      <c r="AE77" t="n">
         <v>2951.714285714285</v>
       </c>
     </row>
@@ -8722,13 +9188,13 @@
         <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>0</v>
+        <v>10177.8</v>
       </c>
       <c r="X78" t="n">
-        <v>1696.3</v>
+        <v>6785.200000000001</v>
       </c>
       <c r="Y78" t="n">
-        <v>1696.3</v>
+        <v>0</v>
       </c>
       <c r="Z78" t="n">
         <v>1696.3</v>
@@ -8740,6 +9206,12 @@
         <v>1696.3</v>
       </c>
       <c r="AC78" t="n">
+        <v>1696.3</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>1696.3</v>
+      </c>
+      <c r="AE78" t="n">
         <v>1696.3</v>
       </c>
     </row>
@@ -8827,13 +9299,13 @@
         <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="X79" t="n">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="Y79" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="Z79" t="n">
         <v>1200</v>
@@ -8845,6 +9317,12 @@
         <v>1200</v>
       </c>
       <c r="AC79" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AE79" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -8932,13 +9410,13 @@
         <v>0</v>
       </c>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="X80" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="Y80" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z80" t="n">
         <v>500</v>
@@ -8950,6 +9428,12 @@
         <v>500</v>
       </c>
       <c r="AC80" t="n">
+        <v>500</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE80" t="n">
         <v>500</v>
       </c>
     </row>
@@ -9037,13 +9521,13 @@
         <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>63665</v>
       </c>
       <c r="X81" t="n">
-        <v>12733</v>
+        <v>0</v>
       </c>
       <c r="Y81" t="n">
-        <v>12733</v>
+        <v>0</v>
       </c>
       <c r="Z81" t="n">
         <v>12733</v>
@@ -9055,6 +9539,12 @@
         <v>12733</v>
       </c>
       <c r="AC81" t="n">
+        <v>12733</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>12733</v>
+      </c>
+      <c r="AE81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9142,13 +9632,13 @@
         <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>3745</v>
       </c>
       <c r="X82" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="Z82" t="n">
         <v>749</v>
@@ -9160,6 +9650,12 @@
         <v>749</v>
       </c>
       <c r="AC82" t="n">
+        <v>749</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>749</v>
+      </c>
+      <c r="AE82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9247,13 +9743,13 @@
         <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>18725</v>
       </c>
       <c r="X83" t="n">
-        <v>3745</v>
+        <v>0</v>
       </c>
       <c r="Y83" t="n">
-        <v>3745</v>
+        <v>0</v>
       </c>
       <c r="Z83" t="n">
         <v>3745</v>
@@ -9265,6 +9761,12 @@
         <v>3745</v>
       </c>
       <c r="AC83" t="n">
+        <v>3745</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3745</v>
+      </c>
+      <c r="AE83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9352,13 +9854,13 @@
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>28890</v>
       </c>
       <c r="X84" t="n">
-        <v>5778</v>
+        <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>5778</v>
+        <v>0</v>
       </c>
       <c r="Z84" t="n">
         <v>5778</v>
@@ -9370,6 +9872,12 @@
         <v>5778</v>
       </c>
       <c r="AC84" t="n">
+        <v>5778</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>5778</v>
+      </c>
+      <c r="AE84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9457,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>33754.28571428571</v>
       </c>
       <c r="X85" t="n">
-        <v>5625.714285714285</v>
+        <v>5625.71428571429</v>
       </c>
       <c r="Y85" t="n">
-        <v>5625.714285714285</v>
+        <v>0</v>
       </c>
       <c r="Z85" t="n">
         <v>5625.714285714285</v>
@@ -9475,6 +9983,12 @@
         <v>5625.714285714285</v>
       </c>
       <c r="AC85" t="n">
+        <v>5625.714285714285</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>5625.714285714285</v>
+      </c>
+      <c r="AE85" t="n">
         <v>5625.714285714285</v>
       </c>
     </row>
@@ -9562,13 +10076,13 @@
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>15194</v>
       </c>
       <c r="X86" t="n">
-        <v>3038.8</v>
+        <v>0</v>
       </c>
       <c r="Y86" t="n">
-        <v>3038.8</v>
+        <v>0</v>
       </c>
       <c r="Z86" t="n">
         <v>3038.8</v>
@@ -9580,6 +10094,12 @@
         <v>3038.8</v>
       </c>
       <c r="AC86" t="n">
+        <v>3038.8</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3038.8</v>
+      </c>
+      <c r="AE86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9667,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>5350</v>
       </c>
       <c r="X87" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="Z87" t="n">
         <v>1070</v>
@@ -9685,6 +10205,12 @@
         <v>1070</v>
       </c>
       <c r="AC87" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AE87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9772,13 +10298,13 @@
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>53571.42857142857</v>
       </c>
       <c r="X88" t="n">
-        <v>8928.571428571428</v>
+        <v>8928.571428571435</v>
       </c>
       <c r="Y88" t="n">
-        <v>8928.571428571428</v>
+        <v>0</v>
       </c>
       <c r="Z88" t="n">
         <v>8928.571428571428</v>
@@ -9790,6 +10316,12 @@
         <v>8928.571428571428</v>
       </c>
       <c r="AC88" t="n">
+        <v>8928.571428571428</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>8928.571428571428</v>
+      </c>
+      <c r="AE88" t="n">
         <v>8928.571428571428</v>
       </c>
     </row>
@@ -9877,13 +10409,13 @@
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>12305</v>
       </c>
       <c r="X89" t="n">
-        <v>2461</v>
+        <v>0</v>
       </c>
       <c r="Y89" t="n">
-        <v>2461</v>
+        <v>0</v>
       </c>
       <c r="Z89" t="n">
         <v>2461</v>
@@ -9895,6 +10427,12 @@
         <v>2461</v>
       </c>
       <c r="AC89" t="n">
+        <v>2461</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>2461</v>
+      </c>
+      <c r="AE89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9982,13 +10520,13 @@
         <v>0</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>172056</v>
       </c>
       <c r="X90" t="n">
-        <v>34411.2</v>
+        <v>-2.91038304567337e-11</v>
       </c>
       <c r="Y90" t="n">
-        <v>34411.2</v>
+        <v>0</v>
       </c>
       <c r="Z90" t="n">
         <v>34411.2</v>
@@ -10000,6 +10538,12 @@
         <v>34411.2</v>
       </c>
       <c r="AC90" t="n">
+        <v>34411.2</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>34411.2</v>
+      </c>
+      <c r="AE90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10087,13 +10631,13 @@
         <v>0</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>5564</v>
       </c>
       <c r="X91" t="n">
-        <v>1112.8</v>
+        <v>0</v>
       </c>
       <c r="Y91" t="n">
-        <v>1112.8</v>
+        <v>0</v>
       </c>
       <c r="Z91" t="n">
         <v>1112.8</v>
@@ -10105,6 +10649,12 @@
         <v>1112.8</v>
       </c>
       <c r="AC91" t="n">
+        <v>1112.8</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>1112.8</v>
+      </c>
+      <c r="AE91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10190,19 +10740,19 @@
         <v>0.1</v>
       </c>
       <c r="U92" t="n">
-        <v>93350.39999999998</v>
+        <v>186700.8</v>
       </c>
       <c r="V92" t="n">
         <v>93350.40000000001</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>93350.39999999998</v>
       </c>
       <c r="X92" t="n">
-        <v>31116.8</v>
+        <v>-93350.39999999998</v>
       </c>
       <c r="Y92" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
       <c r="Z92" t="n">
         <v>31116.8</v>
@@ -10214,6 +10764,12 @@
         <v>31116.8</v>
       </c>
       <c r="AC92" t="n">
+        <v>31116.8</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>31116.8</v>
+      </c>
+      <c r="AE92" t="n">
         <v>31116.8</v>
       </c>
     </row>
@@ -10299,19 +10855,19 @@
         <v>0.1</v>
       </c>
       <c r="U93" t="n">
-        <v>18144</v>
+        <v>36288</v>
       </c>
       <c r="V93" t="n">
         <v>18144</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>18144</v>
       </c>
       <c r="X93" t="n">
-        <v>6048</v>
+        <v>-18144</v>
       </c>
       <c r="Y93" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
       <c r="Z93" t="n">
         <v>6048</v>
@@ -10323,6 +10879,12 @@
         <v>6048</v>
       </c>
       <c r="AC93" t="n">
+        <v>6048</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>6048</v>
+      </c>
+      <c r="AE93" t="n">
         <v>6048</v>
       </c>
     </row>
@@ -10408,19 +10970,19 @@
         <v>0.1</v>
       </c>
       <c r="U94" t="n">
-        <v>4200</v>
+        <v>8400</v>
       </c>
       <c r="V94" t="n">
         <v>4200</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="X94" t="n">
-        <v>1400</v>
+        <v>-4200</v>
       </c>
       <c r="Y94" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="Z94" t="n">
         <v>1400</v>
@@ -10432,6 +10994,12 @@
         <v>1400</v>
       </c>
       <c r="AC94" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AE94" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -10517,19 +11085,19 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U95" t="n">
-        <v>144672</v>
+        <v>289344</v>
       </c>
       <c r="V95" t="n">
         <v>144672</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>144672</v>
       </c>
       <c r="X95" t="n">
-        <v>48224</v>
+        <v>-144672</v>
       </c>
       <c r="Y95" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
       <c r="Z95" t="n">
         <v>48224</v>
@@ -10541,6 +11109,12 @@
         <v>48224</v>
       </c>
       <c r="AC95" t="n">
+        <v>48224</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>48224</v>
+      </c>
+      <c r="AE95" t="n">
         <v>48224</v>
       </c>
     </row>
@@ -10626,13 +11200,13 @@
         <v>0</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="X96" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="Y96" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="Z96" t="n">
         <v>3500</v>
@@ -10644,6 +11218,12 @@
         <v>3500</v>
       </c>
       <c r="AC96" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE96" t="n">
         <v>3500</v>
       </c>
     </row>
@@ -10731,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
+        <v>31457.14285714285</v>
       </c>
       <c r="X97" t="n">
-        <v>5242.857142857142</v>
+        <v>5242.857142857149</v>
       </c>
       <c r="Y97" t="n">
-        <v>5242.857142857142</v>
+        <v>0</v>
       </c>
       <c r="Z97" t="n">
         <v>5242.857142857142</v>
@@ -10749,6 +11329,12 @@
         <v>5242.857142857142</v>
       </c>
       <c r="AC97" t="n">
+        <v>5242.857142857142</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>5242.857142857142</v>
+      </c>
+      <c r="AE97" t="n">
         <v>5242.857142857142</v>
       </c>
     </row>
@@ -10834,13 +11420,13 @@
         <v>0</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>183545.1428571428</v>
       </c>
       <c r="X98" t="n">
-        <v>30590.85714285714</v>
+        <v>30590.85714285716</v>
       </c>
       <c r="Y98" t="n">
-        <v>30590.85714285714</v>
+        <v>0</v>
       </c>
       <c r="Z98" t="n">
         <v>30590.85714285714</v>
@@ -10852,6 +11438,12 @@
         <v>30590.85714285714</v>
       </c>
       <c r="AC98" t="n">
+        <v>30590.85714285714</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>30590.85714285714</v>
+      </c>
+      <c r="AE98" t="n">
         <v>30590.85714285714</v>
       </c>
     </row>
@@ -10939,13 +11531,13 @@
         <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>5565879</v>
       </c>
       <c r="X99" t="n">
-        <v>927646.5</v>
+        <v>3710586</v>
       </c>
       <c r="Y99" t="n">
-        <v>927646.5</v>
+        <v>0</v>
       </c>
       <c r="Z99" t="n">
         <v>927646.5</v>
@@ -10957,6 +11549,12 @@
         <v>927646.5</v>
       </c>
       <c r="AC99" t="n">
+        <v>927646.5</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>927646.5</v>
+      </c>
+      <c r="AE99" t="n">
         <v>927646.5</v>
       </c>
     </row>
@@ -11044,13 +11642,13 @@
         <v>0</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>5428140</v>
       </c>
       <c r="X100" t="n">
-        <v>904690</v>
+        <v>3618760</v>
       </c>
       <c r="Y100" t="n">
-        <v>904690</v>
+        <v>0</v>
       </c>
       <c r="Z100" t="n">
         <v>904690</v>
@@ -11062,6 +11660,12 @@
         <v>904690</v>
       </c>
       <c r="AC100" t="n">
+        <v>904690</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>904690</v>
+      </c>
+      <c r="AE100" t="n">
         <v>904690</v>
       </c>
     </row>
@@ -11149,13 +11753,13 @@
         <v>0</v>
       </c>
       <c r="W101" t="n">
-        <v>0</v>
+        <v>36686.57142857143</v>
       </c>
       <c r="X101" t="n">
-        <v>6114.428571428571</v>
+        <v>6114.428571428572</v>
       </c>
       <c r="Y101" t="n">
-        <v>6114.428571428571</v>
+        <v>0</v>
       </c>
       <c r="Z101" t="n">
         <v>6114.428571428571</v>
@@ -11167,6 +11771,12 @@
         <v>6114.428571428571</v>
       </c>
       <c r="AC101" t="n">
+        <v>6114.428571428571</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>6114.428571428571</v>
+      </c>
+      <c r="AE101" t="n">
         <v>6114.428571428571</v>
       </c>
     </row>
@@ -11254,13 +11864,13 @@
         <v>0</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
+        <v>17228.57142857143</v>
       </c>
       <c r="X102" t="n">
-        <v>2871.428571428571</v>
+        <v>2871.428571428572</v>
       </c>
       <c r="Y102" t="n">
-        <v>2871.428571428571</v>
+        <v>0</v>
       </c>
       <c r="Z102" t="n">
         <v>2871.428571428571</v>
@@ -11272,6 +11882,12 @@
         <v>2871.428571428571</v>
       </c>
       <c r="AC102" t="n">
+        <v>2871.428571428571</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>2871.428571428571</v>
+      </c>
+      <c r="AE102" t="n">
         <v>2871.428571428571</v>
       </c>
     </row>
@@ -11359,13 +11975,13 @@
         <v>0</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>3702.857142857142</v>
       </c>
       <c r="X103" t="n">
-        <v>617.1428571428571</v>
+        <v>617.1428571428578</v>
       </c>
       <c r="Y103" t="n">
-        <v>617.1428571428571</v>
+        <v>0</v>
       </c>
       <c r="Z103" t="n">
         <v>617.1428571428571</v>
@@ -11377,6 +11993,12 @@
         <v>617.1428571428571</v>
       </c>
       <c r="AC103" t="n">
+        <v>617.1428571428571</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>617.1428571428571</v>
+      </c>
+      <c r="AE103" t="n">
         <v>617.1428571428571</v>
       </c>
     </row>
@@ -11462,19 +12084,19 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U104" t="n">
-        <v>79878.85714285714</v>
+        <v>159757.7142857143</v>
       </c>
       <c r="V104" t="n">
         <v>79878.85714285714</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
+        <v>79878.85714285714</v>
       </c>
       <c r="X104" t="n">
-        <v>26626.28571428571</v>
+        <v>-79878.85714285714</v>
       </c>
       <c r="Y104" t="n">
-        <v>26626.28571428571</v>
+        <v>0</v>
       </c>
       <c r="Z104" t="n">
         <v>26626.28571428571</v>
@@ -11486,6 +12108,12 @@
         <v>26626.28571428571</v>
       </c>
       <c r="AC104" t="n">
+        <v>26626.28571428571</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>26626.28571428571</v>
+      </c>
+      <c r="AE104" t="n">
         <v>26626.28571428571</v>
       </c>
     </row>
@@ -11571,13 +12199,13 @@
         <v>0</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>8485.714285714284</v>
       </c>
       <c r="X105" t="n">
-        <v>1414.285714285714</v>
+        <v>1414.285714285716</v>
       </c>
       <c r="Y105" t="n">
-        <v>1414.285714285714</v>
+        <v>0</v>
       </c>
       <c r="Z105" t="n">
         <v>1414.285714285714</v>
@@ -11589,6 +12217,12 @@
         <v>1414.285714285714</v>
       </c>
       <c r="AC105" t="n">
+        <v>1414.285714285714</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>1414.285714285714</v>
+      </c>
+      <c r="AE105" t="n">
         <v>1414.285714285714</v>
       </c>
     </row>
@@ -11676,13 +12310,13 @@
         <v>0</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
+        <v>49542.85714285714</v>
       </c>
       <c r="X106" t="n">
-        <v>8257.142857142857</v>
+        <v>8257.142857142862</v>
       </c>
       <c r="Y106" t="n">
-        <v>8257.142857142857</v>
+        <v>0</v>
       </c>
       <c r="Z106" t="n">
         <v>8257.142857142857</v>
@@ -11694,6 +12328,12 @@
         <v>8257.142857142857</v>
       </c>
       <c r="AC106" t="n">
+        <v>8257.142857142857</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>8257.142857142857</v>
+      </c>
+      <c r="AE106" t="n">
         <v>8257.142857142857</v>
       </c>
     </row>
@@ -11779,19 +12419,19 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U107" t="n">
-        <v>160317.8571428571</v>
+        <v>320635.7142857142</v>
       </c>
       <c r="V107" t="n">
         <v>160317.8571428571</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>160317.8571428571</v>
       </c>
       <c r="X107" t="n">
-        <v>53439.28571428571</v>
+        <v>-160317.8571428571</v>
       </c>
       <c r="Y107" t="n">
-        <v>53439.28571428571</v>
+        <v>0</v>
       </c>
       <c r="Z107" t="n">
         <v>53439.28571428571</v>
@@ -11803,6 +12443,12 @@
         <v>53439.28571428571</v>
       </c>
       <c r="AC107" t="n">
+        <v>53439.28571428571</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>53439.28571428571</v>
+      </c>
+      <c r="AE107" t="n">
         <v>53439.28571428571</v>
       </c>
     </row>
@@ -11890,13 +12536,13 @@
         <v>0</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
+        <v>156803.1428571428</v>
       </c>
       <c r="X108" t="n">
-        <v>26133.85714285714</v>
+        <v>26133.85714285716</v>
       </c>
       <c r="Y108" t="n">
-        <v>26133.85714285714</v>
+        <v>0</v>
       </c>
       <c r="Z108" t="n">
         <v>26133.85714285714</v>
@@ -11908,6 +12554,12 @@
         <v>26133.85714285714</v>
       </c>
       <c r="AC108" t="n">
+        <v>26133.85714285714</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>26133.85714285714</v>
+      </c>
+      <c r="AE108" t="n">
         <v>26133.85714285714</v>
       </c>
     </row>
@@ -11995,13 +12647,13 @@
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>7839.428571428571</v>
       </c>
       <c r="X109" t="n">
-        <v>1306.571428571428</v>
+        <v>1306.571428571429</v>
       </c>
       <c r="Y109" t="n">
-        <v>1306.571428571428</v>
+        <v>0</v>
       </c>
       <c r="Z109" t="n">
         <v>1306.571428571428</v>
@@ -12013,6 +12665,12 @@
         <v>1306.571428571428</v>
       </c>
       <c r="AC109" t="n">
+        <v>1306.571428571428</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>1306.571428571428</v>
+      </c>
+      <c r="AE109" t="n">
         <v>1306.571428571428</v>
       </c>
     </row>
@@ -12100,13 +12758,13 @@
         <v>0</v>
       </c>
       <c r="W110" t="n">
-        <v>0</v>
+        <v>62365.71428571428</v>
       </c>
       <c r="X110" t="n">
-        <v>10394.28571428571</v>
+        <v>10394.28571428572</v>
       </c>
       <c r="Y110" t="n">
-        <v>10394.28571428571</v>
+        <v>0</v>
       </c>
       <c r="Z110" t="n">
         <v>10394.28571428571</v>
@@ -12118,6 +12776,12 @@
         <v>10394.28571428571</v>
       </c>
       <c r="AC110" t="n">
+        <v>10394.28571428571</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>10394.28571428571</v>
+      </c>
+      <c r="AE110" t="n">
         <v>10394.28571428571</v>
       </c>
     </row>
@@ -12203,19 +12867,19 @@
         <v>0.1</v>
       </c>
       <c r="U111" t="n">
-        <v>20534.4</v>
+        <v>41068.8</v>
       </c>
       <c r="V111" t="n">
         <v>20534.4</v>
       </c>
       <c r="W111" t="n">
-        <v>0</v>
+        <v>20534.4</v>
       </c>
       <c r="X111" t="n">
-        <v>6844.8</v>
+        <v>-20534.4</v>
       </c>
       <c r="Y111" t="n">
-        <v>6844.8</v>
+        <v>0</v>
       </c>
       <c r="Z111" t="n">
         <v>6844.8</v>
@@ -12227,6 +12891,12 @@
         <v>6844.8</v>
       </c>
       <c r="AC111" t="n">
+        <v>6844.8</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>6844.8</v>
+      </c>
+      <c r="AE111" t="n">
         <v>6844.8</v>
       </c>
     </row>
@@ -12312,22 +12982,22 @@
         <v>0.1</v>
       </c>
       <c r="U112" t="n">
-        <v>10773</v>
+        <v>17955</v>
       </c>
       <c r="V112" t="n">
         <v>7182</v>
       </c>
       <c r="W112" t="n">
-        <v>0</v>
+        <v>10773</v>
       </c>
       <c r="X112" t="n">
-        <v>0</v>
+        <v>-10773</v>
       </c>
       <c r="Y112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="Z112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="AA112" t="n">
         <v>3591</v>
@@ -12336,6 +13006,12 @@
         <v>3591</v>
       </c>
       <c r="AC112" t="n">
+        <v>3591</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>3591</v>
+      </c>
+      <c r="AE112" t="n">
         <v>3591</v>
       </c>
     </row>
@@ -12421,22 +13097,22 @@
         <v>0.1</v>
       </c>
       <c r="U113" t="n">
-        <v>6750</v>
+        <v>11250</v>
       </c>
       <c r="V113" t="n">
         <v>4500</v>
       </c>
       <c r="W113" t="n">
-        <v>0</v>
+        <v>6750</v>
       </c>
       <c r="X113" t="n">
-        <v>0</v>
+        <v>-6750</v>
       </c>
       <c r="Y113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="Z113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="AA113" t="n">
         <v>2250</v>
@@ -12445,6 +13121,12 @@
         <v>2250</v>
       </c>
       <c r="AC113" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AE113" t="n">
         <v>2250</v>
       </c>
     </row>
@@ -12530,22 +13212,22 @@
         <v>0.1</v>
       </c>
       <c r="U114" t="n">
-        <v>29400</v>
+        <v>49000</v>
       </c>
       <c r="V114" t="n">
         <v>19600</v>
       </c>
       <c r="W114" t="n">
-        <v>0</v>
+        <v>29400</v>
       </c>
       <c r="X114" t="n">
-        <v>0</v>
+        <v>-29400</v>
       </c>
       <c r="Y114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="Z114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="AA114" t="n">
         <v>9800</v>
@@ -12554,6 +13236,12 @@
         <v>9800</v>
       </c>
       <c r="AC114" t="n">
+        <v>9800</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>9800</v>
+      </c>
+      <c r="AE114" t="n">
         <v>9800</v>
       </c>
     </row>
@@ -12641,16 +13329,16 @@
         <v>0</v>
       </c>
       <c r="W115" t="n">
-        <v>0</v>
+        <v>147000</v>
       </c>
       <c r="X115" t="n">
-        <v>0</v>
+        <v>147000</v>
       </c>
       <c r="Y115" t="n">
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="Z115" t="n">
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="AA115" t="n">
         <v>29400</v>
@@ -12659,6 +13347,12 @@
         <v>29400</v>
       </c>
       <c r="AC115" t="n">
+        <v>29400</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>29400</v>
+      </c>
+      <c r="AE115" t="n">
         <v>29400</v>
       </c>
     </row>
@@ -12746,16 +13440,16 @@
         <v>0</v>
       </c>
       <c r="W116" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="X116" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="Y116" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="Z116" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AA116" t="n">
         <v>1400</v>
@@ -12764,6 +13458,12 @@
         <v>1400</v>
       </c>
       <c r="AC116" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AE116" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -12851,16 +13551,16 @@
         <v>0</v>
       </c>
       <c r="W117" t="n">
-        <v>0</v>
+        <v>37099.28571428571</v>
       </c>
       <c r="X117" t="n">
-        <v>0</v>
+        <v>14839.71428571429</v>
       </c>
       <c r="Y117" t="n">
-        <v>7419.857142857142</v>
+        <v>0</v>
       </c>
       <c r="Z117" t="n">
-        <v>7419.857142857142</v>
+        <v>0</v>
       </c>
       <c r="AA117" t="n">
         <v>7419.857142857142</v>
@@ -12869,6 +13569,12 @@
         <v>7419.857142857142</v>
       </c>
       <c r="AC117" t="n">
+        <v>7419.857142857142</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>7419.857142857142</v>
+      </c>
+      <c r="AE117" t="n">
         <v>7419.857142857142</v>
       </c>
     </row>
@@ -12954,22 +13660,22 @@
         <v>0.1</v>
       </c>
       <c r="U118" t="n">
-        <v>14661</v>
+        <v>24435</v>
       </c>
       <c r="V118" t="n">
         <v>9774</v>
       </c>
       <c r="W118" t="n">
-        <v>0</v>
+        <v>14661</v>
       </c>
       <c r="X118" t="n">
-        <v>0</v>
+        <v>-14661</v>
       </c>
       <c r="Y118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="Z118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="AA118" t="n">
         <v>4887</v>
@@ -12978,6 +13684,12 @@
         <v>4887</v>
       </c>
       <c r="AC118" t="n">
+        <v>4887</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>4887</v>
+      </c>
+      <c r="AE118" t="n">
         <v>4887</v>
       </c>
     </row>
@@ -13065,16 +13777,16 @@
         <v>0</v>
       </c>
       <c r="W119" t="n">
-        <v>0</v>
+        <v>11260</v>
       </c>
       <c r="X119" t="n">
-        <v>0</v>
+        <v>11260</v>
       </c>
       <c r="Y119" t="n">
-        <v>2252</v>
+        <v>0</v>
       </c>
       <c r="Z119" t="n">
-        <v>2252</v>
+        <v>0</v>
       </c>
       <c r="AA119" t="n">
         <v>2252</v>
@@ -13083,6 +13795,12 @@
         <v>2252</v>
       </c>
       <c r="AC119" t="n">
+        <v>2252</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>2252</v>
+      </c>
+      <c r="AE119" t="n">
         <v>2252</v>
       </c>
     </row>
@@ -13170,16 +13888,16 @@
         <v>0</v>
       </c>
       <c r="W120" t="n">
-        <v>0</v>
+        <v>17785.71428571428</v>
       </c>
       <c r="X120" t="n">
-        <v>0</v>
+        <v>7114.285714285717</v>
       </c>
       <c r="Y120" t="n">
-        <v>3557.142857142857</v>
+        <v>0</v>
       </c>
       <c r="Z120" t="n">
-        <v>3557.142857142857</v>
+        <v>0</v>
       </c>
       <c r="AA120" t="n">
         <v>3557.142857142857</v>
@@ -13188,6 +13906,12 @@
         <v>3557.142857142857</v>
       </c>
       <c r="AC120" t="n">
+        <v>3557.142857142857</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3557.142857142857</v>
+      </c>
+      <c r="AE120" t="n">
         <v>3557.142857142857</v>
       </c>
     </row>
@@ -13275,16 +13999,16 @@
         <v>0</v>
       </c>
       <c r="W121" t="n">
-        <v>0</v>
+        <v>34632.14285714286</v>
       </c>
       <c r="X121" t="n">
-        <v>0</v>
+        <v>13852.85714285714</v>
       </c>
       <c r="Y121" t="n">
-        <v>6926.428571428571</v>
+        <v>0</v>
       </c>
       <c r="Z121" t="n">
-        <v>6926.428571428571</v>
+        <v>0</v>
       </c>
       <c r="AA121" t="n">
         <v>6926.428571428571</v>
@@ -13293,6 +14017,12 @@
         <v>6926.428571428571</v>
       </c>
       <c r="AC121" t="n">
+        <v>6926.428571428571</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>6926.428571428571</v>
+      </c>
+      <c r="AE121" t="n">
         <v>6926.428571428571</v>
       </c>
     </row>
@@ -13380,16 +14110,16 @@
         <v>0</v>
       </c>
       <c r="W122" t="n">
-        <v>0</v>
+        <v>16586</v>
       </c>
       <c r="X122" t="n">
-        <v>0</v>
+        <v>16586</v>
       </c>
       <c r="Y122" t="n">
-        <v>3317.2</v>
+        <v>0</v>
       </c>
       <c r="Z122" t="n">
-        <v>3317.2</v>
+        <v>0</v>
       </c>
       <c r="AA122" t="n">
         <v>3317.2</v>
@@ -13398,6 +14128,12 @@
         <v>3317.2</v>
       </c>
       <c r="AC122" t="n">
+        <v>3317.2</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3317.2</v>
+      </c>
+      <c r="AE122" t="n">
         <v>3317.2</v>
       </c>
     </row>
@@ -13485,16 +14221,16 @@
         <v>0</v>
       </c>
       <c r="W123" t="n">
-        <v>0</v>
+        <v>87706.17</v>
       </c>
       <c r="X123" t="n">
         <v>0</v>
       </c>
       <c r="Y123" t="n">
-        <v>17541.234</v>
+        <v>0</v>
       </c>
       <c r="Z123" t="n">
-        <v>17541.234</v>
+        <v>0</v>
       </c>
       <c r="AA123" t="n">
         <v>17541.234</v>
@@ -13503,6 +14239,12 @@
         <v>17541.234</v>
       </c>
       <c r="AC123" t="n">
+        <v>17541.234</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>17541.234</v>
+      </c>
+      <c r="AE123" t="n">
         <v>17541.234</v>
       </c>
     </row>
@@ -13590,16 +14332,16 @@
         <v>0</v>
       </c>
       <c r="W124" t="n">
-        <v>0</v>
+        <v>106113.64</v>
       </c>
       <c r="X124" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="Y124" t="n">
-        <v>21222.728</v>
+        <v>0</v>
       </c>
       <c r="Z124" t="n">
-        <v>21222.728</v>
+        <v>0</v>
       </c>
       <c r="AA124" t="n">
         <v>21222.728</v>
@@ -13608,6 +14350,12 @@
         <v>21222.728</v>
       </c>
       <c r="AC124" t="n">
+        <v>21222.728</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>21222.728</v>
+      </c>
+      <c r="AE124" t="n">
         <v>21222.728</v>
       </c>
     </row>
@@ -13695,16 +14443,16 @@
         <v>0</v>
       </c>
       <c r="W125" t="n">
-        <v>0</v>
+        <v>44394.48</v>
       </c>
       <c r="X125" t="n">
         <v>0</v>
       </c>
       <c r="Y125" t="n">
-        <v>8878.896000000001</v>
+        <v>0</v>
       </c>
       <c r="Z125" t="n">
-        <v>8878.896000000001</v>
+        <v>0</v>
       </c>
       <c r="AA125" t="n">
         <v>8878.896000000001</v>
@@ -13713,6 +14461,12 @@
         <v>8878.896000000001</v>
       </c>
       <c r="AC125" t="n">
+        <v>8878.896000000001</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>8878.896000000001</v>
+      </c>
+      <c r="AE125" t="n">
         <v>8878.896000000001</v>
       </c>
     </row>
@@ -13800,16 +14554,16 @@
         <v>0</v>
       </c>
       <c r="W126" t="n">
-        <v>0</v>
+        <v>7254.71</v>
       </c>
       <c r="X126" t="n">
         <v>0</v>
       </c>
       <c r="Y126" t="n">
-        <v>1450.942</v>
+        <v>0</v>
       </c>
       <c r="Z126" t="n">
-        <v>1450.942</v>
+        <v>0</v>
       </c>
       <c r="AA126" t="n">
         <v>1450.942</v>
@@ -13818,6 +14572,12 @@
         <v>1450.942</v>
       </c>
       <c r="AC126" t="n">
+        <v>1450.942</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>1450.942</v>
+      </c>
+      <c r="AE126" t="n">
         <v>1450.942</v>
       </c>
     </row>
@@ -13905,16 +14665,16 @@
         <v>0</v>
       </c>
       <c r="W127" t="n">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="X127" t="n">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="Y127" t="n">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="Z127" t="n">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="AA127" t="n">
         <v>2900</v>
@@ -13923,6 +14683,12 @@
         <v>2900</v>
       </c>
       <c r="AC127" t="n">
+        <v>2900</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>2900</v>
+      </c>
+      <c r="AE127" t="n">
         <v>2900</v>
       </c>
     </row>
@@ -14010,16 +14776,16 @@
         <v>0</v>
       </c>
       <c r="W128" t="n">
-        <v>0</v>
+        <v>58500</v>
       </c>
       <c r="X128" t="n">
-        <v>0</v>
+        <v>58500</v>
       </c>
       <c r="Y128" t="n">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="Z128" t="n">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="AA128" t="n">
         <v>11700</v>
@@ -14028,6 +14794,12 @@
         <v>11700</v>
       </c>
       <c r="AC128" t="n">
+        <v>11700</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>11700</v>
+      </c>
+      <c r="AE128" t="n">
         <v>11700</v>
       </c>
     </row>
@@ -14115,16 +14887,16 @@
         <v>0</v>
       </c>
       <c r="W129" t="n">
-        <v>0</v>
+        <v>8750</v>
       </c>
       <c r="X129" t="n">
-        <v>0</v>
+        <v>8750</v>
       </c>
       <c r="Y129" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="Z129" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="AA129" t="n">
         <v>1750</v>
@@ -14133,6 +14905,12 @@
         <v>1750</v>
       </c>
       <c r="AC129" t="n">
+        <v>1750</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>1750</v>
+      </c>
+      <c r="AE129" t="n">
         <v>1750</v>
       </c>
     </row>
@@ -14220,24 +14998,30 @@
         <v>0</v>
       </c>
       <c r="W130" t="n">
-        <v>0</v>
+        <v>16353.6</v>
       </c>
       <c r="X130" t="n">
-        <v>0</v>
+        <v>4088.4</v>
       </c>
       <c r="Y130" t="n">
         <v>0</v>
       </c>
       <c r="Z130" t="n">
-        <v>4088.4</v>
+        <v>0</v>
       </c>
       <c r="AA130" t="n">
-        <v>4088.4</v>
+        <v>0</v>
       </c>
       <c r="AB130" t="n">
         <v>4088.4</v>
       </c>
       <c r="AC130" t="n">
+        <v>4088.4</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>4088.4</v>
+      </c>
+      <c r="AE130" t="n">
         <v>4088.4</v>
       </c>
     </row>
@@ -14325,24 +15109,30 @@
         <v>0</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
+        <v>45083.2</v>
       </c>
       <c r="X131" t="n">
-        <v>0</v>
+        <v>11270.8</v>
       </c>
       <c r="Y131" t="n">
         <v>0</v>
       </c>
       <c r="Z131" t="n">
-        <v>11270.8</v>
+        <v>0</v>
       </c>
       <c r="AA131" t="n">
-        <v>11270.8</v>
+        <v>0</v>
       </c>
       <c r="AB131" t="n">
         <v>11270.8</v>
       </c>
       <c r="AC131" t="n">
+        <v>11270.8</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>11270.8</v>
+      </c>
+      <c r="AE131" t="n">
         <v>11270.8</v>
       </c>
     </row>
@@ -14430,24 +15220,30 @@
         <v>0</v>
       </c>
       <c r="W132" t="n">
-        <v>0</v>
+        <v>33591.2</v>
       </c>
       <c r="X132" t="n">
-        <v>0</v>
+        <v>8397.799999999996</v>
       </c>
       <c r="Y132" t="n">
         <v>0</v>
       </c>
       <c r="Z132" t="n">
-        <v>8397.800000000001</v>
+        <v>0</v>
       </c>
       <c r="AA132" t="n">
-        <v>8397.800000000001</v>
+        <v>0</v>
       </c>
       <c r="AB132" t="n">
         <v>8397.800000000001</v>
       </c>
       <c r="AC132" t="n">
+        <v>8397.800000000001</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>8397.800000000001</v>
+      </c>
+      <c r="AE132" t="n">
         <v>8397.800000000001</v>
       </c>
     </row>
@@ -14535,24 +15331,30 @@
         <v>0</v>
       </c>
       <c r="W133" t="n">
-        <v>0</v>
+        <v>1591.2</v>
       </c>
       <c r="X133" t="n">
-        <v>0</v>
+        <v>397.8</v>
       </c>
       <c r="Y133" t="n">
         <v>0</v>
       </c>
       <c r="Z133" t="n">
-        <v>397.8</v>
+        <v>0</v>
       </c>
       <c r="AA133" t="n">
-        <v>397.8</v>
+        <v>0</v>
       </c>
       <c r="AB133" t="n">
         <v>397.8</v>
       </c>
       <c r="AC133" t="n">
+        <v>397.8</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>397.8</v>
+      </c>
+      <c r="AE133" t="n">
         <v>397.8</v>
       </c>
     </row>
@@ -14640,24 +15442,30 @@
         <v>0</v>
       </c>
       <c r="W134" t="n">
-        <v>0</v>
+        <v>5185.714285714285</v>
       </c>
       <c r="X134" t="n">
-        <v>0</v>
+        <v>3889.285714285715</v>
       </c>
       <c r="Y134" t="n">
         <v>0</v>
       </c>
       <c r="Z134" t="n">
-        <v>1296.428571428571</v>
+        <v>0</v>
       </c>
       <c r="AA134" t="n">
-        <v>1296.428571428571</v>
+        <v>0</v>
       </c>
       <c r="AB134" t="n">
         <v>1296.428571428571</v>
       </c>
       <c r="AC134" t="n">
+        <v>1296.428571428571</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>1296.428571428571</v>
+      </c>
+      <c r="AE134" t="n">
         <v>1296.428571428571</v>
       </c>
     </row>
@@ -14745,24 +15553,30 @@
         <v>0</v>
       </c>
       <c r="W135" t="n">
-        <v>0</v>
+        <v>65120</v>
       </c>
       <c r="X135" t="n">
-        <v>0</v>
+        <v>16280</v>
       </c>
       <c r="Y135" t="n">
         <v>0</v>
       </c>
       <c r="Z135" t="n">
-        <v>16280</v>
+        <v>0</v>
       </c>
       <c r="AA135" t="n">
-        <v>16280</v>
+        <v>0</v>
       </c>
       <c r="AB135" t="n">
         <v>16280</v>
       </c>
       <c r="AC135" t="n">
+        <v>16280</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>16280</v>
+      </c>
+      <c r="AE135" t="n">
         <v>16280</v>
       </c>
     </row>
@@ -14850,24 +15664,30 @@
         <v>0</v>
       </c>
       <c r="W136" t="n">
-        <v>0</v>
+        <v>19184</v>
       </c>
       <c r="X136" t="n">
-        <v>0</v>
+        <v>4796</v>
       </c>
       <c r="Y136" t="n">
         <v>0</v>
       </c>
       <c r="Z136" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="AA136" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="AB136" t="n">
         <v>4796</v>
       </c>
       <c r="AC136" t="n">
+        <v>4796</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>4796</v>
+      </c>
+      <c r="AE136" t="n">
         <v>4796</v>
       </c>
     </row>
@@ -14955,24 +15775,30 @@
         <v>0</v>
       </c>
       <c r="W137" t="n">
-        <v>0</v>
+        <v>7920</v>
       </c>
       <c r="X137" t="n">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="Y137" t="n">
         <v>0</v>
       </c>
       <c r="Z137" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="AA137" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="AB137" t="n">
         <v>1980</v>
       </c>
       <c r="AC137" t="n">
+        <v>1980</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>1980</v>
+      </c>
+      <c r="AE137" t="n">
         <v>1980</v>
       </c>
     </row>
@@ -15060,24 +15886,30 @@
         <v>0</v>
       </c>
       <c r="W138" t="n">
-        <v>0</v>
+        <v>106668</v>
       </c>
       <c r="X138" t="n">
-        <v>0</v>
+        <v>26667</v>
       </c>
       <c r="Y138" t="n">
         <v>0</v>
       </c>
       <c r="Z138" t="n">
-        <v>26667</v>
+        <v>0</v>
       </c>
       <c r="AA138" t="n">
-        <v>26667</v>
+        <v>0</v>
       </c>
       <c r="AB138" t="n">
         <v>26667</v>
       </c>
       <c r="AC138" t="n">
+        <v>26667</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>26667</v>
+      </c>
+      <c r="AE138" t="n">
         <v>26667</v>
       </c>
     </row>
@@ -15165,24 +15997,30 @@
         <v>0</v>
       </c>
       <c r="W139" t="n">
-        <v>0</v>
+        <v>7125.6</v>
       </c>
       <c r="X139" t="n">
-        <v>0</v>
+        <v>10688.4</v>
       </c>
       <c r="Y139" t="n">
         <v>0</v>
       </c>
       <c r="Z139" t="n">
-        <v>1781.4</v>
+        <v>0</v>
       </c>
       <c r="AA139" t="n">
-        <v>1781.4</v>
+        <v>0</v>
       </c>
       <c r="AB139" t="n">
         <v>1781.4</v>
       </c>
       <c r="AC139" t="n">
+        <v>1781.4</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>1781.4</v>
+      </c>
+      <c r="AE139" t="n">
         <v>1781.4</v>
       </c>
     </row>
@@ -15270,24 +16108,30 @@
         <v>0</v>
       </c>
       <c r="W140" t="n">
-        <v>0</v>
+        <v>47292.8</v>
       </c>
       <c r="X140" t="n">
-        <v>0</v>
+        <v>11823.2</v>
       </c>
       <c r="Y140" t="n">
         <v>0</v>
       </c>
       <c r="Z140" t="n">
-        <v>11823.2</v>
+        <v>0</v>
       </c>
       <c r="AA140" t="n">
-        <v>11823.2</v>
+        <v>0</v>
       </c>
       <c r="AB140" t="n">
         <v>11823.2</v>
       </c>
       <c r="AC140" t="n">
+        <v>11823.2</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>11823.2</v>
+      </c>
+      <c r="AE140" t="n">
         <v>11823.2</v>
       </c>
     </row>
@@ -15375,24 +16219,30 @@
         <v>0</v>
       </c>
       <c r="W141" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="X141" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="Y141" t="n">
         <v>0</v>
       </c>
       <c r="Z141" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="AA141" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="AB141" t="n">
         <v>450</v>
       </c>
       <c r="AC141" t="n">
+        <v>450</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE141" t="n">
         <v>450</v>
       </c>
     </row>
@@ -15480,24 +16330,30 @@
         <v>0</v>
       </c>
       <c r="W142" t="n">
-        <v>0</v>
+        <v>223204</v>
       </c>
       <c r="X142" t="n">
-        <v>0</v>
+        <v>55801</v>
       </c>
       <c r="Y142" t="n">
         <v>0</v>
       </c>
       <c r="Z142" t="n">
-        <v>55801</v>
+        <v>0</v>
       </c>
       <c r="AA142" t="n">
-        <v>55801</v>
+        <v>0</v>
       </c>
       <c r="AB142" t="n">
         <v>55801</v>
       </c>
       <c r="AC142" t="n">
+        <v>55801</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>55801</v>
+      </c>
+      <c r="AE142" t="n">
         <v>55801</v>
       </c>
     </row>
@@ -15585,24 +16441,30 @@
         <v>0</v>
       </c>
       <c r="W143" t="n">
-        <v>0</v>
+        <v>104309.6</v>
       </c>
       <c r="X143" t="n">
-        <v>0</v>
+        <v>26077.39999999999</v>
       </c>
       <c r="Y143" t="n">
         <v>0</v>
       </c>
       <c r="Z143" t="n">
-        <v>26077.4</v>
+        <v>0</v>
       </c>
       <c r="AA143" t="n">
-        <v>26077.4</v>
+        <v>0</v>
       </c>
       <c r="AB143" t="n">
         <v>26077.4</v>
       </c>
       <c r="AC143" t="n">
+        <v>26077.4</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>26077.4</v>
+      </c>
+      <c r="AE143" t="n">
         <v>26077.4</v>
       </c>
     </row>
@@ -15690,10 +16552,10 @@
         <v>0</v>
       </c>
       <c r="W144" t="n">
-        <v>0</v>
+        <v>988950</v>
       </c>
       <c r="X144" t="n">
-        <v>0</v>
+        <v>2307550</v>
       </c>
       <c r="Y144" t="n">
         <v>0</v>
@@ -15702,12 +16564,18 @@
         <v>0</v>
       </c>
       <c r="AA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC144" t="n">
         <v>329650</v>
       </c>
-      <c r="AB144" t="n">
+      <c r="AD144" t="n">
         <v>329650</v>
       </c>
-      <c r="AC144" t="n">
+      <c r="AE144" t="n">
         <v>329650</v>
       </c>
     </row>
@@ -15793,10 +16661,10 @@
         <v>0</v>
       </c>
       <c r="W145" t="n">
-        <v>0</v>
+        <v>9099.300000000001</v>
       </c>
       <c r="X145" t="n">
-        <v>0</v>
+        <v>21231.7</v>
       </c>
       <c r="Y145" t="n">
         <v>0</v>
@@ -15805,12 +16673,18 @@
         <v>0</v>
       </c>
       <c r="AA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC145" t="n">
         <v>3033.1</v>
       </c>
-      <c r="AB145" t="n">
+      <c r="AD145" t="n">
         <v>3033.1</v>
       </c>
-      <c r="AC145" t="n">
+      <c r="AE145" t="n">
         <v>3033.1</v>
       </c>
     </row>
@@ -15898,10 +16772,10 @@
         <v>0</v>
       </c>
       <c r="W146" t="n">
-        <v>0</v>
+        <v>69000</v>
       </c>
       <c r="X146" t="n">
-        <v>0</v>
+        <v>92000</v>
       </c>
       <c r="Y146" t="n">
         <v>0</v>
@@ -15910,12 +16784,18 @@
         <v>0</v>
       </c>
       <c r="AA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC146" t="n">
         <v>23000</v>
       </c>
-      <c r="AB146" t="n">
+      <c r="AD146" t="n">
         <v>23000</v>
       </c>
-      <c r="AC146" t="n">
+      <c r="AE146" t="n">
         <v>23000</v>
       </c>
     </row>
@@ -16003,10 +16883,10 @@
         <v>0</v>
       </c>
       <c r="W147" t="n">
-        <v>0</v>
+        <v>49273.81200000001</v>
       </c>
       <c r="X147" t="n">
-        <v>0</v>
+        <v>32849.208</v>
       </c>
       <c r="Y147" t="n">
         <v>0</v>
@@ -16015,12 +16895,18 @@
         <v>0</v>
       </c>
       <c r="AA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC147" t="n">
         <v>16424.604</v>
       </c>
-      <c r="AB147" t="n">
+      <c r="AD147" t="n">
         <v>16424.604</v>
       </c>
-      <c r="AC147" t="n">
+      <c r="AE147" t="n">
         <v>16424.604</v>
       </c>
     </row>
@@ -16108,10 +16994,10 @@
         <v>0</v>
       </c>
       <c r="W148" t="n">
-        <v>0</v>
+        <v>19441.368</v>
       </c>
       <c r="X148" t="n">
-        <v>0</v>
+        <v>12960.912</v>
       </c>
       <c r="Y148" t="n">
         <v>0</v>
@@ -16120,12 +17006,18 @@
         <v>0</v>
       </c>
       <c r="AA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC148" t="n">
         <v>6480.456</v>
       </c>
-      <c r="AB148" t="n">
+      <c r="AD148" t="n">
         <v>6480.456</v>
       </c>
-      <c r="AC148" t="n">
+      <c r="AE148" t="n">
         <v>6480.456</v>
       </c>
     </row>
@@ -16211,10 +17103,10 @@
         <v>0</v>
       </c>
       <c r="W149" t="n">
-        <v>0</v>
+        <v>6435</v>
       </c>
       <c r="X149" t="n">
-        <v>0</v>
+        <v>15015</v>
       </c>
       <c r="Y149" t="n">
         <v>0</v>
@@ -16223,12 +17115,18 @@
         <v>0</v>
       </c>
       <c r="AA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC149" t="n">
         <v>2145</v>
       </c>
-      <c r="AB149" t="n">
+      <c r="AD149" t="n">
         <v>2145</v>
       </c>
-      <c r="AC149" t="n">
+      <c r="AE149" t="n">
         <v>2145</v>
       </c>
     </row>
@@ -16316,10 +17214,10 @@
         <v>0</v>
       </c>
       <c r="W150" t="n">
-        <v>0</v>
+        <v>5845.5</v>
       </c>
       <c r="X150" t="n">
-        <v>0</v>
+        <v>13639.5</v>
       </c>
       <c r="Y150" t="n">
         <v>0</v>
@@ -16328,12 +17226,18 @@
         <v>0</v>
       </c>
       <c r="AA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC150" t="n">
         <v>1948.5</v>
       </c>
-      <c r="AB150" t="n">
+      <c r="AD150" t="n">
         <v>1948.5</v>
       </c>
-      <c r="AC150" t="n">
+      <c r="AE150" t="n">
         <v>1948.5</v>
       </c>
     </row>
@@ -16421,10 +17325,10 @@
         <v>0</v>
       </c>
       <c r="W151" t="n">
-        <v>0</v>
+        <v>1928.571428571428</v>
       </c>
       <c r="X151" t="n">
-        <v>0</v>
+        <v>2571.428571428572</v>
       </c>
       <c r="Y151" t="n">
         <v>0</v>
@@ -16433,12 +17337,18 @@
         <v>0</v>
       </c>
       <c r="AA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC151" t="n">
         <v>642.8571428571428</v>
       </c>
-      <c r="AB151" t="n">
+      <c r="AD151" t="n">
         <v>642.8571428571428</v>
       </c>
-      <c r="AC151" t="n">
+      <c r="AE151" t="n">
         <v>642.8571428571428</v>
       </c>
     </row>
@@ -16528,10 +17438,10 @@
         <v>0</v>
       </c>
       <c r="W152" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="X152" t="n">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="Y152" t="n">
         <v>0</v>
@@ -16540,12 +17450,18 @@
         <v>0</v>
       </c>
       <c r="AA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC152" t="n">
         <v>500</v>
       </c>
-      <c r="AB152" t="n">
+      <c r="AD152" t="n">
         <v>500</v>
       </c>
-      <c r="AC152" t="n">
+      <c r="AE152" t="n">
         <v>500</v>
       </c>
     </row>
@@ -16635,10 +17551,10 @@
         <v>0</v>
       </c>
       <c r="W153" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="X153" t="n">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="Y153" t="n">
         <v>0</v>
@@ -16647,12 +17563,18 @@
         <v>0</v>
       </c>
       <c r="AA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC153" t="n">
         <v>500</v>
       </c>
-      <c r="AB153" t="n">
+      <c r="AD153" t="n">
         <v>500</v>
       </c>
-      <c r="AC153" t="n">
+      <c r="AE153" t="n">
         <v>500</v>
       </c>
     </row>
@@ -16742,10 +17664,10 @@
         <v>0</v>
       </c>
       <c r="W154" t="n">
-        <v>0</v>
+        <v>11888.9925</v>
       </c>
       <c r="X154" t="n">
-        <v>0</v>
+        <v>67370.95749999999</v>
       </c>
       <c r="Y154" t="n">
         <v>0</v>
@@ -16754,12 +17676,18 @@
         <v>0</v>
       </c>
       <c r="AA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC154" t="n">
         <v>3962.9975</v>
       </c>
-      <c r="AB154" t="n">
+      <c r="AD154" t="n">
         <v>3962.9975</v>
       </c>
-      <c r="AC154" t="n">
+      <c r="AE154" t="n">
         <v>3962.9975</v>
       </c>
     </row>
@@ -16849,10 +17777,10 @@
         <v>0</v>
       </c>
       <c r="W155" t="n">
-        <v>0</v>
+        <v>3958.125</v>
       </c>
       <c r="X155" t="n">
-        <v>0</v>
+        <v>22429.375</v>
       </c>
       <c r="Y155" t="n">
         <v>0</v>
@@ -16861,12 +17789,18 @@
         <v>0</v>
       </c>
       <c r="AA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC155" t="n">
         <v>1319.375</v>
       </c>
-      <c r="AB155" t="n">
+      <c r="AD155" t="n">
         <v>1319.375</v>
       </c>
-      <c r="AC155" t="n">
+      <c r="AE155" t="n">
         <v>1319.375</v>
       </c>
     </row>
@@ -16956,10 +17890,10 @@
         <v>0</v>
       </c>
       <c r="W156" t="n">
-        <v>0</v>
+        <v>596.8875</v>
       </c>
       <c r="X156" t="n">
-        <v>0</v>
+        <v>3382.3625</v>
       </c>
       <c r="Y156" t="n">
         <v>0</v>
@@ -16968,12 +17902,18 @@
         <v>0</v>
       </c>
       <c r="AA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC156" t="n">
         <v>198.9625</v>
       </c>
-      <c r="AB156" t="n">
+      <c r="AD156" t="n">
         <v>198.9625</v>
       </c>
-      <c r="AC156" t="n">
+      <c r="AE156" t="n">
         <v>198.9625</v>
       </c>
     </row>
@@ -17063,10 +18003,10 @@
         <v>0</v>
       </c>
       <c r="W157" t="n">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="X157" t="n">
-        <v>0</v>
+        <v>212500</v>
       </c>
       <c r="Y157" t="n">
         <v>0</v>
@@ -17075,12 +18015,18 @@
         <v>0</v>
       </c>
       <c r="AA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC157" t="n">
         <v>12500</v>
       </c>
-      <c r="AB157" t="n">
+      <c r="AD157" t="n">
         <v>12500</v>
       </c>
-      <c r="AC157" t="n">
+      <c r="AE157" t="n">
         <v>12500</v>
       </c>
     </row>
@@ -17170,10 +18116,10 @@
         <v>0</v>
       </c>
       <c r="W158" t="n">
-        <v>0</v>
+        <v>5775</v>
       </c>
       <c r="X158" t="n">
-        <v>0</v>
+        <v>32725</v>
       </c>
       <c r="Y158" t="n">
         <v>0</v>
@@ -17182,12 +18128,18 @@
         <v>0</v>
       </c>
       <c r="AA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC158" t="n">
         <v>1925</v>
       </c>
-      <c r="AB158" t="n">
+      <c r="AD158" t="n">
         <v>1925</v>
       </c>
-      <c r="AC158" t="n">
+      <c r="AE158" t="n">
         <v>1925</v>
       </c>
     </row>
@@ -17277,10 +18229,10 @@
         <v>0</v>
       </c>
       <c r="W159" t="n">
-        <v>0</v>
+        <v>209.475</v>
       </c>
       <c r="X159" t="n">
-        <v>0</v>
+        <v>1187.025</v>
       </c>
       <c r="Y159" t="n">
         <v>0</v>
@@ -17289,12 +18241,18 @@
         <v>0</v>
       </c>
       <c r="AA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC159" t="n">
         <v>69.825</v>
       </c>
-      <c r="AB159" t="n">
+      <c r="AD159" t="n">
         <v>69.825</v>
       </c>
-      <c r="AC159" t="n">
+      <c r="AE159" t="n">
         <v>69.825</v>
       </c>
     </row>
@@ -17384,10 +18342,10 @@
         <v>0</v>
       </c>
       <c r="W160" t="n">
-        <v>0</v>
+        <v>18645</v>
       </c>
       <c r="X160" t="n">
-        <v>0</v>
+        <v>105655</v>
       </c>
       <c r="Y160" t="n">
         <v>0</v>
@@ -17396,12 +18354,18 @@
         <v>0</v>
       </c>
       <c r="AA160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC160" t="n">
         <v>6215</v>
       </c>
-      <c r="AB160" t="n">
+      <c r="AD160" t="n">
         <v>6215</v>
       </c>
-      <c r="AC160" t="n">
+      <c r="AE160" t="n">
         <v>6215</v>
       </c>
     </row>
@@ -17491,10 +18455,10 @@
         <v>0</v>
       </c>
       <c r="W161" t="n">
-        <v>0</v>
+        <v>821.25</v>
       </c>
       <c r="X161" t="n">
-        <v>0</v>
+        <v>4653.75</v>
       </c>
       <c r="Y161" t="n">
         <v>0</v>
@@ -17503,12 +18467,18 @@
         <v>0</v>
       </c>
       <c r="AA161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC161" t="n">
         <v>273.75</v>
       </c>
-      <c r="AB161" t="n">
+      <c r="AD161" t="n">
         <v>273.75</v>
       </c>
-      <c r="AC161" t="n">
+      <c r="AE161" t="n">
         <v>273.75</v>
       </c>
     </row>
@@ -17598,10 +18568,10 @@
         <v>0</v>
       </c>
       <c r="W162" t="n">
-        <v>0</v>
+        <v>65772</v>
       </c>
       <c r="X162" t="n">
-        <v>0</v>
+        <v>263088</v>
       </c>
       <c r="Y162" t="n">
         <v>0</v>
@@ -17610,12 +18580,18 @@
         <v>0</v>
       </c>
       <c r="AA162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC162" t="n">
         <v>21924</v>
       </c>
-      <c r="AB162" t="n">
+      <c r="AD162" t="n">
         <v>21924</v>
       </c>
-      <c r="AC162" t="n">
+      <c r="AE162" t="n">
         <v>21924</v>
       </c>
     </row>
@@ -17705,10 +18681,10 @@
         <v>0</v>
       </c>
       <c r="W163" t="n">
-        <v>0</v>
+        <v>7630</v>
       </c>
       <c r="X163" t="n">
-        <v>0</v>
+        <v>30520</v>
       </c>
       <c r="Y163" t="n">
         <v>0</v>
@@ -17717,12 +18693,18 @@
         <v>0</v>
       </c>
       <c r="AA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC163" t="n">
         <v>2543.333333333333</v>
       </c>
-      <c r="AB163" t="n">
+      <c r="AD163" t="n">
         <v>2543.333333333333</v>
       </c>
-      <c r="AC163" t="n">
+      <c r="AE163" t="n">
         <v>2543.333333333333</v>
       </c>
     </row>
@@ -17812,10 +18794,10 @@
         <v>0</v>
       </c>
       <c r="W164" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="X164" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="Y164" t="n">
         <v>0</v>
@@ -17824,12 +18806,18 @@
         <v>0</v>
       </c>
       <c r="AA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC164" t="n">
         <v>2333.333333333333</v>
       </c>
-      <c r="AB164" t="n">
+      <c r="AD164" t="n">
         <v>2333.333333333333</v>
       </c>
-      <c r="AC164" t="n">
+      <c r="AE164" t="n">
         <v>2333.333333333333</v>
       </c>
     </row>
@@ -17919,10 +18907,10 @@
         <v>0</v>
       </c>
       <c r="W165" t="n">
-        <v>0</v>
+        <v>7630</v>
       </c>
       <c r="X165" t="n">
-        <v>0</v>
+        <v>30520</v>
       </c>
       <c r="Y165" t="n">
         <v>0</v>
@@ -17931,12 +18919,18 @@
         <v>0</v>
       </c>
       <c r="AA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC165" t="n">
         <v>2543.333333333333</v>
       </c>
-      <c r="AB165" t="n">
+      <c r="AD165" t="n">
         <v>2543.333333333333</v>
       </c>
-      <c r="AC165" t="n">
+      <c r="AE165" t="n">
         <v>2543.333333333333</v>
       </c>
     </row>
@@ -18026,10 +19020,10 @@
         <v>0</v>
       </c>
       <c r="W166" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="X166" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="Y166" t="n">
         <v>0</v>
@@ -18038,12 +19032,18 @@
         <v>0</v>
       </c>
       <c r="AA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC166" t="n">
         <v>79.33333333333333</v>
       </c>
-      <c r="AB166" t="n">
+      <c r="AD166" t="n">
         <v>79.33333333333333</v>
       </c>
-      <c r="AC166" t="n">
+      <c r="AE166" t="n">
         <v>79.33333333333333</v>
       </c>
     </row>
@@ -18133,10 +19133,10 @@
         <v>0</v>
       </c>
       <c r="W167" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="X167" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="Y167" t="n">
         <v>0</v>
@@ -18145,12 +19145,18 @@
         <v>0</v>
       </c>
       <c r="AA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC167" t="n">
         <v>500</v>
       </c>
-      <c r="AB167" t="n">
+      <c r="AD167" t="n">
         <v>500</v>
       </c>
-      <c r="AC167" t="n">
+      <c r="AE167" t="n">
         <v>500</v>
       </c>
     </row>
@@ -18240,10 +19246,10 @@
         <v>0</v>
       </c>
       <c r="W168" t="n">
-        <v>0</v>
+        <v>6201</v>
       </c>
       <c r="X168" t="n">
-        <v>0</v>
+        <v>24804</v>
       </c>
       <c r="Y168" t="n">
         <v>0</v>
@@ -18252,12 +19258,18 @@
         <v>0</v>
       </c>
       <c r="AA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC168" t="n">
         <v>2067</v>
       </c>
-      <c r="AB168" t="n">
+      <c r="AD168" t="n">
         <v>2067</v>
       </c>
-      <c r="AC168" t="n">
+      <c r="AE168" t="n">
         <v>2067</v>
       </c>
     </row>
@@ -18348,10 +19360,10 @@
         <v>0</v>
       </c>
       <c r="W169" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="X169" t="n">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="Y169" t="n">
         <v>0</v>
@@ -18360,12 +19372,18 @@
         <v>0</v>
       </c>
       <c r="AA169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC169" t="n">
         <v>466.6666666666667</v>
       </c>
-      <c r="AB169" t="n">
+      <c r="AD169" t="n">
         <v>466.6666666666667</v>
       </c>
-      <c r="AC169" t="n">
+      <c r="AE169" t="n">
         <v>466.6666666666667</v>
       </c>
     </row>
@@ -18455,10 +19473,10 @@
         <v>0</v>
       </c>
       <c r="W170" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="X170" t="n">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="Y170" t="n">
         <v>0</v>
@@ -18467,12 +19485,18 @@
         <v>0</v>
       </c>
       <c r="AA170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC170" t="n">
         <v>3666.666666666667</v>
       </c>
-      <c r="AB170" t="n">
+      <c r="AD170" t="n">
         <v>3666.666666666667</v>
       </c>
-      <c r="AC170" t="n">
+      <c r="AE170" t="n">
         <v>3666.666666666667</v>
       </c>
     </row>
@@ -18562,10 +19586,10 @@
         <v>0</v>
       </c>
       <c r="W171" t="n">
-        <v>0</v>
+        <v>26800</v>
       </c>
       <c r="X171" t="n">
-        <v>0</v>
+        <v>107200</v>
       </c>
       <c r="Y171" t="n">
         <v>0</v>
@@ -18574,12 +19598,18 @@
         <v>0</v>
       </c>
       <c r="AA171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC171" t="n">
         <v>8933.333333333334</v>
       </c>
-      <c r="AB171" t="n">
+      <c r="AD171" t="n">
         <v>8933.333333333334</v>
       </c>
-      <c r="AC171" t="n">
+      <c r="AE171" t="n">
         <v>8933.333333333334</v>
       </c>
     </row>
@@ -18669,10 +19699,10 @@
         <v>0</v>
       </c>
       <c r="W172" t="n">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="X172" t="n">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="Y172" t="n">
         <v>0</v>
@@ -18681,12 +19711,18 @@
         <v>0</v>
       </c>
       <c r="AA172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC172" t="n">
         <v>2833.333333333333</v>
       </c>
-      <c r="AB172" t="n">
+      <c r="AD172" t="n">
         <v>2833.333333333333</v>
       </c>
-      <c r="AC172" t="n">
+      <c r="AE172" t="n">
         <v>2833.333333333333</v>
       </c>
     </row>
@@ -18776,10 +19812,10 @@
         <v>0</v>
       </c>
       <c r="W173" t="n">
-        <v>0</v>
+        <v>22050</v>
       </c>
       <c r="X173" t="n">
-        <v>0</v>
+        <v>124950</v>
       </c>
       <c r="Y173" t="n">
         <v>0</v>
@@ -18788,12 +19824,18 @@
         <v>0</v>
       </c>
       <c r="AA173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC173" t="n">
         <v>7350</v>
       </c>
-      <c r="AB173" t="n">
+      <c r="AD173" t="n">
         <v>7350</v>
       </c>
-      <c r="AC173" t="n">
+      <c r="AE173" t="n">
         <v>7350</v>
       </c>
     </row>
@@ -18883,10 +19925,10 @@
         <v>0</v>
       </c>
       <c r="W174" t="n">
-        <v>0</v>
+        <v>31590</v>
       </c>
       <c r="X174" t="n">
-        <v>0</v>
+        <v>179010</v>
       </c>
       <c r="Y174" t="n">
         <v>0</v>
@@ -18895,12 +19937,18 @@
         <v>0</v>
       </c>
       <c r="AA174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC174" t="n">
         <v>10530</v>
       </c>
-      <c r="AB174" t="n">
+      <c r="AD174" t="n">
         <v>10530</v>
       </c>
-      <c r="AC174" t="n">
+      <c r="AE174" t="n">
         <v>10530</v>
       </c>
     </row>
@@ -18990,10 +20038,10 @@
         <v>0</v>
       </c>
       <c r="W175" t="n">
-        <v>0</v>
+        <v>1077</v>
       </c>
       <c r="X175" t="n">
-        <v>0</v>
+        <v>6103</v>
       </c>
       <c r="Y175" t="n">
         <v>0</v>
@@ -19002,12 +20050,18 @@
         <v>0</v>
       </c>
       <c r="AA175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC175" t="n">
         <v>359</v>
       </c>
-      <c r="AB175" t="n">
+      <c r="AD175" t="n">
         <v>359</v>
       </c>
-      <c r="AC175" t="n">
+      <c r="AE175" t="n">
         <v>359</v>
       </c>
     </row>
@@ -19097,10 +20151,10 @@
         <v>0</v>
       </c>
       <c r="W176" t="n">
-        <v>0</v>
+        <v>877.5</v>
       </c>
       <c r="X176" t="n">
-        <v>0</v>
+        <v>4972.5</v>
       </c>
       <c r="Y176" t="n">
         <v>0</v>
@@ -19109,12 +20163,18 @@
         <v>0</v>
       </c>
       <c r="AA176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC176" t="n">
         <v>292.5</v>
       </c>
-      <c r="AB176" t="n">
+      <c r="AD176" t="n">
         <v>292.5</v>
       </c>
-      <c r="AC176" t="n">
+      <c r="AE176" t="n">
         <v>292.5</v>
       </c>
     </row>
@@ -19204,10 +20264,10 @@
         <v>0</v>
       </c>
       <c r="W177" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="X177" t="n">
-        <v>0</v>
+        <v>7650</v>
       </c>
       <c r="Y177" t="n">
         <v>0</v>
@@ -19216,12 +20276,18 @@
         <v>0</v>
       </c>
       <c r="AA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC177" t="n">
         <v>450</v>
       </c>
-      <c r="AB177" t="n">
+      <c r="AD177" t="n">
         <v>450</v>
       </c>
-      <c r="AC177" t="n">
+      <c r="AE177" t="n">
         <v>450</v>
       </c>
     </row>
@@ -19311,10 +20377,10 @@
         <v>0</v>
       </c>
       <c r="W178" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="X178" t="n">
-        <v>0</v>
+        <v>3230</v>
       </c>
       <c r="Y178" t="n">
         <v>0</v>
@@ -19323,12 +20389,18 @@
         <v>0</v>
       </c>
       <c r="AA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC178" t="n">
         <v>190</v>
       </c>
-      <c r="AB178" t="n">
+      <c r="AD178" t="n">
         <v>190</v>
       </c>
-      <c r="AC178" t="n">
+      <c r="AE178" t="n">
         <v>190</v>
       </c>
     </row>
@@ -19418,10 +20490,10 @@
         <v>0</v>
       </c>
       <c r="W179" t="n">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="X179" t="n">
-        <v>0</v>
+        <v>3740</v>
       </c>
       <c r="Y179" t="n">
         <v>0</v>
@@ -19430,12 +20502,18 @@
         <v>0</v>
       </c>
       <c r="AA179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC179" t="n">
         <v>220</v>
       </c>
-      <c r="AB179" t="n">
+      <c r="AD179" t="n">
         <v>220</v>
       </c>
-      <c r="AC179" t="n">
+      <c r="AE179" t="n">
         <v>220</v>
       </c>
     </row>
@@ -19525,10 +20603,10 @@
         <v>0</v>
       </c>
       <c r="W180" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="X180" t="n">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="Y180" t="n">
         <v>0</v>
@@ -19537,12 +20615,18 @@
         <v>0</v>
       </c>
       <c r="AA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC180" t="n">
         <v>900</v>
       </c>
-      <c r="AB180" t="n">
+      <c r="AD180" t="n">
         <v>900</v>
       </c>
-      <c r="AC180" t="n">
+      <c r="AE180" t="n">
         <v>900</v>
       </c>
     </row>
@@ -19632,10 +20716,10 @@
         <v>0</v>
       </c>
       <c r="W181" t="n">
-        <v>0</v>
+        <v>2875.5</v>
       </c>
       <c r="X181" t="n">
-        <v>0</v>
+        <v>16294.5</v>
       </c>
       <c r="Y181" t="n">
         <v>0</v>
@@ -19644,12 +20728,18 @@
         <v>0</v>
       </c>
       <c r="AA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC181" t="n">
         <v>958.5</v>
       </c>
-      <c r="AB181" t="n">
+      <c r="AD181" t="n">
         <v>958.5</v>
       </c>
-      <c r="AC181" t="n">
+      <c r="AE181" t="n">
         <v>958.5</v>
       </c>
     </row>
@@ -19739,10 +20829,10 @@
         <v>0</v>
       </c>
       <c r="W182" t="n">
-        <v>0</v>
+        <v>243.75</v>
       </c>
       <c r="X182" t="n">
-        <v>0</v>
+        <v>1381.25</v>
       </c>
       <c r="Y182" t="n">
         <v>0</v>
@@ -19751,12 +20841,18 @@
         <v>0</v>
       </c>
       <c r="AA182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC182" t="n">
         <v>81.25</v>
       </c>
-      <c r="AB182" t="n">
+      <c r="AD182" t="n">
         <v>81.25</v>
       </c>
-      <c r="AC182" t="n">
+      <c r="AE182" t="n">
         <v>81.25</v>
       </c>
     </row>
@@ -19846,10 +20942,10 @@
         <v>0</v>
       </c>
       <c r="W183" t="n">
-        <v>0</v>
+        <v>536.25</v>
       </c>
       <c r="X183" t="n">
-        <v>0</v>
+        <v>3038.75</v>
       </c>
       <c r="Y183" t="n">
         <v>0</v>
@@ -19858,12 +20954,18 @@
         <v>0</v>
       </c>
       <c r="AA183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC183" t="n">
         <v>178.75</v>
       </c>
-      <c r="AB183" t="n">
+      <c r="AD183" t="n">
         <v>178.75</v>
       </c>
-      <c r="AC183" t="n">
+      <c r="AE183" t="n">
         <v>178.75</v>
       </c>
     </row>
@@ -19954,10 +21056,10 @@
         <v>0</v>
       </c>
       <c r="W184" t="n">
-        <v>0</v>
+        <v>682.5</v>
       </c>
       <c r="X184" t="n">
-        <v>0</v>
+        <v>3867.5</v>
       </c>
       <c r="Y184" t="n">
         <v>0</v>
@@ -19966,12 +21068,18 @@
         <v>0</v>
       </c>
       <c r="AA184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC184" t="n">
         <v>227.5</v>
       </c>
-      <c r="AB184" t="n">
+      <c r="AD184" t="n">
         <v>227.5</v>
       </c>
-      <c r="AC184" t="n">
+      <c r="AE184" t="n">
         <v>227.5</v>
       </c>
     </row>
@@ -20061,10 +21169,10 @@
         <v>0</v>
       </c>
       <c r="W185" t="n">
-        <v>0</v>
+        <v>263.25</v>
       </c>
       <c r="X185" t="n">
-        <v>0</v>
+        <v>1491.75</v>
       </c>
       <c r="Y185" t="n">
         <v>0</v>
@@ -20073,12 +21181,18 @@
         <v>0</v>
       </c>
       <c r="AA185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC185" t="n">
         <v>87.75</v>
       </c>
-      <c r="AB185" t="n">
+      <c r="AD185" t="n">
         <v>87.75</v>
       </c>
-      <c r="AC185" t="n">
+      <c r="AE185" t="n">
         <v>87.75</v>
       </c>
     </row>
@@ -20168,10 +21282,10 @@
         <v>0</v>
       </c>
       <c r="W186" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="X186" t="n">
-        <v>0</v>
+        <v>5950</v>
       </c>
       <c r="Y186" t="n">
         <v>0</v>
@@ -20180,12 +21294,18 @@
         <v>0</v>
       </c>
       <c r="AA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC186" t="n">
         <v>350</v>
       </c>
-      <c r="AB186" t="n">
+      <c r="AD186" t="n">
         <v>350</v>
       </c>
-      <c r="AC186" t="n">
+      <c r="AE186" t="n">
         <v>350</v>
       </c>
     </row>
@@ -20275,10 +21395,10 @@
         <v>0</v>
       </c>
       <c r="W187" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="X187" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="Y187" t="n">
         <v>0</v>
@@ -20287,12 +21407,18 @@
         <v>0</v>
       </c>
       <c r="AA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC187" t="n">
         <v>21</v>
       </c>
-      <c r="AB187" t="n">
+      <c r="AD187" t="n">
         <v>21</v>
       </c>
-      <c r="AC187" t="n">
+      <c r="AE187" t="n">
         <v>21</v>
       </c>
     </row>
@@ -20382,10 +21508,10 @@
         <v>0</v>
       </c>
       <c r="W188" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="X188" t="n">
-        <v>0</v>
+        <v>3213</v>
       </c>
       <c r="Y188" t="n">
         <v>0</v>
@@ -20394,12 +21520,18 @@
         <v>0</v>
       </c>
       <c r="AA188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC188" t="n">
         <v>189</v>
       </c>
-      <c r="AB188" t="n">
+      <c r="AD188" t="n">
         <v>189</v>
       </c>
-      <c r="AC188" t="n">
+      <c r="AE188" t="n">
         <v>189</v>
       </c>
     </row>
@@ -20489,10 +21621,10 @@
         <v>0</v>
       </c>
       <c r="W189" t="n">
-        <v>0</v>
+        <v>18750</v>
       </c>
       <c r="X189" t="n">
-        <v>0</v>
+        <v>106250</v>
       </c>
       <c r="Y189" t="n">
         <v>0</v>
@@ -20501,12 +21633,18 @@
         <v>0</v>
       </c>
       <c r="AA189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC189" t="n">
         <v>6250</v>
       </c>
-      <c r="AB189" t="n">
+      <c r="AD189" t="n">
         <v>6250</v>
       </c>
-      <c r="AC189" t="n">
+      <c r="AE189" t="n">
         <v>6250</v>
       </c>
     </row>
@@ -20596,10 +21734,10 @@
         <v>0</v>
       </c>
       <c r="W190" t="n">
-        <v>0</v>
+        <v>3735</v>
       </c>
       <c r="X190" t="n">
-        <v>0</v>
+        <v>21165</v>
       </c>
       <c r="Y190" t="n">
         <v>0</v>
@@ -20608,12 +21746,18 @@
         <v>0</v>
       </c>
       <c r="AA190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC190" t="n">
         <v>1245</v>
       </c>
-      <c r="AB190" t="n">
+      <c r="AD190" t="n">
         <v>1245</v>
       </c>
-      <c r="AC190" t="n">
+      <c r="AE190" t="n">
         <v>1245</v>
       </c>
     </row>
@@ -20703,10 +21847,10 @@
         <v>0</v>
       </c>
       <c r="W191" t="n">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="X191" t="n">
-        <v>0</v>
+        <v>5525</v>
       </c>
       <c r="Y191" t="n">
         <v>0</v>
@@ -20715,12 +21859,18 @@
         <v>0</v>
       </c>
       <c r="AA191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC191" t="n">
         <v>325</v>
       </c>
-      <c r="AB191" t="n">
+      <c r="AD191" t="n">
         <v>325</v>
       </c>
-      <c r="AC191" t="n">
+      <c r="AE191" t="n">
         <v>325</v>
       </c>
     </row>
@@ -20810,10 +21960,10 @@
         <v>0</v>
       </c>
       <c r="W192" t="n">
-        <v>0</v>
+        <v>562.5</v>
       </c>
       <c r="X192" t="n">
-        <v>0</v>
+        <v>3187.5</v>
       </c>
       <c r="Y192" t="n">
         <v>0</v>
@@ -20822,12 +21972,18 @@
         <v>0</v>
       </c>
       <c r="AA192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC192" t="n">
         <v>187.5</v>
       </c>
-      <c r="AB192" t="n">
+      <c r="AD192" t="n">
         <v>187.5</v>
       </c>
-      <c r="AC192" t="n">
+      <c r="AE192" t="n">
         <v>187.5</v>
       </c>
     </row>
@@ -20917,10 +22073,10 @@
         <v>0</v>
       </c>
       <c r="W193" t="n">
-        <v>0</v>
+        <v>2220</v>
       </c>
       <c r="X193" t="n">
-        <v>0</v>
+        <v>8880</v>
       </c>
       <c r="Y193" t="n">
         <v>0</v>
@@ -20929,12 +22085,18 @@
         <v>0</v>
       </c>
       <c r="AA193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC193" t="n">
         <v>740</v>
       </c>
-      <c r="AB193" t="n">
+      <c r="AD193" t="n">
         <v>740</v>
       </c>
-      <c r="AC193" t="n">
+      <c r="AE193" t="n">
         <v>740</v>
       </c>
     </row>
@@ -21024,10 +22186,10 @@
         <v>0</v>
       </c>
       <c r="W194" t="n">
-        <v>0</v>
+        <v>5980</v>
       </c>
       <c r="X194" t="n">
-        <v>0</v>
+        <v>23920</v>
       </c>
       <c r="Y194" t="n">
         <v>0</v>
@@ -21036,12 +22198,18 @@
         <v>0</v>
       </c>
       <c r="AA194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC194" t="n">
         <v>1993.333333333333</v>
       </c>
-      <c r="AB194" t="n">
+      <c r="AD194" t="n">
         <v>1993.333333333333</v>
       </c>
-      <c r="AC194" t="n">
+      <c r="AE194" t="n">
         <v>1993.333333333333</v>
       </c>
     </row>
@@ -21131,10 +22299,10 @@
         <v>0</v>
       </c>
       <c r="W195" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="X195" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="Y195" t="n">
         <v>0</v>
@@ -21143,12 +22311,18 @@
         <v>0</v>
       </c>
       <c r="AA195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC195" t="n">
         <v>416.6666666666667</v>
       </c>
-      <c r="AB195" t="n">
+      <c r="AD195" t="n">
         <v>416.6666666666667</v>
       </c>
-      <c r="AC195" t="n">
+      <c r="AE195" t="n">
         <v>416.6666666666667</v>
       </c>
     </row>
@@ -21238,10 +22412,10 @@
         <v>0</v>
       </c>
       <c r="W196" t="n">
-        <v>0</v>
+        <v>2430</v>
       </c>
       <c r="X196" t="n">
-        <v>0</v>
+        <v>9720</v>
       </c>
       <c r="Y196" t="n">
         <v>0</v>
@@ -21250,12 +22424,18 @@
         <v>0</v>
       </c>
       <c r="AA196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC196" t="n">
         <v>810</v>
       </c>
-      <c r="AB196" t="n">
+      <c r="AD196" t="n">
         <v>810</v>
       </c>
-      <c r="AC196" t="n">
+      <c r="AE196" t="n">
         <v>810</v>
       </c>
     </row>
@@ -21345,10 +22525,10 @@
         <v>0</v>
       </c>
       <c r="W197" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="X197" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="Y197" t="n">
         <v>0</v>
@@ -21357,12 +22537,18 @@
         <v>0</v>
       </c>
       <c r="AA197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC197" t="n">
         <v>500</v>
       </c>
-      <c r="AB197" t="n">
+      <c r="AD197" t="n">
         <v>500</v>
       </c>
-      <c r="AC197" t="n">
+      <c r="AE197" t="n">
         <v>500</v>
       </c>
     </row>
@@ -21452,10 +22638,10 @@
         <v>0</v>
       </c>
       <c r="W198" t="n">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="X198" t="n">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="Y198" t="n">
         <v>0</v>
@@ -21464,12 +22650,18 @@
         <v>0</v>
       </c>
       <c r="AA198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC198" t="n">
         <v>175</v>
       </c>
-      <c r="AB198" t="n">
+      <c r="AD198" t="n">
         <v>175</v>
       </c>
-      <c r="AC198" t="n">
+      <c r="AE198" t="n">
         <v>175</v>
       </c>
     </row>
@@ -21559,10 +22751,10 @@
         <v>0</v>
       </c>
       <c r="W199" t="n">
-        <v>0</v>
+        <v>3675</v>
       </c>
       <c r="X199" t="n">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="Y199" t="n">
         <v>0</v>
@@ -21571,12 +22763,18 @@
         <v>0</v>
       </c>
       <c r="AA199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC199" t="n">
         <v>1225</v>
       </c>
-      <c r="AB199" t="n">
+      <c r="AD199" t="n">
         <v>1225</v>
       </c>
-      <c r="AC199" t="n">
+      <c r="AE199" t="n">
         <v>1225</v>
       </c>
     </row>
@@ -21666,10 +22864,10 @@
         <v>0</v>
       </c>
       <c r="W200" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="X200" t="n">
-        <v>0</v>
+        <v>2688</v>
       </c>
       <c r="Y200" t="n">
         <v>0</v>
@@ -21678,12 +22876,18 @@
         <v>0</v>
       </c>
       <c r="AA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC200" t="n">
         <v>224</v>
       </c>
-      <c r="AB200" t="n">
+      <c r="AD200" t="n">
         <v>224</v>
       </c>
-      <c r="AC200" t="n">
+      <c r="AE200" t="n">
         <v>224</v>
       </c>
     </row>
@@ -21773,10 +22977,10 @@
         <v>0</v>
       </c>
       <c r="W201" t="n">
-        <v>0</v>
+        <v>412.5</v>
       </c>
       <c r="X201" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="Y201" t="n">
         <v>0</v>
@@ -21785,12 +22989,18 @@
         <v>0</v>
       </c>
       <c r="AA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC201" t="n">
         <v>137.5</v>
       </c>
-      <c r="AB201" t="n">
+      <c r="AD201" t="n">
         <v>137.5</v>
       </c>
-      <c r="AC201" t="n">
+      <c r="AE201" t="n">
         <v>137.5</v>
       </c>
     </row>
@@ -21880,10 +23090,10 @@
         <v>0</v>
       </c>
       <c r="W202" t="n">
-        <v>0</v>
+        <v>2625</v>
       </c>
       <c r="X202" t="n">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="Y202" t="n">
         <v>0</v>
@@ -21892,12 +23102,18 @@
         <v>0</v>
       </c>
       <c r="AA202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC202" t="n">
         <v>875</v>
       </c>
-      <c r="AB202" t="n">
+      <c r="AD202" t="n">
         <v>875</v>
       </c>
-      <c r="AC202" t="n">
+      <c r="AE202" t="n">
         <v>875</v>
       </c>
     </row>
@@ -21987,10 +23203,10 @@
         <v>0</v>
       </c>
       <c r="W203" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="X203" t="n">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="Y203" t="n">
         <v>0</v>
@@ -21999,12 +23215,18 @@
         <v>0</v>
       </c>
       <c r="AA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC203" t="n">
         <v>140</v>
       </c>
-      <c r="AB203" t="n">
+      <c r="AD203" t="n">
         <v>140</v>
       </c>
-      <c r="AC203" t="n">
+      <c r="AE203" t="n">
         <v>140</v>
       </c>
     </row>
@@ -22094,10 +23316,10 @@
         <v>0</v>
       </c>
       <c r="W204" t="n">
-        <v>0</v>
+        <v>17220</v>
       </c>
       <c r="X204" t="n">
-        <v>0</v>
+        <v>68880</v>
       </c>
       <c r="Y204" t="n">
         <v>0</v>
@@ -22106,12 +23328,18 @@
         <v>0</v>
       </c>
       <c r="AA204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC204" t="n">
         <v>5740</v>
       </c>
-      <c r="AB204" t="n">
+      <c r="AD204" t="n">
         <v>5740</v>
       </c>
-      <c r="AC204" t="n">
+      <c r="AE204" t="n">
         <v>5740</v>
       </c>
     </row>
@@ -22201,10 +23429,10 @@
         <v>0</v>
       </c>
       <c r="W205" t="n">
-        <v>0</v>
+        <v>39300</v>
       </c>
       <c r="X205" t="n">
-        <v>0</v>
+        <v>157200</v>
       </c>
       <c r="Y205" t="n">
         <v>0</v>
@@ -22213,12 +23441,18 @@
         <v>0</v>
       </c>
       <c r="AA205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC205" t="n">
         <v>13100</v>
       </c>
-      <c r="AB205" t="n">
+      <c r="AD205" t="n">
         <v>13100</v>
       </c>
-      <c r="AC205" t="n">
+      <c r="AE205" t="n">
         <v>13100</v>
       </c>
     </row>
@@ -22308,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="W206" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="X206" t="n">
-        <v>0</v>
+        <v>1248</v>
       </c>
       <c r="Y206" t="n">
         <v>0</v>
@@ -22320,12 +23554,18 @@
         <v>0</v>
       </c>
       <c r="AA206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC206" t="n">
         <v>104</v>
       </c>
-      <c r="AB206" t="n">
+      <c r="AD206" t="n">
         <v>104</v>
       </c>
-      <c r="AC206" t="n">
+      <c r="AE206" t="n">
         <v>104</v>
       </c>
     </row>
@@ -22415,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="W207" t="n">
-        <v>0</v>
+        <v>4468</v>
       </c>
       <c r="X207" t="n">
-        <v>0</v>
+        <v>17872</v>
       </c>
       <c r="Y207" t="n">
         <v>0</v>
@@ -22427,12 +23667,18 @@
         <v>0</v>
       </c>
       <c r="AA207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC207" t="n">
         <v>1489.333333333333</v>
       </c>
-      <c r="AB207" t="n">
+      <c r="AD207" t="n">
         <v>1489.333333333333</v>
       </c>
-      <c r="AC207" t="n">
+      <c r="AE207" t="n">
         <v>1489.333333333333</v>
       </c>
     </row>
@@ -22522,10 +23768,10 @@
         <v>0</v>
       </c>
       <c r="W208" t="n">
-        <v>0</v>
+        <v>10472</v>
       </c>
       <c r="X208" t="n">
-        <v>0</v>
+        <v>41888</v>
       </c>
       <c r="Y208" t="n">
         <v>0</v>
@@ -22534,12 +23780,18 @@
         <v>0</v>
       </c>
       <c r="AA208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC208" t="n">
         <v>3490.666666666667</v>
       </c>
-      <c r="AB208" t="n">
+      <c r="AD208" t="n">
         <v>3490.666666666667</v>
       </c>
-      <c r="AC208" t="n">
+      <c r="AE208" t="n">
         <v>3490.666666666667</v>
       </c>
     </row>
@@ -22629,10 +23881,10 @@
         <v>0</v>
       </c>
       <c r="W209" t="n">
-        <v>0</v>
+        <v>2375</v>
       </c>
       <c r="X209" t="n">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="Y209" t="n">
         <v>0</v>
@@ -22641,12 +23893,18 @@
         <v>0</v>
       </c>
       <c r="AA209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC209" t="n">
         <v>791.6666666666666</v>
       </c>
-      <c r="AB209" t="n">
+      <c r="AD209" t="n">
         <v>791.6666666666666</v>
       </c>
-      <c r="AC209" t="n">
+      <c r="AE209" t="n">
         <v>791.6666666666666</v>
       </c>
     </row>
@@ -22736,10 +23994,10 @@
         <v>0</v>
       </c>
       <c r="W210" t="n">
-        <v>0</v>
+        <v>3135</v>
       </c>
       <c r="X210" t="n">
-        <v>0</v>
+        <v>12540</v>
       </c>
       <c r="Y210" t="n">
         <v>0</v>
@@ -22748,12 +24006,18 @@
         <v>0</v>
       </c>
       <c r="AA210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC210" t="n">
         <v>1045</v>
       </c>
-      <c r="AB210" t="n">
+      <c r="AD210" t="n">
         <v>1045</v>
       </c>
-      <c r="AC210" t="n">
+      <c r="AE210" t="n">
         <v>1045</v>
       </c>
     </row>
@@ -22843,10 +24107,10 @@
         <v>0</v>
       </c>
       <c r="W211" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="X211" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="Y211" t="n">
         <v>0</v>
@@ -22855,12 +24119,18 @@
         <v>0</v>
       </c>
       <c r="AA211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC211" t="n">
         <v>200</v>
       </c>
-      <c r="AB211" t="n">
+      <c r="AD211" t="n">
         <v>200</v>
       </c>
-      <c r="AC211" t="n">
+      <c r="AE211" t="n">
         <v>200</v>
       </c>
     </row>
@@ -22950,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="W212" t="n">
-        <v>0</v>
+        <v>1206</v>
       </c>
       <c r="X212" t="n">
-        <v>0</v>
+        <v>4824</v>
       </c>
       <c r="Y212" t="n">
         <v>0</v>
@@ -22962,12 +24232,18 @@
         <v>0</v>
       </c>
       <c r="AA212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC212" t="n">
         <v>402</v>
       </c>
-      <c r="AB212" t="n">
+      <c r="AD212" t="n">
         <v>402</v>
       </c>
-      <c r="AC212" t="n">
+      <c r="AE212" t="n">
         <v>402</v>
       </c>
     </row>
@@ -23057,10 +24333,10 @@
         <v>0</v>
       </c>
       <c r="W213" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="X213" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="Y213" t="n">
         <v>0</v>
@@ -23069,12 +24345,18 @@
         <v>0</v>
       </c>
       <c r="AA213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC213" t="n">
         <v>550</v>
       </c>
-      <c r="AB213" t="n">
+      <c r="AD213" t="n">
         <v>550</v>
       </c>
-      <c r="AC213" t="n">
+      <c r="AE213" t="n">
         <v>550</v>
       </c>
     </row>
@@ -23164,10 +24446,10 @@
         <v>0</v>
       </c>
       <c r="W214" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="X214" t="n">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="Y214" t="n">
         <v>0</v>
@@ -23176,12 +24458,18 @@
         <v>0</v>
       </c>
       <c r="AA214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC214" t="n">
         <v>130</v>
       </c>
-      <c r="AB214" t="n">
+      <c r="AD214" t="n">
         <v>130</v>
       </c>
-      <c r="AC214" t="n">
+      <c r="AE214" t="n">
         <v>130</v>
       </c>
     </row>
@@ -23271,10 +24559,10 @@
         <v>0</v>
       </c>
       <c r="W215" t="n">
-        <v>0</v>
+        <v>4640</v>
       </c>
       <c r="X215" t="n">
-        <v>0</v>
+        <v>18560</v>
       </c>
       <c r="Y215" t="n">
         <v>0</v>
@@ -23283,12 +24571,18 @@
         <v>0</v>
       </c>
       <c r="AA215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC215" t="n">
         <v>1546.666666666667</v>
       </c>
-      <c r="AB215" t="n">
+      <c r="AD215" t="n">
         <v>1546.666666666667</v>
       </c>
-      <c r="AC215" t="n">
+      <c r="AE215" t="n">
         <v>1546.666666666667</v>
       </c>
     </row>
@@ -23378,10 +24672,10 @@
         <v>0</v>
       </c>
       <c r="W216" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="X216" t="n">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="Y216" t="n">
         <v>0</v>
@@ -23390,12 +24684,18 @@
         <v>0</v>
       </c>
       <c r="AA216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC216" t="n">
         <v>233.3333333333333</v>
       </c>
-      <c r="AB216" t="n">
+      <c r="AD216" t="n">
         <v>233.3333333333333</v>
       </c>
-      <c r="AC216" t="n">
+      <c r="AE216" t="n">
         <v>233.3333333333333</v>
       </c>
     </row>
@@ -23485,10 +24785,10 @@
         <v>0</v>
       </c>
       <c r="W217" t="n">
-        <v>0</v>
+        <v>15750</v>
       </c>
       <c r="X217" t="n">
-        <v>0</v>
+        <v>63000</v>
       </c>
       <c r="Y217" t="n">
         <v>0</v>
@@ -23497,12 +24797,18 @@
         <v>0</v>
       </c>
       <c r="AA217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC217" t="n">
         <v>5250</v>
       </c>
-      <c r="AB217" t="n">
+      <c r="AD217" t="n">
         <v>5250</v>
       </c>
-      <c r="AC217" t="n">
+      <c r="AE217" t="n">
         <v>5250</v>
       </c>
     </row>
@@ -23592,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W218" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="X218" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="Y218" t="n">
         <v>0</v>
@@ -23604,12 +24910,18 @@
         <v>0</v>
       </c>
       <c r="AA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC218" t="n">
         <v>11666.66666666667</v>
       </c>
-      <c r="AB218" t="n">
+      <c r="AD218" t="n">
         <v>11666.66666666667</v>
       </c>
-      <c r="AC218" t="n">
+      <c r="AE218" t="n">
         <v>11666.66666666667</v>
       </c>
     </row>
@@ -23699,10 +25011,10 @@
         <v>0</v>
       </c>
       <c r="W219" t="n">
-        <v>0</v>
+        <v>19500</v>
       </c>
       <c r="X219" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="Y219" t="n">
         <v>0</v>
@@ -23711,12 +25023,18 @@
         <v>0</v>
       </c>
       <c r="AA219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC219" t="n">
         <v>6500</v>
       </c>
-      <c r="AB219" t="n">
+      <c r="AD219" t="n">
         <v>6500</v>
       </c>
-      <c r="AC219" t="n">
+      <c r="AE219" t="n">
         <v>6500</v>
       </c>
     </row>
@@ -23806,10 +25124,10 @@
         <v>0</v>
       </c>
       <c r="W220" t="n">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="X220" t="n">
-        <v>0</v>
+        <v>24400</v>
       </c>
       <c r="Y220" t="n">
         <v>0</v>
@@ -23818,12 +25136,18 @@
         <v>0</v>
       </c>
       <c r="AA220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC220" t="n">
         <v>2033.333333333333</v>
       </c>
-      <c r="AB220" t="n">
+      <c r="AD220" t="n">
         <v>2033.333333333333</v>
       </c>
-      <c r="AC220" t="n">
+      <c r="AE220" t="n">
         <v>2033.333333333333</v>
       </c>
     </row>
@@ -23913,10 +25237,10 @@
         <v>0</v>
       </c>
       <c r="W221" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="X221" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="Y221" t="n">
         <v>0</v>
@@ -23925,12 +25249,18 @@
         <v>0</v>
       </c>
       <c r="AA221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC221" t="n">
         <v>1000</v>
       </c>
-      <c r="AB221" t="n">
+      <c r="AD221" t="n">
         <v>1000</v>
       </c>
-      <c r="AC221" t="n">
+      <c r="AE221" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -24020,10 +25350,10 @@
         <v>0</v>
       </c>
       <c r="W222" t="n">
-        <v>0</v>
+        <v>2565</v>
       </c>
       <c r="X222" t="n">
-        <v>0</v>
+        <v>10260</v>
       </c>
       <c r="Y222" t="n">
         <v>0</v>
@@ -24032,12 +25362,18 @@
         <v>0</v>
       </c>
       <c r="AA222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC222" t="n">
         <v>855</v>
       </c>
-      <c r="AB222" t="n">
+      <c r="AD222" t="n">
         <v>855</v>
       </c>
-      <c r="AC222" t="n">
+      <c r="AE222" t="n">
         <v>855</v>
       </c>
     </row>
@@ -24127,10 +25463,10 @@
         <v>0</v>
       </c>
       <c r="W223" t="n">
-        <v>0</v>
+        <v>8775</v>
       </c>
       <c r="X223" t="n">
-        <v>0</v>
+        <v>35100</v>
       </c>
       <c r="Y223" t="n">
         <v>0</v>
@@ -24139,12 +25475,18 @@
         <v>0</v>
       </c>
       <c r="AA223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC223" t="n">
         <v>2925</v>
       </c>
-      <c r="AB223" t="n">
+      <c r="AD223" t="n">
         <v>2925</v>
       </c>
-      <c r="AC223" t="n">
+      <c r="AE223" t="n">
         <v>2925</v>
       </c>
     </row>
@@ -24234,10 +25576,10 @@
         <v>0</v>
       </c>
       <c r="W224" t="n">
-        <v>0</v>
+        <v>6120</v>
       </c>
       <c r="X224" t="n">
-        <v>0</v>
+        <v>24480</v>
       </c>
       <c r="Y224" t="n">
         <v>0</v>
@@ -24246,12 +25588,18 @@
         <v>0</v>
       </c>
       <c r="AA224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC224" t="n">
         <v>2040</v>
       </c>
-      <c r="AB224" t="n">
+      <c r="AD224" t="n">
         <v>2040</v>
       </c>
-      <c r="AC224" t="n">
+      <c r="AE224" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -24341,10 +25689,10 @@
         <v>0</v>
       </c>
       <c r="W225" t="n">
-        <v>0</v>
+        <v>828.75</v>
       </c>
       <c r="X225" t="n">
-        <v>0</v>
+        <v>3315</v>
       </c>
       <c r="Y225" t="n">
         <v>0</v>
@@ -24353,12 +25701,18 @@
         <v>0</v>
       </c>
       <c r="AA225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC225" t="n">
         <v>276.25</v>
       </c>
-      <c r="AB225" t="n">
+      <c r="AD225" t="n">
         <v>276.25</v>
       </c>
-      <c r="AC225" t="n">
+      <c r="AE225" t="n">
         <v>276.25</v>
       </c>
     </row>
@@ -24448,10 +25802,10 @@
         <v>0</v>
       </c>
       <c r="W226" t="n">
-        <v>0</v>
+        <v>16275</v>
       </c>
       <c r="X226" t="n">
-        <v>0</v>
+        <v>65100</v>
       </c>
       <c r="Y226" t="n">
         <v>0</v>
@@ -24460,12 +25814,18 @@
         <v>0</v>
       </c>
       <c r="AA226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC226" t="n">
         <v>5425</v>
       </c>
-      <c r="AB226" t="n">
+      <c r="AD226" t="n">
         <v>5425</v>
       </c>
-      <c r="AC226" t="n">
+      <c r="AE226" t="n">
         <v>5425</v>
       </c>
     </row>
@@ -24555,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="W227" t="n">
-        <v>0</v>
+        <v>21400</v>
       </c>
       <c r="X227" t="n">
-        <v>0</v>
+        <v>85600</v>
       </c>
       <c r="Y227" t="n">
         <v>0</v>
@@ -24567,12 +25927,18 @@
         <v>0</v>
       </c>
       <c r="AA227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC227" t="n">
         <v>7133.333333333333</v>
       </c>
-      <c r="AB227" t="n">
+      <c r="AD227" t="n">
         <v>7133.333333333333</v>
       </c>
-      <c r="AC227" t="n">
+      <c r="AE227" t="n">
         <v>7133.333333333333</v>
       </c>
     </row>
@@ -24662,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="W228" t="n">
-        <v>0</v>
+        <v>3315</v>
       </c>
       <c r="X228" t="n">
-        <v>0</v>
+        <v>13260</v>
       </c>
       <c r="Y228" t="n">
         <v>0</v>
@@ -24674,12 +26040,18 @@
         <v>0</v>
       </c>
       <c r="AA228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC228" t="n">
         <v>1105</v>
       </c>
-      <c r="AB228" t="n">
+      <c r="AD228" t="n">
         <v>1105</v>
       </c>
-      <c r="AC228" t="n">
+      <c r="AE228" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -24769,10 +26141,10 @@
         <v>0</v>
       </c>
       <c r="W229" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="X229" t="n">
-        <v>0</v>
+        <v>17600</v>
       </c>
       <c r="Y229" t="n">
         <v>0</v>
@@ -24781,12 +26153,18 @@
         <v>0</v>
       </c>
       <c r="AA229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC229" t="n">
         <v>1466.666666666667</v>
       </c>
-      <c r="AB229" t="n">
+      <c r="AD229" t="n">
         <v>1466.666666666667</v>
       </c>
-      <c r="AC229" t="n">
+      <c r="AE229" t="n">
         <v>1466.666666666667</v>
       </c>
     </row>
@@ -24876,10 +26254,10 @@
         <v>0</v>
       </c>
       <c r="W230" t="n">
-        <v>0</v>
+        <v>2940</v>
       </c>
       <c r="X230" t="n">
-        <v>0</v>
+        <v>11760</v>
       </c>
       <c r="Y230" t="n">
         <v>0</v>
@@ -24888,12 +26266,18 @@
         <v>0</v>
       </c>
       <c r="AA230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC230" t="n">
         <v>980</v>
       </c>
-      <c r="AB230" t="n">
+      <c r="AD230" t="n">
         <v>980</v>
       </c>
-      <c r="AC230" t="n">
+      <c r="AE230" t="n">
         <v>980</v>
       </c>
     </row>
@@ -24983,10 +26367,10 @@
         <v>0</v>
       </c>
       <c r="W231" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="X231" t="n">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="Y231" t="n">
         <v>0</v>
@@ -24995,12 +26379,18 @@
         <v>0</v>
       </c>
       <c r="AA231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC231" t="n">
         <v>47.66666666666666</v>
       </c>
-      <c r="AB231" t="n">
+      <c r="AD231" t="n">
         <v>47.66666666666666</v>
       </c>
-      <c r="AC231" t="n">
+      <c r="AE231" t="n">
         <v>47.66666666666666</v>
       </c>
     </row>
@@ -25090,10 +26480,10 @@
         <v>0</v>
       </c>
       <c r="W232" t="n">
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="X232" t="n">
-        <v>0</v>
+        <v>3116</v>
       </c>
       <c r="Y232" t="n">
         <v>0</v>
@@ -25102,12 +26492,18 @@
         <v>0</v>
       </c>
       <c r="AA232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC232" t="n">
         <v>259.6666666666667</v>
       </c>
-      <c r="AB232" t="n">
+      <c r="AD232" t="n">
         <v>259.6666666666667</v>
       </c>
-      <c r="AC232" t="n">
+      <c r="AE232" t="n">
         <v>259.6666666666667</v>
       </c>
     </row>
@@ -25197,10 +26593,10 @@
         <v>0</v>
       </c>
       <c r="W233" t="n">
-        <v>0</v>
+        <v>11430</v>
       </c>
       <c r="X233" t="n">
-        <v>0</v>
+        <v>45720</v>
       </c>
       <c r="Y233" t="n">
         <v>0</v>
@@ -25209,12 +26605,18 @@
         <v>0</v>
       </c>
       <c r="AA233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC233" t="n">
         <v>3810</v>
       </c>
-      <c r="AB233" t="n">
+      <c r="AD233" t="n">
         <v>3810</v>
       </c>
-      <c r="AC233" t="n">
+      <c r="AE233" t="n">
         <v>3810</v>
       </c>
     </row>
@@ -25304,10 +26706,10 @@
         <v>0</v>
       </c>
       <c r="W234" t="n">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="X234" t="n">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="Y234" t="n">
         <v>0</v>
@@ -25316,12 +26718,18 @@
         <v>0</v>
       </c>
       <c r="AA234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC234" t="n">
         <v>850</v>
       </c>
-      <c r="AB234" t="n">
+      <c r="AD234" t="n">
         <v>850</v>
       </c>
-      <c r="AC234" t="n">
+      <c r="AE234" t="n">
         <v>850</v>
       </c>
     </row>
@@ -25411,10 +26819,10 @@
         <v>0</v>
       </c>
       <c r="W235" t="n">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="X235" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="Y235" t="n">
         <v>0</v>
@@ -25423,12 +26831,18 @@
         <v>0</v>
       </c>
       <c r="AA235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC235" t="n">
         <v>6000</v>
       </c>
-      <c r="AB235" t="n">
+      <c r="AD235" t="n">
         <v>6000</v>
       </c>
-      <c r="AC235" t="n">
+      <c r="AE235" t="n">
         <v>6000</v>
       </c>
     </row>
@@ -25518,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="W236" t="n">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="X236" t="n">
-        <v>0</v>
+        <v>27600</v>
       </c>
       <c r="Y236" t="n">
         <v>0</v>
@@ -25530,12 +26944,18 @@
         <v>0</v>
       </c>
       <c r="AA236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC236" t="n">
         <v>2300</v>
       </c>
-      <c r="AB236" t="n">
+      <c r="AD236" t="n">
         <v>2300</v>
       </c>
-      <c r="AC236" t="n">
+      <c r="AE236" t="n">
         <v>2300</v>
       </c>
     </row>
@@ -25625,10 +27045,10 @@
         <v>0</v>
       </c>
       <c r="W237" t="n">
-        <v>0</v>
+        <v>67874.625</v>
       </c>
       <c r="X237" t="n">
-        <v>0</v>
+        <v>158374.125</v>
       </c>
       <c r="Y237" t="n">
         <v>0</v>
@@ -25637,12 +27057,18 @@
         <v>0</v>
       </c>
       <c r="AA237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC237" t="n">
         <v>22624.875</v>
       </c>
-      <c r="AB237" t="n">
+      <c r="AD237" t="n">
         <v>22624.875</v>
       </c>
-      <c r="AC237" t="n">
+      <c r="AE237" t="n">
         <v>22624.875</v>
       </c>
     </row>
@@ -25732,10 +27158,10 @@
         <v>0</v>
       </c>
       <c r="W238" t="n">
-        <v>0</v>
+        <v>12757.5</v>
       </c>
       <c r="X238" t="n">
-        <v>0</v>
+        <v>29767.5</v>
       </c>
       <c r="Y238" t="n">
         <v>0</v>
@@ -25744,12 +27170,18 @@
         <v>0</v>
       </c>
       <c r="AA238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC238" t="n">
         <v>4252.5</v>
       </c>
-      <c r="AB238" t="n">
+      <c r="AD238" t="n">
         <v>4252.5</v>
       </c>
-      <c r="AC238" t="n">
+      <c r="AE238" t="n">
         <v>4252.5</v>
       </c>
     </row>
@@ -25839,10 +27271,10 @@
         <v>0</v>
       </c>
       <c r="W239" t="n">
-        <v>0</v>
+        <v>8775</v>
       </c>
       <c r="X239" t="n">
-        <v>0</v>
+        <v>20475</v>
       </c>
       <c r="Y239" t="n">
         <v>0</v>
@@ -25851,12 +27283,18 @@
         <v>0</v>
       </c>
       <c r="AA239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC239" t="n">
         <v>2925</v>
       </c>
-      <c r="AB239" t="n">
+      <c r="AD239" t="n">
         <v>2925</v>
       </c>
-      <c r="AC239" t="n">
+      <c r="AE239" t="n">
         <v>2925</v>
       </c>
     </row>
@@ -25946,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="W240" t="n">
-        <v>0</v>
+        <v>16668</v>
       </c>
       <c r="X240" t="n">
-        <v>0</v>
+        <v>38892</v>
       </c>
       <c r="Y240" t="n">
         <v>0</v>
@@ -25958,12 +27396,18 @@
         <v>0</v>
       </c>
       <c r="AA240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC240" t="n">
         <v>5556</v>
       </c>
-      <c r="AB240" t="n">
+      <c r="AD240" t="n">
         <v>5556</v>
       </c>
-      <c r="AC240" t="n">
+      <c r="AE240" t="n">
         <v>5556</v>
       </c>
     </row>
@@ -26053,10 +27497,10 @@
         <v>0</v>
       </c>
       <c r="W241" t="n">
-        <v>0</v>
+        <v>6715.5</v>
       </c>
       <c r="X241" t="n">
-        <v>0</v>
+        <v>15669.5</v>
       </c>
       <c r="Y241" t="n">
         <v>0</v>
@@ -26065,12 +27509,18 @@
         <v>0</v>
       </c>
       <c r="AA241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC241" t="n">
         <v>2238.5</v>
       </c>
-      <c r="AB241" t="n">
+      <c r="AD241" t="n">
         <v>2238.5</v>
       </c>
-      <c r="AC241" t="n">
+      <c r="AE241" t="n">
         <v>2238.5</v>
       </c>
     </row>
@@ -26160,10 +27610,10 @@
         <v>0</v>
       </c>
       <c r="W242" t="n">
-        <v>0</v>
+        <v>8655.165000000001</v>
       </c>
       <c r="X242" t="n">
-        <v>0</v>
+        <v>49045.935</v>
       </c>
       <c r="Y242" t="n">
         <v>0</v>
@@ -26172,12 +27622,18 @@
         <v>0</v>
       </c>
       <c r="AA242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC242" t="n">
         <v>2885.055</v>
       </c>
-      <c r="AB242" t="n">
+      <c r="AD242" t="n">
         <v>2885.055</v>
       </c>
-      <c r="AC242" t="n">
+      <c r="AE242" t="n">
         <v>2885.055</v>
       </c>
     </row>
@@ -26267,10 +27723,10 @@
         <v>0</v>
       </c>
       <c r="W243" t="n">
-        <v>0</v>
+        <v>35392.72500000001</v>
       </c>
       <c r="X243" t="n">
-        <v>0</v>
+        <v>200558.775</v>
       </c>
       <c r="Y243" t="n">
         <v>0</v>
@@ -26279,12 +27735,18 @@
         <v>0</v>
       </c>
       <c r="AA243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC243" t="n">
         <v>11797.575</v>
       </c>
-      <c r="AB243" t="n">
+      <c r="AD243" t="n">
         <v>11797.575</v>
       </c>
-      <c r="AC243" t="n">
+      <c r="AE243" t="n">
         <v>11797.575</v>
       </c>
     </row>
@@ -26374,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W244" t="n">
-        <v>0</v>
+        <v>21270.825</v>
       </c>
       <c r="X244" t="n">
-        <v>0</v>
+        <v>120534.675</v>
       </c>
       <c r="Y244" t="n">
         <v>0</v>
@@ -26386,12 +27848,18 @@
         <v>0</v>
       </c>
       <c r="AA244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC244" t="n">
         <v>7090.275000000001</v>
       </c>
-      <c r="AB244" t="n">
+      <c r="AD244" t="n">
         <v>7090.275000000001</v>
       </c>
-      <c r="AC244" t="n">
+      <c r="AE244" t="n">
         <v>7090.275000000001</v>
       </c>
     </row>
@@ -26481,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="W245" t="n">
-        <v>0</v>
+        <v>31785.255</v>
       </c>
       <c r="X245" t="n">
-        <v>0</v>
+        <v>180116.445</v>
       </c>
       <c r="Y245" t="n">
         <v>0</v>
@@ -26493,12 +27961,18 @@
         <v>0</v>
       </c>
       <c r="AA245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC245" t="n">
         <v>10595.085</v>
       </c>
-      <c r="AB245" t="n">
+      <c r="AD245" t="n">
         <v>10595.085</v>
       </c>
-      <c r="AC245" t="n">
+      <c r="AE245" t="n">
         <v>10595.085</v>
       </c>
     </row>
@@ -26588,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="W246" t="n">
-        <v>0</v>
+        <v>15507.36</v>
       </c>
       <c r="X246" t="n">
-        <v>0</v>
+        <v>87875.03999999999</v>
       </c>
       <c r="Y246" t="n">
         <v>0</v>
@@ -26600,12 +28074,18 @@
         <v>0</v>
       </c>
       <c r="AA246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC246" t="n">
         <v>5169.12</v>
       </c>
-      <c r="AB246" t="n">
+      <c r="AD246" t="n">
         <v>5169.12</v>
       </c>
-      <c r="AC246" t="n">
+      <c r="AE246" t="n">
         <v>5169.12</v>
       </c>
     </row>
@@ -26695,10 +28175,10 @@
         <v>0</v>
       </c>
       <c r="W247" t="n">
-        <v>0</v>
+        <v>40543.02</v>
       </c>
       <c r="X247" t="n">
-        <v>0</v>
+        <v>229743.78</v>
       </c>
       <c r="Y247" t="n">
         <v>0</v>
@@ -26707,12 +28187,18 @@
         <v>0</v>
       </c>
       <c r="AA247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC247" t="n">
         <v>13514.34</v>
       </c>
-      <c r="AB247" t="n">
+      <c r="AD247" t="n">
         <v>13514.34</v>
       </c>
-      <c r="AC247" t="n">
+      <c r="AE247" t="n">
         <v>13514.34</v>
       </c>
     </row>
@@ -26802,10 +28288,10 @@
         <v>0</v>
       </c>
       <c r="W248" t="n">
-        <v>0</v>
+        <v>8797.5</v>
       </c>
       <c r="X248" t="n">
-        <v>0</v>
+        <v>49852.5</v>
       </c>
       <c r="Y248" t="n">
         <v>0</v>
@@ -26814,12 +28300,18 @@
         <v>0</v>
       </c>
       <c r="AA248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC248" t="n">
         <v>2932.5</v>
       </c>
-      <c r="AB248" t="n">
+      <c r="AD248" t="n">
         <v>2932.5</v>
       </c>
-      <c r="AC248" t="n">
+      <c r="AE248" t="n">
         <v>2932.5</v>
       </c>
     </row>
@@ -26909,10 +28401,10 @@
         <v>0</v>
       </c>
       <c r="W249" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="X249" t="n">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="Y249" t="n">
         <v>0</v>
@@ -26921,12 +28413,18 @@
         <v>0</v>
       </c>
       <c r="AA249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC249" t="n">
         <v>150</v>
       </c>
-      <c r="AB249" t="n">
+      <c r="AD249" t="n">
         <v>150</v>
       </c>
-      <c r="AC249" t="n">
+      <c r="AE249" t="n">
         <v>150</v>
       </c>
     </row>
@@ -27016,10 +28514,10 @@
         <v>0</v>
       </c>
       <c r="W250" t="n">
-        <v>0</v>
+        <v>17272.8675</v>
       </c>
       <c r="X250" t="n">
-        <v>0</v>
+        <v>97879.58249999999</v>
       </c>
       <c r="Y250" t="n">
         <v>0</v>
@@ -27028,12 +28526,18 @@
         <v>0</v>
       </c>
       <c r="AA250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC250" t="n">
         <v>5757.6225</v>
       </c>
-      <c r="AB250" t="n">
+      <c r="AD250" t="n">
         <v>5757.6225</v>
       </c>
-      <c r="AC250" t="n">
+      <c r="AE250" t="n">
         <v>5757.6225</v>
       </c>
     </row>
@@ -27123,10 +28627,10 @@
         <v>0</v>
       </c>
       <c r="W251" t="n">
-        <v>0</v>
+        <v>7858.125</v>
       </c>
       <c r="X251" t="n">
-        <v>0</v>
+        <v>44529.375</v>
       </c>
       <c r="Y251" t="n">
         <v>0</v>
@@ -27135,12 +28639,18 @@
         <v>0</v>
       </c>
       <c r="AA251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC251" t="n">
         <v>2619.375</v>
       </c>
-      <c r="AB251" t="n">
+      <c r="AD251" t="n">
         <v>2619.375</v>
       </c>
-      <c r="AC251" t="n">
+      <c r="AE251" t="n">
         <v>2619.375</v>
       </c>
     </row>
@@ -27230,10 +28740,10 @@
         <v>0</v>
       </c>
       <c r="W252" t="n">
-        <v>0</v>
+        <v>4275</v>
       </c>
       <c r="X252" t="n">
-        <v>0</v>
+        <v>24225</v>
       </c>
       <c r="Y252" t="n">
         <v>0</v>
@@ -27242,12 +28752,18 @@
         <v>0</v>
       </c>
       <c r="AA252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC252" t="n">
         <v>1425</v>
       </c>
-      <c r="AB252" t="n">
+      <c r="AD252" t="n">
         <v>1425</v>
       </c>
-      <c r="AC252" t="n">
+      <c r="AE252" t="n">
         <v>1425</v>
       </c>
     </row>
@@ -27337,10 +28853,10 @@
         <v>0</v>
       </c>
       <c r="W253" t="n">
-        <v>0</v>
+        <v>10362</v>
       </c>
       <c r="X253" t="n">
-        <v>0</v>
+        <v>58718</v>
       </c>
       <c r="Y253" t="n">
         <v>0</v>
@@ -27349,12 +28865,18 @@
         <v>0</v>
       </c>
       <c r="AA253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC253" t="n">
         <v>3454</v>
       </c>
-      <c r="AB253" t="n">
+      <c r="AD253" t="n">
         <v>3454</v>
       </c>
-      <c r="AC253" t="n">
+      <c r="AE253" t="n">
         <v>3454</v>
       </c>
     </row>
@@ -27444,10 +28966,10 @@
         <v>0</v>
       </c>
       <c r="W254" t="n">
-        <v>0</v>
+        <v>106276.95</v>
       </c>
       <c r="X254" t="n">
-        <v>0</v>
+        <v>602236.05</v>
       </c>
       <c r="Y254" t="n">
         <v>0</v>
@@ -27456,12 +28978,18 @@
         <v>0</v>
       </c>
       <c r="AA254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC254" t="n">
         <v>35425.65</v>
       </c>
-      <c r="AB254" t="n">
+      <c r="AD254" t="n">
         <v>35425.65</v>
       </c>
-      <c r="AC254" t="n">
+      <c r="AE254" t="n">
         <v>35425.65</v>
       </c>
     </row>
@@ -27551,10 +29079,10 @@
         <v>0</v>
       </c>
       <c r="W255" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="X255" t="n">
-        <v>0</v>
+        <v>408000</v>
       </c>
       <c r="Y255" t="n">
         <v>0</v>
@@ -27563,12 +29091,18 @@
         <v>0</v>
       </c>
       <c r="AA255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC255" t="n">
         <v>24000</v>
       </c>
-      <c r="AB255" t="n">
+      <c r="AD255" t="n">
         <v>24000</v>
       </c>
-      <c r="AC255" t="n">
+      <c r="AE255" t="n">
         <v>24000</v>
       </c>
     </row>
@@ -27658,10 +29192,10 @@
         <v>0</v>
       </c>
       <c r="W256" t="n">
-        <v>0</v>
+        <v>89520.75</v>
       </c>
       <c r="X256" t="n">
-        <v>0</v>
+        <v>507284.25</v>
       </c>
       <c r="Y256" t="n">
         <v>0</v>
@@ -27670,12 +29204,18 @@
         <v>0</v>
       </c>
       <c r="AA256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC256" t="n">
         <v>29840.25</v>
       </c>
-      <c r="AB256" t="n">
+      <c r="AD256" t="n">
         <v>29840.25</v>
       </c>
-      <c r="AC256" t="n">
+      <c r="AE256" t="n">
         <v>29840.25</v>
       </c>
     </row>
@@ -27765,10 +29305,10 @@
         <v>0</v>
       </c>
       <c r="W257" t="n">
-        <v>0</v>
+        <v>6466.9275</v>
       </c>
       <c r="X257" t="n">
-        <v>0</v>
+        <v>36645.9225</v>
       </c>
       <c r="Y257" t="n">
         <v>0</v>
@@ -27777,12 +29317,18 @@
         <v>0</v>
       </c>
       <c r="AA257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC257" t="n">
         <v>2155.6425</v>
       </c>
-      <c r="AB257" t="n">
+      <c r="AD257" t="n">
         <v>2155.6425</v>
       </c>
-      <c r="AC257" t="n">
+      <c r="AE257" t="n">
         <v>2155.6425</v>
       </c>
     </row>
@@ -27872,10 +29418,10 @@
         <v>0</v>
       </c>
       <c r="W258" t="n">
-        <v>0</v>
+        <v>16380</v>
       </c>
       <c r="X258" t="n">
-        <v>0</v>
+        <v>92820</v>
       </c>
       <c r="Y258" t="n">
         <v>0</v>
@@ -27884,12 +29430,18 @@
         <v>0</v>
       </c>
       <c r="AA258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC258" t="n">
         <v>5460</v>
       </c>
-      <c r="AB258" t="n">
+      <c r="AD258" t="n">
         <v>5460</v>
       </c>
-      <c r="AC258" t="n">
+      <c r="AE258" t="n">
         <v>5460</v>
       </c>
     </row>
@@ -27979,10 +29531,10 @@
         <v>0</v>
       </c>
       <c r="W259" t="n">
-        <v>0</v>
+        <v>5906.25</v>
       </c>
       <c r="X259" t="n">
-        <v>0</v>
+        <v>33468.75</v>
       </c>
       <c r="Y259" t="n">
         <v>0</v>
@@ -27991,12 +29543,18 @@
         <v>0</v>
       </c>
       <c r="AA259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC259" t="n">
         <v>1968.75</v>
       </c>
-      <c r="AB259" t="n">
+      <c r="AD259" t="n">
         <v>1968.75</v>
       </c>
-      <c r="AC259" t="n">
+      <c r="AE259" t="n">
         <v>1968.75</v>
       </c>
     </row>
@@ -28086,10 +29644,10 @@
         <v>0</v>
       </c>
       <c r="W260" t="n">
-        <v>0</v>
+        <v>16537.5</v>
       </c>
       <c r="X260" t="n">
-        <v>0</v>
+        <v>93712.5</v>
       </c>
       <c r="Y260" t="n">
         <v>0</v>
@@ -28098,12 +29656,18 @@
         <v>0</v>
       </c>
       <c r="AA260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC260" t="n">
         <v>5512.5</v>
       </c>
-      <c r="AB260" t="n">
+      <c r="AD260" t="n">
         <v>5512.5</v>
       </c>
-      <c r="AC260" t="n">
+      <c r="AE260" t="n">
         <v>5512.5</v>
       </c>
     </row>
@@ -28193,10 +29757,10 @@
         <v>0</v>
       </c>
       <c r="W261" t="n">
-        <v>0</v>
+        <v>32376.825</v>
       </c>
       <c r="X261" t="n">
-        <v>0</v>
+        <v>183468.675</v>
       </c>
       <c r="Y261" t="n">
         <v>0</v>
@@ -28205,12 +29769,18 @@
         <v>0</v>
       </c>
       <c r="AA261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC261" t="n">
         <v>10792.275</v>
       </c>
-      <c r="AB261" t="n">
+      <c r="AD261" t="n">
         <v>10792.275</v>
       </c>
-      <c r="AC261" t="n">
+      <c r="AE261" t="n">
         <v>10792.275</v>
       </c>
     </row>
@@ -28300,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="W262" t="n">
-        <v>0</v>
+        <v>5458.1625</v>
       </c>
       <c r="X262" t="n">
-        <v>0</v>
+        <v>30929.5875</v>
       </c>
       <c r="Y262" t="n">
         <v>0</v>
@@ -28312,12 +29882,18 @@
         <v>0</v>
       </c>
       <c r="AA262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC262" t="n">
         <v>1819.3875</v>
       </c>
-      <c r="AB262" t="n">
+      <c r="AD262" t="n">
         <v>1819.3875</v>
       </c>
-      <c r="AC262" t="n">
+      <c r="AE262" t="n">
         <v>1819.3875</v>
       </c>
     </row>
@@ -28407,10 +29983,10 @@
         <v>0</v>
       </c>
       <c r="W263" t="n">
-        <v>0</v>
+        <v>13006.26</v>
       </c>
       <c r="X263" t="n">
-        <v>0</v>
+        <v>73702.14</v>
       </c>
       <c r="Y263" t="n">
         <v>0</v>
@@ -28419,12 +29995,18 @@
         <v>0</v>
       </c>
       <c r="AA263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC263" t="n">
         <v>4335.42</v>
       </c>
-      <c r="AB263" t="n">
+      <c r="AD263" t="n">
         <v>4335.42</v>
       </c>
-      <c r="AC263" t="n">
+      <c r="AE263" t="n">
         <v>4335.42</v>
       </c>
     </row>
@@ -28514,10 +30096,10 @@
         <v>0</v>
       </c>
       <c r="W264" t="n">
-        <v>0</v>
+        <v>37639.55250000001</v>
       </c>
       <c r="X264" t="n">
-        <v>0</v>
+        <v>213290.7975</v>
       </c>
       <c r="Y264" t="n">
         <v>0</v>
@@ -28526,12 +30108,18 @@
         <v>0</v>
       </c>
       <c r="AA264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC264" t="n">
         <v>12546.5175</v>
       </c>
-      <c r="AB264" t="n">
+      <c r="AD264" t="n">
         <v>12546.5175</v>
       </c>
-      <c r="AC264" t="n">
+      <c r="AE264" t="n">
         <v>12546.5175</v>
       </c>
     </row>
@@ -28621,10 +30209,10 @@
         <v>0</v>
       </c>
       <c r="W265" t="n">
-        <v>0</v>
+        <v>5591.25</v>
       </c>
       <c r="X265" t="n">
-        <v>0</v>
+        <v>31683.75</v>
       </c>
       <c r="Y265" t="n">
         <v>0</v>
@@ -28633,12 +30221,18 @@
         <v>0</v>
       </c>
       <c r="AA265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC265" t="n">
         <v>1863.75</v>
       </c>
-      <c r="AB265" t="n">
+      <c r="AD265" t="n">
         <v>1863.75</v>
       </c>
-      <c r="AC265" t="n">
+      <c r="AE265" t="n">
         <v>1863.75</v>
       </c>
     </row>
@@ -28728,10 +30322,10 @@
         <v>0</v>
       </c>
       <c r="W266" t="n">
-        <v>0</v>
+        <v>4751.1</v>
       </c>
       <c r="X266" t="n">
-        <v>0</v>
+        <v>26922.9</v>
       </c>
       <c r="Y266" t="n">
         <v>0</v>
@@ -28740,12 +30334,18 @@
         <v>0</v>
       </c>
       <c r="AA266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC266" t="n">
         <v>1583.7</v>
       </c>
-      <c r="AB266" t="n">
+      <c r="AD266" t="n">
         <v>1583.7</v>
       </c>
-      <c r="AC266" t="n">
+      <c r="AE266" t="n">
         <v>1583.7</v>
       </c>
     </row>
@@ -28835,10 +30435,10 @@
         <v>0</v>
       </c>
       <c r="W267" t="n">
-        <v>0</v>
+        <v>3225</v>
       </c>
       <c r="X267" t="n">
-        <v>0</v>
+        <v>18275</v>
       </c>
       <c r="Y267" t="n">
         <v>0</v>
@@ -28847,12 +30447,18 @@
         <v>0</v>
       </c>
       <c r="AA267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC267" t="n">
         <v>1075</v>
       </c>
-      <c r="AB267" t="n">
+      <c r="AD267" t="n">
         <v>1075</v>
       </c>
-      <c r="AC267" t="n">
+      <c r="AE267" t="n">
         <v>1075</v>
       </c>
     </row>
@@ -28942,10 +30548,10 @@
         <v>0</v>
       </c>
       <c r="W268" t="n">
-        <v>0</v>
+        <v>21750</v>
       </c>
       <c r="X268" t="n">
-        <v>0</v>
+        <v>123250</v>
       </c>
       <c r="Y268" t="n">
         <v>0</v>
@@ -28954,12 +30560,18 @@
         <v>0</v>
       </c>
       <c r="AA268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC268" t="n">
         <v>7250</v>
       </c>
-      <c r="AB268" t="n">
+      <c r="AD268" t="n">
         <v>7250</v>
       </c>
-      <c r="AC268" t="n">
+      <c r="AE268" t="n">
         <v>7250</v>
       </c>
     </row>
@@ -29049,10 +30661,10 @@
         <v>0</v>
       </c>
       <c r="W269" t="n">
-        <v>0</v>
+        <v>5440.08</v>
       </c>
       <c r="X269" t="n">
-        <v>0</v>
+        <v>30827.12</v>
       </c>
       <c r="Y269" t="n">
         <v>0</v>
@@ -29061,12 +30673,18 @@
         <v>0</v>
       </c>
       <c r="AA269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC269" t="n">
         <v>1813.36</v>
       </c>
-      <c r="AB269" t="n">
+      <c r="AD269" t="n">
         <v>1813.36</v>
       </c>
-      <c r="AC269" t="n">
+      <c r="AE269" t="n">
         <v>1813.36</v>
       </c>
     </row>
@@ -29156,10 +30774,10 @@
         <v>0</v>
       </c>
       <c r="W270" t="n">
-        <v>0</v>
+        <v>12480</v>
       </c>
       <c r="X270" t="n">
-        <v>0</v>
+        <v>70720</v>
       </c>
       <c r="Y270" t="n">
         <v>0</v>
@@ -29168,12 +30786,18 @@
         <v>0</v>
       </c>
       <c r="AA270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC270" t="n">
         <v>4160</v>
       </c>
-      <c r="AB270" t="n">
+      <c r="AD270" t="n">
         <v>4160</v>
       </c>
-      <c r="AC270" t="n">
+      <c r="AE270" t="n">
         <v>4160</v>
       </c>
     </row>
@@ -29263,10 +30887,10 @@
         <v>0</v>
       </c>
       <c r="W271" t="n">
-        <v>0</v>
+        <v>11212.5</v>
       </c>
       <c r="X271" t="n">
-        <v>0</v>
+        <v>63537.5</v>
       </c>
       <c r="Y271" t="n">
         <v>0</v>
@@ -29275,12 +30899,18 @@
         <v>0</v>
       </c>
       <c r="AA271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC271" t="n">
         <v>3737.5</v>
       </c>
-      <c r="AB271" t="n">
+      <c r="AD271" t="n">
         <v>3737.5</v>
       </c>
-      <c r="AC271" t="n">
+      <c r="AE271" t="n">
         <v>3737.5</v>
       </c>
     </row>
@@ -29370,10 +31000,10 @@
         <v>0</v>
       </c>
       <c r="W272" t="n">
-        <v>0</v>
+        <v>21090</v>
       </c>
       <c r="X272" t="n">
-        <v>0</v>
+        <v>119510</v>
       </c>
       <c r="Y272" t="n">
         <v>0</v>
@@ -29382,12 +31012,18 @@
         <v>0</v>
       </c>
       <c r="AA272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC272" t="n">
         <v>7030</v>
       </c>
-      <c r="AB272" t="n">
+      <c r="AD272" t="n">
         <v>7030</v>
       </c>
-      <c r="AC272" t="n">
+      <c r="AE272" t="n">
         <v>7030</v>
       </c>
     </row>
@@ -29477,10 +31113,10 @@
         <v>0</v>
       </c>
       <c r="W273" t="n">
-        <v>0</v>
+        <v>20127.9375</v>
       </c>
       <c r="X273" t="n">
-        <v>0</v>
+        <v>114058.3125</v>
       </c>
       <c r="Y273" t="n">
         <v>0</v>
@@ -29489,12 +31125,18 @@
         <v>0</v>
       </c>
       <c r="AA273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC273" t="n">
         <v>6709.3125</v>
       </c>
-      <c r="AB273" t="n">
+      <c r="AD273" t="n">
         <v>6709.3125</v>
       </c>
-      <c r="AC273" t="n">
+      <c r="AE273" t="n">
         <v>6709.3125</v>
       </c>
     </row>
@@ -29584,10 +31226,10 @@
         <v>0</v>
       </c>
       <c r="W274" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="X274" t="n">
-        <v>0</v>
+        <v>3315</v>
       </c>
       <c r="Y274" t="n">
         <v>0</v>
@@ -29596,12 +31238,18 @@
         <v>0</v>
       </c>
       <c r="AA274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC274" t="n">
         <v>195</v>
       </c>
-      <c r="AB274" t="n">
+      <c r="AD274" t="n">
         <v>195</v>
       </c>
-      <c r="AC274" t="n">
+      <c r="AE274" t="n">
         <v>195</v>
       </c>
     </row>
@@ -29691,10 +31339,10 @@
         <v>0</v>
       </c>
       <c r="W275" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="X275" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="Y275" t="n">
         <v>0</v>
@@ -29703,12 +31351,18 @@
         <v>0</v>
       </c>
       <c r="AA275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC275" t="n">
         <v>66666.66666666667</v>
       </c>
-      <c r="AB275" t="n">
+      <c r="AD275" t="n">
         <v>66666.66666666667</v>
       </c>
-      <c r="AC275" t="n">
+      <c r="AE275" t="n">
         <v>66666.66666666667</v>
       </c>
     </row>
@@ -29798,10 +31452,10 @@
         <v>0</v>
       </c>
       <c r="W276" t="n">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="X276" t="n">
-        <v>0</v>
+        <v>93600</v>
       </c>
       <c r="Y276" t="n">
         <v>0</v>
@@ -29810,12 +31464,18 @@
         <v>0</v>
       </c>
       <c r="AA276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC276" t="n">
         <v>7800</v>
       </c>
-      <c r="AB276" t="n">
+      <c r="AD276" t="n">
         <v>7800</v>
       </c>
-      <c r="AC276" t="n">
+      <c r="AE276" t="n">
         <v>7800</v>
       </c>
     </row>
@@ -29905,10 +31565,10 @@
         <v>0</v>
       </c>
       <c r="W277" t="n">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="X277" t="n">
-        <v>0</v>
+        <v>132000</v>
       </c>
       <c r="Y277" t="n">
         <v>0</v>
@@ -29917,12 +31577,18 @@
         <v>0</v>
       </c>
       <c r="AA277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC277" t="n">
         <v>11000</v>
       </c>
-      <c r="AB277" t="n">
+      <c r="AD277" t="n">
         <v>11000</v>
       </c>
-      <c r="AC277" t="n">
+      <c r="AE277" t="n">
         <v>11000</v>
       </c>
     </row>
@@ -30012,10 +31678,10 @@
         <v>0</v>
       </c>
       <c r="W278" t="n">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="X278" t="n">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="Y278" t="n">
         <v>0</v>
@@ -30024,12 +31690,18 @@
         <v>0</v>
       </c>
       <c r="AA278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC278" t="n">
         <v>3166.666666666667</v>
       </c>
-      <c r="AB278" t="n">
+      <c r="AD278" t="n">
         <v>3166.666666666667</v>
       </c>
-      <c r="AC278" t="n">
+      <c r="AE278" t="n">
         <v>3166.666666666667</v>
       </c>
     </row>
@@ -30119,10 +31791,10 @@
         <v>0</v>
       </c>
       <c r="W279" t="n">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="X279" t="n">
-        <v>0</v>
+        <v>58800</v>
       </c>
       <c r="Y279" t="n">
         <v>0</v>
@@ -30131,12 +31803,18 @@
         <v>0</v>
       </c>
       <c r="AA279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC279" t="n">
         <v>4900</v>
       </c>
-      <c r="AB279" t="n">
+      <c r="AD279" t="n">
         <v>4900</v>
       </c>
-      <c r="AC279" t="n">
+      <c r="AE279" t="n">
         <v>4900</v>
       </c>
     </row>
@@ -30226,10 +31904,10 @@
         <v>0</v>
       </c>
       <c r="W280" t="n">
-        <v>0</v>
+        <v>10160</v>
       </c>
       <c r="X280" t="n">
-        <v>0</v>
+        <v>40640</v>
       </c>
       <c r="Y280" t="n">
         <v>0</v>
@@ -30238,12 +31916,18 @@
         <v>0</v>
       </c>
       <c r="AA280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC280" t="n">
         <v>3386.666666666667</v>
       </c>
-      <c r="AB280" t="n">
+      <c r="AD280" t="n">
         <v>3386.666666666667</v>
       </c>
-      <c r="AC280" t="n">
+      <c r="AE280" t="n">
         <v>3386.666666666667</v>
       </c>
     </row>
@@ -30333,10 +32017,10 @@
         <v>0</v>
       </c>
       <c r="W281" t="n">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="X281" t="n">
-        <v>0</v>
+        <v>37600</v>
       </c>
       <c r="Y281" t="n">
         <v>0</v>
@@ -30345,12 +32029,18 @@
         <v>0</v>
       </c>
       <c r="AA281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC281" t="n">
         <v>3133.333333333333</v>
       </c>
-      <c r="AB281" t="n">
+      <c r="AD281" t="n">
         <v>3133.333333333333</v>
       </c>
-      <c r="AC281" t="n">
+      <c r="AE281" t="n">
         <v>3133.333333333333</v>
       </c>
     </row>
@@ -30440,10 +32130,10 @@
         <v>0</v>
       </c>
       <c r="W282" t="n">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="X282" t="n">
-        <v>0</v>
+        <v>76800</v>
       </c>
       <c r="Y282" t="n">
         <v>0</v>
@@ -30452,12 +32142,18 @@
         <v>0</v>
       </c>
       <c r="AA282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC282" t="n">
         <v>6400</v>
       </c>
-      <c r="AB282" t="n">
+      <c r="AD282" t="n">
         <v>6400</v>
       </c>
-      <c r="AC282" t="n">
+      <c r="AE282" t="n">
         <v>6400</v>
       </c>
     </row>
@@ -30547,10 +32243,10 @@
         <v>0</v>
       </c>
       <c r="W283" t="n">
-        <v>0</v>
+        <v>44160</v>
       </c>
       <c r="X283" t="n">
-        <v>0</v>
+        <v>176640</v>
       </c>
       <c r="Y283" t="n">
         <v>0</v>
@@ -30559,12 +32255,18 @@
         <v>0</v>
       </c>
       <c r="AA283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC283" t="n">
         <v>14720</v>
       </c>
-      <c r="AB283" t="n">
+      <c r="AD283" t="n">
         <v>14720</v>
       </c>
-      <c r="AC283" t="n">
+      <c r="AE283" t="n">
         <v>14720</v>
       </c>
     </row>
@@ -30654,10 +32356,10 @@
         <v>0</v>
       </c>
       <c r="W284" t="n">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="X284" t="n">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="Y284" t="n">
         <v>0</v>
@@ -30666,12 +32368,18 @@
         <v>0</v>
       </c>
       <c r="AA284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC284" t="n">
         <v>4333.333333333333</v>
       </c>
-      <c r="AB284" t="n">
+      <c r="AD284" t="n">
         <v>4333.333333333333</v>
       </c>
-      <c r="AC284" t="n">
+      <c r="AE284" t="n">
         <v>4333.333333333333</v>
       </c>
     </row>
@@ -30761,10 +32469,10 @@
         <v>0</v>
       </c>
       <c r="W285" t="n">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="X285" t="n">
-        <v>0</v>
+        <v>69600</v>
       </c>
       <c r="Y285" t="n">
         <v>0</v>
@@ -30773,12 +32481,18 @@
         <v>0</v>
       </c>
       <c r="AA285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC285" t="n">
         <v>5800</v>
       </c>
-      <c r="AB285" t="n">
+      <c r="AD285" t="n">
         <v>5800</v>
       </c>
-      <c r="AC285" t="n">
+      <c r="AE285" t="n">
         <v>5800</v>
       </c>
     </row>
@@ -30868,10 +32582,10 @@
         <v>0</v>
       </c>
       <c r="W286" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="X286" t="n">
-        <v>0</v>
+        <v>112000</v>
       </c>
       <c r="Y286" t="n">
         <v>0</v>
@@ -30880,12 +32594,18 @@
         <v>0</v>
       </c>
       <c r="AA286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC286" t="n">
         <v>9333.333333333334</v>
       </c>
-      <c r="AB286" t="n">
+      <c r="AD286" t="n">
         <v>9333.333333333334</v>
       </c>
-      <c r="AC286" t="n">
+      <c r="AE286" t="n">
         <v>9333.333333333334</v>
       </c>
     </row>
@@ -30975,10 +32695,10 @@
         <v>0</v>
       </c>
       <c r="W287" t="n">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="X287" t="n">
-        <v>0</v>
+        <v>76000</v>
       </c>
       <c r="Y287" t="n">
         <v>0</v>
@@ -30987,12 +32707,18 @@
         <v>0</v>
       </c>
       <c r="AA287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC287" t="n">
         <v>6333.333333333333</v>
       </c>
-      <c r="AB287" t="n">
+      <c r="AD287" t="n">
         <v>6333.333333333333</v>
       </c>
-      <c r="AC287" t="n">
+      <c r="AE287" t="n">
         <v>6333.333333333333</v>
       </c>
     </row>
@@ -31082,10 +32808,10 @@
         <v>0</v>
       </c>
       <c r="W288" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="X288" t="n">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="Y288" t="n">
         <v>0</v>
@@ -31094,12 +32820,18 @@
         <v>0</v>
       </c>
       <c r="AA288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC288" t="n">
         <v>4000</v>
       </c>
-      <c r="AB288" t="n">
+      <c r="AD288" t="n">
         <v>4000</v>
       </c>
-      <c r="AC288" t="n">
+      <c r="AE288" t="n">
         <v>4000</v>
       </c>
     </row>
@@ -31189,10 +32921,10 @@
         <v>0</v>
       </c>
       <c r="W289" t="n">
-        <v>0</v>
+        <v>84500</v>
       </c>
       <c r="X289" t="n">
-        <v>0</v>
+        <v>338000</v>
       </c>
       <c r="Y289" t="n">
         <v>0</v>
@@ -31201,12 +32933,18 @@
         <v>0</v>
       </c>
       <c r="AA289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC289" t="n">
         <v>28166.66666666667</v>
       </c>
-      <c r="AB289" t="n">
+      <c r="AD289" t="n">
         <v>28166.66666666667</v>
       </c>
-      <c r="AC289" t="n">
+      <c r="AE289" t="n">
         <v>28166.66666666667</v>
       </c>
     </row>
@@ -31296,10 +33034,10 @@
         <v>0</v>
       </c>
       <c r="W290" t="n">
-        <v>0</v>
+        <v>1690</v>
       </c>
       <c r="X290" t="n">
-        <v>0</v>
+        <v>6760</v>
       </c>
       <c r="Y290" t="n">
         <v>0</v>
@@ -31308,12 +33046,18 @@
         <v>0</v>
       </c>
       <c r="AA290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC290" t="n">
         <v>563.3333333333334</v>
       </c>
-      <c r="AB290" t="n">
+      <c r="AD290" t="n">
         <v>563.3333333333334</v>
       </c>
-      <c r="AC290" t="n">
+      <c r="AE290" t="n">
         <v>563.3333333333334</v>
       </c>
     </row>
@@ -31403,10 +33147,10 @@
         <v>0</v>
       </c>
       <c r="W291" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="X291" t="n">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="Y291" t="n">
         <v>0</v>
@@ -31415,12 +33159,18 @@
         <v>0</v>
       </c>
       <c r="AA291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC291" t="n">
         <v>4000</v>
       </c>
-      <c r="AB291" t="n">
+      <c r="AD291" t="n">
         <v>4000</v>
       </c>
-      <c r="AC291" t="n">
+      <c r="AE291" t="n">
         <v>4000</v>
       </c>
     </row>
@@ -31510,10 +33260,10 @@
         <v>0</v>
       </c>
       <c r="W292" t="n">
-        <v>0</v>
+        <v>4680</v>
       </c>
       <c r="X292" t="n">
-        <v>0</v>
+        <v>18720</v>
       </c>
       <c r="Y292" t="n">
         <v>0</v>
@@ -31522,12 +33272,18 @@
         <v>0</v>
       </c>
       <c r="AA292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC292" t="n">
         <v>1560</v>
       </c>
-      <c r="AB292" t="n">
+      <c r="AD292" t="n">
         <v>1560</v>
       </c>
-      <c r="AC292" t="n">
+      <c r="AE292" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -31617,10 +33373,10 @@
         <v>0</v>
       </c>
       <c r="W293" t="n">
-        <v>0</v>
+        <v>23686</v>
       </c>
       <c r="X293" t="n">
-        <v>0</v>
+        <v>94744</v>
       </c>
       <c r="Y293" t="n">
         <v>0</v>
@@ -31629,12 +33385,18 @@
         <v>0</v>
       </c>
       <c r="AA293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC293" t="n">
         <v>7895.333333333333</v>
       </c>
-      <c r="AB293" t="n">
+      <c r="AD293" t="n">
         <v>7895.333333333333</v>
       </c>
-      <c r="AC293" t="n">
+      <c r="AE293" t="n">
         <v>7895.333333333333</v>
       </c>
     </row>
@@ -31724,10 +33486,10 @@
         <v>0</v>
       </c>
       <c r="W294" t="n">
-        <v>0</v>
+        <v>1787.5</v>
       </c>
       <c r="X294" t="n">
-        <v>0</v>
+        <v>7150</v>
       </c>
       <c r="Y294" t="n">
         <v>0</v>
@@ -31736,12 +33498,18 @@
         <v>0</v>
       </c>
       <c r="AA294" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC294" t="n">
         <v>595.8333333333334</v>
       </c>
-      <c r="AB294" t="n">
+      <c r="AD294" t="n">
         <v>595.8333333333334</v>
       </c>
-      <c r="AC294" t="n">
+      <c r="AE294" t="n">
         <v>595.8333333333334</v>
       </c>
     </row>
@@ -31831,10 +33599,10 @@
         <v>0</v>
       </c>
       <c r="W295" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="X295" t="n">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="Y295" t="n">
         <v>0</v>
@@ -31843,12 +33611,18 @@
         <v>0</v>
       </c>
       <c r="AA295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC295" t="n">
         <v>13333.33333333333</v>
       </c>
-      <c r="AB295" t="n">
+      <c r="AD295" t="n">
         <v>13333.33333333333</v>
       </c>
-      <c r="AC295" t="n">
+      <c r="AE295" t="n">
         <v>13333.33333333333</v>
       </c>
     </row>
@@ -31938,10 +33712,10 @@
         <v>0</v>
       </c>
       <c r="W296" t="n">
-        <v>0</v>
+        <v>236472</v>
       </c>
       <c r="X296" t="n">
-        <v>0</v>
+        <v>945888</v>
       </c>
       <c r="Y296" t="n">
         <v>0</v>
@@ -31950,12 +33724,18 @@
         <v>0</v>
       </c>
       <c r="AA296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC296" t="n">
         <v>78824</v>
       </c>
-      <c r="AB296" t="n">
+      <c r="AD296" t="n">
         <v>78824</v>
       </c>
-      <c r="AC296" t="n">
+      <c r="AE296" t="n">
         <v>78824</v>
       </c>
     </row>
@@ -32045,10 +33825,10 @@
         <v>0</v>
       </c>
       <c r="W297" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="X297" t="n">
-        <v>0</v>
+        <v>96000</v>
       </c>
       <c r="Y297" t="n">
         <v>0</v>
@@ -32057,12 +33837,18 @@
         <v>0</v>
       </c>
       <c r="AA297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC297" t="n">
         <v>8000</v>
       </c>
-      <c r="AB297" t="n">
+      <c r="AD297" t="n">
         <v>8000</v>
       </c>
-      <c r="AC297" t="n">
+      <c r="AE297" t="n">
         <v>8000</v>
       </c>
     </row>
@@ -32152,10 +33938,10 @@
         <v>0</v>
       </c>
       <c r="W298" t="n">
-        <v>0</v>
+        <v>15760</v>
       </c>
       <c r="X298" t="n">
-        <v>0</v>
+        <v>63040</v>
       </c>
       <c r="Y298" t="n">
         <v>0</v>
@@ -32164,12 +33950,18 @@
         <v>0</v>
       </c>
       <c r="AA298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC298" t="n">
         <v>5253.333333333333</v>
       </c>
-      <c r="AB298" t="n">
+      <c r="AD298" t="n">
         <v>5253.333333333333</v>
       </c>
-      <c r="AC298" t="n">
+      <c r="AE298" t="n">
         <v>5253.333333333333</v>
       </c>
     </row>
@@ -32259,10 +34051,10 @@
         <v>0</v>
       </c>
       <c r="W299" t="n">
-        <v>0</v>
+        <v>10020</v>
       </c>
       <c r="X299" t="n">
-        <v>0</v>
+        <v>40080</v>
       </c>
       <c r="Y299" t="n">
         <v>0</v>
@@ -32271,12 +34063,18 @@
         <v>0</v>
       </c>
       <c r="AA299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC299" t="n">
         <v>3340</v>
       </c>
-      <c r="AB299" t="n">
+      <c r="AD299" t="n">
         <v>3340</v>
       </c>
-      <c r="AC299" t="n">
+      <c r="AE299" t="n">
         <v>3340</v>
       </c>
     </row>
@@ -32366,10 +34164,10 @@
         <v>0</v>
       </c>
       <c r="W300" t="n">
-        <v>0</v>
+        <v>37600</v>
       </c>
       <c r="X300" t="n">
-        <v>0</v>
+        <v>150400</v>
       </c>
       <c r="Y300" t="n">
         <v>0</v>
@@ -32378,12 +34176,18 @@
         <v>0</v>
       </c>
       <c r="AA300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC300" t="n">
         <v>12533.33333333333</v>
       </c>
-      <c r="AB300" t="n">
+      <c r="AD300" t="n">
         <v>12533.33333333333</v>
       </c>
-      <c r="AC300" t="n">
+      <c r="AE300" t="n">
         <v>12533.33333333333</v>
       </c>
     </row>
@@ -32473,10 +34277,10 @@
         <v>0</v>
       </c>
       <c r="W301" t="n">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="X301" t="n">
-        <v>0</v>
+        <v>36400</v>
       </c>
       <c r="Y301" t="n">
         <v>0</v>
@@ -32485,12 +34289,18 @@
         <v>0</v>
       </c>
       <c r="AA301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC301" t="n">
         <v>3033.333333333333</v>
       </c>
-      <c r="AB301" t="n">
+      <c r="AD301" t="n">
         <v>3033.333333333333</v>
       </c>
-      <c r="AC301" t="n">
+      <c r="AE301" t="n">
         <v>3033.333333333333</v>
       </c>
     </row>

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0001</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -678,37 +678,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V2" t="n">
-        <v>56861.99999999999</v>
+        <v>28431</v>
       </c>
       <c r="W2" t="n">
         <v>16246.28571428571</v>
       </c>
       <c r="X2" t="n">
-        <v>40615.71428571428</v>
+        <v>12184.71428571428</v>
       </c>
       <c r="Y2" t="n">
-        <v>-12184.71428571428</v>
+        <v>16246.28571428572</v>
       </c>
       <c r="Z2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
       <c r="AA2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
       <c r="AB2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
       <c r="AC2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
       <c r="AD2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
       <c r="AE2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
       <c r="AF2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0002</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0003</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0004</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0005</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0006</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0007</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0008</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0009</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-17-0010</t>
+          <t>FRC-SLM-7-C-17-0000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-17-0011</t>
+          <t>FRC-SLM-7-C-17-0000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0012</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0013</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0014</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2134,16 +2134,16 @@
         <v>0.1</v>
       </c>
       <c r="V15" t="n">
-        <v>26880</v>
+        <v>15360</v>
       </c>
       <c r="W15" t="n">
         <v>15360</v>
       </c>
       <c r="X15" t="n">
-        <v>11520</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-11520</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>3840</v>
@@ -2158,13 +2158,13 @@
         <v>3840</v>
       </c>
       <c r="AD15" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0015</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0016</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0017</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2474,37 +2474,37 @@
         <v>0.1</v>
       </c>
       <c r="V18" t="n">
-        <v>21102.053</v>
+        <v>12058.31643925234</v>
       </c>
       <c r="W18" t="n">
         <v>12058.31775700934</v>
       </c>
       <c r="X18" t="n">
-        <v>9043.735242990659</v>
+        <v>-0.001317757005381281</v>
       </c>
       <c r="Y18" t="n">
-        <v>-9043.739635514017</v>
+        <v>-0.003074766353165614</v>
       </c>
       <c r="Z18" t="n">
-        <v>3014.579</v>
+        <v>3014.579439252336</v>
       </c>
       <c r="AA18" t="n">
-        <v>3014.579</v>
+        <v>3014.579439252336</v>
       </c>
       <c r="AB18" t="n">
-        <v>3014.579</v>
+        <v>3014.579439252336</v>
       </c>
       <c r="AC18" t="n">
-        <v>3014.579</v>
+        <v>3014.579439252336</v>
       </c>
       <c r="AD18" t="n">
-        <v>3014.579</v>
+        <v>-0.0004392523358546896</v>
       </c>
       <c r="AE18" t="n">
-        <v>3014.579</v>
+        <v>-0.0004392523358546896</v>
       </c>
       <c r="AF18" t="n">
-        <v>3014.579</v>
+        <v>-0.0004392523358546896</v>
       </c>
     </row>
     <row r="19">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0018</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2590,16 +2590,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V19" t="n">
-        <v>18900</v>
+        <v>10800</v>
       </c>
       <c r="W19" t="n">
         <v>10800</v>
       </c>
       <c r="X19" t="n">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-8100</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
         <v>2700</v>
@@ -2614,13 +2614,13 @@
         <v>2700</v>
       </c>
       <c r="AD19" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0019</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2706,16 +2706,16 @@
         <v>0.1</v>
       </c>
       <c r="V20" t="n">
-        <v>9450</v>
+        <v>5400</v>
       </c>
       <c r="W20" t="n">
         <v>5400</v>
       </c>
       <c r="X20" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-4050</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>1350</v>
@@ -2730,13 +2730,13 @@
         <v>1350</v>
       </c>
       <c r="AD20" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0020</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0021</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0022</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0023</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0024</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0025</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0026</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0027</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0028</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3716,37 +3716,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V29" t="n">
-        <v>56300</v>
+        <v>28150</v>
       </c>
       <c r="W29" t="n">
         <v>16085.71428571428</v>
       </c>
       <c r="X29" t="n">
-        <v>40214.28571428572</v>
+        <v>12064.28571428572</v>
       </c>
       <c r="Y29" t="n">
-        <v>-12064.28571428572</v>
+        <v>16085.71428571428</v>
       </c>
       <c r="Z29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
       <c r="AA29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
       <c r="AB29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
       <c r="AC29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
       <c r="AD29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
       <c r="AE29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
       <c r="AF29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
     </row>
     <row r="30">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0029</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0030</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0031</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0032</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0033</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0034</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0035</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0036</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0037</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4724,16 +4724,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V38" t="n">
-        <v>106500</v>
+        <v>60857.14285714286</v>
       </c>
       <c r="W38" t="n">
         <v>60857.14285714286</v>
       </c>
       <c r="X38" t="n">
-        <v>45642.85714285713</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-45642.85714285713</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
         <v>15214.28571428571</v>
@@ -4748,13 +4748,13 @@
         <v>15214.28571428571</v>
       </c>
       <c r="AD38" t="n">
-        <v>15214.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>15214.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>15214.28571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0038</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0039</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0040</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0041</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0042</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5288,16 +5288,16 @@
         <v>0.1</v>
       </c>
       <c r="V43" t="n">
-        <v>9030</v>
+        <v>5160</v>
       </c>
       <c r="W43" t="n">
         <v>5160</v>
       </c>
       <c r="X43" t="n">
-        <v>3870</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-3870</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
         <v>1290</v>
@@ -5312,13 +5312,13 @@
         <v>1290</v>
       </c>
       <c r="AD43" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0043</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0044</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-T-17-0045</t>
+          <t>FRC-SLM-7-T-17-0000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-T-17-0046</t>
+          <t>FRC-SLM-7-T-17-0000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0047</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5850,16 +5850,16 @@
         <v>0.1</v>
       </c>
       <c r="V48" t="n">
-        <v>33750.5</v>
+        <v>19286</v>
       </c>
       <c r="W48" t="n">
         <v>19286</v>
       </c>
       <c r="X48" t="n">
-        <v>14464.5</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>-14464.5</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
         <v>4821.5</v>
@@ -5874,13 +5874,13 @@
         <v>4821.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>4821.5</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>4821.5</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>4821.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0048</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5966,16 +5966,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V49" t="n">
-        <v>54124</v>
+        <v>30928</v>
       </c>
       <c r="W49" t="n">
         <v>30928</v>
       </c>
       <c r="X49" t="n">
-        <v>23196</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>-23196</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
         <v>7732</v>
@@ -5990,13 +5990,13 @@
         <v>7732</v>
       </c>
       <c r="AD49" t="n">
-        <v>7732</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>7732</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>7732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0049</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6082,37 +6082,37 @@
         <v>0.1</v>
       </c>
       <c r="V50" t="n">
-        <v>68068</v>
+        <v>34034</v>
       </c>
       <c r="W50" t="n">
         <v>19448</v>
       </c>
       <c r="X50" t="n">
-        <v>48620</v>
+        <v>14586</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>34034</v>
       </c>
       <c r="Z50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
       <c r="AA50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
       <c r="AB50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
       <c r="AC50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
       <c r="AD50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
       <c r="AE50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
       <c r="AF50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="51">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0050</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6198,16 +6198,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V51" t="n">
-        <v>167000</v>
+        <v>95428.57142857142</v>
       </c>
       <c r="W51" t="n">
         <v>95428.57142857142</v>
       </c>
       <c r="X51" t="n">
-        <v>71571.42857142858</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>-71571.42857142858</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
         <v>23857.14285714286</v>
@@ -6222,13 +6222,13 @@
         <v>23857.14285714286</v>
       </c>
       <c r="AD51" t="n">
-        <v>23857.14285714286</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>23857.14285714286</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>23857.14285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0051</t>
+          <t>FRC-SLM-7-O-17-0000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6314,16 +6314,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V52" t="n">
-        <v>385049.9999999999</v>
+        <v>220028.5714285714</v>
       </c>
       <c r="W52" t="n">
         <v>220028.5714285714</v>
       </c>
       <c r="X52" t="n">
-        <v>165021.4285714285</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>-165021.4285714285</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
         <v>55007.14285714286</v>
@@ -6338,13 +6338,13 @@
         <v>55007.14285714286</v>
       </c>
       <c r="AD52" t="n">
-        <v>55007.14285714286</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>55007.14285714286</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>55007.14285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0052</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6430,16 +6430,16 @@
         <v>0.1</v>
       </c>
       <c r="V53" t="n">
-        <v>83930</v>
+        <v>47960</v>
       </c>
       <c r="W53" t="n">
         <v>47960</v>
       </c>
       <c r="X53" t="n">
-        <v>35970</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>-35970</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
         <v>11990</v>
@@ -6454,13 +6454,13 @@
         <v>11990</v>
       </c>
       <c r="AD53" t="n">
-        <v>11990</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>11990</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>11990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0053</t>
+          <t>FRC-SLM-7-F-17-0000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6546,16 +6546,16 @@
         <v>0.1</v>
       </c>
       <c r="V54" t="n">
-        <v>39914.7</v>
+        <v>22808.4</v>
       </c>
       <c r="W54" t="n">
         <v>22808.4</v>
       </c>
       <c r="X54" t="n">
-        <v>17106.3</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>-17106.3</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
         <v>5702.1</v>
@@ -6570,13 +6570,13 @@
         <v>5702.1</v>
       </c>
       <c r="AD54" t="n">
-        <v>5702.1</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>5702.1</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>5702.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0054</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6662,37 +6662,37 @@
         <v>0.1</v>
       </c>
       <c r="V55" t="n">
-        <v>8273.879999999999</v>
+        <v>4136.940000000001</v>
       </c>
       <c r="W55" t="n">
         <v>4136.938775510205</v>
       </c>
       <c r="X55" t="n">
-        <v>4136.941224489794</v>
+        <v>0.001224489795276895</v>
       </c>
       <c r="Y55" t="n">
-        <v>-4136.937142857145</v>
+        <v>0.002857142853827099</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>1378.98</v>
+        <v>1378.979591836735</v>
       </c>
       <c r="AB55" t="n">
-        <v>1378.98</v>
+        <v>1378.979591836735</v>
       </c>
       <c r="AC55" t="n">
-        <v>1378.98</v>
+        <v>1378.979591836735</v>
       </c>
       <c r="AD55" t="n">
-        <v>1378.98</v>
+        <v>0.0004081632649103995</v>
       </c>
       <c r="AE55" t="n">
-        <v>1378.98</v>
+        <v>0.0004081632649103995</v>
       </c>
       <c r="AF55" t="n">
-        <v>1378.98</v>
+        <v>0.0004081632649103995</v>
       </c>
     </row>
     <row r="56">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0055</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6778,16 +6778,16 @@
         <v>0.1</v>
       </c>
       <c r="V56" t="n">
-        <v>3930</v>
+        <v>1965</v>
       </c>
       <c r="W56" t="n">
         <v>1965</v>
       </c>
       <c r="X56" t="n">
-        <v>1965</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>-1965</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -6802,13 +6802,13 @@
         <v>655</v>
       </c>
       <c r="AD56" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="AF56" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0056</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6894,16 +6894,16 @@
         <v>0.1</v>
       </c>
       <c r="V57" t="n">
-        <v>16427.4</v>
+        <v>8213.700000000001</v>
       </c>
       <c r="W57" t="n">
         <v>8213.700000000001</v>
       </c>
       <c r="X57" t="n">
-        <v>8213.700000000001</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>-8213.700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -6918,13 +6918,13 @@
         <v>2737.9</v>
       </c>
       <c r="AD57" t="n">
-        <v>2737.9</v>
+        <v>0</v>
       </c>
       <c r="AE57" t="n">
-        <v>2737.9</v>
+        <v>0</v>
       </c>
       <c r="AF57" t="n">
-        <v>2737.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0057</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7010,16 +7010,16 @@
         <v>0.1</v>
       </c>
       <c r="V58" t="n">
-        <v>34440</v>
+        <v>17220</v>
       </c>
       <c r="W58" t="n">
         <v>17220</v>
       </c>
       <c r="X58" t="n">
-        <v>17220</v>
+        <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>-17220</v>
+        <v>0</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -7034,13 +7034,13 @@
         <v>5740</v>
       </c>
       <c r="AD58" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="AE58" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="AF58" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0058</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7126,16 +7126,16 @@
         <v>0.1</v>
       </c>
       <c r="V59" t="n">
-        <v>21732</v>
+        <v>10866</v>
       </c>
       <c r="W59" t="n">
         <v>10866</v>
       </c>
       <c r="X59" t="n">
-        <v>10866</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>-10866</v>
+        <v>0</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
@@ -7150,13 +7150,13 @@
         <v>3622</v>
       </c>
       <c r="AD59" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0059</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7242,37 +7242,37 @@
         <v>0.1</v>
       </c>
       <c r="V60" t="n">
-        <v>60625.2</v>
+        <v>30312.6</v>
       </c>
       <c r="W60" t="n">
         <v>18187.56</v>
       </c>
       <c r="X60" t="n">
-        <v>42437.64</v>
+        <v>12125.04</v>
       </c>
       <c r="Y60" t="n">
-        <v>-2020.839999999997</v>
+        <v>28291.76</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>10104.2</v>
+        <v>6062.52</v>
       </c>
       <c r="AB60" t="n">
-        <v>10104.2</v>
+        <v>6062.52</v>
       </c>
       <c r="AC60" t="n">
-        <v>10104.2</v>
+        <v>6062.52</v>
       </c>
       <c r="AD60" t="n">
-        <v>10104.2</v>
+        <v>4041.68</v>
       </c>
       <c r="AE60" t="n">
-        <v>10104.2</v>
+        <v>4041.68</v>
       </c>
       <c r="AF60" t="n">
-        <v>10104.2</v>
+        <v>4041.68</v>
       </c>
     </row>
     <row r="61">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0060</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0061</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0062</t>
+          <t>FRC-SLM-7-O-18-0000</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0063</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0064</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7806,16 +7806,16 @@
         <v>0.1</v>
       </c>
       <c r="V65" t="n">
-        <v>54000</v>
+        <v>27000</v>
       </c>
       <c r="W65" t="n">
         <v>27000</v>
       </c>
       <c r="X65" t="n">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="Y65" t="n">
-        <v>-27000</v>
+        <v>0</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
@@ -7830,13 +7830,13 @@
         <v>9000</v>
       </c>
       <c r="AD65" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="AE65" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="AF65" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0065</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0066</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0067</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0068</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0069</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8370,16 +8370,16 @@
         <v>0.1</v>
       </c>
       <c r="V70" t="n">
-        <v>28188</v>
+        <v>14094</v>
       </c>
       <c r="W70" t="n">
         <v>14094</v>
       </c>
       <c r="X70" t="n">
-        <v>14094</v>
+        <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>-14094</v>
+        <v>0</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
@@ -8394,13 +8394,13 @@
         <v>4698</v>
       </c>
       <c r="AD70" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
       <c r="AE70" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
       <c r="AF70" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0070</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0071</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0072</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0073</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0074</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0075</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-T-18-0076</t>
+          <t>FRC-SLM-7-T-18-0000</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0077</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0078</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0079</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0080</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0081</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0082</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0083</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0084</t>
+          <t>FRC-SLM-7-O-18-0000</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0085</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0086</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0087</t>
+          <t>FRC-SLM-7-O-18-0000</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0088</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0089</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0090</t>
+          <t>FRC-SLM-7-C-18-0000</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0091</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10836,16 +10836,16 @@
         <v>0.1</v>
       </c>
       <c r="V92" t="n">
-        <v>186700.8</v>
+        <v>93350.40000000001</v>
       </c>
       <c r="W92" t="n">
         <v>93350.40000000001</v>
       </c>
       <c r="X92" t="n">
-        <v>93350.39999999998</v>
+        <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>-93350.39999999998</v>
+        <v>0</v>
       </c>
       <c r="Z92" t="n">
         <v>0</v>
@@ -10860,13 +10860,13 @@
         <v>31116.8</v>
       </c>
       <c r="AD92" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
       <c r="AE92" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
       <c r="AF92" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0092</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10952,16 +10952,16 @@
         <v>0.1</v>
       </c>
       <c r="V93" t="n">
-        <v>36288</v>
+        <v>18144</v>
       </c>
       <c r="W93" t="n">
         <v>18144</v>
       </c>
       <c r="X93" t="n">
-        <v>18144</v>
+        <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>-18144</v>
+        <v>0</v>
       </c>
       <c r="Z93" t="n">
         <v>0</v>
@@ -10976,13 +10976,13 @@
         <v>6048</v>
       </c>
       <c r="AD93" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
       <c r="AE93" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
       <c r="AF93" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -10993,7 +10993,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0093</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -11068,16 +11068,16 @@
         <v>0.1</v>
       </c>
       <c r="V94" t="n">
-        <v>8400</v>
+        <v>4200</v>
       </c>
       <c r="W94" t="n">
         <v>4200</v>
       </c>
       <c r="X94" t="n">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>-4200</v>
+        <v>0</v>
       </c>
       <c r="Z94" t="n">
         <v>0</v>
@@ -11092,13 +11092,13 @@
         <v>1400</v>
       </c>
       <c r="AD94" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AE94" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AF94" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0094</t>
+          <t>FRC-SLM-7-O-18-0000</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -11184,16 +11184,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V95" t="n">
-        <v>289344</v>
+        <v>144672</v>
       </c>
       <c r="W95" t="n">
         <v>144672</v>
       </c>
       <c r="X95" t="n">
-        <v>144672</v>
+        <v>0</v>
       </c>
       <c r="Y95" t="n">
-        <v>-144672</v>
+        <v>0</v>
       </c>
       <c r="Z95" t="n">
         <v>0</v>
@@ -11208,13 +11208,13 @@
         <v>48224</v>
       </c>
       <c r="AD95" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
       <c r="AE95" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
       <c r="AF95" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0095</t>
+          <t>FRC-SLM-7-F-18-0000</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0096</t>
+          <t>FRC-SLM-7-O-18-0000</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-T-18-0097</t>
+          <t>FRC-SLM-7-T-18-0000</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -11557,7 +11557,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-M-18-0098</t>
+          <t>FRC-SLM-7-M-18-0000</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-M-18-0099</t>
+          <t>FRC-SLM-7-M-18-0000</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0100</t>
+          <t>FRC-SLM-7-O-18-0001</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -11893,7 +11893,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0101</t>
+          <t>FRC-SLM-7-O-18-0001</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -12005,7 +12005,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0102</t>
+          <t>FRC-SLM-7-O-18-0001</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0103</t>
+          <t>FRC-SLM-7-O-18-0001</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -12192,16 +12192,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V104" t="n">
-        <v>159757.7142857143</v>
+        <v>79878.85714285714</v>
       </c>
       <c r="W104" t="n">
         <v>79878.85714285714</v>
       </c>
       <c r="X104" t="n">
-        <v>79878.85714285714</v>
+        <v>0</v>
       </c>
       <c r="Y104" t="n">
-        <v>-79878.85714285714</v>
+        <v>0</v>
       </c>
       <c r="Z104" t="n">
         <v>0</v>
@@ -12216,13 +12216,13 @@
         <v>26626.28571428571</v>
       </c>
       <c r="AD104" t="n">
-        <v>26626.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AE104" t="n">
-        <v>26626.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AF104" t="n">
-        <v>26626.28571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0104</t>
+          <t>FRC-SLM-7-O-18-0001</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0105</t>
+          <t>FRC-SLM-7-O-18-0001</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0106</t>
+          <t>FRC-SLM-7-O-18-0001</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -12530,16 +12530,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V107" t="n">
-        <v>320635.7142857142</v>
+        <v>160317.8571428571</v>
       </c>
       <c r="W107" t="n">
         <v>160317.8571428571</v>
       </c>
       <c r="X107" t="n">
-        <v>160317.8571428571</v>
+        <v>0</v>
       </c>
       <c r="Y107" t="n">
-        <v>-160317.8571428571</v>
+        <v>0</v>
       </c>
       <c r="Z107" t="n">
         <v>0</v>
@@ -12554,13 +12554,13 @@
         <v>53439.28571428571</v>
       </c>
       <c r="AD107" t="n">
-        <v>53439.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AE107" t="n">
-        <v>53439.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AF107" t="n">
-        <v>53439.28571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0107</t>
+          <t>FRC-SLM-7-O-18-0001</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0108</t>
+          <t>FRC-SLM-7-O-18-0001</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0109</t>
+          <t>FRC-SLM-7-O-18-0001</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0110</t>
+          <t>FRC-SLM-7-F-18-0001</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -12982,16 +12982,16 @@
         <v>0.1</v>
       </c>
       <c r="V111" t="n">
-        <v>41068.8</v>
+        <v>20534.4</v>
       </c>
       <c r="W111" t="n">
         <v>20534.4</v>
       </c>
       <c r="X111" t="n">
-        <v>20534.4</v>
+        <v>0</v>
       </c>
       <c r="Y111" t="n">
-        <v>-20534.4</v>
+        <v>0</v>
       </c>
       <c r="Z111" t="n">
         <v>0</v>
@@ -13006,13 +13006,13 @@
         <v>6844.8</v>
       </c>
       <c r="AD111" t="n">
-        <v>6844.8</v>
+        <v>0</v>
       </c>
       <c r="AE111" t="n">
-        <v>6844.8</v>
+        <v>0</v>
       </c>
       <c r="AF111" t="n">
-        <v>6844.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0111</t>
+          <t>FRC-SLM-7-F-19-0001</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -13098,16 +13098,16 @@
         <v>0.1</v>
       </c>
       <c r="V112" t="n">
-        <v>17955</v>
+        <v>7182</v>
       </c>
       <c r="W112" t="n">
         <v>7182</v>
       </c>
       <c r="X112" t="n">
-        <v>10773</v>
+        <v>0</v>
       </c>
       <c r="Y112" t="n">
-        <v>-10773</v>
+        <v>0</v>
       </c>
       <c r="Z112" t="n">
         <v>0</v>
@@ -13122,13 +13122,13 @@
         <v>3591</v>
       </c>
       <c r="AD112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="AE112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="AF112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -13139,7 +13139,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0112</t>
+          <t>FRC-SLM-7-F-19-0001</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -13214,16 +13214,16 @@
         <v>0.1</v>
       </c>
       <c r="V113" t="n">
-        <v>11250</v>
+        <v>4500</v>
       </c>
       <c r="W113" t="n">
         <v>4500</v>
       </c>
       <c r="X113" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="Y113" t="n">
-        <v>-6750</v>
+        <v>0</v>
       </c>
       <c r="Z113" t="n">
         <v>0</v>
@@ -13238,13 +13238,13 @@
         <v>2250</v>
       </c>
       <c r="AD113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="AE113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="AF113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0113</t>
+          <t>FRC-SLM-7-F-19-0001</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -13330,16 +13330,16 @@
         <v>0.1</v>
       </c>
       <c r="V114" t="n">
-        <v>49000</v>
+        <v>19600</v>
       </c>
       <c r="W114" t="n">
         <v>19600</v>
       </c>
       <c r="X114" t="n">
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="Y114" t="n">
-        <v>-29400</v>
+        <v>0</v>
       </c>
       <c r="Z114" t="n">
         <v>0</v>
@@ -13354,13 +13354,13 @@
         <v>9800</v>
       </c>
       <c r="AD114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="AE114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="AF114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0114</t>
+          <t>FRC-SLM-7-F-19-0001</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0115</t>
+          <t>FRC-SLM-7-F-19-0001</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-19-0116</t>
+          <t>FRC-SLM-7-O-19-0001</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0117</t>
+          <t>FRC-SLM-7-F-19-0001</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -13782,16 +13782,16 @@
         <v>0.1</v>
       </c>
       <c r="V118" t="n">
-        <v>24435</v>
+        <v>9774</v>
       </c>
       <c r="W118" t="n">
         <v>9774</v>
       </c>
       <c r="X118" t="n">
-        <v>14661</v>
+        <v>0</v>
       </c>
       <c r="Y118" t="n">
-        <v>-14661</v>
+        <v>0</v>
       </c>
       <c r="Z118" t="n">
         <v>0</v>
@@ -13806,13 +13806,13 @@
         <v>4887</v>
       </c>
       <c r="AD118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="AE118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="AF118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0118</t>
+          <t>FRC-SLM-7-F-19-0001</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -13935,7 +13935,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-19-0119</t>
+          <t>FRC-SLM-7-O-19-0001</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-19-0120</t>
+          <t>FRC-SLM-7-O-19-0001</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0121</t>
+          <t>FRC-SLM-7-F-19-0001</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -14271,7 +14271,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-19-0122</t>
+          <t>FRC-SLM-7-C-19-0001</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-19-0123</t>
+          <t>FRC-SLM-7-C-19-0001</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -14495,7 +14495,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-19-0124</t>
+          <t>FRC-SLM-7-C-19-0001</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -14607,7 +14607,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-19-0125</t>
+          <t>FRC-SLM-7-C-19-0001</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -14719,7 +14719,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0126</t>
+          <t>FRC-SLM-7-F-19-0001</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0127</t>
+          <t>FRC-SLM-7-F-19-0001</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0128</t>
+          <t>FRC-SLM-7-F-19-0001</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -15055,7 +15055,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0129</t>
+          <t>FRC-SLM-7-C-20-0001</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -15167,7 +15167,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0130</t>
+          <t>FRC-SLM-7-C-20-0001</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -15279,7 +15279,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0131</t>
+          <t>FRC-SLM-7-C-20-0001</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0132</t>
+          <t>FRC-SLM-7-C-20-0001</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-T-20-0133</t>
+          <t>FRC-SLM-7-T-20-0001</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0134</t>
+          <t>FRC-SLM-7-C-20-0001</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -15727,7 +15727,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0135</t>
+          <t>FRC-SLM-7-C-20-0001</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0136</t>
+          <t>FRC-SLM-7-C-20-0001</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0137</t>
+          <t>FRC-SLM-7-C-20-0001</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -16063,7 +16063,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-20-0138</t>
+          <t>FRC-SLM-7-F-20-0001</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -16175,7 +16175,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0139</t>
+          <t>FRC-SLM-7-C-20-0001</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -16287,7 +16287,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-20-0140</t>
+          <t>FRC-SLM-7-F-20-0001</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0141</t>
+          <t>FRC-SLM-7-C-20-0001</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0142</t>
+          <t>FRC-SLM-7-C-20-0001</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-M-21-0143</t>
+          <t>FRC-SLM-7-M-21-0001</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -16735,7 +16735,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-M-21-0144</t>
+          <t>FRC-SLM-7-M-21-0001</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -16845,7 +16845,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-21-0145</t>
+          <t>FRC-SLM-7-O-21-0001</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0146</t>
+          <t>FRC-SLM-7-C-21-0001</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -17069,7 +17069,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0147</t>
+          <t>FRC-SLM-7-C-21-0001</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-M-21-0148</t>
+          <t>FRC-SLM-7-M-21-0001</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0149</t>
+          <t>FRC-SLM-7-F-21-0001</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-21-0150</t>
+          <t>FRC-SLM-7-O-21-0001</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -17515,7 +17515,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0152</t>
+          <t>FRC-SLM-7-C-21-0001</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -17629,7 +17629,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0153</t>
+          <t>FRC-SLM-7-C-21-0001</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0154</t>
+          <t>FRC-SLM-7-C-21-0001</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0155</t>
+          <t>FRC-SLM-7-C-21-0001</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -17971,7 +17971,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0156</t>
+          <t>FRC-SLM-7-C-21-0001</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -18085,7 +18085,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0157</t>
+          <t>FRC-SLM-7-C-21-0001</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -18199,7 +18199,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0158</t>
+          <t>FRC-SLM-7-C-21-0001</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -18313,7 +18313,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0159</t>
+          <t>FRC-SLM-7-C-21-0001</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -18427,7 +18427,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0160</t>
+          <t>FRC-SLM-7-C-21-0001</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -18541,7 +18541,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0161</t>
+          <t>FRC-SLM-7-C-21-0001</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0162</t>
+          <t>FRC-SLM-7-I-21-0001</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -18769,7 +18769,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0163</t>
+          <t>FRC-SLM-7-I-21-0001</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -18883,7 +18883,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0164</t>
+          <t>FRC-SLM-7-I-21-0001</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -18997,7 +18997,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0165</t>
+          <t>FRC-SLM-7-I-21-0001</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -19111,7 +19111,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0166</t>
+          <t>FRC-SLM-7-I-21-0001</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -19225,7 +19225,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0167</t>
+          <t>FRC-SLM-7-I-21-0001</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -19339,7 +19339,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0168</t>
+          <t>FRC-SLM-7-I-21-0001</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -19453,7 +19453,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0169</t>
+          <t>FRC-SLM-7-I-21-0001</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -19568,7 +19568,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0170</t>
+          <t>FRC-SLM-7-I-21-0001</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0171</t>
+          <t>FRC-SLM-7-I-21-0001</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0172</t>
+          <t>FRC-SLM-7-I-21-0001</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -19910,7 +19910,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0173</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0174</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -20138,7 +20138,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0175</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -20252,7 +20252,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0176</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -20366,7 +20366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0177</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0178</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -20594,7 +20594,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0179</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0180</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -20822,7 +20822,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0181</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0182</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -21050,7 +21050,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0183</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -21164,7 +21164,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0184</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -21279,7 +21279,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0185</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -21393,7 +21393,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0186</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -21507,7 +21507,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0187</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -21621,7 +21621,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0188</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -21735,7 +21735,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0189</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -21849,7 +21849,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0190</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -21963,7 +21963,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0191</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -22077,7 +22077,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0192</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -22191,7 +22191,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0193</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -22305,7 +22305,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0194</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -22419,7 +22419,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0195</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -22533,7 +22533,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0196</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -22647,7 +22647,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0197</t>
+          <t>FRC-SLM-7-S-21-0001</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -22761,7 +22761,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0198</t>
+          <t>FRC-SLM-7-E-21-0001</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -22875,7 +22875,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0199</t>
+          <t>FRC-SLM-7-E-21-0001</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -22989,7 +22989,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0200</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0201</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -23217,7 +23217,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0202</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -23331,7 +23331,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0203</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -23445,7 +23445,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0204</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -23559,7 +23559,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0205</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -23673,7 +23673,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0206</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -23787,7 +23787,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0207</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -23901,7 +23901,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0208</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -24015,7 +24015,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0209</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -24129,7 +24129,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0210</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -24243,7 +24243,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0211</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -24357,7 +24357,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0212</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -24471,7 +24471,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0213</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -24585,7 +24585,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0214</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -24699,7 +24699,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0215</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -24813,7 +24813,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0216</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -24927,7 +24927,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0217</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0218</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -25155,7 +25155,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0219</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -25269,7 +25269,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0220</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -25383,7 +25383,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0221</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -25497,7 +25497,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0222</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0223</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -25725,7 +25725,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0224</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -25839,7 +25839,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0225</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -25953,7 +25953,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0226</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -26067,7 +26067,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0227</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -26181,7 +26181,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0228</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -26295,7 +26295,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0229</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -26409,7 +26409,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0230</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0231</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -26637,7 +26637,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0232</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -26751,7 +26751,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0233</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -26865,7 +26865,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0234</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -26979,7 +26979,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0235</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -27093,7 +27093,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0236</t>
+          <t>FRC-SLM-7-E-21-0002</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -27207,7 +27207,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-P-21-0237</t>
+          <t>FRC-SLM-7-P-21-0002</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -27321,7 +27321,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-P-21-0238</t>
+          <t>FRC-SLM-7-P-21-0002</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -27435,7 +27435,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-P-21-0239</t>
+          <t>FRC-SLM-7-P-21-0002</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -27549,7 +27549,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-P-21-0240</t>
+          <t>FRC-SLM-7-P-21-0002</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -27663,7 +27663,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-P-21-0241</t>
+          <t>FRC-SLM-7-P-21-0002</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -27777,7 +27777,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0242</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -27891,7 +27891,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0243</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -28005,7 +28005,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0244</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -28119,7 +28119,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0245</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -28233,7 +28233,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0246</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -28347,7 +28347,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0247</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -28461,7 +28461,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0248</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -28575,7 +28575,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0249</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -28689,7 +28689,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0250</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -28803,7 +28803,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0251</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -28917,7 +28917,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0252</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -29031,7 +29031,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0253</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -29145,7 +29145,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0254</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -29259,7 +29259,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0255</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -29373,7 +29373,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0256</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -29487,7 +29487,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0257</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -29601,7 +29601,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0258</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -29715,7 +29715,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0259</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -29829,7 +29829,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0260</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -29943,7 +29943,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0261</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -30057,7 +30057,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0262</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -30171,7 +30171,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0263</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -30285,7 +30285,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0264</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -30399,7 +30399,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0265</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -30513,7 +30513,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0266</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -30627,7 +30627,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0267</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -30741,7 +30741,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0268</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -30855,7 +30855,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0269</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -30969,7 +30969,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0270</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -31083,7 +31083,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0271</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -31197,7 +31197,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0272</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -31311,7 +31311,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0273</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -31425,7 +31425,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0274</t>
+          <t>FRC-SLM-7-I-21-0002</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -31539,7 +31539,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0275</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -31653,7 +31653,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0276</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -31767,7 +31767,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0277</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -31881,7 +31881,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0278</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -31995,7 +31995,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0279</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -32109,7 +32109,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0280</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -32223,7 +32223,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0281</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -32337,7 +32337,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0282</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -32451,7 +32451,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0283</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -32565,7 +32565,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0284</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -32679,7 +32679,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0285</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -32793,7 +32793,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0286</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -32907,7 +32907,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0287</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -33021,7 +33021,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0288</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -33135,7 +33135,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0289</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -33249,7 +33249,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0290</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -33363,7 +33363,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0291</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -33477,7 +33477,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0292</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -33591,7 +33591,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0293</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -33705,7 +33705,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0294</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -33819,7 +33819,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0295</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -33933,7 +33933,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0296</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -34047,7 +34047,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0297</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -34161,7 +34161,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0298</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -34275,7 +34275,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0299</t>
+          <t>FRC-SLM-7-F-21-0002</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -34389,7 +34389,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0300</t>
+          <t>FRC-SLM-7-F-21-0003</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -34503,7 +34503,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0301</t>
+          <t>FRC-SLM-7-F-21-0003</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -678,37 +678,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V2" t="n">
-        <v>56861.99999999999</v>
+        <v>28431</v>
       </c>
       <c r="W2" t="n">
         <v>16246.28571428571</v>
       </c>
       <c r="X2" t="n">
-        <v>40615.71428571428</v>
+        <v>12184.71428571428</v>
       </c>
       <c r="Y2" t="n">
-        <v>-12184.71428571428</v>
+        <v>16246.28571428572</v>
       </c>
       <c r="Z2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
       <c r="AA2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
       <c r="AB2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
       <c r="AC2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
       <c r="AD2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
       <c r="AE2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
       <c r="AF2" t="n">
-        <v>8123.142857142857</v>
+        <v>4061.571428571428</v>
       </c>
     </row>
     <row r="3">
@@ -2134,16 +2134,16 @@
         <v>0.1</v>
       </c>
       <c r="V15" t="n">
-        <v>26880</v>
+        <v>15360</v>
       </c>
       <c r="W15" t="n">
         <v>15360</v>
       </c>
       <c r="X15" t="n">
-        <v>11520</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-11520</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>3840</v>
@@ -2158,13 +2158,13 @@
         <v>3840</v>
       </c>
       <c r="AD15" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2474,37 +2474,37 @@
         <v>0.1</v>
       </c>
       <c r="V18" t="n">
-        <v>21102.053</v>
+        <v>12058.31643925234</v>
       </c>
       <c r="W18" t="n">
         <v>12058.31775700934</v>
       </c>
       <c r="X18" t="n">
-        <v>9043.735242990659</v>
+        <v>-0.001317757005381281</v>
       </c>
       <c r="Y18" t="n">
-        <v>-9043.739635514017</v>
+        <v>-0.003074766353165614</v>
       </c>
       <c r="Z18" t="n">
-        <v>3014.579</v>
+        <v>3014.579439252336</v>
       </c>
       <c r="AA18" t="n">
-        <v>3014.579</v>
+        <v>3014.579439252336</v>
       </c>
       <c r="AB18" t="n">
-        <v>3014.579</v>
+        <v>3014.579439252336</v>
       </c>
       <c r="AC18" t="n">
-        <v>3014.579</v>
+        <v>3014.579439252336</v>
       </c>
       <c r="AD18" t="n">
-        <v>3014.579</v>
+        <v>-0.0004392523358546896</v>
       </c>
       <c r="AE18" t="n">
-        <v>3014.579</v>
+        <v>-0.0004392523358546896</v>
       </c>
       <c r="AF18" t="n">
-        <v>3014.579</v>
+        <v>-0.0004392523358546896</v>
       </c>
     </row>
     <row r="19">
@@ -2590,16 +2590,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V19" t="n">
-        <v>18900</v>
+        <v>10800</v>
       </c>
       <c r="W19" t="n">
         <v>10800</v>
       </c>
       <c r="X19" t="n">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-8100</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
         <v>2700</v>
@@ -2614,13 +2614,13 @@
         <v>2700</v>
       </c>
       <c r="AD19" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2706,16 +2706,16 @@
         <v>0.1</v>
       </c>
       <c r="V20" t="n">
-        <v>9450</v>
+        <v>5400</v>
       </c>
       <c r="W20" t="n">
         <v>5400</v>
       </c>
       <c r="X20" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-4050</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>1350</v>
@@ -2730,13 +2730,13 @@
         <v>1350</v>
       </c>
       <c r="AD20" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3716,37 +3716,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V29" t="n">
-        <v>56300</v>
+        <v>28150</v>
       </c>
       <c r="W29" t="n">
         <v>16085.71428571428</v>
       </c>
       <c r="X29" t="n">
-        <v>40214.28571428572</v>
+        <v>12064.28571428572</v>
       </c>
       <c r="Y29" t="n">
-        <v>-12064.28571428572</v>
+        <v>16085.71428571428</v>
       </c>
       <c r="Z29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
       <c r="AA29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
       <c r="AB29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
       <c r="AC29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
       <c r="AD29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
       <c r="AE29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
       <c r="AF29" t="n">
-        <v>8042.857142857142</v>
+        <v>4021.428571428571</v>
       </c>
     </row>
     <row r="30">
@@ -4724,16 +4724,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V38" t="n">
-        <v>106500</v>
+        <v>60857.14285714286</v>
       </c>
       <c r="W38" t="n">
         <v>60857.14285714286</v>
       </c>
       <c r="X38" t="n">
-        <v>45642.85714285713</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-45642.85714285713</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
         <v>15214.28571428571</v>
@@ -4748,13 +4748,13 @@
         <v>15214.28571428571</v>
       </c>
       <c r="AD38" t="n">
-        <v>15214.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>15214.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>15214.28571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5288,16 +5288,16 @@
         <v>0.1</v>
       </c>
       <c r="V43" t="n">
-        <v>9030</v>
+        <v>5160</v>
       </c>
       <c r="W43" t="n">
         <v>5160</v>
       </c>
       <c r="X43" t="n">
-        <v>3870</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-3870</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
         <v>1290</v>
@@ -5312,13 +5312,13 @@
         <v>1290</v>
       </c>
       <c r="AD43" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5850,16 +5850,16 @@
         <v>0.1</v>
       </c>
       <c r="V48" t="n">
-        <v>33750.5</v>
+        <v>19286</v>
       </c>
       <c r="W48" t="n">
         <v>19286</v>
       </c>
       <c r="X48" t="n">
-        <v>14464.5</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>-14464.5</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
         <v>4821.5</v>
@@ -5874,13 +5874,13 @@
         <v>4821.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>4821.5</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>4821.5</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>4821.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5966,16 +5966,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V49" t="n">
-        <v>54124</v>
+        <v>30928</v>
       </c>
       <c r="W49" t="n">
         <v>30928</v>
       </c>
       <c r="X49" t="n">
-        <v>23196</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>-23196</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
         <v>7732</v>
@@ -5990,13 +5990,13 @@
         <v>7732</v>
       </c>
       <c r="AD49" t="n">
-        <v>7732</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>7732</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>7732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -6082,37 +6082,37 @@
         <v>0.1</v>
       </c>
       <c r="V50" t="n">
-        <v>68068</v>
+        <v>34034</v>
       </c>
       <c r="W50" t="n">
         <v>19448</v>
       </c>
       <c r="X50" t="n">
-        <v>48620</v>
+        <v>14586</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>34034</v>
       </c>
       <c r="Z50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
       <c r="AA50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
       <c r="AB50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
       <c r="AC50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
       <c r="AD50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
       <c r="AE50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
       <c r="AF50" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="51">
@@ -6198,16 +6198,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V51" t="n">
-        <v>167000</v>
+        <v>95428.57142857142</v>
       </c>
       <c r="W51" t="n">
         <v>95428.57142857142</v>
       </c>
       <c r="X51" t="n">
-        <v>71571.42857142858</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>-71571.42857142858</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
         <v>23857.14285714286</v>
@@ -6222,13 +6222,13 @@
         <v>23857.14285714286</v>
       </c>
       <c r="AD51" t="n">
-        <v>23857.14285714286</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>23857.14285714286</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>23857.14285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -6314,16 +6314,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V52" t="n">
-        <v>385049.9999999999</v>
+        <v>220028.5714285714</v>
       </c>
       <c r="W52" t="n">
         <v>220028.5714285714</v>
       </c>
       <c r="X52" t="n">
-        <v>165021.4285714285</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>-165021.4285714285</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
         <v>55007.14285714286</v>
@@ -6338,13 +6338,13 @@
         <v>55007.14285714286</v>
       </c>
       <c r="AD52" t="n">
-        <v>55007.14285714286</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>55007.14285714286</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>55007.14285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -6430,16 +6430,16 @@
         <v>0.1</v>
       </c>
       <c r="V53" t="n">
-        <v>83930</v>
+        <v>47960</v>
       </c>
       <c r="W53" t="n">
         <v>47960</v>
       </c>
       <c r="X53" t="n">
-        <v>35970</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>-35970</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
         <v>11990</v>
@@ -6454,13 +6454,13 @@
         <v>11990</v>
       </c>
       <c r="AD53" t="n">
-        <v>11990</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>11990</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>11990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -6546,16 +6546,16 @@
         <v>0.1</v>
       </c>
       <c r="V54" t="n">
-        <v>39914.7</v>
+        <v>22808.4</v>
       </c>
       <c r="W54" t="n">
         <v>22808.4</v>
       </c>
       <c r="X54" t="n">
-        <v>17106.3</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>-17106.3</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
         <v>5702.1</v>
@@ -6570,13 +6570,13 @@
         <v>5702.1</v>
       </c>
       <c r="AD54" t="n">
-        <v>5702.1</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>5702.1</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>5702.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -6662,37 +6662,37 @@
         <v>0.1</v>
       </c>
       <c r="V55" t="n">
-        <v>8273.879999999999</v>
+        <v>4136.940000000001</v>
       </c>
       <c r="W55" t="n">
         <v>4136.938775510205</v>
       </c>
       <c r="X55" t="n">
-        <v>4136.941224489794</v>
+        <v>0.001224489795276895</v>
       </c>
       <c r="Y55" t="n">
-        <v>-4136.937142857145</v>
+        <v>0.002857142853827099</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>1378.98</v>
+        <v>1378.979591836735</v>
       </c>
       <c r="AB55" t="n">
-        <v>1378.98</v>
+        <v>1378.979591836735</v>
       </c>
       <c r="AC55" t="n">
-        <v>1378.98</v>
+        <v>1378.979591836735</v>
       </c>
       <c r="AD55" t="n">
-        <v>1378.98</v>
+        <v>0.0004081632649103995</v>
       </c>
       <c r="AE55" t="n">
-        <v>1378.98</v>
+        <v>0.0004081632649103995</v>
       </c>
       <c r="AF55" t="n">
-        <v>1378.98</v>
+        <v>0.0004081632649103995</v>
       </c>
     </row>
     <row r="56">
@@ -6778,16 +6778,16 @@
         <v>0.1</v>
       </c>
       <c r="V56" t="n">
-        <v>3930</v>
+        <v>1965</v>
       </c>
       <c r="W56" t="n">
         <v>1965</v>
       </c>
       <c r="X56" t="n">
-        <v>1965</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>-1965</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -6802,13 +6802,13 @@
         <v>655</v>
       </c>
       <c r="AD56" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="AF56" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -6894,16 +6894,16 @@
         <v>0.1</v>
       </c>
       <c r="V57" t="n">
-        <v>16427.4</v>
+        <v>8213.700000000001</v>
       </c>
       <c r="W57" t="n">
         <v>8213.700000000001</v>
       </c>
       <c r="X57" t="n">
-        <v>8213.700000000001</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>-8213.700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -6918,13 +6918,13 @@
         <v>2737.9</v>
       </c>
       <c r="AD57" t="n">
-        <v>2737.9</v>
+        <v>0</v>
       </c>
       <c r="AE57" t="n">
-        <v>2737.9</v>
+        <v>0</v>
       </c>
       <c r="AF57" t="n">
-        <v>2737.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -7010,16 +7010,16 @@
         <v>0.1</v>
       </c>
       <c r="V58" t="n">
-        <v>34440</v>
+        <v>17220</v>
       </c>
       <c r="W58" t="n">
         <v>17220</v>
       </c>
       <c r="X58" t="n">
-        <v>17220</v>
+        <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>-17220</v>
+        <v>0</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -7034,13 +7034,13 @@
         <v>5740</v>
       </c>
       <c r="AD58" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="AE58" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="AF58" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -7126,16 +7126,16 @@
         <v>0.1</v>
       </c>
       <c r="V59" t="n">
-        <v>21732</v>
+        <v>10866</v>
       </c>
       <c r="W59" t="n">
         <v>10866</v>
       </c>
       <c r="X59" t="n">
-        <v>10866</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>-10866</v>
+        <v>0</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
@@ -7150,13 +7150,13 @@
         <v>3622</v>
       </c>
       <c r="AD59" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -7242,37 +7242,37 @@
         <v>0.1</v>
       </c>
       <c r="V60" t="n">
-        <v>60625.2</v>
+        <v>30312.6</v>
       </c>
       <c r="W60" t="n">
         <v>18187.56</v>
       </c>
       <c r="X60" t="n">
-        <v>42437.64</v>
+        <v>12125.04</v>
       </c>
       <c r="Y60" t="n">
-        <v>-2020.839999999997</v>
+        <v>28291.76</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>10104.2</v>
+        <v>6062.52</v>
       </c>
       <c r="AB60" t="n">
-        <v>10104.2</v>
+        <v>6062.52</v>
       </c>
       <c r="AC60" t="n">
-        <v>10104.2</v>
+        <v>6062.52</v>
       </c>
       <c r="AD60" t="n">
-        <v>10104.2</v>
+        <v>4041.68</v>
       </c>
       <c r="AE60" t="n">
-        <v>10104.2</v>
+        <v>4041.68</v>
       </c>
       <c r="AF60" t="n">
-        <v>10104.2</v>
+        <v>4041.68</v>
       </c>
     </row>
     <row r="61">
@@ -7806,16 +7806,16 @@
         <v>0.1</v>
       </c>
       <c r="V65" t="n">
-        <v>54000</v>
+        <v>27000</v>
       </c>
       <c r="W65" t="n">
         <v>27000</v>
       </c>
       <c r="X65" t="n">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="Y65" t="n">
-        <v>-27000</v>
+        <v>0</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
@@ -7830,13 +7830,13 @@
         <v>9000</v>
       </c>
       <c r="AD65" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="AE65" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="AF65" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -8370,16 +8370,16 @@
         <v>0.1</v>
       </c>
       <c r="V70" t="n">
-        <v>28188</v>
+        <v>14094</v>
       </c>
       <c r="W70" t="n">
         <v>14094</v>
       </c>
       <c r="X70" t="n">
-        <v>14094</v>
+        <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>-14094</v>
+        <v>0</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
@@ -8394,13 +8394,13 @@
         <v>4698</v>
       </c>
       <c r="AD70" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
       <c r="AE70" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
       <c r="AF70" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -10836,16 +10836,16 @@
         <v>0.1</v>
       </c>
       <c r="V92" t="n">
-        <v>186700.8</v>
+        <v>93350.40000000001</v>
       </c>
       <c r="W92" t="n">
         <v>93350.40000000001</v>
       </c>
       <c r="X92" t="n">
-        <v>93350.39999999998</v>
+        <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>-93350.39999999998</v>
+        <v>0</v>
       </c>
       <c r="Z92" t="n">
         <v>0</v>
@@ -10860,13 +10860,13 @@
         <v>31116.8</v>
       </c>
       <c r="AD92" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
       <c r="AE92" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
       <c r="AF92" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -10952,16 +10952,16 @@
         <v>0.1</v>
       </c>
       <c r="V93" t="n">
-        <v>36288</v>
+        <v>18144</v>
       </c>
       <c r="W93" t="n">
         <v>18144</v>
       </c>
       <c r="X93" t="n">
-        <v>18144</v>
+        <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>-18144</v>
+        <v>0</v>
       </c>
       <c r="Z93" t="n">
         <v>0</v>
@@ -10976,13 +10976,13 @@
         <v>6048</v>
       </c>
       <c r="AD93" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
       <c r="AE93" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
       <c r="AF93" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -11068,16 +11068,16 @@
         <v>0.1</v>
       </c>
       <c r="V94" t="n">
-        <v>8400</v>
+        <v>4200</v>
       </c>
       <c r="W94" t="n">
         <v>4200</v>
       </c>
       <c r="X94" t="n">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>-4200</v>
+        <v>0</v>
       </c>
       <c r="Z94" t="n">
         <v>0</v>
@@ -11092,13 +11092,13 @@
         <v>1400</v>
       </c>
       <c r="AD94" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AE94" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AF94" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -11184,16 +11184,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V95" t="n">
-        <v>289344</v>
+        <v>144672</v>
       </c>
       <c r="W95" t="n">
         <v>144672</v>
       </c>
       <c r="X95" t="n">
-        <v>144672</v>
+        <v>0</v>
       </c>
       <c r="Y95" t="n">
-        <v>-144672</v>
+        <v>0</v>
       </c>
       <c r="Z95" t="n">
         <v>0</v>
@@ -11208,13 +11208,13 @@
         <v>48224</v>
       </c>
       <c r="AD95" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
       <c r="AE95" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
       <c r="AF95" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -12192,16 +12192,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V104" t="n">
-        <v>159757.7142857143</v>
+        <v>79878.85714285714</v>
       </c>
       <c r="W104" t="n">
         <v>79878.85714285714</v>
       </c>
       <c r="X104" t="n">
-        <v>79878.85714285714</v>
+        <v>0</v>
       </c>
       <c r="Y104" t="n">
-        <v>-79878.85714285714</v>
+        <v>0</v>
       </c>
       <c r="Z104" t="n">
         <v>0</v>
@@ -12216,13 +12216,13 @@
         <v>26626.28571428571</v>
       </c>
       <c r="AD104" t="n">
-        <v>26626.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AE104" t="n">
-        <v>26626.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AF104" t="n">
-        <v>26626.28571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -12530,16 +12530,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V107" t="n">
-        <v>320635.7142857142</v>
+        <v>160317.8571428571</v>
       </c>
       <c r="W107" t="n">
         <v>160317.8571428571</v>
       </c>
       <c r="X107" t="n">
-        <v>160317.8571428571</v>
+        <v>0</v>
       </c>
       <c r="Y107" t="n">
-        <v>-160317.8571428571</v>
+        <v>0</v>
       </c>
       <c r="Z107" t="n">
         <v>0</v>
@@ -12554,13 +12554,13 @@
         <v>53439.28571428571</v>
       </c>
       <c r="AD107" t="n">
-        <v>53439.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AE107" t="n">
-        <v>53439.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AF107" t="n">
-        <v>53439.28571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -12982,16 +12982,16 @@
         <v>0.1</v>
       </c>
       <c r="V111" t="n">
-        <v>41068.8</v>
+        <v>20534.4</v>
       </c>
       <c r="W111" t="n">
         <v>20534.4</v>
       </c>
       <c r="X111" t="n">
-        <v>20534.4</v>
+        <v>0</v>
       </c>
       <c r="Y111" t="n">
-        <v>-20534.4</v>
+        <v>0</v>
       </c>
       <c r="Z111" t="n">
         <v>0</v>
@@ -13006,13 +13006,13 @@
         <v>6844.8</v>
       </c>
       <c r="AD111" t="n">
-        <v>6844.8</v>
+        <v>0</v>
       </c>
       <c r="AE111" t="n">
-        <v>6844.8</v>
+        <v>0</v>
       </c>
       <c r="AF111" t="n">
-        <v>6844.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -13098,16 +13098,16 @@
         <v>0.1</v>
       </c>
       <c r="V112" t="n">
-        <v>17955</v>
+        <v>7182</v>
       </c>
       <c r="W112" t="n">
         <v>7182</v>
       </c>
       <c r="X112" t="n">
-        <v>10773</v>
+        <v>0</v>
       </c>
       <c r="Y112" t="n">
-        <v>-10773</v>
+        <v>0</v>
       </c>
       <c r="Z112" t="n">
         <v>0</v>
@@ -13122,13 +13122,13 @@
         <v>3591</v>
       </c>
       <c r="AD112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="AE112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="AF112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -13214,16 +13214,16 @@
         <v>0.1</v>
       </c>
       <c r="V113" t="n">
-        <v>11250</v>
+        <v>4500</v>
       </c>
       <c r="W113" t="n">
         <v>4500</v>
       </c>
       <c r="X113" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="Y113" t="n">
-        <v>-6750</v>
+        <v>0</v>
       </c>
       <c r="Z113" t="n">
         <v>0</v>
@@ -13238,13 +13238,13 @@
         <v>2250</v>
       </c>
       <c r="AD113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="AE113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="AF113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -13330,16 +13330,16 @@
         <v>0.1</v>
       </c>
       <c r="V114" t="n">
-        <v>49000</v>
+        <v>19600</v>
       </c>
       <c r="W114" t="n">
         <v>19600</v>
       </c>
       <c r="X114" t="n">
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="Y114" t="n">
-        <v>-29400</v>
+        <v>0</v>
       </c>
       <c r="Z114" t="n">
         <v>0</v>
@@ -13354,13 +13354,13 @@
         <v>9800</v>
       </c>
       <c r="AD114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="AE114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="AF114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -13782,16 +13782,16 @@
         <v>0.1</v>
       </c>
       <c r="V118" t="n">
-        <v>24435</v>
+        <v>9774</v>
       </c>
       <c r="W118" t="n">
         <v>9774</v>
       </c>
       <c r="X118" t="n">
-        <v>14661</v>
+        <v>0</v>
       </c>
       <c r="Y118" t="n">
-        <v>-14661</v>
+        <v>0</v>
       </c>
       <c r="Z118" t="n">
         <v>0</v>
@@ -13806,13 +13806,13 @@
         <v>4887</v>
       </c>
       <c r="AD118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="AE118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="AF118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -678,25 +678,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V2" t="n">
-        <v>28431</v>
+        <v>40615.71428571428</v>
       </c>
       <c r="W2" t="n">
         <v>16246.28571428571</v>
       </c>
       <c r="X2" t="n">
-        <v>12184.71428571428</v>
+        <v>24369.42857142857</v>
       </c>
       <c r="Y2" t="n">
-        <v>16246.28571428572</v>
+        <v>4061.571428571431</v>
       </c>
       <c r="Z2" t="n">
-        <v>4061.571428571428</v>
+        <v>8123.142857142857</v>
       </c>
       <c r="AA2" t="n">
-        <v>4061.571428571428</v>
+        <v>8123.142857142857</v>
       </c>
       <c r="AB2" t="n">
-        <v>4061.571428571428</v>
+        <v>8123.142857142857</v>
       </c>
       <c r="AC2" t="n">
         <v>4061.571428571428</v>
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-17-0000</t>
+          <t>FRC-SLM-7.0-C-17-0010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-17-0000</t>
+          <t>FRC-SLM-7.0-C-17-0011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2134,16 +2134,16 @@
         <v>0.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15360</v>
+        <v>11520</v>
       </c>
       <c r="W15" t="n">
         <v>15360</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>-3840</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="Z15" t="n">
         <v>3840</v>
@@ -2155,7 +2155,7 @@
         <v>3840</v>
       </c>
       <c r="AC15" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0017</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2474,28 +2474,28 @@
         <v>0.1</v>
       </c>
       <c r="V18" t="n">
-        <v>12058.31643925234</v>
+        <v>9043.73524299066</v>
       </c>
       <c r="W18" t="n">
         <v>12058.31775700934</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.001317757005381281</v>
+        <v>-3014.582514018684</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.003074766353165614</v>
+        <v>3014.578121495326</v>
       </c>
       <c r="Z18" t="n">
-        <v>3014.579439252336</v>
+        <v>3014.579</v>
       </c>
       <c r="AA18" t="n">
-        <v>3014.579439252336</v>
+        <v>3014.579</v>
       </c>
       <c r="AB18" t="n">
-        <v>3014.579439252336</v>
+        <v>3014.579</v>
       </c>
       <c r="AC18" t="n">
-        <v>3014.579439252336</v>
+        <v>-0.0004392523358546896</v>
       </c>
       <c r="AD18" t="n">
         <v>-0.0004392523358546896</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0018</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2590,16 +2590,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V19" t="n">
-        <v>10800</v>
+        <v>8100</v>
       </c>
       <c r="W19" t="n">
         <v>10800</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="Z19" t="n">
         <v>2700</v>
@@ -2611,7 +2611,7 @@
         <v>2700</v>
       </c>
       <c r="AC19" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2706,16 +2706,16 @@
         <v>0.1</v>
       </c>
       <c r="V20" t="n">
-        <v>5400</v>
+        <v>4050</v>
       </c>
       <c r="W20" t="n">
         <v>5400</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1350</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="Z20" t="n">
         <v>1350</v>
@@ -2727,7 +2727,7 @@
         <v>1350</v>
       </c>
       <c r="AC20" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0022</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0026</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0027</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0028</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3716,25 +3716,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V29" t="n">
-        <v>28150</v>
+        <v>40214.28571428572</v>
       </c>
       <c r="W29" t="n">
         <v>16085.71428571428</v>
       </c>
       <c r="X29" t="n">
-        <v>12064.28571428572</v>
+        <v>24128.57142857143</v>
       </c>
       <c r="Y29" t="n">
-        <v>16085.71428571428</v>
+        <v>4021.428571428565</v>
       </c>
       <c r="Z29" t="n">
-        <v>4021.428571428571</v>
+        <v>8042.857142857142</v>
       </c>
       <c r="AA29" t="n">
-        <v>4021.428571428571</v>
+        <v>8042.857142857142</v>
       </c>
       <c r="AB29" t="n">
-        <v>4021.428571428571</v>
+        <v>8042.857142857142</v>
       </c>
       <c r="AC29" t="n">
         <v>4021.428571428571</v>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0029</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0030</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0031</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0032</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0033</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0034</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0035</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0036</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0037</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4724,16 +4724,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V38" t="n">
-        <v>60857.14285714286</v>
+        <v>45642.85714285714</v>
       </c>
       <c r="W38" t="n">
         <v>60857.14285714286</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-15214.28571428571</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>15214.28571428571</v>
       </c>
       <c r="Z38" t="n">
         <v>15214.28571428571</v>
@@ -4745,7 +4745,7 @@
         <v>15214.28571428571</v>
       </c>
       <c r="AC38" t="n">
-        <v>15214.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0038</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0039</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0040</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0041</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0042</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5288,16 +5288,16 @@
         <v>0.1</v>
       </c>
       <c r="V43" t="n">
-        <v>5160</v>
+        <v>3870</v>
       </c>
       <c r="W43" t="n">
         <v>5160</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1290</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="Z43" t="n">
         <v>1290</v>
@@ -5309,7 +5309,7 @@
         <v>1290</v>
       </c>
       <c r="AC43" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0043</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0044</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-T-17-0000</t>
+          <t>FRC-SLM-7.0-T-17-0045</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-T-17-0000</t>
+          <t>FRC-SLM-7.0-T-17-0046</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0047</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5850,16 +5850,16 @@
         <v>0.1</v>
       </c>
       <c r="V48" t="n">
-        <v>19286</v>
+        <v>14464.5</v>
       </c>
       <c r="W48" t="n">
         <v>19286</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>-4821.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>4821.5</v>
       </c>
       <c r="Z48" t="n">
         <v>4821.5</v>
@@ -5871,7 +5871,7 @@
         <v>4821.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>4821.5</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0048</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5966,16 +5966,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V49" t="n">
-        <v>30928</v>
+        <v>23196</v>
       </c>
       <c r="W49" t="n">
         <v>30928</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>-7732</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>7732</v>
       </c>
       <c r="Z49" t="n">
         <v>7732</v>
@@ -5987,7 +5987,7 @@
         <v>7732</v>
       </c>
       <c r="AC49" t="n">
-        <v>7732</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0049</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6082,25 +6082,25 @@
         <v>0.1</v>
       </c>
       <c r="V50" t="n">
-        <v>34034</v>
+        <v>48620</v>
       </c>
       <c r="W50" t="n">
         <v>19448</v>
       </c>
       <c r="X50" t="n">
-        <v>14586</v>
+        <v>29172</v>
       </c>
       <c r="Y50" t="n">
-        <v>34034</v>
+        <v>19448</v>
       </c>
       <c r="Z50" t="n">
-        <v>4862</v>
+        <v>9724</v>
       </c>
       <c r="AA50" t="n">
-        <v>4862</v>
+        <v>9724</v>
       </c>
       <c r="AB50" t="n">
-        <v>4862</v>
+        <v>9724</v>
       </c>
       <c r="AC50" t="n">
         <v>4862</v>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0050</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6198,16 +6198,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V51" t="n">
-        <v>95428.57142857142</v>
+        <v>71571.42857142857</v>
       </c>
       <c r="W51" t="n">
         <v>95428.57142857142</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>-23857.14285714286</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>23857.14285714286</v>
       </c>
       <c r="Z51" t="n">
         <v>23857.14285714286</v>
@@ -6219,7 +6219,7 @@
         <v>23857.14285714286</v>
       </c>
       <c r="AC51" t="n">
-        <v>23857.14285714286</v>
+        <v>0</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0051</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6314,16 +6314,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V52" t="n">
-        <v>220028.5714285714</v>
+        <v>165021.4285714286</v>
       </c>
       <c r="W52" t="n">
         <v>220028.5714285714</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>-55007.14285714284</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>55007.14285714284</v>
       </c>
       <c r="Z52" t="n">
         <v>55007.14285714286</v>
@@ -6335,7 +6335,7 @@
         <v>55007.14285714286</v>
       </c>
       <c r="AC52" t="n">
-        <v>55007.14285714286</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0052</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6430,16 +6430,16 @@
         <v>0.1</v>
       </c>
       <c r="V53" t="n">
-        <v>47960</v>
+        <v>35970</v>
       </c>
       <c r="W53" t="n">
         <v>47960</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>-11990</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>11990</v>
       </c>
       <c r="Z53" t="n">
         <v>11990</v>
@@ -6451,7 +6451,7 @@
         <v>11990</v>
       </c>
       <c r="AC53" t="n">
-        <v>11990</v>
+        <v>0</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0053</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6546,16 +6546,16 @@
         <v>0.1</v>
       </c>
       <c r="V54" t="n">
-        <v>22808.4</v>
+        <v>17106.3</v>
       </c>
       <c r="W54" t="n">
         <v>22808.4</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>-5702.099999999999</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>5702.099999999999</v>
       </c>
       <c r="Z54" t="n">
         <v>5702.1</v>
@@ -6567,7 +6567,7 @@
         <v>5702.1</v>
       </c>
       <c r="AC54" t="n">
-        <v>5702.1</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0054</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6662,28 +6662,28 @@
         <v>0.1</v>
       </c>
       <c r="V55" t="n">
-        <v>4136.940000000001</v>
+        <v>2757.96163265306</v>
       </c>
       <c r="W55" t="n">
         <v>4136.938775510205</v>
       </c>
       <c r="X55" t="n">
-        <v>0.001224489795276895</v>
+        <v>-1378.977142857145</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.002857142853827099</v>
+        <v>1378.981224489794</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>1378.979591836735</v>
+        <v>1378.98</v>
       </c>
       <c r="AB55" t="n">
-        <v>1378.979591836735</v>
+        <v>1378.98</v>
       </c>
       <c r="AC55" t="n">
-        <v>1378.979591836735</v>
+        <v>0.0004081632649103995</v>
       </c>
       <c r="AD55" t="n">
         <v>0.0004081632649103995</v>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0055</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6778,16 +6778,16 @@
         <v>0.1</v>
       </c>
       <c r="V56" t="n">
-        <v>1965</v>
+        <v>1310</v>
       </c>
       <c r="W56" t="n">
         <v>1965</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>-655</v>
       </c>
       <c r="Y56" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>655</v>
       </c>
       <c r="AC56" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0056</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6894,16 +6894,16 @@
         <v>0.1</v>
       </c>
       <c r="V57" t="n">
-        <v>8213.700000000001</v>
+        <v>5475.8</v>
       </c>
       <c r="W57" t="n">
         <v>8213.700000000001</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>-2737.900000000001</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>2737.900000000001</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -6915,7 +6915,7 @@
         <v>2737.9</v>
       </c>
       <c r="AC57" t="n">
-        <v>2737.9</v>
+        <v>0</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0057</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7010,16 +7010,16 @@
         <v>0.1</v>
       </c>
       <c r="V58" t="n">
-        <v>17220</v>
+        <v>11480</v>
       </c>
       <c r="W58" t="n">
         <v>17220</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>-5740</v>
       </c>
       <c r="Y58" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>5740</v>
       </c>
       <c r="AC58" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0058</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7126,16 +7126,16 @@
         <v>0.1</v>
       </c>
       <c r="V59" t="n">
-        <v>10866</v>
+        <v>7244</v>
       </c>
       <c r="W59" t="n">
         <v>10866</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
+        <v>-3622</v>
       </c>
       <c r="Y59" t="n">
-        <v>0</v>
+        <v>3622</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
@@ -7147,7 +7147,7 @@
         <v>3622</v>
       </c>
       <c r="AC59" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0059</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7242,28 +7242,28 @@
         <v>0.1</v>
       </c>
       <c r="V60" t="n">
-        <v>30312.6</v>
+        <v>36375.12</v>
       </c>
       <c r="W60" t="n">
         <v>18187.56</v>
       </c>
       <c r="X60" t="n">
-        <v>12125.04</v>
+        <v>18187.56</v>
       </c>
       <c r="Y60" t="n">
-        <v>28291.76</v>
+        <v>22229.24</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>6062.52</v>
+        <v>10104.2</v>
       </c>
       <c r="AB60" t="n">
-        <v>6062.52</v>
+        <v>10104.2</v>
       </c>
       <c r="AC60" t="n">
-        <v>6062.52</v>
+        <v>4041.68</v>
       </c>
       <c r="AD60" t="n">
         <v>4041.68</v>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0060</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0061</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0000</t>
+          <t>FRC-SLM-7.0-O-18-0062</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0063</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0064</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7806,16 +7806,16 @@
         <v>0.1</v>
       </c>
       <c r="V65" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="W65" t="n">
         <v>27000</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>-9000</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>9000</v>
       </c>
       <c r="AC65" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0065</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0066</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0067</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0068</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0069</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8370,16 +8370,16 @@
         <v>0.1</v>
       </c>
       <c r="V70" t="n">
-        <v>14094</v>
+        <v>9396</v>
       </c>
       <c r="W70" t="n">
         <v>14094</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>-4698</v>
       </c>
       <c r="Y70" t="n">
-        <v>0</v>
+        <v>4698</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>4698</v>
       </c>
       <c r="AC70" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0070</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0071</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0072</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0073</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0074</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0075</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-T-18-0000</t>
+          <t>FRC-SLM-7.0-T-18-0076</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0077</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0078</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0079</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0080</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0081</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0082</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0083</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0000</t>
+          <t>FRC-SLM-7.0-O-18-0084</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0085</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0086</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0000</t>
+          <t>FRC-SLM-7.0-O-18-0087</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0088</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0089</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0090</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0091</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10836,16 +10836,16 @@
         <v>0.1</v>
       </c>
       <c r="V92" t="n">
-        <v>93350.40000000001</v>
+        <v>62233.60000000001</v>
       </c>
       <c r="W92" t="n">
         <v>93350.40000000001</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>-31116.8</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>31116.8</v>
       </c>
       <c r="Z92" t="n">
         <v>0</v>
@@ -10857,7 +10857,7 @@
         <v>31116.8</v>
       </c>
       <c r="AC92" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
       <c r="AD92" t="n">
         <v>0</v>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0092</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10952,16 +10952,16 @@
         <v>0.1</v>
       </c>
       <c r="V93" t="n">
-        <v>18144</v>
+        <v>12096</v>
       </c>
       <c r="W93" t="n">
         <v>18144</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>-6048</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>6048</v>
       </c>
       <c r="Z93" t="n">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>6048</v>
       </c>
       <c r="AC93" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
       <c r="AD93" t="n">
         <v>0</v>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0093</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -11068,16 +11068,16 @@
         <v>0.1</v>
       </c>
       <c r="V94" t="n">
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="W94" t="n">
         <v>4200</v>
       </c>
       <c r="X94" t="n">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="Y94" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="Z94" t="n">
         <v>0</v>
@@ -11089,7 +11089,7 @@
         <v>1400</v>
       </c>
       <c r="AC94" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AD94" t="n">
         <v>0</v>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0000</t>
+          <t>FRC-SLM-7.0-O-18-0094</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -11184,16 +11184,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V95" t="n">
-        <v>144672</v>
+        <v>96448</v>
       </c>
       <c r="W95" t="n">
         <v>144672</v>
       </c>
       <c r="X95" t="n">
-        <v>0</v>
+        <v>-48224</v>
       </c>
       <c r="Y95" t="n">
-        <v>0</v>
+        <v>48224</v>
       </c>
       <c r="Z95" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>48224</v>
       </c>
       <c r="AC95" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
       <c r="AD95" t="n">
         <v>0</v>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0095</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0000</t>
+          <t>FRC-SLM-7.0-O-18-0096</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-T-18-0000</t>
+          <t>FRC-SLM-7.0-T-18-0097</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -11557,7 +11557,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-M-18-0000</t>
+          <t>FRC-SLM-7.0-M-18-0098</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-M-18-0000</t>
+          <t>FRC-SLM-7.0-M-18-0099</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0100</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -11893,7 +11893,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0101</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -12005,7 +12005,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0102</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0103</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -12192,16 +12192,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V104" t="n">
-        <v>79878.85714285714</v>
+        <v>53252.57142857143</v>
       </c>
       <c r="W104" t="n">
         <v>79878.85714285714</v>
       </c>
       <c r="X104" t="n">
-        <v>0</v>
+        <v>-26626.28571428572</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>26626.28571428572</v>
       </c>
       <c r="Z104" t="n">
         <v>0</v>
@@ -12213,7 +12213,7 @@
         <v>26626.28571428571</v>
       </c>
       <c r="AC104" t="n">
-        <v>26626.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AD104" t="n">
         <v>0</v>
@@ -12233,7 +12233,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0104</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0105</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0106</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -12530,16 +12530,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V107" t="n">
-        <v>160317.8571428571</v>
+        <v>106878.5714285714</v>
       </c>
       <c r="W107" t="n">
         <v>160317.8571428571</v>
       </c>
       <c r="X107" t="n">
-        <v>0</v>
+        <v>-53439.28571428571</v>
       </c>
       <c r="Y107" t="n">
-        <v>0</v>
+        <v>53439.28571428571</v>
       </c>
       <c r="Z107" t="n">
         <v>0</v>
@@ -12551,7 +12551,7 @@
         <v>53439.28571428571</v>
       </c>
       <c r="AC107" t="n">
-        <v>53439.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AD107" t="n">
         <v>0</v>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0107</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0108</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0109</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-18-0001</t>
+          <t>FRC-SLM-7.0-F-18-0110</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -12982,16 +12982,16 @@
         <v>0.1</v>
       </c>
       <c r="V111" t="n">
-        <v>20534.4</v>
+        <v>13689.6</v>
       </c>
       <c r="W111" t="n">
         <v>20534.4</v>
       </c>
       <c r="X111" t="n">
-        <v>0</v>
+        <v>-6844.800000000001</v>
       </c>
       <c r="Y111" t="n">
-        <v>0</v>
+        <v>6844.800000000001</v>
       </c>
       <c r="Z111" t="n">
         <v>0</v>
@@ -13003,7 +13003,7 @@
         <v>6844.8</v>
       </c>
       <c r="AC111" t="n">
-        <v>6844.8</v>
+        <v>0</v>
       </c>
       <c r="AD111" t="n">
         <v>0</v>
@@ -13023,7 +13023,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0111</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -13098,16 +13098,16 @@
         <v>0.1</v>
       </c>
       <c r="V112" t="n">
-        <v>7182</v>
+        <v>3591</v>
       </c>
       <c r="W112" t="n">
         <v>7182</v>
       </c>
       <c r="X112" t="n">
-        <v>0</v>
+        <v>-3591</v>
       </c>
       <c r="Y112" t="n">
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="Z112" t="n">
         <v>0</v>
@@ -13119,7 +13119,7 @@
         <v>3591</v>
       </c>
       <c r="AC112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="AD112" t="n">
         <v>0</v>
@@ -13139,7 +13139,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0112</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -13214,16 +13214,16 @@
         <v>0.1</v>
       </c>
       <c r="V113" t="n">
-        <v>4500</v>
+        <v>2250</v>
       </c>
       <c r="W113" t="n">
         <v>4500</v>
       </c>
       <c r="X113" t="n">
-        <v>0</v>
+        <v>-2250</v>
       </c>
       <c r="Y113" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="Z113" t="n">
         <v>0</v>
@@ -13235,7 +13235,7 @@
         <v>2250</v>
       </c>
       <c r="AC113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="AD113" t="n">
         <v>0</v>
@@ -13255,7 +13255,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0113</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -13330,16 +13330,16 @@
         <v>0.1</v>
       </c>
       <c r="V114" t="n">
-        <v>19600</v>
+        <v>9800</v>
       </c>
       <c r="W114" t="n">
         <v>19600</v>
       </c>
       <c r="X114" t="n">
-        <v>0</v>
+        <v>-9800</v>
       </c>
       <c r="Y114" t="n">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="Z114" t="n">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>9800</v>
       </c>
       <c r="AC114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="AD114" t="n">
         <v>0</v>
@@ -13371,7 +13371,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0114</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0115</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-19-0001</t>
+          <t>FRC-SLM-7.0-O-19-0116</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0117</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -13782,16 +13782,16 @@
         <v>0.1</v>
       </c>
       <c r="V118" t="n">
-        <v>9774</v>
+        <v>4887</v>
       </c>
       <c r="W118" t="n">
         <v>9774</v>
       </c>
       <c r="X118" t="n">
-        <v>0</v>
+        <v>-4887</v>
       </c>
       <c r="Y118" t="n">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="Z118" t="n">
         <v>0</v>
@@ -13803,7 +13803,7 @@
         <v>4887</v>
       </c>
       <c r="AC118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="AD118" t="n">
         <v>0</v>
@@ -13823,7 +13823,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0118</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -13935,7 +13935,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-19-0001</t>
+          <t>FRC-SLM-7.0-O-19-0119</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-19-0001</t>
+          <t>FRC-SLM-7.0-O-19-0120</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0121</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -14271,7 +14271,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-19-0001</t>
+          <t>FRC-SLM-7.0-C-19-0122</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-19-0001</t>
+          <t>FRC-SLM-7.0-C-19-0123</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -14495,7 +14495,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-19-0001</t>
+          <t>FRC-SLM-7.0-C-19-0124</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -14607,7 +14607,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-19-0001</t>
+          <t>FRC-SLM-7.0-C-19-0125</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -14719,7 +14719,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0126</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0127</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0128</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -15055,7 +15055,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0129</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -15167,7 +15167,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0130</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -15279,7 +15279,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0131</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0132</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-T-20-0001</t>
+          <t>FRC-SLM-7.0-T-20-0133</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0134</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -15727,7 +15727,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0135</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0136</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0137</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -16063,7 +16063,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-20-0001</t>
+          <t>FRC-SLM-7.0-F-20-0138</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -16175,7 +16175,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0139</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -16287,7 +16287,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-20-0001</t>
+          <t>FRC-SLM-7.0-F-20-0140</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0141</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0142</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-M-21-0001</t>
+          <t>FRC-SLM-7.0-M-21-0143</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -16735,7 +16735,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-M-21-0001</t>
+          <t>FRC-SLM-7.0-M-21-0144</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -16845,7 +16845,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-21-0001</t>
+          <t>FRC-SLM-7.0-O-21-0145</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0146</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -17069,7 +17069,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0147</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-M-21-0001</t>
+          <t>FRC-SLM-7.0-M-21-0148</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0001</t>
+          <t>FRC-SLM-7.0-F-21-0149</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-O-21-0001</t>
+          <t>FRC-SLM-7.0-O-21-0150</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -17515,7 +17515,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0152</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -17629,7 +17629,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0153</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0154</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0155</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -17971,7 +17971,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0156</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -18085,7 +18085,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0157</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -18199,7 +18199,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0158</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -18313,7 +18313,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0159</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -18427,7 +18427,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0160</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -18541,7 +18541,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0161</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0162</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -18769,7 +18769,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0163</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -18883,7 +18883,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0164</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -18997,7 +18997,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0165</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -19111,7 +19111,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0166</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -19225,7 +19225,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0167</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -19339,7 +19339,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0168</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -19453,7 +19453,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0169</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -19568,7 +19568,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0170</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0171</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0172</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -19910,7 +19910,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0173</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0174</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -20138,7 +20138,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0175</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -20252,7 +20252,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0176</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -20366,7 +20366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0177</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0178</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -20594,7 +20594,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0179</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0180</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -20822,7 +20822,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0181</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0182</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -21050,7 +21050,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0183</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -21164,7 +21164,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0184</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -21279,7 +21279,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0185</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -21393,7 +21393,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0186</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -21507,7 +21507,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0187</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -21621,7 +21621,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0188</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -21735,7 +21735,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0189</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -21849,7 +21849,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0190</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -21963,7 +21963,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0191</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -22077,7 +22077,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0192</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -22191,7 +22191,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0193</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -22305,7 +22305,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0194</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -22419,7 +22419,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0195</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -22533,7 +22533,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0196</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -22647,7 +22647,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0197</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -22761,7 +22761,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0001</t>
+          <t>FRC-SLM-7.0-E-21-0198</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -22875,7 +22875,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0001</t>
+          <t>FRC-SLM-7.0-E-21-0199</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -22989,7 +22989,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0200</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0201</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -23217,7 +23217,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0202</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -23331,7 +23331,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0203</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -23445,7 +23445,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0204</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -23559,7 +23559,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0205</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -23673,7 +23673,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0206</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -23787,7 +23787,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0207</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -23901,7 +23901,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0208</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -24015,7 +24015,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0209</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -24129,7 +24129,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0210</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -24243,7 +24243,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0211</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -24357,7 +24357,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0212</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -24471,7 +24471,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0213</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -24585,7 +24585,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0214</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -24699,7 +24699,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0215</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -24813,7 +24813,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0216</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -24927,7 +24927,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0217</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0218</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -25155,7 +25155,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0219</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -25269,7 +25269,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0220</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -25383,7 +25383,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0221</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -25497,7 +25497,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0222</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0223</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -25725,7 +25725,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0224</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -25839,7 +25839,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0225</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -25953,7 +25953,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0226</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -26067,7 +26067,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0227</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -26181,7 +26181,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0228</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -26295,7 +26295,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0229</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -26409,7 +26409,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0230</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0231</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -26637,7 +26637,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0232</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -26751,7 +26751,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0233</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -26865,7 +26865,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0234</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -26979,7 +26979,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0235</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -27093,7 +27093,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0236</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -27207,7 +27207,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-P-21-0002</t>
+          <t>FRC-SLM-7.0-P-21-0237</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -27321,7 +27321,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-P-21-0002</t>
+          <t>FRC-SLM-7.0-P-21-0238</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -27435,7 +27435,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-P-21-0002</t>
+          <t>FRC-SLM-7.0-P-21-0239</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -27549,7 +27549,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-P-21-0002</t>
+          <t>FRC-SLM-7.0-P-21-0240</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -27663,7 +27663,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-P-21-0002</t>
+          <t>FRC-SLM-7.0-P-21-0241</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -27777,7 +27777,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0242</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -27891,7 +27891,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0243</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -28005,7 +28005,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0244</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -28119,7 +28119,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0245</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -28233,7 +28233,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0246</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -28347,7 +28347,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0247</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -28461,7 +28461,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0248</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -28575,7 +28575,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0249</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -28689,7 +28689,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0250</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -28803,7 +28803,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0251</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -28917,7 +28917,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0252</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -29031,7 +29031,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0253</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -29145,7 +29145,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0254</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -29259,7 +29259,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0255</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -29373,7 +29373,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0256</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -29487,7 +29487,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0257</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -29601,7 +29601,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0258</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -29715,7 +29715,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0259</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -29829,7 +29829,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0260</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -29943,7 +29943,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0261</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -30057,7 +30057,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0262</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -30171,7 +30171,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0263</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -30285,7 +30285,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0264</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -30399,7 +30399,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0265</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -30513,7 +30513,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0266</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -30627,7 +30627,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0267</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -30741,7 +30741,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0268</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -30855,7 +30855,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0269</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -30969,7 +30969,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0270</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -31083,7 +31083,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0271</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -31197,7 +31197,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0272</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -31311,7 +31311,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0273</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -31425,7 +31425,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0274</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -31539,7 +31539,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0275</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -31653,7 +31653,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0276</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -31767,7 +31767,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0277</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -31881,7 +31881,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0278</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -31995,7 +31995,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0279</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -32109,7 +32109,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0280</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -32223,7 +32223,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0281</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -32337,7 +32337,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0282</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -32451,7 +32451,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0283</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -32565,7 +32565,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0284</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -32679,7 +32679,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0285</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -32793,7 +32793,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0286</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -32907,7 +32907,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0287</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -33021,7 +33021,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0288</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -33135,7 +33135,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0289</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -33249,7 +33249,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0290</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -33363,7 +33363,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0291</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -33477,7 +33477,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0292</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -33591,7 +33591,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0293</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -33705,7 +33705,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0294</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -33819,7 +33819,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0295</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -33933,7 +33933,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0296</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -34047,7 +34047,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0297</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -34161,7 +34161,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0298</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -34275,7 +34275,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0299</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -34389,7 +34389,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0003</t>
+          <t>FRC-SLM-7.0-F-21-0300</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -34503,7 +34503,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-F-21-0003</t>
+          <t>FRC-SLM-7.0-F-21-0301</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -678,25 +678,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V2" t="n">
-        <v>28431</v>
+        <v>40615.71428571428</v>
       </c>
       <c r="W2" t="n">
         <v>16246.28571428571</v>
       </c>
       <c r="X2" t="n">
-        <v>12184.71428571428</v>
+        <v>24369.42857142857</v>
       </c>
       <c r="Y2" t="n">
-        <v>16246.28571428572</v>
+        <v>4061.571428571431</v>
       </c>
       <c r="Z2" t="n">
-        <v>4061.571428571428</v>
+        <v>8123.142857142857</v>
       </c>
       <c r="AA2" t="n">
-        <v>4061.571428571428</v>
+        <v>8123.142857142857</v>
       </c>
       <c r="AB2" t="n">
-        <v>4061.571428571428</v>
+        <v>8123.142857142857</v>
       </c>
       <c r="AC2" t="n">
         <v>4061.571428571428</v>
@@ -2134,16 +2134,16 @@
         <v>0.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15360</v>
+        <v>11520</v>
       </c>
       <c r="W15" t="n">
         <v>15360</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>-3840</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="Z15" t="n">
         <v>3840</v>
@@ -2155,7 +2155,7 @@
         <v>3840</v>
       </c>
       <c r="AC15" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2474,28 +2474,28 @@
         <v>0.1</v>
       </c>
       <c r="V18" t="n">
-        <v>12058.31643925234</v>
+        <v>9043.73524299066</v>
       </c>
       <c r="W18" t="n">
         <v>12058.31775700934</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.001317757005381281</v>
+        <v>-3014.582514018684</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.003074766353165614</v>
+        <v>3014.578121495326</v>
       </c>
       <c r="Z18" t="n">
-        <v>3014.579439252336</v>
+        <v>3014.579</v>
       </c>
       <c r="AA18" t="n">
-        <v>3014.579439252336</v>
+        <v>3014.579</v>
       </c>
       <c r="AB18" t="n">
-        <v>3014.579439252336</v>
+        <v>3014.579</v>
       </c>
       <c r="AC18" t="n">
-        <v>3014.579439252336</v>
+        <v>-0.0004392523358546896</v>
       </c>
       <c r="AD18" t="n">
         <v>-0.0004392523358546896</v>
@@ -2590,16 +2590,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V19" t="n">
-        <v>10800</v>
+        <v>8100</v>
       </c>
       <c r="W19" t="n">
         <v>10800</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="Z19" t="n">
         <v>2700</v>
@@ -2611,7 +2611,7 @@
         <v>2700</v>
       </c>
       <c r="AC19" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2706,16 +2706,16 @@
         <v>0.1</v>
       </c>
       <c r="V20" t="n">
-        <v>5400</v>
+        <v>4050</v>
       </c>
       <c r="W20" t="n">
         <v>5400</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1350</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="Z20" t="n">
         <v>1350</v>
@@ -2727,7 +2727,7 @@
         <v>1350</v>
       </c>
       <c r="AC20" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -3716,25 +3716,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V29" t="n">
-        <v>28150</v>
+        <v>40214.28571428572</v>
       </c>
       <c r="W29" t="n">
         <v>16085.71428571428</v>
       </c>
       <c r="X29" t="n">
-        <v>12064.28571428572</v>
+        <v>24128.57142857143</v>
       </c>
       <c r="Y29" t="n">
-        <v>16085.71428571428</v>
+        <v>4021.428571428565</v>
       </c>
       <c r="Z29" t="n">
-        <v>4021.428571428571</v>
+        <v>8042.857142857142</v>
       </c>
       <c r="AA29" t="n">
-        <v>4021.428571428571</v>
+        <v>8042.857142857142</v>
       </c>
       <c r="AB29" t="n">
-        <v>4021.428571428571</v>
+        <v>8042.857142857142</v>
       </c>
       <c r="AC29" t="n">
         <v>4021.428571428571</v>
@@ -4724,16 +4724,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V38" t="n">
-        <v>60857.14285714286</v>
+        <v>45642.85714285714</v>
       </c>
       <c r="W38" t="n">
         <v>60857.14285714286</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-15214.28571428571</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>15214.28571428571</v>
       </c>
       <c r="Z38" t="n">
         <v>15214.28571428571</v>
@@ -4745,7 +4745,7 @@
         <v>15214.28571428571</v>
       </c>
       <c r="AC38" t="n">
-        <v>15214.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -5288,16 +5288,16 @@
         <v>0.1</v>
       </c>
       <c r="V43" t="n">
-        <v>5160</v>
+        <v>3870</v>
       </c>
       <c r="W43" t="n">
         <v>5160</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1290</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="Z43" t="n">
         <v>1290</v>
@@ -5309,7 +5309,7 @@
         <v>1290</v>
       </c>
       <c r="AC43" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -5850,16 +5850,16 @@
         <v>0.1</v>
       </c>
       <c r="V48" t="n">
-        <v>19286</v>
+        <v>14464.5</v>
       </c>
       <c r="W48" t="n">
         <v>19286</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>-4821.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>4821.5</v>
       </c>
       <c r="Z48" t="n">
         <v>4821.5</v>
@@ -5871,7 +5871,7 @@
         <v>4821.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>4821.5</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -5966,16 +5966,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V49" t="n">
-        <v>30928</v>
+        <v>23196</v>
       </c>
       <c r="W49" t="n">
         <v>30928</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>-7732</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>7732</v>
       </c>
       <c r="Z49" t="n">
         <v>7732</v>
@@ -5987,7 +5987,7 @@
         <v>7732</v>
       </c>
       <c r="AC49" t="n">
-        <v>7732</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -6082,25 +6082,25 @@
         <v>0.1</v>
       </c>
       <c r="V50" t="n">
-        <v>34034</v>
+        <v>48620</v>
       </c>
       <c r="W50" t="n">
         <v>19448</v>
       </c>
       <c r="X50" t="n">
-        <v>14586</v>
+        <v>29172</v>
       </c>
       <c r="Y50" t="n">
-        <v>34034</v>
+        <v>19448</v>
       </c>
       <c r="Z50" t="n">
-        <v>4862</v>
+        <v>9724</v>
       </c>
       <c r="AA50" t="n">
-        <v>4862</v>
+        <v>9724</v>
       </c>
       <c r="AB50" t="n">
-        <v>4862</v>
+        <v>9724</v>
       </c>
       <c r="AC50" t="n">
         <v>4862</v>
@@ -6198,16 +6198,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V51" t="n">
-        <v>95428.57142857142</v>
+        <v>71571.42857142857</v>
       </c>
       <c r="W51" t="n">
         <v>95428.57142857142</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>-23857.14285714286</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>23857.14285714286</v>
       </c>
       <c r="Z51" t="n">
         <v>23857.14285714286</v>
@@ -6219,7 +6219,7 @@
         <v>23857.14285714286</v>
       </c>
       <c r="AC51" t="n">
-        <v>23857.14285714286</v>
+        <v>0</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -6314,16 +6314,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V52" t="n">
-        <v>220028.5714285714</v>
+        <v>165021.4285714286</v>
       </c>
       <c r="W52" t="n">
         <v>220028.5714285714</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>-55007.14285714284</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>55007.14285714284</v>
       </c>
       <c r="Z52" t="n">
         <v>55007.14285714286</v>
@@ -6335,7 +6335,7 @@
         <v>55007.14285714286</v>
       </c>
       <c r="AC52" t="n">
-        <v>55007.14285714286</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -6430,16 +6430,16 @@
         <v>0.1</v>
       </c>
       <c r="V53" t="n">
-        <v>47960</v>
+        <v>35970</v>
       </c>
       <c r="W53" t="n">
         <v>47960</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>-11990</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>11990</v>
       </c>
       <c r="Z53" t="n">
         <v>11990</v>
@@ -6451,7 +6451,7 @@
         <v>11990</v>
       </c>
       <c r="AC53" t="n">
-        <v>11990</v>
+        <v>0</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -6546,16 +6546,16 @@
         <v>0.1</v>
       </c>
       <c r="V54" t="n">
-        <v>22808.4</v>
+        <v>17106.3</v>
       </c>
       <c r="W54" t="n">
         <v>22808.4</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>-5702.099999999999</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>5702.099999999999</v>
       </c>
       <c r="Z54" t="n">
         <v>5702.1</v>
@@ -6567,7 +6567,7 @@
         <v>5702.1</v>
       </c>
       <c r="AC54" t="n">
-        <v>5702.1</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -6662,28 +6662,28 @@
         <v>0.1</v>
       </c>
       <c r="V55" t="n">
-        <v>4136.940000000001</v>
+        <v>2757.96163265306</v>
       </c>
       <c r="W55" t="n">
         <v>4136.938775510205</v>
       </c>
       <c r="X55" t="n">
-        <v>0.001224489795276895</v>
+        <v>-1378.977142857145</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.002857142853827099</v>
+        <v>1378.981224489794</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>1378.979591836735</v>
+        <v>1378.98</v>
       </c>
       <c r="AB55" t="n">
-        <v>1378.979591836735</v>
+        <v>1378.98</v>
       </c>
       <c r="AC55" t="n">
-        <v>1378.979591836735</v>
+        <v>0.0004081632649103995</v>
       </c>
       <c r="AD55" t="n">
         <v>0.0004081632649103995</v>
@@ -6778,16 +6778,16 @@
         <v>0.1</v>
       </c>
       <c r="V56" t="n">
-        <v>1965</v>
+        <v>1310</v>
       </c>
       <c r="W56" t="n">
         <v>1965</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>-655</v>
       </c>
       <c r="Y56" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>655</v>
       </c>
       <c r="AC56" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -6894,16 +6894,16 @@
         <v>0.1</v>
       </c>
       <c r="V57" t="n">
-        <v>8213.700000000001</v>
+        <v>5475.8</v>
       </c>
       <c r="W57" t="n">
         <v>8213.700000000001</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>-2737.900000000001</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>2737.900000000001</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -6915,7 +6915,7 @@
         <v>2737.9</v>
       </c>
       <c r="AC57" t="n">
-        <v>2737.9</v>
+        <v>0</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -7010,16 +7010,16 @@
         <v>0.1</v>
       </c>
       <c r="V58" t="n">
-        <v>17220</v>
+        <v>11480</v>
       </c>
       <c r="W58" t="n">
         <v>17220</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>-5740</v>
       </c>
       <c r="Y58" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>5740</v>
       </c>
       <c r="AC58" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -7126,16 +7126,16 @@
         <v>0.1</v>
       </c>
       <c r="V59" t="n">
-        <v>10866</v>
+        <v>7244</v>
       </c>
       <c r="W59" t="n">
         <v>10866</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
+        <v>-3622</v>
       </c>
       <c r="Y59" t="n">
-        <v>0</v>
+        <v>3622</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
@@ -7147,7 +7147,7 @@
         <v>3622</v>
       </c>
       <c r="AC59" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -7242,28 +7242,28 @@
         <v>0.1</v>
       </c>
       <c r="V60" t="n">
-        <v>30312.6</v>
+        <v>36375.12</v>
       </c>
       <c r="W60" t="n">
         <v>18187.56</v>
       </c>
       <c r="X60" t="n">
-        <v>12125.04</v>
+        <v>18187.56</v>
       </c>
       <c r="Y60" t="n">
-        <v>28291.76</v>
+        <v>22229.24</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>6062.52</v>
+        <v>10104.2</v>
       </c>
       <c r="AB60" t="n">
-        <v>6062.52</v>
+        <v>10104.2</v>
       </c>
       <c r="AC60" t="n">
-        <v>6062.52</v>
+        <v>4041.68</v>
       </c>
       <c r="AD60" t="n">
         <v>4041.68</v>
@@ -7806,16 +7806,16 @@
         <v>0.1</v>
       </c>
       <c r="V65" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="W65" t="n">
         <v>27000</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>-9000</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>9000</v>
       </c>
       <c r="AC65" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -8370,16 +8370,16 @@
         <v>0.1</v>
       </c>
       <c r="V70" t="n">
-        <v>14094</v>
+        <v>9396</v>
       </c>
       <c r="W70" t="n">
         <v>14094</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>-4698</v>
       </c>
       <c r="Y70" t="n">
-        <v>0</v>
+        <v>4698</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>4698</v>
       </c>
       <c r="AC70" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -10836,16 +10836,16 @@
         <v>0.1</v>
       </c>
       <c r="V92" t="n">
-        <v>93350.40000000001</v>
+        <v>62233.60000000001</v>
       </c>
       <c r="W92" t="n">
         <v>93350.40000000001</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>-31116.8</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>31116.8</v>
       </c>
       <c r="Z92" t="n">
         <v>0</v>
@@ -10857,7 +10857,7 @@
         <v>31116.8</v>
       </c>
       <c r="AC92" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
       <c r="AD92" t="n">
         <v>0</v>
@@ -10952,16 +10952,16 @@
         <v>0.1</v>
       </c>
       <c r="V93" t="n">
-        <v>18144</v>
+        <v>12096</v>
       </c>
       <c r="W93" t="n">
         <v>18144</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>-6048</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>6048</v>
       </c>
       <c r="Z93" t="n">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>6048</v>
       </c>
       <c r="AC93" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
       <c r="AD93" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>0.1</v>
       </c>
       <c r="V94" t="n">
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="W94" t="n">
         <v>4200</v>
       </c>
       <c r="X94" t="n">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="Y94" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="Z94" t="n">
         <v>0</v>
@@ -11089,7 +11089,7 @@
         <v>1400</v>
       </c>
       <c r="AC94" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AD94" t="n">
         <v>0</v>
@@ -11184,16 +11184,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V95" t="n">
-        <v>144672</v>
+        <v>96448</v>
       </c>
       <c r="W95" t="n">
         <v>144672</v>
       </c>
       <c r="X95" t="n">
-        <v>0</v>
+        <v>-48224</v>
       </c>
       <c r="Y95" t="n">
-        <v>0</v>
+        <v>48224</v>
       </c>
       <c r="Z95" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>48224</v>
       </c>
       <c r="AC95" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
       <c r="AD95" t="n">
         <v>0</v>
@@ -12192,16 +12192,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V104" t="n">
-        <v>79878.85714285714</v>
+        <v>53252.57142857143</v>
       </c>
       <c r="W104" t="n">
         <v>79878.85714285714</v>
       </c>
       <c r="X104" t="n">
-        <v>0</v>
+        <v>-26626.28571428572</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>26626.28571428572</v>
       </c>
       <c r="Z104" t="n">
         <v>0</v>
@@ -12213,7 +12213,7 @@
         <v>26626.28571428571</v>
       </c>
       <c r="AC104" t="n">
-        <v>26626.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AD104" t="n">
         <v>0</v>
@@ -12530,16 +12530,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V107" t="n">
-        <v>160317.8571428571</v>
+        <v>106878.5714285714</v>
       </c>
       <c r="W107" t="n">
         <v>160317.8571428571</v>
       </c>
       <c r="X107" t="n">
-        <v>0</v>
+        <v>-53439.28571428571</v>
       </c>
       <c r="Y107" t="n">
-        <v>0</v>
+        <v>53439.28571428571</v>
       </c>
       <c r="Z107" t="n">
         <v>0</v>
@@ -12551,7 +12551,7 @@
         <v>53439.28571428571</v>
       </c>
       <c r="AC107" t="n">
-        <v>53439.28571428571</v>
+        <v>0</v>
       </c>
       <c r="AD107" t="n">
         <v>0</v>
@@ -12982,16 +12982,16 @@
         <v>0.1</v>
       </c>
       <c r="V111" t="n">
-        <v>20534.4</v>
+        <v>13689.6</v>
       </c>
       <c r="W111" t="n">
         <v>20534.4</v>
       </c>
       <c r="X111" t="n">
-        <v>0</v>
+        <v>-6844.800000000001</v>
       </c>
       <c r="Y111" t="n">
-        <v>0</v>
+        <v>6844.800000000001</v>
       </c>
       <c r="Z111" t="n">
         <v>0</v>
@@ -13003,7 +13003,7 @@
         <v>6844.8</v>
       </c>
       <c r="AC111" t="n">
-        <v>6844.8</v>
+        <v>0</v>
       </c>
       <c r="AD111" t="n">
         <v>0</v>
@@ -13098,16 +13098,16 @@
         <v>0.1</v>
       </c>
       <c r="V112" t="n">
-        <v>7182</v>
+        <v>3591</v>
       </c>
       <c r="W112" t="n">
         <v>7182</v>
       </c>
       <c r="X112" t="n">
-        <v>0</v>
+        <v>-3591</v>
       </c>
       <c r="Y112" t="n">
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="Z112" t="n">
         <v>0</v>
@@ -13119,7 +13119,7 @@
         <v>3591</v>
       </c>
       <c r="AC112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="AD112" t="n">
         <v>0</v>
@@ -13214,16 +13214,16 @@
         <v>0.1</v>
       </c>
       <c r="V113" t="n">
-        <v>4500</v>
+        <v>2250</v>
       </c>
       <c r="W113" t="n">
         <v>4500</v>
       </c>
       <c r="X113" t="n">
-        <v>0</v>
+        <v>-2250</v>
       </c>
       <c r="Y113" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="Z113" t="n">
         <v>0</v>
@@ -13235,7 +13235,7 @@
         <v>2250</v>
       </c>
       <c r="AC113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="AD113" t="n">
         <v>0</v>
@@ -13330,16 +13330,16 @@
         <v>0.1</v>
       </c>
       <c r="V114" t="n">
-        <v>19600</v>
+        <v>9800</v>
       </c>
       <c r="W114" t="n">
         <v>19600</v>
       </c>
       <c r="X114" t="n">
-        <v>0</v>
+        <v>-9800</v>
       </c>
       <c r="Y114" t="n">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="Z114" t="n">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>9800</v>
       </c>
       <c r="AC114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="AD114" t="n">
         <v>0</v>
@@ -13782,16 +13782,16 @@
         <v>0.1</v>
       </c>
       <c r="V118" t="n">
-        <v>9774</v>
+        <v>4887</v>
       </c>
       <c r="W118" t="n">
         <v>9774</v>
       </c>
       <c r="X118" t="n">
-        <v>0</v>
+        <v>-4887</v>
       </c>
       <c r="Y118" t="n">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="Z118" t="n">
         <v>0</v>
@@ -13803,7 +13803,7 @@
         <v>4887</v>
       </c>
       <c r="AC118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="AD118" t="n">
         <v>0</v>

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -678,16 +678,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V2" t="n">
-        <v>40615.71428571428</v>
+        <v>44677.28571428571</v>
       </c>
       <c r="W2" t="n">
         <v>16246.28571428571</v>
       </c>
       <c r="X2" t="n">
-        <v>24369.42857142857</v>
+        <v>28431</v>
       </c>
       <c r="Y2" t="n">
-        <v>4061.571428571431</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="Z2" t="n">
         <v>8123.142857142857</v>
@@ -699,7 +699,7 @@
         <v>8123.142857142857</v>
       </c>
       <c r="AC2" t="n">
-        <v>4061.571428571428</v>
+        <v>8123.142857142857</v>
       </c>
       <c r="AD2" t="n">
         <v>4061.571428571428</v>
@@ -2134,16 +2134,16 @@
         <v>0.1</v>
       </c>
       <c r="V15" t="n">
-        <v>11520</v>
+        <v>15360</v>
       </c>
       <c r="W15" t="n">
         <v>15360</v>
       </c>
       <c r="X15" t="n">
-        <v>-3840</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>3840</v>
@@ -2155,7 +2155,7 @@
         <v>3840</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>0.1</v>
       </c>
       <c r="V18" t="n">
-        <v>9043.73524299066</v>
+        <v>12058.314682243</v>
       </c>
       <c r="W18" t="n">
         <v>12058.31775700934</v>
       </c>
       <c r="X18" t="n">
-        <v>-3014.582514018684</v>
+        <v>-0.003074766349527636</v>
       </c>
       <c r="Y18" t="n">
-        <v>3014.578121495326</v>
+        <v>-0.00131775700901926</v>
       </c>
       <c r="Z18" t="n">
         <v>3014.579</v>
@@ -2495,7 +2495,7 @@
         <v>3014.579</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.0004392523358546896</v>
+        <v>3014.579</v>
       </c>
       <c r="AD18" t="n">
         <v>-0.0004392523358546896</v>
@@ -2590,16 +2590,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V19" t="n">
-        <v>8100</v>
+        <v>10800</v>
       </c>
       <c r="W19" t="n">
         <v>10800</v>
       </c>
       <c r="X19" t="n">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
         <v>2700</v>
@@ -2611,7 +2611,7 @@
         <v>2700</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2706,16 +2706,16 @@
         <v>0.1</v>
       </c>
       <c r="V20" t="n">
-        <v>4050</v>
+        <v>5400</v>
       </c>
       <c r="W20" t="n">
         <v>5400</v>
       </c>
       <c r="X20" t="n">
-        <v>-1350</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>1350</v>
@@ -2727,7 +2727,7 @@
         <v>1350</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -3716,16 +3716,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V29" t="n">
-        <v>40214.28571428572</v>
+        <v>44235.71428571428</v>
       </c>
       <c r="W29" t="n">
         <v>16085.71428571428</v>
       </c>
       <c r="X29" t="n">
-        <v>24128.57142857143</v>
+        <v>28150</v>
       </c>
       <c r="Y29" t="n">
-        <v>4021.428571428565</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
         <v>8042.857142857142</v>
@@ -3737,7 +3737,7 @@
         <v>8042.857142857142</v>
       </c>
       <c r="AC29" t="n">
-        <v>4021.428571428571</v>
+        <v>8042.857142857142</v>
       </c>
       <c r="AD29" t="n">
         <v>4021.428571428571</v>
@@ -4724,16 +4724,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V38" t="n">
-        <v>45642.85714285714</v>
+        <v>60857.14285714286</v>
       </c>
       <c r="W38" t="n">
         <v>60857.14285714286</v>
       </c>
       <c r="X38" t="n">
-        <v>-15214.28571428571</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>15214.28571428571</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
         <v>15214.28571428571</v>
@@ -4745,7 +4745,7 @@
         <v>15214.28571428571</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>15214.28571428571</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -5288,16 +5288,16 @@
         <v>0.1</v>
       </c>
       <c r="V43" t="n">
-        <v>3870</v>
+        <v>5160</v>
       </c>
       <c r="W43" t="n">
         <v>5160</v>
       </c>
       <c r="X43" t="n">
-        <v>-1290</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
         <v>1290</v>
@@ -5309,7 +5309,7 @@
         <v>1290</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -5850,16 +5850,16 @@
         <v>0.1</v>
       </c>
       <c r="V48" t="n">
-        <v>14464.5</v>
+        <v>19286</v>
       </c>
       <c r="W48" t="n">
         <v>19286</v>
       </c>
       <c r="X48" t="n">
-        <v>-4821.5</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>4821.5</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
         <v>4821.5</v>
@@ -5871,7 +5871,7 @@
         <v>4821.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>4821.5</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -5966,16 +5966,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V49" t="n">
-        <v>23196</v>
+        <v>30928</v>
       </c>
       <c r="W49" t="n">
         <v>30928</v>
       </c>
       <c r="X49" t="n">
-        <v>-7732</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>7732</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
         <v>7732</v>
@@ -5987,7 +5987,7 @@
         <v>7732</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>7732</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -6082,16 +6082,16 @@
         <v>0.1</v>
       </c>
       <c r="V50" t="n">
-        <v>48620</v>
+        <v>53482</v>
       </c>
       <c r="W50" t="n">
         <v>19448</v>
       </c>
       <c r="X50" t="n">
-        <v>29172</v>
+        <v>34034</v>
       </c>
       <c r="Y50" t="n">
-        <v>19448</v>
+        <v>14586</v>
       </c>
       <c r="Z50" t="n">
         <v>9724</v>
@@ -6103,7 +6103,7 @@
         <v>9724</v>
       </c>
       <c r="AC50" t="n">
-        <v>4862</v>
+        <v>9724</v>
       </c>
       <c r="AD50" t="n">
         <v>4862</v>
@@ -6198,16 +6198,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V51" t="n">
-        <v>71571.42857142857</v>
+        <v>95428.57142857142</v>
       </c>
       <c r="W51" t="n">
         <v>95428.57142857142</v>
       </c>
       <c r="X51" t="n">
-        <v>-23857.14285714286</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>23857.14285714286</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
         <v>23857.14285714286</v>
@@ -6219,7 +6219,7 @@
         <v>23857.14285714286</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>23857.14285714286</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -6314,16 +6314,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V52" t="n">
-        <v>165021.4285714286</v>
+        <v>220028.5714285714</v>
       </c>
       <c r="W52" t="n">
         <v>220028.5714285714</v>
       </c>
       <c r="X52" t="n">
-        <v>-55007.14285714284</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>55007.14285714284</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
         <v>55007.14285714286</v>
@@ -6335,7 +6335,7 @@
         <v>55007.14285714286</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>55007.14285714286</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -6430,16 +6430,16 @@
         <v>0.1</v>
       </c>
       <c r="V53" t="n">
-        <v>35970</v>
+        <v>47960</v>
       </c>
       <c r="W53" t="n">
         <v>47960</v>
       </c>
       <c r="X53" t="n">
-        <v>-11990</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>11990</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
         <v>11990</v>
@@ -6451,7 +6451,7 @@
         <v>11990</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>11990</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -6546,16 +6546,16 @@
         <v>0.1</v>
       </c>
       <c r="V54" t="n">
-        <v>17106.3</v>
+        <v>22808.4</v>
       </c>
       <c r="W54" t="n">
         <v>22808.4</v>
       </c>
       <c r="X54" t="n">
-        <v>-5702.099999999999</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>5702.099999999999</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
         <v>5702.1</v>
@@ -6567,7 +6567,7 @@
         <v>5702.1</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>5702.1</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -6662,16 +6662,16 @@
         <v>0.1</v>
       </c>
       <c r="V55" t="n">
-        <v>2757.96163265306</v>
+        <v>4136.941224489796</v>
       </c>
       <c r="W55" t="n">
         <v>4136.938775510205</v>
       </c>
       <c r="X55" t="n">
-        <v>-1378.977142857145</v>
+        <v>0.00244897959055379</v>
       </c>
       <c r="Y55" t="n">
-        <v>1378.981224489794</v>
+        <v>0.001632653058550204</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>1378.98</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.0004081632649103995</v>
+        <v>1378.98</v>
       </c>
       <c r="AD55" t="n">
         <v>0.0004081632649103995</v>
@@ -6778,16 +6778,16 @@
         <v>0.1</v>
       </c>
       <c r="V56" t="n">
-        <v>1310</v>
+        <v>1965</v>
       </c>
       <c r="W56" t="n">
         <v>1965</v>
       </c>
       <c r="X56" t="n">
-        <v>-655</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>655</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -6894,16 +6894,16 @@
         <v>0.1</v>
       </c>
       <c r="V57" t="n">
-        <v>5475.8</v>
+        <v>8213.700000000001</v>
       </c>
       <c r="W57" t="n">
         <v>8213.700000000001</v>
       </c>
       <c r="X57" t="n">
-        <v>-2737.900000000001</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>2737.900000000001</v>
+        <v>0</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -6915,7 +6915,7 @@
         <v>2737.9</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>2737.9</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -7010,16 +7010,16 @@
         <v>0.1</v>
       </c>
       <c r="V58" t="n">
-        <v>11480</v>
+        <v>17220</v>
       </c>
       <c r="W58" t="n">
         <v>17220</v>
       </c>
       <c r="X58" t="n">
-        <v>-5740</v>
+        <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>5740</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -7126,16 +7126,16 @@
         <v>0.1</v>
       </c>
       <c r="V59" t="n">
-        <v>7244</v>
+        <v>10866</v>
       </c>
       <c r="W59" t="n">
         <v>10866</v>
       </c>
       <c r="X59" t="n">
-        <v>-3622</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
@@ -7147,7 +7147,7 @@
         <v>3622</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>3622</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -7242,16 +7242,16 @@
         <v>0.1</v>
       </c>
       <c r="V60" t="n">
-        <v>36375.12</v>
+        <v>42437.64</v>
       </c>
       <c r="W60" t="n">
         <v>18187.56</v>
       </c>
       <c r="X60" t="n">
-        <v>18187.56</v>
+        <v>24250.08</v>
       </c>
       <c r="Y60" t="n">
-        <v>22229.24</v>
+        <v>16166.72</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
@@ -7263,7 +7263,7 @@
         <v>10104.2</v>
       </c>
       <c r="AC60" t="n">
-        <v>4041.68</v>
+        <v>10104.2</v>
       </c>
       <c r="AD60" t="n">
         <v>4041.68</v>
@@ -7806,16 +7806,16 @@
         <v>0.1</v>
       </c>
       <c r="V65" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="W65" t="n">
         <v>27000</v>
       </c>
       <c r="X65" t="n">
-        <v>-9000</v>
+        <v>0</v>
       </c>
       <c r="Y65" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>9000</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -8370,16 +8370,16 @@
         <v>0.1</v>
       </c>
       <c r="V70" t="n">
-        <v>9396</v>
+        <v>14094</v>
       </c>
       <c r="W70" t="n">
         <v>14094</v>
       </c>
       <c r="X70" t="n">
-        <v>-4698</v>
+        <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>4698</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>4698</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -10836,16 +10836,16 @@
         <v>0.1</v>
       </c>
       <c r="V92" t="n">
-        <v>62233.60000000001</v>
+        <v>93350.40000000001</v>
       </c>
       <c r="W92" t="n">
         <v>93350.40000000001</v>
       </c>
       <c r="X92" t="n">
-        <v>-31116.8</v>
+        <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
       <c r="Z92" t="n">
         <v>0</v>
@@ -10857,7 +10857,7 @@
         <v>31116.8</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>31116.8</v>
       </c>
       <c r="AD92" t="n">
         <v>0</v>
@@ -10952,16 +10952,16 @@
         <v>0.1</v>
       </c>
       <c r="V93" t="n">
-        <v>12096</v>
+        <v>18144</v>
       </c>
       <c r="W93" t="n">
         <v>18144</v>
       </c>
       <c r="X93" t="n">
-        <v>-6048</v>
+        <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
       <c r="Z93" t="n">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>6048</v>
       </c>
       <c r="AC93" t="n">
-        <v>0</v>
+        <v>6048</v>
       </c>
       <c r="AD93" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>0.1</v>
       </c>
       <c r="V94" t="n">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="W94" t="n">
         <v>4200</v>
       </c>
       <c r="X94" t="n">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="Z94" t="n">
         <v>0</v>
@@ -11089,7 +11089,7 @@
         <v>1400</v>
       </c>
       <c r="AC94" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="AD94" t="n">
         <v>0</v>
@@ -11184,16 +11184,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V95" t="n">
-        <v>96448</v>
+        <v>144672</v>
       </c>
       <c r="W95" t="n">
         <v>144672</v>
       </c>
       <c r="X95" t="n">
-        <v>-48224</v>
+        <v>0</v>
       </c>
       <c r="Y95" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
       <c r="Z95" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>48224</v>
       </c>
       <c r="AC95" t="n">
-        <v>0</v>
+        <v>48224</v>
       </c>
       <c r="AD95" t="n">
         <v>0</v>
@@ -12192,16 +12192,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V104" t="n">
-        <v>53252.57142857143</v>
+        <v>79878.85714285714</v>
       </c>
       <c r="W104" t="n">
         <v>79878.85714285714</v>
       </c>
       <c r="X104" t="n">
-        <v>-26626.28571428572</v>
+        <v>0</v>
       </c>
       <c r="Y104" t="n">
-        <v>26626.28571428572</v>
+        <v>0</v>
       </c>
       <c r="Z104" t="n">
         <v>0</v>
@@ -12213,7 +12213,7 @@
         <v>26626.28571428571</v>
       </c>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>26626.28571428571</v>
       </c>
       <c r="AD104" t="n">
         <v>0</v>
@@ -12530,16 +12530,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V107" t="n">
-        <v>106878.5714285714</v>
+        <v>160317.8571428571</v>
       </c>
       <c r="W107" t="n">
         <v>160317.8571428571</v>
       </c>
       <c r="X107" t="n">
-        <v>-53439.28571428571</v>
+        <v>0</v>
       </c>
       <c r="Y107" t="n">
-        <v>53439.28571428571</v>
+        <v>0</v>
       </c>
       <c r="Z107" t="n">
         <v>0</v>
@@ -12551,7 +12551,7 @@
         <v>53439.28571428571</v>
       </c>
       <c r="AC107" t="n">
-        <v>0</v>
+        <v>53439.28571428571</v>
       </c>
       <c r="AD107" t="n">
         <v>0</v>
@@ -12982,16 +12982,16 @@
         <v>0.1</v>
       </c>
       <c r="V111" t="n">
-        <v>13689.6</v>
+        <v>20534.4</v>
       </c>
       <c r="W111" t="n">
         <v>20534.4</v>
       </c>
       <c r="X111" t="n">
-        <v>-6844.800000000001</v>
+        <v>0</v>
       </c>
       <c r="Y111" t="n">
-        <v>6844.800000000001</v>
+        <v>0</v>
       </c>
       <c r="Z111" t="n">
         <v>0</v>
@@ -13003,7 +13003,7 @@
         <v>6844.8</v>
       </c>
       <c r="AC111" t="n">
-        <v>0</v>
+        <v>6844.8</v>
       </c>
       <c r="AD111" t="n">
         <v>0</v>
@@ -13098,16 +13098,16 @@
         <v>0.1</v>
       </c>
       <c r="V112" t="n">
-        <v>3591</v>
+        <v>7182</v>
       </c>
       <c r="W112" t="n">
         <v>7182</v>
       </c>
       <c r="X112" t="n">
-        <v>-3591</v>
+        <v>0</v>
       </c>
       <c r="Y112" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="Z112" t="n">
         <v>0</v>
@@ -13119,7 +13119,7 @@
         <v>3591</v>
       </c>
       <c r="AC112" t="n">
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="AD112" t="n">
         <v>0</v>
@@ -13214,16 +13214,16 @@
         <v>0.1</v>
       </c>
       <c r="V113" t="n">
-        <v>2250</v>
+        <v>4500</v>
       </c>
       <c r="W113" t="n">
         <v>4500</v>
       </c>
       <c r="X113" t="n">
-        <v>-2250</v>
+        <v>0</v>
       </c>
       <c r="Y113" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="Z113" t="n">
         <v>0</v>
@@ -13235,7 +13235,7 @@
         <v>2250</v>
       </c>
       <c r="AC113" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="AD113" t="n">
         <v>0</v>
@@ -13330,16 +13330,16 @@
         <v>0.1</v>
       </c>
       <c r="V114" t="n">
-        <v>9800</v>
+        <v>19600</v>
       </c>
       <c r="W114" t="n">
         <v>19600</v>
       </c>
       <c r="X114" t="n">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="Y114" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="Z114" t="n">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>9800</v>
       </c>
       <c r="AC114" t="n">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="AD114" t="n">
         <v>0</v>
@@ -13782,16 +13782,16 @@
         <v>0.1</v>
       </c>
       <c r="V118" t="n">
-        <v>4887</v>
+        <v>9774</v>
       </c>
       <c r="W118" t="n">
         <v>9774</v>
       </c>
       <c r="X118" t="n">
-        <v>-4887</v>
+        <v>0</v>
       </c>
       <c r="Y118" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="Z118" t="n">
         <v>0</v>
@@ -13803,7 +13803,7 @@
         <v>4887</v>
       </c>
       <c r="AC118" t="n">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="AD118" t="n">
         <v>0</v>

--- a/afar_project/csv_path/sample/depreciation.xlsx
+++ b/afar_project/csv_path/sample/depreciation.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0001</t>
+          <t>FRC-HQ-SLM-O-17-0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0002</t>
+          <t>FRC-HQ-SLM-O-17-0002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0003</t>
+          <t>FRC-HQ-SLM-O-17-0003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0004</t>
+          <t>FRC-HQ-SLM-O-17-0004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0005</t>
+          <t>FRC-HQ-SLM-O-17-0005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0006</t>
+          <t>FRC-HQ-SLM-O-17-0006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0007</t>
+          <t>FRC-HQ-SLM-O-17-0007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0008</t>
+          <t>FRC-HQ-SLM-O-17-0008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0009</t>
+          <t>FRC-HQ-SLM-O-17-0009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-17-0010</t>
+          <t>FRC-HQ-SLM-C-17-0010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-17-0011</t>
+          <t>FRC-HQ-SLM-C-17-0011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0012</t>
+          <t>FRC-HQ-SLM-O-17-0012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0013</t>
+          <t>FRC-HQ-SLM-O-17-0013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0014</t>
+          <t>FRC-HQ-SLM-F-17-0014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0015</t>
+          <t>FRC-HQ-SLM-O-17-0015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0016</t>
+          <t>FRC-HQ-SLM-O-17-0016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0017</t>
+          <t>FRC-HQ-SLM-F-17-0017</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0018</t>
+          <t>FRC-HQ-SLM-O-17-0018</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0019</t>
+          <t>FRC-HQ-SLM-F-17-0019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0020</t>
+          <t>FRC-HQ-SLM-F-17-0020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0021</t>
+          <t>FRC-HQ-SLM-O-17-0021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0022</t>
+          <t>FRC-HQ-SLM-O-17-0022</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0023</t>
+          <t>FRC-HQ-SLM-O-17-0023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0024</t>
+          <t>FRC-HQ-SLM-F-17-0024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0025</t>
+          <t>FRC-HQ-SLM-F-17-0025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0026</t>
+          <t>FRC-HQ-SLM-F-17-0026</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0027</t>
+          <t>FRC-HQ-SLM-F-17-0027</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0028</t>
+          <t>FRC-HQ-SLM-O-17-0028</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0029</t>
+          <t>FRC-HQ-SLM-F-17-0029</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0030</t>
+          <t>FRC-HQ-SLM-F-17-0030</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0031</t>
+          <t>FRC-HQ-SLM-F-17-0031</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0032</t>
+          <t>FRC-HQ-SLM-O-17-0032</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0033</t>
+          <t>FRC-HQ-SLM-F-17-0033</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0034</t>
+          <t>FRC-HQ-SLM-O-17-0034</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0035</t>
+          <t>FRC-HQ-SLM-F-17-0035</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0036</t>
+          <t>FRC-HQ-SLM-O-17-0036</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0037</t>
+          <t>FRC-HQ-SLM-O-17-0037</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0038</t>
+          <t>FRC-HQ-SLM-O-17-0038</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0039</t>
+          <t>FRC-HQ-SLM-F-17-0039</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0040</t>
+          <t>FRC-HQ-SLM-F-17-0040</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0041</t>
+          <t>FRC-HQ-SLM-O-17-0041</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0042</t>
+          <t>FRC-HQ-SLM-F-17-0042</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0043</t>
+          <t>FRC-HQ-SLM-F-17-0043</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0044</t>
+          <t>FRC-HQ-SLM-F-17-0044</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-T-17-0045</t>
+          <t>FRC-HQ-SLM-T-17-0045</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-T-17-0046</t>
+          <t>FRC-HQ-SLM-T-17-0046</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0047</t>
+          <t>FRC-HQ-SLM-F-17-0047</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0048</t>
+          <t>FRC-HQ-SLM-O-17-0048</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0049</t>
+          <t>FRC-HQ-SLM-F-17-0049</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0050</t>
+          <t>FRC-HQ-SLM-O-17-0050</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-17-0051</t>
+          <t>FRC-HQ-SLM-O-17-0051</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0052</t>
+          <t>FRC-HQ-SLM-F-17-0052</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-17-0053</t>
+          <t>FRC-HQ-SLM-F-17-0053</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0054</t>
+          <t>FRC-HQ-SLM-F-18-0054</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0055</t>
+          <t>FRC-HQ-SLM-F-18-0055</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0056</t>
+          <t>FRC-HQ-SLM-F-18-0056</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0057</t>
+          <t>FRC-HQ-SLM-F-18-0057</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0058</t>
+          <t>FRC-HQ-SLM-F-18-0058</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0059</t>
+          <t>FRC-HQ-SLM-F-18-0059</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0060</t>
+          <t>FRC-HQ-SLM-C-18-0060</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0061</t>
+          <t>FRC-HQ-SLM-C-18-0061</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0062</t>
+          <t>FRC-HQ-SLM-O-18-0062</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0063</t>
+          <t>FRC-HQ-SLM-F-18-0063</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0064</t>
+          <t>FRC-HQ-SLM-F-18-0064</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0065</t>
+          <t>FRC-HQ-SLM-C-18-0065</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0066</t>
+          <t>FRC-HQ-SLM-C-18-0066</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0067</t>
+          <t>FRC-HQ-SLM-F-18-0067</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0068</t>
+          <t>FRC-HQ-SLM-F-18-0068</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0069</t>
+          <t>FRC-HQ-SLM-F-18-0069</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0070</t>
+          <t>FRC-HQ-SLM-F-18-0070</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0071</t>
+          <t>FRC-HQ-SLM-C-18-0071</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0072</t>
+          <t>FRC-HQ-SLM-F-18-0072</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0073</t>
+          <t>FRC-HQ-SLM-F-18-0073</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0074</t>
+          <t>FRC-HQ-SLM-F-18-0074</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0075</t>
+          <t>FRC-HQ-SLM-F-18-0075</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-T-18-0076</t>
+          <t>FRC-HQ-SLM-T-18-0076</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0077</t>
+          <t>FRC-HQ-SLM-F-18-0077</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0078</t>
+          <t>FRC-HQ-SLM-F-18-0078</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0079</t>
+          <t>FRC-HQ-SLM-F-18-0079</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0080</t>
+          <t>FRC-HQ-SLM-C-18-0080</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0081</t>
+          <t>FRC-HQ-SLM-C-18-0081</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0082</t>
+          <t>FRC-HQ-SLM-C-18-0082</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0083</t>
+          <t>FRC-HQ-SLM-C-18-0083</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0084</t>
+          <t>FRC-HQ-SLM-O-18-0084</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0085</t>
+          <t>FRC-HQ-SLM-C-18-0085</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0086</t>
+          <t>FRC-HQ-SLM-C-18-0086</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0087</t>
+          <t>FRC-HQ-SLM-O-18-0087</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0088</t>
+          <t>FRC-HQ-SLM-C-18-0088</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0089</t>
+          <t>FRC-HQ-SLM-C-18-0089</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-18-0090</t>
+          <t>FRC-HQ-SLM-C-18-0090</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0091</t>
+          <t>FRC-HQ-SLM-F-18-0091</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0092</t>
+          <t>FRC-HQ-SLM-F-18-0092</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10993,7 +10993,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0093</t>
+          <t>FRC-HQ-SLM-F-18-0093</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0094</t>
+          <t>FRC-HQ-SLM-O-18-0094</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0095</t>
+          <t>FRC-HQ-SLM-F-18-0095</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0096</t>
+          <t>FRC-HQ-SLM-O-18-0096</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-T-18-0097</t>
+          <t>FRC-HQ-SLM-T-18-0097</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -11557,7 +11557,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-M-18-0098</t>
+          <t>FRC-HQ-SLM-M-18-0098</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-M-18-0099</t>
+          <t>FRC-HQ-SLM-M-18-0099</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0100</t>
+          <t>FRC-HQ-SLM-O-18-0100</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -11893,7 +11893,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0101</t>
+          <t>FRC-HQ-SLM-O-18-0101</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -12005,7 +12005,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0102</t>
+          <t>FRC-HQ-SLM-O-18-0102</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0103</t>
+          <t>FRC-HQ-SLM-O-18-0103</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0104</t>
+          <t>FRC-HQ-SLM-O-18-0104</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0105</t>
+          <t>FRC-HQ-SLM-O-18-0105</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0106</t>
+          <t>FRC-HQ-SLM-O-18-0106</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0107</t>
+          <t>FRC-HQ-SLM-O-18-0107</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0108</t>
+          <t>FRC-HQ-SLM-O-18-0108</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-18-0109</t>
+          <t>FRC-HQ-SLM-O-18-0109</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-18-0110</t>
+          <t>FRC-HQ-SLM-F-18-0110</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0111</t>
+          <t>FRC-HQ-SLM-F-19-0111</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -13139,7 +13139,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0112</t>
+          <t>FRC-HQ-SLM-F-19-0112</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0113</t>
+          <t>FRC-HQ-SLM-F-19-0113</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0114</t>
+          <t>FRC-HQ-SLM-F-19-0114</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0115</t>
+          <t>FRC-HQ-SLM-F-19-0115</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-19-0116</t>
+          <t>FRC-HQ-SLM-O-19-0116</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0117</t>
+          <t>FRC-HQ-SLM-F-19-0117</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0118</t>
+          <t>FRC-HQ-SLM-F-19-0118</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -13935,7 +13935,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-19-0119</t>
+          <t>FRC-HQ-SLM-O-19-0119</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-19-0120</t>
+          <t>FRC-HQ-SLM-O-19-0120</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0121</t>
+          <t>FRC-HQ-SLM-F-19-0121</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -14271,7 +14271,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-19-0122</t>
+          <t>FRC-HQ-SLM-C-19-0122</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-19-0123</t>
+          <t>FRC-HQ-SLM-C-19-0123</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -14495,7 +14495,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-19-0124</t>
+          <t>FRC-HQ-SLM-C-19-0124</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -14607,7 +14607,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-19-0125</t>
+          <t>FRC-HQ-SLM-C-19-0125</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -14719,7 +14719,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0126</t>
+          <t>FRC-HQ-SLM-F-19-0126</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0127</t>
+          <t>FRC-HQ-SLM-F-19-0127</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-19-0128</t>
+          <t>FRC-HQ-SLM-F-19-0128</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -15055,7 +15055,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0129</t>
+          <t>FRC-HQ-SLM-C-20-0129</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -15167,7 +15167,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0130</t>
+          <t>FRC-HQ-SLM-C-20-0130</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -15279,7 +15279,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0131</t>
+          <t>FRC-HQ-SLM-C-20-0131</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0132</t>
+          <t>FRC-HQ-SLM-C-20-0132</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-T-20-0133</t>
+          <t>FRC-HQ-SLM-T-20-0133</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0134</t>
+          <t>FRC-HQ-SLM-C-20-0134</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -15727,7 +15727,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0135</t>
+          <t>FRC-HQ-SLM-C-20-0135</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0136</t>
+          <t>FRC-HQ-SLM-C-20-0136</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0137</t>
+          <t>FRC-HQ-SLM-C-20-0137</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -16063,7 +16063,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-20-0138</t>
+          <t>FRC-HQ-SLM-F-20-0138</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -16175,7 +16175,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0139</t>
+          <t>FRC-HQ-SLM-C-20-0139</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -16287,7 +16287,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-20-0140</t>
+          <t>FRC-HQ-SLM-F-20-0140</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0141</t>
+          <t>FRC-HQ-SLM-C-20-0141</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-20-0142</t>
+          <t>FRC-HQ-SLM-C-20-0142</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-M-21-0143</t>
+          <t>FRC-HQ-SLM-M-21-0143</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -16735,7 +16735,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-M-21-0144</t>
+          <t>FRC-HQ-SLM-M-21-0144</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -16845,7 +16845,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-21-0145</t>
+          <t>FRC-HQ-SLM-O-21-0145</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0146</t>
+          <t>FRC-HQ-SLM-C-21-0146</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -17069,7 +17069,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0147</t>
+          <t>FRC-HQ-SLM-C-21-0147</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-M-21-0148</t>
+          <t>FRC-HQ-SLM-M-21-0148</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0149</t>
+          <t>FRC-HQ-SLM-F-21-0149</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-O-21-0150</t>
+          <t>FRC-HQ-SLM-O-21-0150</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -17515,7 +17515,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0152</t>
+          <t>FRC-HQ-SLM-C-21-0152</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -17629,7 +17629,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0153</t>
+          <t>FRC-HQ-SLM-C-21-0153</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0154</t>
+          <t>FRC-HQ-SLM-C-21-0154</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0155</t>
+          <t>FRC-HQ-SLM-C-21-0155</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -17971,7 +17971,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0156</t>
+          <t>FRC-HQ-SLM-C-21-0156</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -18085,7 +18085,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0157</t>
+          <t>FRC-HQ-SLM-C-21-0157</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -18199,7 +18199,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0158</t>
+          <t>FRC-HQ-SLM-C-21-0158</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -18313,7 +18313,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0159</t>
+          <t>FRC-HQ-SLM-C-21-0159</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -18427,7 +18427,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0160</t>
+          <t>FRC-HQ-SLM-C-21-0160</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -18541,7 +18541,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-C-21-0161</t>
+          <t>FRC-HQ-SLM-C-21-0161</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0162</t>
+          <t>FRC-HQ-SLM-I-21-0162</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -18769,7 +18769,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0163</t>
+          <t>FRC-HQ-SLM-I-21-0163</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -18883,7 +18883,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0164</t>
+          <t>FRC-HQ-SLM-I-21-0164</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -18997,7 +18997,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0165</t>
+          <t>FRC-HQ-SLM-I-21-0165</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -19111,7 +19111,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0166</t>
+          <t>FRC-HQ-SLM-I-21-0166</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -19225,7 +19225,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0167</t>
+          <t>FRC-HQ-SLM-I-21-0167</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -19339,7 +19339,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0168</t>
+          <t>FRC-HQ-SLM-I-21-0168</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -19453,7 +19453,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0169</t>
+          <t>FRC-HQ-SLM-I-21-0169</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -19568,7 +19568,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0170</t>
+          <t>FRC-HQ-SLM-I-21-0170</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0171</t>
+          <t>FRC-HQ-SLM-I-21-0171</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0172</t>
+          <t>FRC-HQ-SLM-I-21-0172</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -19910,7 +19910,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0173</t>
+          <t>FRC-HQ-SLM-S-21-0173</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0174</t>
+          <t>FRC-HQ-SLM-S-21-0174</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -20138,7 +20138,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0175</t>
+          <t>FRC-HQ-SLM-S-21-0175</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -20252,7 +20252,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0176</t>
+          <t>FRC-HQ-SLM-S-21-0176</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -20366,7 +20366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0177</t>
+          <t>FRC-HQ-SLM-S-21-0177</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0178</t>
+          <t>FRC-HQ-SLM-S-21-0178</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -20594,7 +20594,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0179</t>
+          <t>FRC-HQ-SLM-S-21-0179</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0180</t>
+          <t>FRC-HQ-SLM-S-21-0180</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -20822,7 +20822,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0181</t>
+          <t>FRC-HQ-SLM-S-21-0181</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0182</t>
+          <t>FRC-HQ-SLM-S-21-0182</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -21050,7 +21050,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0183</t>
+          <t>FRC-HQ-SLM-S-21-0183</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -21164,7 +21164,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0184</t>
+          <t>FRC-HQ-SLM-S-21-0184</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -21279,7 +21279,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0185</t>
+          <t>FRC-HQ-SLM-S-21-0185</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -21393,7 +21393,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0186</t>
+          <t>FRC-HQ-SLM-S-21-0186</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -21507,7 +21507,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0187</t>
+          <t>FRC-HQ-SLM-S-21-0187</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -21621,7 +21621,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0188</t>
+          <t>FRC-HQ-SLM-S-21-0188</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -21735,7 +21735,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0189</t>
+          <t>FRC-HQ-SLM-S-21-0189</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -21849,7 +21849,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0190</t>
+          <t>FRC-HQ-SLM-S-21-0190</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -21963,7 +21963,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0191</t>
+          <t>FRC-HQ-SLM-S-21-0191</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -22077,7 +22077,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0192</t>
+          <t>FRC-HQ-SLM-S-21-0192</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -22191,7 +22191,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0193</t>
+          <t>FRC-HQ-SLM-S-21-0193</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -22305,7 +22305,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0194</t>
+          <t>FRC-HQ-SLM-S-21-0194</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -22419,7 +22419,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0195</t>
+          <t>FRC-HQ-SLM-S-21-0195</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -22533,7 +22533,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0196</t>
+          <t>FRC-HQ-SLM-S-21-0196</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -22647,7 +22647,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-S-21-0197</t>
+          <t>FRC-HQ-SLM-S-21-0197</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -22761,7 +22761,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0198</t>
+          <t>FRC-HQ-SLM-E-21-0198</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -22875,7 +22875,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0199</t>
+          <t>FRC-HQ-SLM-E-21-0199</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -22989,7 +22989,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0200</t>
+          <t>FRC-HQ-SLM-E-21-0200</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0201</t>
+          <t>FRC-HQ-SLM-E-21-0201</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -23217,7 +23217,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0202</t>
+          <t>FRC-HQ-SLM-E-21-0202</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -23331,7 +23331,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0203</t>
+          <t>FRC-HQ-SLM-E-21-0203</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -23445,7 +23445,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0204</t>
+          <t>FRC-HQ-SLM-E-21-0204</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -23559,7 +23559,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0205</t>
+          <t>FRC-HQ-SLM-E-21-0205</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -23673,7 +23673,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0206</t>
+          <t>FRC-HQ-SLM-E-21-0206</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -23787,7 +23787,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0207</t>
+          <t>FRC-HQ-SLM-E-21-0207</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -23901,7 +23901,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0208</t>
+          <t>FRC-HQ-SLM-E-21-0208</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -24015,7 +24015,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0209</t>
+          <t>FRC-HQ-SLM-E-21-0209</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -24129,7 +24129,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0210</t>
+          <t>FRC-HQ-SLM-E-21-0210</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -24243,7 +24243,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0211</t>
+          <t>FRC-HQ-SLM-E-21-0211</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -24357,7 +24357,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0212</t>
+          <t>FRC-HQ-SLM-E-21-0212</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -24471,7 +24471,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0213</t>
+          <t>FRC-HQ-SLM-E-21-0213</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -24585,7 +24585,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0214</t>
+          <t>FRC-HQ-SLM-E-21-0214</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -24699,7 +24699,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0215</t>
+          <t>FRC-HQ-SLM-E-21-0215</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -24813,7 +24813,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0216</t>
+          <t>FRC-HQ-SLM-E-21-0216</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -24927,7 +24927,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0217</t>
+          <t>FRC-HQ-SLM-E-21-0217</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0218</t>
+          <t>FRC-HQ-SLM-E-21-0218</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -25155,7 +25155,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0219</t>
+          <t>FRC-HQ-SLM-E-21-0219</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -25269,7 +25269,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0220</t>
+          <t>FRC-HQ-SLM-E-21-0220</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -25383,7 +25383,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0221</t>
+          <t>FRC-HQ-SLM-E-21-0221</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -25497,7 +25497,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0222</t>
+          <t>FRC-HQ-SLM-E-21-0222</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0223</t>
+          <t>FRC-HQ-SLM-E-21-0223</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -25725,7 +25725,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0224</t>
+          <t>FRC-HQ-SLM-E-21-0224</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -25839,7 +25839,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0225</t>
+          <t>FRC-HQ-SLM-E-21-0225</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -25953,7 +25953,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0226</t>
+          <t>FRC-HQ-SLM-E-21-0226</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -26067,7 +26067,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0227</t>
+          <t>FRC-HQ-SLM-E-21-0227</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -26181,7 +26181,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0228</t>
+          <t>FRC-HQ-SLM-E-21-0228</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -26295,7 +26295,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0229</t>
+          <t>FRC-HQ-SLM-E-21-0229</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -26409,7 +26409,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0230</t>
+          <t>FRC-HQ-SLM-E-21-0230</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0231</t>
+          <t>FRC-HQ-SLM-E-21-0231</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -26637,7 +26637,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0232</t>
+          <t>FRC-HQ-SLM-E-21-0232</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -26751,7 +26751,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0233</t>
+          <t>FRC-HQ-SLM-E-21-0233</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -26865,7 +26865,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0234</t>
+          <t>FRC-HQ-SLM-E-21-0234</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -26979,7 +26979,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0235</t>
+          <t>FRC-HQ-SLM-E-21-0235</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -27093,7 +27093,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-E-21-0236</t>
+          <t>FRC-HQ-SLM-E-21-0236</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -27207,7 +27207,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-P-21-0237</t>
+          <t>FRC-HQ-SLM-P-21-0237</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -27321,7 +27321,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-P-21-0238</t>
+          <t>FRC-HQ-SLM-P-21-0238</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -27435,7 +27435,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-P-21-0239</t>
+          <t>FRC-HQ-SLM-P-21-0239</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -27549,7 +27549,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-P-21-0240</t>
+          <t>FRC-HQ-SLM-P-21-0240</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -27663,7 +27663,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-P-21-0241</t>
+          <t>FRC-HQ-SLM-P-21-0241</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -27777,7 +27777,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0242</t>
+          <t>FRC-HQ-SLM-I-21-0242</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -27891,7 +27891,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0243</t>
+          <t>FRC-HQ-SLM-I-21-0243</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -28005,7 +28005,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0244</t>
+          <t>FRC-HQ-SLM-I-21-0244</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -28119,7 +28119,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0245</t>
+          <t>FRC-HQ-SLM-I-21-0245</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -28233,7 +28233,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0246</t>
+          <t>FRC-HQ-SLM-I-21-0246</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -28347,7 +28347,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0247</t>
+          <t>FRC-HQ-SLM-I-21-0247</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -28461,7 +28461,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0248</t>
+          <t>FRC-HQ-SLM-I-21-0248</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -28575,7 +28575,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0249</t>
+          <t>FRC-HQ-SLM-I-21-0249</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -28689,7 +28689,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0250</t>
+          <t>FRC-HQ-SLM-I-21-0250</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -28803,7 +28803,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0251</t>
+          <t>FRC-HQ-SLM-I-21-0251</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -28917,7 +28917,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0252</t>
+          <t>FRC-HQ-SLM-I-21-0252</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -29031,7 +29031,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0253</t>
+          <t>FRC-HQ-SLM-I-21-0253</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -29145,7 +29145,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0254</t>
+          <t>FRC-HQ-SLM-I-21-0254</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -29259,7 +29259,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0255</t>
+          <t>FRC-HQ-SLM-I-21-0255</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -29373,7 +29373,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0256</t>
+          <t>FRC-HQ-SLM-I-21-0256</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -29487,7 +29487,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0257</t>
+          <t>FRC-HQ-SLM-I-21-0257</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -29601,7 +29601,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0258</t>
+          <t>FRC-HQ-SLM-I-21-0258</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -29715,7 +29715,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0259</t>
+          <t>FRC-HQ-SLM-I-21-0259</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -29829,7 +29829,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0260</t>
+          <t>FRC-HQ-SLM-I-21-0260</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -29943,7 +29943,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0261</t>
+          <t>FRC-HQ-SLM-I-21-0261</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -30057,7 +30057,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0262</t>
+          <t>FRC-HQ-SLM-I-21-0262</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -30171,7 +30171,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0263</t>
+          <t>FRC-HQ-SLM-I-21-0263</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -30285,7 +30285,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0264</t>
+          <t>FRC-HQ-SLM-I-21-0264</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -30399,7 +30399,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0265</t>
+          <t>FRC-HQ-SLM-I-21-0265</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -30513,7 +30513,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0266</t>
+          <t>FRC-HQ-SLM-I-21-0266</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -30627,7 +30627,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0267</t>
+          <t>FRC-HQ-SLM-I-21-0267</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -30741,7 +30741,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0268</t>
+          <t>FRC-HQ-SLM-I-21-0268</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -30855,7 +30855,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0269</t>
+          <t>FRC-HQ-SLM-I-21-0269</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -30969,7 +30969,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0270</t>
+          <t>FRC-HQ-SLM-I-21-0270</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -31083,7 +31083,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0271</t>
+          <t>FRC-HQ-SLM-I-21-0271</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -31197,7 +31197,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0272</t>
+          <t>FRC-HQ-SLM-I-21-0272</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -31311,7 +31311,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0273</t>
+          <t>FRC-HQ-SLM-I-21-0273</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -31425,7 +31425,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-I-21-0274</t>
+          <t>FRC-HQ-SLM-I-21-0274</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -31539,7 +31539,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0275</t>
+          <t>FRC-HQ-SLM-F-21-0275</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -31653,7 +31653,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0276</t>
+          <t>FRC-HQ-SLM-F-21-0276</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -31767,7 +31767,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0277</t>
+          <t>FRC-HQ-SLM-F-21-0277</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -31881,7 +31881,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0278</t>
+          <t>FRC-HQ-SLM-F-21-0278</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -31995,7 +31995,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0279</t>
+          <t>FRC-HQ-SLM-F-21-0279</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -32109,7 +32109,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0280</t>
+          <t>FRC-HQ-SLM-F-21-0280</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -32223,7 +32223,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0281</t>
+          <t>FRC-HQ-SLM-F-21-0281</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -32337,7 +32337,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0282</t>
+          <t>FRC-HQ-SLM-F-21-0282</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -32451,7 +32451,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0283</t>
+          <t>FRC-HQ-SLM-F-21-0283</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -32565,7 +32565,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0284</t>
+          <t>FRC-HQ-SLM-F-21-0284</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -32679,7 +32679,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0285</t>
+          <t>FRC-HQ-SLM-F-21-0285</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -32793,7 +32793,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0286</t>
+          <t>FRC-HQ-SLM-F-21-0286</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -32907,7 +32907,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0287</t>
+          <t>FRC-HQ-SLM-F-21-0287</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -33021,7 +33021,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0288</t>
+          <t>FRC-HQ-SLM-F-21-0288</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -33135,7 +33135,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0289</t>
+          <t>FRC-HQ-SLM-F-21-0289</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -33249,7 +33249,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0290</t>
+          <t>FRC-HQ-SLM-F-21-0290</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -33363,7 +33363,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0291</t>
+          <t>FRC-HQ-SLM-F-21-0291</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -33477,7 +33477,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0292</t>
+          <t>FRC-HQ-SLM-F-21-0292</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -33591,7 +33591,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0293</t>
+          <t>FRC-HQ-SLM-F-21-0293</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -33705,7 +33705,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0294</t>
+          <t>FRC-HQ-SLM-F-21-0294</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -33819,7 +33819,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0295</t>
+          <t>FRC-HQ-SLM-F-21-0295</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -33933,7 +33933,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0296</t>
+          <t>FRC-HQ-SLM-F-21-0296</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -34047,7 +34047,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0297</t>
+          <t>FRC-HQ-SLM-F-21-0297</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -34161,7 +34161,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0298</t>
+          <t>FRC-HQ-SLM-F-21-0298</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -34275,7 +34275,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0299</t>
+          <t>FRC-HQ-SLM-F-21-0299</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -34389,7 +34389,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0300</t>
+          <t>FRC-HQ-SLM-F-21-0300</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -34503,7 +34503,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FRC-SLM-7.0-F-21-0301</t>
+          <t>FRC-HQ-SLM-F-21-0301</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
